--- a/SALAMANCA UDS 2324.xlsx
+++ b/SALAMANCA UDS 2324.xlsx
@@ -36,6 +36,7 @@
     <definedName name="Grupo_de_Empate__Criterio_1__Equipo_Local">Clasificacion!$M$2:$M$1048576</definedName>
     <definedName name="Grupo_de_Empate_Criterio_1__Equipo_Visitante">Clasificacion!$N$2:$N$1048576</definedName>
     <definedName name="JORNADA">Clasificacion!$A$2:$A$1048576</definedName>
+    <definedName name="Titularidades1Vuelta">'Estadisticas 1º Vuelta'!$B$2:$C$22</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31081,8 +31082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32154,37 +32155,49 @@
       <c r="U25" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="V25" s="22"/>
+      <c r="V25" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="U26" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="V26" s="22"/>
+      <c r="V26" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="U27" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="V27" s="22"/>
+      <c r="V27" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="U28" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="V28" s="22"/>
+      <c r="V28" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="U29" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="V29" s="22"/>
+      <c r="V29" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="U30" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="V30" s="22"/>
+      <c r="V30" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="U31" s="50" t="s">
@@ -32198,7 +32211,9 @@
       <c r="U32" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="V32" s="22"/>
+      <c r="V32" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="5:22" x14ac:dyDescent="0.2">
       <c r="U33" s="50" t="s">
@@ -32210,7 +32225,9 @@
     </row>
     <row r="34" spans="5:22" x14ac:dyDescent="0.2">
       <c r="U34" s="76"/>
-      <c r="V34" s="77"/>
+      <c r="V34" s="77">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="5:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="5:22" ht="19" x14ac:dyDescent="0.25">

--- a/SALAMANCA UDS 2324.xlsx
+++ b/SALAMANCA UDS 2324.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PRETEMPORADA" sheetId="10" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3238" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3339" uniqueCount="189">
   <si>
     <t>Jugadores</t>
   </si>
@@ -863,6 +863,35 @@
   <si>
     <t>2 - 0</t>
   </si>
+  <si>
+    <t>0 - 4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 01/10/2023</t>
+    </r>
+  </si>
+  <si>
+    <t>CD. LAGUNA</t>
+  </si>
 </sst>
 </file>
 
@@ -1483,7 +1512,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1771,8 +1800,38 @@
     <xf numFmtId="49" fontId="3" fillId="15" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1786,16 +1845,22 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1804,25 +1869,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2388,85 +2435,85 @@
       <c r="B2" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="125" t="s">
+      <c r="C2" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
       <c r="F2" s="23" t="s">
         <v>53</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="125" t="s">
+      <c r="I2" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
       <c r="L2" s="34" t="s">
         <v>68</v>
       </c>
       <c r="N2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="125" t="s">
+      <c r="O2" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
       <c r="R2" s="35" t="s">
         <v>71</v>
       </c>
       <c r="T2" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="U2" s="125" t="s">
+      <c r="U2" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
       <c r="X2" s="45" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:24" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="126" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128" t="s">
+      <c r="B3" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="129"/>
-      <c r="H3" s="126" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="128" t="s">
+      <c r="F3" s="139"/>
+      <c r="H3" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="129"/>
-      <c r="N3" s="126" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="128" t="s">
+      <c r="L3" s="139"/>
+      <c r="N3" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="129"/>
-      <c r="T3" s="130" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="131"/>
-      <c r="V3" s="131"/>
-      <c r="W3" s="132" t="s">
+      <c r="R3" s="139"/>
+      <c r="T3" s="132" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="133"/>
+      <c r="V3" s="133"/>
+      <c r="W3" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="133"/>
+      <c r="X3" s="135"/>
     </row>
     <row r="4" spans="2:24" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -3802,18 +3849,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3825,7 +3872,7 @@
   <dimension ref="A1:N2752"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="J309" sqref="J309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3907,7 +3954,7 @@
       </c>
       <c r="K2" s="53" t="str">
         <f>IF(H2="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F2,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(4)</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="M2" t="str">
         <f>IF(H2="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B2,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -3915,7 +3962,7 @@
       </c>
       <c r="N2" t="str">
         <f>IF(H2="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F2,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.13(2)</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -3943,19 +3990,19 @@
       </c>
       <c r="J3" s="53" t="str">
         <f>IF(H3="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B3,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.14(2)</v>
+        <v>Pos.9(4)</v>
       </c>
       <c r="K3" s="53" t="str">
         <f>IF(H3="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F3,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.2(6)</v>
+        <v>Pos.1(4)</v>
       </c>
       <c r="M3" t="str">
         <f>IF(H3="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B3,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.14(2)</v>
+        <v>Pos.10(3)</v>
       </c>
       <c r="N3" t="str">
         <f>IF(H3="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F3,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>Pos.1(4)</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -3983,19 +4030,19 @@
       </c>
       <c r="J4" s="53" t="str">
         <f>IF(H4="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B4,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="K4" s="53" t="str">
         <f>IF(H4="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F4,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.2(6)</v>
+        <v>Pos.1(4)</v>
       </c>
       <c r="M4" t="str">
         <f>IF(H4="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B4,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="N4" t="str">
         <f>IF(H4="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F4,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>Pos.1(4)</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -4023,19 +4070,19 @@
       </c>
       <c r="J5" s="53" t="str">
         <f>IF(H5="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B5,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.2(6)</v>
+        <v>Pos.9(4)</v>
       </c>
       <c r="K5" s="53" t="str">
         <f>IF(H5="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F5,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.2(6)</v>
+        <v>Pos.1(4)</v>
       </c>
       <c r="M5" t="str">
         <f>IF(H5="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B5,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.2(4)</v>
+        <v>Pos.10(3)</v>
       </c>
       <c r="N5" t="str">
         <f>IF(H5="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F5,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.2(4)</v>
+        <v>Pos.1(4)</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -4063,19 +4110,19 @@
       </c>
       <c r="J6" s="53" t="str">
         <f>IF(H6="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B6,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.14(2)</v>
+        <v>Pos.9(4)</v>
       </c>
       <c r="K6" s="53" t="str">
         <f>IF(H6="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F6,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="M6" t="str">
         <f>IF(H6="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B6,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.14(2)</v>
+        <v>-</v>
       </c>
       <c r="N6" t="str">
         <f>IF(H6="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F6,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -4103,7 +4150,7 @@
       </c>
       <c r="J7" s="53" t="str">
         <f>IF(H7="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B7,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(3)</v>
       </c>
       <c r="K7" s="53" t="str">
         <f>IF(H7="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F7,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4143,19 +4190,19 @@
       </c>
       <c r="J8" s="53" t="str">
         <f>IF(H8="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B8,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.2(6)</v>
+        <v>Pos.9(4)</v>
       </c>
       <c r="K8" s="53" t="str">
         <f>IF(H8="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F8,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.2(6)</v>
+        <v>Pos.1(4)</v>
       </c>
       <c r="M8" t="str">
         <f>IF(H8="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B8,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.2(4)</v>
+        <v>Pos.10(3)</v>
       </c>
       <c r="N8" t="str">
         <f>IF(H8="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F8,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.2(4)</v>
+        <v>Pos.1(4)</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -4187,7 +4234,7 @@
       </c>
       <c r="K9" s="53" t="str">
         <f>IF(H9="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F9,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(4)</v>
+        <v>Pos.5(3)</v>
       </c>
       <c r="M9" t="str">
         <f>IF(H9="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B9,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4195,7 +4242,7 @@
       </c>
       <c r="N9" t="str">
         <f>IF(H9="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F9,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.6(2)</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4223,38 +4270,38 @@
       </c>
       <c r="J10" s="53" t="str">
         <f>IF(H10="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B10,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(4)</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="K10" s="53" t="str">
         <f>IF(H10="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F10,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(4)</v>
+        <v>Pos.5(3)</v>
       </c>
       <c r="M10" t="str">
         <f>IF(H10="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B10,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="N10" t="str">
         <f>IF(H10="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F10,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.6(2)</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="95">
         <v>2</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="125" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="85">
-        <v>0</v>
-      </c>
-      <c r="D11" s="91" t="s">
+      <c r="C11" s="125">
+        <v>0</v>
+      </c>
+      <c r="D11" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="85">
+      <c r="E11" s="125">
         <v>1</v>
       </c>
-      <c r="F11" s="86" t="s">
+      <c r="F11" s="126" t="s">
         <v>128</v>
       </c>
       <c r="H11" t="str">
@@ -4263,15 +4310,15 @@
       </c>
       <c r="J11" s="53" t="str">
         <f>IF(H11="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B11,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(4)</v>
+        <v>Pos.5(3)</v>
       </c>
       <c r="K11" s="53" t="str">
         <f>IF(H11="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F11,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(3)</v>
       </c>
       <c r="M11" t="str">
         <f>IF(H11="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B11,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="N11" t="str">
         <f>IF(H11="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F11,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4282,19 +4329,19 @@
       <c r="A12" s="96">
         <v>2</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="127" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="87">
+      <c r="C12" s="127">
         <v>2</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="87">
+      <c r="E12" s="127">
         <v>1</v>
       </c>
-      <c r="F12" s="88" t="s">
+      <c r="F12" s="128" t="s">
         <v>131</v>
       </c>
       <c r="H12" t="str">
@@ -4303,38 +4350,38 @@
       </c>
       <c r="J12" s="53" t="str">
         <f>IF(H12="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B12,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.2(6)</v>
+        <v>Pos.1(4)</v>
       </c>
       <c r="K12" s="53" t="str">
         <f>IF(H12="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F12,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(4)</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="M12" t="str">
         <f>IF(H12="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B12,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>Pos.1(4)</v>
       </c>
       <c r="N12" t="str">
         <f>IF(H12="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F12,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.13(2)</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="96">
         <v>2</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="127" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="87">
-        <v>0</v>
-      </c>
-      <c r="D13" s="92" t="s">
+      <c r="C13" s="127">
+        <v>0</v>
+      </c>
+      <c r="D13" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="87">
-        <v>0</v>
-      </c>
-      <c r="F13" s="88" t="s">
+      <c r="E13" s="127">
+        <v>0</v>
+      </c>
+      <c r="F13" s="128" t="s">
         <v>125</v>
       </c>
       <c r="H13" t="str">
@@ -4343,38 +4390,38 @@
       </c>
       <c r="J13" s="53" t="str">
         <f>IF(H13="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B13,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="K13" s="53" t="str">
         <f>IF(H13="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F13,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="M13" t="str">
         <f>IF(H13="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B13,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="N13" t="str">
         <f>IF(H13="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F13,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="96">
         <v>2</v>
       </c>
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="127" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="87">
+      <c r="C14" s="127">
         <v>1</v>
       </c>
-      <c r="D14" s="92" t="s">
+      <c r="D14" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="87">
+      <c r="E14" s="127">
         <v>2</v>
       </c>
-      <c r="F14" s="88" t="s">
+      <c r="F14" s="128" t="s">
         <v>129</v>
       </c>
       <c r="H14" t="str">
@@ -4383,38 +4430,38 @@
       </c>
       <c r="J14" s="53" t="str">
         <f>IF(H14="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B14,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(4)</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="K14" s="53" t="str">
         <f>IF(H14="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F14,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.2(6)</v>
+        <v>Pos.9(4)</v>
       </c>
       <c r="M14" t="str">
         <f>IF(H14="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B14,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="N14" t="str">
         <f>IF(H14="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F14,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.2(4)</v>
+        <v>Pos.10(3)</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="96">
         <v>2</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="127" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="87">
+      <c r="C15" s="127">
         <v>1</v>
       </c>
-      <c r="D15" s="92" t="s">
+      <c r="D15" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="87">
+      <c r="E15" s="127">
         <v>4</v>
       </c>
-      <c r="F15" s="88" t="s">
+      <c r="F15" s="128" t="s">
         <v>126</v>
       </c>
       <c r="H15" t="str">
@@ -4427,7 +4474,7 @@
       </c>
       <c r="K15" s="53" t="str">
         <f>IF(H15="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F15,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.2(6)</v>
+        <v>Pos.9(4)</v>
       </c>
       <c r="M15" t="str">
         <f>IF(H15="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B15,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4435,26 +4482,26 @@
       </c>
       <c r="N15" t="str">
         <f>IF(H15="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F15,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.2(4)</v>
+        <v>Pos.10(3)</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="96">
         <v>2</v>
       </c>
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="87">
+      <c r="C16" s="127">
         <v>6</v>
       </c>
-      <c r="D16" s="92" t="s">
+      <c r="D16" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="87">
-        <v>0</v>
-      </c>
-      <c r="F16" s="88" t="s">
+      <c r="E16" s="127">
+        <v>0</v>
+      </c>
+      <c r="F16" s="128" t="s">
         <v>114</v>
       </c>
       <c r="H16" t="str">
@@ -4463,7 +4510,7 @@
       </c>
       <c r="J16" s="53" t="str">
         <f>IF(H16="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B16,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(4)</v>
+        <v>Pos.5(3)</v>
       </c>
       <c r="K16" s="53" t="str">
         <f>IF(H16="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F16,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4471,7 +4518,7 @@
       </c>
       <c r="M16" t="str">
         <f>IF(H16="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B16,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="N16" t="str">
         <f>IF(H16="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F16,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4482,19 +4529,19 @@
       <c r="A17" s="96">
         <v>2</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="127" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="87">
+      <c r="C17" s="127">
         <v>2</v>
       </c>
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="87">
-        <v>0</v>
-      </c>
-      <c r="F17" s="88" t="s">
+      <c r="E17" s="127">
+        <v>0</v>
+      </c>
+      <c r="F17" s="128" t="s">
         <v>124</v>
       </c>
       <c r="H17" t="str">
@@ -4503,38 +4550,38 @@
       </c>
       <c r="J17" s="53" t="str">
         <f>IF(H17="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B17,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.2(6)</v>
+        <v>Pos.1(4)</v>
       </c>
       <c r="K17" s="53" t="str">
         <f>IF(H17="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F17,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.14(2)</v>
+        <v>Pos.9(4)</v>
       </c>
       <c r="M17" t="str">
         <f>IF(H17="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B17,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.2(4)</v>
+        <v>Pos.1(4)</v>
       </c>
       <c r="N17" t="str">
         <f>IF(H17="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F17,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.14(2)</v>
+        <v>Pos.10(3)</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="96">
         <v>2</v>
       </c>
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="127" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="87">
+      <c r="C18" s="127">
         <v>3</v>
       </c>
-      <c r="D18" s="92" t="s">
+      <c r="D18" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="87">
+      <c r="E18" s="127">
         <v>1</v>
       </c>
-      <c r="F18" s="88" t="s">
+      <c r="F18" s="128" t="s">
         <v>127</v>
       </c>
       <c r="H18" t="str">
@@ -4543,38 +4590,38 @@
       </c>
       <c r="J18" s="53" t="str">
         <f>IF(H18="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B18,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.2(6)</v>
+        <v>Pos.1(4)</v>
       </c>
       <c r="K18" s="53" t="str">
         <f>IF(H18="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F18,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.14(2)</v>
+        <v>Pos.9(4)</v>
       </c>
       <c r="M18" t="str">
         <f>IF(H18="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B18,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.2(4)</v>
+        <v>Pos.1(4)</v>
       </c>
       <c r="N18" t="str">
         <f>IF(H18="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F18,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.14(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="97">
         <v>2</v>
       </c>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="129" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="89">
+      <c r="C19" s="129">
         <v>2</v>
       </c>
-      <c r="D19" s="93" t="s">
+      <c r="D19" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="89">
-        <v>0</v>
-      </c>
-      <c r="F19" s="90" t="s">
+      <c r="E19" s="129">
+        <v>0</v>
+      </c>
+      <c r="F19" s="130" t="s">
         <v>130</v>
       </c>
       <c r="H19" t="str">
@@ -4583,7 +4630,7 @@
       </c>
       <c r="J19" s="53" t="str">
         <f>IF(H19="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B19,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.2(6)</v>
+        <v>Pos.1(4)</v>
       </c>
       <c r="K19" s="53" t="str">
         <f>IF(H19="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F19,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4591,7 +4638,7 @@
       </c>
       <c r="M19" t="str">
         <f>IF(H19="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B19,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>Pos.1(4)</v>
       </c>
       <c r="N19" t="str">
         <f>IF(H19="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F19,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4605,33 +4652,37 @@
       <c r="B20" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="78"/>
+      <c r="C20" s="78">
+        <v>0</v>
+      </c>
       <c r="D20" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="78"/>
+      <c r="E20" s="78">
+        <v>1</v>
+      </c>
       <c r="F20" s="79" t="s">
         <v>116</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
-        <v>Pendiente</v>
+        <v>Visitante</v>
       </c>
       <c r="J20" s="53" t="str">
         <f>IF(H20="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B20,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.16(3)</v>
       </c>
       <c r="K20" s="53" t="str">
         <f>IF(H20="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F20,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(4)</v>
       </c>
       <c r="M20" t="str">
         <f>IF(H20="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B20,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.16(3)</v>
       </c>
       <c r="N20" t="str">
         <f>IF(H20="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F20,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(4)</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -4641,33 +4692,37 @@
       <c r="B21" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="80"/>
+      <c r="C21" s="80">
+        <v>0</v>
+      </c>
       <c r="D21" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="80"/>
+      <c r="E21" s="80">
+        <v>1</v>
+      </c>
       <c r="F21" s="81" t="s">
         <v>123</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
-        <v>Pendiente</v>
+        <v>Visitante</v>
       </c>
       <c r="J21" s="53" t="str">
         <f>IF(H21="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B21,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="K21" s="53" t="str">
         <f>IF(H21="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F21,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(3)</v>
       </c>
       <c r="M21" t="str">
         <f>IF(H21="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B21,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="N21" t="str">
         <f>IF(H21="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F21,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.6(2)</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -4677,33 +4732,37 @@
       <c r="B22" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="80"/>
+      <c r="C22" s="80">
+        <v>2</v>
+      </c>
       <c r="D22" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="80"/>
+      <c r="E22" s="80">
+        <v>1</v>
+      </c>
       <c r="F22" s="81" t="s">
         <v>120</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
-        <v>Pendiente</v>
+        <v>Local</v>
       </c>
       <c r="J22" s="53" t="str">
         <f>IF(H22="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B22,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.9(4)</v>
       </c>
       <c r="K22" s="53" t="str">
         <f>IF(H22="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F22,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.16(3)</v>
       </c>
       <c r="M22" t="str">
         <f>IF(H22="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B22,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(3)</v>
       </c>
       <c r="N22" t="str">
         <f>IF(H22="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F22,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.16(3)</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -4713,33 +4772,37 @@
       <c r="B23" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="80"/>
+      <c r="C23" s="80">
+        <v>1</v>
+      </c>
       <c r="D23" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="80"/>
+      <c r="E23" s="80">
+        <v>2</v>
+      </c>
       <c r="F23" s="81" t="s">
         <v>122</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
-        <v>Pendiente</v>
+        <v>Visitante</v>
       </c>
       <c r="J23" s="53" t="str">
         <f>IF(H23="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B23,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.9(4)</v>
       </c>
       <c r="K23" s="53" t="str">
         <f>IF(H23="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F23,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(3)</v>
       </c>
       <c r="M23" t="str">
         <f>IF(H23="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B23,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(3)</v>
       </c>
       <c r="N23" t="str">
         <f>IF(H23="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F23,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.6(2)</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -4749,25 +4812,29 @@
       <c r="B24" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="80"/>
+      <c r="C24" s="80">
+        <v>1</v>
+      </c>
       <c r="D24" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="80"/>
+      <c r="E24" s="80">
+        <v>2</v>
+      </c>
       <c r="F24" s="81" t="s">
         <v>117</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
-        <v>Pendiente</v>
+        <v>Visitante</v>
       </c>
       <c r="J24" s="53" t="str">
         <f>IF(H24="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B24,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(3)</v>
       </c>
       <c r="K24" s="53" t="str">
         <f>IF(H24="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F24,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(4)</v>
       </c>
       <c r="M24" t="str">
         <f>IF(H24="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B24,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4775,7 +4842,7 @@
       </c>
       <c r="N24" t="str">
         <f>IF(H24="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F24,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(4)</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -4785,21 +4852,25 @@
       <c r="B25" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="80"/>
+      <c r="C25" s="80">
+        <v>1</v>
+      </c>
       <c r="D25" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="80"/>
+      <c r="E25" s="80">
+        <v>3</v>
+      </c>
       <c r="F25" s="81" t="s">
         <v>119</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
-        <v>Pendiente</v>
+        <v>Visitante</v>
       </c>
       <c r="J25" s="53" t="str">
         <f>IF(H25="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B25,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.16(3)</v>
       </c>
       <c r="K25" s="53" t="str">
         <f>IF(H25="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F25,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4807,7 +4878,7 @@
       </c>
       <c r="M25" t="str">
         <f>IF(H25="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B25,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.16(3)</v>
       </c>
       <c r="N25" t="str">
         <f>IF(H25="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F25,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4821,17 +4892,21 @@
       <c r="B26" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="80"/>
+      <c r="C26" s="80">
+        <v>0</v>
+      </c>
       <c r="D26" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="80"/>
+      <c r="E26" s="80">
+        <v>1</v>
+      </c>
       <c r="F26" s="81" t="s">
         <v>121</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
-        <v>Pendiente</v>
+        <v>Visitante</v>
       </c>
       <c r="J26" s="53" t="str">
         <f>IF(H26="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B26,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4839,7 +4914,7 @@
       </c>
       <c r="K26" s="53" t="str">
         <f>IF(H26="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F26,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(4)</v>
       </c>
       <c r="M26" t="str">
         <f>IF(H26="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B26,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4847,7 +4922,7 @@
       </c>
       <c r="N26" t="str">
         <f>IF(H26="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F26,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(4)</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -4857,29 +4932,33 @@
       <c r="B27" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="80"/>
+      <c r="C27" s="80">
+        <v>1</v>
+      </c>
       <c r="D27" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="80"/>
+      <c r="E27" s="80">
+        <v>2</v>
+      </c>
       <c r="F27" s="81" t="s">
         <v>127</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
-        <v>Pendiente</v>
+        <v>Visitante</v>
       </c>
       <c r="J27" s="53" t="str">
         <f>IF(H27="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B27,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.9(4)</v>
       </c>
       <c r="K27" s="53" t="str">
         <f>IF(H27="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F27,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.9(4)</v>
       </c>
       <c r="M27" t="str">
         <f>IF(H27="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B27,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(3)</v>
       </c>
       <c r="N27" t="str">
         <f>IF(H27="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F27,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4893,33 +4972,37 @@
       <c r="B28" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="82"/>
+      <c r="C28" s="82">
+        <v>0</v>
+      </c>
       <c r="D28" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="82"/>
+      <c r="E28" s="82">
+        <v>4</v>
+      </c>
       <c r="F28" s="83" t="s">
         <v>118</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
-        <v>Pendiente</v>
+        <v>Visitante</v>
       </c>
       <c r="J28" s="53" t="str">
         <f>IF(H28="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B28,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="K28" s="53" t="str">
         <f>IF(H28="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F28,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(4)</v>
       </c>
       <c r="M28" t="str">
         <f>IF(H28="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B28,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="N28" t="str">
         <f>IF(H28="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F28,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(4)</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -4977,10 +5060,6 @@
         <f t="shared" si="0"/>
         <v>Pendiente</v>
       </c>
-      <c r="J30" s="53" t="str">
-        <f>IF(H30="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B30,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
-      </c>
       <c r="K30" s="53" t="str">
         <f>IF(H30="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F30,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
         <v>-</v>
@@ -11410,7 +11489,9 @@
         <v>118</v>
       </c>
       <c r="C209" s="78"/>
-      <c r="D209" s="91"/>
+      <c r="D209" s="103" t="s">
+        <v>19</v>
+      </c>
       <c r="E209" s="78"/>
       <c r="F209" s="79" t="s">
         <v>116</v>
@@ -11444,7 +11525,9 @@
         <v>120</v>
       </c>
       <c r="C210" s="80"/>
-      <c r="D210" s="92"/>
+      <c r="D210" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E210" s="80"/>
       <c r="F210" s="81" t="s">
         <v>123</v>
@@ -11478,7 +11561,9 @@
         <v>122</v>
       </c>
       <c r="C211" s="80"/>
-      <c r="D211" s="92"/>
+      <c r="D211" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E211" s="80"/>
       <c r="F211" s="81" t="s">
         <v>115</v>
@@ -11512,7 +11597,9 @@
         <v>117</v>
       </c>
       <c r="C212" s="80"/>
-      <c r="D212" s="92"/>
+      <c r="D212" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E212" s="80"/>
       <c r="F212" s="81" t="s">
         <v>114</v>
@@ -11546,7 +11633,9 @@
         <v>119</v>
       </c>
       <c r="C213" s="80"/>
-      <c r="D213" s="92"/>
+      <c r="D213" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E213" s="80"/>
       <c r="F213" s="81" t="s">
         <v>131</v>
@@ -11580,7 +11669,9 @@
         <v>121</v>
       </c>
       <c r="C214" s="80"/>
-      <c r="D214" s="92"/>
+      <c r="D214" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E214" s="80"/>
       <c r="F214" s="81" t="s">
         <v>124</v>
@@ -11614,7 +11705,9 @@
         <v>127</v>
       </c>
       <c r="C215" s="80"/>
-      <c r="D215" s="92"/>
+      <c r="D215" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E215" s="80"/>
       <c r="F215" s="81" t="s">
         <v>126</v>
@@ -11648,7 +11741,9 @@
         <v>125</v>
       </c>
       <c r="C216" s="80"/>
-      <c r="D216" s="92"/>
+      <c r="D216" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E216" s="80"/>
       <c r="F216" s="81" t="s">
         <v>128</v>
@@ -11682,7 +11777,9 @@
         <v>130</v>
       </c>
       <c r="C217" s="82"/>
-      <c r="D217" s="93"/>
+      <c r="D217" s="106" t="s">
+        <v>19</v>
+      </c>
       <c r="E217" s="82"/>
       <c r="F217" s="83" t="s">
         <v>129</v>
@@ -11716,7 +11813,9 @@
         <v>129</v>
       </c>
       <c r="C218" s="78"/>
-      <c r="D218" s="91"/>
+      <c r="D218" s="103" t="s">
+        <v>19</v>
+      </c>
       <c r="E218" s="78"/>
       <c r="F218" s="79" t="s">
         <v>118</v>
@@ -11750,7 +11849,9 @@
         <v>116</v>
       </c>
       <c r="C219" s="80"/>
-      <c r="D219" s="92"/>
+      <c r="D219" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E219" s="80"/>
       <c r="F219" s="81" t="s">
         <v>120</v>
@@ -11784,7 +11885,9 @@
         <v>123</v>
       </c>
       <c r="C220" s="80"/>
-      <c r="D220" s="92"/>
+      <c r="D220" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E220" s="80"/>
       <c r="F220" s="81" t="s">
         <v>122</v>
@@ -11818,7 +11921,9 @@
         <v>115</v>
       </c>
       <c r="C221" s="80"/>
-      <c r="D221" s="92"/>
+      <c r="D221" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E221" s="80"/>
       <c r="F221" s="81" t="s">
         <v>117</v>
@@ -11852,7 +11957,9 @@
         <v>114</v>
       </c>
       <c r="C222" s="80"/>
-      <c r="D222" s="92"/>
+      <c r="D222" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E222" s="80"/>
       <c r="F222" s="81" t="s">
         <v>119</v>
@@ -11886,7 +11993,9 @@
         <v>131</v>
       </c>
       <c r="C223" s="80"/>
-      <c r="D223" s="92"/>
+      <c r="D223" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E223" s="80"/>
       <c r="F223" s="81" t="s">
         <v>121</v>
@@ -11920,7 +12029,9 @@
         <v>124</v>
       </c>
       <c r="C224" s="80"/>
-      <c r="D224" s="92"/>
+      <c r="D224" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E224" s="80"/>
       <c r="F224" s="81" t="s">
         <v>127</v>
@@ -11954,7 +12065,9 @@
         <v>126</v>
       </c>
       <c r="C225" s="80"/>
-      <c r="D225" s="92"/>
+      <c r="D225" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E225" s="80"/>
       <c r="F225" s="81" t="s">
         <v>125</v>
@@ -11988,7 +12101,9 @@
         <v>128</v>
       </c>
       <c r="C226" s="82"/>
-      <c r="D226" s="93"/>
+      <c r="D226" s="106" t="s">
+        <v>19</v>
+      </c>
       <c r="E226" s="82"/>
       <c r="F226" s="83" t="s">
         <v>130</v>
@@ -12022,7 +12137,9 @@
         <v>120</v>
       </c>
       <c r="C227" s="78"/>
-      <c r="D227" s="91"/>
+      <c r="D227" s="103" t="s">
+        <v>19</v>
+      </c>
       <c r="E227" s="78"/>
       <c r="F227" s="79" t="s">
         <v>118</v>
@@ -12056,7 +12173,9 @@
         <v>122</v>
       </c>
       <c r="C228" s="80"/>
-      <c r="D228" s="92"/>
+      <c r="D228" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E228" s="80"/>
       <c r="F228" s="81" t="s">
         <v>116</v>
@@ -12090,7 +12209,9 @@
         <v>117</v>
       </c>
       <c r="C229" s="80"/>
-      <c r="D229" s="92"/>
+      <c r="D229" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E229" s="80"/>
       <c r="F229" s="81" t="s">
         <v>123</v>
@@ -12124,7 +12245,9 @@
         <v>119</v>
       </c>
       <c r="C230" s="80"/>
-      <c r="D230" s="92"/>
+      <c r="D230" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E230" s="80"/>
       <c r="F230" s="81" t="s">
         <v>115</v>
@@ -12158,7 +12281,9 @@
         <v>121</v>
       </c>
       <c r="C231" s="80"/>
-      <c r="D231" s="92"/>
+      <c r="D231" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E231" s="80"/>
       <c r="F231" s="81" t="s">
         <v>114</v>
@@ -12192,7 +12317,9 @@
         <v>127</v>
       </c>
       <c r="C232" s="80"/>
-      <c r="D232" s="92"/>
+      <c r="D232" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E232" s="80"/>
       <c r="F232" s="81" t="s">
         <v>131</v>
@@ -12226,7 +12353,9 @@
         <v>125</v>
       </c>
       <c r="C233" s="80"/>
-      <c r="D233" s="92"/>
+      <c r="D233" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E233" s="80"/>
       <c r="F233" s="81" t="s">
         <v>124</v>
@@ -12260,7 +12389,9 @@
         <v>130</v>
       </c>
       <c r="C234" s="80"/>
-      <c r="D234" s="92"/>
+      <c r="D234" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E234" s="80"/>
       <c r="F234" s="81" t="s">
         <v>126</v>
@@ -12294,7 +12425,9 @@
         <v>128</v>
       </c>
       <c r="C235" s="82"/>
-      <c r="D235" s="93"/>
+      <c r="D235" s="106" t="s">
+        <v>19</v>
+      </c>
       <c r="E235" s="82"/>
       <c r="F235" s="83" t="s">
         <v>129</v>
@@ -12328,7 +12461,9 @@
         <v>129</v>
       </c>
       <c r="C236" s="78"/>
-      <c r="D236" s="91"/>
+      <c r="D236" s="103" t="s">
+        <v>19</v>
+      </c>
       <c r="E236" s="78"/>
       <c r="F236" s="79" t="s">
         <v>120</v>
@@ -12362,7 +12497,9 @@
         <v>118</v>
       </c>
       <c r="C237" s="80"/>
-      <c r="D237" s="92"/>
+      <c r="D237" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E237" s="80"/>
       <c r="F237" s="81" t="s">
         <v>122</v>
@@ -12396,7 +12533,9 @@
         <v>116</v>
       </c>
       <c r="C238" s="80"/>
-      <c r="D238" s="92"/>
+      <c r="D238" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E238" s="80"/>
       <c r="F238" s="81" t="s">
         <v>117</v>
@@ -12430,7 +12569,9 @@
         <v>123</v>
       </c>
       <c r="C239" s="80"/>
-      <c r="D239" s="92"/>
+      <c r="D239" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E239" s="80"/>
       <c r="F239" s="81" t="s">
         <v>119</v>
@@ -12464,7 +12605,9 @@
         <v>115</v>
       </c>
       <c r="C240" s="80"/>
-      <c r="D240" s="92"/>
+      <c r="D240" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E240" s="80"/>
       <c r="F240" s="81" t="s">
         <v>121</v>
@@ -12498,7 +12641,9 @@
         <v>114</v>
       </c>
       <c r="C241" s="80"/>
-      <c r="D241" s="92"/>
+      <c r="D241" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E241" s="80"/>
       <c r="F241" s="81" t="s">
         <v>127</v>
@@ -12532,7 +12677,9 @@
         <v>131</v>
       </c>
       <c r="C242" s="80"/>
-      <c r="D242" s="92"/>
+      <c r="D242" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E242" s="80"/>
       <c r="F242" s="81" t="s">
         <v>125</v>
@@ -12566,7 +12713,9 @@
         <v>124</v>
       </c>
       <c r="C243" s="80"/>
-      <c r="D243" s="92"/>
+      <c r="D243" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E243" s="80"/>
       <c r="F243" s="81" t="s">
         <v>130</v>
@@ -12600,7 +12749,9 @@
         <v>126</v>
       </c>
       <c r="C244" s="82"/>
-      <c r="D244" s="93"/>
+      <c r="D244" s="106" t="s">
+        <v>19</v>
+      </c>
       <c r="E244" s="82"/>
       <c r="F244" s="83" t="s">
         <v>128</v>
@@ -12634,7 +12785,9 @@
         <v>122</v>
       </c>
       <c r="C245" s="85"/>
-      <c r="D245" s="85"/>
+      <c r="D245" s="103" t="s">
+        <v>19</v>
+      </c>
       <c r="E245" s="85"/>
       <c r="F245" s="86" t="s">
         <v>120</v>
@@ -12668,7 +12821,9 @@
         <v>117</v>
       </c>
       <c r="C246" s="87"/>
-      <c r="D246" s="87"/>
+      <c r="D246" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E246" s="87"/>
       <c r="F246" s="88" t="s">
         <v>118</v>
@@ -12702,7 +12857,9 @@
         <v>119</v>
       </c>
       <c r="C247" s="87"/>
-      <c r="D247" s="87"/>
+      <c r="D247" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E247" s="87"/>
       <c r="F247" s="88" t="s">
         <v>116</v>
@@ -12736,7 +12893,9 @@
         <v>121</v>
       </c>
       <c r="C248" s="87"/>
-      <c r="D248" s="87"/>
+      <c r="D248" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E248" s="87"/>
       <c r="F248" s="88" t="s">
         <v>123</v>
@@ -12770,7 +12929,9 @@
         <v>127</v>
       </c>
       <c r="C249" s="87"/>
-      <c r="D249" s="87"/>
+      <c r="D249" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E249" s="87"/>
       <c r="F249" s="88" t="s">
         <v>115</v>
@@ -12804,7 +12965,9 @@
         <v>125</v>
       </c>
       <c r="C250" s="87"/>
-      <c r="D250" s="87"/>
+      <c r="D250" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E250" s="87"/>
       <c r="F250" s="88" t="s">
         <v>114</v>
@@ -12838,7 +13001,9 @@
         <v>130</v>
       </c>
       <c r="C251" s="87"/>
-      <c r="D251" s="87"/>
+      <c r="D251" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E251" s="87"/>
       <c r="F251" s="88" t="s">
         <v>131</v>
@@ -12872,7 +13037,9 @@
         <v>128</v>
       </c>
       <c r="C252" s="87"/>
-      <c r="D252" s="87"/>
+      <c r="D252" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E252" s="87"/>
       <c r="F252" s="88" t="s">
         <v>124</v>
@@ -12906,7 +13073,9 @@
         <v>126</v>
       </c>
       <c r="C253" s="87"/>
-      <c r="D253" s="87"/>
+      <c r="D253" s="106" t="s">
+        <v>19</v>
+      </c>
       <c r="E253" s="87"/>
       <c r="F253" s="88" t="s">
         <v>129</v>
@@ -12940,7 +13109,9 @@
         <v>129</v>
       </c>
       <c r="C254" s="85"/>
-      <c r="D254" s="85"/>
+      <c r="D254" s="103" t="s">
+        <v>19</v>
+      </c>
       <c r="E254" s="85"/>
       <c r="F254" s="86" t="s">
         <v>122</v>
@@ -12974,7 +13145,9 @@
         <v>120</v>
       </c>
       <c r="C255" s="87"/>
-      <c r="D255" s="87"/>
+      <c r="D255" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E255" s="87"/>
       <c r="F255" s="88" t="s">
         <v>117</v>
@@ -13008,7 +13181,9 @@
         <v>118</v>
       </c>
       <c r="C256" s="87"/>
-      <c r="D256" s="87"/>
+      <c r="D256" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E256" s="87"/>
       <c r="F256" s="88" t="s">
         <v>119</v>
@@ -13042,7 +13217,9 @@
         <v>116</v>
       </c>
       <c r="C257" s="87"/>
-      <c r="D257" s="87"/>
+      <c r="D257" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E257" s="87"/>
       <c r="F257" s="88" t="s">
         <v>121</v>
@@ -13076,7 +13253,9 @@
         <v>123</v>
       </c>
       <c r="C258" s="87"/>
-      <c r="D258" s="87"/>
+      <c r="D258" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E258" s="87"/>
       <c r="F258" s="88" t="s">
         <v>127</v>
@@ -13110,7 +13289,9 @@
         <v>115</v>
       </c>
       <c r="C259" s="87"/>
-      <c r="D259" s="87"/>
+      <c r="D259" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E259" s="87"/>
       <c r="F259" s="88" t="s">
         <v>125</v>
@@ -13144,7 +13325,9 @@
         <v>114</v>
       </c>
       <c r="C260" s="87"/>
-      <c r="D260" s="87"/>
+      <c r="D260" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E260" s="87"/>
       <c r="F260" s="88" t="s">
         <v>130</v>
@@ -13178,7 +13361,9 @@
         <v>131</v>
       </c>
       <c r="C261" s="87"/>
-      <c r="D261" s="87"/>
+      <c r="D261" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E261" s="87"/>
       <c r="F261" s="88" t="s">
         <v>128</v>
@@ -13212,7 +13397,9 @@
         <v>124</v>
       </c>
       <c r="C262" s="89"/>
-      <c r="D262" s="89"/>
+      <c r="D262" s="106" t="s">
+        <v>19</v>
+      </c>
       <c r="E262" s="89"/>
       <c r="F262" s="90" t="s">
         <v>126</v>
@@ -13246,7 +13433,9 @@
         <v>117</v>
       </c>
       <c r="C263" s="85"/>
-      <c r="D263" s="85"/>
+      <c r="D263" s="103" t="s">
+        <v>19</v>
+      </c>
       <c r="E263" s="85"/>
       <c r="F263" s="86" t="s">
         <v>122</v>
@@ -13280,7 +13469,9 @@
         <v>119</v>
       </c>
       <c r="C264" s="87"/>
-      <c r="D264" s="87"/>
+      <c r="D264" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E264" s="87"/>
       <c r="F264" s="88" t="s">
         <v>120</v>
@@ -13314,7 +13505,9 @@
         <v>121</v>
       </c>
       <c r="C265" s="87"/>
-      <c r="D265" s="87"/>
+      <c r="D265" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E265" s="87"/>
       <c r="F265" s="88" t="s">
         <v>118</v>
@@ -13348,7 +13541,9 @@
         <v>127</v>
       </c>
       <c r="C266" s="87"/>
-      <c r="D266" s="87"/>
+      <c r="D266" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E266" s="87"/>
       <c r="F266" s="88" t="s">
         <v>116</v>
@@ -13382,7 +13577,9 @@
         <v>125</v>
       </c>
       <c r="C267" s="87"/>
-      <c r="D267" s="87"/>
+      <c r="D267" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E267" s="87"/>
       <c r="F267" s="88" t="s">
         <v>123</v>
@@ -13416,7 +13613,9 @@
         <v>130</v>
       </c>
       <c r="C268" s="87"/>
-      <c r="D268" s="87"/>
+      <c r="D268" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E268" s="87"/>
       <c r="F268" s="88" t="s">
         <v>115</v>
@@ -13450,7 +13649,9 @@
         <v>128</v>
       </c>
       <c r="C269" s="87"/>
-      <c r="D269" s="87"/>
+      <c r="D269" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E269" s="87"/>
       <c r="F269" s="88" t="s">
         <v>114</v>
@@ -13484,7 +13685,9 @@
         <v>126</v>
       </c>
       <c r="C270" s="87"/>
-      <c r="D270" s="87"/>
+      <c r="D270" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E270" s="87"/>
       <c r="F270" s="88" t="s">
         <v>131</v>
@@ -13518,7 +13721,9 @@
         <v>124</v>
       </c>
       <c r="C271" s="89"/>
-      <c r="D271" s="89"/>
+      <c r="D271" s="106" t="s">
+        <v>19</v>
+      </c>
       <c r="E271" s="89"/>
       <c r="F271" s="90" t="s">
         <v>129</v>
@@ -13552,7 +13757,9 @@
         <v>129</v>
       </c>
       <c r="C272" s="78"/>
-      <c r="D272" s="91"/>
+      <c r="D272" s="103" t="s">
+        <v>19</v>
+      </c>
       <c r="E272" s="78"/>
       <c r="F272" s="79" t="s">
         <v>117</v>
@@ -13586,7 +13793,9 @@
         <v>122</v>
       </c>
       <c r="C273" s="80"/>
-      <c r="D273" s="92"/>
+      <c r="D273" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E273" s="80"/>
       <c r="F273" s="81" t="s">
         <v>119</v>
@@ -13620,7 +13829,9 @@
         <v>120</v>
       </c>
       <c r="C274" s="80"/>
-      <c r="D274" s="92"/>
+      <c r="D274" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E274" s="80"/>
       <c r="F274" s="81" t="s">
         <v>121</v>
@@ -13654,7 +13865,9 @@
         <v>118</v>
       </c>
       <c r="C275" s="80"/>
-      <c r="D275" s="92"/>
+      <c r="D275" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E275" s="80"/>
       <c r="F275" s="81" t="s">
         <v>127</v>
@@ -13688,7 +13901,9 @@
         <v>116</v>
       </c>
       <c r="C276" s="80"/>
-      <c r="D276" s="92"/>
+      <c r="D276" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E276" s="80"/>
       <c r="F276" s="81" t="s">
         <v>125</v>
@@ -13722,7 +13937,9 @@
         <v>123</v>
       </c>
       <c r="C277" s="80"/>
-      <c r="D277" s="92"/>
+      <c r="D277" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E277" s="80"/>
       <c r="F277" s="81" t="s">
         <v>130</v>
@@ -13756,7 +13973,9 @@
         <v>115</v>
       </c>
       <c r="C278" s="80"/>
-      <c r="D278" s="92"/>
+      <c r="D278" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E278" s="80"/>
       <c r="F278" s="81" t="s">
         <v>128</v>
@@ -13790,7 +14009,9 @@
         <v>114</v>
       </c>
       <c r="C279" s="80"/>
-      <c r="D279" s="92"/>
+      <c r="D279" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E279" s="80"/>
       <c r="F279" s="81" t="s">
         <v>126</v>
@@ -13824,7 +14045,9 @@
         <v>131</v>
       </c>
       <c r="C280" s="82"/>
-      <c r="D280" s="93"/>
+      <c r="D280" s="106" t="s">
+        <v>19</v>
+      </c>
       <c r="E280" s="82"/>
       <c r="F280" s="83" t="s">
         <v>124</v>
@@ -13858,7 +14081,9 @@
         <v>119</v>
       </c>
       <c r="C281" s="78"/>
-      <c r="D281" s="91"/>
+      <c r="D281" s="103" t="s">
+        <v>19</v>
+      </c>
       <c r="E281" s="78"/>
       <c r="F281" s="79" t="s">
         <v>117</v>
@@ -13892,7 +14117,9 @@
         <v>121</v>
       </c>
       <c r="C282" s="80"/>
-      <c r="D282" s="92"/>
+      <c r="D282" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E282" s="80"/>
       <c r="F282" s="81" t="s">
         <v>184</v>
@@ -13926,7 +14153,9 @@
         <v>127</v>
       </c>
       <c r="C283" s="80"/>
-      <c r="D283" s="92"/>
+      <c r="D283" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E283" s="80"/>
       <c r="F283" s="81" t="s">
         <v>120</v>
@@ -13960,7 +14189,9 @@
         <v>125</v>
       </c>
       <c r="C284" s="80"/>
-      <c r="D284" s="92"/>
+      <c r="D284" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E284" s="80"/>
       <c r="F284" s="81" t="s">
         <v>118</v>
@@ -13994,7 +14225,9 @@
         <v>130</v>
       </c>
       <c r="C285" s="80"/>
-      <c r="D285" s="92"/>
+      <c r="D285" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E285" s="80"/>
       <c r="F285" s="81" t="s">
         <v>116</v>
@@ -14028,7 +14261,9 @@
         <v>128</v>
       </c>
       <c r="C286" s="80"/>
-      <c r="D286" s="92"/>
+      <c r="D286" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E286" s="80"/>
       <c r="F286" s="81" t="s">
         <v>123</v>
@@ -14062,7 +14297,9 @@
         <v>126</v>
       </c>
       <c r="C287" s="80"/>
-      <c r="D287" s="92"/>
+      <c r="D287" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E287" s="80"/>
       <c r="F287" s="81" t="s">
         <v>115</v>
@@ -14096,7 +14333,9 @@
         <v>124</v>
       </c>
       <c r="C288" s="80"/>
-      <c r="D288" s="92"/>
+      <c r="D288" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E288" s="80"/>
       <c r="F288" s="81" t="s">
         <v>114</v>
@@ -14130,7 +14369,9 @@
         <v>131</v>
       </c>
       <c r="C289" s="82"/>
-      <c r="D289" s="93"/>
+      <c r="D289" s="106" t="s">
+        <v>19</v>
+      </c>
       <c r="E289" s="82"/>
       <c r="F289" s="83" t="s">
         <v>129</v>
@@ -14164,7 +14405,9 @@
         <v>119</v>
       </c>
       <c r="C290" s="78"/>
-      <c r="D290" s="91"/>
+      <c r="D290" s="103" t="s">
+        <v>19</v>
+      </c>
       <c r="E290" s="78"/>
       <c r="F290" s="79" t="s">
         <v>129</v>
@@ -14198,7 +14441,9 @@
         <v>117</v>
       </c>
       <c r="C291" s="80"/>
-      <c r="D291" s="92"/>
+      <c r="D291" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E291" s="80"/>
       <c r="F291" s="81" t="s">
         <v>121</v>
@@ -14232,7 +14477,9 @@
         <v>122</v>
       </c>
       <c r="C292" s="80"/>
-      <c r="D292" s="92"/>
+      <c r="D292" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E292" s="80"/>
       <c r="F292" s="81" t="s">
         <v>127</v>
@@ -14266,7 +14513,9 @@
         <v>120</v>
       </c>
       <c r="C293" s="80"/>
-      <c r="D293" s="92"/>
+      <c r="D293" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E293" s="80"/>
       <c r="F293" s="81" t="s">
         <v>125</v>
@@ -14300,7 +14549,9 @@
         <v>118</v>
       </c>
       <c r="C294" s="80"/>
-      <c r="D294" s="92"/>
+      <c r="D294" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E294" s="80"/>
       <c r="F294" s="81" t="s">
         <v>130</v>
@@ -14334,7 +14585,9 @@
         <v>116</v>
       </c>
       <c r="C295" s="80"/>
-      <c r="D295" s="92"/>
+      <c r="D295" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E295" s="80"/>
       <c r="F295" s="81" t="s">
         <v>128</v>
@@ -14368,7 +14621,9 @@
         <v>123</v>
       </c>
       <c r="C296" s="80"/>
-      <c r="D296" s="92"/>
+      <c r="D296" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E296" s="80"/>
       <c r="F296" s="81" t="s">
         <v>126</v>
@@ -14402,7 +14657,9 @@
         <v>115</v>
       </c>
       <c r="C297" s="80"/>
-      <c r="D297" s="92"/>
+      <c r="D297" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E297" s="80"/>
       <c r="F297" s="81" t="s">
         <v>124</v>
@@ -14436,7 +14693,9 @@
         <v>114</v>
       </c>
       <c r="C298" s="82"/>
-      <c r="D298" s="93"/>
+      <c r="D298" s="106" t="s">
+        <v>19</v>
+      </c>
       <c r="E298" s="82"/>
       <c r="F298" s="83" t="s">
         <v>131</v>
@@ -14470,7 +14729,9 @@
         <v>121</v>
       </c>
       <c r="C299" s="78"/>
-      <c r="D299" s="91"/>
+      <c r="D299" s="103" t="s">
+        <v>19</v>
+      </c>
       <c r="E299" s="78"/>
       <c r="F299" s="79" t="s">
         <v>119</v>
@@ -14504,7 +14765,9 @@
         <v>127</v>
       </c>
       <c r="C300" s="80"/>
-      <c r="D300" s="92"/>
+      <c r="D300" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E300" s="80"/>
       <c r="F300" s="81" t="s">
         <v>117</v>
@@ -14538,7 +14801,9 @@
         <v>125</v>
       </c>
       <c r="C301" s="80"/>
-      <c r="D301" s="92"/>
+      <c r="D301" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E301" s="80"/>
       <c r="F301" s="81" t="s">
         <v>122</v>
@@ -14572,7 +14837,9 @@
         <v>130</v>
       </c>
       <c r="C302" s="80"/>
-      <c r="D302" s="92"/>
+      <c r="D302" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E302" s="80"/>
       <c r="F302" s="81" t="s">
         <v>120</v>
@@ -14606,7 +14873,9 @@
         <v>128</v>
       </c>
       <c r="C303" s="80"/>
-      <c r="D303" s="92"/>
+      <c r="D303" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E303" s="80"/>
       <c r="F303" s="81" t="s">
         <v>118</v>
@@ -14640,7 +14909,9 @@
         <v>126</v>
       </c>
       <c r="C304" s="80"/>
-      <c r="D304" s="92"/>
+      <c r="D304" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E304" s="80"/>
       <c r="F304" s="81" t="s">
         <v>116</v>
@@ -14674,7 +14945,9 @@
         <v>124</v>
       </c>
       <c r="C305" s="80"/>
-      <c r="D305" s="92"/>
+      <c r="D305" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E305" s="80"/>
       <c r="F305" s="81" t="s">
         <v>123</v>
@@ -14708,7 +14981,9 @@
         <v>131</v>
       </c>
       <c r="C306" s="80"/>
-      <c r="D306" s="92"/>
+      <c r="D306" s="104" t="s">
+        <v>19</v>
+      </c>
       <c r="E306" s="80"/>
       <c r="F306" s="81" t="s">
         <v>115</v>
@@ -14742,7 +15017,9 @@
         <v>129</v>
       </c>
       <c r="C307" s="82"/>
-      <c r="D307" s="93"/>
+      <c r="D307" s="106" t="s">
+        <v>19</v>
+      </c>
       <c r="E307" s="82"/>
       <c r="F307" s="83" t="s">
         <v>114</v>
@@ -22114,7 +22391,7 @@
   <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+      <selection activeCell="K2" sqref="K2:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22249,7 +22526,7 @@
       </c>
       <c r="B2" s="53">
         <f>C2+D2+E2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="53">
         <f t="shared" ref="C2:C19" si="0">COUNTIFS(EQUIPO_LOCAL,$A2, GANADOR,"Local")+COUNTIFS(EQUIPO_VISITANTE,$A2,GANADOR,"Visitante")</f>
@@ -22261,7 +22538,7 @@
       </c>
       <c r="E2" s="53">
         <f t="shared" ref="E2:E19" si="2">COUNTIFS(EQUIPO_LOCAL,$A2, GANADOR,"Visitante")+COUNTIFS(EQUIPO_VISITANTE,$A2,GANADOR,"Local")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="53">
         <f t="shared" ref="F2:F19" si="3">SUMIFS(GOLES_LOCAL,EQUIPO_LOCAL,$A2)+SUMIFS(GOLES_VISITANTE,EQUIPO_VISITANTE,$A2)</f>
@@ -22269,11 +22546,11 @@
       </c>
       <c r="G2" s="53">
         <f t="shared" ref="G2:G19" si="4">SUMIFS(GOLES_VISITANTE,EQUIPO_LOCAL,$A2)+SUMIFS(GOLES_LOCAL,EQUIPO_VISITANTE,$A2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" s="53">
         <f>F2-G2</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I2" s="53">
         <f>3*C2+1*D2</f>
@@ -22281,11 +22558,11 @@
       </c>
       <c r="J2" s="53">
         <f>COUNTIF(I$2:I$19,"&gt;"&amp;I2)+1</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K2" s="53" t="str">
         <f>IF(COUNTIF(J$2:J$19,J2)=1,"-","Pos."&amp;J2&amp;"("&amp;COUNTIF(J$2:J$19,J2)&amp;")")</f>
-        <v>Pos.8(4)</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="L2" s="64"/>
       <c r="M2" s="53">
@@ -22306,11 +22583,11 @@
       </c>
       <c r="Q2" s="53">
         <f>$J2+COUNTIFS(K$2:K$19,K2,$P$2:$P$19,"&gt;"&amp;P2)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="R2" s="53" t="str">
         <f>IF(COUNTIF(Q$2:Q$19,Q2)=1,"-","Pos."&amp;Q2&amp;"("&amp;COUNTIF(Q$2:Q$19,Q2)&amp;")")</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="S2" s="65"/>
       <c r="T2" s="53">
@@ -22327,20 +22604,20 @@
       </c>
       <c r="W2" s="53">
         <f>Q2+COUNTIFS(R$2:R$19,R2,V$2:V$19,"&gt;"&amp;V2)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="X2" s="53" t="str">
         <f>IF(COUNTIF(W$2:W$19,W2)=1,"-","Pos."&amp;W2&amp;"("&amp;COUNTIF(W$2:W$19,W2)&amp;")")</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="Y2" s="63"/>
       <c r="Z2" s="53">
         <f>IF(X2="-","-",H2)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA2" s="53">
         <f>W2+COUNTIFS(X$2:X$19,X2,Z$2:Z$19,"&gt;"&amp;Z2)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB2" s="53" t="str">
         <f>IF(COUNTIF(AA$2:AA$19,AA2)=1,"-","Pos."&amp;AA2&amp;"("&amp;COUNTIF(AA$2:AA$19,AA2)&amp;")")</f>
@@ -22353,7 +22630,7 @@
       </c>
       <c r="AE2" s="53">
         <f>AA2+COUNTIFS(AB$2:AB$19,AB2,AD$2:AD$19,"&gt;"&amp;AD2)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF2" s="53" t="str">
         <f>IF(COUNTIF(AE$2:AE$19,AE2)=1,"-","Pos."&amp;AE2&amp;"("&amp;COUNTIF(AE$2:AE$19,AE2)&amp;")")</f>
@@ -22366,7 +22643,7 @@
       </c>
       <c r="AI2" s="53">
         <f>AE2+COUNTIFS(AF$2:AF$19,AF2,AH$2:AH$19,"&lt;"&amp;AH2)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
@@ -22375,11 +22652,11 @@
       </c>
       <c r="B3" s="53">
         <f t="shared" ref="B3:B19" si="9">C3+D3+E3</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="53">
         <f t="shared" si="1"/>
@@ -22391,32 +22668,32 @@
       </c>
       <c r="F3" s="53">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3" s="53">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" s="53">
         <f t="shared" ref="H3:H19" si="10">F3-G3</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I3" s="53">
         <f t="shared" ref="I3:I19" si="11">3*C3+1*D3</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" s="53">
         <f t="shared" ref="J3:J19" si="12">COUNTIF(I$2:I$19,"&gt;"&amp;I3)+1</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K3" s="53" t="str">
         <f t="shared" ref="K3:K19" si="13">IF(COUNTIF(J$2:J$19,J3)=1,"-","Pos."&amp;J3&amp;"("&amp;COUNTIF(J$2:J$19,J3)&amp;")")</f>
-        <v>Pos.14(2)</v>
+        <v>Pos.9(4)</v>
       </c>
       <c r="L3" s="64"/>
       <c r="M3" s="53">
         <f t="shared" ref="M3:M19" si="14">IF($K3="-","-",COUNTIFS(EQUIPO_LOCAL,$A3, GANADOR,"Local",Grupo_de_Empate__A_priori__Equipo_Visitante,$K3)+COUNTIFS(EQUIPO_VISITANTE,$A3,GANADOR,"Visitante",Grupo_de_Empate__A_priori__Equipo_Local,$K3))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="53">
         <f t="shared" si="5"/>
@@ -22428,58 +22705,58 @@
       </c>
       <c r="P3" s="53">
         <f t="shared" ref="P3:P19" si="15">IF(K3="-","-",3*M3+1*N3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="53">
         <f t="shared" ref="Q3:Q19" si="16">$J3+COUNTIFS(K$2:K$19,K3,$P$2:$P$19,"&gt;"&amp;P3)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="R3" s="53" t="str">
         <f t="shared" ref="R3:R19" si="17">IF(COUNTIF(Q$2:Q$19,Q3)=1,"-","Pos."&amp;Q3&amp;"("&amp;COUNTIF(Q$2:Q$19,Q3)&amp;")")</f>
-        <v>Pos.14(2)</v>
+        <v>-</v>
       </c>
       <c r="S3" s="65"/>
-      <c r="T3" s="53">
+      <c r="T3" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U3" s="53">
+        <v>-</v>
+      </c>
+      <c r="U3" s="53" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V3" s="53">
+        <v>-</v>
+      </c>
+      <c r="V3" s="53" t="str">
         <f t="shared" ref="V3:V19" si="18">IF($R3="-","-",T3-U3)</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W3" s="53">
         <f t="shared" ref="W3:W19" si="19">Q3+COUNTIFS(R$2:R$19,R3,V$2:V$19,"&gt;"&amp;V3)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="X3" s="53" t="str">
         <f t="shared" ref="X3:X19" si="20">IF(COUNTIF(W$2:W$19,W3)=1,"-","Pos."&amp;W3&amp;"("&amp;COUNTIF(W$2:W$19,W3)&amp;")")</f>
-        <v>Pos.14(2)</v>
+        <v>-</v>
       </c>
       <c r="Y3" s="63"/>
-      <c r="Z3" s="53">
+      <c r="Z3" s="53" t="str">
         <f t="shared" ref="Z3:Z19" si="21">IF(X3="-","-",H3)</f>
-        <v>-2</v>
+        <v>-</v>
       </c>
       <c r="AA3" s="53">
         <f t="shared" ref="AA3:AA19" si="22">W3+COUNTIFS(X$2:X$19,X3,Z$2:Z$19,"&gt;"&amp;Z3)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AB3" s="53" t="str">
         <f t="shared" ref="AB3:AB19" si="23">IF(COUNTIF(AA$2:AA$19,AA3)=1,"-","Pos."&amp;AA3&amp;"("&amp;COUNTIF(AA$2:AA$19,AA3)&amp;")")</f>
-        <v>Pos.14(2)</v>
+        <v>-</v>
       </c>
       <c r="AC3" s="65"/>
-      <c r="AD3" s="53">
+      <c r="AD3" s="53" t="str">
         <f t="shared" ref="AD3:AD19" si="24">IF(AB3="-","-",F3)</f>
-        <v>2</v>
+        <v>-</v>
       </c>
       <c r="AE3" s="53">
         <f t="shared" ref="AE3:AE19" si="25">AA3+COUNTIFS(AB$2:AB$19,AB3,AD$2:AD$19,"&gt;"&amp;AD3)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AF3" s="53" t="str">
         <f t="shared" ref="AF3:AF19" si="26">IF(COUNTIF(AE$2:AE$19,AE3)=1,"-","Pos."&amp;AE3&amp;"("&amp;COUNTIF(AE$2:AE$19,AE3)&amp;")")</f>
@@ -22492,7 +22769,7 @@
       </c>
       <c r="AI3" s="53">
         <f t="shared" ref="AI3:AI19" si="28">AE3+COUNTIFS(AF$2:AF$19,AF3,AH$2:AH$19,"&lt;"&amp;AH3)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
@@ -22501,11 +22778,11 @@
       </c>
       <c r="B4" s="53">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="53">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="53">
         <f t="shared" si="1"/>
@@ -22517,7 +22794,7 @@
       </c>
       <c r="F4" s="53">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="53">
         <f t="shared" si="4"/>
@@ -22525,19 +22802,19 @@
       </c>
       <c r="H4" s="53">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="53">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J4" s="53">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>Pos.2(6)</v>
+        <v>Pos.1(4)</v>
       </c>
       <c r="L4" s="64"/>
       <c r="M4" s="53">
@@ -22546,7 +22823,7 @@
       </c>
       <c r="N4" s="53">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="53">
         <f t="shared" si="6"/>
@@ -22554,24 +22831,24 @@
       </c>
       <c r="P4" s="53">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="53">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R4" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>Pos.2(4)</v>
+        <v>Pos.1(4)</v>
       </c>
       <c r="S4" s="65"/>
       <c r="T4" s="53">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="53">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="53">
         <f t="shared" si="18"/>
@@ -22579,33 +22856,33 @@
       </c>
       <c r="W4" s="53">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X4" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.2(4)</v>
+        <v>Pos.1(4)</v>
       </c>
       <c r="Y4" s="63"/>
       <c r="Z4" s="53">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA4" s="53">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB4" s="53" t="str">
         <f t="shared" si="23"/>
-        <v>Pos.3(2)</v>
+        <v>Pos.2(2)</v>
       </c>
       <c r="AC4" s="65"/>
       <c r="AD4" s="53">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE4" s="53">
         <f t="shared" si="25"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF4" s="53" t="str">
         <f t="shared" si="26"/>
@@ -22618,7 +22895,7 @@
       </c>
       <c r="AI4" s="53">
         <f t="shared" si="28"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
@@ -22627,7 +22904,7 @@
       </c>
       <c r="B5" s="53">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="53">
         <f t="shared" si="0"/>
@@ -22639,7 +22916,7 @@
       </c>
       <c r="E5" s="53">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="53">
         <f t="shared" si="3"/>
@@ -22647,11 +22924,11 @@
       </c>
       <c r="G5" s="53">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H5" s="53">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="I5" s="53">
         <f t="shared" si="11"/>
@@ -22659,16 +22936,16 @@
       </c>
       <c r="J5" s="53">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K5" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>Pos.8(4)</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="L5" s="64"/>
       <c r="M5" s="53">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="53">
         <f t="shared" si="5"/>
@@ -22680,45 +22957,45 @@
       </c>
       <c r="P5" s="53">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="53">
         <f t="shared" si="16"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="R5" s="53" t="str">
         <f>IF(COUNTIF(Q$2:Q$19,Q5)=1,"-","Pos."&amp;Q5&amp;"("&amp;COUNTIF(Q$2:Q$19,Q5)&amp;")")</f>
-        <v>-</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="S5" s="65"/>
-      <c r="T5" s="53" t="str">
+      <c r="T5" s="53">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="U5" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="U5" s="53">
         <f t="shared" si="8"/>
-        <v>-</v>
-      </c>
-      <c r="V5" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="V5" s="53">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="W5" s="53">
         <f t="shared" si="19"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="X5" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>-</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="Y5" s="63"/>
-      <c r="Z5" s="53" t="str">
+      <c r="Z5" s="53">
         <f t="shared" si="21"/>
-        <v>-</v>
+        <v>-4</v>
       </c>
       <c r="AA5" s="53">
         <f t="shared" si="22"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AB5" s="53" t="str">
         <f t="shared" si="23"/>
@@ -22731,7 +23008,7 @@
       </c>
       <c r="AE5" s="53">
         <f t="shared" si="25"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AF5" s="53" t="str">
         <f t="shared" si="26"/>
@@ -22744,7 +23021,7 @@
       </c>
       <c r="AI5" s="53">
         <f>AE5+COUNTIFS(AF$2:AF$19,AF5,AH$2:AH$19,"&lt;"&amp;AH5)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
@@ -22753,11 +23030,11 @@
       </c>
       <c r="B6" s="53">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="53">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="53">
         <f t="shared" si="1"/>
@@ -22769,27 +23046,27 @@
       </c>
       <c r="F6" s="53">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" s="53">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="53">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" s="53">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J6" s="53">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>Pos.2(6)</v>
+        <v>Pos.1(4)</v>
       </c>
       <c r="L6" s="64"/>
       <c r="M6" s="53">
@@ -22810,11 +23087,11 @@
       </c>
       <c r="Q6" s="53">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R6" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>Pos.6(2)</v>
+        <v>Pos.1(4)</v>
       </c>
       <c r="S6" s="65"/>
       <c r="T6" s="53">
@@ -22831,33 +23108,33 @@
       </c>
       <c r="W6" s="53">
         <f>Q6+COUNTIFS(R$2:R$19,R6,V$2:V$19,"&gt;"&amp;V6)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X6" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.6(2)</v>
+        <v>Pos.1(4)</v>
       </c>
       <c r="Y6" s="63"/>
       <c r="Z6" s="53">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA6" s="53">
         <f t="shared" si="22"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AB6" s="53" t="str">
         <f t="shared" si="23"/>
-        <v>-</v>
+        <v>Pos.2(2)</v>
       </c>
       <c r="AC6" s="65"/>
-      <c r="AD6" s="53" t="str">
+      <c r="AD6" s="53">
         <f t="shared" si="24"/>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="AE6" s="53">
         <f t="shared" si="25"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF6" s="53" t="str">
         <f t="shared" si="26"/>
@@ -22870,7 +23147,7 @@
       </c>
       <c r="AI6" s="53">
         <f t="shared" si="28"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
@@ -22879,7 +23156,7 @@
       </c>
       <c r="B7" s="53">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="53">
         <f t="shared" si="0"/>
@@ -22891,7 +23168,7 @@
       </c>
       <c r="E7" s="53">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="53">
         <f t="shared" si="3"/>
@@ -22899,11 +23176,11 @@
       </c>
       <c r="G7" s="53">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7" s="53">
         <f t="shared" si="10"/>
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="I7" s="53">
         <f t="shared" si="11"/>
@@ -22914,7 +23191,7 @@
         <v>16</v>
       </c>
       <c r="K7" s="53" t="str">
-        <f>IF(COUNTIF(J$2:J$19,J7)=1,"-","Pos."&amp;J7&amp;"("&amp;COUNTIF(J$2:J$19,J7)&amp;")")</f>
+        <f t="shared" si="13"/>
         <v>Pos.16(3)</v>
       </c>
       <c r="L7" s="64"/>
@@ -22966,37 +23243,37 @@
       <c r="Y7" s="63"/>
       <c r="Z7" s="53">
         <f t="shared" si="21"/>
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="AA7" s="53">
         <f>W7+COUNTIFS(X$2:X$19,X7,Z$2:Z$19,"&gt;"&amp;Z7)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB7" s="53" t="str">
         <f t="shared" si="23"/>
-        <v>-</v>
+        <v>Pos.17(2)</v>
       </c>
       <c r="AC7" s="65"/>
-      <c r="AD7" s="53" t="str">
+      <c r="AD7" s="53">
         <f t="shared" si="24"/>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="AE7" s="53">
         <f t="shared" si="25"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF7" s="53" t="str">
         <f t="shared" si="26"/>
-        <v>-</v>
+        <v>Pos.17(2)</v>
       </c>
       <c r="AG7" s="65"/>
-      <c r="AH7" s="53" t="str">
+      <c r="AH7" s="53">
         <f t="shared" si="27"/>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="AI7" s="53">
         <f t="shared" si="28"/>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
@@ -23005,11 +23282,11 @@
       </c>
       <c r="B8" s="53">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="53">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="53">
         <f t="shared" si="1"/>
@@ -23021,7 +23298,7 @@
       </c>
       <c r="F8" s="53">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="53">
         <f t="shared" si="4"/>
@@ -23029,19 +23306,19 @@
       </c>
       <c r="H8" s="53">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="53">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J8" s="53">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>Pos.2(6)</v>
+        <v>Pos.1(4)</v>
       </c>
       <c r="L8" s="64"/>
       <c r="M8" s="53">
@@ -23062,11 +23339,11 @@
       </c>
       <c r="Q8" s="53">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R8" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>Pos.6(2)</v>
+        <v>Pos.1(4)</v>
       </c>
       <c r="S8" s="65"/>
       <c r="T8" s="53">
@@ -23083,20 +23360,20 @@
       </c>
       <c r="W8" s="53">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X8" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.6(2)</v>
+        <v>Pos.1(4)</v>
       </c>
       <c r="Y8" s="63"/>
       <c r="Z8" s="53">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA8" s="53">
         <f t="shared" si="22"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AB8" s="53" t="str">
         <f t="shared" si="23"/>
@@ -23109,7 +23386,7 @@
       </c>
       <c r="AE8" s="53">
         <f t="shared" si="25"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AF8" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23122,7 +23399,7 @@
       </c>
       <c r="AI8" s="53">
         <f t="shared" si="28"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
@@ -23131,7 +23408,7 @@
       </c>
       <c r="B9" s="53">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="53">
         <f t="shared" si="0"/>
@@ -23143,7 +23420,7 @@
       </c>
       <c r="E9" s="53">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="53">
         <f t="shared" si="3"/>
@@ -23151,11 +23428,11 @@
       </c>
       <c r="G9" s="53">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="53">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I9" s="53">
         <f t="shared" si="11"/>
@@ -23163,79 +23440,79 @@
       </c>
       <c r="J9" s="53">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K9" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="L9" s="64"/>
-      <c r="M9" s="53">
+      <c r="M9" s="53" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="53">
+        <v>-</v>
+      </c>
+      <c r="N9" s="53" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O9" s="53">
+        <v>-</v>
+      </c>
+      <c r="O9" s="53" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="53">
+        <v>-</v>
+      </c>
+      <c r="P9" s="53" t="str">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>-</v>
       </c>
       <c r="Q9" s="53">
         <f>$J9+COUNTIFS(K$2:K$19,K9,$P$2:$P$19,"&gt;"&amp;P9)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R9" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="S9" s="65"/>
-      <c r="T9" s="53">
+      <c r="T9" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="53">
+        <v>-</v>
+      </c>
+      <c r="U9" s="53" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="53">
+        <v>-</v>
+      </c>
+      <c r="V9" s="53" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W9" s="53">
         <f t="shared" si="19"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="X9" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="Y9" s="63"/>
-      <c r="Z9" s="53">
+      <c r="Z9" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="AA9" s="53">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB9" s="53" t="str">
         <f t="shared" si="23"/>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="AC9" s="65"/>
-      <c r="AD9" s="53">
+      <c r="AD9" s="53" t="str">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="AE9" s="53">
         <f t="shared" si="25"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF9" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23248,7 +23525,7 @@
       </c>
       <c r="AI9" s="53">
         <f t="shared" si="28"/>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
@@ -23257,11 +23534,11 @@
       </c>
       <c r="B10" s="53">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="53">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="53">
         <f t="shared" si="1"/>
@@ -23273,27 +23550,27 @@
       </c>
       <c r="F10" s="53">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10" s="53">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="53">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="53">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J10" s="53">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K10" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>Pos.8(4)</v>
+        <v>Pos.5(3)</v>
       </c>
       <c r="L10" s="64"/>
       <c r="M10" s="53">
@@ -23306,7 +23583,7 @@
       </c>
       <c r="O10" s="53">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="53">
         <f t="shared" si="15"/>
@@ -23314,11 +23591,11 @@
       </c>
       <c r="Q10" s="53">
         <f t="shared" si="16"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R10" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>Pos.9(3)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="S10" s="65"/>
       <c r="T10" s="53">
@@ -23335,20 +23612,20 @@
       </c>
       <c r="W10" s="53">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="X10" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.9(3)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="Y10" s="63"/>
       <c r="Z10" s="53">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA10" s="53">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AB10" s="53" t="str">
         <f t="shared" si="23"/>
@@ -23361,7 +23638,7 @@
       </c>
       <c r="AE10" s="53">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AF10" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23374,7 +23651,7 @@
       </c>
       <c r="AI10" s="53">
         <f>AE10+COUNTIFS(AF$2:AF$19,AF10,AH$2:AH$19,"&lt;"&amp;AH10)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
@@ -23383,7 +23660,7 @@
       </c>
       <c r="B11" s="53">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="53">
         <f t="shared" si="0"/>
@@ -23395,19 +23672,19 @@
       </c>
       <c r="E11" s="53">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="53">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" s="53">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" s="53">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" s="53">
         <f t="shared" si="11"/>
@@ -23415,11 +23692,11 @@
       </c>
       <c r="J11" s="53">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K11" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>Pos.2(6)</v>
+        <v>Pos.9(4)</v>
       </c>
       <c r="L11" s="64"/>
       <c r="M11" s="53">
@@ -23428,7 +23705,7 @@
       </c>
       <c r="N11" s="53">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="53">
         <f t="shared" si="6"/>
@@ -23436,15 +23713,15 @@
       </c>
       <c r="P11" s="53">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="53">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R11" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>Pos.2(4)</v>
+        <v>Pos.10(3)</v>
       </c>
       <c r="S11" s="65"/>
       <c r="T11" s="53">
@@ -23461,20 +23738,20 @@
       </c>
       <c r="W11" s="53">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="X11" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.2(4)</v>
+        <v>Pos.10(3)</v>
       </c>
       <c r="Y11" s="63"/>
       <c r="Z11" s="53">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA11" s="53">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AB11" s="53" t="str">
         <f t="shared" si="23"/>
@@ -23487,7 +23764,7 @@
       </c>
       <c r="AE11" s="53">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AF11" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23500,7 +23777,7 @@
       </c>
       <c r="AI11" s="53">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
@@ -23509,11 +23786,11 @@
       </c>
       <c r="B12" s="53">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="53">
         <f t="shared" si="1"/>
@@ -23525,27 +23802,27 @@
       </c>
       <c r="F12" s="53">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" s="53">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" s="53">
         <f t="shared" si="10"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I12" s="53">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J12" s="53">
         <f t="shared" si="12"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K12" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>Pos.14(2)</v>
+        <v>Pos.9(4)</v>
       </c>
       <c r="L12" s="64"/>
       <c r="M12" s="53">
@@ -23566,11 +23843,11 @@
       </c>
       <c r="Q12" s="53">
         <f t="shared" si="16"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="R12" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>Pos.14(2)</v>
+        <v>Pos.10(3)</v>
       </c>
       <c r="S12" s="65"/>
       <c r="T12" s="53">
@@ -23587,33 +23864,33 @@
       </c>
       <c r="W12" s="53">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="X12" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.14(2)</v>
+        <v>Pos.10(3)</v>
       </c>
       <c r="Y12" s="63"/>
       <c r="Z12" s="53">
         <f t="shared" si="21"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AA12" s="53">
         <f t="shared" si="22"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AB12" s="53" t="str">
         <f t="shared" si="23"/>
-        <v>Pos.14(2)</v>
+        <v>-</v>
       </c>
       <c r="AC12" s="65"/>
-      <c r="AD12" s="53">
+      <c r="AD12" s="53" t="str">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>-</v>
       </c>
       <c r="AE12" s="53">
         <f t="shared" si="25"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF12" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23626,7 +23903,7 @@
       </c>
       <c r="AI12" s="53">
         <f t="shared" si="28"/>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
@@ -23635,11 +23912,11 @@
       </c>
       <c r="B13" s="53">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="53">
         <f t="shared" si="1"/>
@@ -23651,95 +23928,95 @@
       </c>
       <c r="F13" s="53">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13" s="53">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="53">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="53">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J13" s="53">
         <f t="shared" si="12"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K13" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="L13" s="64"/>
-      <c r="M13" s="53">
+      <c r="M13" s="53" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="53">
+        <v>-</v>
+      </c>
+      <c r="N13" s="53" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O13" s="53">
+        <v>-</v>
+      </c>
+      <c r="O13" s="53" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="53">
+        <v>-</v>
+      </c>
+      <c r="P13" s="53" t="str">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>-</v>
       </c>
       <c r="Q13" s="53">
         <f t="shared" si="16"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="R13" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="S13" s="65"/>
-      <c r="T13" s="53">
+      <c r="T13" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="53">
+        <v>-</v>
+      </c>
+      <c r="U13" s="53" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="53">
+        <v>-</v>
+      </c>
+      <c r="V13" s="53" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W13" s="53">
         <f t="shared" si="19"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X13" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="Y13" s="63"/>
-      <c r="Z13" s="53">
+      <c r="Z13" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="AA13" s="53">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AB13" s="53" t="str">
         <f t="shared" si="23"/>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="AC13" s="65"/>
-      <c r="AD13" s="53">
+      <c r="AD13" s="53" t="str">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>-</v>
       </c>
       <c r="AE13" s="53">
         <f t="shared" si="25"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AF13" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23752,7 +24029,7 @@
       </c>
       <c r="AI13" s="53">
         <f t="shared" si="28"/>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
@@ -23761,7 +24038,7 @@
       </c>
       <c r="B14" s="53">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="53">
         <f t="shared" si="0"/>
@@ -23773,19 +24050,19 @@
       </c>
       <c r="E14" s="53">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="53">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" s="53">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" s="53">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="53">
         <f t="shared" si="11"/>
@@ -23793,11 +24070,11 @@
       </c>
       <c r="J14" s="53">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K14" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>Pos.2(6)</v>
+        <v>Pos.9(4)</v>
       </c>
       <c r="L14" s="64"/>
       <c r="M14" s="53">
@@ -23806,32 +24083,32 @@
       </c>
       <c r="N14" s="53">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="53">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="53">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="53">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R14" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>Pos.2(4)</v>
+        <v>Pos.10(3)</v>
       </c>
       <c r="S14" s="65"/>
       <c r="T14" s="53">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="53">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="53">
         <f t="shared" si="18"/>
@@ -23839,20 +24116,20 @@
       </c>
       <c r="W14" s="53">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="X14" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.2(4)</v>
+        <v>Pos.10(3)</v>
       </c>
       <c r="Y14" s="63"/>
       <c r="Z14" s="53">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="53">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AB14" s="53" t="str">
         <f t="shared" si="23"/>
@@ -23865,7 +24142,7 @@
       </c>
       <c r="AE14" s="53">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AF14" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23878,7 +24155,7 @@
       </c>
       <c r="AI14" s="53">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
@@ -23887,7 +24164,7 @@
       </c>
       <c r="B15" s="53">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="53">
         <f t="shared" si="0"/>
@@ -23899,19 +24176,19 @@
       </c>
       <c r="E15" s="53">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="53">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="53">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H15" s="53">
         <f t="shared" si="10"/>
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="I15" s="53">
         <f t="shared" si="11"/>
@@ -23974,7 +24251,7 @@
       <c r="Y15" s="63"/>
       <c r="Z15" s="53">
         <f t="shared" si="21"/>
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="AA15" s="53">
         <f t="shared" si="22"/>
@@ -23982,12 +24259,12 @@
       </c>
       <c r="AB15" s="53" t="str">
         <f t="shared" si="23"/>
-        <v>-</v>
+        <v>Pos.17(2)</v>
       </c>
       <c r="AC15" s="65"/>
-      <c r="AD15" s="53" t="str">
+      <c r="AD15" s="53">
         <f t="shared" si="24"/>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="AE15" s="53">
         <f t="shared" si="25"/>
@@ -23995,16 +24272,16 @@
       </c>
       <c r="AF15" s="53" t="str">
         <f t="shared" si="26"/>
-        <v>-</v>
+        <v>Pos.17(2)</v>
       </c>
       <c r="AG15" s="65"/>
-      <c r="AH15" s="53" t="str">
+      <c r="AH15" s="53">
         <f t="shared" si="27"/>
-        <v>-</v>
+        <v>13</v>
       </c>
       <c r="AI15" s="53">
         <f t="shared" si="28"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.2">
@@ -24013,11 +24290,11 @@
       </c>
       <c r="B16" s="53">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="53">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="53">
         <f t="shared" si="1"/>
@@ -24029,7 +24306,7 @@
       </c>
       <c r="F16" s="53">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G16" s="53">
         <f t="shared" si="4"/>
@@ -24037,19 +24314,19 @@
       </c>
       <c r="H16" s="53">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I16" s="53">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J16" s="53">
         <f t="shared" si="12"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K16" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>Pos.8(4)</v>
+        <v>Pos.5(3)</v>
       </c>
       <c r="L16" s="64"/>
       <c r="M16" s="53">
@@ -24062,7 +24339,7 @@
       </c>
       <c r="O16" s="53">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="53">
         <f t="shared" si="15"/>
@@ -24070,11 +24347,11 @@
       </c>
       <c r="Q16" s="53">
         <f t="shared" si="16"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R16" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>Pos.9(3)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="S16" s="65"/>
       <c r="T16" s="53">
@@ -24091,20 +24368,20 @@
       </c>
       <c r="W16" s="53">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="X16" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.9(3)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="Y16" s="63"/>
       <c r="Z16" s="53">
         <f t="shared" si="21"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA16" s="53">
         <f t="shared" si="22"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AB16" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24117,7 +24394,7 @@
       </c>
       <c r="AE16" s="53">
         <f t="shared" si="25"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AF16" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24130,7 +24407,7 @@
       </c>
       <c r="AI16" s="53">
         <f t="shared" si="28"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
@@ -24139,11 +24416,11 @@
       </c>
       <c r="B17" s="53">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="53">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="53">
         <f t="shared" si="1"/>
@@ -24155,7 +24432,7 @@
       </c>
       <c r="F17" s="53">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G17" s="53">
         <f t="shared" si="4"/>
@@ -24163,19 +24440,19 @@
       </c>
       <c r="H17" s="53">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I17" s="53">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J17" s="53">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>Pos.2(6)</v>
+        <v>Pos.1(4)</v>
       </c>
       <c r="L17" s="64"/>
       <c r="M17" s="53">
@@ -24184,7 +24461,7 @@
       </c>
       <c r="N17" s="53">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="53">
         <f t="shared" si="6"/>
@@ -24192,15 +24469,15 @@
       </c>
       <c r="P17" s="53">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="53">
         <f t="shared" si="16"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R17" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>Pos.2(4)</v>
+        <v>Pos.1(4)</v>
       </c>
       <c r="S17" s="65"/>
       <c r="T17" s="53">
@@ -24217,33 +24494,33 @@
       </c>
       <c r="W17" s="53">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X17" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.2(4)</v>
+        <v>Pos.1(4)</v>
       </c>
       <c r="Y17" s="63"/>
       <c r="Z17" s="53">
         <f t="shared" si="21"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AA17" s="53">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="53" t="str">
         <f t="shared" si="23"/>
-        <v>Pos.3(2)</v>
+        <v>-</v>
       </c>
       <c r="AC17" s="65"/>
-      <c r="AD17" s="53">
+      <c r="AD17" s="53" t="str">
         <f t="shared" si="24"/>
-        <v>2</v>
+        <v>-</v>
       </c>
       <c r="AE17" s="53">
         <f t="shared" si="25"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AF17" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24256,7 +24533,7 @@
       </c>
       <c r="AI17" s="53">
         <f t="shared" si="28"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
@@ -24265,7 +24542,7 @@
       </c>
       <c r="B18" s="53">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="53">
         <f t="shared" si="0"/>
@@ -24277,19 +24554,19 @@
       </c>
       <c r="E18" s="53">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="53">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="53">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H18" s="53">
         <f t="shared" si="10"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="I18" s="53">
         <f t="shared" si="11"/>
@@ -24352,7 +24629,7 @@
       <c r="Y18" s="63"/>
       <c r="Z18" s="53">
         <f t="shared" si="21"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="AA18" s="53">
         <f t="shared" si="22"/>
@@ -24391,7 +24668,7 @@
       </c>
       <c r="B19" s="53">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="53">
         <f t="shared" si="0"/>
@@ -24403,19 +24680,19 @@
       </c>
       <c r="E19" s="53">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="53">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19" s="53">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" s="53">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" s="53">
         <f t="shared" si="11"/>
@@ -24423,32 +24700,32 @@
       </c>
       <c r="J19" s="53">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K19" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>-</v>
+        <v>Pos.5(3)</v>
       </c>
       <c r="L19" s="64"/>
-      <c r="M19" s="53" t="str">
+      <c r="M19" s="53">
         <f t="shared" si="14"/>
-        <v>-</v>
-      </c>
-      <c r="N19" s="53" t="str">
+        <v>1</v>
+      </c>
+      <c r="N19" s="53">
         <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="O19" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="O19" s="53">
         <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="P19" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="P19" s="53">
         <f t="shared" si="15"/>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="Q19" s="53">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R19" s="53" t="str">
         <f t="shared" si="17"/>
@@ -24469,7 +24746,7 @@
       </c>
       <c r="W19" s="53">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X19" s="53" t="str">
         <f t="shared" si="20"/>
@@ -24482,7 +24759,7 @@
       </c>
       <c r="AA19" s="53">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB19" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24495,7 +24772,7 @@
       </c>
       <c r="AE19" s="53">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AF19" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24508,7 +24785,7 @@
       </c>
       <c r="AI19" s="53">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -24523,8 +24800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24571,23 +24848,23 @@
       </c>
       <c r="B2" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>UD. Santa Marta</v>
-      </c>
-      <c r="C2" s="74">
+        <v>Salamanca UDS</v>
+      </c>
+      <c r="C2" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
-      </c>
-      <c r="D2" s="74">
-        <f>INDEX('Equipos (cálculos)'!J$2:J$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="74">
+        <v>7</v>
+      </c>
+      <c r="D2" s="75">
+        <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E2" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
         <v>2</v>
       </c>
       <c r="F2" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -24595,7 +24872,7 @@
       </c>
       <c r="H2" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I2" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -24603,7 +24880,7 @@
       </c>
       <c r="J2" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -24612,19 +24889,19 @@
       </c>
       <c r="B3" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>La Virgen del Camino</v>
+        <v>Atlético Tordesillas</v>
       </c>
       <c r="C3" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -24636,11 +24913,11 @@
       </c>
       <c r="H3" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I3" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -24653,19 +24930,19 @@
       </c>
       <c r="B4" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Atlético Tordesillas</v>
+        <v>Burgos CF B</v>
       </c>
       <c r="C4" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -24681,11 +24958,11 @@
       </c>
       <c r="I4" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -24694,19 +24971,19 @@
       </c>
       <c r="B5" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Salamanca UDS</v>
+        <v>CD. Villaralbo</v>
       </c>
       <c r="C5" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -24718,11 +24995,11 @@
       </c>
       <c r="H5" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -24735,31 +25012,31 @@
       </c>
       <c r="B6" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Palencia Cristo Atlético</v>
+        <v>UD. Santa Marta</v>
       </c>
       <c r="C6" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -24767,7 +25044,7 @@
       </c>
       <c r="J6" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -24776,39 +25053,39 @@
       </c>
       <c r="B7" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Burgos CF B</v>
+        <v>Real Ávila</v>
       </c>
       <c r="C7" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I7" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -24817,31 +25094,31 @@
       </c>
       <c r="B8" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>CD. Villaralbo</v>
+        <v>Júpiter Leonés</v>
       </c>
       <c r="C8" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I8" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -24849,7 +25126,7 @@
       </c>
       <c r="J8" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -24858,15 +25135,15 @@
       </c>
       <c r="B9" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Becerril</v>
+        <v>Palencia CF</v>
       </c>
       <c r="C9" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -24874,15 +25151,15 @@
       </c>
       <c r="F9" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -24890,7 +25167,7 @@
       </c>
       <c r="J9" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -24899,15 +25176,15 @@
       </c>
       <c r="B10" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Real Ávila</v>
+        <v>Atl. Astorga</v>
       </c>
       <c r="C10" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -24915,7 +25192,7 @@
       </c>
       <c r="F10" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -24923,15 +25200,15 @@
       </c>
       <c r="H10" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I10" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J10" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -24940,15 +25217,15 @@
       </c>
       <c r="B11" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Júpiter Leonés</v>
+        <v>La Virgen del Camino</v>
       </c>
       <c r="C11" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -24956,7 +25233,7 @@
       </c>
       <c r="F11" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -24964,15 +25241,15 @@
       </c>
       <c r="H11" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I11" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -24981,15 +25258,15 @@
       </c>
       <c r="B12" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Atco. Bembibre</v>
+        <v>Palencia Cristo Atlético</v>
       </c>
       <c r="C12" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -24997,7 +25274,7 @@
       </c>
       <c r="F12" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25005,11 +25282,11 @@
       </c>
       <c r="H12" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25022,39 +25299,39 @@
       </c>
       <c r="B13" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Palencia CF</v>
+        <v>Mirandés B</v>
       </c>
       <c r="C13" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J13" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -25063,39 +25340,39 @@
       </c>
       <c r="B14" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>DiocesanosAvila</v>
+        <v>Atco. Bembibre</v>
       </c>
       <c r="C14" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -25104,27 +25381,27 @@
       </c>
       <c r="B15" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Atl. Astorga</v>
+        <v>Becerril</v>
       </c>
       <c r="C15" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25132,11 +25409,11 @@
       </c>
       <c r="I15" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J15" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -25145,15 +25422,15 @@
       </c>
       <c r="B16" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Mirandés B</v>
+        <v>DiocesanosAvila</v>
       </c>
       <c r="C16" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25161,7 +25438,7 @@
       </c>
       <c r="F16" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25169,15 +25446,15 @@
       </c>
       <c r="H16" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -25194,7 +25471,7 @@
       </c>
       <c r="D17" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25206,19 +25483,19 @@
       </c>
       <c r="G17" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J17" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -25227,7 +25504,7 @@
       </c>
       <c r="B18" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Ponferradina B</v>
+        <v>CD. Laguna</v>
       </c>
       <c r="C18" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25235,7 +25512,7 @@
       </c>
       <c r="D18" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25247,19 +25524,19 @@
       </c>
       <c r="G18" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J18" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-6</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -25268,7 +25545,7 @@
       </c>
       <c r="B19" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>CD. Laguna</v>
+        <v>Ponferradina B</v>
       </c>
       <c r="C19" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25276,7 +25553,7 @@
       </c>
       <c r="D19" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25288,7 +25565,7 @@
       </c>
       <c r="G19" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25296,11 +25573,11 @@
       </c>
       <c r="I19" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J19" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
   </sheetData>
@@ -26747,52 +27024,52 @@
       <c r="B2" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="125" t="s">
+      <c r="C2" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
       <c r="H2" s="36" t="s">
         <v>80</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="125" t="s">
+      <c r="K2" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
       <c r="P2" s="34" t="s">
         <v>53</v>
       </c>
       <c r="R2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="S2" s="125" t="s">
+      <c r="S2" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
       <c r="X2" s="34" t="s">
         <v>96</v>
       </c>
       <c r="Z2" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="AA2" s="125" t="s">
+      <c r="AA2" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="125"/>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="125"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
       <c r="AF2" s="34" t="s">
         <v>71</v>
       </c>
@@ -26852,136 +27129,136 @@
       <c r="CB2" s="142"/>
     </row>
     <row r="3" spans="2:80" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="126" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="139" t="s">
+      <c r="B3" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="148" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="139"/>
-      <c r="G3" s="128" t="s">
+      <c r="F3" s="148"/>
+      <c r="G3" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="129"/>
-      <c r="J3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="138" t="s">
+      <c r="H3" s="139"/>
+      <c r="J3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="138"/>
-      <c r="O3" s="136" t="s">
+      <c r="N3" s="143"/>
+      <c r="O3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="137"/>
-      <c r="R3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="135"/>
-      <c r="T3" s="135"/>
-      <c r="U3" s="138" t="s">
+      <c r="P3" s="145"/>
+      <c r="R3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="147"/>
+      <c r="T3" s="147"/>
+      <c r="U3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="138"/>
-      <c r="W3" s="136" t="s">
+      <c r="V3" s="143"/>
+      <c r="W3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="137"/>
-      <c r="Z3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="135"/>
-      <c r="AC3" s="138" t="s">
+      <c r="X3" s="145"/>
+      <c r="Z3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="147"/>
+      <c r="AB3" s="147"/>
+      <c r="AC3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="138"/>
-      <c r="AE3" s="136" t="s">
+      <c r="AD3" s="143"/>
+      <c r="AE3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="137"/>
-      <c r="AH3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="135"/>
-      <c r="AJ3" s="135"/>
-      <c r="AK3" s="138" t="s">
+      <c r="AF3" s="145"/>
+      <c r="AH3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="147"/>
+      <c r="AJ3" s="147"/>
+      <c r="AK3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="138"/>
-      <c r="AM3" s="136" t="s">
+      <c r="AL3" s="143"/>
+      <c r="AM3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="137"/>
-      <c r="AP3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="135"/>
-      <c r="AR3" s="135"/>
-      <c r="AS3" s="138" t="s">
+      <c r="AN3" s="145"/>
+      <c r="AP3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="147"/>
+      <c r="AR3" s="147"/>
+      <c r="AS3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="138"/>
-      <c r="AU3" s="136" t="s">
+      <c r="AT3" s="143"/>
+      <c r="AU3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="137"/>
-      <c r="AX3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="135"/>
-      <c r="AZ3" s="135"/>
-      <c r="BA3" s="138" t="s">
+      <c r="AV3" s="145"/>
+      <c r="AX3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="147"/>
+      <c r="AZ3" s="147"/>
+      <c r="BA3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="BB3" s="138"/>
-      <c r="BC3" s="136" t="s">
+      <c r="BB3" s="143"/>
+      <c r="BC3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="137"/>
-      <c r="BF3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="135"/>
-      <c r="BH3" s="135"/>
-      <c r="BI3" s="138" t="s">
+      <c r="BD3" s="145"/>
+      <c r="BF3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="147"/>
+      <c r="BH3" s="147"/>
+      <c r="BI3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="BJ3" s="138"/>
-      <c r="BK3" s="136" t="s">
+      <c r="BJ3" s="143"/>
+      <c r="BK3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="137"/>
-      <c r="BN3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="135"/>
-      <c r="BP3" s="135"/>
-      <c r="BQ3" s="138" t="s">
+      <c r="BL3" s="145"/>
+      <c r="BN3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="147"/>
+      <c r="BP3" s="147"/>
+      <c r="BQ3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="138"/>
-      <c r="BS3" s="136" t="s">
+      <c r="BR3" s="143"/>
+      <c r="BS3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="137"/>
-      <c r="BV3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="135"/>
-      <c r="BX3" s="135"/>
-      <c r="BY3" s="138" t="s">
+      <c r="BT3" s="145"/>
+      <c r="BV3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="147"/>
+      <c r="BX3" s="147"/>
+      <c r="BY3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="BZ3" s="138"/>
-      <c r="CA3" s="136" t="s">
+      <c r="BZ3" s="143"/>
+      <c r="CA3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="137"/>
+      <c r="CB3" s="145"/>
     </row>
     <row r="4" spans="2:80" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -29499,12 +29776,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="AX2:BD2"/>
-    <mergeCell ref="BF2:BL2"/>
-    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="BN2:BT2"/>
     <mergeCell ref="BV2:CB2"/>
     <mergeCell ref="AH2:AN2"/>
@@ -29521,24 +29810,12 @@
     <mergeCell ref="AX3:AZ3"/>
     <mergeCell ref="BA3:BB3"/>
     <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="AX2:BD2"/>
+    <mergeCell ref="BF2:BL2"/>
+    <mergeCell ref="AA2:AE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30774,30 +31051,30 @@
     </row>
     <row r="38" spans="6:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="6:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="F39" s="143" t="s">
+      <c r="F39" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="G39" s="144"/>
-      <c r="H39" s="144"/>
-      <c r="I39" s="144"/>
-      <c r="J39" s="144"/>
-      <c r="K39" s="144"/>
-      <c r="L39" s="145"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="151"/>
     </row>
     <row r="40" spans="6:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="F40" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="135"/>
-      <c r="H40" s="135"/>
-      <c r="I40" s="138" t="s">
+      <c r="F40" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="138"/>
-      <c r="K40" s="136" t="s">
+      <c r="J40" s="143"/>
+      <c r="K40" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="137"/>
+      <c r="L40" s="145"/>
     </row>
     <row r="41" spans="6:23" ht="19" x14ac:dyDescent="0.25">
       <c r="F41" s="14" t="s">
@@ -31473,10 +31750,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:EF24"/>
+  <dimension ref="B1:EF25"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="P2" workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31495,7 +31772,7 @@
     <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="30" max="31" width="7.33203125" bestFit="1" customWidth="1"/>
@@ -31572,51 +31849,55 @@
       <c r="B2" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="125" t="s">
+      <c r="C2" s="131" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
       <c r="H2" s="36" t="s">
         <v>71</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="K2" s="125" t="s">
+      <c r="K2" s="131" t="s">
         <v>180</v>
       </c>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
       <c r="P2" s="124" t="s">
         <v>185</v>
       </c>
       <c r="R2" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="S2" s="125" t="s">
+      <c r="S2" s="131" t="s">
         <v>181</v>
       </c>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="102" t="s">
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="124" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z2" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA2" s="131" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="Z2" s="140" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA2" s="141"/>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="141"/>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="142"/>
       <c r="AH2" s="140" t="s">
         <v>33</v>
       </c>
@@ -31736,227 +32017,227 @@
       <c r="EF2" s="142"/>
     </row>
     <row r="3" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="138" t="s">
+      <c r="B3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="138"/>
-      <c r="G3" s="136" t="s">
+      <c r="F3" s="143"/>
+      <c r="G3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="137"/>
-      <c r="J3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="138" t="s">
+      <c r="H3" s="145"/>
+      <c r="J3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="138"/>
-      <c r="O3" s="136" t="s">
+      <c r="N3" s="143"/>
+      <c r="O3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="137"/>
-      <c r="R3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="135"/>
-      <c r="T3" s="135"/>
-      <c r="U3" s="138" t="s">
+      <c r="P3" s="145"/>
+      <c r="R3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="147"/>
+      <c r="T3" s="147"/>
+      <c r="U3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="138"/>
-      <c r="W3" s="136" t="s">
+      <c r="V3" s="143"/>
+      <c r="W3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="137"/>
-      <c r="Z3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="135"/>
-      <c r="AC3" s="138" t="s">
+      <c r="X3" s="145"/>
+      <c r="Z3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="147"/>
+      <c r="AB3" s="147"/>
+      <c r="AC3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="138"/>
-      <c r="AE3" s="136" t="s">
+      <c r="AD3" s="143"/>
+      <c r="AE3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="137"/>
-      <c r="AH3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="135"/>
-      <c r="AJ3" s="135"/>
-      <c r="AK3" s="138" t="s">
+      <c r="AF3" s="145"/>
+      <c r="AH3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="147"/>
+      <c r="AJ3" s="147"/>
+      <c r="AK3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="138"/>
-      <c r="AM3" s="136" t="s">
+      <c r="AL3" s="143"/>
+      <c r="AM3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="137"/>
-      <c r="AP3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="135"/>
-      <c r="AR3" s="135"/>
-      <c r="AS3" s="138" t="s">
+      <c r="AN3" s="145"/>
+      <c r="AP3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="147"/>
+      <c r="AR3" s="147"/>
+      <c r="AS3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="138"/>
-      <c r="AU3" s="136" t="s">
+      <c r="AT3" s="143"/>
+      <c r="AU3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="137"/>
-      <c r="AX3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="135"/>
-      <c r="AZ3" s="135"/>
-      <c r="BA3" s="138" t="s">
+      <c r="AV3" s="145"/>
+      <c r="AX3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="147"/>
+      <c r="AZ3" s="147"/>
+      <c r="BA3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="BB3" s="138"/>
-      <c r="BC3" s="136" t="s">
+      <c r="BB3" s="143"/>
+      <c r="BC3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="137"/>
-      <c r="BF3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="135"/>
-      <c r="BH3" s="135"/>
-      <c r="BI3" s="138" t="s">
+      <c r="BD3" s="145"/>
+      <c r="BF3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="147"/>
+      <c r="BH3" s="147"/>
+      <c r="BI3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="BJ3" s="138"/>
-      <c r="BK3" s="136" t="s">
+      <c r="BJ3" s="143"/>
+      <c r="BK3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="137"/>
-      <c r="BN3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="135"/>
-      <c r="BP3" s="135"/>
-      <c r="BQ3" s="138" t="s">
+      <c r="BL3" s="145"/>
+      <c r="BN3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="147"/>
+      <c r="BP3" s="147"/>
+      <c r="BQ3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="138"/>
-      <c r="BS3" s="136" t="s">
+      <c r="BR3" s="143"/>
+      <c r="BS3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="137"/>
-      <c r="BV3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="135"/>
-      <c r="BX3" s="135"/>
-      <c r="BY3" s="138" t="s">
+      <c r="BT3" s="145"/>
+      <c r="BV3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="147"/>
+      <c r="BX3" s="147"/>
+      <c r="BY3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="BZ3" s="138"/>
-      <c r="CA3" s="136" t="s">
+      <c r="BZ3" s="143"/>
+      <c r="CA3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="137"/>
-      <c r="CD3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="135"/>
-      <c r="CF3" s="135"/>
-      <c r="CG3" s="138" t="s">
+      <c r="CB3" s="145"/>
+      <c r="CD3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="147"/>
+      <c r="CF3" s="147"/>
+      <c r="CG3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="CH3" s="138"/>
-      <c r="CI3" s="136" t="s">
+      <c r="CH3" s="143"/>
+      <c r="CI3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="CJ3" s="137"/>
-      <c r="CL3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="135"/>
-      <c r="CN3" s="135"/>
-      <c r="CO3" s="138" t="s">
+      <c r="CJ3" s="145"/>
+      <c r="CL3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="147"/>
+      <c r="CN3" s="147"/>
+      <c r="CO3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="CP3" s="138"/>
-      <c r="CQ3" s="136" t="s">
+      <c r="CP3" s="143"/>
+      <c r="CQ3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="CR3" s="137"/>
-      <c r="CT3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="135"/>
-      <c r="CV3" s="135"/>
-      <c r="CW3" s="138" t="s">
+      <c r="CR3" s="145"/>
+      <c r="CT3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="147"/>
+      <c r="CV3" s="147"/>
+      <c r="CW3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="CX3" s="138"/>
-      <c r="CY3" s="136" t="s">
+      <c r="CX3" s="143"/>
+      <c r="CY3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="CZ3" s="137"/>
-      <c r="DB3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="DC3" s="135"/>
-      <c r="DD3" s="135"/>
-      <c r="DE3" s="138" t="s">
+      <c r="CZ3" s="145"/>
+      <c r="DB3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="147"/>
+      <c r="DD3" s="147"/>
+      <c r="DE3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="DF3" s="138"/>
-      <c r="DG3" s="136" t="s">
+      <c r="DF3" s="143"/>
+      <c r="DG3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="DH3" s="137"/>
-      <c r="DJ3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="DK3" s="135"/>
-      <c r="DL3" s="135"/>
-      <c r="DM3" s="138" t="s">
+      <c r="DH3" s="145"/>
+      <c r="DJ3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="147"/>
+      <c r="DL3" s="147"/>
+      <c r="DM3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="DN3" s="138"/>
-      <c r="DO3" s="136" t="s">
+      <c r="DN3" s="143"/>
+      <c r="DO3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="DP3" s="137"/>
-      <c r="DR3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS3" s="135"/>
-      <c r="DT3" s="135"/>
-      <c r="DU3" s="138" t="s">
+      <c r="DP3" s="145"/>
+      <c r="DR3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS3" s="147"/>
+      <c r="DT3" s="147"/>
+      <c r="DU3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="DV3" s="138"/>
-      <c r="DW3" s="136" t="s">
+      <c r="DV3" s="143"/>
+      <c r="DW3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="DX3" s="137"/>
-      <c r="DZ3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="EA3" s="135"/>
-      <c r="EB3" s="135"/>
-      <c r="EC3" s="138" t="s">
+      <c r="DX3" s="145"/>
+      <c r="DZ3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="147"/>
+      <c r="EB3" s="147"/>
+      <c r="EC3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="ED3" s="138"/>
-      <c r="EE3" s="136" t="s">
+      <c r="ED3" s="143"/>
+      <c r="EE3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="EF3" s="137"/>
+      <c r="EF3" s="145"/>
     </row>
     <row r="4" spans="2:136" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -32347,8 +32628,12 @@
       <c r="R5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
+      <c r="S5" s="7">
+        <v>1</v>
+      </c>
+      <c r="T5" s="7">
+        <v>90</v>
+      </c>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
@@ -32667,8 +32952,12 @@
       <c r="R7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
+      <c r="S7" s="7">
+        <v>1</v>
+      </c>
+      <c r="T7" s="7">
+        <v>90</v>
+      </c>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
@@ -32984,7 +33273,9 @@
         <v>14</v>
       </c>
       <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
+      <c r="T9" s="7">
+        <v>5</v>
+      </c>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
@@ -33146,8 +33437,12 @@
       <c r="R10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
+      <c r="S10" s="7">
+        <v>1</v>
+      </c>
+      <c r="T10" s="7">
+        <v>90</v>
+      </c>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
@@ -33309,11 +33604,17 @@
       <c r="R11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
+      <c r="S11" s="7">
+        <v>1</v>
+      </c>
+      <c r="T11" s="7">
+        <v>90</v>
+      </c>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
+      <c r="W11" s="7">
+        <v>1</v>
+      </c>
       <c r="X11" s="8"/>
       <c r="Z11" s="6" t="s">
         <v>16</v>
@@ -33631,12 +33932,22 @@
       <c r="R13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
+      <c r="S13" s="7">
+        <v>1</v>
+      </c>
+      <c r="T13" s="7">
+        <v>90</v>
+      </c>
+      <c r="U13" s="7">
+        <v>1</v>
+      </c>
       <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="8"/>
+      <c r="W13" s="7">
+        <v>1</v>
+      </c>
+      <c r="X13" s="8">
+        <v>1</v>
+      </c>
       <c r="Z13" s="6" t="s">
         <v>18</v>
       </c>
@@ -33789,7 +34100,9 @@
         <v>20</v>
       </c>
       <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
+      <c r="T14" s="7">
+        <v>10</v>
+      </c>
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
@@ -34114,12 +34427,22 @@
       <c r="R16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
+      <c r="S16" s="7">
+        <v>1</v>
+      </c>
+      <c r="T16" s="7">
+        <v>85</v>
+      </c>
+      <c r="U16" s="7">
+        <v>1</v>
+      </c>
       <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="8"/>
+      <c r="W16" s="7">
+        <v>1</v>
+      </c>
+      <c r="X16" s="8">
+        <v>1</v>
+      </c>
       <c r="Z16" s="6" t="s">
         <v>22</v>
       </c>
@@ -34436,12 +34759,18 @@
       <c r="R18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
+      <c r="S18" s="7">
+        <v>1</v>
+      </c>
+      <c r="T18" s="7">
+        <v>90</v>
+      </c>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
-      <c r="X18" s="8"/>
+      <c r="X18" s="8">
+        <v>1</v>
+      </c>
       <c r="Z18" s="6" t="s">
         <v>24</v>
       </c>
@@ -34594,7 +34923,9 @@
         <v>25</v>
       </c>
       <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
+      <c r="T19" s="7">
+        <v>24</v>
+      </c>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
@@ -34756,8 +35087,12 @@
       <c r="R20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
+      <c r="S20" s="7">
+        <v>1</v>
+      </c>
+      <c r="T20" s="7">
+        <v>90</v>
+      </c>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
@@ -34917,8 +35252,12 @@
       <c r="R21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
+      <c r="S21" s="7">
+        <v>1</v>
+      </c>
+      <c r="T21" s="7">
+        <v>66</v>
+      </c>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
@@ -35078,8 +35417,12 @@
       <c r="R22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
+      <c r="S22" s="7">
+        <v>1</v>
+      </c>
+      <c r="T22" s="7">
+        <v>85</v>
+      </c>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
@@ -35245,8 +35588,12 @@
       <c r="R23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
+      <c r="S23" s="7">
+        <v>1</v>
+      </c>
+      <c r="T23" s="7">
+        <v>80</v>
+      </c>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
@@ -35403,7 +35750,9 @@
         <v>50</v>
       </c>
       <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
+      <c r="T24" s="7">
+        <v>5</v>
+      </c>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
@@ -35535,64 +35884,14 @@
       <c r="EE24" s="7"/>
       <c r="EF24" s="8"/>
     </row>
+    <row r="25" spans="2:136" x14ac:dyDescent="0.2">
+      <c r="T25">
+        <f>SUM(T5:T24)</f>
+        <v>990</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z2:AF2"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AP2:AV2"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AX2:BD2"/>
-    <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BF2:BL2"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BN2:BT2"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV2:CB2"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="CD2:CJ2"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="CG3:CH3"/>
-    <mergeCell ref="CI3:CJ3"/>
-    <mergeCell ref="CL2:CR2"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="CQ3:CR3"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="CT3:CV3"/>
-    <mergeCell ref="CW3:CX3"/>
-    <mergeCell ref="CY3:CZ3"/>
-    <mergeCell ref="DB2:DH2"/>
-    <mergeCell ref="DB3:DD3"/>
-    <mergeCell ref="DE3:DF3"/>
-    <mergeCell ref="DG3:DH3"/>
     <mergeCell ref="DZ2:EF2"/>
     <mergeCell ref="DZ3:EB3"/>
     <mergeCell ref="EC3:ED3"/>
@@ -35605,6 +35904,62 @@
     <mergeCell ref="DR3:DT3"/>
     <mergeCell ref="DU3:DV3"/>
     <mergeCell ref="DW3:DX3"/>
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="CT3:CV3"/>
+    <mergeCell ref="CW3:CX3"/>
+    <mergeCell ref="CY3:CZ3"/>
+    <mergeCell ref="DB2:DH2"/>
+    <mergeCell ref="DB3:DD3"/>
+    <mergeCell ref="DE3:DF3"/>
+    <mergeCell ref="DG3:DH3"/>
+    <mergeCell ref="CD2:CJ2"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="CG3:CH3"/>
+    <mergeCell ref="CI3:CJ3"/>
+    <mergeCell ref="CL2:CR2"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="CQ3:CR3"/>
+    <mergeCell ref="BN2:BT2"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV2:CB2"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="AX2:BD2"/>
+    <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BF2:BL2"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AP2:AV2"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35614,8 +35969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I9" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35686,14 +36041,14 @@
       </c>
       <c r="C3" s="8">
         <f t="shared" ref="C3:C22" si="0">F40</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="8">
         <f>'1º Vuelta'!D5+'1º Vuelta'!L5+'1º Vuelta'!T5+'1º Vuelta'!AB5+'1º Vuelta'!AJ5+'1º Vuelta'!AR5+'1º Vuelta'!AZ5+'1º Vuelta'!BH5+'1º Vuelta'!BP5+'1º Vuelta'!BX5+'1º Vuelta'!CF5+'1º Vuelta'!CN5+'1º Vuelta'!CV5+'1º Vuelta'!DD5+'1º Vuelta'!DL5+'1º Vuelta'!DT5+'1º Vuelta'!EB5</f>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>10</v>
@@ -35786,14 +36141,14 @@
       </c>
       <c r="C5" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="8">
         <f>'1º Vuelta'!D7+'1º Vuelta'!L7+'1º Vuelta'!T7+'1º Vuelta'!AB7+'1º Vuelta'!AJ7+'1º Vuelta'!AR7+'1º Vuelta'!AZ7+'1º Vuelta'!BH7+'1º Vuelta'!BP7+'1º Vuelta'!BX7+'1º Vuelta'!CF7+'1º Vuelta'!CN7+'1º Vuelta'!CV7+'1º Vuelta'!DD7+'1º Vuelta'!DL7+'1º Vuelta'!DT7+'1º Vuelta'!EB7</f>
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>12</v>
@@ -35827,7 +36182,7 @@
         <v>101</v>
       </c>
       <c r="V5" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="19" x14ac:dyDescent="0.25">
@@ -35877,7 +36232,7 @@
         <v>102</v>
       </c>
       <c r="V6" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:22" ht="19" x14ac:dyDescent="0.25">
@@ -35893,7 +36248,7 @@
       </c>
       <c r="F7" s="8">
         <f>'1º Vuelta'!D9+'1º Vuelta'!L9+'1º Vuelta'!T9+'1º Vuelta'!AB9+'1º Vuelta'!AJ9+'1º Vuelta'!AR9+'1º Vuelta'!AZ9+'1º Vuelta'!BH9+'1º Vuelta'!BP9+'1º Vuelta'!BX9+'1º Vuelta'!CF9+'1º Vuelta'!CN9+'1º Vuelta'!CV9+'1º Vuelta'!DD9+'1º Vuelta'!DL9+'1º Vuelta'!DT9+'1º Vuelta'!EB9</f>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>14</v>
@@ -35936,14 +36291,14 @@
       </c>
       <c r="C8" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="8">
         <f>'1º Vuelta'!D10+'1º Vuelta'!L10+'1º Vuelta'!T10+'1º Vuelta'!AB10+'1º Vuelta'!AJ10+'1º Vuelta'!AR10+'1º Vuelta'!AZ10+'1º Vuelta'!BH10+'1º Vuelta'!BP10+'1º Vuelta'!BX10+'1º Vuelta'!CF10+'1º Vuelta'!CN10+'1º Vuelta'!CV10+'1º Vuelta'!DD10+'1º Vuelta'!DL10+'1º Vuelta'!DT10+'1º Vuelta'!EB10</f>
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>15</v>
@@ -35986,14 +36341,14 @@
       </c>
       <c r="C9" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="8">
         <f>'1º Vuelta'!D11+'1º Vuelta'!L11+'1º Vuelta'!T11+'1º Vuelta'!AB11+'1º Vuelta'!AJ11+'1º Vuelta'!AR11+'1º Vuelta'!AZ11+'1º Vuelta'!BH11+'1º Vuelta'!BP11+'1º Vuelta'!BX11+'1º Vuelta'!CF11+'1º Vuelta'!CN11+'1º Vuelta'!CV11+'1º Vuelta'!DD11+'1º Vuelta'!DL11+'1º Vuelta'!DT11+'1º Vuelta'!EB11</f>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>16</v>
@@ -36014,7 +36369,7 @@
       </c>
       <c r="O9" s="8">
         <f>'1º Vuelta'!G11+'1º Vuelta'!O11+'1º Vuelta'!W11+'1º Vuelta'!AE11+'1º Vuelta'!AM11+'1º Vuelta'!AU11+'1º Vuelta'!BC11+'1º Vuelta'!BK11+'1º Vuelta'!BS11+'1º Vuelta'!CA11+'1º Vuelta'!CI11+'1º Vuelta'!CQ11+'1º Vuelta'!CY11+'1º Vuelta'!DG11+'1º Vuelta'!DO11+'1º Vuelta'!DW11+'1º Vuelta'!EE11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="6" t="s">
         <v>16</v>
@@ -36086,21 +36441,21 @@
       </c>
       <c r="C11" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="8">
         <f>'1º Vuelta'!D13+'1º Vuelta'!L13+'1º Vuelta'!T13+'1º Vuelta'!AB13+'1º Vuelta'!AJ13+'1º Vuelta'!AR13+'1º Vuelta'!AZ13+'1º Vuelta'!BH13+'1º Vuelta'!BP13+'1º Vuelta'!BX13+'1º Vuelta'!CF13+'1º Vuelta'!CN13+'1º Vuelta'!CV13+'1º Vuelta'!DD13+'1º Vuelta'!DL13+'1º Vuelta'!DT13+'1º Vuelta'!EB13</f>
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="8">
         <f>'1º Vuelta'!E13+'1º Vuelta'!M13+'1º Vuelta'!U13+'1º Vuelta'!AC13+'1º Vuelta'!AK13+'1º Vuelta'!AS13+'1º Vuelta'!BA13+'1º Vuelta'!BI13+'1º Vuelta'!BQ13+'1º Vuelta'!BY13+'1º Vuelta'!CG13+'1º Vuelta'!CO13+'1º Vuelta'!CW13+'1º Vuelta'!DE13+'1º Vuelta'!DM13+'1º Vuelta'!DU13+'1º Vuelta'!EC13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>18</v>
@@ -36114,20 +36469,20 @@
       </c>
       <c r="O11" s="8">
         <f>'1º Vuelta'!G13+'1º Vuelta'!O13+'1º Vuelta'!W13+'1º Vuelta'!AE13+'1º Vuelta'!AM13+'1º Vuelta'!AU13+'1º Vuelta'!BC13+'1º Vuelta'!BK13+'1º Vuelta'!BS13+'1º Vuelta'!CA13+'1º Vuelta'!CI13+'1º Vuelta'!CQ13+'1º Vuelta'!CY13+'1º Vuelta'!DG13+'1º Vuelta'!DO13+'1º Vuelta'!DW13+'1º Vuelta'!EE13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="R11" s="8">
         <f>'1º Vuelta'!H13+'1º Vuelta'!P13+'1º Vuelta'!X13+'1º Vuelta'!AF13+'1º Vuelta'!AN13+'1º Vuelta'!AV13+'1º Vuelta'!BD13+'1º Vuelta'!BL13+'1º Vuelta'!BT13+'1º Vuelta'!CB13+'1º Vuelta'!CJ13+'1º Vuelta'!CR13+'1º Vuelta'!CZ13+'1º Vuelta'!DH13+'1º Vuelta'!DP13+'1º Vuelta'!DX13+'1º Vuelta'!EF13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" s="50" t="s">
         <v>107</v>
       </c>
       <c r="V11" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="19" x14ac:dyDescent="0.25">
@@ -36143,7 +36498,7 @@
       </c>
       <c r="F12" s="8">
         <f>'1º Vuelta'!D14+'1º Vuelta'!L14+'1º Vuelta'!T14+'1º Vuelta'!AB14+'1º Vuelta'!AJ14+'1º Vuelta'!AR14+'1º Vuelta'!AZ14+'1º Vuelta'!BH14+'1º Vuelta'!BP14+'1º Vuelta'!BX14+'1º Vuelta'!CF14+'1º Vuelta'!CN14+'1º Vuelta'!CV14+'1º Vuelta'!DD14+'1º Vuelta'!DL14+'1º Vuelta'!DT14+'1º Vuelta'!EB14</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>20</v>
@@ -36231,21 +36586,21 @@
       </c>
       <c r="C14" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="8">
         <f>'1º Vuelta'!D16+'1º Vuelta'!L16+'1º Vuelta'!T16+'1º Vuelta'!AB16+'1º Vuelta'!AJ16+'1º Vuelta'!AR16+'1º Vuelta'!AZ16+'1º Vuelta'!BH16+'1º Vuelta'!BP16+'1º Vuelta'!BX16+'1º Vuelta'!CF16+'1º Vuelta'!CN16+'1º Vuelta'!CV16+'1º Vuelta'!DD16+'1º Vuelta'!DL16+'1º Vuelta'!DT16+'1º Vuelta'!EB16</f>
-        <v>180</v>
+        <v>265</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I14" s="8">
         <f>'1º Vuelta'!E16+'1º Vuelta'!M16+'1º Vuelta'!U16+'1º Vuelta'!AC16+'1º Vuelta'!AK16+'1º Vuelta'!AS16+'1º Vuelta'!BA16+'1º Vuelta'!BI16+'1º Vuelta'!BQ16+'1º Vuelta'!BY16+'1º Vuelta'!CG16+'1º Vuelta'!CO16+'1º Vuelta'!CW16+'1º Vuelta'!DE16+'1º Vuelta'!DM16+'1º Vuelta'!DU16+'1º Vuelta'!EC16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>22</v>
@@ -36259,14 +36614,14 @@
       </c>
       <c r="O14" s="8">
         <f>'1º Vuelta'!G16+'1º Vuelta'!O16+'1º Vuelta'!W16+'1º Vuelta'!AE16+'1º Vuelta'!AM16+'1º Vuelta'!AU16+'1º Vuelta'!BC16+'1º Vuelta'!BK16+'1º Vuelta'!BS16+'1º Vuelta'!CA16+'1º Vuelta'!CI16+'1º Vuelta'!CQ16+'1º Vuelta'!CY16+'1º Vuelta'!DG16+'1º Vuelta'!DO16+'1º Vuelta'!DW16+'1º Vuelta'!EE16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>22</v>
       </c>
       <c r="R14" s="8">
         <f>'1º Vuelta'!H16+'1º Vuelta'!P16+'1º Vuelta'!X16+'1º Vuelta'!AF16+'1º Vuelta'!AN16+'1º Vuelta'!AV16+'1º Vuelta'!BD16+'1º Vuelta'!BL16+'1º Vuelta'!BT16+'1º Vuelta'!CB16+'1º Vuelta'!CJ16+'1º Vuelta'!CR16+'1º Vuelta'!CZ16+'1º Vuelta'!DH16+'1º Vuelta'!DP16+'1º Vuelta'!DX16+'1º Vuelta'!EF16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="50" t="s">
         <v>99</v>
@@ -36322,7 +36677,7 @@
         <v>100</v>
       </c>
       <c r="V15" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:22" ht="19" x14ac:dyDescent="0.25">
@@ -36331,14 +36686,14 @@
       </c>
       <c r="C16" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="8">
         <f>'1º Vuelta'!D18+'1º Vuelta'!L18+'1º Vuelta'!T18+'1º Vuelta'!AB18+'1º Vuelta'!AJ18+'1º Vuelta'!AR18+'1º Vuelta'!AZ18+'1º Vuelta'!BH18+'1º Vuelta'!BP18+'1º Vuelta'!BX18+'1º Vuelta'!CF18+'1º Vuelta'!CN18+'1º Vuelta'!CV18+'1º Vuelta'!DD18+'1º Vuelta'!DL18+'1º Vuelta'!DT18+'1º Vuelta'!EB18</f>
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>24</v>
@@ -36366,7 +36721,7 @@
       </c>
       <c r="R16" s="8">
         <f>'1º Vuelta'!H18+'1º Vuelta'!P18+'1º Vuelta'!X18+'1º Vuelta'!AF18+'1º Vuelta'!AN18+'1º Vuelta'!AV18+'1º Vuelta'!BD18+'1º Vuelta'!BL18+'1º Vuelta'!BT18+'1º Vuelta'!CB18+'1º Vuelta'!CJ18+'1º Vuelta'!CR18+'1º Vuelta'!CZ18+'1º Vuelta'!DH18+'1º Vuelta'!DP18+'1º Vuelta'!DX18+'1º Vuelta'!EF18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="50" t="s">
         <v>101</v>
@@ -36388,7 +36743,7 @@
       </c>
       <c r="F17" s="8">
         <f>'1º Vuelta'!D19+'1º Vuelta'!L19+'1º Vuelta'!T19+'1º Vuelta'!AB19+'1º Vuelta'!AJ19+'1º Vuelta'!AR19+'1º Vuelta'!AZ19+'1º Vuelta'!BH19+'1º Vuelta'!BP19+'1º Vuelta'!BX19+'1º Vuelta'!CF19+'1º Vuelta'!CN19+'1º Vuelta'!CV19+'1º Vuelta'!DD19+'1º Vuelta'!DL19+'1º Vuelta'!DT19+'1º Vuelta'!EB19</f>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>25</v>
@@ -36431,14 +36786,14 @@
       </c>
       <c r="C18" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="8">
         <f>'1º Vuelta'!D20+'1º Vuelta'!L20+'1º Vuelta'!T20+'1º Vuelta'!AB20+'1º Vuelta'!AJ20+'1º Vuelta'!AR20+'1º Vuelta'!AZ20+'1º Vuelta'!BH20+'1º Vuelta'!BP20+'1º Vuelta'!BX20+'1º Vuelta'!CF20+'1º Vuelta'!CN20+'1º Vuelta'!CV20+'1º Vuelta'!DD20+'1º Vuelta'!DL20+'1º Vuelta'!DT20+'1º Vuelta'!EB20</f>
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>26</v>
@@ -36481,14 +36836,14 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="8">
         <f>'1º Vuelta'!D21+'1º Vuelta'!L21+'1º Vuelta'!T21+'1º Vuelta'!AB21+'1º Vuelta'!AJ21+'1º Vuelta'!AR21+'1º Vuelta'!AZ21+'1º Vuelta'!BH21+'1º Vuelta'!BP21+'1º Vuelta'!BX21+'1º Vuelta'!CF21+'1º Vuelta'!CN21+'1º Vuelta'!CV21+'1º Vuelta'!DD21+'1º Vuelta'!DL21+'1º Vuelta'!DT21+'1º Vuelta'!EB21</f>
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>27</v>
@@ -36522,7 +36877,7 @@
         <v>104</v>
       </c>
       <c r="V19" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:22" ht="19" x14ac:dyDescent="0.25">
@@ -36531,14 +36886,14 @@
       </c>
       <c r="C20" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="8">
         <f>'1º Vuelta'!D22+'1º Vuelta'!L22+'1º Vuelta'!T22+'1º Vuelta'!AB22+'1º Vuelta'!AJ22+'1º Vuelta'!AR22+'1º Vuelta'!AZ22+'1º Vuelta'!BH22+'1º Vuelta'!BP22+'1º Vuelta'!BX22+'1º Vuelta'!CF22+'1º Vuelta'!CN22+'1º Vuelta'!CV22+'1º Vuelta'!DD22+'1º Vuelta'!DL22+'1º Vuelta'!DT22+'1º Vuelta'!EB22</f>
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>28</v>
@@ -36581,14 +36936,14 @@
       </c>
       <c r="C21" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F21" s="8">
         <f>'1º Vuelta'!D23+'1º Vuelta'!L23+'1º Vuelta'!T23+'1º Vuelta'!AB23+'1º Vuelta'!AJ23+'1º Vuelta'!AR23+'1º Vuelta'!AZ23+'1º Vuelta'!BH23+'1º Vuelta'!BP23+'1º Vuelta'!BX23+'1º Vuelta'!CF23+'1º Vuelta'!CN23+'1º Vuelta'!CV23+'1º Vuelta'!DD23+'1º Vuelta'!DL23+'1º Vuelta'!DT23+'1º Vuelta'!EB23</f>
-        <v>179</v>
+        <v>259</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>29</v>
@@ -36638,7 +36993,7 @@
       </c>
       <c r="F22" s="8">
         <f>'1º Vuelta'!D24+'1º Vuelta'!L24+'1º Vuelta'!T24+'1º Vuelta'!AB24+'1º Vuelta'!AJ24+'1º Vuelta'!AR24+'1º Vuelta'!AZ24+'1º Vuelta'!BH24+'1º Vuelta'!BP24+'1º Vuelta'!BX24+'1º Vuelta'!CF24+'1º Vuelta'!CN24+'1º Vuelta'!CV24+'1º Vuelta'!DD24+'1º Vuelta'!DL24+'1º Vuelta'!DT24+'1º Vuelta'!EB24</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>50</v>
@@ -36736,7 +37091,7 @@
         <v>105</v>
       </c>
       <c r="V31" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.2">
@@ -36752,7 +37107,7 @@
         <v>107</v>
       </c>
       <c r="V33" s="22">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="5:22" x14ac:dyDescent="0.2">
@@ -36774,19 +37129,19 @@
       <c r="K37" s="142"/>
     </row>
     <row r="38" spans="5:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="E38" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="135"/>
-      <c r="G38" s="135"/>
-      <c r="H38" s="138" t="s">
+      <c r="E38" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="147"/>
+      <c r="G38" s="147"/>
+      <c r="H38" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="138"/>
-      <c r="J38" s="136" t="s">
+      <c r="I38" s="143"/>
+      <c r="J38" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="137"/>
+      <c r="K38" s="145"/>
     </row>
     <row r="39" spans="5:22" ht="19" x14ac:dyDescent="0.25">
       <c r="E39" s="14" t="s">
@@ -36817,11 +37172,11 @@
       </c>
       <c r="F40" s="7">
         <f>'1º Vuelta'!C5+'1º Vuelta'!K5+'1º Vuelta'!S5+'1º Vuelta'!AA5+'1º Vuelta'!AI5+'1º Vuelta'!AQ5+'1º Vuelta'!AY5+'1º Vuelta'!BG5+'1º Vuelta'!BO5+'1º Vuelta'!BW5+'1º Vuelta'!CE5+'1º Vuelta'!CM5+'1º Vuelta'!CU5+'1º Vuelta'!DC5+'1º Vuelta'!DK5+'1º Vuelta'!DS5+'1º Vuelta'!EA5</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" s="7">
         <f>'1º Vuelta'!D5+'1º Vuelta'!L5+'1º Vuelta'!T5+'1º Vuelta'!AB5+'1º Vuelta'!AJ5+'1º Vuelta'!AR5+'1º Vuelta'!AZ5+'1º Vuelta'!BH5+'1º Vuelta'!BP5+'1º Vuelta'!BX5+'1º Vuelta'!CF5+'1º Vuelta'!CN5+'1º Vuelta'!CV5+'1º Vuelta'!DD5+'1º Vuelta'!DL5+'1º Vuelta'!DT5+'1º Vuelta'!EB5</f>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="H40" s="7">
         <f>'1º Vuelta'!E5+'1º Vuelta'!M5+'1º Vuelta'!U5+'1º Vuelta'!AC5+'1º Vuelta'!AK5+'1º Vuelta'!AS5+'1º Vuelta'!BA5+'1º Vuelta'!BI5+'1º Vuelta'!BQ5+'1º Vuelta'!BY5+'1º Vuelta'!CG5+'1º Vuelta'!CO5+'1º Vuelta'!CW5+'1º Vuelta'!DE5+'1º Vuelta'!DM5+'1º Vuelta'!DU5+'1º Vuelta'!EC5</f>
@@ -36875,11 +37230,11 @@
       </c>
       <c r="F42" s="7">
         <f>'1º Vuelta'!C7+'1º Vuelta'!K7+'1º Vuelta'!S7+'1º Vuelta'!AA7+'1º Vuelta'!AI7+'1º Vuelta'!AQ7+'1º Vuelta'!AY7+'1º Vuelta'!BG7+'1º Vuelta'!BO7+'1º Vuelta'!BW7+'1º Vuelta'!CE7+'1º Vuelta'!CM7+'1º Vuelta'!CU7+'1º Vuelta'!DC7+'1º Vuelta'!DK7+'1º Vuelta'!DS7+'1º Vuelta'!EA7</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" s="7">
         <f>'1º Vuelta'!D7+'1º Vuelta'!L7+'1º Vuelta'!T7+'1º Vuelta'!AB7+'1º Vuelta'!AJ7+'1º Vuelta'!AR7+'1º Vuelta'!AZ7+'1º Vuelta'!BH7+'1º Vuelta'!BP7+'1º Vuelta'!BX7+'1º Vuelta'!CF7+'1º Vuelta'!CN7+'1º Vuelta'!CV7+'1º Vuelta'!DD7+'1º Vuelta'!DL7+'1º Vuelta'!DT7+'1º Vuelta'!EB7</f>
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="H42" s="7">
         <f>'1º Vuelta'!E7+'1º Vuelta'!M7+'1º Vuelta'!U7+'1º Vuelta'!AC7+'1º Vuelta'!AK7+'1º Vuelta'!AS7+'1º Vuelta'!BA7+'1º Vuelta'!BI7+'1º Vuelta'!BQ7+'1º Vuelta'!BY7+'1º Vuelta'!CG7+'1º Vuelta'!CO7+'1º Vuelta'!CW7+'1º Vuelta'!DE7+'1º Vuelta'!DM7+'1º Vuelta'!DU7+'1º Vuelta'!EC7</f>
@@ -36937,7 +37292,7 @@
       </c>
       <c r="G44" s="7">
         <f>'1º Vuelta'!D9+'1º Vuelta'!L9+'1º Vuelta'!T9+'1º Vuelta'!AB9+'1º Vuelta'!AJ9+'1º Vuelta'!AR9+'1º Vuelta'!AZ9+'1º Vuelta'!BH9+'1º Vuelta'!BP9+'1º Vuelta'!BX9+'1º Vuelta'!CF9+'1º Vuelta'!CN9+'1º Vuelta'!CV9+'1º Vuelta'!DD9+'1º Vuelta'!DL9+'1º Vuelta'!DT9+'1º Vuelta'!EB9</f>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H44" s="7">
         <f>'1º Vuelta'!E9+'1º Vuelta'!M9+'1º Vuelta'!U9+'1º Vuelta'!AC9+'1º Vuelta'!AK9+'1º Vuelta'!AS9+'1º Vuelta'!BA9+'1º Vuelta'!BI9+'1º Vuelta'!BQ9+'1º Vuelta'!BY9+'1º Vuelta'!CG9+'1º Vuelta'!CO9+'1º Vuelta'!CW9+'1º Vuelta'!DE9+'1º Vuelta'!DM9+'1º Vuelta'!DU9+'1º Vuelta'!EC9</f>
@@ -36962,11 +37317,11 @@
       </c>
       <c r="F45" s="7">
         <f>'1º Vuelta'!C10+'1º Vuelta'!K10+'1º Vuelta'!S10+'1º Vuelta'!AA10+'1º Vuelta'!AI10+'1º Vuelta'!AQ10+'1º Vuelta'!AY10+'1º Vuelta'!BG10+'1º Vuelta'!BO10+'1º Vuelta'!BW10+'1º Vuelta'!CE10+'1º Vuelta'!CM10+'1º Vuelta'!CU10+'1º Vuelta'!DC10+'1º Vuelta'!DK10+'1º Vuelta'!DS10+'1º Vuelta'!EA10</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45" s="7">
         <f>'1º Vuelta'!D10+'1º Vuelta'!L10+'1º Vuelta'!T10+'1º Vuelta'!AB10+'1º Vuelta'!AJ10+'1º Vuelta'!AR10+'1º Vuelta'!AZ10+'1º Vuelta'!BH10+'1º Vuelta'!BP10+'1º Vuelta'!BX10+'1º Vuelta'!CF10+'1º Vuelta'!CN10+'1º Vuelta'!CV10+'1º Vuelta'!DD10+'1º Vuelta'!DL10+'1º Vuelta'!DT10+'1º Vuelta'!EB10</f>
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="H45" s="7">
         <f>'1º Vuelta'!E10+'1º Vuelta'!M10+'1º Vuelta'!U10+'1º Vuelta'!AC10+'1º Vuelta'!AK10+'1º Vuelta'!AS10+'1º Vuelta'!BA10+'1º Vuelta'!BI10+'1º Vuelta'!BQ10+'1º Vuelta'!BY10+'1º Vuelta'!CG10+'1º Vuelta'!CO10+'1º Vuelta'!CW10+'1º Vuelta'!DE10+'1º Vuelta'!DM10+'1º Vuelta'!DU10+'1º Vuelta'!EC10</f>
@@ -36991,11 +37346,11 @@
       </c>
       <c r="F46" s="7">
         <f>'1º Vuelta'!C11+'1º Vuelta'!K11+'1º Vuelta'!S11+'1º Vuelta'!AA11+'1º Vuelta'!AI11+'1º Vuelta'!AQ11+'1º Vuelta'!AY11+'1º Vuelta'!BG11+'1º Vuelta'!BO11+'1º Vuelta'!BW11+'1º Vuelta'!CE11+'1º Vuelta'!CM11+'1º Vuelta'!CU11+'1º Vuelta'!DC11+'1º Vuelta'!DK11+'1º Vuelta'!DS11+'1º Vuelta'!EA11</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G46" s="7">
         <f>'1º Vuelta'!D11+'1º Vuelta'!L11+'1º Vuelta'!T11+'1º Vuelta'!AB11+'1º Vuelta'!AJ11+'1º Vuelta'!AR11+'1º Vuelta'!AZ11+'1º Vuelta'!BH11+'1º Vuelta'!BP11+'1º Vuelta'!BX11+'1º Vuelta'!CF11+'1º Vuelta'!CN11+'1º Vuelta'!CV11+'1º Vuelta'!DD11+'1º Vuelta'!DL11+'1º Vuelta'!DT11+'1º Vuelta'!EB11</f>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="H46" s="7">
         <f>'1º Vuelta'!E11+'1º Vuelta'!M11+'1º Vuelta'!U11+'1º Vuelta'!AC11+'1º Vuelta'!AK11+'1º Vuelta'!AS11+'1º Vuelta'!BA11+'1º Vuelta'!BI11+'1º Vuelta'!BQ11+'1º Vuelta'!BY11+'1º Vuelta'!CG11+'1º Vuelta'!CO11+'1º Vuelta'!CW11+'1º Vuelta'!DE11+'1º Vuelta'!DM11+'1º Vuelta'!DU11+'1º Vuelta'!EC11</f>
@@ -37007,7 +37362,7 @@
       </c>
       <c r="J46" s="7">
         <f>'1º Vuelta'!G11+'1º Vuelta'!O11+'1º Vuelta'!W11+'1º Vuelta'!AE11+'1º Vuelta'!AM11+'1º Vuelta'!AU11+'1º Vuelta'!BC11+'1º Vuelta'!BK11+'1º Vuelta'!BS11+'1º Vuelta'!CA11+'1º Vuelta'!CI11+'1º Vuelta'!CQ11+'1º Vuelta'!CY11+'1º Vuelta'!DG11+'1º Vuelta'!DO11+'1º Vuelta'!DW11+'1º Vuelta'!EE11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="7">
         <f>'1º Vuelta'!H11+'1º Vuelta'!P11+'1º Vuelta'!X11+'1º Vuelta'!AF11+'1º Vuelta'!AN11+'1º Vuelta'!AV11+'1º Vuelta'!BD11+'1º Vuelta'!BL11+'1º Vuelta'!BT11+'1º Vuelta'!CB11+'1º Vuelta'!CJ11+'1º Vuelta'!CR11+'1º Vuelta'!CZ11+'1º Vuelta'!DH11+'1º Vuelta'!DP11+'1º Vuelta'!DX11+'1º Vuelta'!EF11</f>
@@ -37049,15 +37404,15 @@
       </c>
       <c r="F48" s="7">
         <f>'1º Vuelta'!C13+'1º Vuelta'!K13+'1º Vuelta'!S13+'1º Vuelta'!AA13+'1º Vuelta'!AI13+'1º Vuelta'!AQ13+'1º Vuelta'!AY13+'1º Vuelta'!BG13+'1º Vuelta'!BO13+'1º Vuelta'!BW13+'1º Vuelta'!CE13+'1º Vuelta'!CM13+'1º Vuelta'!CU13+'1º Vuelta'!DC13+'1º Vuelta'!DK13+'1º Vuelta'!DS13+'1º Vuelta'!EA13</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" s="7">
         <f>'1º Vuelta'!D13+'1º Vuelta'!L13+'1º Vuelta'!T13+'1º Vuelta'!AB13+'1º Vuelta'!AJ13+'1º Vuelta'!AR13+'1º Vuelta'!AZ13+'1º Vuelta'!BH13+'1º Vuelta'!BP13+'1º Vuelta'!BX13+'1º Vuelta'!CF13+'1º Vuelta'!CN13+'1º Vuelta'!CV13+'1º Vuelta'!DD13+'1º Vuelta'!DL13+'1º Vuelta'!DT13+'1º Vuelta'!EB13</f>
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="H48" s="7">
         <f>'1º Vuelta'!E13+'1º Vuelta'!M13+'1º Vuelta'!U13+'1º Vuelta'!AC13+'1º Vuelta'!AK13+'1º Vuelta'!AS13+'1º Vuelta'!BA13+'1º Vuelta'!BI13+'1º Vuelta'!BQ13+'1º Vuelta'!BY13+'1º Vuelta'!CG13+'1º Vuelta'!CO13+'1º Vuelta'!CW13+'1º Vuelta'!DE13+'1º Vuelta'!DM13+'1º Vuelta'!DU13+'1º Vuelta'!EC13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="7">
         <f>'1º Vuelta'!F13+'1º Vuelta'!N13+'1º Vuelta'!V13+'1º Vuelta'!AD13+'1º Vuelta'!AL13+'1º Vuelta'!AT13+'1º Vuelta'!BB13+'1º Vuelta'!BJ13+'1º Vuelta'!BR13+'1º Vuelta'!BZ13+'1º Vuelta'!CH13+'1º Vuelta'!CP13+'1º Vuelta'!CX13+'1º Vuelta'!DF13+'1º Vuelta'!DN13+'1º Vuelta'!DV13+'1º Vuelta'!ED13</f>
@@ -37065,11 +37420,11 @@
       </c>
       <c r="J48" s="7">
         <f>'1º Vuelta'!G13+'1º Vuelta'!O13+'1º Vuelta'!W13+'1º Vuelta'!AE13+'1º Vuelta'!AM13+'1º Vuelta'!AU13+'1º Vuelta'!BC13+'1º Vuelta'!BK13+'1º Vuelta'!BS13+'1º Vuelta'!CA13+'1º Vuelta'!CI13+'1º Vuelta'!CQ13+'1º Vuelta'!CY13+'1º Vuelta'!DG13+'1º Vuelta'!DO13+'1º Vuelta'!DW13+'1º Vuelta'!EE13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="7">
         <f>'1º Vuelta'!H13+'1º Vuelta'!P13+'1º Vuelta'!X13+'1º Vuelta'!AF13+'1º Vuelta'!AN13+'1º Vuelta'!AV13+'1º Vuelta'!BD13+'1º Vuelta'!BL13+'1º Vuelta'!BT13+'1º Vuelta'!CB13+'1º Vuelta'!CJ13+'1º Vuelta'!CR13+'1º Vuelta'!CZ13+'1º Vuelta'!DH13+'1º Vuelta'!DP13+'1º Vuelta'!DX13+'1º Vuelta'!EF13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="5:11" ht="19" x14ac:dyDescent="0.25">
@@ -37082,7 +37437,7 @@
       </c>
       <c r="G49" s="7">
         <f>'1º Vuelta'!D14+'1º Vuelta'!L14+'1º Vuelta'!T14+'1º Vuelta'!AB14+'1º Vuelta'!AJ14+'1º Vuelta'!AR14+'1º Vuelta'!AZ14+'1º Vuelta'!BH14+'1º Vuelta'!BP14+'1º Vuelta'!BX14+'1º Vuelta'!CF14+'1º Vuelta'!CN14+'1º Vuelta'!CV14+'1º Vuelta'!DD14+'1º Vuelta'!DL14+'1º Vuelta'!DT14+'1º Vuelta'!EB14</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H49" s="7">
         <f>'1º Vuelta'!E14+'1º Vuelta'!M14+'1º Vuelta'!U14+'1º Vuelta'!AC14+'1º Vuelta'!AK14+'1º Vuelta'!AS14+'1º Vuelta'!BA14+'1º Vuelta'!BI14+'1º Vuelta'!BQ14+'1º Vuelta'!BY14+'1º Vuelta'!CG14+'1º Vuelta'!CO14+'1º Vuelta'!CW14+'1º Vuelta'!DE14+'1º Vuelta'!DM14+'1º Vuelta'!DU14+'1º Vuelta'!EC14</f>
@@ -37136,15 +37491,15 @@
       </c>
       <c r="F51" s="7">
         <f>'1º Vuelta'!C16+'1º Vuelta'!K16+'1º Vuelta'!S16+'1º Vuelta'!AA16+'1º Vuelta'!AI16+'1º Vuelta'!AQ16+'1º Vuelta'!AY16+'1º Vuelta'!BG16+'1º Vuelta'!BO16+'1º Vuelta'!BW16+'1º Vuelta'!CE16+'1º Vuelta'!CM16+'1º Vuelta'!CU16+'1º Vuelta'!DC16+'1º Vuelta'!DK16+'1º Vuelta'!DS16+'1º Vuelta'!EA16</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G51" s="7">
         <f>'1º Vuelta'!D16+'1º Vuelta'!L16+'1º Vuelta'!T16+'1º Vuelta'!AB16+'1º Vuelta'!AJ16+'1º Vuelta'!AR16+'1º Vuelta'!AZ16+'1º Vuelta'!BH16+'1º Vuelta'!BP16+'1º Vuelta'!BX16+'1º Vuelta'!CF16+'1º Vuelta'!CN16+'1º Vuelta'!CV16+'1º Vuelta'!DD16+'1º Vuelta'!DL16+'1º Vuelta'!DT16+'1º Vuelta'!EB16</f>
-        <v>180</v>
+        <v>265</v>
       </c>
       <c r="H51" s="7">
         <f>'1º Vuelta'!E16+'1º Vuelta'!M16+'1º Vuelta'!U16+'1º Vuelta'!AC16+'1º Vuelta'!AK16+'1º Vuelta'!AS16+'1º Vuelta'!BA16+'1º Vuelta'!BI16+'1º Vuelta'!BQ16+'1º Vuelta'!BY16+'1º Vuelta'!CG16+'1º Vuelta'!CO16+'1º Vuelta'!CW16+'1º Vuelta'!DE16+'1º Vuelta'!DM16+'1º Vuelta'!DU16+'1º Vuelta'!EC16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="7">
         <f>'1º Vuelta'!F16+'1º Vuelta'!N16+'1º Vuelta'!V16+'1º Vuelta'!AD16+'1º Vuelta'!AL16+'1º Vuelta'!AT16+'1º Vuelta'!BB16+'1º Vuelta'!BJ16+'1º Vuelta'!BR16+'1º Vuelta'!BZ16+'1º Vuelta'!CH16+'1º Vuelta'!CP16+'1º Vuelta'!CX16+'1º Vuelta'!DF16+'1º Vuelta'!DN16+'1º Vuelta'!DV16+'1º Vuelta'!ED16</f>
@@ -37152,11 +37507,11 @@
       </c>
       <c r="J51" s="7">
         <f>'1º Vuelta'!G16+'1º Vuelta'!O16+'1º Vuelta'!W16+'1º Vuelta'!AE16+'1º Vuelta'!AM16+'1º Vuelta'!AU16+'1º Vuelta'!BC16+'1º Vuelta'!BK16+'1º Vuelta'!BS16+'1º Vuelta'!CA16+'1º Vuelta'!CI16+'1º Vuelta'!CQ16+'1º Vuelta'!CY16+'1º Vuelta'!DG16+'1º Vuelta'!DO16+'1º Vuelta'!DW16+'1º Vuelta'!EE16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="7">
         <f>'1º Vuelta'!H16+'1º Vuelta'!P16+'1º Vuelta'!X16+'1º Vuelta'!AF16+'1º Vuelta'!AN16+'1º Vuelta'!AV16+'1º Vuelta'!BD16+'1º Vuelta'!BL16+'1º Vuelta'!BT16+'1º Vuelta'!CB16+'1º Vuelta'!CJ16+'1º Vuelta'!CR16+'1º Vuelta'!CZ16+'1º Vuelta'!DH16+'1º Vuelta'!DP16+'1º Vuelta'!DX16+'1º Vuelta'!EF16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="5:11" ht="19" x14ac:dyDescent="0.25">
@@ -37194,11 +37549,11 @@
       </c>
       <c r="F53" s="7">
         <f>'1º Vuelta'!C18+'1º Vuelta'!K18+'1º Vuelta'!S18+'1º Vuelta'!AA18+'1º Vuelta'!AI18+'1º Vuelta'!AQ18+'1º Vuelta'!AY18+'1º Vuelta'!BG18+'1º Vuelta'!BO18+'1º Vuelta'!BW18+'1º Vuelta'!CE18+'1º Vuelta'!CM18+'1º Vuelta'!CU18+'1º Vuelta'!DC18+'1º Vuelta'!DK18+'1º Vuelta'!DS18+'1º Vuelta'!EA18</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G53" s="7">
         <f>'1º Vuelta'!D18+'1º Vuelta'!L18+'1º Vuelta'!T18+'1º Vuelta'!AB18+'1º Vuelta'!AJ18+'1º Vuelta'!AR18+'1º Vuelta'!AZ18+'1º Vuelta'!BH18+'1º Vuelta'!BP18+'1º Vuelta'!BX18+'1º Vuelta'!CF18+'1º Vuelta'!CN18+'1º Vuelta'!CV18+'1º Vuelta'!DD18+'1º Vuelta'!DL18+'1º Vuelta'!DT18+'1º Vuelta'!EB18</f>
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="H53" s="7">
         <f>'1º Vuelta'!E18+'1º Vuelta'!M18+'1º Vuelta'!U18+'1º Vuelta'!AC18+'1º Vuelta'!AK18+'1º Vuelta'!AS18+'1º Vuelta'!BA18+'1º Vuelta'!BI18+'1º Vuelta'!BQ18+'1º Vuelta'!BY18+'1º Vuelta'!CG18+'1º Vuelta'!CO18+'1º Vuelta'!CW18+'1º Vuelta'!DE18+'1º Vuelta'!DM18+'1º Vuelta'!DU18+'1º Vuelta'!EC18</f>
@@ -37214,7 +37569,7 @@
       </c>
       <c r="K53" s="7">
         <f>'1º Vuelta'!H18+'1º Vuelta'!P18+'1º Vuelta'!X18+'1º Vuelta'!AF18+'1º Vuelta'!AN18+'1º Vuelta'!AV18+'1º Vuelta'!BD18+'1º Vuelta'!BL18+'1º Vuelta'!BT18+'1º Vuelta'!CB18+'1º Vuelta'!CJ18+'1º Vuelta'!CR18+'1º Vuelta'!CZ18+'1º Vuelta'!DH18+'1º Vuelta'!DP18+'1º Vuelta'!DX18+'1º Vuelta'!EF18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="5:11" ht="19" x14ac:dyDescent="0.25">
@@ -37227,7 +37582,7 @@
       </c>
       <c r="G54" s="7">
         <f>'1º Vuelta'!D19+'1º Vuelta'!L19+'1º Vuelta'!T19+'1º Vuelta'!AB19+'1º Vuelta'!AJ19+'1º Vuelta'!AR19+'1º Vuelta'!AZ19+'1º Vuelta'!BH19+'1º Vuelta'!BP19+'1º Vuelta'!BX19+'1º Vuelta'!CF19+'1º Vuelta'!CN19+'1º Vuelta'!CV19+'1º Vuelta'!DD19+'1º Vuelta'!DL19+'1º Vuelta'!DT19+'1º Vuelta'!EB19</f>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H54" s="7">
         <f>'1º Vuelta'!E19+'1º Vuelta'!M19+'1º Vuelta'!U19+'1º Vuelta'!AC19+'1º Vuelta'!AK19+'1º Vuelta'!AS19+'1º Vuelta'!BA19+'1º Vuelta'!BI19+'1º Vuelta'!BQ19+'1º Vuelta'!BY19+'1º Vuelta'!CG19+'1º Vuelta'!CO19+'1º Vuelta'!CW19+'1º Vuelta'!DE19+'1º Vuelta'!DM19+'1º Vuelta'!DU19+'1º Vuelta'!EC19</f>
@@ -37252,11 +37607,11 @@
       </c>
       <c r="F55" s="7">
         <f>'1º Vuelta'!C20+'1º Vuelta'!K20+'1º Vuelta'!S20+'1º Vuelta'!AA20+'1º Vuelta'!AI20+'1º Vuelta'!AQ20+'1º Vuelta'!AY20+'1º Vuelta'!BG20+'1º Vuelta'!BO20+'1º Vuelta'!BW20+'1º Vuelta'!CE20+'1º Vuelta'!CM20+'1º Vuelta'!CU20+'1º Vuelta'!DC20+'1º Vuelta'!DK20+'1º Vuelta'!DS20+'1º Vuelta'!EA20</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" s="7">
         <f>'1º Vuelta'!D20+'1º Vuelta'!L20+'1º Vuelta'!T20+'1º Vuelta'!AB20+'1º Vuelta'!AJ20+'1º Vuelta'!AR20+'1º Vuelta'!AZ20+'1º Vuelta'!BH20+'1º Vuelta'!BP20+'1º Vuelta'!BX20+'1º Vuelta'!CF20+'1º Vuelta'!CN20+'1º Vuelta'!CV20+'1º Vuelta'!DD20+'1º Vuelta'!DL20+'1º Vuelta'!DT20+'1º Vuelta'!EB20</f>
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="H55" s="7">
         <f>'1º Vuelta'!E20+'1º Vuelta'!M20+'1º Vuelta'!U20+'1º Vuelta'!AC20+'1º Vuelta'!AK20+'1º Vuelta'!AS20+'1º Vuelta'!BA20+'1º Vuelta'!BI20+'1º Vuelta'!BQ20+'1º Vuelta'!BY20+'1º Vuelta'!CG20+'1º Vuelta'!CO20+'1º Vuelta'!CW20+'1º Vuelta'!DE20+'1º Vuelta'!DM20+'1º Vuelta'!DU20+'1º Vuelta'!EC20</f>
@@ -37281,11 +37636,11 @@
       </c>
       <c r="F56" s="7">
         <f>'1º Vuelta'!C21+'1º Vuelta'!K21+'1º Vuelta'!S21+'1º Vuelta'!AA21+'1º Vuelta'!AI21+'1º Vuelta'!AQ21+'1º Vuelta'!AY21+'1º Vuelta'!BG21+'1º Vuelta'!BO21+'1º Vuelta'!BW21+'1º Vuelta'!CE21+'1º Vuelta'!CM21+'1º Vuelta'!CU21+'1º Vuelta'!DC21+'1º Vuelta'!DK21+'1º Vuelta'!DS21+'1º Vuelta'!EA21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" s="7">
         <f>'1º Vuelta'!D21+'1º Vuelta'!L21+'1º Vuelta'!T21+'1º Vuelta'!AB21+'1º Vuelta'!AJ21+'1º Vuelta'!AR21+'1º Vuelta'!AZ21+'1º Vuelta'!BH21+'1º Vuelta'!BP21+'1º Vuelta'!BX21+'1º Vuelta'!CF21+'1º Vuelta'!CN21+'1º Vuelta'!CV21+'1º Vuelta'!DD21+'1º Vuelta'!DL21+'1º Vuelta'!DT21+'1º Vuelta'!EB21</f>
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="H56" s="7">
         <f>'1º Vuelta'!E21+'1º Vuelta'!M21+'1º Vuelta'!U21+'1º Vuelta'!AC21+'1º Vuelta'!AK21+'1º Vuelta'!AS21+'1º Vuelta'!BA21+'1º Vuelta'!BI21+'1º Vuelta'!BQ21+'1º Vuelta'!BY21+'1º Vuelta'!CG21+'1º Vuelta'!CO21+'1º Vuelta'!CW21+'1º Vuelta'!DE21+'1º Vuelta'!DM21+'1º Vuelta'!DU21+'1º Vuelta'!EC21</f>
@@ -37310,11 +37665,11 @@
       </c>
       <c r="F57" s="7">
         <f>'1º Vuelta'!C22+'1º Vuelta'!K22+'1º Vuelta'!S22+'1º Vuelta'!AA22+'1º Vuelta'!AI22+'1º Vuelta'!AQ22+'1º Vuelta'!AY22+'1º Vuelta'!BG22+'1º Vuelta'!BO22+'1º Vuelta'!BW22+'1º Vuelta'!CE22+'1º Vuelta'!CM22+'1º Vuelta'!CU22+'1º Vuelta'!DC22+'1º Vuelta'!DK22+'1º Vuelta'!DS22+'1º Vuelta'!EA22</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" s="7">
         <f>'1º Vuelta'!D22+'1º Vuelta'!L22+'1º Vuelta'!T22+'1º Vuelta'!AB22+'1º Vuelta'!AJ22+'1º Vuelta'!AR22+'1º Vuelta'!AZ22+'1º Vuelta'!BH22+'1º Vuelta'!BP22+'1º Vuelta'!BX22+'1º Vuelta'!CF22+'1º Vuelta'!CN22+'1º Vuelta'!CV22+'1º Vuelta'!DD22+'1º Vuelta'!DL22+'1º Vuelta'!DT22+'1º Vuelta'!EB22</f>
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="H57" s="7">
         <f>'1º Vuelta'!E22+'1º Vuelta'!M22+'1º Vuelta'!U22+'1º Vuelta'!AC22+'1º Vuelta'!AK22+'1º Vuelta'!AS22+'1º Vuelta'!BA22+'1º Vuelta'!BI22+'1º Vuelta'!BQ22+'1º Vuelta'!BY22+'1º Vuelta'!CG22+'1º Vuelta'!CO22+'1º Vuelta'!CW22+'1º Vuelta'!DE22+'1º Vuelta'!DM22+'1º Vuelta'!DU22+'1º Vuelta'!EC22</f>
@@ -37339,11 +37694,11 @@
       </c>
       <c r="F58" s="7">
         <f>'1º Vuelta'!C23+'1º Vuelta'!K23+'1º Vuelta'!S23+'1º Vuelta'!AA23+'1º Vuelta'!AI23+'1º Vuelta'!AQ23+'1º Vuelta'!AY23+'1º Vuelta'!BG23+'1º Vuelta'!BO23+'1º Vuelta'!BW23+'1º Vuelta'!CE23+'1º Vuelta'!CM23+'1º Vuelta'!CU23+'1º Vuelta'!DC23+'1º Vuelta'!DK23+'1º Vuelta'!DS23+'1º Vuelta'!EA23</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G58" s="7">
         <f>'1º Vuelta'!D23+'1º Vuelta'!L23+'1º Vuelta'!T23+'1º Vuelta'!AB23+'1º Vuelta'!AJ23+'1º Vuelta'!AR23+'1º Vuelta'!AZ23+'1º Vuelta'!BH23+'1º Vuelta'!BP23+'1º Vuelta'!BX23+'1º Vuelta'!CF23+'1º Vuelta'!CN23+'1º Vuelta'!CV23+'1º Vuelta'!DD23+'1º Vuelta'!DL23+'1º Vuelta'!DT23+'1º Vuelta'!EB23</f>
-        <v>179</v>
+        <v>259</v>
       </c>
       <c r="H58" s="7">
         <f>'1º Vuelta'!E23+'1º Vuelta'!M23+'1º Vuelta'!U23+'1º Vuelta'!AC23+'1º Vuelta'!AK23+'1º Vuelta'!AS23+'1º Vuelta'!BA23+'1º Vuelta'!BI23+'1º Vuelta'!BQ23+'1º Vuelta'!BY23+'1º Vuelta'!CG23+'1º Vuelta'!CO23+'1º Vuelta'!CW23+'1º Vuelta'!DE23+'1º Vuelta'!DM23+'1º Vuelta'!DU23+'1º Vuelta'!EC23</f>
@@ -37372,7 +37727,7 @@
       </c>
       <c r="G59" s="7">
         <f>'1º Vuelta'!D24+'1º Vuelta'!L24+'1º Vuelta'!T24+'1º Vuelta'!AB24+'1º Vuelta'!AJ24+'1º Vuelta'!AR24+'1º Vuelta'!AZ24+'1º Vuelta'!BH24+'1º Vuelta'!BP24+'1º Vuelta'!BX24+'1º Vuelta'!CF24+'1º Vuelta'!CN24+'1º Vuelta'!CV24+'1º Vuelta'!DD24+'1º Vuelta'!DL24+'1º Vuelta'!DT24+'1º Vuelta'!EB24</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H59" s="7">
         <f>'1º Vuelta'!E24+'1º Vuelta'!M24+'1º Vuelta'!U24+'1º Vuelta'!AC24+'1º Vuelta'!AK24+'1º Vuelta'!AS24+'1º Vuelta'!BA24+'1º Vuelta'!BI24+'1º Vuelta'!BQ24+'1º Vuelta'!BY24+'1º Vuelta'!CG24+'1º Vuelta'!CO24+'1º Vuelta'!CW24+'1º Vuelta'!DE24+'1º Vuelta'!DM24+'1º Vuelta'!DU24+'1º Vuelta'!EC24</f>
@@ -37658,227 +38013,227 @@
       <c r="EF2" s="142"/>
     </row>
     <row r="3" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="138" t="s">
+      <c r="B3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="138"/>
-      <c r="G3" s="136" t="s">
+      <c r="F3" s="143"/>
+      <c r="G3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="137"/>
-      <c r="J3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="138" t="s">
+      <c r="H3" s="145"/>
+      <c r="J3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="138"/>
-      <c r="O3" s="136" t="s">
+      <c r="N3" s="143"/>
+      <c r="O3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="137"/>
-      <c r="R3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="135"/>
-      <c r="T3" s="135"/>
-      <c r="U3" s="138" t="s">
+      <c r="P3" s="145"/>
+      <c r="R3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="147"/>
+      <c r="T3" s="147"/>
+      <c r="U3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="138"/>
-      <c r="W3" s="136" t="s">
+      <c r="V3" s="143"/>
+      <c r="W3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="137"/>
-      <c r="Z3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="135"/>
-      <c r="AC3" s="138" t="s">
+      <c r="X3" s="145"/>
+      <c r="Z3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="147"/>
+      <c r="AB3" s="147"/>
+      <c r="AC3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="138"/>
-      <c r="AE3" s="136" t="s">
+      <c r="AD3" s="143"/>
+      <c r="AE3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="137"/>
-      <c r="AH3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="135"/>
-      <c r="AJ3" s="135"/>
-      <c r="AK3" s="138" t="s">
+      <c r="AF3" s="145"/>
+      <c r="AH3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="147"/>
+      <c r="AJ3" s="147"/>
+      <c r="AK3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="138"/>
-      <c r="AM3" s="136" t="s">
+      <c r="AL3" s="143"/>
+      <c r="AM3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="137"/>
-      <c r="AP3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="135"/>
-      <c r="AR3" s="135"/>
-      <c r="AS3" s="138" t="s">
+      <c r="AN3" s="145"/>
+      <c r="AP3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="147"/>
+      <c r="AR3" s="147"/>
+      <c r="AS3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="138"/>
-      <c r="AU3" s="136" t="s">
+      <c r="AT3" s="143"/>
+      <c r="AU3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="137"/>
-      <c r="AX3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="135"/>
-      <c r="AZ3" s="135"/>
-      <c r="BA3" s="138" t="s">
+      <c r="AV3" s="145"/>
+      <c r="AX3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="147"/>
+      <c r="AZ3" s="147"/>
+      <c r="BA3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="BB3" s="138"/>
-      <c r="BC3" s="136" t="s">
+      <c r="BB3" s="143"/>
+      <c r="BC3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="137"/>
-      <c r="BF3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="135"/>
-      <c r="BH3" s="135"/>
-      <c r="BI3" s="138" t="s">
+      <c r="BD3" s="145"/>
+      <c r="BF3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="147"/>
+      <c r="BH3" s="147"/>
+      <c r="BI3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="BJ3" s="138"/>
-      <c r="BK3" s="136" t="s">
+      <c r="BJ3" s="143"/>
+      <c r="BK3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="137"/>
-      <c r="BN3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="135"/>
-      <c r="BP3" s="135"/>
-      <c r="BQ3" s="138" t="s">
+      <c r="BL3" s="145"/>
+      <c r="BN3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="147"/>
+      <c r="BP3" s="147"/>
+      <c r="BQ3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="138"/>
-      <c r="BS3" s="136" t="s">
+      <c r="BR3" s="143"/>
+      <c r="BS3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="137"/>
-      <c r="BV3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="135"/>
-      <c r="BX3" s="135"/>
-      <c r="BY3" s="138" t="s">
+      <c r="BT3" s="145"/>
+      <c r="BV3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="147"/>
+      <c r="BX3" s="147"/>
+      <c r="BY3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="BZ3" s="138"/>
-      <c r="CA3" s="136" t="s">
+      <c r="BZ3" s="143"/>
+      <c r="CA3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="137"/>
-      <c r="CD3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="135"/>
-      <c r="CF3" s="135"/>
-      <c r="CG3" s="138" t="s">
+      <c r="CB3" s="145"/>
+      <c r="CD3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="147"/>
+      <c r="CF3" s="147"/>
+      <c r="CG3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="CH3" s="138"/>
-      <c r="CI3" s="136" t="s">
+      <c r="CH3" s="143"/>
+      <c r="CI3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="CJ3" s="137"/>
-      <c r="CL3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="135"/>
-      <c r="CN3" s="135"/>
-      <c r="CO3" s="138" t="s">
+      <c r="CJ3" s="145"/>
+      <c r="CL3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="147"/>
+      <c r="CN3" s="147"/>
+      <c r="CO3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="CP3" s="138"/>
-      <c r="CQ3" s="136" t="s">
+      <c r="CP3" s="143"/>
+      <c r="CQ3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="CR3" s="137"/>
-      <c r="CT3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="135"/>
-      <c r="CV3" s="135"/>
-      <c r="CW3" s="138" t="s">
+      <c r="CR3" s="145"/>
+      <c r="CT3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="147"/>
+      <c r="CV3" s="147"/>
+      <c r="CW3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="CX3" s="138"/>
-      <c r="CY3" s="136" t="s">
+      <c r="CX3" s="143"/>
+      <c r="CY3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="CZ3" s="137"/>
-      <c r="DB3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="DC3" s="135"/>
-      <c r="DD3" s="135"/>
-      <c r="DE3" s="138" t="s">
+      <c r="CZ3" s="145"/>
+      <c r="DB3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="147"/>
+      <c r="DD3" s="147"/>
+      <c r="DE3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="DF3" s="138"/>
-      <c r="DG3" s="136" t="s">
+      <c r="DF3" s="143"/>
+      <c r="DG3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="DH3" s="137"/>
-      <c r="DJ3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="DK3" s="135"/>
-      <c r="DL3" s="135"/>
-      <c r="DM3" s="138" t="s">
+      <c r="DH3" s="145"/>
+      <c r="DJ3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="147"/>
+      <c r="DL3" s="147"/>
+      <c r="DM3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="DN3" s="138"/>
-      <c r="DO3" s="136" t="s">
+      <c r="DN3" s="143"/>
+      <c r="DO3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="DP3" s="137"/>
-      <c r="DR3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS3" s="135"/>
-      <c r="DT3" s="135"/>
-      <c r="DU3" s="138" t="s">
+      <c r="DP3" s="145"/>
+      <c r="DR3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS3" s="147"/>
+      <c r="DT3" s="147"/>
+      <c r="DU3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="DV3" s="138"/>
-      <c r="DW3" s="136" t="s">
+      <c r="DV3" s="143"/>
+      <c r="DW3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="DX3" s="137"/>
-      <c r="DZ3" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="EA3" s="135"/>
-      <c r="EB3" s="135"/>
-      <c r="EC3" s="138" t="s">
+      <c r="DX3" s="145"/>
+      <c r="DZ3" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="147"/>
+      <c r="EB3" s="147"/>
+      <c r="EC3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="ED3" s="138"/>
-      <c r="EE3" s="136" t="s">
+      <c r="ED3" s="143"/>
+      <c r="EE3" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="EF3" s="137"/>
+      <c r="EF3" s="145"/>
     </row>
     <row r="4" spans="2:136" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -41651,6 +42006,62 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="DW3:DX3"/>
+    <mergeCell ref="DZ3:EB3"/>
+    <mergeCell ref="EC3:ED3"/>
+    <mergeCell ref="EE3:EF3"/>
+    <mergeCell ref="DG3:DH3"/>
+    <mergeCell ref="DJ3:DL3"/>
+    <mergeCell ref="DM3:DN3"/>
+    <mergeCell ref="DO3:DP3"/>
+    <mergeCell ref="DR3:DT3"/>
+    <mergeCell ref="DU3:DV3"/>
+    <mergeCell ref="DE3:DF3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="CG3:CH3"/>
+    <mergeCell ref="CI3:CJ3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="CQ3:CR3"/>
+    <mergeCell ref="CT3:CV3"/>
+    <mergeCell ref="CW3:CX3"/>
+    <mergeCell ref="CY3:CZ3"/>
+    <mergeCell ref="DB3:DD3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="DB2:DH2"/>
+    <mergeCell ref="DJ2:DP2"/>
+    <mergeCell ref="DR2:DX2"/>
+    <mergeCell ref="DZ2:EF2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="CL2:CR2"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="J2:P2"/>
@@ -41663,62 +42074,6 @@
     <mergeCell ref="BN2:BT2"/>
     <mergeCell ref="BV2:CB2"/>
     <mergeCell ref="CD2:CJ2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="DB2:DH2"/>
-    <mergeCell ref="DJ2:DP2"/>
-    <mergeCell ref="DR2:DX2"/>
-    <mergeCell ref="DZ2:EF2"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="DE3:DF3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="CG3:CH3"/>
-    <mergeCell ref="CI3:CJ3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="CQ3:CR3"/>
-    <mergeCell ref="CT3:CV3"/>
-    <mergeCell ref="CW3:CX3"/>
-    <mergeCell ref="CY3:CZ3"/>
-    <mergeCell ref="DB3:DD3"/>
-    <mergeCell ref="DW3:DX3"/>
-    <mergeCell ref="DZ3:EB3"/>
-    <mergeCell ref="EC3:ED3"/>
-    <mergeCell ref="EE3:EF3"/>
-    <mergeCell ref="DG3:DH3"/>
-    <mergeCell ref="DJ3:DL3"/>
-    <mergeCell ref="DM3:DN3"/>
-    <mergeCell ref="DO3:DP3"/>
-    <mergeCell ref="DR3:DT3"/>
-    <mergeCell ref="DU3:DV3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42607,19 +42962,19 @@
       <c r="I39" s="142"/>
     </row>
     <row r="40" spans="3:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="C40" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="135"/>
-      <c r="E40" s="135"/>
-      <c r="F40" s="138" t="s">
+      <c r="C40" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="147"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="138"/>
-      <c r="H40" s="136" t="s">
+      <c r="G40" s="143"/>
+      <c r="H40" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="137"/>
+      <c r="I40" s="145"/>
     </row>
     <row r="41" spans="3:9" ht="19" x14ac:dyDescent="0.25">
       <c r="C41" s="14" t="s">
@@ -43366,14 +43721,14 @@
       </c>
       <c r="D3" s="8">
         <f>G42</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="8">
         <f t="shared" ref="G3:G24" si="0">H42</f>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>10</v>
@@ -43454,14 +43809,14 @@
       </c>
       <c r="D5" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="8">
         <f t="shared" si="0"/>
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>12</v>
@@ -43549,7 +43904,7 @@
       </c>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>14</v>
@@ -43586,14 +43941,14 @@
       </c>
       <c r="D8" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>15</v>
@@ -43630,14 +43985,14 @@
       </c>
       <c r="D9" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>16</v>
@@ -43658,7 +44013,7 @@
       </c>
       <c r="P9" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="6" t="s">
         <v>16</v>
@@ -43718,21 +44073,21 @@
       </c>
       <c r="D11" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>18</v>
@@ -43746,14 +44101,14 @@
       </c>
       <c r="P11" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="S11" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="3:19" ht="19" x14ac:dyDescent="0.25">
@@ -43813,7 +44168,7 @@
       </c>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>20</v>
@@ -43894,21 +44249,21 @@
       </c>
       <c r="D15" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>265</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>22</v>
@@ -43922,14 +44277,14 @@
       </c>
       <c r="P15" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="S15" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="3:19" ht="19" x14ac:dyDescent="0.25">
@@ -43982,14 +44337,14 @@
       </c>
       <c r="D17" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>24</v>
@@ -44017,7 +44372,7 @@
       </c>
       <c r="S17" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="3:19" ht="19" x14ac:dyDescent="0.25">
@@ -44033,7 +44388,7 @@
       </c>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>25</v>
@@ -44070,14 +44425,14 @@
       </c>
       <c r="D19" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>26</v>
@@ -44114,14 +44469,14 @@
       </c>
       <c r="D20" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>27</v>
@@ -44158,14 +44513,14 @@
       </c>
       <c r="D21" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>28</v>
@@ -44202,14 +44557,14 @@
       </c>
       <c r="D22" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>179</v>
+        <v>259</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>29</v>
@@ -44253,7 +44608,7 @@
       </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>50</v>
@@ -44330,30 +44685,30 @@
     </row>
     <row r="38" spans="6:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="6:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="F39" s="143" t="s">
+      <c r="F39" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="G39" s="144"/>
-      <c r="H39" s="144"/>
-      <c r="I39" s="144"/>
-      <c r="J39" s="144"/>
-      <c r="K39" s="144"/>
-      <c r="L39" s="145"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="151"/>
     </row>
     <row r="40" spans="6:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="F40" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="135"/>
-      <c r="H40" s="135"/>
-      <c r="I40" s="138" t="s">
+      <c r="F40" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="138"/>
-      <c r="K40" s="136" t="s">
+      <c r="J40" s="143"/>
+      <c r="K40" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="137"/>
+      <c r="L40" s="145"/>
     </row>
     <row r="41" spans="6:12" ht="19" x14ac:dyDescent="0.25">
       <c r="F41" s="14" t="s">
@@ -44384,11 +44739,11 @@
       </c>
       <c r="G42" s="7">
         <f>'Estadisticas 1º Vuelta'!F40+'Estadisticas 2º Vuelta'!D42</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H42" s="7">
         <f>'Estadisticas 1º Vuelta'!G40+'Estadisticas 2º Vuelta'!E42</f>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="I42" s="7">
         <f>'Estadisticas 1º Vuelta'!H40+'Estadisticas 2º Vuelta'!F42</f>
@@ -44442,11 +44797,11 @@
       </c>
       <c r="G44" s="7">
         <f>'Estadisticas 1º Vuelta'!F42+'Estadisticas 2º Vuelta'!D44</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H44" s="7">
         <f>'Estadisticas 1º Vuelta'!G42+'Estadisticas 2º Vuelta'!E44</f>
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="I44" s="7">
         <f>'Estadisticas 1º Vuelta'!H42+'Estadisticas 2º Vuelta'!F44</f>
@@ -44504,7 +44859,7 @@
       </c>
       <c r="H46" s="7">
         <f>'Estadisticas 1º Vuelta'!G44+'Estadisticas 2º Vuelta'!E46</f>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I46" s="7">
         <f>'Estadisticas 1º Vuelta'!H44+'Estadisticas 2º Vuelta'!F46</f>
@@ -44529,11 +44884,11 @@
       </c>
       <c r="G47" s="7">
         <f>'Estadisticas 1º Vuelta'!F45+'Estadisticas 2º Vuelta'!D47</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H47" s="7">
         <f>'Estadisticas 1º Vuelta'!G45+'Estadisticas 2º Vuelta'!E47</f>
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="I47" s="7">
         <f>'Estadisticas 1º Vuelta'!H45+'Estadisticas 2º Vuelta'!F47</f>
@@ -44558,11 +44913,11 @@
       </c>
       <c r="G48" s="7">
         <f>'Estadisticas 1º Vuelta'!F46+'Estadisticas 2º Vuelta'!D48</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H48" s="7">
         <f>'Estadisticas 1º Vuelta'!G46+'Estadisticas 2º Vuelta'!E48</f>
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="I48" s="7">
         <f>'Estadisticas 1º Vuelta'!H46+'Estadisticas 2º Vuelta'!F48</f>
@@ -44574,7 +44929,7 @@
       </c>
       <c r="K48" s="7">
         <f>'Estadisticas 1º Vuelta'!J46+'Estadisticas 2º Vuelta'!H48</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="8">
         <f>'Estadisticas 1º Vuelta'!K46+'Estadisticas 2º Vuelta'!I48</f>
@@ -44616,15 +44971,15 @@
       </c>
       <c r="G50" s="7">
         <f>'Estadisticas 1º Vuelta'!F48+'Estadisticas 2º Vuelta'!D50</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H50" s="7">
         <f>'Estadisticas 1º Vuelta'!G48+'Estadisticas 2º Vuelta'!E50</f>
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="I50" s="7">
         <f>'Estadisticas 1º Vuelta'!H48+'Estadisticas 2º Vuelta'!F50</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" s="7">
         <f>'Estadisticas 1º Vuelta'!I48+'Estadisticas 2º Vuelta'!G50</f>
@@ -44632,11 +44987,11 @@
       </c>
       <c r="K50" s="7">
         <f>'Estadisticas 1º Vuelta'!J48+'Estadisticas 2º Vuelta'!H50</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="8">
         <f>'Estadisticas 1º Vuelta'!K48+'Estadisticas 2º Vuelta'!I50</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="6:12" ht="19" x14ac:dyDescent="0.25">
@@ -44678,7 +45033,7 @@
       </c>
       <c r="H52" s="7">
         <f>'Estadisticas 1º Vuelta'!G49+'Estadisticas 2º Vuelta'!E52</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I52" s="7">
         <f>'Estadisticas 1º Vuelta'!H49+'Estadisticas 2º Vuelta'!F52</f>
@@ -44732,15 +45087,15 @@
       </c>
       <c r="G54" s="7">
         <f>'Estadisticas 1º Vuelta'!F51+'Estadisticas 2º Vuelta'!D54</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H54" s="7">
         <f>'Estadisticas 1º Vuelta'!G51+'Estadisticas 2º Vuelta'!E54</f>
-        <v>180</v>
+        <v>265</v>
       </c>
       <c r="I54" s="7">
         <f>'Estadisticas 1º Vuelta'!H51+'Estadisticas 2º Vuelta'!F54</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" s="7">
         <f>'Estadisticas 1º Vuelta'!I51+'Estadisticas 2º Vuelta'!G54</f>
@@ -44748,11 +45103,11 @@
       </c>
       <c r="K54" s="7">
         <f>'Estadisticas 1º Vuelta'!J51+'Estadisticas 2º Vuelta'!H54</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="8">
         <f>'Estadisticas 1º Vuelta'!K51+'Estadisticas 2º Vuelta'!I54</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="6:12" ht="19" x14ac:dyDescent="0.25">
@@ -44790,11 +45145,11 @@
       </c>
       <c r="G56" s="7">
         <f>'Estadisticas 1º Vuelta'!F53+'Estadisticas 2º Vuelta'!D56</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H56" s="7">
         <f>'Estadisticas 1º Vuelta'!G53+'Estadisticas 2º Vuelta'!E56</f>
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="I56" s="7">
         <f>'Estadisticas 1º Vuelta'!H53+'Estadisticas 2º Vuelta'!F56</f>
@@ -44810,7 +45165,7 @@
       </c>
       <c r="L56" s="8">
         <f>'Estadisticas 1º Vuelta'!K53+'Estadisticas 2º Vuelta'!I56</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="6:12" ht="19" x14ac:dyDescent="0.25">
@@ -44823,7 +45178,7 @@
       </c>
       <c r="H57" s="7">
         <f>'Estadisticas 1º Vuelta'!G54+'Estadisticas 2º Vuelta'!E57</f>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I57" s="7">
         <f>'Estadisticas 1º Vuelta'!H54+'Estadisticas 2º Vuelta'!F57</f>
@@ -44848,11 +45203,11 @@
       </c>
       <c r="G58" s="7">
         <f>'Estadisticas 1º Vuelta'!F55+'Estadisticas 2º Vuelta'!D58</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" s="7">
         <f>'Estadisticas 1º Vuelta'!G55+'Estadisticas 2º Vuelta'!E58</f>
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="I58" s="7">
         <f>'Estadisticas 1º Vuelta'!H55+'Estadisticas 2º Vuelta'!F58</f>
@@ -44877,11 +45232,11 @@
       </c>
       <c r="G59" s="7">
         <f>'Estadisticas 1º Vuelta'!F56+'Estadisticas 2º Vuelta'!D59</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" s="7">
         <f>'Estadisticas 1º Vuelta'!G56+'Estadisticas 2º Vuelta'!E59</f>
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="I59" s="7">
         <f>'Estadisticas 1º Vuelta'!H56+'Estadisticas 2º Vuelta'!F59</f>
@@ -44906,11 +45261,11 @@
       </c>
       <c r="G60" s="7">
         <f>'Estadisticas 1º Vuelta'!F57+'Estadisticas 2º Vuelta'!D60</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" s="7">
         <f>'Estadisticas 1º Vuelta'!G57+'Estadisticas 2º Vuelta'!E60</f>
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="I60" s="7">
         <f>'Estadisticas 1º Vuelta'!H57+'Estadisticas 2º Vuelta'!F60</f>
@@ -44935,11 +45290,11 @@
       </c>
       <c r="G61" s="7">
         <f>'Estadisticas 1º Vuelta'!F58+'Estadisticas 2º Vuelta'!D61</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H61" s="7">
         <f>'Estadisticas 1º Vuelta'!G58+'Estadisticas 2º Vuelta'!E61</f>
-        <v>179</v>
+        <v>259</v>
       </c>
       <c r="I61" s="7">
         <f>'Estadisticas 1º Vuelta'!H58+'Estadisticas 2º Vuelta'!F61</f>
@@ -44968,7 +45323,7 @@
       </c>
       <c r="H62" s="7">
         <f>'Estadisticas 1º Vuelta'!G59+'Estadisticas 2º Vuelta'!E62</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I62" s="7">
         <f>'Estadisticas 1º Vuelta'!H59+'Estadisticas 2º Vuelta'!F62</f>

--- a/SALAMANCA UDS 2324.xlsx
+++ b/SALAMANCA UDS 2324.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PRETEMPORADA" sheetId="10" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3339" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3341" uniqueCount="192">
   <si>
     <t>Jugadores</t>
   </si>
@@ -895,6 +895,32 @@
   <si>
     <t>4 - 0</t>
   </si>
+  <si>
+    <t>BEMBIBRE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 08/10/2023</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -979,7 +1005,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1091,6 +1117,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1515,7 +1547,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1818,8 +1850,23 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1833,16 +1880,22 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1854,24 +1907,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1881,7 +1916,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="20" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2438,85 +2473,85 @@
       <c r="B2" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
       <c r="F2" s="23" t="s">
         <v>53</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="130" t="s">
+      <c r="I2" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
       <c r="L2" s="34" t="s">
         <v>68</v>
       </c>
       <c r="N2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="130" t="s">
+      <c r="O2" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
       <c r="R2" s="35" t="s">
         <v>71</v>
       </c>
       <c r="T2" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="U2" s="130" t="s">
+      <c r="U2" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
       <c r="X2" s="45" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:24" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="135" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137" t="s">
+      <c r="B3" s="132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="138"/>
-      <c r="H3" s="135" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="137" t="s">
+      <c r="F3" s="135"/>
+      <c r="H3" s="132" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
+      <c r="K3" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="138"/>
-      <c r="N3" s="135" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="137" t="s">
+      <c r="L3" s="135"/>
+      <c r="N3" s="132" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="133"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="138"/>
-      <c r="T3" s="131" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="132"/>
-      <c r="V3" s="132"/>
-      <c r="W3" s="133" t="s">
+      <c r="R3" s="135"/>
+      <c r="T3" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="137"/>
+      <c r="V3" s="137"/>
+      <c r="W3" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="134"/>
+      <c r="X3" s="139"/>
     </row>
     <row r="4" spans="2:24" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -3852,18 +3887,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3874,8 +3909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2752"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3953,7 +3988,7 @@
       </c>
       <c r="J2" s="53" t="str">
         <f>IF(H2="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B2,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.17(2)</v>
+        <v>-</v>
       </c>
       <c r="K2" s="53" t="str">
         <f>IF(H2="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F2,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -3961,7 +3996,7 @@
       </c>
       <c r="M2" t="str">
         <f>IF(H2="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B2,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.17(2)</v>
+        <v>-</v>
       </c>
       <c r="N2" t="str">
         <f>IF(H2="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F2,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -3993,19 +4028,19 @@
       </c>
       <c r="J3" s="53" t="str">
         <f>IF(H3="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B3,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="K3" s="53" t="str">
         <f>IF(H3="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F3,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.7(2)</v>
+        <v>Pos.9(2)</v>
       </c>
       <c r="M3" t="str">
         <f>IF(H3="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B3,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="N3" t="str">
         <f>IF(H3="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F3,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.7(2)</v>
+        <v>Pos.9(2)</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -4033,19 +4068,19 @@
       </c>
       <c r="J4" s="53" t="str">
         <f>IF(H4="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B4,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="K4" s="53" t="str">
         <f>IF(H4="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F4,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="M4" t="str">
         <f>IF(H4="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B4,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="N4" t="str">
         <f>IF(H4="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F4,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -4073,19 +4108,19 @@
       </c>
       <c r="J5" s="53" t="str">
         <f>IF(H5="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B5,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="K5" s="53" t="str">
         <f>IF(H5="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F5,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>Pos.3(2)</v>
       </c>
       <c r="M5" t="str">
         <f>IF(H5="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B5,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="N5" t="str">
         <f>IF(H5="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F5,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>Pos.3(2)</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -4113,19 +4148,19 @@
       </c>
       <c r="J6" s="53" t="str">
         <f>IF(H6="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B6,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.7(2)</v>
+        <v>-</v>
       </c>
       <c r="K6" s="53" t="str">
         <f>IF(H6="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F6,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.3(2)</v>
       </c>
       <c r="M6" t="str">
         <f>IF(H6="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B6,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.7(2)</v>
+        <v>-</v>
       </c>
       <c r="N6" t="str">
         <f>IF(H6="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F6,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.3(2)</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -4153,15 +4188,15 @@
       </c>
       <c r="J7" s="53" t="str">
         <f>IF(H7="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B7,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(2)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="K7" s="53" t="str">
         <f>IF(H7="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F7,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.14(2)</v>
+        <v>-</v>
       </c>
       <c r="M7" t="str">
         <f>IF(H7="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B7,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(2)</v>
+        <v>-</v>
       </c>
       <c r="N7" t="str">
         <f>IF(H7="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F7,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4193,19 +4228,19 @@
       </c>
       <c r="J8" s="53" t="str">
         <f>IF(H8="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B8,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="K8" s="53" t="str">
         <f>IF(H8="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F8,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="M8" t="str">
         <f>IF(H8="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B8,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="N8" t="str">
         <f>IF(H8="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F8,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -4233,19 +4268,19 @@
       </c>
       <c r="J9" s="53" t="str">
         <f>IF(H9="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B9,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.17(2)</v>
+        <v>-</v>
       </c>
       <c r="K9" s="53" t="str">
         <f>IF(H9="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F9,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="M9" t="str">
         <f>IF(H9="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B9,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.17(2)</v>
+        <v>-</v>
       </c>
       <c r="N9" t="str">
         <f>IF(H9="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F9,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>Pos.1(2)</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4273,19 +4308,19 @@
       </c>
       <c r="J10" s="53" t="str">
         <f>IF(H10="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B10,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.14(2)</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="K10" s="53" t="str">
         <f>IF(H10="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F10,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="M10" t="str">
         <f>IF(H10="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B10,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="N10" t="str">
         <f>IF(H10="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F10,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>Pos.1(2)</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -4313,19 +4348,19 @@
       </c>
       <c r="J11" s="53" t="str">
         <f>IF(H11="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B11,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="K11" s="53" t="str">
         <f>IF(H11="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F11,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(2)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="M11" t="str">
         <f>IF(H11="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B11,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="N11" t="str">
         <f>IF(H11="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F11,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -4353,19 +4388,19 @@
       </c>
       <c r="J12" s="53" t="str">
         <f>IF(H12="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B12,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.7(2)</v>
+        <v>Pos.9(2)</v>
       </c>
       <c r="K12" s="53" t="str">
         <f>IF(H12="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F12,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.14(2)</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="M12" t="str">
         <f>IF(H12="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B12,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.7(2)</v>
+        <v>Pos.9(2)</v>
       </c>
       <c r="N12" t="str">
         <f>IF(H12="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F12,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -4393,19 +4428,19 @@
       </c>
       <c r="J13" s="53" t="str">
         <f>IF(H13="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B13,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.3(2)</v>
       </c>
       <c r="K13" s="53" t="str">
         <f>IF(H13="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F13,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="M13" t="str">
         <f>IF(H13="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B13,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.3(2)</v>
       </c>
       <c r="N13" t="str">
         <f>IF(H13="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F13,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -4437,7 +4472,7 @@
       </c>
       <c r="K14" s="53" t="str">
         <f>IF(H14="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F14,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="M14" t="str">
         <f>IF(H14="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B14,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4445,7 +4480,7 @@
       </c>
       <c r="N14" t="str">
         <f>IF(H14="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F14,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>Pos.12(3)</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -4473,11 +4508,11 @@
       </c>
       <c r="J15" s="53" t="str">
         <f>IF(H15="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B15,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.14(2)</v>
+        <v>-</v>
       </c>
       <c r="K15" s="53" t="str">
         <f>IF(H15="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F15,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="M15" t="str">
         <f>IF(H15="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B15,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4485,7 +4520,7 @@
       </c>
       <c r="N15" t="str">
         <f>IF(H15="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F15,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.12(3)</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -4513,19 +4548,19 @@
       </c>
       <c r="J16" s="53" t="str">
         <f>IF(H16="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B16,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="K16" s="53" t="str">
         <f>IF(H16="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F16,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.17(2)</v>
+        <v>-</v>
       </c>
       <c r="M16" t="str">
         <f>IF(H16="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B16,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="N16" t="str">
         <f>IF(H16="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F16,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.17(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -4553,19 +4588,19 @@
       </c>
       <c r="J17" s="53" t="str">
         <f>IF(H17="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B17,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>Pos.3(2)</v>
       </c>
       <c r="K17" s="53" t="str">
         <f>IF(H17="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F17,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="M17" t="str">
         <f>IF(H17="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B17,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>Pos.3(2)</v>
       </c>
       <c r="N17" t="str">
         <f>IF(H17="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F17,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>Pos.12(3)</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -4593,19 +4628,19 @@
       </c>
       <c r="J18" s="53" t="str">
         <f>IF(H18="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B18,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="K18" s="53" t="str">
         <f>IF(H18="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F18,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.7(2)</v>
+        <v>-</v>
       </c>
       <c r="M18" t="str">
         <f>IF(H18="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B18,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="N18" t="str">
         <f>IF(H18="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F18,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.7(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4633,38 +4668,38 @@
       </c>
       <c r="J19" s="53" t="str">
         <f>IF(H19="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B19,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="K19" s="53" t="str">
         <f>IF(H19="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F19,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.17(2)</v>
+        <v>-</v>
       </c>
       <c r="M19" t="str">
         <f>IF(H19="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B19,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>-</v>
       </c>
       <c r="N19" t="str">
         <f>IF(H19="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F19,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.17(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="95">
         <v>3</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="114" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="78">
-        <v>0</v>
-      </c>
-      <c r="D20" s="91" t="s">
+      <c r="C20" s="114">
+        <v>0</v>
+      </c>
+      <c r="D20" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="78">
+      <c r="E20" s="114">
         <v>1</v>
       </c>
-      <c r="F20" s="79" t="s">
+      <c r="F20" s="116" t="s">
         <v>116</v>
       </c>
       <c r="H20" t="str">
@@ -4673,38 +4708,38 @@
       </c>
       <c r="J20" s="53" t="str">
         <f>IF(H20="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B20,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.17(2)</v>
+        <v>-</v>
       </c>
       <c r="K20" s="53" t="str">
         <f>IF(H20="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F20,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.7(2)</v>
+        <v>Pos.9(2)</v>
       </c>
       <c r="M20" t="str">
         <f>IF(H20="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B20,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.17(2)</v>
+        <v>-</v>
       </c>
       <c r="N20" t="str">
         <f>IF(H20="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F20,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.7(2)</v>
+        <v>Pos.9(2)</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="96">
         <v>3</v>
       </c>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="117" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="80">
-        <v>0</v>
-      </c>
-      <c r="D21" s="92" t="s">
+      <c r="C21" s="117">
+        <v>0</v>
+      </c>
+      <c r="D21" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="80">
+      <c r="E21" s="117">
         <v>1</v>
       </c>
-      <c r="F21" s="81" t="s">
+      <c r="F21" s="119" t="s">
         <v>123</v>
       </c>
       <c r="H21" t="str">
@@ -4717,7 +4752,7 @@
       </c>
       <c r="K21" s="53" t="str">
         <f>IF(H21="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F21,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="M21" t="str">
         <f>IF(H21="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B21,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4725,26 +4760,26 @@
       </c>
       <c r="N21" t="str">
         <f>IF(H21="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F21,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>Pos.1(2)</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="96">
         <v>3</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="80">
+      <c r="C22" s="117">
         <v>2</v>
       </c>
-      <c r="D22" s="92" t="s">
+      <c r="D22" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="80">
+      <c r="E22" s="117">
         <v>1</v>
       </c>
-      <c r="F22" s="81" t="s">
+      <c r="F22" s="119" t="s">
         <v>120</v>
       </c>
       <c r="H22" t="str">
@@ -4753,15 +4788,15 @@
       </c>
       <c r="J22" s="53" t="str">
         <f>IF(H22="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B22,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="K22" s="53" t="str">
         <f>IF(H22="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F22,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.14(2)</v>
+        <v>-</v>
       </c>
       <c r="M22" t="str">
         <f>IF(H22="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B22,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="N22" t="str">
         <f>IF(H22="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F22,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4772,19 +4807,19 @@
       <c r="A23" s="96">
         <v>3</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="80">
+      <c r="C23" s="117">
         <v>1</v>
       </c>
-      <c r="D23" s="92" t="s">
+      <c r="D23" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="80">
+      <c r="E23" s="117">
         <v>2</v>
       </c>
-      <c r="F23" s="81" t="s">
+      <c r="F23" s="119" t="s">
         <v>122</v>
       </c>
       <c r="H23" t="str">
@@ -4793,38 +4828,38 @@
       </c>
       <c r="J23" s="53" t="str">
         <f>IF(H23="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B23,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="K23" s="53" t="str">
         <f>IF(H23="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F23,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="M23" t="str">
         <f>IF(H23="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B23,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="N23" t="str">
         <f>IF(H23="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F23,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>Pos.1(2)</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="96">
         <v>3</v>
       </c>
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="117" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="80">
+      <c r="C24" s="117">
         <v>1</v>
       </c>
-      <c r="D24" s="92" t="s">
+      <c r="D24" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="80">
+      <c r="E24" s="117">
         <v>2</v>
       </c>
-      <c r="F24" s="81" t="s">
+      <c r="F24" s="119" t="s">
         <v>117</v>
       </c>
       <c r="H24" t="str">
@@ -4833,38 +4868,38 @@
       </c>
       <c r="J24" s="53" t="str">
         <f>IF(H24="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B24,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(2)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="K24" s="53" t="str">
         <f>IF(H24="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F24,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="M24" t="str">
         <f>IF(H24="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B24,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(2)</v>
+        <v>-</v>
       </c>
       <c r="N24" t="str">
         <f>IF(H24="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F24,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="96">
         <v>3</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="80">
+      <c r="C25" s="117">
         <v>1</v>
       </c>
-      <c r="D25" s="92" t="s">
+      <c r="D25" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="80">
+      <c r="E25" s="117">
         <v>3</v>
       </c>
-      <c r="F25" s="81" t="s">
+      <c r="F25" s="119" t="s">
         <v>119</v>
       </c>
       <c r="H25" t="str">
@@ -4873,38 +4908,38 @@
       </c>
       <c r="J25" s="53" t="str">
         <f>IF(H25="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B25,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.17(2)</v>
+        <v>-</v>
       </c>
       <c r="K25" s="53" t="str">
         <f>IF(H25="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F25,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.3(2)</v>
       </c>
       <c r="M25" t="str">
         <f>IF(H25="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B25,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.17(2)</v>
+        <v>-</v>
       </c>
       <c r="N25" t="str">
         <f>IF(H25="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F25,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.3(2)</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="96">
         <v>3</v>
       </c>
-      <c r="B26" s="80" t="s">
+      <c r="B26" s="117" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="80">
-        <v>0</v>
-      </c>
-      <c r="D26" s="92" t="s">
+      <c r="C26" s="117">
+        <v>0</v>
+      </c>
+      <c r="D26" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="80">
+      <c r="E26" s="117">
         <v>1</v>
       </c>
-      <c r="F26" s="81" t="s">
+      <c r="F26" s="119" t="s">
         <v>121</v>
       </c>
       <c r="H26" t="str">
@@ -4913,38 +4948,38 @@
       </c>
       <c r="J26" s="53" t="str">
         <f>IF(H26="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B26,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="K26" s="53" t="str">
         <f>IF(H26="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F26,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="M26" t="str">
         <f>IF(H26="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B26,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="N26" t="str">
         <f>IF(H26="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F26,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="96">
         <v>3</v>
       </c>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="80">
+      <c r="C27" s="117">
         <v>1</v>
       </c>
-      <c r="D27" s="92" t="s">
+      <c r="D27" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="80">
+      <c r="E27" s="117">
         <v>2</v>
       </c>
-      <c r="F27" s="81" t="s">
+      <c r="F27" s="119" t="s">
         <v>127</v>
       </c>
       <c r="H27" t="str">
@@ -4953,38 +4988,38 @@
       </c>
       <c r="J27" s="53" t="str">
         <f>IF(H27="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B27,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="K27" s="53" t="str">
         <f>IF(H27="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F27,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.7(2)</v>
+        <v>-</v>
       </c>
       <c r="M27" t="str">
         <f>IF(H27="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B27,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="N27" t="str">
         <f>IF(H27="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F27,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.7(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="97">
         <v>3</v>
       </c>
-      <c r="B28" s="82" t="s">
+      <c r="B28" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="82">
-        <v>0</v>
-      </c>
-      <c r="D28" s="93" t="s">
+      <c r="C28" s="120">
+        <v>0</v>
+      </c>
+      <c r="D28" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="82">
+      <c r="E28" s="120">
         <v>4</v>
       </c>
-      <c r="F28" s="83" t="s">
+      <c r="F28" s="122" t="s">
         <v>118</v>
       </c>
       <c r="H28" t="str">
@@ -4993,38 +5028,38 @@
       </c>
       <c r="J28" s="53" t="str">
         <f>IF(H28="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B28,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.14(2)</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="K28" s="53" t="str">
         <f>IF(H28="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F28,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>Pos.3(2)</v>
       </c>
       <c r="M28" t="str">
         <f>IF(H28="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B28,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="N28" t="str">
         <f>IF(H28="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F28,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>Pos.3(2)</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="95">
         <v>4</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="78">
+      <c r="C29" s="114">
         <v>2</v>
       </c>
-      <c r="D29" s="91" t="s">
+      <c r="D29" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="78">
-        <v>0</v>
-      </c>
-      <c r="F29" s="79" t="s">
+      <c r="E29" s="114">
+        <v>0</v>
+      </c>
+      <c r="F29" s="116" t="s">
         <v>129</v>
       </c>
       <c r="H29" t="str">
@@ -5033,38 +5068,38 @@
       </c>
       <c r="J29" s="53" t="str">
         <f>IF(H29="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B29,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="K29" s="53" t="str">
         <f>IF(H29="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F29,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="M29" t="str">
         <f>IF(H29="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B29,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="N29" t="str">
         <f>IF(H29="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F29,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>Pos.12(3)</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="96">
         <v>4</v>
       </c>
-      <c r="B30" s="80" t="s">
+      <c r="B30" s="117" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="80">
-        <v>0</v>
-      </c>
-      <c r="D30" s="92" t="s">
+      <c r="C30" s="117">
+        <v>0</v>
+      </c>
+      <c r="D30" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="80">
+      <c r="E30" s="117">
         <v>1</v>
       </c>
-      <c r="F30" s="81" t="s">
+      <c r="F30" s="119" t="s">
         <v>115</v>
       </c>
       <c r="H30" t="str">
@@ -5077,7 +5112,7 @@
       </c>
       <c r="M30" t="str">
         <f>IF(H30="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B30,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.7(2)</v>
+        <v>Pos.9(2)</v>
       </c>
       <c r="N30" t="str">
         <f>IF(H30="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F30,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5088,19 +5123,19 @@
       <c r="A31" s="96">
         <v>4</v>
       </c>
-      <c r="B31" s="80" t="s">
+      <c r="B31" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="80">
+      <c r="C31" s="117">
         <v>4</v>
       </c>
-      <c r="D31" s="92" t="s">
+      <c r="D31" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="80">
-        <v>0</v>
-      </c>
-      <c r="F31" s="81" t="s">
+      <c r="E31" s="117">
+        <v>0</v>
+      </c>
+      <c r="F31" s="119" t="s">
         <v>114</v>
       </c>
       <c r="H31" t="str">
@@ -5109,38 +5144,38 @@
       </c>
       <c r="J31" s="53" t="str">
         <f>IF(H31="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B31,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>Pos.3(2)</v>
       </c>
       <c r="K31" s="53" t="str">
         <f>IF(H31="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F31,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.17(2)</v>
+        <v>-</v>
       </c>
       <c r="M31" t="str">
         <f>IF(H31="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B31,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>Pos.3(2)</v>
       </c>
       <c r="N31" t="str">
         <f>IF(H31="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F31,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.17(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="96">
         <v>4</v>
       </c>
-      <c r="B32" s="80" t="s">
+      <c r="B32" s="117" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="80">
+      <c r="C32" s="117">
         <v>3</v>
       </c>
-      <c r="D32" s="92" t="s">
+      <c r="D32" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="80">
+      <c r="E32" s="117">
         <v>1</v>
       </c>
-      <c r="F32" s="81" t="s">
+      <c r="F32" s="119" t="s">
         <v>131</v>
       </c>
       <c r="H32" t="str">
@@ -5149,11 +5184,11 @@
       </c>
       <c r="J32" s="53" t="str">
         <f>IF(H32="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B32,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.14(2)</v>
+        <v>-</v>
       </c>
       <c r="K32" s="53" t="str">
         <f>IF(H32="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F32,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.14(2)</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="M32" t="str">
         <f>IF(H32="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B32,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5161,26 +5196,26 @@
       </c>
       <c r="N32" t="str">
         <f>IF(H32="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F32,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="96">
         <v>4</v>
       </c>
-      <c r="B33" s="80" t="s">
+      <c r="B33" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="80">
+      <c r="C33" s="117">
         <v>2</v>
       </c>
-      <c r="D33" s="92" t="s">
+      <c r="D33" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="80">
-        <v>0</v>
-      </c>
-      <c r="F33" s="81" t="s">
+      <c r="E33" s="117">
+        <v>0</v>
+      </c>
+      <c r="F33" s="119" t="s">
         <v>124</v>
       </c>
       <c r="H33" t="str">
@@ -5189,38 +5224,38 @@
       </c>
       <c r="J33" s="53" t="str">
         <f>IF(H33="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B33,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="K33" s="53" t="str">
         <f>IF(H33="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F33,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="M33" t="str">
         <f>IF(H33="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B33,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="N33" t="str">
         <f>IF(H33="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F33,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>Pos.12(3)</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="96">
         <v>4</v>
       </c>
-      <c r="B34" s="80" t="s">
+      <c r="B34" s="117" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="80">
-        <v>0</v>
-      </c>
-      <c r="D34" s="92" t="s">
+      <c r="C34" s="117">
+        <v>0</v>
+      </c>
+      <c r="D34" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="80">
-        <v>0</v>
-      </c>
-      <c r="F34" s="81" t="s">
+      <c r="E34" s="117">
+        <v>0</v>
+      </c>
+      <c r="F34" s="119" t="s">
         <v>126</v>
       </c>
       <c r="H34" t="str">
@@ -5229,38 +5264,38 @@
       </c>
       <c r="J34" s="53" t="str">
         <f>IF(H34="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B34,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="K34" s="53" t="str">
         <f>IF(H34="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F34,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="M34" t="str">
         <f>IF(H34="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B34,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>-</v>
       </c>
       <c r="N34" t="str">
         <f>IF(H34="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F34,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.12(3)</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="96">
         <v>4</v>
       </c>
-      <c r="B35" s="80" t="s">
+      <c r="B35" s="117" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="80">
+      <c r="C35" s="117">
         <v>2</v>
       </c>
-      <c r="D35" s="92" t="s">
+      <c r="D35" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="80">
+      <c r="E35" s="117">
         <v>1</v>
       </c>
-      <c r="F35" s="81" t="s">
+      <c r="F35" s="119" t="s">
         <v>128</v>
       </c>
       <c r="H35" t="str">
@@ -5269,38 +5304,38 @@
       </c>
       <c r="J35" s="53" t="str">
         <f>IF(H35="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B35,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.3(2)</v>
       </c>
       <c r="K35" s="53" t="str">
         <f>IF(H35="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F35,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(2)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="M35" t="str">
         <f>IF(H35="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B35,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.3(2)</v>
       </c>
       <c r="N35" t="str">
         <f>IF(H35="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F35,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="96">
         <v>4</v>
       </c>
-      <c r="B36" s="80" t="s">
+      <c r="B36" s="117" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="80">
+      <c r="C36" s="117">
         <v>2</v>
       </c>
-      <c r="D36" s="92" t="s">
+      <c r="D36" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="80">
-        <v>0</v>
-      </c>
-      <c r="F36" s="81" t="s">
+      <c r="E36" s="117">
+        <v>0</v>
+      </c>
+      <c r="F36" s="119" t="s">
         <v>130</v>
       </c>
       <c r="H36" t="str">
@@ -5309,38 +5344,38 @@
       </c>
       <c r="J36" s="53" t="str">
         <f>IF(H36="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B36,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="K36" s="53" t="str">
         <f>IF(H36="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F36,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.17(2)</v>
+        <v>-</v>
       </c>
       <c r="M36" t="str">
         <f>IF(H36="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B36,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="N36" t="str">
         <f>IF(H36="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F36,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.17(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="97">
         <v>4</v>
       </c>
-      <c r="B37" s="82" t="s">
+      <c r="B37" s="120" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="82">
+      <c r="C37" s="120">
         <v>3</v>
       </c>
-      <c r="D37" s="93" t="s">
+      <c r="D37" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="82">
-        <v>0</v>
-      </c>
-      <c r="F37" s="83" t="s">
+      <c r="E37" s="120">
+        <v>0</v>
+      </c>
+      <c r="F37" s="122" t="s">
         <v>125</v>
       </c>
       <c r="H37" t="str">
@@ -5349,19 +5384,19 @@
       </c>
       <c r="J37" s="53" t="str">
         <f>IF(H37="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B37,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.7(2)</v>
+        <v>-</v>
       </c>
       <c r="K37" s="53" t="str">
         <f>IF(H37="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F37,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="M37" t="str">
         <f>IF(H37="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B37,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.7(2)</v>
+        <v>-</v>
       </c>
       <c r="N37" t="str">
         <f>IF(H37="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F37,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -5371,33 +5406,37 @@
       <c r="B38" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="78"/>
+      <c r="C38" s="78">
+        <v>3</v>
+      </c>
       <c r="D38" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="78"/>
+      <c r="E38" s="78">
+        <v>0</v>
+      </c>
       <c r="F38" s="79" t="s">
         <v>116</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" ref="H38:H54" si="1">IF(OR(C38="",E38=""),"Pendiente",IF(C38&gt;E38,"Local",IF(E38&gt;C38,"Visitante",IF(C38=E38,"Empate"))))</f>
-        <v>Pendiente</v>
+        <v>Local</v>
       </c>
       <c r="J38" s="53" t="str">
         <f>IF(H38="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B38,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="K38" s="53" t="str">
         <f>IF(H38="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F38,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.9(2)</v>
       </c>
       <c r="M38" t="str">
         <f>IF(H38="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B38,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="N38" t="str">
         <f>IF(H38="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F38,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.9(2)</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -5407,33 +5446,37 @@
       <c r="B39" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="80"/>
+      <c r="C39" s="80">
+        <v>0</v>
+      </c>
       <c r="D39" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="80"/>
+      <c r="E39" s="80">
+        <v>0</v>
+      </c>
       <c r="F39" s="81" t="s">
         <v>118</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="1"/>
-        <v>Pendiente</v>
+        <v>Empate</v>
       </c>
       <c r="J39" s="53" t="str">
         <f>IF(H39="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B39,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.9(2)</v>
       </c>
       <c r="K39" s="53" t="str">
         <f>IF(H39="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F39,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.3(2)</v>
       </c>
       <c r="M39" t="str">
         <f>IF(H39="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B39,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.9(2)</v>
       </c>
       <c r="N39" t="str">
         <f>IF(H39="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F39,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.3(2)</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -5443,17 +5486,21 @@
       <c r="B40" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="80"/>
+      <c r="C40" s="80">
+        <v>1</v>
+      </c>
       <c r="D40" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="80"/>
+      <c r="E40" s="80">
+        <v>2</v>
+      </c>
       <c r="F40" s="81" t="s">
         <v>120</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="1"/>
-        <v>Pendiente</v>
+        <v>Visitante</v>
       </c>
       <c r="J40" s="53" t="str">
         <f>IF(H40="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B40,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5479,33 +5526,37 @@
       <c r="B41" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="80"/>
+      <c r="C41" s="80">
+        <v>0</v>
+      </c>
       <c r="D41" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="80"/>
+      <c r="E41" s="80">
+        <v>2</v>
+      </c>
       <c r="F41" s="81" t="s">
         <v>122</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="1"/>
-        <v>Pendiente</v>
+        <v>Visitante</v>
       </c>
       <c r="J41" s="53" t="str">
         <f>IF(H41="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B41,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="K41" s="53" t="str">
         <f>IF(H41="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F41,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="M41" t="str">
         <f>IF(H41="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B41,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="N41" t="str">
         <f>IF(H41="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F41,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -5515,29 +5566,33 @@
       <c r="B42" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="80"/>
+      <c r="C42" s="80">
+        <v>0</v>
+      </c>
       <c r="D42" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="80"/>
+      <c r="E42" s="80">
+        <v>0</v>
+      </c>
       <c r="F42" s="81" t="s">
         <v>117</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="1"/>
-        <v>Pendiente</v>
+        <v>Empate</v>
       </c>
       <c r="J42" s="53" t="str">
         <f>IF(H42="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B42,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="K42" s="53" t="str">
         <f>IF(H42="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F42,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="M42" t="str">
         <f>IF(H42="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B42,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="N42" t="str">
         <f>IF(H42="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F42,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5551,33 +5606,37 @@
       <c r="B43" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="80"/>
+      <c r="C43" s="80">
+        <v>1</v>
+      </c>
       <c r="D43" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="80"/>
+      <c r="E43" s="80">
+        <v>2</v>
+      </c>
       <c r="F43" s="81" t="s">
         <v>119</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="1"/>
-        <v>Pendiente</v>
+        <v>Visitante</v>
       </c>
       <c r="J43" s="53" t="str">
         <f>IF(H43="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B43,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="K43" s="53" t="str">
         <f>IF(H43="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F43,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.3(2)</v>
       </c>
       <c r="M43" t="str">
         <f>IF(H43="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B43,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="N43" t="str">
         <f>IF(H43="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F43,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.3(2)</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -5587,21 +5646,25 @@
       <c r="B44" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="80"/>
+      <c r="C44" s="80">
+        <v>1</v>
+      </c>
       <c r="D44" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="80"/>
+      <c r="E44" s="80">
+        <v>0</v>
+      </c>
       <c r="F44" s="81" t="s">
         <v>121</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="1"/>
-        <v>Pendiente</v>
+        <v>Local</v>
       </c>
       <c r="J44" s="53" t="str">
         <f>IF(H44="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B44,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="K44" s="53" t="str">
         <f>IF(H44="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F44,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5623,17 +5686,21 @@
       <c r="B45" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="C45" s="80"/>
+      <c r="C45" s="80">
+        <v>1</v>
+      </c>
       <c r="D45" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="80"/>
+      <c r="E45" s="80">
+        <v>1</v>
+      </c>
       <c r="F45" s="81" t="s">
         <v>127</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="1"/>
-        <v>Pendiente</v>
+        <v>Empate</v>
       </c>
       <c r="J45" s="53" t="str">
         <f>IF(H45="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B45,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5659,33 +5726,37 @@
       <c r="B46" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="82"/>
+      <c r="C46" s="82">
+        <v>0</v>
+      </c>
       <c r="D46" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="82"/>
+      <c r="E46" s="82">
+        <v>0</v>
+      </c>
       <c r="F46" s="83" t="s">
         <v>125</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="1"/>
-        <v>Pendiente</v>
+        <v>Empate</v>
       </c>
       <c r="J46" s="53" t="str">
         <f>IF(H46="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B46,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="K46" s="53" t="str">
         <f>IF(H46="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F46,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="M46" t="str">
         <f>IF(H46="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B46,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="N46" t="str">
         <f>IF(H46="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F46,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -22565,7 +22636,7 @@
       </c>
       <c r="B2" s="53">
         <f>C2+D2+E2</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="53">
         <f t="shared" ref="C2:C19" si="0">COUNTIFS(EQUIPO_LOCAL,$A2, GANADOR,"Local")+COUNTIFS(EQUIPO_VISITANTE,$A2,GANADOR,"Visitante")</f>
@@ -22573,7 +22644,7 @@
       </c>
       <c r="D2" s="53">
         <f t="shared" ref="D2:D19" si="1">COUNTIFS(EQUIPO_LOCAL,$A2, GANADOR,"Empate")+COUNTIFS(EQUIPO_VISITANTE,$A2,GANADOR,"Empate")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="53">
         <f t="shared" ref="E2:E19" si="2">COUNTIFS(EQUIPO_LOCAL,$A2, GANADOR,"Visitante")+COUNTIFS(EQUIPO_VISITANTE,$A2,GANADOR,"Local")</f>
@@ -22593,7 +22664,7 @@
       </c>
       <c r="I2" s="53">
         <f>3*C2+1*D2</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2" s="53">
         <f>COUNTIF(I$2:I$19,"&gt;"&amp;I2)+1</f>
@@ -22631,7 +22702,7 @@
       <c r="S2" s="65"/>
       <c r="T2" s="53">
         <f>IF(R2="-","-",SUMIFS(GOLES_LOCAL,EQUIPO_LOCAL,$A2,Grupo_de_Empate_Criterio_1__Equipo_Visitante,$R2)+SUMIFS(GOLES_VISITANTE,EQUIPO_VISITANTE,$A2,Grupo_de_Empate__Criterio_1__Equipo_Local,$R2))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" s="53">
         <f t="shared" ref="U2:U19" si="7">IF(R2="-","-",SUMIFS(GOLES_VISITANTE,EQUIPO_LOCAL,$A2,Grupo_de_Empate_Criterio_1__Equipo_Visitante,$R2)+SUMIFS(GOLES_LOCAL,EQUIPO_VISITANTE,$A2,Grupo_de_Empate__Criterio_1__Equipo_Local,$R2))</f>
@@ -22639,7 +22710,7 @@
       </c>
       <c r="V2" s="53">
         <f>IF($R2="-","-",T2-U2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" s="53">
         <f>Q2+COUNTIFS(R$2:R$19,R2,V$2:V$19,"&gt;"&amp;V2)</f>
@@ -22647,16 +22718,16 @@
       </c>
       <c r="X2" s="53" t="str">
         <f>IF(COUNTIF(W$2:W$19,W2)=1,"-","Pos."&amp;W2&amp;"("&amp;COUNTIF(W$2:W$19,W2)&amp;")")</f>
-        <v>Pos.9(2)</v>
+        <v>-</v>
       </c>
       <c r="Y2" s="63"/>
-      <c r="Z2" s="53">
+      <c r="Z2" s="53" t="str">
         <f>IF(X2="-","-",H2)</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="AA2" s="53">
         <f>W2+COUNTIFS(X$2:X$19,X2,Z$2:Z$19,"&gt;"&amp;Z2)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB2" s="53" t="str">
         <f>IF(COUNTIF(AA$2:AA$19,AA2)=1,"-","Pos."&amp;AA2&amp;"("&amp;COUNTIF(AA$2:AA$19,AA2)&amp;")")</f>
@@ -22669,7 +22740,7 @@
       </c>
       <c r="AE2" s="53">
         <f>AA2+COUNTIFS(AB$2:AB$19,AB2,AD$2:AD$19,"&gt;"&amp;AD2)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF2" s="53" t="str">
         <f>IF(COUNTIF(AE$2:AE$19,AE2)=1,"-","Pos."&amp;AE2&amp;"("&amp;COUNTIF(AE$2:AE$19,AE2)&amp;")")</f>
@@ -22682,7 +22753,7 @@
       </c>
       <c r="AI2" s="53">
         <f>AE2+COUNTIFS(AF$2:AF$19,AF2,AH$2:AH$19,"&lt;"&amp;AH2)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
@@ -22691,7 +22762,7 @@
       </c>
       <c r="B3" s="53">
         <f t="shared" ref="B3:B19" si="8">C3+D3+E3</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="53">
         <f t="shared" si="0"/>
@@ -22699,7 +22770,7 @@
       </c>
       <c r="D3" s="53">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="53">
         <f t="shared" si="2"/>
@@ -22707,11 +22778,11 @@
       </c>
       <c r="F3" s="53">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" s="53">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3" s="53">
         <f t="shared" ref="H3:H19" si="9">F3-G3</f>
@@ -22719,70 +22790,70 @@
       </c>
       <c r="I3" s="53">
         <f t="shared" ref="I3:I19" si="10">3*C3+1*D3</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J3" s="53">
         <f t="shared" ref="J3:J19" si="11">COUNTIF(I$2:I$19,"&gt;"&amp;I3)+1</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K3" s="53" t="str">
         <f t="shared" ref="K3:K19" si="12">IF(COUNTIF(J$2:J$19,J3)=1,"-","Pos."&amp;J3&amp;"("&amp;COUNTIF(J$2:J$19,J3)&amp;")")</f>
-        <v>Pos.7(2)</v>
+        <v>-</v>
       </c>
       <c r="L3" s="64"/>
-      <c r="M3" s="53">
+      <c r="M3" s="53" t="str">
         <f t="shared" ref="M3:M19" si="13">IF($K3="-","-",COUNTIFS(EQUIPO_LOCAL,$A3, GANADOR,"Local",Grupo_de_Empate__A_priori__Equipo_Visitante,$K3)+COUNTIFS(EQUIPO_VISITANTE,$A3,GANADOR,"Visitante",Grupo_de_Empate__A_priori__Equipo_Local,$K3))</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="53">
+        <v>-</v>
+      </c>
+      <c r="N3" s="53" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O3" s="53">
+        <v>-</v>
+      </c>
+      <c r="O3" s="53" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P3" s="53">
+        <v>-</v>
+      </c>
+      <c r="P3" s="53" t="str">
         <f t="shared" ref="P3:P19" si="14">IF(K3="-","-",3*M3+1*N3)</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="Q3" s="53">
         <f t="shared" ref="Q3:Q19" si="15">$J3+COUNTIFS(K$2:K$19,K3,$P$2:$P$19,"&gt;"&amp;P3)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R3" s="53" t="str">
         <f t="shared" ref="R3:R19" si="16">IF(COUNTIF(Q$2:Q$19,Q3)=1,"-","Pos."&amp;Q3&amp;"("&amp;COUNTIF(Q$2:Q$19,Q3)&amp;")")</f>
-        <v>Pos.7(2)</v>
+        <v>-</v>
       </c>
       <c r="S3" s="65"/>
-      <c r="T3" s="53">
+      <c r="T3" s="53" t="str">
         <f t="shared" ref="T3:T19" si="17">IF(R3="-","-",SUMIFS(GOLES_LOCAL,EQUIPO_LOCAL,$A3,Grupo_de_Empate_Criterio_1__Equipo_Visitante,$R3)+SUMIFS(GOLES_VISITANTE,EQUIPO_VISITANTE,$A3,Grupo_de_Empate__Criterio_1__Equipo_Local,$R3))</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="53">
+        <v>-</v>
+      </c>
+      <c r="U3" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V3" s="53">
+        <v>-</v>
+      </c>
+      <c r="V3" s="53" t="str">
         <f t="shared" ref="V3:V19" si="18">IF($R3="-","-",T3-U3)</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W3" s="53">
         <f t="shared" ref="W3:W19" si="19">Q3+COUNTIFS(R$2:R$19,R3,V$2:V$19,"&gt;"&amp;V3)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X3" s="53" t="str">
         <f t="shared" ref="X3:X19" si="20">IF(COUNTIF(W$2:W$19,W3)=1,"-","Pos."&amp;W3&amp;"("&amp;COUNTIF(W$2:W$19,W3)&amp;")")</f>
-        <v>Pos.7(2)</v>
+        <v>-</v>
       </c>
       <c r="Y3" s="63"/>
-      <c r="Z3" s="53">
+      <c r="Z3" s="53" t="str">
         <f t="shared" ref="Z3:Z19" si="21">IF(X3="-","-",H3)</f>
-        <v>2</v>
+        <v>-</v>
       </c>
       <c r="AA3" s="53">
         <f t="shared" ref="AA3:AA19" si="22">W3+COUNTIFS(X$2:X$19,X3,Z$2:Z$19,"&gt;"&amp;Z3)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB3" s="53" t="str">
         <f t="shared" ref="AB3:AB19" si="23">IF(COUNTIF(AA$2:AA$19,AA3)=1,"-","Pos."&amp;AA3&amp;"("&amp;COUNTIF(AA$2:AA$19,AA3)&amp;")")</f>
@@ -22795,7 +22866,7 @@
       </c>
       <c r="AE3" s="53">
         <f t="shared" ref="AE3:AE19" si="25">AA3+COUNTIFS(AB$2:AB$19,AB3,AD$2:AD$19,"&gt;"&amp;AD3)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF3" s="53" t="str">
         <f t="shared" ref="AF3:AF19" si="26">IF(COUNTIF(AE$2:AE$19,AE3)=1,"-","Pos."&amp;AE3&amp;"("&amp;COUNTIF(AE$2:AE$19,AE3)&amp;")")</f>
@@ -22808,7 +22879,7 @@
       </c>
       <c r="AI3" s="53">
         <f t="shared" ref="AI3:AI19" si="28">AE3+COUNTIFS(AF$2:AF$19,AF3,AH$2:AH$19,"&lt;"&amp;AH3)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
@@ -22817,7 +22888,7 @@
       </c>
       <c r="B4" s="53">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="53">
         <f t="shared" si="0"/>
@@ -22829,7 +22900,7 @@
       </c>
       <c r="E4" s="53">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="53">
         <f t="shared" si="3"/>
@@ -22837,11 +22908,11 @@
       </c>
       <c r="G4" s="53">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" s="53">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4" s="53">
         <f t="shared" si="10"/>
@@ -22849,66 +22920,66 @@
       </c>
       <c r="J4" s="53">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K4" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="L4" s="64"/>
-      <c r="M4" s="53">
+      <c r="M4" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="53">
+        <v>-</v>
+      </c>
+      <c r="N4" s="53" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="53">
+        <v>-</v>
+      </c>
+      <c r="O4" s="53" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P4" s="53">
+        <v>-</v>
+      </c>
+      <c r="P4" s="53" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="Q4" s="53">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R4" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="S4" s="65"/>
-      <c r="T4" s="53">
+      <c r="T4" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U4" s="53">
+        <v>-</v>
+      </c>
+      <c r="U4" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V4" s="53">
+        <v>-</v>
+      </c>
+      <c r="V4" s="53" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W4" s="53">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X4" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="Y4" s="63"/>
-      <c r="Z4" s="53">
+      <c r="Z4" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>5</v>
+        <v>-</v>
       </c>
       <c r="AA4" s="53">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB4" s="53" t="str">
         <f t="shared" si="23"/>
@@ -22921,7 +22992,7 @@
       </c>
       <c r="AE4" s="53">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AF4" s="53" t="str">
         <f t="shared" si="26"/>
@@ -22934,7 +23005,7 @@
       </c>
       <c r="AI4" s="53">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
@@ -22943,7 +23014,7 @@
       </c>
       <c r="B5" s="53">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="53">
         <f t="shared" si="0"/>
@@ -22955,7 +23026,7 @@
       </c>
       <c r="E5" s="53">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="53">
         <f t="shared" si="3"/>
@@ -22963,11 +23034,11 @@
       </c>
       <c r="G5" s="53">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H5" s="53">
         <f t="shared" si="9"/>
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="I5" s="53">
         <f t="shared" si="10"/>
@@ -22975,11 +23046,11 @@
       </c>
       <c r="J5" s="53">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K5" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.14(2)</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="L5" s="64"/>
       <c r="M5" s="53">
@@ -22992,7 +23063,7 @@
       </c>
       <c r="O5" s="53">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="53">
         <f t="shared" si="14"/>
@@ -23004,20 +23075,20 @@
       </c>
       <c r="R5" s="53" t="str">
         <f>IF(COUNTIF(Q$2:Q$19,Q5)=1,"-","Pos."&amp;Q5&amp;"("&amp;COUNTIF(Q$2:Q$19,Q5)&amp;")")</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="S5" s="65"/>
-      <c r="T5" s="53" t="str">
+      <c r="T5" s="53">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="U5" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="U5" s="53">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V5" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="V5" s="53">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="W5" s="53">
         <f t="shared" si="19"/>
@@ -23025,16 +23096,16 @@
       </c>
       <c r="X5" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="Y5" s="63"/>
-      <c r="Z5" s="53" t="str">
+      <c r="Z5" s="53">
         <f t="shared" si="21"/>
-        <v>-</v>
+        <v>-8</v>
       </c>
       <c r="AA5" s="53">
         <f t="shared" si="22"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB5" s="53" t="str">
         <f t="shared" si="23"/>
@@ -23047,7 +23118,7 @@
       </c>
       <c r="AE5" s="53">
         <f t="shared" si="25"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF5" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23060,7 +23131,7 @@
       </c>
       <c r="AI5" s="53">
         <f>AE5+COUNTIFS(AF$2:AF$19,AF5,AH$2:AH$19,"&lt;"&amp;AH5)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
@@ -23069,7 +23140,7 @@
       </c>
       <c r="B6" s="53">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="53">
         <f t="shared" si="0"/>
@@ -23077,7 +23148,7 @@
       </c>
       <c r="D6" s="53">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="53">
         <f t="shared" si="2"/>
@@ -23097,20 +23168,20 @@
       </c>
       <c r="I6" s="53">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="53">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K6" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.5(2)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="L6" s="64"/>
       <c r="M6" s="53">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="53">
         <f t="shared" si="5"/>
@@ -23122,54 +23193,54 @@
       </c>
       <c r="P6" s="53">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="53">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R6" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.5(2)</v>
+        <v>-</v>
       </c>
       <c r="S6" s="65"/>
-      <c r="T6" s="53">
+      <c r="T6" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="53">
+        <v>-</v>
+      </c>
+      <c r="U6" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="53">
+        <v>-</v>
+      </c>
+      <c r="V6" s="53" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W6" s="53">
         <f>Q6+COUNTIFS(R$2:R$19,R6,V$2:V$19,"&gt;"&amp;V6)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X6" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.5(2)</v>
+        <v>-</v>
       </c>
       <c r="Y6" s="63"/>
-      <c r="Z6" s="53">
+      <c r="Z6" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>-</v>
       </c>
       <c r="AA6" s="53">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB6" s="53" t="str">
         <f t="shared" si="23"/>
-        <v>Pos.5(2)</v>
+        <v>-</v>
       </c>
       <c r="AC6" s="65"/>
-      <c r="AD6" s="53">
+      <c r="AD6" s="53" t="str">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>-</v>
       </c>
       <c r="AE6" s="53">
         <f t="shared" si="25"/>
@@ -23195,7 +23266,7 @@
       </c>
       <c r="B7" s="53">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="53">
         <f t="shared" si="0"/>
@@ -23207,19 +23278,19 @@
       </c>
       <c r="E7" s="53">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="53">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="53">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7" s="53">
         <f t="shared" si="9"/>
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="I7" s="53">
         <f t="shared" si="10"/>
@@ -23227,62 +23298,62 @@
       </c>
       <c r="J7" s="53">
         <f t="shared" si="11"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K7" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.17(2)</v>
+        <v>-</v>
       </c>
       <c r="L7" s="64"/>
-      <c r="M7" s="53">
+      <c r="M7" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="53">
+        <v>-</v>
+      </c>
+      <c r="N7" s="53" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="53">
+        <v>-</v>
+      </c>
+      <c r="O7" s="53" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="53">
+        <v>-</v>
+      </c>
+      <c r="P7" s="53" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="Q7" s="53">
         <f t="shared" si="15"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R7" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.17(2)</v>
+        <v>-</v>
       </c>
       <c r="S7" s="65"/>
-      <c r="T7" s="53">
+      <c r="T7" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="53">
+        <v>-</v>
+      </c>
+      <c r="U7" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="53">
+        <v>-</v>
+      </c>
+      <c r="V7" s="53" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W7" s="53">
         <f t="shared" si="19"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="X7" s="53" t="str">
         <f>IF(COUNTIF(W$2:W$19,W7)=1,"-","Pos."&amp;W7&amp;"("&amp;COUNTIF(W$2:W$19,W7)&amp;")")</f>
-        <v>Pos.17(2)</v>
+        <v>-</v>
       </c>
       <c r="Y7" s="63"/>
-      <c r="Z7" s="53">
+      <c r="Z7" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>-12</v>
+        <v>-</v>
       </c>
       <c r="AA7" s="53">
         <f>W7+COUNTIFS(X$2:X$19,X7,Z$2:Z$19,"&gt;"&amp;Z7)</f>
@@ -23321,7 +23392,7 @@
       </c>
       <c r="B8" s="53">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="53">
         <f t="shared" si="0"/>
@@ -23333,7 +23404,7 @@
       </c>
       <c r="E8" s="53">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="53">
         <f t="shared" si="3"/>
@@ -23341,11 +23412,11 @@
       </c>
       <c r="G8" s="53">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H8" s="53">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="I8" s="53">
         <f t="shared" si="10"/>
@@ -23353,11 +23424,11 @@
       </c>
       <c r="J8" s="53">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K8" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.7(2)</v>
+        <v>Pos.9(2)</v>
       </c>
       <c r="L8" s="64"/>
       <c r="M8" s="53">
@@ -23370,7 +23441,7 @@
       </c>
       <c r="O8" s="53">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="53">
         <f t="shared" si="14"/>
@@ -23378,11 +23449,11 @@
       </c>
       <c r="Q8" s="53">
         <f t="shared" si="15"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R8" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.7(2)</v>
+        <v>Pos.9(2)</v>
       </c>
       <c r="S8" s="65"/>
       <c r="T8" s="53">
@@ -23391,28 +23462,28 @@
       </c>
       <c r="U8" s="53">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="53">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W8" s="53">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="X8" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.7(2)</v>
+        <v>-</v>
       </c>
       <c r="Y8" s="63"/>
-      <c r="Z8" s="53">
+      <c r="Z8" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>-</v>
       </c>
       <c r="AA8" s="53">
         <f t="shared" si="22"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AB8" s="53" t="str">
         <f t="shared" si="23"/>
@@ -23425,7 +23496,7 @@
       </c>
       <c r="AE8" s="53">
         <f t="shared" si="25"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF8" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23438,7 +23509,7 @@
       </c>
       <c r="AI8" s="53">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
@@ -23447,7 +23518,7 @@
       </c>
       <c r="B9" s="53">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="53">
         <f t="shared" si="0"/>
@@ -23455,7 +23526,7 @@
       </c>
       <c r="D9" s="53">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="53">
         <f t="shared" si="2"/>
@@ -23475,70 +23546,70 @@
       </c>
       <c r="I9" s="53">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" s="53">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="L9" s="64"/>
-      <c r="M9" s="53" t="str">
+      <c r="M9" s="53">
         <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="N9" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="N9" s="53">
         <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="O9" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="O9" s="53">
         <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="P9" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="P9" s="53">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="53">
         <f>$J9+COUNTIFS(K$2:K$19,K9,$P$2:$P$19,"&gt;"&amp;P9)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R9" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="S9" s="65"/>
-      <c r="T9" s="53" t="str">
+      <c r="T9" s="53">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="U9" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="U9" s="53">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V9" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="V9" s="53">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="W9" s="53">
         <f t="shared" si="19"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X9" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="Y9" s="63"/>
-      <c r="Z9" s="53" t="str">
+      <c r="Z9" s="53">
         <f t="shared" si="21"/>
-        <v>-</v>
+        <v>-4</v>
       </c>
       <c r="AA9" s="53">
         <f t="shared" si="22"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB9" s="53" t="str">
         <f t="shared" si="23"/>
@@ -23551,7 +23622,7 @@
       </c>
       <c r="AE9" s="53">
         <f t="shared" si="25"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF9" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23564,7 +23635,7 @@
       </c>
       <c r="AI9" s="53">
         <f t="shared" si="28"/>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
@@ -23573,11 +23644,11 @@
       </c>
       <c r="B10" s="53">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="53">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="53">
         <f t="shared" si="1"/>
@@ -23589,7 +23660,7 @@
       </c>
       <c r="F10" s="53">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G10" s="53">
         <f t="shared" si="4"/>
@@ -23597,19 +23668,19 @@
       </c>
       <c r="H10" s="53">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I10" s="53">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J10" s="53">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.3(2)</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="L10" s="64"/>
       <c r="M10" s="53">
@@ -23630,11 +23701,11 @@
       </c>
       <c r="Q10" s="53">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R10" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.3(2)</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="S10" s="65"/>
       <c r="T10" s="53">
@@ -23651,20 +23722,20 @@
       </c>
       <c r="W10" s="53">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X10" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.3(2)</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="Y10" s="63"/>
       <c r="Z10" s="53">
         <f t="shared" si="21"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA10" s="53">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB10" s="53" t="str">
         <f t="shared" si="23"/>
@@ -23677,7 +23748,7 @@
       </c>
       <c r="AE10" s="53">
         <f t="shared" si="25"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF10" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23690,7 +23761,7 @@
       </c>
       <c r="AI10" s="53">
         <f>AE10+COUNTIFS(AF$2:AF$19,AF10,AH$2:AH$19,"&lt;"&amp;AH10)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
@@ -23699,7 +23770,7 @@
       </c>
       <c r="B11" s="53">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="53">
         <f t="shared" si="0"/>
@@ -23711,19 +23782,19 @@
       </c>
       <c r="E11" s="53">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="53">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11" s="53">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H11" s="53">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="53">
         <f t="shared" si="10"/>
@@ -23731,66 +23802,66 @@
       </c>
       <c r="J11" s="53">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K11" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="L11" s="64"/>
-      <c r="M11" s="53" t="str">
+      <c r="M11" s="53">
         <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="N11" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="N11" s="53">
         <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="O11" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="O11" s="53">
         <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="P11" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="P11" s="53">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="53">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R11" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>-</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="S11" s="65"/>
-      <c r="T11" s="53" t="str">
+      <c r="T11" s="53">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="U11" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="U11" s="53">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V11" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="V11" s="53">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="W11" s="53">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X11" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>-</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="Y11" s="63"/>
-      <c r="Z11" s="53" t="str">
+      <c r="Z11" s="53">
         <f t="shared" si="21"/>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="53">
         <f t="shared" si="22"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB11" s="53" t="str">
         <f t="shared" si="23"/>
@@ -23803,7 +23874,7 @@
       </c>
       <c r="AE11" s="53">
         <f t="shared" si="25"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF11" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23816,7 +23887,7 @@
       </c>
       <c r="AI11" s="53">
         <f t="shared" si="28"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
@@ -23825,7 +23896,7 @@
       </c>
       <c r="B12" s="53">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="53">
         <f t="shared" si="0"/>
@@ -23833,7 +23904,7 @@
       </c>
       <c r="D12" s="53">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="53">
         <f t="shared" si="2"/>
@@ -23853,7 +23924,7 @@
       </c>
       <c r="I12" s="53">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J12" s="53">
         <f t="shared" si="11"/>
@@ -23861,7 +23932,7 @@
       </c>
       <c r="K12" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.12(2)</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="L12" s="64"/>
       <c r="M12" s="53">
@@ -23886,7 +23957,7 @@
       </c>
       <c r="R12" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.12(2)</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="S12" s="65"/>
       <c r="T12" s="53">
@@ -23907,7 +23978,7 @@
       </c>
       <c r="X12" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.12(2)</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="Y12" s="63"/>
       <c r="Z12" s="53">
@@ -23916,7 +23987,7 @@
       </c>
       <c r="AA12" s="53">
         <f t="shared" si="22"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB12" s="53" t="str">
         <f t="shared" si="23"/>
@@ -23929,7 +24000,7 @@
       </c>
       <c r="AE12" s="53">
         <f t="shared" si="25"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF12" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23942,7 +24013,7 @@
       </c>
       <c r="AI12" s="53">
         <f t="shared" si="28"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
@@ -23951,11 +24022,11 @@
       </c>
       <c r="B13" s="53">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="53">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="53">
         <f t="shared" si="1"/>
@@ -23967,27 +24038,27 @@
       </c>
       <c r="F13" s="53">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G13" s="53">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="53">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="53">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J13" s="53">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K13" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.5(2)</v>
+        <v>Pos.3(2)</v>
       </c>
       <c r="L13" s="64"/>
       <c r="M13" s="53">
@@ -24008,11 +24079,11 @@
       </c>
       <c r="Q13" s="53">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R13" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.5(2)</v>
+        <v>Pos.3(2)</v>
       </c>
       <c r="S13" s="65"/>
       <c r="T13" s="53">
@@ -24029,33 +24100,33 @@
       </c>
       <c r="W13" s="53">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X13" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.5(2)</v>
+        <v>Pos.3(2)</v>
       </c>
       <c r="Y13" s="63"/>
       <c r="Z13" s="53">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AA13" s="53">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB13" s="53" t="str">
         <f t="shared" si="23"/>
-        <v>Pos.5(2)</v>
+        <v>-</v>
       </c>
       <c r="AC13" s="65"/>
-      <c r="AD13" s="53">
+      <c r="AD13" s="53" t="str">
         <f t="shared" si="24"/>
-        <v>6</v>
+        <v>-</v>
       </c>
       <c r="AE13" s="53">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF13" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24068,7 +24139,7 @@
       </c>
       <c r="AI13" s="53">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
@@ -24077,7 +24148,7 @@
       </c>
       <c r="B14" s="53">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="53">
         <f t="shared" si="0"/>
@@ -24085,7 +24156,7 @@
       </c>
       <c r="D14" s="53">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="53">
         <f t="shared" si="2"/>
@@ -24105,7 +24176,7 @@
       </c>
       <c r="I14" s="53">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14" s="53">
         <f t="shared" si="11"/>
@@ -24113,7 +24184,7 @@
       </c>
       <c r="K14" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.12(2)</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="L14" s="64"/>
       <c r="M14" s="53">
@@ -24138,7 +24209,7 @@
       </c>
       <c r="R14" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.12(2)</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="S14" s="65"/>
       <c r="T14" s="53">
@@ -24159,7 +24230,7 @@
       </c>
       <c r="X14" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.12(2)</v>
+        <v>Pos.12(3)</v>
       </c>
       <c r="Y14" s="63"/>
       <c r="Z14" s="53">
@@ -24168,7 +24239,7 @@
       </c>
       <c r="AA14" s="53">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB14" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24181,7 +24252,7 @@
       </c>
       <c r="AE14" s="53">
         <f t="shared" si="25"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF14" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24194,7 +24265,7 @@
       </c>
       <c r="AI14" s="53">
         <f t="shared" si="28"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
@@ -24203,7 +24274,7 @@
       </c>
       <c r="B15" s="53">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="53">
         <f t="shared" si="0"/>
@@ -24211,7 +24282,7 @@
       </c>
       <c r="D15" s="53">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="53">
         <f t="shared" si="2"/>
@@ -24219,11 +24290,11 @@
       </c>
       <c r="F15" s="53">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="53">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H15" s="53">
         <f t="shared" si="9"/>
@@ -24231,7 +24302,7 @@
       </c>
       <c r="I15" s="53">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="53">
         <f t="shared" si="11"/>
@@ -24239,24 +24310,24 @@
       </c>
       <c r="K15" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.17(2)</v>
+        <v>-</v>
       </c>
       <c r="L15" s="64"/>
-      <c r="M15" s="53">
+      <c r="M15" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="53">
+        <v>-</v>
+      </c>
+      <c r="N15" s="53" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="53">
+        <v>-</v>
+      </c>
+      <c r="O15" s="53" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="53">
+        <v>-</v>
+      </c>
+      <c r="P15" s="53" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="Q15" s="53">
         <f t="shared" si="15"/>
@@ -24264,20 +24335,20 @@
       </c>
       <c r="R15" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.17(2)</v>
+        <v>-</v>
       </c>
       <c r="S15" s="65"/>
-      <c r="T15" s="53">
+      <c r="T15" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="53">
+        <v>-</v>
+      </c>
+      <c r="U15" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="53">
+        <v>-</v>
+      </c>
+      <c r="V15" s="53" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W15" s="53">
         <f t="shared" si="19"/>
@@ -24285,12 +24356,12 @@
       </c>
       <c r="X15" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.17(2)</v>
+        <v>-</v>
       </c>
       <c r="Y15" s="63"/>
-      <c r="Z15" s="53">
+      <c r="Z15" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>-10</v>
+        <v>-</v>
       </c>
       <c r="AA15" s="53">
         <f t="shared" si="22"/>
@@ -24329,11 +24400,11 @@
       </c>
       <c r="B16" s="53">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="53">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="53">
         <f t="shared" si="1"/>
@@ -24345,7 +24416,7 @@
       </c>
       <c r="F16" s="53">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G16" s="53">
         <f t="shared" si="4"/>
@@ -24353,19 +24424,19 @@
       </c>
       <c r="H16" s="53">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I16" s="53">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J16" s="53">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K16" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.3(2)</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="L16" s="64"/>
       <c r="M16" s="53">
@@ -24386,11 +24457,11 @@
       </c>
       <c r="Q16" s="53">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R16" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.3(2)</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="S16" s="65"/>
       <c r="T16" s="53">
@@ -24407,20 +24478,20 @@
       </c>
       <c r="W16" s="53">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X16" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.3(2)</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="Y16" s="63"/>
       <c r="Z16" s="53">
         <f t="shared" si="21"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AA16" s="53">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24433,7 +24504,7 @@
       </c>
       <c r="AE16" s="53">
         <f t="shared" si="25"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF16" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24446,7 +24517,7 @@
       </c>
       <c r="AI16" s="53">
         <f t="shared" si="28"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
@@ -24455,7 +24526,7 @@
       </c>
       <c r="B17" s="53">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" s="53">
         <f t="shared" si="0"/>
@@ -24463,7 +24534,7 @@
       </c>
       <c r="D17" s="53">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="53">
         <f t="shared" si="2"/>
@@ -24483,15 +24554,15 @@
       </c>
       <c r="I17" s="53">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J17" s="53">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K17" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.1(2)</v>
+        <v>Pos.3(2)</v>
       </c>
       <c r="L17" s="64"/>
       <c r="M17" s="53">
@@ -24512,11 +24583,11 @@
       </c>
       <c r="Q17" s="53">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R17" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.1(2)</v>
+        <v>Pos.3(2)</v>
       </c>
       <c r="S17" s="65"/>
       <c r="T17" s="53">
@@ -24533,11 +24604,11 @@
       </c>
       <c r="W17" s="53">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X17" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.1(2)</v>
+        <v>Pos.3(2)</v>
       </c>
       <c r="Y17" s="63"/>
       <c r="Z17" s="53">
@@ -24546,7 +24617,7 @@
       </c>
       <c r="AA17" s="53">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB17" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24559,7 +24630,7 @@
       </c>
       <c r="AE17" s="53">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF17" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24572,7 +24643,7 @@
       </c>
       <c r="AI17" s="53">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
@@ -24581,11 +24652,11 @@
       </c>
       <c r="B18" s="53">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="53">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="53">
         <f t="shared" si="1"/>
@@ -24597,48 +24668,48 @@
       </c>
       <c r="F18" s="53">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G18" s="53">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H18" s="53">
         <f t="shared" si="9"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="I18" s="53">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J18" s="53">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K18" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.14(2)</v>
+        <v>-</v>
       </c>
       <c r="L18" s="64"/>
-      <c r="M18" s="53">
+      <c r="M18" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="N18" s="53">
+        <v>-</v>
+      </c>
+      <c r="N18" s="53" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="53">
+        <v>-</v>
+      </c>
+      <c r="O18" s="53" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="53">
+        <v>-</v>
+      </c>
+      <c r="P18" s="53" t="str">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>-</v>
       </c>
       <c r="Q18" s="53">
         <f t="shared" si="15"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="R18" s="53" t="str">
         <f t="shared" si="16"/>
@@ -24659,7 +24730,7 @@
       </c>
       <c r="W18" s="53">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="X18" s="53" t="str">
         <f t="shared" si="20"/>
@@ -24672,7 +24743,7 @@
       </c>
       <c r="AA18" s="53">
         <f t="shared" si="22"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AB18" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24685,7 +24756,7 @@
       </c>
       <c r="AE18" s="53">
         <f t="shared" si="25"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AF18" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24698,7 +24769,7 @@
       </c>
       <c r="AI18" s="53">
         <f t="shared" si="28"/>
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
@@ -24707,11 +24778,11 @@
       </c>
       <c r="B19" s="53">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" s="53">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="53">
         <f t="shared" si="1"/>
@@ -24723,7 +24794,7 @@
       </c>
       <c r="F19" s="53">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G19" s="53">
         <f t="shared" si="4"/>
@@ -24731,19 +24802,19 @@
       </c>
       <c r="H19" s="53">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="53">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J19" s="53">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K19" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.9(2)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="L19" s="64"/>
       <c r="M19" s="53">
@@ -24756,7 +24827,7 @@
       </c>
       <c r="O19" s="53">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="53">
         <f t="shared" si="14"/>
@@ -24764,41 +24835,41 @@
       </c>
       <c r="Q19" s="53">
         <f t="shared" si="15"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R19" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.9(2)</v>
+        <v>-</v>
       </c>
       <c r="S19" s="65"/>
-      <c r="T19" s="53">
+      <c r="T19" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="53">
+        <v>-</v>
+      </c>
+      <c r="U19" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V19" s="53">
+        <v>-</v>
+      </c>
+      <c r="V19" s="53" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W19" s="53">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X19" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.9(2)</v>
+        <v>-</v>
       </c>
       <c r="Y19" s="63"/>
-      <c r="Z19" s="53">
+      <c r="Z19" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>-</v>
       </c>
       <c r="AA19" s="53">
         <f t="shared" si="22"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AB19" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24811,7 +24882,7 @@
       </c>
       <c r="AE19" s="53">
         <f t="shared" si="25"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AF19" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24824,7 +24895,7 @@
       </c>
       <c r="AI19" s="53">
         <f t="shared" si="28"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -24839,7 +24910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -24887,39 +24958,39 @@
       </c>
       <c r="B2" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Salamanca UDS</v>
+        <v>Real Ávila</v>
       </c>
       <c r="C2" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I2" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -24928,31 +24999,31 @@
       </c>
       <c r="B3" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Atlético Tordesillas</v>
+        <v>Júpiter Leonés</v>
       </c>
       <c r="C3" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I3" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -24960,7 +25031,7 @@
       </c>
       <c r="J3" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -24969,15 +25040,15 @@
       </c>
       <c r="B4" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Real Ávila</v>
+        <v>Salamanca UDS</v>
       </c>
       <c r="C4" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -24985,23 +25056,23 @@
       </c>
       <c r="F4" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -25010,15 +25081,15 @@
       </c>
       <c r="B5" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Júpiter Leonés</v>
+        <v>Palencia CF</v>
       </c>
       <c r="C5" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25026,11 +25097,11 @@
       </c>
       <c r="F5" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25038,11 +25109,11 @@
       </c>
       <c r="I5" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J5" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -25051,31 +25122,31 @@
       </c>
       <c r="B6" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Palencia CF</v>
+        <v>Atlético Tordesillas</v>
       </c>
       <c r="C6" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I6" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25083,7 +25154,7 @@
       </c>
       <c r="J6" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -25096,11 +25167,11 @@
       </c>
       <c r="C7" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25108,7 +25179,7 @@
       </c>
       <c r="F7" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25133,35 +25204,35 @@
       </c>
       <c r="B8" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Atl. Astorga</v>
+        <v>UD. Santa Marta</v>
       </c>
       <c r="C8" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25174,15 +25245,15 @@
       </c>
       <c r="B9" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>CD. Villaralbo</v>
+        <v>Atl. Astorga</v>
       </c>
       <c r="C9" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25190,7 +25261,7 @@
       </c>
       <c r="F9" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25198,15 +25269,15 @@
       </c>
       <c r="H9" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I9" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J9" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -25215,15 +25286,15 @@
       </c>
       <c r="B10" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>UD. Santa Marta</v>
+        <v>Atco. Bembibre</v>
       </c>
       <c r="C10" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25231,7 +25302,7 @@
       </c>
       <c r="F10" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25239,7 +25310,7 @@
       </c>
       <c r="H10" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I10" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25247,7 +25318,7 @@
       </c>
       <c r="J10" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -25256,15 +25327,15 @@
       </c>
       <c r="B11" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Atco. Bembibre</v>
+        <v>CD. Villaralbo</v>
       </c>
       <c r="C11" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25272,7 +25343,7 @@
       </c>
       <c r="F11" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25284,11 +25355,11 @@
       </c>
       <c r="I11" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J11" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -25297,39 +25368,39 @@
       </c>
       <c r="B12" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>La Virgen del Camino</v>
+        <v>SD Almazán</v>
       </c>
       <c r="C12" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I12" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J12" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -25338,15 +25409,15 @@
       </c>
       <c r="B13" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Palencia Cristo Atlético</v>
+        <v>La Virgen del Camino</v>
       </c>
       <c r="C13" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25354,7 +25425,7 @@
       </c>
       <c r="F13" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25362,15 +25433,15 @@
       </c>
       <c r="H13" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I13" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -25379,15 +25450,15 @@
       </c>
       <c r="B14" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Mirandés B</v>
+        <v>Palencia Cristo Atlético</v>
       </c>
       <c r="C14" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25395,7 +25466,7 @@
       </c>
       <c r="F14" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25403,7 +25474,7 @@
       </c>
       <c r="H14" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25411,7 +25482,7 @@
       </c>
       <c r="J14" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -25420,15 +25491,15 @@
       </c>
       <c r="B15" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>SD Almazán</v>
+        <v>Mirandés B</v>
       </c>
       <c r="C15" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25436,23 +25507,23 @@
       </c>
       <c r="F15" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I15" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J15" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -25461,7 +25532,7 @@
       </c>
       <c r="B16" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Becerril</v>
+        <v>DiocesanosAvila</v>
       </c>
       <c r="C16" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25469,31 +25540,31 @@
       </c>
       <c r="D16" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J16" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-6</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -25502,39 +25573,39 @@
       </c>
       <c r="B17" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>DiocesanosAvila</v>
+        <v>Becerril</v>
       </c>
       <c r="C17" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H17" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I17" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J17" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-4</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -25547,11 +25618,11 @@
       </c>
       <c r="C18" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25559,7 +25630,7 @@
       </c>
       <c r="F18" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25567,11 +25638,11 @@
       </c>
       <c r="H18" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J18" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25592,7 +25663,7 @@
       </c>
       <c r="D19" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25604,19 +25675,19 @@
       </c>
       <c r="G19" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H19" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J19" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-12</v>
+        <v>-13</v>
       </c>
     </row>
   </sheetData>
@@ -27063,241 +27134,241 @@
       <c r="B2" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
       <c r="H2" s="36" t="s">
         <v>80</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="130" t="s">
+      <c r="K2" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
       <c r="P2" s="34" t="s">
         <v>53</v>
       </c>
       <c r="R2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="S2" s="130" t="s">
+      <c r="S2" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
       <c r="X2" s="34" t="s">
         <v>96</v>
       </c>
       <c r="Z2" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="AA2" s="130" t="s">
+      <c r="AA2" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="AB2" s="130"/>
-      <c r="AC2" s="130"/>
-      <c r="AD2" s="130"/>
-      <c r="AE2" s="130"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
       <c r="AF2" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="AH2" s="139" t="s">
+      <c r="AH2" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="140"/>
-      <c r="AJ2" s="140"/>
-      <c r="AK2" s="140"/>
-      <c r="AL2" s="140"/>
-      <c r="AM2" s="140"/>
-      <c r="AN2" s="141"/>
-      <c r="AP2" s="139" t="s">
+      <c r="AI2" s="147"/>
+      <c r="AJ2" s="147"/>
+      <c r="AK2" s="147"/>
+      <c r="AL2" s="147"/>
+      <c r="AM2" s="147"/>
+      <c r="AN2" s="148"/>
+      <c r="AP2" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="AQ2" s="140"/>
-      <c r="AR2" s="140"/>
-      <c r="AS2" s="140"/>
-      <c r="AT2" s="140"/>
-      <c r="AU2" s="140"/>
-      <c r="AV2" s="141"/>
-      <c r="AX2" s="139" t="s">
+      <c r="AQ2" s="147"/>
+      <c r="AR2" s="147"/>
+      <c r="AS2" s="147"/>
+      <c r="AT2" s="147"/>
+      <c r="AU2" s="147"/>
+      <c r="AV2" s="148"/>
+      <c r="AX2" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="AY2" s="140"/>
-      <c r="AZ2" s="140"/>
-      <c r="BA2" s="140"/>
-      <c r="BB2" s="140"/>
-      <c r="BC2" s="140"/>
-      <c r="BD2" s="141"/>
-      <c r="BF2" s="139" t="s">
+      <c r="AY2" s="147"/>
+      <c r="AZ2" s="147"/>
+      <c r="BA2" s="147"/>
+      <c r="BB2" s="147"/>
+      <c r="BC2" s="147"/>
+      <c r="BD2" s="148"/>
+      <c r="BF2" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="BG2" s="140"/>
-      <c r="BH2" s="140"/>
-      <c r="BI2" s="140"/>
-      <c r="BJ2" s="140"/>
-      <c r="BK2" s="140"/>
-      <c r="BL2" s="141"/>
-      <c r="BN2" s="139" t="s">
+      <c r="BG2" s="147"/>
+      <c r="BH2" s="147"/>
+      <c r="BI2" s="147"/>
+      <c r="BJ2" s="147"/>
+      <c r="BK2" s="147"/>
+      <c r="BL2" s="148"/>
+      <c r="BN2" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="BO2" s="140"/>
-      <c r="BP2" s="140"/>
-      <c r="BQ2" s="140"/>
-      <c r="BR2" s="140"/>
-      <c r="BS2" s="140"/>
-      <c r="BT2" s="141"/>
-      <c r="BV2" s="139" t="s">
+      <c r="BO2" s="147"/>
+      <c r="BP2" s="147"/>
+      <c r="BQ2" s="147"/>
+      <c r="BR2" s="147"/>
+      <c r="BS2" s="147"/>
+      <c r="BT2" s="148"/>
+      <c r="BV2" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="BW2" s="140"/>
-      <c r="BX2" s="140"/>
-      <c r="BY2" s="140"/>
-      <c r="BZ2" s="140"/>
-      <c r="CA2" s="140"/>
-      <c r="CB2" s="141"/>
+      <c r="BW2" s="147"/>
+      <c r="BX2" s="147"/>
+      <c r="BY2" s="147"/>
+      <c r="BZ2" s="147"/>
+      <c r="CA2" s="147"/>
+      <c r="CB2" s="148"/>
     </row>
     <row r="3" spans="2:80" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="135" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="147" t="s">
+      <c r="B3" s="132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="133"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="147"/>
-      <c r="G3" s="137" t="s">
+      <c r="F3" s="145"/>
+      <c r="G3" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="138"/>
-      <c r="J3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="142" t="s">
+      <c r="H3" s="135"/>
+      <c r="J3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="142"/>
-      <c r="O3" s="143" t="s">
+      <c r="N3" s="144"/>
+      <c r="O3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="144"/>
-      <c r="R3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="146"/>
-      <c r="T3" s="146"/>
-      <c r="U3" s="142" t="s">
+      <c r="P3" s="143"/>
+      <c r="R3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="141"/>
+      <c r="T3" s="141"/>
+      <c r="U3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="142"/>
-      <c r="W3" s="143" t="s">
+      <c r="V3" s="144"/>
+      <c r="W3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="144"/>
-      <c r="Z3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="146"/>
-      <c r="AB3" s="146"/>
-      <c r="AC3" s="142" t="s">
+      <c r="X3" s="143"/>
+      <c r="Z3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="143" t="s">
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="144"/>
-      <c r="AH3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="146"/>
-      <c r="AJ3" s="146"/>
-      <c r="AK3" s="142" t="s">
+      <c r="AF3" s="143"/>
+      <c r="AH3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="141"/>
+      <c r="AJ3" s="141"/>
+      <c r="AK3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="142"/>
-      <c r="AM3" s="143" t="s">
+      <c r="AL3" s="144"/>
+      <c r="AM3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="144"/>
-      <c r="AP3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="146"/>
-      <c r="AR3" s="146"/>
-      <c r="AS3" s="142" t="s">
+      <c r="AN3" s="143"/>
+      <c r="AP3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="141"/>
+      <c r="AR3" s="141"/>
+      <c r="AS3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="142"/>
-      <c r="AU3" s="143" t="s">
+      <c r="AT3" s="144"/>
+      <c r="AU3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="144"/>
-      <c r="AX3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="146"/>
-      <c r="AZ3" s="146"/>
-      <c r="BA3" s="142" t="s">
+      <c r="AV3" s="143"/>
+      <c r="AX3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="141"/>
+      <c r="AZ3" s="141"/>
+      <c r="BA3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BB3" s="142"/>
-      <c r="BC3" s="143" t="s">
+      <c r="BB3" s="144"/>
+      <c r="BC3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="144"/>
-      <c r="BF3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="146"/>
-      <c r="BH3" s="146"/>
-      <c r="BI3" s="142" t="s">
+      <c r="BD3" s="143"/>
+      <c r="BF3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="141"/>
+      <c r="BH3" s="141"/>
+      <c r="BI3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BJ3" s="142"/>
-      <c r="BK3" s="143" t="s">
+      <c r="BJ3" s="144"/>
+      <c r="BK3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="144"/>
-      <c r="BN3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="146"/>
-      <c r="BP3" s="146"/>
-      <c r="BQ3" s="142" t="s">
+      <c r="BL3" s="143"/>
+      <c r="BN3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="141"/>
+      <c r="BP3" s="141"/>
+      <c r="BQ3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="142"/>
-      <c r="BS3" s="143" t="s">
+      <c r="BR3" s="144"/>
+      <c r="BS3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="144"/>
-      <c r="BV3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="146"/>
-      <c r="BX3" s="146"/>
-      <c r="BY3" s="142" t="s">
+      <c r="BT3" s="143"/>
+      <c r="BV3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="141"/>
+      <c r="BX3" s="141"/>
+      <c r="BY3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BZ3" s="142"/>
-      <c r="CA3" s="143" t="s">
+      <c r="BZ3" s="144"/>
+      <c r="CA3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="144"/>
+      <c r="CB3" s="143"/>
     </row>
     <row r="4" spans="2:80" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -29815,24 +29886,12 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="AX2:BD2"/>
+    <mergeCell ref="BF2:BL2"/>
+    <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="BN2:BT2"/>
     <mergeCell ref="BV2:CB2"/>
     <mergeCell ref="AH2:AN2"/>
@@ -29849,12 +29908,24 @@
     <mergeCell ref="AX3:AZ3"/>
     <mergeCell ref="BA3:BB3"/>
     <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="AX2:BD2"/>
-    <mergeCell ref="BF2:BL2"/>
-    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="BY3:BZ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31090,30 +31161,30 @@
     </row>
     <row r="38" spans="6:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="6:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="F39" s="148" t="s">
+      <c r="F39" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="151"/>
     </row>
     <row r="40" spans="6:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="F40" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="146"/>
-      <c r="H40" s="146"/>
-      <c r="I40" s="142" t="s">
+      <c r="F40" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="141"/>
+      <c r="H40" s="141"/>
+      <c r="I40" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="142"/>
-      <c r="K40" s="143" t="s">
+      <c r="J40" s="144"/>
+      <c r="K40" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="144"/>
+      <c r="L40" s="143"/>
     </row>
     <row r="41" spans="6:23" ht="19" x14ac:dyDescent="0.25">
       <c r="F41" s="14" t="s">
@@ -31791,8 +31862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:EF25"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AB26" sqref="AB26"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AN7" sqref="AN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31816,7 +31887,7 @@
     <col min="29" max="29" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="30" max="31" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="38" max="39" width="7.33203125" bestFit="1" customWidth="1"/>
@@ -31888,395 +31959,399 @@
       <c r="B2" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="130" t="s">
+      <c r="C2" s="131" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
       <c r="H2" s="36" t="s">
         <v>71</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="K2" s="130" t="s">
+      <c r="K2" s="131" t="s">
         <v>180</v>
       </c>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
       <c r="P2" s="123" t="s">
         <v>185</v>
       </c>
       <c r="R2" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="S2" s="130" t="s">
+      <c r="S2" s="131" t="s">
         <v>181</v>
       </c>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
       <c r="X2" s="123" t="s">
         <v>186</v>
       </c>
       <c r="Z2" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="AA2" s="130" t="s">
+      <c r="AA2" s="131" t="s">
         <v>188</v>
       </c>
-      <c r="AB2" s="130"/>
-      <c r="AC2" s="130"/>
-      <c r="AD2" s="130"/>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="151" t="s">
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="130" t="s">
         <v>189</v>
       </c>
-      <c r="AH2" s="139" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI2" s="140"/>
-      <c r="AJ2" s="140"/>
-      <c r="AK2" s="140"/>
-      <c r="AL2" s="140"/>
-      <c r="AM2" s="140"/>
-      <c r="AN2" s="141"/>
-      <c r="AP2" s="139" t="s">
+      <c r="AH2" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI2" s="131" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ2" s="131"/>
+      <c r="AK2" s="131"/>
+      <c r="AL2" s="131"/>
+      <c r="AM2" s="131"/>
+      <c r="AN2" s="152" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP2" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="AQ2" s="140"/>
-      <c r="AR2" s="140"/>
-      <c r="AS2" s="140"/>
-      <c r="AT2" s="140"/>
-      <c r="AU2" s="140"/>
-      <c r="AV2" s="141"/>
-      <c r="AX2" s="139" t="s">
+      <c r="AQ2" s="147"/>
+      <c r="AR2" s="147"/>
+      <c r="AS2" s="147"/>
+      <c r="AT2" s="147"/>
+      <c r="AU2" s="147"/>
+      <c r="AV2" s="148"/>
+      <c r="AX2" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="AY2" s="140"/>
-      <c r="AZ2" s="140"/>
-      <c r="BA2" s="140"/>
-      <c r="BB2" s="140"/>
-      <c r="BC2" s="140"/>
-      <c r="BD2" s="141"/>
-      <c r="BF2" s="139" t="s">
+      <c r="AY2" s="147"/>
+      <c r="AZ2" s="147"/>
+      <c r="BA2" s="147"/>
+      <c r="BB2" s="147"/>
+      <c r="BC2" s="147"/>
+      <c r="BD2" s="148"/>
+      <c r="BF2" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="BG2" s="140"/>
-      <c r="BH2" s="140"/>
-      <c r="BI2" s="140"/>
-      <c r="BJ2" s="140"/>
-      <c r="BK2" s="140"/>
-      <c r="BL2" s="141"/>
-      <c r="BN2" s="139" t="s">
+      <c r="BG2" s="147"/>
+      <c r="BH2" s="147"/>
+      <c r="BI2" s="147"/>
+      <c r="BJ2" s="147"/>
+      <c r="BK2" s="147"/>
+      <c r="BL2" s="148"/>
+      <c r="BN2" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="BO2" s="140"/>
-      <c r="BP2" s="140"/>
-      <c r="BQ2" s="140"/>
-      <c r="BR2" s="140"/>
-      <c r="BS2" s="140"/>
-      <c r="BT2" s="141"/>
-      <c r="BV2" s="139" t="s">
+      <c r="BO2" s="147"/>
+      <c r="BP2" s="147"/>
+      <c r="BQ2" s="147"/>
+      <c r="BR2" s="147"/>
+      <c r="BS2" s="147"/>
+      <c r="BT2" s="148"/>
+      <c r="BV2" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="BW2" s="140"/>
-      <c r="BX2" s="140"/>
-      <c r="BY2" s="140"/>
-      <c r="BZ2" s="140"/>
-      <c r="CA2" s="140"/>
-      <c r="CB2" s="141"/>
-      <c r="CD2" s="139" t="s">
+      <c r="BW2" s="147"/>
+      <c r="BX2" s="147"/>
+      <c r="BY2" s="147"/>
+      <c r="BZ2" s="147"/>
+      <c r="CA2" s="147"/>
+      <c r="CB2" s="148"/>
+      <c r="CD2" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="CE2" s="140"/>
-      <c r="CF2" s="140"/>
-      <c r="CG2" s="140"/>
-      <c r="CH2" s="140"/>
-      <c r="CI2" s="140"/>
-      <c r="CJ2" s="141"/>
-      <c r="CL2" s="139" t="s">
+      <c r="CE2" s="147"/>
+      <c r="CF2" s="147"/>
+      <c r="CG2" s="147"/>
+      <c r="CH2" s="147"/>
+      <c r="CI2" s="147"/>
+      <c r="CJ2" s="148"/>
+      <c r="CL2" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="CM2" s="140"/>
-      <c r="CN2" s="140"/>
-      <c r="CO2" s="140"/>
-      <c r="CP2" s="140"/>
-      <c r="CQ2" s="140"/>
-      <c r="CR2" s="141"/>
-      <c r="CT2" s="139" t="s">
+      <c r="CM2" s="147"/>
+      <c r="CN2" s="147"/>
+      <c r="CO2" s="147"/>
+      <c r="CP2" s="147"/>
+      <c r="CQ2" s="147"/>
+      <c r="CR2" s="148"/>
+      <c r="CT2" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="CU2" s="140"/>
-      <c r="CV2" s="140"/>
-      <c r="CW2" s="140"/>
-      <c r="CX2" s="140"/>
-      <c r="CY2" s="140"/>
-      <c r="CZ2" s="141"/>
-      <c r="DB2" s="139" t="s">
+      <c r="CU2" s="147"/>
+      <c r="CV2" s="147"/>
+      <c r="CW2" s="147"/>
+      <c r="CX2" s="147"/>
+      <c r="CY2" s="147"/>
+      <c r="CZ2" s="148"/>
+      <c r="DB2" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="DC2" s="140"/>
-      <c r="DD2" s="140"/>
-      <c r="DE2" s="140"/>
-      <c r="DF2" s="140"/>
-      <c r="DG2" s="140"/>
-      <c r="DH2" s="141"/>
-      <c r="DJ2" s="139" t="s">
+      <c r="DC2" s="147"/>
+      <c r="DD2" s="147"/>
+      <c r="DE2" s="147"/>
+      <c r="DF2" s="147"/>
+      <c r="DG2" s="147"/>
+      <c r="DH2" s="148"/>
+      <c r="DJ2" s="146" t="s">
         <v>44</v>
       </c>
-      <c r="DK2" s="140"/>
-      <c r="DL2" s="140"/>
-      <c r="DM2" s="140"/>
-      <c r="DN2" s="140"/>
-      <c r="DO2" s="140"/>
-      <c r="DP2" s="141"/>
-      <c r="DR2" s="139" t="s">
+      <c r="DK2" s="147"/>
+      <c r="DL2" s="147"/>
+      <c r="DM2" s="147"/>
+      <c r="DN2" s="147"/>
+      <c r="DO2" s="147"/>
+      <c r="DP2" s="148"/>
+      <c r="DR2" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="DS2" s="140"/>
-      <c r="DT2" s="140"/>
-      <c r="DU2" s="140"/>
-      <c r="DV2" s="140"/>
-      <c r="DW2" s="140"/>
-      <c r="DX2" s="141"/>
-      <c r="DZ2" s="139" t="s">
+      <c r="DS2" s="147"/>
+      <c r="DT2" s="147"/>
+      <c r="DU2" s="147"/>
+      <c r="DV2" s="147"/>
+      <c r="DW2" s="147"/>
+      <c r="DX2" s="148"/>
+      <c r="DZ2" s="146" t="s">
         <v>42</v>
       </c>
-      <c r="EA2" s="140"/>
-      <c r="EB2" s="140"/>
-      <c r="EC2" s="140"/>
-      <c r="ED2" s="140"/>
-      <c r="EE2" s="140"/>
-      <c r="EF2" s="141"/>
+      <c r="EA2" s="147"/>
+      <c r="EB2" s="147"/>
+      <c r="EC2" s="147"/>
+      <c r="ED2" s="147"/>
+      <c r="EE2" s="147"/>
+      <c r="EF2" s="148"/>
     </row>
     <row r="3" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="142" t="s">
+      <c r="B3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="142"/>
-      <c r="G3" s="143" t="s">
+      <c r="F3" s="144"/>
+      <c r="G3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="144"/>
-      <c r="J3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="142" t="s">
+      <c r="H3" s="143"/>
+      <c r="J3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="142"/>
-      <c r="O3" s="143" t="s">
+      <c r="N3" s="144"/>
+      <c r="O3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="144"/>
-      <c r="R3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="146"/>
-      <c r="T3" s="146"/>
-      <c r="U3" s="142" t="s">
+      <c r="P3" s="143"/>
+      <c r="R3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="141"/>
+      <c r="T3" s="141"/>
+      <c r="U3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="142"/>
-      <c r="W3" s="143" t="s">
+      <c r="V3" s="144"/>
+      <c r="W3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="144"/>
-      <c r="Z3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="146"/>
-      <c r="AB3" s="146"/>
-      <c r="AC3" s="142" t="s">
+      <c r="X3" s="143"/>
+      <c r="Z3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="143" t="s">
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="144"/>
-      <c r="AH3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="146"/>
-      <c r="AJ3" s="146"/>
-      <c r="AK3" s="142" t="s">
+      <c r="AF3" s="143"/>
+      <c r="AH3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="141"/>
+      <c r="AJ3" s="141"/>
+      <c r="AK3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="142"/>
-      <c r="AM3" s="143" t="s">
+      <c r="AL3" s="144"/>
+      <c r="AM3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="144"/>
-      <c r="AP3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="146"/>
-      <c r="AR3" s="146"/>
-      <c r="AS3" s="142" t="s">
+      <c r="AN3" s="143"/>
+      <c r="AP3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="141"/>
+      <c r="AR3" s="141"/>
+      <c r="AS3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="142"/>
-      <c r="AU3" s="143" t="s">
+      <c r="AT3" s="144"/>
+      <c r="AU3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="144"/>
-      <c r="AX3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="146"/>
-      <c r="AZ3" s="146"/>
-      <c r="BA3" s="142" t="s">
+      <c r="AV3" s="143"/>
+      <c r="AX3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="141"/>
+      <c r="AZ3" s="141"/>
+      <c r="BA3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BB3" s="142"/>
-      <c r="BC3" s="143" t="s">
+      <c r="BB3" s="144"/>
+      <c r="BC3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="144"/>
-      <c r="BF3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="146"/>
-      <c r="BH3" s="146"/>
-      <c r="BI3" s="142" t="s">
+      <c r="BD3" s="143"/>
+      <c r="BF3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="141"/>
+      <c r="BH3" s="141"/>
+      <c r="BI3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BJ3" s="142"/>
-      <c r="BK3" s="143" t="s">
+      <c r="BJ3" s="144"/>
+      <c r="BK3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="144"/>
-      <c r="BN3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="146"/>
-      <c r="BP3" s="146"/>
-      <c r="BQ3" s="142" t="s">
+      <c r="BL3" s="143"/>
+      <c r="BN3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="141"/>
+      <c r="BP3" s="141"/>
+      <c r="BQ3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="142"/>
-      <c r="BS3" s="143" t="s">
+      <c r="BR3" s="144"/>
+      <c r="BS3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="144"/>
-      <c r="BV3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="146"/>
-      <c r="BX3" s="146"/>
-      <c r="BY3" s="142" t="s">
+      <c r="BT3" s="143"/>
+      <c r="BV3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="141"/>
+      <c r="BX3" s="141"/>
+      <c r="BY3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BZ3" s="142"/>
-      <c r="CA3" s="143" t="s">
+      <c r="BZ3" s="144"/>
+      <c r="CA3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="144"/>
-      <c r="CD3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="146"/>
-      <c r="CF3" s="146"/>
-      <c r="CG3" s="142" t="s">
+      <c r="CB3" s="143"/>
+      <c r="CD3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="141"/>
+      <c r="CF3" s="141"/>
+      <c r="CG3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="CH3" s="142"/>
-      <c r="CI3" s="143" t="s">
+      <c r="CH3" s="144"/>
+      <c r="CI3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="CJ3" s="144"/>
-      <c r="CL3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="146"/>
-      <c r="CN3" s="146"/>
-      <c r="CO3" s="142" t="s">
+      <c r="CJ3" s="143"/>
+      <c r="CL3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="141"/>
+      <c r="CN3" s="141"/>
+      <c r="CO3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="CP3" s="142"/>
-      <c r="CQ3" s="143" t="s">
+      <c r="CP3" s="144"/>
+      <c r="CQ3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="CR3" s="144"/>
-      <c r="CT3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="146"/>
-      <c r="CV3" s="146"/>
-      <c r="CW3" s="142" t="s">
+      <c r="CR3" s="143"/>
+      <c r="CT3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="141"/>
+      <c r="CV3" s="141"/>
+      <c r="CW3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="CX3" s="142"/>
-      <c r="CY3" s="143" t="s">
+      <c r="CX3" s="144"/>
+      <c r="CY3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="CZ3" s="144"/>
-      <c r="DB3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="DC3" s="146"/>
-      <c r="DD3" s="146"/>
-      <c r="DE3" s="142" t="s">
+      <c r="CZ3" s="143"/>
+      <c r="DB3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="141"/>
+      <c r="DD3" s="141"/>
+      <c r="DE3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="DF3" s="142"/>
-      <c r="DG3" s="143" t="s">
+      <c r="DF3" s="144"/>
+      <c r="DG3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="DH3" s="144"/>
-      <c r="DJ3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="DK3" s="146"/>
-      <c r="DL3" s="146"/>
-      <c r="DM3" s="142" t="s">
+      <c r="DH3" s="143"/>
+      <c r="DJ3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="141"/>
+      <c r="DL3" s="141"/>
+      <c r="DM3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="DN3" s="142"/>
-      <c r="DO3" s="143" t="s">
+      <c r="DN3" s="144"/>
+      <c r="DO3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="DP3" s="144"/>
-      <c r="DR3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS3" s="146"/>
-      <c r="DT3" s="146"/>
-      <c r="DU3" s="142" t="s">
+      <c r="DP3" s="143"/>
+      <c r="DR3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS3" s="141"/>
+      <c r="DT3" s="141"/>
+      <c r="DU3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="DV3" s="142"/>
-      <c r="DW3" s="143" t="s">
+      <c r="DV3" s="144"/>
+      <c r="DW3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="DX3" s="144"/>
-      <c r="DZ3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="EA3" s="146"/>
-      <c r="EB3" s="146"/>
-      <c r="EC3" s="142" t="s">
+      <c r="DX3" s="143"/>
+      <c r="DZ3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="141"/>
+      <c r="EB3" s="141"/>
+      <c r="EC3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="ED3" s="142"/>
-      <c r="EE3" s="143" t="s">
+      <c r="ED3" s="144"/>
+      <c r="EE3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="EF3" s="144"/>
+      <c r="EF3" s="143"/>
     </row>
     <row r="4" spans="2:136" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -32693,8 +32768,12 @@
       <c r="AH5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
+      <c r="AI5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>90</v>
+      </c>
       <c r="AK5" s="7"/>
       <c r="AL5" s="7"/>
       <c r="AM5" s="7"/>
@@ -33023,8 +33102,12 @@
       <c r="AH7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
+      <c r="AI7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="7">
+        <v>78</v>
+      </c>
       <c r="AK7" s="7"/>
       <c r="AL7" s="7"/>
       <c r="AM7" s="7"/>
@@ -33344,7 +33427,9 @@
         <v>14</v>
       </c>
       <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
+      <c r="AJ9" s="7">
+        <v>12</v>
+      </c>
       <c r="AK9" s="7"/>
       <c r="AL9" s="7"/>
       <c r="AM9" s="7"/>
@@ -33514,8 +33599,12 @@
       <c r="AH10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
+      <c r="AI10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="7">
+        <v>90</v>
+      </c>
       <c r="AK10" s="7"/>
       <c r="AL10" s="7"/>
       <c r="AM10" s="7"/>
@@ -33687,8 +33776,12 @@
       <c r="AH11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
+      <c r="AI11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="7">
+        <v>90</v>
+      </c>
       <c r="AK11" s="7"/>
       <c r="AL11" s="7"/>
       <c r="AM11" s="7"/>
@@ -34023,8 +34116,12 @@
       <c r="AH13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
+      <c r="AI13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="7">
+        <v>90</v>
+      </c>
       <c r="AK13" s="7"/>
       <c r="AL13" s="7"/>
       <c r="AM13" s="7"/>
@@ -34354,7 +34451,9 @@
         <v>21</v>
       </c>
       <c r="AI15" s="7"/>
-      <c r="AJ15" s="7"/>
+      <c r="AJ15" s="7">
+        <v>4</v>
+      </c>
       <c r="AK15" s="7"/>
       <c r="AL15" s="7"/>
       <c r="AM15" s="7"/>
@@ -34530,8 +34629,12 @@
       <c r="AH16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AI16" s="7"/>
-      <c r="AJ16" s="7"/>
+      <c r="AI16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="7">
+        <v>90</v>
+      </c>
       <c r="AK16" s="7"/>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
@@ -34866,8 +34969,12 @@
       <c r="AH18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AI18" s="7"/>
-      <c r="AJ18" s="7"/>
+      <c r="AI18" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="7">
+        <v>78</v>
+      </c>
       <c r="AK18" s="7"/>
       <c r="AL18" s="7"/>
       <c r="AM18" s="7"/>
@@ -35031,9 +35138,15 @@
       <c r="AH19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AI19" s="7"/>
-      <c r="AJ19" s="7"/>
-      <c r="AK19" s="7"/>
+      <c r="AI19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="7">
+        <v>58</v>
+      </c>
+      <c r="AK19" s="7">
+        <v>1</v>
+      </c>
       <c r="AL19" s="7"/>
       <c r="AM19" s="7"/>
       <c r="AN19" s="8"/>
@@ -35202,8 +35315,12 @@
       <c r="AH20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AI20" s="7"/>
-      <c r="AJ20" s="7"/>
+      <c r="AI20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="7">
+        <v>90</v>
+      </c>
       <c r="AK20" s="7"/>
       <c r="AL20" s="7"/>
       <c r="AM20" s="7"/>
@@ -35371,8 +35488,12 @@
       <c r="AH21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="7"/>
+      <c r="AI21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="7">
+        <v>86</v>
+      </c>
       <c r="AK21" s="7"/>
       <c r="AL21" s="7"/>
       <c r="AM21" s="7"/>
@@ -35540,8 +35661,12 @@
       <c r="AH22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AI22" s="7"/>
-      <c r="AJ22" s="7"/>
+      <c r="AI22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="7">
+        <v>90</v>
+      </c>
       <c r="AK22" s="7"/>
       <c r="AL22" s="7"/>
       <c r="AM22" s="7"/>
@@ -35716,7 +35841,9 @@
         <v>29</v>
       </c>
       <c r="AI23" s="7"/>
-      <c r="AJ23" s="7"/>
+      <c r="AJ23" s="7">
+        <v>32</v>
+      </c>
       <c r="AK23" s="7"/>
       <c r="AL23" s="7"/>
       <c r="AM23" s="7"/>
@@ -35877,7 +36004,9 @@
         <v>50</v>
       </c>
       <c r="AI24" s="7"/>
-      <c r="AJ24" s="7"/>
+      <c r="AJ24" s="7">
+        <v>12</v>
+      </c>
       <c r="AK24" s="7"/>
       <c r="AL24" s="7"/>
       <c r="AM24" s="7"/>
@@ -36003,6 +36132,62 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AP2:AV2"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AI2:AM2"/>
+    <mergeCell ref="AX2:BD2"/>
+    <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BF2:BL2"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BN2:BT2"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV2:CB2"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="CD2:CJ2"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="CG3:CH3"/>
+    <mergeCell ref="CI3:CJ3"/>
+    <mergeCell ref="CL2:CR2"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="CQ3:CR3"/>
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="CT3:CV3"/>
+    <mergeCell ref="CW3:CX3"/>
+    <mergeCell ref="CY3:CZ3"/>
+    <mergeCell ref="DB2:DH2"/>
+    <mergeCell ref="DB3:DD3"/>
+    <mergeCell ref="DE3:DF3"/>
+    <mergeCell ref="DG3:DH3"/>
     <mergeCell ref="DZ2:EF2"/>
     <mergeCell ref="DZ3:EB3"/>
     <mergeCell ref="EC3:ED3"/>
@@ -36015,62 +36200,6 @@
     <mergeCell ref="DR3:DT3"/>
     <mergeCell ref="DU3:DV3"/>
     <mergeCell ref="DW3:DX3"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="CT3:CV3"/>
-    <mergeCell ref="CW3:CX3"/>
-    <mergeCell ref="CY3:CZ3"/>
-    <mergeCell ref="DB2:DH2"/>
-    <mergeCell ref="DB3:DD3"/>
-    <mergeCell ref="DE3:DF3"/>
-    <mergeCell ref="DG3:DH3"/>
-    <mergeCell ref="CD2:CJ2"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="CG3:CH3"/>
-    <mergeCell ref="CI3:CJ3"/>
-    <mergeCell ref="CL2:CR2"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="CQ3:CR3"/>
-    <mergeCell ref="BN2:BT2"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV2:CB2"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="AX2:BD2"/>
-    <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BF2:BL2"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AP2:AV2"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36080,8 +36209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V59"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36152,14 +36281,14 @@
       </c>
       <c r="C3" s="8">
         <f t="shared" ref="C3:C22" si="0">F40</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="8">
         <f>'1º Vuelta'!D5+'1º Vuelta'!L5+'1º Vuelta'!T5+'1º Vuelta'!AB5+'1º Vuelta'!AJ5+'1º Vuelta'!AR5+'1º Vuelta'!AZ5+'1º Vuelta'!BH5+'1º Vuelta'!BP5+'1º Vuelta'!BX5+'1º Vuelta'!CF5+'1º Vuelta'!CN5+'1º Vuelta'!CV5+'1º Vuelta'!DD5+'1º Vuelta'!DL5+'1º Vuelta'!DT5+'1º Vuelta'!EB5</f>
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>10</v>
@@ -36252,14 +36381,14 @@
       </c>
       <c r="C5" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="8">
         <f>'1º Vuelta'!D7+'1º Vuelta'!L7+'1º Vuelta'!T7+'1º Vuelta'!AB7+'1º Vuelta'!AJ7+'1º Vuelta'!AR7+'1º Vuelta'!AZ7+'1º Vuelta'!BH7+'1º Vuelta'!BP7+'1º Vuelta'!BX7+'1º Vuelta'!CF7+'1º Vuelta'!CN7+'1º Vuelta'!CV7+'1º Vuelta'!DD7+'1º Vuelta'!DL7+'1º Vuelta'!DT7+'1º Vuelta'!EB7</f>
-        <v>321</v>
+        <v>399</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>12</v>
@@ -36359,7 +36488,7 @@
       </c>
       <c r="F7" s="8">
         <f>'1º Vuelta'!D9+'1º Vuelta'!L9+'1º Vuelta'!T9+'1º Vuelta'!AB9+'1º Vuelta'!AJ9+'1º Vuelta'!AR9+'1º Vuelta'!AZ9+'1º Vuelta'!BH9+'1º Vuelta'!BP9+'1º Vuelta'!BX9+'1º Vuelta'!CF9+'1º Vuelta'!CN9+'1º Vuelta'!CV9+'1º Vuelta'!DD9+'1º Vuelta'!DL9+'1º Vuelta'!DT9+'1º Vuelta'!EB9</f>
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>14</v>
@@ -36402,14 +36531,14 @@
       </c>
       <c r="C8" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="8">
         <f>'1º Vuelta'!D10+'1º Vuelta'!L10+'1º Vuelta'!T10+'1º Vuelta'!AB10+'1º Vuelta'!AJ10+'1º Vuelta'!AR10+'1º Vuelta'!AZ10+'1º Vuelta'!BH10+'1º Vuelta'!BP10+'1º Vuelta'!BX10+'1º Vuelta'!CF10+'1º Vuelta'!CN10+'1º Vuelta'!CV10+'1º Vuelta'!DD10+'1º Vuelta'!DL10+'1º Vuelta'!DT10+'1º Vuelta'!EB10</f>
-        <v>349</v>
+        <v>439</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>15</v>
@@ -36452,14 +36581,14 @@
       </c>
       <c r="C9" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="8">
         <f>'1º Vuelta'!D11+'1º Vuelta'!L11+'1º Vuelta'!T11+'1º Vuelta'!AB11+'1º Vuelta'!AJ11+'1º Vuelta'!AR11+'1º Vuelta'!AZ11+'1º Vuelta'!BH11+'1º Vuelta'!BP11+'1º Vuelta'!BX11+'1º Vuelta'!CF11+'1º Vuelta'!CN11+'1º Vuelta'!CV11+'1º Vuelta'!DD11+'1º Vuelta'!DL11+'1º Vuelta'!DT11+'1º Vuelta'!EB11</f>
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>16</v>
@@ -36552,14 +36681,14 @@
       </c>
       <c r="C11" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="8">
         <f>'1º Vuelta'!D13+'1º Vuelta'!L13+'1º Vuelta'!T13+'1º Vuelta'!AB13+'1º Vuelta'!AJ13+'1º Vuelta'!AR13+'1º Vuelta'!AZ13+'1º Vuelta'!BH13+'1º Vuelta'!BP13+'1º Vuelta'!BX13+'1º Vuelta'!CF13+'1º Vuelta'!CN13+'1º Vuelta'!CV13+'1º Vuelta'!DD13+'1º Vuelta'!DL13+'1º Vuelta'!DT13+'1º Vuelta'!EB13</f>
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>18</v>
@@ -36654,7 +36783,7 @@
       </c>
       <c r="F13" s="8">
         <f>'1º Vuelta'!D15+'1º Vuelta'!L15+'1º Vuelta'!T15+'1º Vuelta'!AB15+'1º Vuelta'!AJ15+'1º Vuelta'!AR15+'1º Vuelta'!AZ15+'1º Vuelta'!BH15+'1º Vuelta'!BP15+'1º Vuelta'!BX15+'1º Vuelta'!CF15+'1º Vuelta'!CN15+'1º Vuelta'!CV15+'1º Vuelta'!DD15+'1º Vuelta'!DL15+'1º Vuelta'!DT15+'1º Vuelta'!EB15</f>
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>21</v>
@@ -36697,14 +36826,14 @@
       </c>
       <c r="C14" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="8">
         <f>'1º Vuelta'!D16+'1º Vuelta'!L16+'1º Vuelta'!T16+'1º Vuelta'!AB16+'1º Vuelta'!AJ16+'1º Vuelta'!AR16+'1º Vuelta'!AZ16+'1º Vuelta'!BH16+'1º Vuelta'!BP16+'1º Vuelta'!BX16+'1º Vuelta'!CF16+'1º Vuelta'!CN16+'1º Vuelta'!CV16+'1º Vuelta'!DD16+'1º Vuelta'!DL16+'1º Vuelta'!DT16+'1º Vuelta'!EB16</f>
-        <v>281</v>
+        <v>371</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>22</v>
@@ -36797,14 +36926,14 @@
       </c>
       <c r="C16" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="8">
         <f>'1º Vuelta'!D18+'1º Vuelta'!L18+'1º Vuelta'!T18+'1º Vuelta'!AB18+'1º Vuelta'!AJ18+'1º Vuelta'!AR18+'1º Vuelta'!AZ18+'1º Vuelta'!BH18+'1º Vuelta'!BP18+'1º Vuelta'!BX18+'1º Vuelta'!CF18+'1º Vuelta'!CN18+'1º Vuelta'!CV18+'1º Vuelta'!DD18+'1º Vuelta'!DL18+'1º Vuelta'!DT18+'1º Vuelta'!EB18</f>
-        <v>350</v>
+        <v>428</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>24</v>
@@ -36847,21 +36976,21 @@
       </c>
       <c r="C17" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="8">
         <f>'1º Vuelta'!D19+'1º Vuelta'!L19+'1º Vuelta'!T19+'1º Vuelta'!AB19+'1º Vuelta'!AJ19+'1º Vuelta'!AR19+'1º Vuelta'!AZ19+'1º Vuelta'!BH19+'1º Vuelta'!BP19+'1º Vuelta'!BX19+'1º Vuelta'!CF19+'1º Vuelta'!CN19+'1º Vuelta'!CV19+'1º Vuelta'!DD19+'1º Vuelta'!DL19+'1º Vuelta'!DT19+'1º Vuelta'!EB19</f>
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="I17" s="8">
         <f>'1º Vuelta'!E19+'1º Vuelta'!M19+'1º Vuelta'!U19+'1º Vuelta'!AC19+'1º Vuelta'!AK19+'1º Vuelta'!AS19+'1º Vuelta'!BA19+'1º Vuelta'!BI19+'1º Vuelta'!BQ19+'1º Vuelta'!BY19+'1º Vuelta'!CG19+'1º Vuelta'!CO19+'1º Vuelta'!CW19+'1º Vuelta'!DE19+'1º Vuelta'!DM19+'1º Vuelta'!DU19+'1º Vuelta'!EC19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>25</v>
@@ -36897,14 +37026,14 @@
       </c>
       <c r="C18" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="8">
         <f>'1º Vuelta'!D20+'1º Vuelta'!L20+'1º Vuelta'!T20+'1º Vuelta'!AB20+'1º Vuelta'!AJ20+'1º Vuelta'!AR20+'1º Vuelta'!AZ20+'1º Vuelta'!BH20+'1º Vuelta'!BP20+'1º Vuelta'!BX20+'1º Vuelta'!CF20+'1º Vuelta'!CN20+'1º Vuelta'!CV20+'1º Vuelta'!DD20+'1º Vuelta'!DL20+'1º Vuelta'!DT20+'1º Vuelta'!EB20</f>
-        <v>261</v>
+        <v>351</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>26</v>
@@ -36947,14 +37076,14 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="8">
         <f>'1º Vuelta'!D21+'1º Vuelta'!L21+'1º Vuelta'!T21+'1º Vuelta'!AB21+'1º Vuelta'!AJ21+'1º Vuelta'!AR21+'1º Vuelta'!AZ21+'1º Vuelta'!BH21+'1º Vuelta'!BP21+'1º Vuelta'!BX21+'1º Vuelta'!CF21+'1º Vuelta'!CN21+'1º Vuelta'!CV21+'1º Vuelta'!DD21+'1º Vuelta'!DL21+'1º Vuelta'!DT21+'1º Vuelta'!EB21</f>
-        <v>233</v>
+        <v>319</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>27</v>
@@ -36988,7 +37117,7 @@
         <v>104</v>
       </c>
       <c r="V19" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:22" ht="19" x14ac:dyDescent="0.25">
@@ -36997,14 +37126,14 @@
       </c>
       <c r="C20" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="8">
         <f>'1º Vuelta'!D22+'1º Vuelta'!L22+'1º Vuelta'!T22+'1º Vuelta'!AB22+'1º Vuelta'!AJ22+'1º Vuelta'!AR22+'1º Vuelta'!AZ22+'1º Vuelta'!BH22+'1º Vuelta'!BP22+'1º Vuelta'!BX22+'1º Vuelta'!CF22+'1º Vuelta'!CN22+'1º Vuelta'!CV22+'1º Vuelta'!DD22+'1º Vuelta'!DL22+'1º Vuelta'!DT22+'1º Vuelta'!EB22</f>
-        <v>227</v>
+        <v>317</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>28</v>
@@ -37054,7 +37183,7 @@
       </c>
       <c r="F21" s="8">
         <f>'1º Vuelta'!D23+'1º Vuelta'!L23+'1º Vuelta'!T23+'1º Vuelta'!AB23+'1º Vuelta'!AJ23+'1º Vuelta'!AR23+'1º Vuelta'!AZ23+'1º Vuelta'!BH23+'1º Vuelta'!BP23+'1º Vuelta'!BX23+'1º Vuelta'!CF23+'1º Vuelta'!CN23+'1º Vuelta'!CV23+'1º Vuelta'!DD23+'1º Vuelta'!DL23+'1º Vuelta'!DT23+'1º Vuelta'!EB23</f>
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>29</v>
@@ -37104,7 +37233,7 @@
       </c>
       <c r="F22" s="8">
         <f>'1º Vuelta'!D24+'1º Vuelta'!L24+'1º Vuelta'!T24+'1º Vuelta'!AB24+'1º Vuelta'!AJ24+'1º Vuelta'!AR24+'1º Vuelta'!AZ24+'1º Vuelta'!BH24+'1º Vuelta'!BP24+'1º Vuelta'!BX24+'1º Vuelta'!CF24+'1º Vuelta'!CN24+'1º Vuelta'!CV24+'1º Vuelta'!DD24+'1º Vuelta'!DL24+'1º Vuelta'!DT24+'1º Vuelta'!EB24</f>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>50</v>
@@ -37194,7 +37323,7 @@
         <v>104</v>
       </c>
       <c r="V30" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.2">
@@ -37210,7 +37339,7 @@
         <v>106</v>
       </c>
       <c r="V32" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="5:22" x14ac:dyDescent="0.2">
@@ -37218,7 +37347,7 @@
         <v>107</v>
       </c>
       <c r="V33" s="22">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="5:22" x14ac:dyDescent="0.2">
@@ -37229,30 +37358,30 @@
     </row>
     <row r="36" spans="5:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="5:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="E37" s="139" t="s">
+      <c r="E37" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="140"/>
-      <c r="G37" s="140"/>
-      <c r="H37" s="140"/>
-      <c r="I37" s="140"/>
-      <c r="J37" s="140"/>
-      <c r="K37" s="141"/>
+      <c r="F37" s="147"/>
+      <c r="G37" s="147"/>
+      <c r="H37" s="147"/>
+      <c r="I37" s="147"/>
+      <c r="J37" s="147"/>
+      <c r="K37" s="148"/>
     </row>
     <row r="38" spans="5:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="E38" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="146"/>
-      <c r="G38" s="146"/>
-      <c r="H38" s="142" t="s">
+      <c r="E38" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="141"/>
+      <c r="G38" s="141"/>
+      <c r="H38" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="142"/>
-      <c r="J38" s="143" t="s">
+      <c r="I38" s="144"/>
+      <c r="J38" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="144"/>
+      <c r="K38" s="143"/>
     </row>
     <row r="39" spans="5:22" ht="19" x14ac:dyDescent="0.25">
       <c r="E39" s="14" t="s">
@@ -37283,11 +37412,11 @@
       </c>
       <c r="F40" s="7">
         <f>'1º Vuelta'!C5+'1º Vuelta'!K5+'1º Vuelta'!S5+'1º Vuelta'!AA5+'1º Vuelta'!AI5+'1º Vuelta'!AQ5+'1º Vuelta'!AY5+'1º Vuelta'!BG5+'1º Vuelta'!BO5+'1º Vuelta'!BW5+'1º Vuelta'!CE5+'1º Vuelta'!CM5+'1º Vuelta'!CU5+'1º Vuelta'!DC5+'1º Vuelta'!DK5+'1º Vuelta'!DS5+'1º Vuelta'!EA5</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G40" s="7">
         <f>'1º Vuelta'!D5+'1º Vuelta'!L5+'1º Vuelta'!T5+'1º Vuelta'!AB5+'1º Vuelta'!AJ5+'1º Vuelta'!AR5+'1º Vuelta'!AZ5+'1º Vuelta'!BH5+'1º Vuelta'!BP5+'1º Vuelta'!BX5+'1º Vuelta'!CF5+'1º Vuelta'!CN5+'1º Vuelta'!CV5+'1º Vuelta'!DD5+'1º Vuelta'!DL5+'1º Vuelta'!DT5+'1º Vuelta'!EB5</f>
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="H40" s="7">
         <f>'1º Vuelta'!E5+'1º Vuelta'!M5+'1º Vuelta'!U5+'1º Vuelta'!AC5+'1º Vuelta'!AK5+'1º Vuelta'!AS5+'1º Vuelta'!BA5+'1º Vuelta'!BI5+'1º Vuelta'!BQ5+'1º Vuelta'!BY5+'1º Vuelta'!CG5+'1º Vuelta'!CO5+'1º Vuelta'!CW5+'1º Vuelta'!DE5+'1º Vuelta'!DM5+'1º Vuelta'!DU5+'1º Vuelta'!EC5</f>
@@ -37341,11 +37470,11 @@
       </c>
       <c r="F42" s="7">
         <f>'1º Vuelta'!C7+'1º Vuelta'!K7+'1º Vuelta'!S7+'1º Vuelta'!AA7+'1º Vuelta'!AI7+'1º Vuelta'!AQ7+'1º Vuelta'!AY7+'1º Vuelta'!BG7+'1º Vuelta'!BO7+'1º Vuelta'!BW7+'1º Vuelta'!CE7+'1º Vuelta'!CM7+'1º Vuelta'!CU7+'1º Vuelta'!DC7+'1º Vuelta'!DK7+'1º Vuelta'!DS7+'1º Vuelta'!EA7</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G42" s="7">
         <f>'1º Vuelta'!D7+'1º Vuelta'!L7+'1º Vuelta'!T7+'1º Vuelta'!AB7+'1º Vuelta'!AJ7+'1º Vuelta'!AR7+'1º Vuelta'!AZ7+'1º Vuelta'!BH7+'1º Vuelta'!BP7+'1º Vuelta'!BX7+'1º Vuelta'!CF7+'1º Vuelta'!CN7+'1º Vuelta'!CV7+'1º Vuelta'!DD7+'1º Vuelta'!DL7+'1º Vuelta'!DT7+'1º Vuelta'!EB7</f>
-        <v>321</v>
+        <v>399</v>
       </c>
       <c r="H42" s="7">
         <f>'1º Vuelta'!E7+'1º Vuelta'!M7+'1º Vuelta'!U7+'1º Vuelta'!AC7+'1º Vuelta'!AK7+'1º Vuelta'!AS7+'1º Vuelta'!BA7+'1º Vuelta'!BI7+'1º Vuelta'!BQ7+'1º Vuelta'!BY7+'1º Vuelta'!CG7+'1º Vuelta'!CO7+'1º Vuelta'!CW7+'1º Vuelta'!DE7+'1º Vuelta'!DM7+'1º Vuelta'!DU7+'1º Vuelta'!EC7</f>
@@ -37403,7 +37532,7 @@
       </c>
       <c r="G44" s="7">
         <f>'1º Vuelta'!D9+'1º Vuelta'!L9+'1º Vuelta'!T9+'1º Vuelta'!AB9+'1º Vuelta'!AJ9+'1º Vuelta'!AR9+'1º Vuelta'!AZ9+'1º Vuelta'!BH9+'1º Vuelta'!BP9+'1º Vuelta'!BX9+'1º Vuelta'!CF9+'1º Vuelta'!CN9+'1º Vuelta'!CV9+'1º Vuelta'!DD9+'1º Vuelta'!DL9+'1º Vuelta'!DT9+'1º Vuelta'!EB9</f>
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="H44" s="7">
         <f>'1º Vuelta'!E9+'1º Vuelta'!M9+'1º Vuelta'!U9+'1º Vuelta'!AC9+'1º Vuelta'!AK9+'1º Vuelta'!AS9+'1º Vuelta'!BA9+'1º Vuelta'!BI9+'1º Vuelta'!BQ9+'1º Vuelta'!BY9+'1º Vuelta'!CG9+'1º Vuelta'!CO9+'1º Vuelta'!CW9+'1º Vuelta'!DE9+'1º Vuelta'!DM9+'1º Vuelta'!DU9+'1º Vuelta'!EC9</f>
@@ -37428,11 +37557,11 @@
       </c>
       <c r="F45" s="7">
         <f>'1º Vuelta'!C10+'1º Vuelta'!K10+'1º Vuelta'!S10+'1º Vuelta'!AA10+'1º Vuelta'!AI10+'1º Vuelta'!AQ10+'1º Vuelta'!AY10+'1º Vuelta'!BG10+'1º Vuelta'!BO10+'1º Vuelta'!BW10+'1º Vuelta'!CE10+'1º Vuelta'!CM10+'1º Vuelta'!CU10+'1º Vuelta'!DC10+'1º Vuelta'!DK10+'1º Vuelta'!DS10+'1º Vuelta'!EA10</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G45" s="7">
         <f>'1º Vuelta'!D10+'1º Vuelta'!L10+'1º Vuelta'!T10+'1º Vuelta'!AB10+'1º Vuelta'!AJ10+'1º Vuelta'!AR10+'1º Vuelta'!AZ10+'1º Vuelta'!BH10+'1º Vuelta'!BP10+'1º Vuelta'!BX10+'1º Vuelta'!CF10+'1º Vuelta'!CN10+'1º Vuelta'!CV10+'1º Vuelta'!DD10+'1º Vuelta'!DL10+'1º Vuelta'!DT10+'1º Vuelta'!EB10</f>
-        <v>349</v>
+        <v>439</v>
       </c>
       <c r="H45" s="7">
         <f>'1º Vuelta'!E10+'1º Vuelta'!M10+'1º Vuelta'!U10+'1º Vuelta'!AC10+'1º Vuelta'!AK10+'1º Vuelta'!AS10+'1º Vuelta'!BA10+'1º Vuelta'!BI10+'1º Vuelta'!BQ10+'1º Vuelta'!BY10+'1º Vuelta'!CG10+'1º Vuelta'!CO10+'1º Vuelta'!CW10+'1º Vuelta'!DE10+'1º Vuelta'!DM10+'1º Vuelta'!DU10+'1º Vuelta'!EC10</f>
@@ -37457,11 +37586,11 @@
       </c>
       <c r="F46" s="7">
         <f>'1º Vuelta'!C11+'1º Vuelta'!K11+'1º Vuelta'!S11+'1º Vuelta'!AA11+'1º Vuelta'!AI11+'1º Vuelta'!AQ11+'1º Vuelta'!AY11+'1º Vuelta'!BG11+'1º Vuelta'!BO11+'1º Vuelta'!BW11+'1º Vuelta'!CE11+'1º Vuelta'!CM11+'1º Vuelta'!CU11+'1º Vuelta'!DC11+'1º Vuelta'!DK11+'1º Vuelta'!DS11+'1º Vuelta'!EA11</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G46" s="7">
         <f>'1º Vuelta'!D11+'1º Vuelta'!L11+'1º Vuelta'!T11+'1º Vuelta'!AB11+'1º Vuelta'!AJ11+'1º Vuelta'!AR11+'1º Vuelta'!AZ11+'1º Vuelta'!BH11+'1º Vuelta'!BP11+'1º Vuelta'!BX11+'1º Vuelta'!CF11+'1º Vuelta'!CN11+'1º Vuelta'!CV11+'1º Vuelta'!DD11+'1º Vuelta'!DL11+'1º Vuelta'!DT11+'1º Vuelta'!EB11</f>
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="H46" s="7">
         <f>'1º Vuelta'!E11+'1º Vuelta'!M11+'1º Vuelta'!U11+'1º Vuelta'!AC11+'1º Vuelta'!AK11+'1º Vuelta'!AS11+'1º Vuelta'!BA11+'1º Vuelta'!BI11+'1º Vuelta'!BQ11+'1º Vuelta'!BY11+'1º Vuelta'!CG11+'1º Vuelta'!CO11+'1º Vuelta'!CW11+'1º Vuelta'!DE11+'1º Vuelta'!DM11+'1º Vuelta'!DU11+'1º Vuelta'!EC11</f>
@@ -37515,11 +37644,11 @@
       </c>
       <c r="F48" s="7">
         <f>'1º Vuelta'!C13+'1º Vuelta'!K13+'1º Vuelta'!S13+'1º Vuelta'!AA13+'1º Vuelta'!AI13+'1º Vuelta'!AQ13+'1º Vuelta'!AY13+'1º Vuelta'!BG13+'1º Vuelta'!BO13+'1º Vuelta'!BW13+'1º Vuelta'!CE13+'1º Vuelta'!CM13+'1º Vuelta'!CU13+'1º Vuelta'!DC13+'1º Vuelta'!DK13+'1º Vuelta'!DS13+'1º Vuelta'!EA13</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G48" s="7">
         <f>'1º Vuelta'!D13+'1º Vuelta'!L13+'1º Vuelta'!T13+'1º Vuelta'!AB13+'1º Vuelta'!AJ13+'1º Vuelta'!AR13+'1º Vuelta'!AZ13+'1º Vuelta'!BH13+'1º Vuelta'!BP13+'1º Vuelta'!BX13+'1º Vuelta'!CF13+'1º Vuelta'!CN13+'1º Vuelta'!CV13+'1º Vuelta'!DD13+'1º Vuelta'!DL13+'1º Vuelta'!DT13+'1º Vuelta'!EB13</f>
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="H48" s="7">
         <f>'1º Vuelta'!E13+'1º Vuelta'!M13+'1º Vuelta'!U13+'1º Vuelta'!AC13+'1º Vuelta'!AK13+'1º Vuelta'!AS13+'1º Vuelta'!BA13+'1º Vuelta'!BI13+'1º Vuelta'!BQ13+'1º Vuelta'!BY13+'1º Vuelta'!CG13+'1º Vuelta'!CO13+'1º Vuelta'!CW13+'1º Vuelta'!DE13+'1º Vuelta'!DM13+'1º Vuelta'!DU13+'1º Vuelta'!EC13</f>
@@ -37577,7 +37706,7 @@
       </c>
       <c r="G50" s="7">
         <f>'1º Vuelta'!D15+'1º Vuelta'!L15+'1º Vuelta'!T15+'1º Vuelta'!AB15+'1º Vuelta'!AJ15+'1º Vuelta'!AR15+'1º Vuelta'!AZ15+'1º Vuelta'!BH15+'1º Vuelta'!BP15+'1º Vuelta'!BX15+'1º Vuelta'!CF15+'1º Vuelta'!CN15+'1º Vuelta'!CV15+'1º Vuelta'!DD15+'1º Vuelta'!DL15+'1º Vuelta'!DT15+'1º Vuelta'!EB15</f>
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H50" s="7">
         <f>'1º Vuelta'!E15+'1º Vuelta'!M15+'1º Vuelta'!U15+'1º Vuelta'!AC15+'1º Vuelta'!AK15+'1º Vuelta'!AS15+'1º Vuelta'!BA15+'1º Vuelta'!BI15+'1º Vuelta'!BQ15+'1º Vuelta'!BY15+'1º Vuelta'!CG15+'1º Vuelta'!CO15+'1º Vuelta'!CW15+'1º Vuelta'!DE15+'1º Vuelta'!DM15+'1º Vuelta'!DU15+'1º Vuelta'!EC15</f>
@@ -37602,11 +37731,11 @@
       </c>
       <c r="F51" s="7">
         <f>'1º Vuelta'!C16+'1º Vuelta'!K16+'1º Vuelta'!S16+'1º Vuelta'!AA16+'1º Vuelta'!AI16+'1º Vuelta'!AQ16+'1º Vuelta'!AY16+'1º Vuelta'!BG16+'1º Vuelta'!BO16+'1º Vuelta'!BW16+'1º Vuelta'!CE16+'1º Vuelta'!CM16+'1º Vuelta'!CU16+'1º Vuelta'!DC16+'1º Vuelta'!DK16+'1º Vuelta'!DS16+'1º Vuelta'!EA16</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G51" s="7">
         <f>'1º Vuelta'!D16+'1º Vuelta'!L16+'1º Vuelta'!T16+'1º Vuelta'!AB16+'1º Vuelta'!AJ16+'1º Vuelta'!AR16+'1º Vuelta'!AZ16+'1º Vuelta'!BH16+'1º Vuelta'!BP16+'1º Vuelta'!BX16+'1º Vuelta'!CF16+'1º Vuelta'!CN16+'1º Vuelta'!CV16+'1º Vuelta'!DD16+'1º Vuelta'!DL16+'1º Vuelta'!DT16+'1º Vuelta'!EB16</f>
-        <v>281</v>
+        <v>371</v>
       </c>
       <c r="H51" s="7">
         <f>'1º Vuelta'!E16+'1º Vuelta'!M16+'1º Vuelta'!U16+'1º Vuelta'!AC16+'1º Vuelta'!AK16+'1º Vuelta'!AS16+'1º Vuelta'!BA16+'1º Vuelta'!BI16+'1º Vuelta'!BQ16+'1º Vuelta'!BY16+'1º Vuelta'!CG16+'1º Vuelta'!CO16+'1º Vuelta'!CW16+'1º Vuelta'!DE16+'1º Vuelta'!DM16+'1º Vuelta'!DU16+'1º Vuelta'!EC16</f>
@@ -37660,11 +37789,11 @@
       </c>
       <c r="F53" s="7">
         <f>'1º Vuelta'!C18+'1º Vuelta'!K18+'1º Vuelta'!S18+'1º Vuelta'!AA18+'1º Vuelta'!AI18+'1º Vuelta'!AQ18+'1º Vuelta'!AY18+'1º Vuelta'!BG18+'1º Vuelta'!BO18+'1º Vuelta'!BW18+'1º Vuelta'!CE18+'1º Vuelta'!CM18+'1º Vuelta'!CU18+'1º Vuelta'!DC18+'1º Vuelta'!DK18+'1º Vuelta'!DS18+'1º Vuelta'!EA18</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G53" s="7">
         <f>'1º Vuelta'!D18+'1º Vuelta'!L18+'1º Vuelta'!T18+'1º Vuelta'!AB18+'1º Vuelta'!AJ18+'1º Vuelta'!AR18+'1º Vuelta'!AZ18+'1º Vuelta'!BH18+'1º Vuelta'!BP18+'1º Vuelta'!BX18+'1º Vuelta'!CF18+'1º Vuelta'!CN18+'1º Vuelta'!CV18+'1º Vuelta'!DD18+'1º Vuelta'!DL18+'1º Vuelta'!DT18+'1º Vuelta'!EB18</f>
-        <v>350</v>
+        <v>428</v>
       </c>
       <c r="H53" s="7">
         <f>'1º Vuelta'!E18+'1º Vuelta'!M18+'1º Vuelta'!U18+'1º Vuelta'!AC18+'1º Vuelta'!AK18+'1º Vuelta'!AS18+'1º Vuelta'!BA18+'1º Vuelta'!BI18+'1º Vuelta'!BQ18+'1º Vuelta'!BY18+'1º Vuelta'!CG18+'1º Vuelta'!CO18+'1º Vuelta'!CW18+'1º Vuelta'!DE18+'1º Vuelta'!DM18+'1º Vuelta'!DU18+'1º Vuelta'!EC18</f>
@@ -37689,15 +37818,15 @@
       </c>
       <c r="F54" s="7">
         <f>'1º Vuelta'!C19+'1º Vuelta'!K19+'1º Vuelta'!S19+'1º Vuelta'!AA19+'1º Vuelta'!AI19+'1º Vuelta'!AQ19+'1º Vuelta'!AY19+'1º Vuelta'!BG19+'1º Vuelta'!BO19+'1º Vuelta'!BW19+'1º Vuelta'!CE19+'1º Vuelta'!CM19+'1º Vuelta'!CU19+'1º Vuelta'!DC19+'1º Vuelta'!DK19+'1º Vuelta'!DS19+'1º Vuelta'!EA19</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" s="7">
         <f>'1º Vuelta'!D19+'1º Vuelta'!L19+'1º Vuelta'!T19+'1º Vuelta'!AB19+'1º Vuelta'!AJ19+'1º Vuelta'!AR19+'1º Vuelta'!AZ19+'1º Vuelta'!BH19+'1º Vuelta'!BP19+'1º Vuelta'!BX19+'1º Vuelta'!CF19+'1º Vuelta'!CN19+'1º Vuelta'!CV19+'1º Vuelta'!DD19+'1º Vuelta'!DL19+'1º Vuelta'!DT19+'1º Vuelta'!EB19</f>
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="H54" s="7">
         <f>'1º Vuelta'!E19+'1º Vuelta'!M19+'1º Vuelta'!U19+'1º Vuelta'!AC19+'1º Vuelta'!AK19+'1º Vuelta'!AS19+'1º Vuelta'!BA19+'1º Vuelta'!BI19+'1º Vuelta'!BQ19+'1º Vuelta'!BY19+'1º Vuelta'!CG19+'1º Vuelta'!CO19+'1º Vuelta'!CW19+'1º Vuelta'!DE19+'1º Vuelta'!DM19+'1º Vuelta'!DU19+'1º Vuelta'!EC19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="7">
         <f>'1º Vuelta'!F19+'1º Vuelta'!N19+'1º Vuelta'!V19+'1º Vuelta'!AD19+'1º Vuelta'!AL19+'1º Vuelta'!AT19+'1º Vuelta'!BB19+'1º Vuelta'!BJ19+'1º Vuelta'!BR19+'1º Vuelta'!BZ19+'1º Vuelta'!CH19+'1º Vuelta'!CP19+'1º Vuelta'!CX19+'1º Vuelta'!DF19+'1º Vuelta'!DN19+'1º Vuelta'!DV19+'1º Vuelta'!ED19</f>
@@ -37718,11 +37847,11 @@
       </c>
       <c r="F55" s="7">
         <f>'1º Vuelta'!C20+'1º Vuelta'!K20+'1º Vuelta'!S20+'1º Vuelta'!AA20+'1º Vuelta'!AI20+'1º Vuelta'!AQ20+'1º Vuelta'!AY20+'1º Vuelta'!BG20+'1º Vuelta'!BO20+'1º Vuelta'!BW20+'1º Vuelta'!CE20+'1º Vuelta'!CM20+'1º Vuelta'!CU20+'1º Vuelta'!DC20+'1º Vuelta'!DK20+'1º Vuelta'!DS20+'1º Vuelta'!EA20</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G55" s="7">
         <f>'1º Vuelta'!D20+'1º Vuelta'!L20+'1º Vuelta'!T20+'1º Vuelta'!AB20+'1º Vuelta'!AJ20+'1º Vuelta'!AR20+'1º Vuelta'!AZ20+'1º Vuelta'!BH20+'1º Vuelta'!BP20+'1º Vuelta'!BX20+'1º Vuelta'!CF20+'1º Vuelta'!CN20+'1º Vuelta'!CV20+'1º Vuelta'!DD20+'1º Vuelta'!DL20+'1º Vuelta'!DT20+'1º Vuelta'!EB20</f>
-        <v>261</v>
+        <v>351</v>
       </c>
       <c r="H55" s="7">
         <f>'1º Vuelta'!E20+'1º Vuelta'!M20+'1º Vuelta'!U20+'1º Vuelta'!AC20+'1º Vuelta'!AK20+'1º Vuelta'!AS20+'1º Vuelta'!BA20+'1º Vuelta'!BI20+'1º Vuelta'!BQ20+'1º Vuelta'!BY20+'1º Vuelta'!CG20+'1º Vuelta'!CO20+'1º Vuelta'!CW20+'1º Vuelta'!DE20+'1º Vuelta'!DM20+'1º Vuelta'!DU20+'1º Vuelta'!EC20</f>
@@ -37747,11 +37876,11 @@
       </c>
       <c r="F56" s="7">
         <f>'1º Vuelta'!C21+'1º Vuelta'!K21+'1º Vuelta'!S21+'1º Vuelta'!AA21+'1º Vuelta'!AI21+'1º Vuelta'!AQ21+'1º Vuelta'!AY21+'1º Vuelta'!BG21+'1º Vuelta'!BO21+'1º Vuelta'!BW21+'1º Vuelta'!CE21+'1º Vuelta'!CM21+'1º Vuelta'!CU21+'1º Vuelta'!DC21+'1º Vuelta'!DK21+'1º Vuelta'!DS21+'1º Vuelta'!EA21</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G56" s="7">
         <f>'1º Vuelta'!D21+'1º Vuelta'!L21+'1º Vuelta'!T21+'1º Vuelta'!AB21+'1º Vuelta'!AJ21+'1º Vuelta'!AR21+'1º Vuelta'!AZ21+'1º Vuelta'!BH21+'1º Vuelta'!BP21+'1º Vuelta'!BX21+'1º Vuelta'!CF21+'1º Vuelta'!CN21+'1º Vuelta'!CV21+'1º Vuelta'!DD21+'1º Vuelta'!DL21+'1º Vuelta'!DT21+'1º Vuelta'!EB21</f>
-        <v>233</v>
+        <v>319</v>
       </c>
       <c r="H56" s="7">
         <f>'1º Vuelta'!E21+'1º Vuelta'!M21+'1º Vuelta'!U21+'1º Vuelta'!AC21+'1º Vuelta'!AK21+'1º Vuelta'!AS21+'1º Vuelta'!BA21+'1º Vuelta'!BI21+'1º Vuelta'!BQ21+'1º Vuelta'!BY21+'1º Vuelta'!CG21+'1º Vuelta'!CO21+'1º Vuelta'!CW21+'1º Vuelta'!DE21+'1º Vuelta'!DM21+'1º Vuelta'!DU21+'1º Vuelta'!EC21</f>
@@ -37776,11 +37905,11 @@
       </c>
       <c r="F57" s="7">
         <f>'1º Vuelta'!C22+'1º Vuelta'!K22+'1º Vuelta'!S22+'1º Vuelta'!AA22+'1º Vuelta'!AI22+'1º Vuelta'!AQ22+'1º Vuelta'!AY22+'1º Vuelta'!BG22+'1º Vuelta'!BO22+'1º Vuelta'!BW22+'1º Vuelta'!CE22+'1º Vuelta'!CM22+'1º Vuelta'!CU22+'1º Vuelta'!DC22+'1º Vuelta'!DK22+'1º Vuelta'!DS22+'1º Vuelta'!EA22</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G57" s="7">
         <f>'1º Vuelta'!D22+'1º Vuelta'!L22+'1º Vuelta'!T22+'1º Vuelta'!AB22+'1º Vuelta'!AJ22+'1º Vuelta'!AR22+'1º Vuelta'!AZ22+'1º Vuelta'!BH22+'1º Vuelta'!BP22+'1º Vuelta'!BX22+'1º Vuelta'!CF22+'1º Vuelta'!CN22+'1º Vuelta'!CV22+'1º Vuelta'!DD22+'1º Vuelta'!DL22+'1º Vuelta'!DT22+'1º Vuelta'!EB22</f>
-        <v>227</v>
+        <v>317</v>
       </c>
       <c r="H57" s="7">
         <f>'1º Vuelta'!E22+'1º Vuelta'!M22+'1º Vuelta'!U22+'1º Vuelta'!AC22+'1º Vuelta'!AK22+'1º Vuelta'!AS22+'1º Vuelta'!BA22+'1º Vuelta'!BI22+'1º Vuelta'!BQ22+'1º Vuelta'!BY22+'1º Vuelta'!CG22+'1º Vuelta'!CO22+'1º Vuelta'!CW22+'1º Vuelta'!DE22+'1º Vuelta'!DM22+'1º Vuelta'!DU22+'1º Vuelta'!EC22</f>
@@ -37809,7 +37938,7 @@
       </c>
       <c r="G58" s="7">
         <f>'1º Vuelta'!D23+'1º Vuelta'!L23+'1º Vuelta'!T23+'1º Vuelta'!AB23+'1º Vuelta'!AJ23+'1º Vuelta'!AR23+'1º Vuelta'!AZ23+'1º Vuelta'!BH23+'1º Vuelta'!BP23+'1º Vuelta'!BX23+'1º Vuelta'!CF23+'1º Vuelta'!CN23+'1º Vuelta'!CV23+'1º Vuelta'!DD23+'1º Vuelta'!DL23+'1º Vuelta'!DT23+'1º Vuelta'!EB23</f>
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="H58" s="7">
         <f>'1º Vuelta'!E23+'1º Vuelta'!M23+'1º Vuelta'!U23+'1º Vuelta'!AC23+'1º Vuelta'!AK23+'1º Vuelta'!AS23+'1º Vuelta'!BA23+'1º Vuelta'!BI23+'1º Vuelta'!BQ23+'1º Vuelta'!BY23+'1º Vuelta'!CG23+'1º Vuelta'!CO23+'1º Vuelta'!CW23+'1º Vuelta'!DE23+'1º Vuelta'!DM23+'1º Vuelta'!DU23+'1º Vuelta'!EC23</f>
@@ -37838,7 +37967,7 @@
       </c>
       <c r="G59" s="7">
         <f>'1º Vuelta'!D24+'1º Vuelta'!L24+'1º Vuelta'!T24+'1º Vuelta'!AB24+'1º Vuelta'!AJ24+'1º Vuelta'!AR24+'1º Vuelta'!AZ24+'1º Vuelta'!BH24+'1º Vuelta'!BP24+'1º Vuelta'!BX24+'1º Vuelta'!CF24+'1º Vuelta'!CN24+'1º Vuelta'!CV24+'1º Vuelta'!DD24+'1º Vuelta'!DL24+'1º Vuelta'!DT24+'1º Vuelta'!EB24</f>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H59" s="7">
         <f>'1º Vuelta'!E24+'1º Vuelta'!M24+'1º Vuelta'!U24+'1º Vuelta'!AC24+'1º Vuelta'!AK24+'1º Vuelta'!AS24+'1º Vuelta'!BA24+'1º Vuelta'!BI24+'1º Vuelta'!BQ24+'1º Vuelta'!BY24+'1º Vuelta'!CG24+'1º Vuelta'!CO24+'1º Vuelta'!CW24+'1º Vuelta'!DE24+'1º Vuelta'!DM24+'1º Vuelta'!DU24+'1º Vuelta'!EC24</f>
@@ -37969,382 +38098,382 @@
   <sheetData>
     <row r="1" spans="2:136" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="141"/>
-      <c r="J2" s="139" t="s">
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="148"/>
+      <c r="J2" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="141"/>
-      <c r="R2" s="139" t="s">
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="148"/>
+      <c r="R2" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="141"/>
-      <c r="Z2" s="139" t="s">
+      <c r="S2" s="147"/>
+      <c r="T2" s="147"/>
+      <c r="U2" s="147"/>
+      <c r="V2" s="147"/>
+      <c r="W2" s="147"/>
+      <c r="X2" s="148"/>
+      <c r="Z2" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="140"/>
-      <c r="AB2" s="140"/>
-      <c r="AC2" s="140"/>
-      <c r="AD2" s="140"/>
-      <c r="AE2" s="140"/>
-      <c r="AF2" s="141"/>
-      <c r="AH2" s="139" t="s">
+      <c r="AA2" s="147"/>
+      <c r="AB2" s="147"/>
+      <c r="AC2" s="147"/>
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AH2" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="140"/>
-      <c r="AJ2" s="140"/>
-      <c r="AK2" s="140"/>
-      <c r="AL2" s="140"/>
-      <c r="AM2" s="140"/>
-      <c r="AN2" s="141"/>
-      <c r="AP2" s="139" t="s">
+      <c r="AI2" s="147"/>
+      <c r="AJ2" s="147"/>
+      <c r="AK2" s="147"/>
+      <c r="AL2" s="147"/>
+      <c r="AM2" s="147"/>
+      <c r="AN2" s="148"/>
+      <c r="AP2" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="AQ2" s="140"/>
-      <c r="AR2" s="140"/>
-      <c r="AS2" s="140"/>
-      <c r="AT2" s="140"/>
-      <c r="AU2" s="140"/>
-      <c r="AV2" s="141"/>
-      <c r="AX2" s="139" t="s">
+      <c r="AQ2" s="147"/>
+      <c r="AR2" s="147"/>
+      <c r="AS2" s="147"/>
+      <c r="AT2" s="147"/>
+      <c r="AU2" s="147"/>
+      <c r="AV2" s="148"/>
+      <c r="AX2" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="AY2" s="140"/>
-      <c r="AZ2" s="140"/>
-      <c r="BA2" s="140"/>
-      <c r="BB2" s="140"/>
-      <c r="BC2" s="140"/>
-      <c r="BD2" s="141"/>
-      <c r="BF2" s="139" t="s">
+      <c r="AY2" s="147"/>
+      <c r="AZ2" s="147"/>
+      <c r="BA2" s="147"/>
+      <c r="BB2" s="147"/>
+      <c r="BC2" s="147"/>
+      <c r="BD2" s="148"/>
+      <c r="BF2" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="BG2" s="140"/>
-      <c r="BH2" s="140"/>
-      <c r="BI2" s="140"/>
-      <c r="BJ2" s="140"/>
-      <c r="BK2" s="140"/>
-      <c r="BL2" s="141"/>
-      <c r="BN2" s="139" t="s">
+      <c r="BG2" s="147"/>
+      <c r="BH2" s="147"/>
+      <c r="BI2" s="147"/>
+      <c r="BJ2" s="147"/>
+      <c r="BK2" s="147"/>
+      <c r="BL2" s="148"/>
+      <c r="BN2" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="BO2" s="140"/>
-      <c r="BP2" s="140"/>
-      <c r="BQ2" s="140"/>
-      <c r="BR2" s="140"/>
-      <c r="BS2" s="140"/>
-      <c r="BT2" s="141"/>
-      <c r="BV2" s="139" t="s">
+      <c r="BO2" s="147"/>
+      <c r="BP2" s="147"/>
+      <c r="BQ2" s="147"/>
+      <c r="BR2" s="147"/>
+      <c r="BS2" s="147"/>
+      <c r="BT2" s="148"/>
+      <c r="BV2" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="BW2" s="140"/>
-      <c r="BX2" s="140"/>
-      <c r="BY2" s="140"/>
-      <c r="BZ2" s="140"/>
-      <c r="CA2" s="140"/>
-      <c r="CB2" s="141"/>
-      <c r="CD2" s="139" t="s">
+      <c r="BW2" s="147"/>
+      <c r="BX2" s="147"/>
+      <c r="BY2" s="147"/>
+      <c r="BZ2" s="147"/>
+      <c r="CA2" s="147"/>
+      <c r="CB2" s="148"/>
+      <c r="CD2" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="CE2" s="140"/>
-      <c r="CF2" s="140"/>
-      <c r="CG2" s="140"/>
-      <c r="CH2" s="140"/>
-      <c r="CI2" s="140"/>
-      <c r="CJ2" s="141"/>
-      <c r="CL2" s="139" t="s">
+      <c r="CE2" s="147"/>
+      <c r="CF2" s="147"/>
+      <c r="CG2" s="147"/>
+      <c r="CH2" s="147"/>
+      <c r="CI2" s="147"/>
+      <c r="CJ2" s="148"/>
+      <c r="CL2" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="CM2" s="140"/>
-      <c r="CN2" s="140"/>
-      <c r="CO2" s="140"/>
-      <c r="CP2" s="140"/>
-      <c r="CQ2" s="140"/>
-      <c r="CR2" s="141"/>
-      <c r="CT2" s="139" t="s">
+      <c r="CM2" s="147"/>
+      <c r="CN2" s="147"/>
+      <c r="CO2" s="147"/>
+      <c r="CP2" s="147"/>
+      <c r="CQ2" s="147"/>
+      <c r="CR2" s="148"/>
+      <c r="CT2" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="CU2" s="140"/>
-      <c r="CV2" s="140"/>
-      <c r="CW2" s="140"/>
-      <c r="CX2" s="140"/>
-      <c r="CY2" s="140"/>
-      <c r="CZ2" s="141"/>
-      <c r="DB2" s="139" t="s">
+      <c r="CU2" s="147"/>
+      <c r="CV2" s="147"/>
+      <c r="CW2" s="147"/>
+      <c r="CX2" s="147"/>
+      <c r="CY2" s="147"/>
+      <c r="CZ2" s="148"/>
+      <c r="DB2" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="DC2" s="140"/>
-      <c r="DD2" s="140"/>
-      <c r="DE2" s="140"/>
-      <c r="DF2" s="140"/>
-      <c r="DG2" s="140"/>
-      <c r="DH2" s="141"/>
-      <c r="DJ2" s="139" t="s">
+      <c r="DC2" s="147"/>
+      <c r="DD2" s="147"/>
+      <c r="DE2" s="147"/>
+      <c r="DF2" s="147"/>
+      <c r="DG2" s="147"/>
+      <c r="DH2" s="148"/>
+      <c r="DJ2" s="146" t="s">
         <v>44</v>
       </c>
-      <c r="DK2" s="140"/>
-      <c r="DL2" s="140"/>
-      <c r="DM2" s="140"/>
-      <c r="DN2" s="140"/>
-      <c r="DO2" s="140"/>
-      <c r="DP2" s="141"/>
-      <c r="DR2" s="139" t="s">
+      <c r="DK2" s="147"/>
+      <c r="DL2" s="147"/>
+      <c r="DM2" s="147"/>
+      <c r="DN2" s="147"/>
+      <c r="DO2" s="147"/>
+      <c r="DP2" s="148"/>
+      <c r="DR2" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="DS2" s="140"/>
-      <c r="DT2" s="140"/>
-      <c r="DU2" s="140"/>
-      <c r="DV2" s="140"/>
-      <c r="DW2" s="140"/>
-      <c r="DX2" s="141"/>
-      <c r="DZ2" s="139" t="s">
+      <c r="DS2" s="147"/>
+      <c r="DT2" s="147"/>
+      <c r="DU2" s="147"/>
+      <c r="DV2" s="147"/>
+      <c r="DW2" s="147"/>
+      <c r="DX2" s="148"/>
+      <c r="DZ2" s="146" t="s">
         <v>42</v>
       </c>
-      <c r="EA2" s="140"/>
-      <c r="EB2" s="140"/>
-      <c r="EC2" s="140"/>
-      <c r="ED2" s="140"/>
-      <c r="EE2" s="140"/>
-      <c r="EF2" s="141"/>
+      <c r="EA2" s="147"/>
+      <c r="EB2" s="147"/>
+      <c r="EC2" s="147"/>
+      <c r="ED2" s="147"/>
+      <c r="EE2" s="147"/>
+      <c r="EF2" s="148"/>
     </row>
     <row r="3" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="142" t="s">
+      <c r="B3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="142"/>
-      <c r="G3" s="143" t="s">
+      <c r="F3" s="144"/>
+      <c r="G3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="144"/>
-      <c r="J3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="146"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="142" t="s">
+      <c r="H3" s="143"/>
+      <c r="J3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="142"/>
-      <c r="O3" s="143" t="s">
+      <c r="N3" s="144"/>
+      <c r="O3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="144"/>
-      <c r="R3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="146"/>
-      <c r="T3" s="146"/>
-      <c r="U3" s="142" t="s">
+      <c r="P3" s="143"/>
+      <c r="R3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="141"/>
+      <c r="T3" s="141"/>
+      <c r="U3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="142"/>
-      <c r="W3" s="143" t="s">
+      <c r="V3" s="144"/>
+      <c r="W3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="144"/>
-      <c r="Z3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="146"/>
-      <c r="AB3" s="146"/>
-      <c r="AC3" s="142" t="s">
+      <c r="X3" s="143"/>
+      <c r="Z3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="143" t="s">
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="144"/>
-      <c r="AH3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="146"/>
-      <c r="AJ3" s="146"/>
-      <c r="AK3" s="142" t="s">
+      <c r="AF3" s="143"/>
+      <c r="AH3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="141"/>
+      <c r="AJ3" s="141"/>
+      <c r="AK3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="142"/>
-      <c r="AM3" s="143" t="s">
+      <c r="AL3" s="144"/>
+      <c r="AM3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="144"/>
-      <c r="AP3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="146"/>
-      <c r="AR3" s="146"/>
-      <c r="AS3" s="142" t="s">
+      <c r="AN3" s="143"/>
+      <c r="AP3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="141"/>
+      <c r="AR3" s="141"/>
+      <c r="AS3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="142"/>
-      <c r="AU3" s="143" t="s">
+      <c r="AT3" s="144"/>
+      <c r="AU3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="144"/>
-      <c r="AX3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="146"/>
-      <c r="AZ3" s="146"/>
-      <c r="BA3" s="142" t="s">
+      <c r="AV3" s="143"/>
+      <c r="AX3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="141"/>
+      <c r="AZ3" s="141"/>
+      <c r="BA3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BB3" s="142"/>
-      <c r="BC3" s="143" t="s">
+      <c r="BB3" s="144"/>
+      <c r="BC3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="144"/>
-      <c r="BF3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="146"/>
-      <c r="BH3" s="146"/>
-      <c r="BI3" s="142" t="s">
+      <c r="BD3" s="143"/>
+      <c r="BF3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="141"/>
+      <c r="BH3" s="141"/>
+      <c r="BI3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BJ3" s="142"/>
-      <c r="BK3" s="143" t="s">
+      <c r="BJ3" s="144"/>
+      <c r="BK3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="144"/>
-      <c r="BN3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="146"/>
-      <c r="BP3" s="146"/>
-      <c r="BQ3" s="142" t="s">
+      <c r="BL3" s="143"/>
+      <c r="BN3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="141"/>
+      <c r="BP3" s="141"/>
+      <c r="BQ3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="142"/>
-      <c r="BS3" s="143" t="s">
+      <c r="BR3" s="144"/>
+      <c r="BS3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="144"/>
-      <c r="BV3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="146"/>
-      <c r="BX3" s="146"/>
-      <c r="BY3" s="142" t="s">
+      <c r="BT3" s="143"/>
+      <c r="BV3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="141"/>
+      <c r="BX3" s="141"/>
+      <c r="BY3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BZ3" s="142"/>
-      <c r="CA3" s="143" t="s">
+      <c r="BZ3" s="144"/>
+      <c r="CA3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="144"/>
-      <c r="CD3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="146"/>
-      <c r="CF3" s="146"/>
-      <c r="CG3" s="142" t="s">
+      <c r="CB3" s="143"/>
+      <c r="CD3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="141"/>
+      <c r="CF3" s="141"/>
+      <c r="CG3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="CH3" s="142"/>
-      <c r="CI3" s="143" t="s">
+      <c r="CH3" s="144"/>
+      <c r="CI3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="CJ3" s="144"/>
-      <c r="CL3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="146"/>
-      <c r="CN3" s="146"/>
-      <c r="CO3" s="142" t="s">
+      <c r="CJ3" s="143"/>
+      <c r="CL3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="141"/>
+      <c r="CN3" s="141"/>
+      <c r="CO3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="CP3" s="142"/>
-      <c r="CQ3" s="143" t="s">
+      <c r="CP3" s="144"/>
+      <c r="CQ3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="CR3" s="144"/>
-      <c r="CT3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="146"/>
-      <c r="CV3" s="146"/>
-      <c r="CW3" s="142" t="s">
+      <c r="CR3" s="143"/>
+      <c r="CT3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="141"/>
+      <c r="CV3" s="141"/>
+      <c r="CW3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="CX3" s="142"/>
-      <c r="CY3" s="143" t="s">
+      <c r="CX3" s="144"/>
+      <c r="CY3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="CZ3" s="144"/>
-      <c r="DB3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="DC3" s="146"/>
-      <c r="DD3" s="146"/>
-      <c r="DE3" s="142" t="s">
+      <c r="CZ3" s="143"/>
+      <c r="DB3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="141"/>
+      <c r="DD3" s="141"/>
+      <c r="DE3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="DF3" s="142"/>
-      <c r="DG3" s="143" t="s">
+      <c r="DF3" s="144"/>
+      <c r="DG3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="DH3" s="144"/>
-      <c r="DJ3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="DK3" s="146"/>
-      <c r="DL3" s="146"/>
-      <c r="DM3" s="142" t="s">
+      <c r="DH3" s="143"/>
+      <c r="DJ3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="141"/>
+      <c r="DL3" s="141"/>
+      <c r="DM3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="DN3" s="142"/>
-      <c r="DO3" s="143" t="s">
+      <c r="DN3" s="144"/>
+      <c r="DO3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="DP3" s="144"/>
-      <c r="DR3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS3" s="146"/>
-      <c r="DT3" s="146"/>
-      <c r="DU3" s="142" t="s">
+      <c r="DP3" s="143"/>
+      <c r="DR3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS3" s="141"/>
+      <c r="DT3" s="141"/>
+      <c r="DU3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="DV3" s="142"/>
-      <c r="DW3" s="143" t="s">
+      <c r="DV3" s="144"/>
+      <c r="DW3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="DX3" s="144"/>
-      <c r="DZ3" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="EA3" s="146"/>
-      <c r="EB3" s="146"/>
-      <c r="EC3" s="142" t="s">
+      <c r="DX3" s="143"/>
+      <c r="DZ3" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="141"/>
+      <c r="EB3" s="141"/>
+      <c r="EC3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="ED3" s="142"/>
-      <c r="EE3" s="143" t="s">
+      <c r="ED3" s="144"/>
+      <c r="EE3" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="EF3" s="144"/>
+      <c r="EF3" s="143"/>
     </row>
     <row r="4" spans="2:136" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -42117,16 +42246,52 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="DW3:DX3"/>
-    <mergeCell ref="DZ3:EB3"/>
-    <mergeCell ref="EC3:ED3"/>
-    <mergeCell ref="EE3:EF3"/>
-    <mergeCell ref="DG3:DH3"/>
-    <mergeCell ref="DJ3:DL3"/>
-    <mergeCell ref="DM3:DN3"/>
-    <mergeCell ref="DO3:DP3"/>
-    <mergeCell ref="DR3:DT3"/>
-    <mergeCell ref="DU3:DV3"/>
+    <mergeCell ref="CL2:CR2"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="Z2:AF2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AP2:AV2"/>
+    <mergeCell ref="AX2:BD2"/>
+    <mergeCell ref="BF2:BL2"/>
+    <mergeCell ref="BN2:BT2"/>
+    <mergeCell ref="BV2:CB2"/>
+    <mergeCell ref="CD2:CJ2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="DB2:DH2"/>
+    <mergeCell ref="DJ2:DP2"/>
+    <mergeCell ref="DR2:DX2"/>
+    <mergeCell ref="DZ2:EF2"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV3:BX3"/>
     <mergeCell ref="DE3:DF3"/>
     <mergeCell ref="CA3:CB3"/>
     <mergeCell ref="CD3:CF3"/>
@@ -42139,52 +42304,16 @@
     <mergeCell ref="CW3:CX3"/>
     <mergeCell ref="CY3:CZ3"/>
     <mergeCell ref="DB3:DD3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="DB2:DH2"/>
-    <mergeCell ref="DJ2:DP2"/>
-    <mergeCell ref="DR2:DX2"/>
-    <mergeCell ref="DZ2:EF2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="CL2:CR2"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="R2:X2"/>
-    <mergeCell ref="Z2:AF2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AP2:AV2"/>
-    <mergeCell ref="AX2:BD2"/>
-    <mergeCell ref="BF2:BL2"/>
-    <mergeCell ref="BN2:BT2"/>
-    <mergeCell ref="BV2:CB2"/>
-    <mergeCell ref="CD2:CJ2"/>
+    <mergeCell ref="DW3:DX3"/>
+    <mergeCell ref="DZ3:EB3"/>
+    <mergeCell ref="EC3:ED3"/>
+    <mergeCell ref="EE3:EF3"/>
+    <mergeCell ref="DG3:DH3"/>
+    <mergeCell ref="DJ3:DL3"/>
+    <mergeCell ref="DM3:DN3"/>
+    <mergeCell ref="DO3:DP3"/>
+    <mergeCell ref="DR3:DT3"/>
+    <mergeCell ref="DU3:DV3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43062,30 +43191,30 @@
     </row>
     <row r="38" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="3:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="C39" s="139" t="s">
+      <c r="C39" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="140"/>
-      <c r="E39" s="140"/>
-      <c r="F39" s="140"/>
-      <c r="G39" s="140"/>
-      <c r="H39" s="140"/>
-      <c r="I39" s="141"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="148"/>
     </row>
     <row r="40" spans="3:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="C40" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="146"/>
-      <c r="E40" s="146"/>
-      <c r="F40" s="142" t="s">
+      <c r="C40" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="141"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="142"/>
-      <c r="H40" s="143" t="s">
+      <c r="G40" s="144"/>
+      <c r="H40" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="144"/>
+      <c r="I40" s="143"/>
     </row>
     <row r="41" spans="3:9" ht="19" x14ac:dyDescent="0.25">
       <c r="C41" s="14" t="s">
@@ -43832,14 +43961,14 @@
       </c>
       <c r="D3" s="8">
         <f>G42</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="8">
         <f t="shared" ref="G3:G24" si="0">H42</f>
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>10</v>
@@ -43920,14 +44049,14 @@
       </c>
       <c r="D5" s="8">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="8">
         <f t="shared" si="0"/>
-        <v>321</v>
+        <v>399</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>12</v>
@@ -44015,7 +44144,7 @@
       </c>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>14</v>
@@ -44052,14 +44181,14 @@
       </c>
       <c r="D8" s="8">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>349</v>
+        <v>439</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>15</v>
@@ -44096,14 +44225,14 @@
       </c>
       <c r="D9" s="8">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>16</v>
@@ -44184,14 +44313,14 @@
       </c>
       <c r="D11" s="8">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>18</v>
@@ -44323,7 +44452,7 @@
       </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>21</v>
@@ -44360,14 +44489,14 @@
       </c>
       <c r="D15" s="8">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>281</v>
+        <v>371</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>22</v>
@@ -44448,14 +44577,14 @@
       </c>
       <c r="D17" s="8">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>428</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>24</v>
@@ -44492,21 +44621,21 @@
       </c>
       <c r="D18" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>25</v>
@@ -44536,14 +44665,14 @@
       </c>
       <c r="D19" s="8">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>261</v>
+        <v>351</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>26</v>
@@ -44580,14 +44709,14 @@
       </c>
       <c r="D20" s="8">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>233</v>
+        <v>319</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>27</v>
@@ -44624,14 +44753,14 @@
       </c>
       <c r="D21" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>317</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>28</v>
@@ -44675,7 +44804,7 @@
       </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>29</v>
@@ -44719,7 +44848,7 @@
       </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>50</v>
@@ -44796,30 +44925,30 @@
     </row>
     <row r="38" spans="6:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="6:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="F39" s="148" t="s">
+      <c r="F39" s="149" t="s">
         <v>46</v>
       </c>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="151"/>
     </row>
     <row r="40" spans="6:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="F40" s="145" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="146"/>
-      <c r="H40" s="146"/>
-      <c r="I40" s="142" t="s">
+      <c r="F40" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="141"/>
+      <c r="H40" s="141"/>
+      <c r="I40" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="142"/>
-      <c r="K40" s="143" t="s">
+      <c r="J40" s="144"/>
+      <c r="K40" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="144"/>
+      <c r="L40" s="143"/>
     </row>
     <row r="41" spans="6:12" ht="19" x14ac:dyDescent="0.25">
       <c r="F41" s="14" t="s">
@@ -44850,11 +44979,11 @@
       </c>
       <c r="G42" s="7">
         <f>'Estadisticas 1º Vuelta'!F40+'Estadisticas 2º Vuelta'!D42</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H42" s="7">
         <f>'Estadisticas 1º Vuelta'!G40+'Estadisticas 2º Vuelta'!E42</f>
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="I42" s="7">
         <f>'Estadisticas 1º Vuelta'!H40+'Estadisticas 2º Vuelta'!F42</f>
@@ -44908,11 +45037,11 @@
       </c>
       <c r="G44" s="7">
         <f>'Estadisticas 1º Vuelta'!F42+'Estadisticas 2º Vuelta'!D44</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H44" s="7">
         <f>'Estadisticas 1º Vuelta'!G42+'Estadisticas 2º Vuelta'!E44</f>
-        <v>321</v>
+        <v>399</v>
       </c>
       <c r="I44" s="7">
         <f>'Estadisticas 1º Vuelta'!H42+'Estadisticas 2º Vuelta'!F44</f>
@@ -44970,7 +45099,7 @@
       </c>
       <c r="H46" s="7">
         <f>'Estadisticas 1º Vuelta'!G44+'Estadisticas 2º Vuelta'!E46</f>
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="I46" s="7">
         <f>'Estadisticas 1º Vuelta'!H44+'Estadisticas 2º Vuelta'!F46</f>
@@ -44995,11 +45124,11 @@
       </c>
       <c r="G47" s="7">
         <f>'Estadisticas 1º Vuelta'!F45+'Estadisticas 2º Vuelta'!D47</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H47" s="7">
         <f>'Estadisticas 1º Vuelta'!G45+'Estadisticas 2º Vuelta'!E47</f>
-        <v>349</v>
+        <v>439</v>
       </c>
       <c r="I47" s="7">
         <f>'Estadisticas 1º Vuelta'!H45+'Estadisticas 2º Vuelta'!F47</f>
@@ -45024,11 +45153,11 @@
       </c>
       <c r="G48" s="7">
         <f>'Estadisticas 1º Vuelta'!F46+'Estadisticas 2º Vuelta'!D48</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H48" s="7">
         <f>'Estadisticas 1º Vuelta'!G46+'Estadisticas 2º Vuelta'!E48</f>
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="I48" s="7">
         <f>'Estadisticas 1º Vuelta'!H46+'Estadisticas 2º Vuelta'!F48</f>
@@ -45082,11 +45211,11 @@
       </c>
       <c r="G50" s="7">
         <f>'Estadisticas 1º Vuelta'!F48+'Estadisticas 2º Vuelta'!D50</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H50" s="7">
         <f>'Estadisticas 1º Vuelta'!G48+'Estadisticas 2º Vuelta'!E50</f>
-        <v>280</v>
+        <v>370</v>
       </c>
       <c r="I50" s="7">
         <f>'Estadisticas 1º Vuelta'!H48+'Estadisticas 2º Vuelta'!F50</f>
@@ -45173,7 +45302,7 @@
       </c>
       <c r="H53" s="7">
         <f>'Estadisticas 1º Vuelta'!G50+'Estadisticas 2º Vuelta'!E53</f>
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I53" s="7">
         <f>'Estadisticas 1º Vuelta'!H50+'Estadisticas 2º Vuelta'!F53</f>
@@ -45198,11 +45327,11 @@
       </c>
       <c r="G54" s="7">
         <f>'Estadisticas 1º Vuelta'!F51+'Estadisticas 2º Vuelta'!D54</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H54" s="7">
         <f>'Estadisticas 1º Vuelta'!G51+'Estadisticas 2º Vuelta'!E54</f>
-        <v>281</v>
+        <v>371</v>
       </c>
       <c r="I54" s="7">
         <f>'Estadisticas 1º Vuelta'!H51+'Estadisticas 2º Vuelta'!F54</f>
@@ -45256,11 +45385,11 @@
       </c>
       <c r="G56" s="7">
         <f>'Estadisticas 1º Vuelta'!F53+'Estadisticas 2º Vuelta'!D56</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H56" s="7">
         <f>'Estadisticas 1º Vuelta'!G53+'Estadisticas 2º Vuelta'!E56</f>
-        <v>350</v>
+        <v>428</v>
       </c>
       <c r="I56" s="7">
         <f>'Estadisticas 1º Vuelta'!H53+'Estadisticas 2º Vuelta'!F56</f>
@@ -45285,15 +45414,15 @@
       </c>
       <c r="G57" s="7">
         <f>'Estadisticas 1º Vuelta'!F54+'Estadisticas 2º Vuelta'!D57</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" s="7">
         <f>'Estadisticas 1º Vuelta'!G54+'Estadisticas 2º Vuelta'!E57</f>
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="I57" s="7">
         <f>'Estadisticas 1º Vuelta'!H54+'Estadisticas 2º Vuelta'!F57</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" s="7">
         <f>'Estadisticas 1º Vuelta'!I54+'Estadisticas 2º Vuelta'!G57</f>
@@ -45314,11 +45443,11 @@
       </c>
       <c r="G58" s="7">
         <f>'Estadisticas 1º Vuelta'!F55+'Estadisticas 2º Vuelta'!D58</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H58" s="7">
         <f>'Estadisticas 1º Vuelta'!G55+'Estadisticas 2º Vuelta'!E58</f>
-        <v>261</v>
+        <v>351</v>
       </c>
       <c r="I58" s="7">
         <f>'Estadisticas 1º Vuelta'!H55+'Estadisticas 2º Vuelta'!F58</f>
@@ -45343,11 +45472,11 @@
       </c>
       <c r="G59" s="7">
         <f>'Estadisticas 1º Vuelta'!F56+'Estadisticas 2º Vuelta'!D59</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H59" s="7">
         <f>'Estadisticas 1º Vuelta'!G56+'Estadisticas 2º Vuelta'!E59</f>
-        <v>233</v>
+        <v>319</v>
       </c>
       <c r="I59" s="7">
         <f>'Estadisticas 1º Vuelta'!H56+'Estadisticas 2º Vuelta'!F59</f>
@@ -45372,11 +45501,11 @@
       </c>
       <c r="G60" s="7">
         <f>'Estadisticas 1º Vuelta'!F57+'Estadisticas 2º Vuelta'!D60</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H60" s="7">
         <f>'Estadisticas 1º Vuelta'!G57+'Estadisticas 2º Vuelta'!E60</f>
-        <v>227</v>
+        <v>317</v>
       </c>
       <c r="I60" s="7">
         <f>'Estadisticas 1º Vuelta'!H57+'Estadisticas 2º Vuelta'!F60</f>
@@ -45405,7 +45534,7 @@
       </c>
       <c r="H61" s="7">
         <f>'Estadisticas 1º Vuelta'!G58+'Estadisticas 2º Vuelta'!E61</f>
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="I61" s="7">
         <f>'Estadisticas 1º Vuelta'!H58+'Estadisticas 2º Vuelta'!F61</f>
@@ -45434,7 +45563,7 @@
       </c>
       <c r="H62" s="7">
         <f>'Estadisticas 1º Vuelta'!G59+'Estadisticas 2º Vuelta'!E62</f>
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I62" s="7">
         <f>'Estadisticas 1º Vuelta'!H59+'Estadisticas 2º Vuelta'!F62</f>

--- a/SALAMANCA UDS 2324.xlsx
+++ b/SALAMANCA UDS 2324.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3341" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3343" uniqueCount="195">
   <si>
     <t>Jugadores</t>
   </si>
@@ -919,6 +919,35 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 08/10/2023</t>
+    </r>
+  </si>
+  <si>
+    <t>REAL ÁVILA</t>
+  </si>
+  <si>
+    <t>0 - 2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 15/10/2023</t>
     </r>
   </si>
 </sst>
@@ -1853,8 +1882,23 @@
     <xf numFmtId="49" fontId="3" fillId="19" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="20" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1868,16 +1912,22 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1886,25 +1936,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1915,9 +1947,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="20" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2473,85 +2502,85 @@
       <c r="B2" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="132" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
       <c r="F2" s="23" t="s">
         <v>53</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="131" t="s">
+      <c r="I2" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
       <c r="L2" s="34" t="s">
         <v>68</v>
       </c>
       <c r="N2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="131" t="s">
+      <c r="O2" s="132" t="s">
         <v>69</v>
       </c>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
       <c r="R2" s="35" t="s">
         <v>71</v>
       </c>
       <c r="T2" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="U2" s="131" t="s">
+      <c r="U2" s="132" t="s">
         <v>83</v>
       </c>
-      <c r="V2" s="131"/>
-      <c r="W2" s="131"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="132"/>
       <c r="X2" s="45" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:24" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="132" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="134" t="s">
+      <c r="B3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="135"/>
-      <c r="H3" s="132" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="134" t="s">
+      <c r="F3" s="140"/>
+      <c r="H3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="135"/>
-      <c r="N3" s="132" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="133"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="134" t="s">
+      <c r="L3" s="140"/>
+      <c r="N3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="135"/>
-      <c r="T3" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="137"/>
-      <c r="V3" s="137"/>
-      <c r="W3" s="138" t="s">
+      <c r="R3" s="140"/>
+      <c r="T3" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="139"/>
+      <c r="X3" s="136"/>
     </row>
     <row r="4" spans="2:24" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -3887,18 +3916,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3909,8 +3938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2752"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3992,7 +4021,7 @@
       </c>
       <c r="K2" s="53" t="str">
         <f>IF(H2="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F2,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(2)</v>
+        <v>Pos.8(3)</v>
       </c>
       <c r="M2" t="str">
         <f>IF(H2="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B2,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4000,7 +4029,7 @@
       </c>
       <c r="N2" t="str">
         <f>IF(H2="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F2,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -4028,19 +4057,19 @@
       </c>
       <c r="J3" s="53" t="str">
         <f>IF(H3="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B3,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>-</v>
       </c>
       <c r="K3" s="53" t="str">
         <f>IF(H3="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F3,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(2)</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="M3" t="str">
         <f>IF(H3="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B3,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>-</v>
       </c>
       <c r="N3" t="str">
         <f>IF(H3="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F3,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(2)</v>
+        <v>Pos.11(2)</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -4068,19 +4097,19 @@
       </c>
       <c r="J4" s="53" t="str">
         <f>IF(H4="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B4,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="K4" s="53" t="str">
         <f>IF(H4="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F4,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="M4" t="str">
         <f>IF(H4="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B4,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="N4" t="str">
         <f>IF(H4="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F4,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(2)</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -4108,19 +4137,19 @@
       </c>
       <c r="J5" s="53" t="str">
         <f>IF(H5="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B5,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>-</v>
       </c>
       <c r="K5" s="53" t="str">
         <f>IF(H5="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F5,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>-</v>
       </c>
       <c r="M5" t="str">
         <f>IF(H5="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B5,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>-</v>
       </c>
       <c r="N5" t="str">
         <f>IF(H5="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F5,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -4148,19 +4177,19 @@
       </c>
       <c r="J6" s="53" t="str">
         <f>IF(H6="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B6,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(3)</v>
       </c>
       <c r="K6" s="53" t="str">
         <f>IF(H6="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F6,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="M6" t="str">
         <f>IF(H6="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B6,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="N6" t="str">
         <f>IF(H6="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F6,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>Pos.4(2)</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -4188,11 +4217,11 @@
       </c>
       <c r="J7" s="53" t="str">
         <f>IF(H7="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B7,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="K7" s="53" t="str">
         <f>IF(H7="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F7,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="M7" t="str">
         <f>IF(H7="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B7,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4200,7 +4229,7 @@
       </c>
       <c r="N7" t="str">
         <f>IF(H7="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F7,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -4228,7 +4257,7 @@
       </c>
       <c r="J8" s="53" t="str">
         <f>IF(H8="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B8,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>Pos.8(3)</v>
       </c>
       <c r="K8" s="53" t="str">
         <f>IF(H8="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F8,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4236,7 +4265,7 @@
       </c>
       <c r="M8" t="str">
         <f>IF(H8="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B8,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="N8" t="str">
         <f>IF(H8="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F8,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4308,7 +4337,7 @@
       </c>
       <c r="J10" s="53" t="str">
         <f>IF(H10="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B10,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="K10" s="53" t="str">
         <f>IF(H10="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F10,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4316,7 +4345,7 @@
       </c>
       <c r="M10" t="str">
         <f>IF(H10="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B10,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="N10" t="str">
         <f>IF(H10="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F10,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4352,7 +4381,7 @@
       </c>
       <c r="K11" s="53" t="str">
         <f>IF(H11="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F11,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="M11" t="str">
         <f>IF(H11="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B11,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4388,19 +4417,19 @@
       </c>
       <c r="J12" s="53" t="str">
         <f>IF(H12="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B12,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(2)</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="K12" s="53" t="str">
         <f>IF(H12="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F12,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="M12" t="str">
         <f>IF(H12="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B12,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(2)</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="N12" t="str">
         <f>IF(H12="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F12,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -4428,19 +4457,19 @@
       </c>
       <c r="J13" s="53" t="str">
         <f>IF(H13="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B13,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="K13" s="53" t="str">
         <f>IF(H13="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F13,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="M13" t="str">
         <f>IF(H13="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B13,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>Pos.4(2)</v>
       </c>
       <c r="N13" t="str">
         <f>IF(H13="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F13,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -4468,19 +4497,19 @@
       </c>
       <c r="J14" s="53" t="str">
         <f>IF(H14="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B14,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(2)</v>
+        <v>Pos.8(3)</v>
       </c>
       <c r="K14" s="53" t="str">
         <f>IF(H14="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F14,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>Pos.8(3)</v>
       </c>
       <c r="M14" t="str">
         <f>IF(H14="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B14,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(2)</v>
+        <v>-</v>
       </c>
       <c r="N14" t="str">
         <f>IF(H14="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F14,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>Pos.8(2)</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -4508,19 +4537,19 @@
       </c>
       <c r="J15" s="53" t="str">
         <f>IF(H15="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B15,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="K15" s="53" t="str">
         <f>IF(H15="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F15,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>-</v>
       </c>
       <c r="M15" t="str">
         <f>IF(H15="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B15,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="N15" t="str">
         <f>IF(H15="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F15,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -4588,19 +4617,19 @@
       </c>
       <c r="J17" s="53" t="str">
         <f>IF(H17="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B17,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>-</v>
       </c>
       <c r="K17" s="53" t="str">
         <f>IF(H17="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F17,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>-</v>
       </c>
       <c r="M17" t="str">
         <f>IF(H17="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B17,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>-</v>
       </c>
       <c r="N17" t="str">
         <f>IF(H17="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F17,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -4632,7 +4661,7 @@
       </c>
       <c r="K18" s="53" t="str">
         <f>IF(H18="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F18,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(3)</v>
       </c>
       <c r="M18" t="str">
         <f>IF(H18="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B18,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4640,7 +4669,7 @@
       </c>
       <c r="N18" t="str">
         <f>IF(H18="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F18,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4668,7 +4697,7 @@
       </c>
       <c r="J19" s="53" t="str">
         <f>IF(H19="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B19,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="K19" s="53" t="str">
         <f>IF(H19="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F19,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4676,7 +4705,7 @@
       </c>
       <c r="M19" t="str">
         <f>IF(H19="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B19,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(2)</v>
       </c>
       <c r="N19" t="str">
         <f>IF(H19="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F19,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4712,7 +4741,7 @@
       </c>
       <c r="K20" s="53" t="str">
         <f>IF(H20="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F20,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(2)</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="M20" t="str">
         <f>IF(H20="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B20,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4720,7 +4749,7 @@
       </c>
       <c r="N20" t="str">
         <f>IF(H20="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F20,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(2)</v>
+        <v>Pos.11(2)</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -4748,7 +4777,7 @@
       </c>
       <c r="J21" s="53" t="str">
         <f>IF(H21="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B21,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(2)</v>
+        <v>Pos.8(3)</v>
       </c>
       <c r="K21" s="53" t="str">
         <f>IF(H21="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F21,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4756,7 +4785,7 @@
       </c>
       <c r="M21" t="str">
         <f>IF(H21="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B21,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(2)</v>
+        <v>-</v>
       </c>
       <c r="N21" t="str">
         <f>IF(H21="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F21,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4788,19 +4817,19 @@
       </c>
       <c r="J22" s="53" t="str">
         <f>IF(H22="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B22,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>-</v>
       </c>
       <c r="K22" s="53" t="str">
         <f>IF(H22="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F22,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="M22" t="str">
         <f>IF(H22="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B22,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>-</v>
       </c>
       <c r="N22" t="str">
         <f>IF(H22="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F22,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -4828,7 +4857,7 @@
       </c>
       <c r="J23" s="53" t="str">
         <f>IF(H23="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B23,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>-</v>
       </c>
       <c r="K23" s="53" t="str">
         <f>IF(H23="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F23,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4836,7 +4865,7 @@
       </c>
       <c r="M23" t="str">
         <f>IF(H23="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B23,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>-</v>
       </c>
       <c r="N23" t="str">
         <f>IF(H23="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F23,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4868,11 +4897,11 @@
       </c>
       <c r="J24" s="53" t="str">
         <f>IF(H24="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B24,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="K24" s="53" t="str">
         <f>IF(H24="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F24,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="M24" t="str">
         <f>IF(H24="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B24,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4880,7 +4909,7 @@
       </c>
       <c r="N24" t="str">
         <f>IF(H24="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F24,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(2)</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -4912,7 +4941,7 @@
       </c>
       <c r="K25" s="53" t="str">
         <f>IF(H25="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F25,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="M25" t="str">
         <f>IF(H25="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B25,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4920,7 +4949,7 @@
       </c>
       <c r="N25" t="str">
         <f>IF(H25="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F25,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>Pos.4(2)</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -4948,7 +4977,7 @@
       </c>
       <c r="J26" s="53" t="str">
         <f>IF(H26="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B26,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="K26" s="53" t="str">
         <f>IF(H26="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F26,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4956,7 +4985,7 @@
       </c>
       <c r="M26" t="str">
         <f>IF(H26="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B26,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="N26" t="str">
         <f>IF(H26="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F26,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4988,19 +5017,19 @@
       </c>
       <c r="J27" s="53" t="str">
         <f>IF(H27="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B27,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>Pos.8(3)</v>
       </c>
       <c r="K27" s="53" t="str">
         <f>IF(H27="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F27,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(3)</v>
       </c>
       <c r="M27" t="str">
         <f>IF(H27="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B27,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="N27" t="str">
         <f>IF(H27="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F27,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5028,19 +5057,19 @@
       </c>
       <c r="J28" s="53" t="str">
         <f>IF(H28="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B28,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="K28" s="53" t="str">
         <f>IF(H28="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F28,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>-</v>
       </c>
       <c r="M28" t="str">
         <f>IF(H28="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B28,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="N28" t="str">
         <f>IF(H28="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F28,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -5072,7 +5101,7 @@
       </c>
       <c r="K29" s="53" t="str">
         <f>IF(H29="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F29,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>Pos.8(3)</v>
       </c>
       <c r="M29" t="str">
         <f>IF(H29="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B29,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5080,7 +5109,7 @@
       </c>
       <c r="N29" t="str">
         <f>IF(H29="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F29,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>Pos.8(2)</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -5108,15 +5137,15 @@
       </c>
       <c r="K30" s="53" t="str">
         <f>IF(H30="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F30,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(2)</v>
+        <v>Pos.8(3)</v>
       </c>
       <c r="M30" t="str">
         <f>IF(H30="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B30,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(2)</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="N30" t="str">
         <f>IF(H30="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F30,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -5144,7 +5173,7 @@
       </c>
       <c r="J31" s="53" t="str">
         <f>IF(H31="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B31,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>-</v>
       </c>
       <c r="K31" s="53" t="str">
         <f>IF(H31="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F31,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5152,7 +5181,7 @@
       </c>
       <c r="M31" t="str">
         <f>IF(H31="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B31,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>-</v>
       </c>
       <c r="N31" t="str">
         <f>IF(H31="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F31,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5184,19 +5213,19 @@
       </c>
       <c r="J32" s="53" t="str">
         <f>IF(H32="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B32,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="K32" s="53" t="str">
         <f>IF(H32="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F32,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="M32" t="str">
         <f>IF(H32="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B32,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="N32" t="str">
         <f>IF(H32="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F32,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -5228,7 +5257,7 @@
       </c>
       <c r="K33" s="53" t="str">
         <f>IF(H33="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F33,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>-</v>
       </c>
       <c r="M33" t="str">
         <f>IF(H33="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B33,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5236,7 +5265,7 @@
       </c>
       <c r="N33" t="str">
         <f>IF(H33="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F33,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -5264,19 +5293,19 @@
       </c>
       <c r="J34" s="53" t="str">
         <f>IF(H34="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B34,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="K34" s="53" t="str">
         <f>IF(H34="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F34,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>-</v>
       </c>
       <c r="M34" t="str">
         <f>IF(H34="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B34,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(2)</v>
       </c>
       <c r="N34" t="str">
         <f>IF(H34="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F34,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -5304,15 +5333,15 @@
       </c>
       <c r="J35" s="53" t="str">
         <f>IF(H35="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B35,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="K35" s="53" t="str">
         <f>IF(H35="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F35,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="M35" t="str">
         <f>IF(H35="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B35,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>Pos.4(2)</v>
       </c>
       <c r="N35" t="str">
         <f>IF(H35="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F35,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5384,38 +5413,38 @@
       </c>
       <c r="J37" s="53" t="str">
         <f>IF(H37="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B37,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(3)</v>
       </c>
       <c r="K37" s="53" t="str">
         <f>IF(H37="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F37,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="M37" t="str">
         <f>IF(H37="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B37,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="N37" t="str">
         <f>IF(H37="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F37,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="95">
         <v>5</v>
       </c>
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="78">
+      <c r="C38" s="114">
         <v>3</v>
       </c>
-      <c r="D38" s="91" t="s">
+      <c r="D38" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="78">
-        <v>0</v>
-      </c>
-      <c r="F38" s="79" t="s">
+      <c r="E38" s="114">
+        <v>0</v>
+      </c>
+      <c r="F38" s="116" t="s">
         <v>116</v>
       </c>
       <c r="H38" t="str">
@@ -5428,7 +5457,7 @@
       </c>
       <c r="K38" s="53" t="str">
         <f>IF(H38="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F38,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(2)</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="M38" t="str">
         <f>IF(H38="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B38,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5436,26 +5465,26 @@
       </c>
       <c r="N38" t="str">
         <f>IF(H38="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F38,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(2)</v>
+        <v>Pos.11(2)</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="96">
         <v>5</v>
       </c>
-      <c r="B39" s="80" t="s">
+      <c r="B39" s="117" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="80">
-        <v>0</v>
-      </c>
-      <c r="D39" s="92" t="s">
+      <c r="C39" s="117">
+        <v>0</v>
+      </c>
+      <c r="D39" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="80">
-        <v>0</v>
-      </c>
-      <c r="F39" s="81" t="s">
+      <c r="E39" s="117">
+        <v>0</v>
+      </c>
+      <c r="F39" s="119" t="s">
         <v>118</v>
       </c>
       <c r="H39" t="str">
@@ -5464,38 +5493,38 @@
       </c>
       <c r="J39" s="53" t="str">
         <f>IF(H39="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B39,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(2)</v>
+        <v>Pos.8(3)</v>
       </c>
       <c r="K39" s="53" t="str">
         <f>IF(H39="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F39,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>-</v>
       </c>
       <c r="M39" t="str">
         <f>IF(H39="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B39,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(2)</v>
+        <v>-</v>
       </c>
       <c r="N39" t="str">
         <f>IF(H39="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F39,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="96">
         <v>5</v>
       </c>
-      <c r="B40" s="80" t="s">
+      <c r="B40" s="117" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="80">
-        <v>1</v>
-      </c>
-      <c r="D40" s="92" t="s">
+      <c r="C40" s="117">
+        <v>1</v>
+      </c>
+      <c r="D40" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="80">
+      <c r="E40" s="117">
         <v>2</v>
       </c>
-      <c r="F40" s="81" t="s">
+      <c r="F40" s="119" t="s">
         <v>120</v>
       </c>
       <c r="H40" t="str">
@@ -5508,7 +5537,7 @@
       </c>
       <c r="K40" s="53" t="str">
         <f>IF(H40="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F40,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="M40" t="str">
         <f>IF(H40="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B40,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5516,26 +5545,26 @@
       </c>
       <c r="N40" t="str">
         <f>IF(H40="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F40,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="96">
         <v>5</v>
       </c>
-      <c r="B41" s="80" t="s">
+      <c r="B41" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="80">
-        <v>0</v>
-      </c>
-      <c r="D41" s="92" t="s">
+      <c r="C41" s="117">
+        <v>0</v>
+      </c>
+      <c r="D41" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="80">
+      <c r="E41" s="117">
         <v>2</v>
       </c>
-      <c r="F41" s="81" t="s">
+      <c r="F41" s="119" t="s">
         <v>122</v>
       </c>
       <c r="H41" t="str">
@@ -5544,7 +5573,7 @@
       </c>
       <c r="J41" s="53" t="str">
         <f>IF(H41="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B41,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="K41" s="53" t="str">
         <f>IF(H41="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F41,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5552,7 +5581,7 @@
       </c>
       <c r="M41" t="str">
         <f>IF(H41="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B41,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="N41" t="str">
         <f>IF(H41="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F41,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5563,19 +5592,19 @@
       <c r="A42" s="96">
         <v>5</v>
       </c>
-      <c r="B42" s="80" t="s">
+      <c r="B42" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="80">
-        <v>0</v>
-      </c>
-      <c r="D42" s="92" t="s">
+      <c r="C42" s="117">
+        <v>0</v>
+      </c>
+      <c r="D42" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="80">
-        <v>0</v>
-      </c>
-      <c r="F42" s="81" t="s">
+      <c r="E42" s="117">
+        <v>0</v>
+      </c>
+      <c r="F42" s="119" t="s">
         <v>117</v>
       </c>
       <c r="H42" t="str">
@@ -5584,38 +5613,38 @@
       </c>
       <c r="J42" s="53" t="str">
         <f>IF(H42="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B42,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>-</v>
       </c>
       <c r="K42" s="53" t="str">
         <f>IF(H42="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F42,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="M42" t="str">
         <f>IF(H42="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B42,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>-</v>
       </c>
       <c r="N42" t="str">
         <f>IF(H42="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F42,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(2)</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="96">
         <v>5</v>
       </c>
-      <c r="B43" s="80" t="s">
+      <c r="B43" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="80">
-        <v>1</v>
-      </c>
-      <c r="D43" s="92" t="s">
+      <c r="C43" s="117">
+        <v>1</v>
+      </c>
+      <c r="D43" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="80">
+      <c r="E43" s="117">
         <v>2</v>
       </c>
-      <c r="F43" s="81" t="s">
+      <c r="F43" s="119" t="s">
         <v>119</v>
       </c>
       <c r="H43" t="str">
@@ -5624,38 +5653,38 @@
       </c>
       <c r="J43" s="53" t="str">
         <f>IF(H43="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B43,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>-</v>
       </c>
       <c r="K43" s="53" t="str">
         <f>IF(H43="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F43,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="M43" t="str">
         <f>IF(H43="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B43,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>-</v>
       </c>
       <c r="N43" t="str">
         <f>IF(H43="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F43,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.3(2)</v>
+        <v>Pos.4(2)</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="96">
         <v>5</v>
       </c>
-      <c r="B44" s="80" t="s">
+      <c r="B44" s="117" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="80">
-        <v>1</v>
-      </c>
-      <c r="D44" s="92" t="s">
+      <c r="C44" s="117">
+        <v>1</v>
+      </c>
+      <c r="D44" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="80">
-        <v>0</v>
-      </c>
-      <c r="F44" s="81" t="s">
+      <c r="E44" s="117">
+        <v>0</v>
+      </c>
+      <c r="F44" s="119" t="s">
         <v>121</v>
       </c>
       <c r="H44" t="str">
@@ -5664,7 +5693,7 @@
       </c>
       <c r="J44" s="53" t="str">
         <f>IF(H44="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B44,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="K44" s="53" t="str">
         <f>IF(H44="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F44,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5683,19 +5712,19 @@
       <c r="A45" s="96">
         <v>5</v>
       </c>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="117" t="s">
         <v>130</v>
       </c>
-      <c r="C45" s="80">
-        <v>1</v>
-      </c>
-      <c r="D45" s="92" t="s">
+      <c r="C45" s="117">
+        <v>1</v>
+      </c>
+      <c r="D45" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="80">
-        <v>1</v>
-      </c>
-      <c r="F45" s="81" t="s">
+      <c r="E45" s="117">
+        <v>1</v>
+      </c>
+      <c r="F45" s="119" t="s">
         <v>127</v>
       </c>
       <c r="H45" t="str">
@@ -5708,7 +5737,7 @@
       </c>
       <c r="K45" s="53" t="str">
         <f>IF(H45="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F45,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(3)</v>
       </c>
       <c r="M45" t="str">
         <f>IF(H45="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B45,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5716,26 +5745,26 @@
       </c>
       <c r="N45" t="str">
         <f>IF(H45="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F45,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="97">
         <v>5</v>
       </c>
-      <c r="B46" s="82" t="s">
+      <c r="B46" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="82">
-        <v>0</v>
-      </c>
-      <c r="D46" s="93" t="s">
+      <c r="C46" s="120">
+        <v>0</v>
+      </c>
+      <c r="D46" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="82">
-        <v>0</v>
-      </c>
-      <c r="F46" s="83" t="s">
+      <c r="E46" s="120">
+        <v>0</v>
+      </c>
+      <c r="F46" s="122" t="s">
         <v>125</v>
       </c>
       <c r="H46" t="str">
@@ -5744,75 +5773,83 @@
       </c>
       <c r="J46" s="53" t="str">
         <f>IF(H46="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B46,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>Pos.8(3)</v>
       </c>
       <c r="K46" s="53" t="str">
         <f>IF(H46="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F46,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="M46" t="str">
         <f>IF(H46="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B46,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(3)</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="N46" t="str">
         <f>IF(H46="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F46,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="95">
         <v>6</v>
       </c>
-      <c r="B47" s="78" t="s">
+      <c r="B47" s="114" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="78"/>
-      <c r="D47" s="91" t="s">
+      <c r="C47" s="114">
+        <v>0</v>
+      </c>
+      <c r="D47" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="78"/>
-      <c r="F47" s="79" t="s">
+      <c r="E47" s="114">
+        <v>1</v>
+      </c>
+      <c r="F47" s="116" t="s">
         <v>129</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="1"/>
-        <v>Pendiente</v>
+        <v>Visitante</v>
       </c>
       <c r="J47" s="53" t="str">
         <f>IF(H47="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B47,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="K47" s="53" t="str">
         <f>IF(H47="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F47,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(3)</v>
       </c>
       <c r="M47" t="str">
         <f>IF(H47="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B47,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="N47" t="str">
         <f>IF(H47="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F47,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="96">
         <v>6</v>
       </c>
-      <c r="B48" s="80" t="s">
+      <c r="B48" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="80"/>
-      <c r="D48" s="92" t="s">
+      <c r="C48" s="117">
+        <v>0</v>
+      </c>
+      <c r="D48" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="80"/>
-      <c r="F48" s="81" t="s">
+      <c r="E48" s="117">
+        <v>2</v>
+      </c>
+      <c r="F48" s="119" t="s">
         <v>123</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="1"/>
-        <v>Pendiente</v>
+        <v>Visitante</v>
       </c>
       <c r="J48" s="53" t="str">
         <f>IF(H48="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B48,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5820,7 +5857,7 @@
       </c>
       <c r="K48" s="53" t="str">
         <f>IF(H48="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F48,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="M48" t="str">
         <f>IF(H48="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B48,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5828,39 +5865,43 @@
       </c>
       <c r="N48" t="str">
         <f>IF(H48="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F48,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="96">
         <v>6</v>
       </c>
-      <c r="B49" s="80" t="s">
+      <c r="B49" s="117" t="s">
         <v>120</v>
       </c>
-      <c r="C49" s="80"/>
-      <c r="D49" s="92" t="s">
+      <c r="C49" s="117">
+        <v>2</v>
+      </c>
+      <c r="D49" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="80"/>
-      <c r="F49" s="81" t="s">
+      <c r="E49" s="117">
+        <v>2</v>
+      </c>
+      <c r="F49" s="119" t="s">
         <v>115</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="1"/>
-        <v>Pendiente</v>
+        <v>Empate</v>
       </c>
       <c r="J49" s="53" t="str">
         <f>IF(H49="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B49,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="K49" s="53" t="str">
         <f>IF(H49="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F49,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(3)</v>
       </c>
       <c r="M49" t="str">
         <f>IF(H49="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B49,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="N49" t="str">
         <f>IF(H49="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F49,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5871,24 +5912,28 @@
       <c r="A50" s="96">
         <v>6</v>
       </c>
-      <c r="B50" s="80" t="s">
+      <c r="B50" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="80"/>
-      <c r="D50" s="92" t="s">
+      <c r="C50" s="117">
+        <v>2</v>
+      </c>
+      <c r="D50" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="80"/>
-      <c r="F50" s="81" t="s">
+      <c r="E50" s="117">
+        <v>1</v>
+      </c>
+      <c r="F50" s="119" t="s">
         <v>114</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="1"/>
-        <v>Pendiente</v>
+        <v>Local</v>
       </c>
       <c r="J50" s="53" t="str">
         <f>IF(H50="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B50,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="K50" s="53" t="str">
         <f>IF(H50="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F50,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5896,7 +5941,7 @@
       </c>
       <c r="M50" t="str">
         <f>IF(H50="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B50,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="N50" t="str">
         <f>IF(H50="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F50,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5907,24 +5952,28 @@
       <c r="A51" s="96">
         <v>6</v>
       </c>
-      <c r="B51" s="80" t="s">
+      <c r="B51" s="117" t="s">
         <v>117</v>
       </c>
-      <c r="C51" s="80"/>
-      <c r="D51" s="92" t="s">
+      <c r="C51" s="117">
+        <v>1</v>
+      </c>
+      <c r="D51" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="80"/>
-      <c r="F51" s="81" t="s">
+      <c r="E51" s="117">
+        <v>0</v>
+      </c>
+      <c r="F51" s="119" t="s">
         <v>131</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="1"/>
-        <v>Pendiente</v>
+        <v>Local</v>
       </c>
       <c r="J51" s="53" t="str">
         <f>IF(H51="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B51,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="K51" s="53" t="str">
         <f>IF(H51="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F51,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5932,7 +5981,7 @@
       </c>
       <c r="M51" t="str">
         <f>IF(H51="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B51,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(2)</v>
       </c>
       <c r="N51" t="str">
         <f>IF(H51="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F51,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5943,24 +5992,28 @@
       <c r="A52" s="96">
         <v>6</v>
       </c>
-      <c r="B52" s="80" t="s">
+      <c r="B52" s="117" t="s">
         <v>119</v>
       </c>
-      <c r="C52" s="80"/>
-      <c r="D52" s="92" t="s">
+      <c r="C52" s="117">
+        <v>0</v>
+      </c>
+      <c r="D52" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="80"/>
-      <c r="F52" s="81" t="s">
+      <c r="E52" s="117">
+        <v>0</v>
+      </c>
+      <c r="F52" s="119" t="s">
         <v>124</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="1"/>
-        <v>Pendiente</v>
+        <v>Empate</v>
       </c>
       <c r="J52" s="53" t="str">
         <f>IF(H52="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B52,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="K52" s="53" t="str">
         <f>IF(H52="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F52,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5968,7 +6021,7 @@
       </c>
       <c r="M52" t="str">
         <f>IF(H52="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B52,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(2)</v>
       </c>
       <c r="N52" t="str">
         <f>IF(H52="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F52,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5979,20 +6032,24 @@
       <c r="A53" s="96">
         <v>6</v>
       </c>
-      <c r="B53" s="80" t="s">
+      <c r="B53" s="117" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="80"/>
-      <c r="D53" s="92" t="s">
+      <c r="C53" s="117">
+        <v>2</v>
+      </c>
+      <c r="D53" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="80"/>
-      <c r="F53" s="81" t="s">
+      <c r="E53" s="117">
+        <v>0</v>
+      </c>
+      <c r="F53" s="119" t="s">
         <v>126</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="1"/>
-        <v>Pendiente</v>
+        <v>Local</v>
       </c>
       <c r="J53" s="53" t="str">
         <f>IF(H53="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B53,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6015,32 +6072,36 @@
       <c r="A54" s="96">
         <v>6</v>
       </c>
-      <c r="B54" s="80" t="s">
+      <c r="B54" s="117" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="80"/>
-      <c r="D54" s="92" t="s">
+      <c r="C54" s="117">
+        <v>0</v>
+      </c>
+      <c r="D54" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="80"/>
-      <c r="F54" s="81" t="s">
+      <c r="E54" s="117">
+        <v>1</v>
+      </c>
+      <c r="F54" s="119" t="s">
         <v>128</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="1"/>
-        <v>Pendiente</v>
+        <v>Visitante</v>
       </c>
       <c r="J54" s="53" t="str">
         <f>IF(H54="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B54,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(3)</v>
       </c>
       <c r="K54" s="53" t="str">
         <f>IF(H54="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F54,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="M54" t="str">
         <f>IF(H54="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B54,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="N54" t="str">
         <f>IF(H54="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F54,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6051,20 +6112,24 @@
       <c r="A55" s="97">
         <v>6</v>
       </c>
-      <c r="B55" s="82" t="s">
+      <c r="B55" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="C55" s="82"/>
-      <c r="D55" s="93" t="s">
+      <c r="C55" s="120">
+        <v>1</v>
+      </c>
+      <c r="D55" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="82"/>
-      <c r="F55" s="83" t="s">
+      <c r="E55" s="120">
+        <v>1</v>
+      </c>
+      <c r="F55" s="122" t="s">
         <v>130</v>
       </c>
       <c r="H55" t="str">
         <f>IF(OR(C55="",E55=""),"Pendiente",IF(C55&gt;E55,"Local",IF(E55&gt;C55,"Visitante",IF(C55=E55,"Empate"))))</f>
-        <v>Pendiente</v>
+        <v>Empate</v>
       </c>
       <c r="J55" s="53" t="str">
         <f>IF(H55="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B55,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -22636,7 +22701,7 @@
       </c>
       <c r="B2" s="53">
         <f>C2+D2+E2</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="53">
         <f t="shared" ref="C2:C19" si="0">COUNTIFS(EQUIPO_LOCAL,$A2, GANADOR,"Local")+COUNTIFS(EQUIPO_VISITANTE,$A2,GANADOR,"Visitante")</f>
@@ -22644,7 +22709,7 @@
       </c>
       <c r="D2" s="53">
         <f t="shared" ref="D2:D19" si="1">COUNTIFS(EQUIPO_LOCAL,$A2, GANADOR,"Empate")+COUNTIFS(EQUIPO_VISITANTE,$A2,GANADOR,"Empate")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="53">
         <f t="shared" ref="E2:E19" si="2">COUNTIFS(EQUIPO_LOCAL,$A2, GANADOR,"Visitante")+COUNTIFS(EQUIPO_VISITANTE,$A2,GANADOR,"Local")</f>
@@ -22652,11 +22717,11 @@
       </c>
       <c r="F2" s="53">
         <f t="shared" ref="F2:F19" si="3">SUMIFS(GOLES_LOCAL,EQUIPO_LOCAL,$A2)+SUMIFS(GOLES_VISITANTE,EQUIPO_VISITANTE,$A2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G2" s="53">
         <f t="shared" ref="G2:G19" si="4">SUMIFS(GOLES_VISITANTE,EQUIPO_LOCAL,$A2)+SUMIFS(GOLES_LOCAL,EQUIPO_VISITANTE,$A2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H2" s="53">
         <f>F2-G2</f>
@@ -22664,15 +22729,15 @@
       </c>
       <c r="I2" s="53">
         <f>3*C2+1*D2</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" s="53">
         <f>COUNTIF(I$2:I$19,"&gt;"&amp;I2)+1</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2" s="53" t="str">
         <f>IF(COUNTIF(J$2:J$19,J2)=1,"-","Pos."&amp;J2&amp;"("&amp;COUNTIF(J$2:J$19,J2)&amp;")")</f>
-        <v>Pos.9(2)</v>
+        <v>Pos.8(3)</v>
       </c>
       <c r="L2" s="64"/>
       <c r="M2" s="53">
@@ -22685,7 +22750,7 @@
       </c>
       <c r="O2" s="53">
         <f t="shared" ref="O2:O19" si="6">IF($K2="-","-",COUNTIFS(EQUIPO_LOCAL,$A2, GANADOR,"Visitante",Grupo_de_Empate__A_priori__Equipo_Visitante,$K2)+COUNTIFS(EQUIPO_VISITANTE,$A2,GANADOR,"Local",Grupo_de_Empate__A_priori__Equipo_Local,$K2))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="53">
         <f>IF(K2="-","-",3*M2+1*N2)</f>
@@ -22693,28 +22758,28 @@
       </c>
       <c r="Q2" s="53">
         <f>$J2+COUNTIFS(K$2:K$19,K2,$P$2:$P$19,"&gt;"&amp;P2)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R2" s="53" t="str">
         <f>IF(COUNTIF(Q$2:Q$19,Q2)=1,"-","Pos."&amp;Q2&amp;"("&amp;COUNTIF(Q$2:Q$19,Q2)&amp;")")</f>
-        <v>Pos.9(2)</v>
+        <v>-</v>
       </c>
       <c r="S2" s="65"/>
-      <c r="T2" s="53">
+      <c r="T2" s="53" t="str">
         <f>IF(R2="-","-",SUMIFS(GOLES_LOCAL,EQUIPO_LOCAL,$A2,Grupo_de_Empate_Criterio_1__Equipo_Visitante,$R2)+SUMIFS(GOLES_VISITANTE,EQUIPO_VISITANTE,$A2,Grupo_de_Empate__Criterio_1__Equipo_Local,$R2))</f>
-        <v>1</v>
-      </c>
-      <c r="U2" s="53">
+        <v>-</v>
+      </c>
+      <c r="U2" s="53" t="str">
         <f t="shared" ref="U2:U19" si="7">IF(R2="-","-",SUMIFS(GOLES_VISITANTE,EQUIPO_LOCAL,$A2,Grupo_de_Empate_Criterio_1__Equipo_Visitante,$R2)+SUMIFS(GOLES_LOCAL,EQUIPO_VISITANTE,$A2,Grupo_de_Empate__Criterio_1__Equipo_Local,$R2))</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="53">
+        <v>-</v>
+      </c>
+      <c r="V2" s="53" t="str">
         <f>IF($R2="-","-",T2-U2)</f>
-        <v>1</v>
+        <v>-</v>
       </c>
       <c r="W2" s="53">
         <f>Q2+COUNTIFS(R$2:R$19,R2,V$2:V$19,"&gt;"&amp;V2)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X2" s="53" t="str">
         <f>IF(COUNTIF(W$2:W$19,W2)=1,"-","Pos."&amp;W2&amp;"("&amp;COUNTIF(W$2:W$19,W2)&amp;")")</f>
@@ -22727,7 +22792,7 @@
       </c>
       <c r="AA2" s="53">
         <f>W2+COUNTIFS(X$2:X$19,X2,Z$2:Z$19,"&gt;"&amp;Z2)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB2" s="53" t="str">
         <f>IF(COUNTIF(AA$2:AA$19,AA2)=1,"-","Pos."&amp;AA2&amp;"("&amp;COUNTIF(AA$2:AA$19,AA2)&amp;")")</f>
@@ -22740,7 +22805,7 @@
       </c>
       <c r="AE2" s="53">
         <f>AA2+COUNTIFS(AB$2:AB$19,AB2,AD$2:AD$19,"&gt;"&amp;AD2)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF2" s="53" t="str">
         <f>IF(COUNTIF(AE$2:AE$19,AE2)=1,"-","Pos."&amp;AE2&amp;"("&amp;COUNTIF(AE$2:AE$19,AE2)&amp;")")</f>
@@ -22753,7 +22818,7 @@
       </c>
       <c r="AI2" s="53">
         <f>AE2+COUNTIFS(AF$2:AF$19,AF2,AH$2:AH$19,"&lt;"&amp;AH2)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
@@ -22762,7 +22827,7 @@
       </c>
       <c r="B3" s="53">
         <f t="shared" ref="B3:B19" si="8">C3+D3+E3</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="53">
         <f t="shared" si="0"/>
@@ -22774,7 +22839,7 @@
       </c>
       <c r="E3" s="53">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="53">
         <f t="shared" si="3"/>
@@ -22782,11 +22847,11 @@
       </c>
       <c r="G3" s="53">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3" s="53">
         <f t="shared" ref="H3:H19" si="9">F3-G3</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="53">
         <f t="shared" ref="I3:I19" si="10">3*C3+1*D3</f>
@@ -22798,24 +22863,24 @@
       </c>
       <c r="K3" s="53" t="str">
         <f t="shared" ref="K3:K19" si="12">IF(COUNTIF(J$2:J$19,J3)=1,"-","Pos."&amp;J3&amp;"("&amp;COUNTIF(J$2:J$19,J3)&amp;")")</f>
-        <v>-</v>
+        <v>Pos.8(3)</v>
       </c>
       <c r="L3" s="64"/>
-      <c r="M3" s="53" t="str">
+      <c r="M3" s="53">
         <f t="shared" ref="M3:M19" si="13">IF($K3="-","-",COUNTIFS(EQUIPO_LOCAL,$A3, GANADOR,"Local",Grupo_de_Empate__A_priori__Equipo_Visitante,$K3)+COUNTIFS(EQUIPO_VISITANTE,$A3,GANADOR,"Visitante",Grupo_de_Empate__A_priori__Equipo_Local,$K3))</f>
-        <v>-</v>
-      </c>
-      <c r="N3" s="53" t="str">
+        <v>1</v>
+      </c>
+      <c r="N3" s="53">
         <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="O3" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="O3" s="53">
         <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="P3" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="P3" s="53">
         <f t="shared" ref="P3:P19" si="14">IF(K3="-","-",3*M3+1*N3)</f>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="53">
         <f t="shared" ref="Q3:Q19" si="15">$J3+COUNTIFS(K$2:K$19,K3,$P$2:$P$19,"&gt;"&amp;P3)</f>
@@ -22823,20 +22888,20 @@
       </c>
       <c r="R3" s="53" t="str">
         <f t="shared" ref="R3:R19" si="16">IF(COUNTIF(Q$2:Q$19,Q3)=1,"-","Pos."&amp;Q3&amp;"("&amp;COUNTIF(Q$2:Q$19,Q3)&amp;")")</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="S3" s="65"/>
-      <c r="T3" s="53" t="str">
+      <c r="T3" s="53">
         <f t="shared" ref="T3:T19" si="17">IF(R3="-","-",SUMIFS(GOLES_LOCAL,EQUIPO_LOCAL,$A3,Grupo_de_Empate_Criterio_1__Equipo_Visitante,$R3)+SUMIFS(GOLES_VISITANTE,EQUIPO_VISITANTE,$A3,Grupo_de_Empate__Criterio_1__Equipo_Local,$R3))</f>
-        <v>-</v>
-      </c>
-      <c r="U3" s="53" t="str">
+        <v>2</v>
+      </c>
+      <c r="U3" s="53">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V3" s="53" t="str">
+        <v>1</v>
+      </c>
+      <c r="V3" s="53">
         <f t="shared" ref="V3:V19" si="18">IF($R3="-","-",T3-U3)</f>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="W3" s="53">
         <f t="shared" ref="W3:W19" si="19">Q3+COUNTIFS(R$2:R$19,R3,V$2:V$19,"&gt;"&amp;V3)</f>
@@ -22888,11 +22953,11 @@
       </c>
       <c r="B4" s="53">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="53">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="53">
         <f t="shared" si="1"/>
@@ -22904,7 +22969,7 @@
       </c>
       <c r="F4" s="53">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G4" s="53">
         <f t="shared" si="4"/>
@@ -22912,15 +22977,15 @@
       </c>
       <c r="H4" s="53">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I4" s="53">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J4" s="53">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K4" s="53" t="str">
         <f t="shared" si="12"/>
@@ -22945,7 +23010,7 @@
       </c>
       <c r="Q4" s="53">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R4" s="53" t="str">
         <f t="shared" si="16"/>
@@ -22966,7 +23031,7 @@
       </c>
       <c r="W4" s="53">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X4" s="53" t="str">
         <f t="shared" si="20"/>
@@ -22979,7 +23044,7 @@
       </c>
       <c r="AA4" s="53">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB4" s="53" t="str">
         <f t="shared" si="23"/>
@@ -22992,7 +23057,7 @@
       </c>
       <c r="AE4" s="53">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF4" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23005,7 +23070,7 @@
       </c>
       <c r="AI4" s="53">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
@@ -23014,7 +23079,7 @@
       </c>
       <c r="B5" s="53">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="53">
         <f t="shared" si="0"/>
@@ -23026,7 +23091,7 @@
       </c>
       <c r="E5" s="53">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="53">
         <f t="shared" si="3"/>
@@ -23034,11 +23099,11 @@
       </c>
       <c r="G5" s="53">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" s="53">
         <f t="shared" si="9"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="I5" s="53">
         <f t="shared" si="10"/>
@@ -23046,62 +23111,62 @@
       </c>
       <c r="J5" s="53">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K5" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="L5" s="64"/>
-      <c r="M5" s="53">
+      <c r="M5" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="53">
+        <v>-</v>
+      </c>
+      <c r="N5" s="53" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="53">
+        <v>-</v>
+      </c>
+      <c r="O5" s="53" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="53">
+        <v>-</v>
+      </c>
+      <c r="P5" s="53" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="Q5" s="53">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R5" s="53" t="str">
         <f>IF(COUNTIF(Q$2:Q$19,Q5)=1,"-","Pos."&amp;Q5&amp;"("&amp;COUNTIF(Q$2:Q$19,Q5)&amp;")")</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="S5" s="65"/>
-      <c r="T5" s="53">
+      <c r="T5" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="53">
+        <v>-</v>
+      </c>
+      <c r="U5" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="53">
+        <v>-</v>
+      </c>
+      <c r="V5" s="53" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W5" s="53">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X5" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="Y5" s="63"/>
-      <c r="Z5" s="53">
+      <c r="Z5" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>-8</v>
+        <v>-</v>
       </c>
       <c r="AA5" s="53">
         <f t="shared" si="22"/>
@@ -23140,11 +23205,11 @@
       </c>
       <c r="B6" s="53">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="53">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="53">
         <f t="shared" si="1"/>
@@ -23156,7 +23221,7 @@
       </c>
       <c r="F6" s="53">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="53">
         <f t="shared" si="4"/>
@@ -23164,19 +23229,19 @@
       </c>
       <c r="H6" s="53">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6" s="53">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J6" s="53">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K6" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.6(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="L6" s="64"/>
       <c r="M6" s="53">
@@ -23197,54 +23262,54 @@
       </c>
       <c r="Q6" s="53">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R6" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>-</v>
+        <v>Pos.4(2)</v>
       </c>
       <c r="S6" s="65"/>
-      <c r="T6" s="53" t="str">
+      <c r="T6" s="53">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="U6" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="U6" s="53">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V6" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="V6" s="53">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="W6" s="53">
         <f>Q6+COUNTIFS(R$2:R$19,R6,V$2:V$19,"&gt;"&amp;V6)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X6" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>-</v>
+        <v>Pos.4(2)</v>
       </c>
       <c r="Y6" s="63"/>
-      <c r="Z6" s="53" t="str">
+      <c r="Z6" s="53">
         <f t="shared" si="21"/>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="AA6" s="53">
         <f t="shared" si="22"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AB6" s="53" t="str">
         <f t="shared" si="23"/>
-        <v>-</v>
+        <v>Pos.4(2)</v>
       </c>
       <c r="AC6" s="65"/>
-      <c r="AD6" s="53" t="str">
+      <c r="AD6" s="53">
         <f t="shared" si="24"/>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="AE6" s="53">
         <f t="shared" si="25"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF6" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23257,7 +23322,7 @@
       </c>
       <c r="AI6" s="53">
         <f t="shared" si="28"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
@@ -23266,7 +23331,7 @@
       </c>
       <c r="B7" s="53">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="53">
         <f t="shared" si="0"/>
@@ -23278,19 +23343,19 @@
       </c>
       <c r="E7" s="53">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="53">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="53">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H7" s="53">
         <f t="shared" si="9"/>
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="I7" s="53">
         <f t="shared" si="10"/>
@@ -23392,7 +23457,7 @@
       </c>
       <c r="B8" s="53">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="53">
         <f t="shared" si="0"/>
@@ -23404,7 +23469,7 @@
       </c>
       <c r="E8" s="53">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="53">
         <f t="shared" si="3"/>
@@ -23412,11 +23477,11 @@
       </c>
       <c r="G8" s="53">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H8" s="53">
         <f t="shared" si="9"/>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="I8" s="53">
         <f t="shared" si="10"/>
@@ -23424,11 +23489,11 @@
       </c>
       <c r="J8" s="53">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K8" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.9(2)</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="L8" s="64"/>
       <c r="M8" s="53">
@@ -23441,7 +23506,7 @@
       </c>
       <c r="O8" s="53">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="53">
         <f t="shared" si="14"/>
@@ -23449,11 +23514,11 @@
       </c>
       <c r="Q8" s="53">
         <f t="shared" si="15"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R8" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.9(2)</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="S8" s="65"/>
       <c r="T8" s="53">
@@ -23462,41 +23527,41 @@
       </c>
       <c r="U8" s="53">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" s="53">
         <f t="shared" si="18"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="53">
         <f t="shared" si="19"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X8" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="Y8" s="63"/>
-      <c r="Z8" s="53" t="str">
+      <c r="Z8" s="53">
         <f t="shared" si="21"/>
-        <v>-</v>
+        <v>-3</v>
       </c>
       <c r="AA8" s="53">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB8" s="53" t="str">
         <f t="shared" si="23"/>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="AC8" s="65"/>
-      <c r="AD8" s="53" t="str">
+      <c r="AD8" s="53">
         <f t="shared" si="24"/>
-        <v>-</v>
+        <v>4</v>
       </c>
       <c r="AE8" s="53">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF8" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23509,7 +23574,7 @@
       </c>
       <c r="AI8" s="53">
         <f t="shared" si="28"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
@@ -23518,7 +23583,7 @@
       </c>
       <c r="B9" s="53">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="53">
         <f t="shared" si="0"/>
@@ -23526,7 +23591,7 @@
       </c>
       <c r="D9" s="53">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" s="53">
         <f t="shared" si="2"/>
@@ -23534,11 +23599,11 @@
       </c>
       <c r="F9" s="53">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="53">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9" s="53">
         <f t="shared" si="9"/>
@@ -23546,7 +23611,7 @@
       </c>
       <c r="I9" s="53">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" s="53">
         <f t="shared" si="11"/>
@@ -23554,24 +23619,24 @@
       </c>
       <c r="K9" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="L9" s="64"/>
-      <c r="M9" s="53">
+      <c r="M9" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="53">
+        <v>-</v>
+      </c>
+      <c r="N9" s="53" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="53">
+        <v>-</v>
+      </c>
+      <c r="O9" s="53" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="53">
+        <v>-</v>
+      </c>
+      <c r="P9" s="53" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="Q9" s="53">
         <f>$J9+COUNTIFS(K$2:K$19,K9,$P$2:$P$19,"&gt;"&amp;P9)</f>
@@ -23579,20 +23644,20 @@
       </c>
       <c r="R9" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="S9" s="65"/>
-      <c r="T9" s="53">
+      <c r="T9" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="53">
+        <v>-</v>
+      </c>
+      <c r="U9" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="53">
+        <v>-</v>
+      </c>
+      <c r="V9" s="53" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W9" s="53">
         <f t="shared" si="19"/>
@@ -23600,12 +23665,12 @@
       </c>
       <c r="X9" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="Y9" s="63"/>
-      <c r="Z9" s="53">
+      <c r="Z9" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>-4</v>
+        <v>-</v>
       </c>
       <c r="AA9" s="53">
         <f t="shared" si="22"/>
@@ -23644,11 +23709,11 @@
       </c>
       <c r="B10" s="53">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="53">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="53">
         <f t="shared" si="1"/>
@@ -23660,19 +23725,19 @@
       </c>
       <c r="F10" s="53">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G10" s="53">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" s="53">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I10" s="53">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J10" s="53">
         <f t="shared" si="11"/>
@@ -23731,7 +23796,7 @@
       <c r="Y10" s="63"/>
       <c r="Z10" s="53">
         <f t="shared" si="21"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA10" s="53">
         <f t="shared" si="22"/>
@@ -23770,7 +23835,7 @@
       </c>
       <c r="B11" s="53">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="53">
         <f t="shared" si="0"/>
@@ -23782,7 +23847,7 @@
       </c>
       <c r="E11" s="53">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="53">
         <f t="shared" si="3"/>
@@ -23790,11 +23855,11 @@
       </c>
       <c r="G11" s="53">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H11" s="53">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I11" s="53">
         <f t="shared" si="10"/>
@@ -23802,66 +23867,66 @@
       </c>
       <c r="J11" s="53">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K11" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.12(3)</v>
+        <v>-</v>
       </c>
       <c r="L11" s="64"/>
-      <c r="M11" s="53">
+      <c r="M11" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="53">
+        <v>-</v>
+      </c>
+      <c r="N11" s="53" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="53">
+        <v>-</v>
+      </c>
+      <c r="O11" s="53" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="53">
+        <v>-</v>
+      </c>
+      <c r="P11" s="53" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="Q11" s="53">
         <f t="shared" si="15"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R11" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.12(3)</v>
+        <v>-</v>
       </c>
       <c r="S11" s="65"/>
-      <c r="T11" s="53">
+      <c r="T11" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="53">
+        <v>-</v>
+      </c>
+      <c r="U11" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="53">
+        <v>-</v>
+      </c>
+      <c r="V11" s="53" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W11" s="53">
         <f t="shared" si="19"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X11" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.12(3)</v>
+        <v>-</v>
       </c>
       <c r="Y11" s="63"/>
-      <c r="Z11" s="53">
+      <c r="Z11" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>-</v>
       </c>
       <c r="AA11" s="53">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AB11" s="53" t="str">
         <f t="shared" si="23"/>
@@ -23874,7 +23939,7 @@
       </c>
       <c r="AE11" s="53">
         <f t="shared" si="25"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF11" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23887,7 +23952,7 @@
       </c>
       <c r="AI11" s="53">
         <f t="shared" si="28"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
@@ -23896,7 +23961,7 @@
       </c>
       <c r="B12" s="53">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="53">
         <f t="shared" si="0"/>
@@ -23904,7 +23969,7 @@
       </c>
       <c r="D12" s="53">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="53">
         <f t="shared" si="2"/>
@@ -23924,70 +23989,70 @@
       </c>
       <c r="I12" s="53">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J12" s="53">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K12" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.12(3)</v>
+        <v>-</v>
       </c>
       <c r="L12" s="64"/>
-      <c r="M12" s="53">
+      <c r="M12" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="53">
+        <v>-</v>
+      </c>
+      <c r="N12" s="53" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="53">
+        <v>-</v>
+      </c>
+      <c r="O12" s="53" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="53">
+        <v>-</v>
+      </c>
+      <c r="P12" s="53" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="Q12" s="53">
         <f t="shared" si="15"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R12" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.12(3)</v>
+        <v>-</v>
       </c>
       <c r="S12" s="65"/>
-      <c r="T12" s="53">
+      <c r="T12" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="53">
+        <v>-</v>
+      </c>
+      <c r="U12" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="53">
+        <v>-</v>
+      </c>
+      <c r="V12" s="53" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W12" s="53">
         <f t="shared" si="19"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X12" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.12(3)</v>
+        <v>-</v>
       </c>
       <c r="Y12" s="63"/>
-      <c r="Z12" s="53">
+      <c r="Z12" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>-3</v>
+        <v>-</v>
       </c>
       <c r="AA12" s="53">
         <f t="shared" si="22"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB12" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24000,7 +24065,7 @@
       </c>
       <c r="AE12" s="53">
         <f t="shared" si="25"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF12" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24013,7 +24078,7 @@
       </c>
       <c r="AI12" s="53">
         <f t="shared" si="28"/>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
@@ -24022,7 +24087,7 @@
       </c>
       <c r="B13" s="53">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="53">
         <f t="shared" si="0"/>
@@ -24030,7 +24095,7 @@
       </c>
       <c r="D13" s="53">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="53">
         <f t="shared" si="2"/>
@@ -24050,20 +24115,20 @@
       </c>
       <c r="I13" s="53">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J13" s="53">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.3(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="L13" s="64"/>
       <c r="M13" s="53">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="53">
         <f t="shared" si="5"/>
@@ -24075,15 +24140,15 @@
       </c>
       <c r="P13" s="53">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q13" s="53">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R13" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.3(2)</v>
+        <v>Pos.4(2)</v>
       </c>
       <c r="S13" s="65"/>
       <c r="T13" s="53">
@@ -24100,11 +24165,11 @@
       </c>
       <c r="W13" s="53">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X13" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.3(2)</v>
+        <v>Pos.4(2)</v>
       </c>
       <c r="Y13" s="63"/>
       <c r="Z13" s="53">
@@ -24117,12 +24182,12 @@
       </c>
       <c r="AB13" s="53" t="str">
         <f t="shared" si="23"/>
-        <v>-</v>
+        <v>Pos.4(2)</v>
       </c>
       <c r="AC13" s="65"/>
-      <c r="AD13" s="53" t="str">
+      <c r="AD13" s="53">
         <f t="shared" si="24"/>
-        <v>-</v>
+        <v>8</v>
       </c>
       <c r="AE13" s="53">
         <f t="shared" si="25"/>
@@ -24148,11 +24213,11 @@
       </c>
       <c r="B14" s="53">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="53">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="53">
         <f t="shared" si="1"/>
@@ -24164,7 +24229,7 @@
       </c>
       <c r="F14" s="53">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" s="53">
         <f t="shared" si="4"/>
@@ -24172,24 +24237,24 @@
       </c>
       <c r="H14" s="53">
         <f t="shared" si="9"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I14" s="53">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J14" s="53">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K14" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.12(3)</v>
+        <v>Pos.8(3)</v>
       </c>
       <c r="L14" s="64"/>
       <c r="M14" s="53">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="53">
         <f t="shared" si="5"/>
@@ -24197,49 +24262,49 @@
       </c>
       <c r="O14" s="53">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="53">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q14" s="53">
         <f t="shared" si="15"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="R14" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.12(3)</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="S14" s="65"/>
       <c r="T14" s="53">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="53">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V14" s="53">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W14" s="53">
         <f t="shared" si="19"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X14" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.12(3)</v>
+        <v>-</v>
       </c>
       <c r="Y14" s="63"/>
-      <c r="Z14" s="53">
+      <c r="Z14" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>-2</v>
+        <v>-</v>
       </c>
       <c r="AA14" s="53">
         <f t="shared" si="22"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AB14" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24252,7 +24317,7 @@
       </c>
       <c r="AE14" s="53">
         <f t="shared" si="25"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AF14" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24265,7 +24330,7 @@
       </c>
       <c r="AI14" s="53">
         <f t="shared" si="28"/>
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
@@ -24274,7 +24339,7 @@
       </c>
       <c r="B15" s="53">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" s="53">
         <f t="shared" si="0"/>
@@ -24282,7 +24347,7 @@
       </c>
       <c r="D15" s="53">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="53">
         <f t="shared" si="2"/>
@@ -24290,11 +24355,11 @@
       </c>
       <c r="F15" s="53">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="53">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" s="53">
         <f t="shared" si="9"/>
@@ -24302,7 +24367,7 @@
       </c>
       <c r="I15" s="53">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="53">
         <f t="shared" si="11"/>
@@ -24400,11 +24465,11 @@
       </c>
       <c r="B16" s="53">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" s="53">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="53">
         <f t="shared" si="1"/>
@@ -24416,7 +24481,7 @@
       </c>
       <c r="F16" s="53">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G16" s="53">
         <f t="shared" si="4"/>
@@ -24424,11 +24489,11 @@
       </c>
       <c r="H16" s="53">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I16" s="53">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J16" s="53">
         <f t="shared" si="11"/>
@@ -24487,7 +24552,7 @@
       <c r="Y16" s="63"/>
       <c r="Z16" s="53">
         <f t="shared" si="21"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA16" s="53">
         <f t="shared" si="22"/>
@@ -24526,7 +24591,7 @@
       </c>
       <c r="B17" s="53">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="53">
         <f t="shared" si="0"/>
@@ -24538,7 +24603,7 @@
       </c>
       <c r="E17" s="53">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="53">
         <f t="shared" si="3"/>
@@ -24546,11 +24611,11 @@
       </c>
       <c r="G17" s="53">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" s="53">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I17" s="53">
         <f t="shared" si="10"/>
@@ -24558,66 +24623,66 @@
       </c>
       <c r="J17" s="53">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K17" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.3(2)</v>
+        <v>-</v>
       </c>
       <c r="L17" s="64"/>
-      <c r="M17" s="53">
+      <c r="M17" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="53">
+        <v>-</v>
+      </c>
+      <c r="N17" s="53" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="53">
+        <v>-</v>
+      </c>
+      <c r="O17" s="53" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="53">
+        <v>-</v>
+      </c>
+      <c r="P17" s="53" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="Q17" s="53">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R17" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.3(2)</v>
+        <v>-</v>
       </c>
       <c r="S17" s="65"/>
-      <c r="T17" s="53">
+      <c r="T17" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="53">
+        <v>-</v>
+      </c>
+      <c r="U17" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="53">
+        <v>-</v>
+      </c>
+      <c r="V17" s="53" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W17" s="53">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X17" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.3(2)</v>
+        <v>-</v>
       </c>
       <c r="Y17" s="63"/>
-      <c r="Z17" s="53">
+      <c r="Z17" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>10</v>
+        <v>-</v>
       </c>
       <c r="AA17" s="53">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB17" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24630,7 +24695,7 @@
       </c>
       <c r="AE17" s="53">
         <f t="shared" si="25"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AF17" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24643,7 +24708,7 @@
       </c>
       <c r="AI17" s="53">
         <f t="shared" si="28"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
@@ -24652,7 +24717,7 @@
       </c>
       <c r="B18" s="53">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="53">
         <f t="shared" si="0"/>
@@ -24660,7 +24725,7 @@
       </c>
       <c r="D18" s="53">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="53">
         <f t="shared" si="2"/>
@@ -24668,11 +24733,11 @@
       </c>
       <c r="F18" s="53">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G18" s="53">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H18" s="53">
         <f t="shared" si="9"/>
@@ -24680,7 +24745,7 @@
       </c>
       <c r="I18" s="53">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J18" s="53">
         <f t="shared" si="11"/>
@@ -24688,24 +24753,24 @@
       </c>
       <c r="K18" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="L18" s="64"/>
-      <c r="M18" s="53" t="str">
+      <c r="M18" s="53">
         <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="N18" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="N18" s="53">
         <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="O18" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="O18" s="53">
         <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="P18" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="P18" s="53">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="53">
         <f t="shared" si="15"/>
@@ -24713,20 +24778,20 @@
       </c>
       <c r="R18" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="S18" s="65"/>
-      <c r="T18" s="53" t="str">
+      <c r="T18" s="53">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="U18" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="U18" s="53">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V18" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="V18" s="53">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="W18" s="53">
         <f t="shared" si="19"/>
@@ -24734,12 +24799,12 @@
       </c>
       <c r="X18" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="Y18" s="63"/>
-      <c r="Z18" s="53" t="str">
+      <c r="Z18" s="53">
         <f t="shared" si="21"/>
-        <v>-</v>
+        <v>-3</v>
       </c>
       <c r="AA18" s="53">
         <f t="shared" si="22"/>
@@ -24747,12 +24812,12 @@
       </c>
       <c r="AB18" s="53" t="str">
         <f t="shared" si="23"/>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="AC18" s="65"/>
-      <c r="AD18" s="53" t="str">
+      <c r="AD18" s="53">
         <f t="shared" si="24"/>
-        <v>-</v>
+        <v>9</v>
       </c>
       <c r="AE18" s="53">
         <f t="shared" si="25"/>
@@ -24778,11 +24843,11 @@
       </c>
       <c r="B19" s="53">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" s="53">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" s="53">
         <f t="shared" si="1"/>
@@ -24794,7 +24859,7 @@
       </c>
       <c r="F19" s="53">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G19" s="53">
         <f t="shared" si="4"/>
@@ -24802,19 +24867,19 @@
       </c>
       <c r="H19" s="53">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" s="53">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J19" s="53">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K19" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.6(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="L19" s="64"/>
       <c r="M19" s="53">
@@ -24827,7 +24892,7 @@
       </c>
       <c r="O19" s="53">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" s="53">
         <f t="shared" si="14"/>
@@ -24835,7 +24900,7 @@
       </c>
       <c r="Q19" s="53">
         <f t="shared" si="15"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19" s="53" t="str">
         <f t="shared" si="16"/>
@@ -24856,7 +24921,7 @@
       </c>
       <c r="W19" s="53">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X19" s="53" t="str">
         <f t="shared" si="20"/>
@@ -24869,7 +24934,7 @@
       </c>
       <c r="AA19" s="53">
         <f t="shared" si="22"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB19" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24882,7 +24947,7 @@
       </c>
       <c r="AE19" s="53">
         <f t="shared" si="25"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF19" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24895,7 +24960,7 @@
       </c>
       <c r="AI19" s="53">
         <f t="shared" si="28"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -24962,15 +25027,15 @@
       </c>
       <c r="C2" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -24982,7 +25047,7 @@
       </c>
       <c r="H2" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I2" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -24990,7 +25055,7 @@
       </c>
       <c r="J2" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -25003,15 +25068,15 @@
       </c>
       <c r="C3" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25023,15 +25088,15 @@
       </c>
       <c r="H3" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I3" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -25040,39 +25105,39 @@
       </c>
       <c r="B4" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Salamanca UDS</v>
+        <v>Atlético Tordesillas</v>
       </c>
       <c r="C4" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -25085,11 +25150,11 @@
       </c>
       <c r="C5" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25097,7 +25162,7 @@
       </c>
       <c r="F5" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25122,15 +25187,15 @@
       </c>
       <c r="B6" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Atlético Tordesillas</v>
+        <v>Burgos CF B</v>
       </c>
       <c r="C6" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25138,19 +25203,19 @@
       </c>
       <c r="F6" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I6" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25163,35 +25228,35 @@
       </c>
       <c r="B7" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Burgos CF B</v>
+        <v>UD. Santa Marta</v>
       </c>
       <c r="C7" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I7" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25204,15 +25269,15 @@
       </c>
       <c r="B8" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>UD. Santa Marta</v>
+        <v>Salamanca UDS</v>
       </c>
       <c r="C8" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D8" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25220,23 +25285,23 @@
       </c>
       <c r="F8" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I8" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -25253,7 +25318,7 @@
       </c>
       <c r="D9" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25265,7 +25330,7 @@
       </c>
       <c r="G9" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25273,11 +25338,11 @@
       </c>
       <c r="I9" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J9" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -25286,15 +25351,15 @@
       </c>
       <c r="B10" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Atco. Bembibre</v>
+        <v>Palencia Cristo Atlético</v>
       </c>
       <c r="C10" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25302,7 +25367,7 @@
       </c>
       <c r="F10" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25310,15 +25375,15 @@
       </c>
       <c r="H10" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I10" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J10" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -25327,15 +25392,15 @@
       </c>
       <c r="B11" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>CD. Villaralbo</v>
+        <v>Atco. Bembibre</v>
       </c>
       <c r="C11" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25343,7 +25408,7 @@
       </c>
       <c r="F11" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25351,7 +25416,7 @@
       </c>
       <c r="H11" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I11" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25359,7 +25424,7 @@
       </c>
       <c r="J11" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -25372,11 +25437,11 @@
       </c>
       <c r="C12" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25384,7 +25449,7 @@
       </c>
       <c r="F12" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25392,11 +25457,11 @@
       </c>
       <c r="H12" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I12" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J12" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25409,39 +25474,39 @@
       </c>
       <c r="B13" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>La Virgen del Camino</v>
+        <v>CD. Villaralbo</v>
       </c>
       <c r="C13" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I13" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J13" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -25450,15 +25515,15 @@
       </c>
       <c r="B14" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Palencia Cristo Atlético</v>
+        <v>Mirandés B</v>
       </c>
       <c r="C14" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25466,7 +25531,7 @@
       </c>
       <c r="F14" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25474,7 +25539,7 @@
       </c>
       <c r="H14" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25482,7 +25547,7 @@
       </c>
       <c r="J14" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -25491,7 +25556,7 @@
       </c>
       <c r="B15" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Mirandés B</v>
+        <v>La Virgen del Camino</v>
       </c>
       <c r="C15" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25499,7 +25564,7 @@
       </c>
       <c r="D15" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25511,19 +25576,19 @@
       </c>
       <c r="G15" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I15" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J15" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -25536,11 +25601,11 @@
       </c>
       <c r="C16" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25548,7 +25613,7 @@
       </c>
       <c r="F16" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25556,11 +25621,11 @@
       </c>
       <c r="H16" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J16" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25581,7 +25646,7 @@
       </c>
       <c r="D17" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25593,7 +25658,7 @@
       </c>
       <c r="G17" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25601,11 +25666,11 @@
       </c>
       <c r="I17" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J17" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-8</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -25618,11 +25683,11 @@
       </c>
       <c r="C18" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25630,7 +25695,7 @@
       </c>
       <c r="F18" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25638,11 +25703,11 @@
       </c>
       <c r="H18" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J18" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25663,7 +25728,7 @@
       </c>
       <c r="D19" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25675,19 +25740,19 @@
       </c>
       <c r="G19" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H19" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J19" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-13</v>
+        <v>-14</v>
       </c>
     </row>
   </sheetData>
@@ -27134,241 +27199,241 @@
       <c r="B2" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
       <c r="H2" s="36" t="s">
         <v>80</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="131" t="s">
+      <c r="K2" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
       <c r="P2" s="34" t="s">
         <v>53</v>
       </c>
       <c r="R2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="S2" s="131" t="s">
+      <c r="S2" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="T2" s="131"/>
-      <c r="U2" s="131"/>
-      <c r="V2" s="131"/>
-      <c r="W2" s="131"/>
+      <c r="T2" s="132"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="132"/>
       <c r="X2" s="34" t="s">
         <v>96</v>
       </c>
       <c r="Z2" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="AA2" s="131" t="s">
+      <c r="AA2" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="131"/>
-      <c r="AD2" s="131"/>
-      <c r="AE2" s="131"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="132"/>
+      <c r="AD2" s="132"/>
+      <c r="AE2" s="132"/>
       <c r="AF2" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="AH2" s="146" t="s">
+      <c r="AH2" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="147"/>
-      <c r="AJ2" s="147"/>
-      <c r="AK2" s="147"/>
-      <c r="AL2" s="147"/>
-      <c r="AM2" s="147"/>
-      <c r="AN2" s="148"/>
-      <c r="AP2" s="146" t="s">
+      <c r="AI2" s="142"/>
+      <c r="AJ2" s="142"/>
+      <c r="AK2" s="142"/>
+      <c r="AL2" s="142"/>
+      <c r="AM2" s="142"/>
+      <c r="AN2" s="143"/>
+      <c r="AP2" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="AQ2" s="147"/>
-      <c r="AR2" s="147"/>
-      <c r="AS2" s="147"/>
-      <c r="AT2" s="147"/>
-      <c r="AU2" s="147"/>
-      <c r="AV2" s="148"/>
-      <c r="AX2" s="146" t="s">
+      <c r="AQ2" s="142"/>
+      <c r="AR2" s="142"/>
+      <c r="AS2" s="142"/>
+      <c r="AT2" s="142"/>
+      <c r="AU2" s="142"/>
+      <c r="AV2" s="143"/>
+      <c r="AX2" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="AY2" s="147"/>
-      <c r="AZ2" s="147"/>
-      <c r="BA2" s="147"/>
-      <c r="BB2" s="147"/>
-      <c r="BC2" s="147"/>
-      <c r="BD2" s="148"/>
-      <c r="BF2" s="146" t="s">
+      <c r="AY2" s="142"/>
+      <c r="AZ2" s="142"/>
+      <c r="BA2" s="142"/>
+      <c r="BB2" s="142"/>
+      <c r="BC2" s="142"/>
+      <c r="BD2" s="143"/>
+      <c r="BF2" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="BG2" s="147"/>
-      <c r="BH2" s="147"/>
-      <c r="BI2" s="147"/>
-      <c r="BJ2" s="147"/>
-      <c r="BK2" s="147"/>
-      <c r="BL2" s="148"/>
-      <c r="BN2" s="146" t="s">
+      <c r="BG2" s="142"/>
+      <c r="BH2" s="142"/>
+      <c r="BI2" s="142"/>
+      <c r="BJ2" s="142"/>
+      <c r="BK2" s="142"/>
+      <c r="BL2" s="143"/>
+      <c r="BN2" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="BO2" s="147"/>
-      <c r="BP2" s="147"/>
-      <c r="BQ2" s="147"/>
-      <c r="BR2" s="147"/>
-      <c r="BS2" s="147"/>
-      <c r="BT2" s="148"/>
-      <c r="BV2" s="146" t="s">
+      <c r="BO2" s="142"/>
+      <c r="BP2" s="142"/>
+      <c r="BQ2" s="142"/>
+      <c r="BR2" s="142"/>
+      <c r="BS2" s="142"/>
+      <c r="BT2" s="143"/>
+      <c r="BV2" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="BW2" s="147"/>
-      <c r="BX2" s="147"/>
-      <c r="BY2" s="147"/>
-      <c r="BZ2" s="147"/>
-      <c r="CA2" s="147"/>
-      <c r="CB2" s="148"/>
+      <c r="BW2" s="142"/>
+      <c r="BX2" s="142"/>
+      <c r="BY2" s="142"/>
+      <c r="BZ2" s="142"/>
+      <c r="CA2" s="142"/>
+      <c r="CB2" s="143"/>
     </row>
     <row r="3" spans="2:80" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="132" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="145" t="s">
+      <c r="B3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="134" t="s">
+      <c r="F3" s="149"/>
+      <c r="G3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="135"/>
-      <c r="J3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
+      <c r="H3" s="140"/>
+      <c r="J3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
       <c r="M3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="144"/>
-      <c r="O3" s="142" t="s">
+      <c r="O3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="143"/>
-      <c r="R3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="141"/>
-      <c r="T3" s="141"/>
+      <c r="P3" s="146"/>
+      <c r="R3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
       <c r="U3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="V3" s="144"/>
-      <c r="W3" s="142" t="s">
+      <c r="W3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="143"/>
-      <c r="Z3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="141"/>
-      <c r="AB3" s="141"/>
+      <c r="X3" s="146"/>
+      <c r="Z3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
       <c r="AC3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="AD3" s="144"/>
-      <c r="AE3" s="142" t="s">
+      <c r="AE3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="143"/>
-      <c r="AH3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="141"/>
-      <c r="AJ3" s="141"/>
+      <c r="AF3" s="146"/>
+      <c r="AH3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="148"/>
+      <c r="AJ3" s="148"/>
       <c r="AK3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="AL3" s="144"/>
-      <c r="AM3" s="142" t="s">
+      <c r="AM3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="143"/>
-      <c r="AP3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="141"/>
-      <c r="AR3" s="141"/>
+      <c r="AN3" s="146"/>
+      <c r="AP3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="148"/>
+      <c r="AR3" s="148"/>
       <c r="AS3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="AT3" s="144"/>
-      <c r="AU3" s="142" t="s">
+      <c r="AU3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="143"/>
-      <c r="AX3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="141"/>
-      <c r="AZ3" s="141"/>
+      <c r="AV3" s="146"/>
+      <c r="AX3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="148"/>
+      <c r="AZ3" s="148"/>
       <c r="BA3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="BB3" s="144"/>
-      <c r="BC3" s="142" t="s">
+      <c r="BC3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="143"/>
-      <c r="BF3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="141"/>
-      <c r="BH3" s="141"/>
+      <c r="BD3" s="146"/>
+      <c r="BF3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="148"/>
+      <c r="BH3" s="148"/>
       <c r="BI3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="BJ3" s="144"/>
-      <c r="BK3" s="142" t="s">
+      <c r="BK3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="143"/>
-      <c r="BN3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="141"/>
-      <c r="BP3" s="141"/>
+      <c r="BL3" s="146"/>
+      <c r="BN3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="148"/>
+      <c r="BP3" s="148"/>
       <c r="BQ3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="BR3" s="144"/>
-      <c r="BS3" s="142" t="s">
+      <c r="BS3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="143"/>
-      <c r="BV3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="141"/>
-      <c r="BX3" s="141"/>
+      <c r="BT3" s="146"/>
+      <c r="BV3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="148"/>
+      <c r="BX3" s="148"/>
       <c r="BY3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="BZ3" s="144"/>
-      <c r="CA3" s="142" t="s">
+      <c r="CA3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="143"/>
+      <c r="CB3" s="146"/>
     </row>
     <row r="4" spans="2:80" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -29886,12 +29951,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="AX2:BD2"/>
-    <mergeCell ref="BF2:BL2"/>
-    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="BN2:BT2"/>
     <mergeCell ref="BV2:CB2"/>
     <mergeCell ref="AH2:AN2"/>
@@ -29908,24 +29985,12 @@
     <mergeCell ref="AX3:AZ3"/>
     <mergeCell ref="BA3:BB3"/>
     <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="AX2:BD2"/>
+    <mergeCell ref="BF2:BL2"/>
+    <mergeCell ref="AA2:AE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31161,30 +31226,30 @@
     </row>
     <row r="38" spans="6:23" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="6:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="F39" s="149" t="s">
+      <c r="F39" s="150" t="s">
         <v>46</v>
       </c>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="151"/>
+      <c r="G39" s="151"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="151"/>
+      <c r="K39" s="151"/>
+      <c r="L39" s="152"/>
     </row>
     <row r="40" spans="6:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="F40" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="141"/>
-      <c r="H40" s="141"/>
+      <c r="F40" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
       <c r="I40" s="144" t="s">
         <v>4</v>
       </c>
       <c r="J40" s="144"/>
-      <c r="K40" s="142" t="s">
+      <c r="K40" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="143"/>
+      <c r="L40" s="146"/>
     </row>
     <row r="41" spans="6:23" ht="19" x14ac:dyDescent="0.25">
       <c r="F41" s="14" t="s">
@@ -31862,8 +31927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:EF25"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AN7" sqref="AN7"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31892,7 +31957,7 @@
     <col min="37" max="37" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="38" max="39" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="19" bestFit="1" customWidth="1"/>
     <col min="43" max="44" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="46" max="47" width="7.33203125" bestFit="1" customWidth="1"/>
@@ -31959,399 +32024,403 @@
       <c r="B2" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="132" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
       <c r="H2" s="36" t="s">
         <v>71</v>
       </c>
       <c r="J2" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="K2" s="131" t="s">
+      <c r="K2" s="132" t="s">
         <v>180</v>
       </c>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
       <c r="P2" s="123" t="s">
         <v>185</v>
       </c>
       <c r="R2" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="S2" s="131" t="s">
+      <c r="S2" s="132" t="s">
         <v>181</v>
       </c>
-      <c r="T2" s="131"/>
-      <c r="U2" s="131"/>
-      <c r="V2" s="131"/>
-      <c r="W2" s="131"/>
+      <c r="T2" s="132"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="132"/>
       <c r="X2" s="123" t="s">
         <v>186</v>
       </c>
       <c r="Z2" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="AA2" s="131" t="s">
+      <c r="AA2" s="132" t="s">
         <v>188</v>
       </c>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="131"/>
-      <c r="AD2" s="131"/>
-      <c r="AE2" s="131"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="132"/>
+      <c r="AD2" s="132"/>
+      <c r="AE2" s="132"/>
       <c r="AF2" s="130" t="s">
         <v>189</v>
       </c>
       <c r="AH2" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="AI2" s="131" t="s">
+      <c r="AI2" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="AJ2" s="131"/>
-      <c r="AK2" s="131"/>
-      <c r="AL2" s="131"/>
-      <c r="AM2" s="131"/>
-      <c r="AN2" s="152" t="s">
+      <c r="AJ2" s="132"/>
+      <c r="AK2" s="132"/>
+      <c r="AL2" s="132"/>
+      <c r="AM2" s="132"/>
+      <c r="AN2" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="AP2" s="146" t="s">
-        <v>34</v>
-      </c>
-      <c r="AQ2" s="147"/>
-      <c r="AR2" s="147"/>
-      <c r="AS2" s="147"/>
-      <c r="AT2" s="147"/>
-      <c r="AU2" s="147"/>
-      <c r="AV2" s="148"/>
-      <c r="AX2" s="146" t="s">
+      <c r="AP2" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ2" s="132" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR2" s="132"/>
+      <c r="AS2" s="132"/>
+      <c r="AT2" s="132"/>
+      <c r="AU2" s="132"/>
+      <c r="AV2" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="AX2" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="AY2" s="147"/>
-      <c r="AZ2" s="147"/>
-      <c r="BA2" s="147"/>
-      <c r="BB2" s="147"/>
-      <c r="BC2" s="147"/>
-      <c r="BD2" s="148"/>
-      <c r="BF2" s="146" t="s">
+      <c r="AY2" s="142"/>
+      <c r="AZ2" s="142"/>
+      <c r="BA2" s="142"/>
+      <c r="BB2" s="142"/>
+      <c r="BC2" s="142"/>
+      <c r="BD2" s="143"/>
+      <c r="BF2" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="BG2" s="147"/>
-      <c r="BH2" s="147"/>
-      <c r="BI2" s="147"/>
-      <c r="BJ2" s="147"/>
-      <c r="BK2" s="147"/>
-      <c r="BL2" s="148"/>
-      <c r="BN2" s="146" t="s">
+      <c r="BG2" s="142"/>
+      <c r="BH2" s="142"/>
+      <c r="BI2" s="142"/>
+      <c r="BJ2" s="142"/>
+      <c r="BK2" s="142"/>
+      <c r="BL2" s="143"/>
+      <c r="BN2" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="BO2" s="147"/>
-      <c r="BP2" s="147"/>
-      <c r="BQ2" s="147"/>
-      <c r="BR2" s="147"/>
-      <c r="BS2" s="147"/>
-      <c r="BT2" s="148"/>
-      <c r="BV2" s="146" t="s">
+      <c r="BO2" s="142"/>
+      <c r="BP2" s="142"/>
+      <c r="BQ2" s="142"/>
+      <c r="BR2" s="142"/>
+      <c r="BS2" s="142"/>
+      <c r="BT2" s="143"/>
+      <c r="BV2" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="BW2" s="147"/>
-      <c r="BX2" s="147"/>
-      <c r="BY2" s="147"/>
-      <c r="BZ2" s="147"/>
-      <c r="CA2" s="147"/>
-      <c r="CB2" s="148"/>
-      <c r="CD2" s="146" t="s">
+      <c r="BW2" s="142"/>
+      <c r="BX2" s="142"/>
+      <c r="BY2" s="142"/>
+      <c r="BZ2" s="142"/>
+      <c r="CA2" s="142"/>
+      <c r="CB2" s="143"/>
+      <c r="CD2" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="CE2" s="147"/>
-      <c r="CF2" s="147"/>
-      <c r="CG2" s="147"/>
-      <c r="CH2" s="147"/>
-      <c r="CI2" s="147"/>
-      <c r="CJ2" s="148"/>
-      <c r="CL2" s="146" t="s">
+      <c r="CE2" s="142"/>
+      <c r="CF2" s="142"/>
+      <c r="CG2" s="142"/>
+      <c r="CH2" s="142"/>
+      <c r="CI2" s="142"/>
+      <c r="CJ2" s="143"/>
+      <c r="CL2" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="CM2" s="147"/>
-      <c r="CN2" s="147"/>
-      <c r="CO2" s="147"/>
-      <c r="CP2" s="147"/>
-      <c r="CQ2" s="147"/>
-      <c r="CR2" s="148"/>
-      <c r="CT2" s="146" t="s">
+      <c r="CM2" s="142"/>
+      <c r="CN2" s="142"/>
+      <c r="CO2" s="142"/>
+      <c r="CP2" s="142"/>
+      <c r="CQ2" s="142"/>
+      <c r="CR2" s="143"/>
+      <c r="CT2" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="CU2" s="147"/>
-      <c r="CV2" s="147"/>
-      <c r="CW2" s="147"/>
-      <c r="CX2" s="147"/>
-      <c r="CY2" s="147"/>
-      <c r="CZ2" s="148"/>
-      <c r="DB2" s="146" t="s">
+      <c r="CU2" s="142"/>
+      <c r="CV2" s="142"/>
+      <c r="CW2" s="142"/>
+      <c r="CX2" s="142"/>
+      <c r="CY2" s="142"/>
+      <c r="CZ2" s="143"/>
+      <c r="DB2" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="DC2" s="147"/>
-      <c r="DD2" s="147"/>
-      <c r="DE2" s="147"/>
-      <c r="DF2" s="147"/>
-      <c r="DG2" s="147"/>
-      <c r="DH2" s="148"/>
-      <c r="DJ2" s="146" t="s">
+      <c r="DC2" s="142"/>
+      <c r="DD2" s="142"/>
+      <c r="DE2" s="142"/>
+      <c r="DF2" s="142"/>
+      <c r="DG2" s="142"/>
+      <c r="DH2" s="143"/>
+      <c r="DJ2" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="DK2" s="147"/>
-      <c r="DL2" s="147"/>
-      <c r="DM2" s="147"/>
-      <c r="DN2" s="147"/>
-      <c r="DO2" s="147"/>
-      <c r="DP2" s="148"/>
-      <c r="DR2" s="146" t="s">
+      <c r="DK2" s="142"/>
+      <c r="DL2" s="142"/>
+      <c r="DM2" s="142"/>
+      <c r="DN2" s="142"/>
+      <c r="DO2" s="142"/>
+      <c r="DP2" s="143"/>
+      <c r="DR2" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="DS2" s="147"/>
-      <c r="DT2" s="147"/>
-      <c r="DU2" s="147"/>
-      <c r="DV2" s="147"/>
-      <c r="DW2" s="147"/>
-      <c r="DX2" s="148"/>
-      <c r="DZ2" s="146" t="s">
+      <c r="DS2" s="142"/>
+      <c r="DT2" s="142"/>
+      <c r="DU2" s="142"/>
+      <c r="DV2" s="142"/>
+      <c r="DW2" s="142"/>
+      <c r="DX2" s="143"/>
+      <c r="DZ2" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="EA2" s="147"/>
-      <c r="EB2" s="147"/>
-      <c r="EC2" s="147"/>
-      <c r="ED2" s="147"/>
-      <c r="EE2" s="147"/>
-      <c r="EF2" s="148"/>
+      <c r="EA2" s="142"/>
+      <c r="EB2" s="142"/>
+      <c r="EC2" s="142"/>
+      <c r="ED2" s="142"/>
+      <c r="EE2" s="142"/>
+      <c r="EF2" s="143"/>
     </row>
     <row r="3" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
+      <c r="B3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
       <c r="E3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="144"/>
-      <c r="G3" s="142" t="s">
+      <c r="G3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="143"/>
-      <c r="J3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
+      <c r="H3" s="146"/>
+      <c r="J3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
       <c r="M3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="144"/>
-      <c r="O3" s="142" t="s">
+      <c r="O3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="143"/>
-      <c r="R3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="141"/>
-      <c r="T3" s="141"/>
+      <c r="P3" s="146"/>
+      <c r="R3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
       <c r="U3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="V3" s="144"/>
-      <c r="W3" s="142" t="s">
+      <c r="W3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="143"/>
-      <c r="Z3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="141"/>
-      <c r="AB3" s="141"/>
+      <c r="X3" s="146"/>
+      <c r="Z3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
       <c r="AC3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="AD3" s="144"/>
-      <c r="AE3" s="142" t="s">
+      <c r="AE3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="143"/>
-      <c r="AH3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="141"/>
-      <c r="AJ3" s="141"/>
+      <c r="AF3" s="146"/>
+      <c r="AH3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="148"/>
+      <c r="AJ3" s="148"/>
       <c r="AK3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="AL3" s="144"/>
-      <c r="AM3" s="142" t="s">
+      <c r="AM3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="143"/>
-      <c r="AP3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="141"/>
-      <c r="AR3" s="141"/>
+      <c r="AN3" s="146"/>
+      <c r="AP3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="148"/>
+      <c r="AR3" s="148"/>
       <c r="AS3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="AT3" s="144"/>
-      <c r="AU3" s="142" t="s">
+      <c r="AU3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="143"/>
-      <c r="AX3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="141"/>
-      <c r="AZ3" s="141"/>
+      <c r="AV3" s="146"/>
+      <c r="AX3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="148"/>
+      <c r="AZ3" s="148"/>
       <c r="BA3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="BB3" s="144"/>
-      <c r="BC3" s="142" t="s">
+      <c r="BC3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="143"/>
-      <c r="BF3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="141"/>
-      <c r="BH3" s="141"/>
+      <c r="BD3" s="146"/>
+      <c r="BF3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="148"/>
+      <c r="BH3" s="148"/>
       <c r="BI3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="BJ3" s="144"/>
-      <c r="BK3" s="142" t="s">
+      <c r="BK3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="143"/>
-      <c r="BN3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="141"/>
-      <c r="BP3" s="141"/>
+      <c r="BL3" s="146"/>
+      <c r="BN3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="148"/>
+      <c r="BP3" s="148"/>
       <c r="BQ3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="BR3" s="144"/>
-      <c r="BS3" s="142" t="s">
+      <c r="BS3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="143"/>
-      <c r="BV3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="141"/>
-      <c r="BX3" s="141"/>
+      <c r="BT3" s="146"/>
+      <c r="BV3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="148"/>
+      <c r="BX3" s="148"/>
       <c r="BY3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="BZ3" s="144"/>
-      <c r="CA3" s="142" t="s">
+      <c r="CA3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="143"/>
-      <c r="CD3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="141"/>
-      <c r="CF3" s="141"/>
+      <c r="CB3" s="146"/>
+      <c r="CD3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="148"/>
+      <c r="CF3" s="148"/>
       <c r="CG3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="CH3" s="144"/>
-      <c r="CI3" s="142" t="s">
+      <c r="CI3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CJ3" s="143"/>
-      <c r="CL3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="141"/>
-      <c r="CN3" s="141"/>
+      <c r="CJ3" s="146"/>
+      <c r="CL3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="148"/>
+      <c r="CN3" s="148"/>
       <c r="CO3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="CP3" s="144"/>
-      <c r="CQ3" s="142" t="s">
+      <c r="CQ3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CR3" s="143"/>
-      <c r="CT3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="141"/>
-      <c r="CV3" s="141"/>
+      <c r="CR3" s="146"/>
+      <c r="CT3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="148"/>
+      <c r="CV3" s="148"/>
       <c r="CW3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="CX3" s="144"/>
-      <c r="CY3" s="142" t="s">
+      <c r="CY3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CZ3" s="143"/>
-      <c r="DB3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="DC3" s="141"/>
-      <c r="DD3" s="141"/>
+      <c r="CZ3" s="146"/>
+      <c r="DB3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="148"/>
+      <c r="DD3" s="148"/>
       <c r="DE3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="DF3" s="144"/>
-      <c r="DG3" s="142" t="s">
+      <c r="DG3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="DH3" s="143"/>
-      <c r="DJ3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="DK3" s="141"/>
-      <c r="DL3" s="141"/>
+      <c r="DH3" s="146"/>
+      <c r="DJ3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="148"/>
+      <c r="DL3" s="148"/>
       <c r="DM3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="DN3" s="144"/>
-      <c r="DO3" s="142" t="s">
+      <c r="DO3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="DP3" s="143"/>
-      <c r="DR3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS3" s="141"/>
-      <c r="DT3" s="141"/>
+      <c r="DP3" s="146"/>
+      <c r="DR3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS3" s="148"/>
+      <c r="DT3" s="148"/>
       <c r="DU3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="DV3" s="144"/>
-      <c r="DW3" s="142" t="s">
+      <c r="DW3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="DX3" s="143"/>
-      <c r="DZ3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="EA3" s="141"/>
-      <c r="EB3" s="141"/>
+      <c r="DX3" s="146"/>
+      <c r="DZ3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="148"/>
+      <c r="EB3" s="148"/>
       <c r="EC3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="ED3" s="144"/>
-      <c r="EE3" s="142" t="s">
+      <c r="EE3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="EF3" s="143"/>
+      <c r="EF3" s="146"/>
     </row>
     <row r="4" spans="2:136" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -32781,7 +32850,9 @@
       <c r="AP5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AQ5" s="7"/>
+      <c r="AQ5" s="7">
+        <v>1</v>
+      </c>
       <c r="AR5" s="7"/>
       <c r="AS5" s="7"/>
       <c r="AT5" s="7"/>
@@ -33115,8 +33186,12 @@
       <c r="AP7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AQ7" s="7"/>
-      <c r="AR7" s="7"/>
+      <c r="AQ7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="7">
+        <v>68</v>
+      </c>
       <c r="AS7" s="7"/>
       <c r="AT7" s="7"/>
       <c r="AU7" s="7"/>
@@ -33438,7 +33513,9 @@
         <v>14</v>
       </c>
       <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
+      <c r="AR9" s="7">
+        <v>22</v>
+      </c>
       <c r="AS9" s="7"/>
       <c r="AT9" s="7"/>
       <c r="AU9" s="7"/>
@@ -33612,7 +33689,9 @@
       <c r="AP10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AQ10" s="7"/>
+      <c r="AQ10" s="7">
+        <v>1</v>
+      </c>
       <c r="AR10" s="7"/>
       <c r="AS10" s="7"/>
       <c r="AT10" s="7"/>
@@ -33789,9 +33868,15 @@
       <c r="AP11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
-      <c r="AS11" s="7"/>
+      <c r="AQ11" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="7">
+        <v>60</v>
+      </c>
+      <c r="AS11" s="7">
+        <v>1</v>
+      </c>
       <c r="AT11" s="7"/>
       <c r="AU11" s="7"/>
       <c r="AV11" s="8"/>
@@ -33951,7 +34036,9 @@
         <v>17</v>
       </c>
       <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
+      <c r="AR12" s="7">
+        <v>30</v>
+      </c>
       <c r="AS12" s="7"/>
       <c r="AT12" s="7"/>
       <c r="AU12" s="7"/>
@@ -34129,7 +34216,9 @@
       <c r="AP13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AQ13" s="7"/>
+      <c r="AQ13" s="7">
+        <v>1</v>
+      </c>
       <c r="AR13" s="7"/>
       <c r="AS13" s="7"/>
       <c r="AT13" s="7"/>
@@ -34289,7 +34378,9 @@
         <v>20</v>
       </c>
       <c r="AQ14" s="7"/>
-      <c r="AR14" s="7"/>
+      <c r="AR14" s="7">
+        <v>4</v>
+      </c>
       <c r="AS14" s="7"/>
       <c r="AT14" s="7"/>
       <c r="AU14" s="7"/>
@@ -34461,8 +34552,12 @@
       <c r="AP15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AQ15" s="7"/>
-      <c r="AR15" s="7"/>
+      <c r="AQ15" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="7">
+        <v>60</v>
+      </c>
       <c r="AS15" s="7"/>
       <c r="AT15" s="7"/>
       <c r="AU15" s="7"/>
@@ -34642,8 +34737,12 @@
       <c r="AP16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AQ16" s="7"/>
-      <c r="AR16" s="7"/>
+      <c r="AQ16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR16" s="7">
+        <v>68</v>
+      </c>
       <c r="AS16" s="7"/>
       <c r="AT16" s="7"/>
       <c r="AU16" s="7"/>
@@ -34982,7 +35081,9 @@
       <c r="AP18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AQ18" s="7"/>
+      <c r="AQ18" s="7">
+        <v>1</v>
+      </c>
       <c r="AR18" s="7"/>
       <c r="AS18" s="7"/>
       <c r="AT18" s="7"/>
@@ -35154,7 +35255,9 @@
         <v>25</v>
       </c>
       <c r="AQ19" s="7"/>
-      <c r="AR19" s="7"/>
+      <c r="AR19" s="7">
+        <v>30</v>
+      </c>
       <c r="AS19" s="7"/>
       <c r="AT19" s="7"/>
       <c r="AU19" s="7"/>
@@ -35329,7 +35432,9 @@
         <v>26</v>
       </c>
       <c r="AQ20" s="7"/>
-      <c r="AR20" s="7"/>
+      <c r="AR20" s="7">
+        <v>22</v>
+      </c>
       <c r="AS20" s="7"/>
       <c r="AT20" s="7"/>
       <c r="AU20" s="7"/>
@@ -35501,7 +35606,9 @@
       <c r="AP21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AQ21" s="7"/>
+      <c r="AQ21" s="7">
+        <v>1</v>
+      </c>
       <c r="AR21" s="7"/>
       <c r="AS21" s="7"/>
       <c r="AT21" s="7"/>
@@ -35674,8 +35781,12 @@
       <c r="AP22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AQ22" s="7"/>
-      <c r="AR22" s="7"/>
+      <c r="AQ22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="7">
+        <v>86</v>
+      </c>
       <c r="AS22" s="7"/>
       <c r="AT22" s="7"/>
       <c r="AU22" s="7"/>
@@ -35851,9 +35962,13 @@
       <c r="AP23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AQ23" s="7"/>
+      <c r="AQ23" s="7">
+        <v>1</v>
+      </c>
       <c r="AR23" s="7"/>
-      <c r="AS23" s="7"/>
+      <c r="AS23" s="7">
+        <v>1</v>
+      </c>
       <c r="AT23" s="7"/>
       <c r="AU23" s="7"/>
       <c r="AV23" s="8"/>
@@ -35987,7 +36102,9 @@
       </c>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
+      <c r="W24" s="7">
+        <v>1</v>
+      </c>
       <c r="X24" s="8"/>
       <c r="Z24" s="6" t="s">
         <v>50</v>
@@ -36132,62 +36249,6 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AP2:AV2"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AI2:AM2"/>
-    <mergeCell ref="AX2:BD2"/>
-    <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BF2:BL2"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BN2:BT2"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV2:CB2"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="CD2:CJ2"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="CG3:CH3"/>
-    <mergeCell ref="CI3:CJ3"/>
-    <mergeCell ref="CL2:CR2"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="CQ3:CR3"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="CT3:CV3"/>
-    <mergeCell ref="CW3:CX3"/>
-    <mergeCell ref="CY3:CZ3"/>
-    <mergeCell ref="DB2:DH2"/>
-    <mergeCell ref="DB3:DD3"/>
-    <mergeCell ref="DE3:DF3"/>
-    <mergeCell ref="DG3:DH3"/>
     <mergeCell ref="DZ2:EF2"/>
     <mergeCell ref="DZ3:EB3"/>
     <mergeCell ref="EC3:ED3"/>
@@ -36200,6 +36261,62 @@
     <mergeCell ref="DR3:DT3"/>
     <mergeCell ref="DU3:DV3"/>
     <mergeCell ref="DW3:DX3"/>
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="CT3:CV3"/>
+    <mergeCell ref="CW3:CX3"/>
+    <mergeCell ref="CY3:CZ3"/>
+    <mergeCell ref="DB2:DH2"/>
+    <mergeCell ref="DB3:DD3"/>
+    <mergeCell ref="DE3:DF3"/>
+    <mergeCell ref="DG3:DH3"/>
+    <mergeCell ref="CD2:CJ2"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="CG3:CH3"/>
+    <mergeCell ref="CI3:CJ3"/>
+    <mergeCell ref="CL2:CR2"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="CQ3:CR3"/>
+    <mergeCell ref="BN2:BT2"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV2:CB2"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="AX2:BD2"/>
+    <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BF2:BL2"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AI2:AM2"/>
+    <mergeCell ref="AQ2:AU2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36209,8 +36326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36281,7 +36398,7 @@
       </c>
       <c r="C3" s="8">
         <f t="shared" ref="C3:C22" si="0">F40</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>10</v>
@@ -36381,14 +36498,14 @@
       </c>
       <c r="C5" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="8">
         <f>'1º Vuelta'!D7+'1º Vuelta'!L7+'1º Vuelta'!T7+'1º Vuelta'!AB7+'1º Vuelta'!AJ7+'1º Vuelta'!AR7+'1º Vuelta'!AZ7+'1º Vuelta'!BH7+'1º Vuelta'!BP7+'1º Vuelta'!BX7+'1º Vuelta'!CF7+'1º Vuelta'!CN7+'1º Vuelta'!CV7+'1º Vuelta'!DD7+'1º Vuelta'!DL7+'1º Vuelta'!DT7+'1º Vuelta'!EB7</f>
-        <v>399</v>
+        <v>467</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>12</v>
@@ -36488,7 +36605,7 @@
       </c>
       <c r="F7" s="8">
         <f>'1º Vuelta'!D9+'1º Vuelta'!L9+'1º Vuelta'!T9+'1º Vuelta'!AB9+'1º Vuelta'!AJ9+'1º Vuelta'!AR9+'1º Vuelta'!AZ9+'1º Vuelta'!BH9+'1º Vuelta'!BP9+'1º Vuelta'!BX9+'1º Vuelta'!CF9+'1º Vuelta'!CN9+'1º Vuelta'!CV9+'1º Vuelta'!DD9+'1º Vuelta'!DL9+'1º Vuelta'!DT9+'1º Vuelta'!EB9</f>
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>14</v>
@@ -36531,7 +36648,7 @@
       </c>
       <c r="C8" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>15</v>
@@ -36581,21 +36698,21 @@
       </c>
       <c r="C9" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="8">
         <f>'1º Vuelta'!D11+'1º Vuelta'!L11+'1º Vuelta'!T11+'1º Vuelta'!AB11+'1º Vuelta'!AJ11+'1º Vuelta'!AR11+'1º Vuelta'!AZ11+'1º Vuelta'!BH11+'1º Vuelta'!BP11+'1º Vuelta'!BX11+'1º Vuelta'!CF11+'1º Vuelta'!CN11+'1º Vuelta'!CV11+'1º Vuelta'!DD11+'1º Vuelta'!DL11+'1º Vuelta'!DT11+'1º Vuelta'!EB11</f>
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="8">
         <f>'1º Vuelta'!E11+'1º Vuelta'!M11+'1º Vuelta'!U11+'1º Vuelta'!AC11+'1º Vuelta'!AK11+'1º Vuelta'!AS11+'1º Vuelta'!BA11+'1º Vuelta'!BI11+'1º Vuelta'!BQ11+'1º Vuelta'!BY11+'1º Vuelta'!CG11+'1º Vuelta'!CO11+'1º Vuelta'!CW11+'1º Vuelta'!DE11+'1º Vuelta'!DM11+'1º Vuelta'!DU11+'1º Vuelta'!EC11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>16</v>
@@ -36638,7 +36755,7 @@
       </c>
       <c r="F10" s="8">
         <f>'1º Vuelta'!D12+'1º Vuelta'!L12+'1º Vuelta'!T12+'1º Vuelta'!AB12+'1º Vuelta'!AJ12+'1º Vuelta'!AR12+'1º Vuelta'!AZ12+'1º Vuelta'!BH12+'1º Vuelta'!BP12+'1º Vuelta'!BX12+'1º Vuelta'!CF12+'1º Vuelta'!CN12+'1º Vuelta'!CV12+'1º Vuelta'!DD12+'1º Vuelta'!DL12+'1º Vuelta'!DT12+'1º Vuelta'!EB12</f>
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>17</v>
@@ -36681,7 +36798,7 @@
       </c>
       <c r="C11" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>18</v>
@@ -36738,7 +36855,7 @@
       </c>
       <c r="F12" s="8">
         <f>'1º Vuelta'!D14+'1º Vuelta'!L14+'1º Vuelta'!T14+'1º Vuelta'!AB14+'1º Vuelta'!AJ14+'1º Vuelta'!AR14+'1º Vuelta'!AZ14+'1º Vuelta'!BH14+'1º Vuelta'!BP14+'1º Vuelta'!BX14+'1º Vuelta'!CF14+'1º Vuelta'!CN14+'1º Vuelta'!CV14+'1º Vuelta'!DD14+'1º Vuelta'!DL14+'1º Vuelta'!DT14+'1º Vuelta'!EB14</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>20</v>
@@ -36776,14 +36893,14 @@
       </c>
       <c r="C13" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="8">
         <f>'1º Vuelta'!D15+'1º Vuelta'!L15+'1º Vuelta'!T15+'1º Vuelta'!AB15+'1º Vuelta'!AJ15+'1º Vuelta'!AR15+'1º Vuelta'!AZ15+'1º Vuelta'!BH15+'1º Vuelta'!BP15+'1º Vuelta'!BX15+'1º Vuelta'!CF15+'1º Vuelta'!CN15+'1º Vuelta'!CV15+'1º Vuelta'!DD15+'1º Vuelta'!DL15+'1º Vuelta'!DT15+'1º Vuelta'!EB15</f>
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>21</v>
@@ -36826,14 +36943,14 @@
       </c>
       <c r="C14" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="8">
         <f>'1º Vuelta'!D16+'1º Vuelta'!L16+'1º Vuelta'!T16+'1º Vuelta'!AB16+'1º Vuelta'!AJ16+'1º Vuelta'!AR16+'1º Vuelta'!AZ16+'1º Vuelta'!BH16+'1º Vuelta'!BP16+'1º Vuelta'!BX16+'1º Vuelta'!CF16+'1º Vuelta'!CN16+'1º Vuelta'!CV16+'1º Vuelta'!DD16+'1º Vuelta'!DL16+'1º Vuelta'!DT16+'1º Vuelta'!EB16</f>
-        <v>371</v>
+        <v>439</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>22</v>
@@ -36926,7 +37043,7 @@
       </c>
       <c r="C16" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>24</v>
@@ -36983,7 +37100,7 @@
       </c>
       <c r="F17" s="8">
         <f>'1º Vuelta'!D19+'1º Vuelta'!L19+'1º Vuelta'!T19+'1º Vuelta'!AB19+'1º Vuelta'!AJ19+'1º Vuelta'!AR19+'1º Vuelta'!AZ19+'1º Vuelta'!BH19+'1º Vuelta'!BP19+'1º Vuelta'!BX19+'1º Vuelta'!CF19+'1º Vuelta'!CN19+'1º Vuelta'!CV19+'1º Vuelta'!DD19+'1º Vuelta'!DL19+'1º Vuelta'!DT19+'1º Vuelta'!EB19</f>
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>25</v>
@@ -37033,7 +37150,7 @@
       </c>
       <c r="F18" s="8">
         <f>'1º Vuelta'!D20+'1º Vuelta'!L20+'1º Vuelta'!T20+'1º Vuelta'!AB20+'1º Vuelta'!AJ20+'1º Vuelta'!AR20+'1º Vuelta'!AZ20+'1º Vuelta'!BH20+'1º Vuelta'!BP20+'1º Vuelta'!BX20+'1º Vuelta'!CF20+'1º Vuelta'!CN20+'1º Vuelta'!CV20+'1º Vuelta'!DD20+'1º Vuelta'!DL20+'1º Vuelta'!DT20+'1º Vuelta'!EB20</f>
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>26</v>
@@ -37076,7 +37193,7 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>27</v>
@@ -37117,7 +37234,7 @@
         <v>104</v>
       </c>
       <c r="V19" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:22" ht="19" x14ac:dyDescent="0.25">
@@ -37126,14 +37243,14 @@
       </c>
       <c r="C20" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="8">
         <f>'1º Vuelta'!D22+'1º Vuelta'!L22+'1º Vuelta'!T22+'1º Vuelta'!AB22+'1º Vuelta'!AJ22+'1º Vuelta'!AR22+'1º Vuelta'!AZ22+'1º Vuelta'!BH22+'1º Vuelta'!BP22+'1º Vuelta'!BX22+'1º Vuelta'!CF22+'1º Vuelta'!CN22+'1º Vuelta'!CV22+'1º Vuelta'!DD22+'1º Vuelta'!DL22+'1º Vuelta'!DT22+'1º Vuelta'!EB22</f>
-        <v>317</v>
+        <v>403</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>28</v>
@@ -37176,7 +37293,7 @@
       </c>
       <c r="C21" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>29</v>
@@ -37190,7 +37307,7 @@
       </c>
       <c r="I21" s="8">
         <f>'1º Vuelta'!E23+'1º Vuelta'!M23+'1º Vuelta'!U23+'1º Vuelta'!AC23+'1º Vuelta'!AK23+'1º Vuelta'!AS23+'1º Vuelta'!BA23+'1º Vuelta'!BI23+'1º Vuelta'!BQ23+'1º Vuelta'!BY23+'1º Vuelta'!CG23+'1º Vuelta'!CO23+'1º Vuelta'!CW23+'1º Vuelta'!DE23+'1º Vuelta'!DM23+'1º Vuelta'!DU23+'1º Vuelta'!EC23</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>29</v>
@@ -37254,7 +37371,7 @@
       </c>
       <c r="O22" s="8">
         <f>'1º Vuelta'!G24+'1º Vuelta'!O24+'1º Vuelta'!W24+'1º Vuelta'!AE24+'1º Vuelta'!AM24+'1º Vuelta'!AU24+'1º Vuelta'!BC24+'1º Vuelta'!BK24+'1º Vuelta'!BS24+'1º Vuelta'!CA24+'1º Vuelta'!CI24+'1º Vuelta'!CQ24+'1º Vuelta'!CY24+'1º Vuelta'!DG24+'1º Vuelta'!DO24+'1º Vuelta'!DW24+'1º Vuelta'!EE24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="6" t="s">
         <v>50</v>
@@ -37331,7 +37448,7 @@
         <v>105</v>
       </c>
       <c r="V31" s="22">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.2">
@@ -37347,7 +37464,7 @@
         <v>107</v>
       </c>
       <c r="V33" s="22">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="5:22" x14ac:dyDescent="0.2">
@@ -37358,30 +37475,30 @@
     </row>
     <row r="36" spans="5:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="5:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="E37" s="146" t="s">
+      <c r="E37" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="147"/>
-      <c r="G37" s="147"/>
-      <c r="H37" s="147"/>
-      <c r="I37" s="147"/>
-      <c r="J37" s="147"/>
-      <c r="K37" s="148"/>
+      <c r="F37" s="142"/>
+      <c r="G37" s="142"/>
+      <c r="H37" s="142"/>
+      <c r="I37" s="142"/>
+      <c r="J37" s="142"/>
+      <c r="K37" s="143"/>
     </row>
     <row r="38" spans="5:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="E38" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="141"/>
-      <c r="G38" s="141"/>
+      <c r="E38" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
       <c r="H38" s="144" t="s">
         <v>4</v>
       </c>
       <c r="I38" s="144"/>
-      <c r="J38" s="142" t="s">
+      <c r="J38" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="143"/>
+      <c r="K38" s="146"/>
     </row>
     <row r="39" spans="5:22" ht="19" x14ac:dyDescent="0.25">
       <c r="E39" s="14" t="s">
@@ -37412,7 +37529,7 @@
       </c>
       <c r="F40" s="7">
         <f>'1º Vuelta'!C5+'1º Vuelta'!K5+'1º Vuelta'!S5+'1º Vuelta'!AA5+'1º Vuelta'!AI5+'1º Vuelta'!AQ5+'1º Vuelta'!AY5+'1º Vuelta'!BG5+'1º Vuelta'!BO5+'1º Vuelta'!BW5+'1º Vuelta'!CE5+'1º Vuelta'!CM5+'1º Vuelta'!CU5+'1º Vuelta'!DC5+'1º Vuelta'!DK5+'1º Vuelta'!DS5+'1º Vuelta'!EA5</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G40" s="7">
         <f>'1º Vuelta'!D5+'1º Vuelta'!L5+'1º Vuelta'!T5+'1º Vuelta'!AB5+'1º Vuelta'!AJ5+'1º Vuelta'!AR5+'1º Vuelta'!AZ5+'1º Vuelta'!BH5+'1º Vuelta'!BP5+'1º Vuelta'!BX5+'1º Vuelta'!CF5+'1º Vuelta'!CN5+'1º Vuelta'!CV5+'1º Vuelta'!DD5+'1º Vuelta'!DL5+'1º Vuelta'!DT5+'1º Vuelta'!EB5</f>
@@ -37470,11 +37587,11 @@
       </c>
       <c r="F42" s="7">
         <f>'1º Vuelta'!C7+'1º Vuelta'!K7+'1º Vuelta'!S7+'1º Vuelta'!AA7+'1º Vuelta'!AI7+'1º Vuelta'!AQ7+'1º Vuelta'!AY7+'1º Vuelta'!BG7+'1º Vuelta'!BO7+'1º Vuelta'!BW7+'1º Vuelta'!CE7+'1º Vuelta'!CM7+'1º Vuelta'!CU7+'1º Vuelta'!DC7+'1º Vuelta'!DK7+'1º Vuelta'!DS7+'1º Vuelta'!EA7</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G42" s="7">
         <f>'1º Vuelta'!D7+'1º Vuelta'!L7+'1º Vuelta'!T7+'1º Vuelta'!AB7+'1º Vuelta'!AJ7+'1º Vuelta'!AR7+'1º Vuelta'!AZ7+'1º Vuelta'!BH7+'1º Vuelta'!BP7+'1º Vuelta'!BX7+'1º Vuelta'!CF7+'1º Vuelta'!CN7+'1º Vuelta'!CV7+'1º Vuelta'!DD7+'1º Vuelta'!DL7+'1º Vuelta'!DT7+'1º Vuelta'!EB7</f>
-        <v>399</v>
+        <v>467</v>
       </c>
       <c r="H42" s="7">
         <f>'1º Vuelta'!E7+'1º Vuelta'!M7+'1º Vuelta'!U7+'1º Vuelta'!AC7+'1º Vuelta'!AK7+'1º Vuelta'!AS7+'1º Vuelta'!BA7+'1º Vuelta'!BI7+'1º Vuelta'!BQ7+'1º Vuelta'!BY7+'1º Vuelta'!CG7+'1º Vuelta'!CO7+'1º Vuelta'!CW7+'1º Vuelta'!DE7+'1º Vuelta'!DM7+'1º Vuelta'!DU7+'1º Vuelta'!EC7</f>
@@ -37532,7 +37649,7 @@
       </c>
       <c r="G44" s="7">
         <f>'1º Vuelta'!D9+'1º Vuelta'!L9+'1º Vuelta'!T9+'1º Vuelta'!AB9+'1º Vuelta'!AJ9+'1º Vuelta'!AR9+'1º Vuelta'!AZ9+'1º Vuelta'!BH9+'1º Vuelta'!BP9+'1º Vuelta'!BX9+'1º Vuelta'!CF9+'1º Vuelta'!CN9+'1º Vuelta'!CV9+'1º Vuelta'!DD9+'1º Vuelta'!DL9+'1º Vuelta'!DT9+'1º Vuelta'!EB9</f>
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="H44" s="7">
         <f>'1º Vuelta'!E9+'1º Vuelta'!M9+'1º Vuelta'!U9+'1º Vuelta'!AC9+'1º Vuelta'!AK9+'1º Vuelta'!AS9+'1º Vuelta'!BA9+'1º Vuelta'!BI9+'1º Vuelta'!BQ9+'1º Vuelta'!BY9+'1º Vuelta'!CG9+'1º Vuelta'!CO9+'1º Vuelta'!CW9+'1º Vuelta'!DE9+'1º Vuelta'!DM9+'1º Vuelta'!DU9+'1º Vuelta'!EC9</f>
@@ -37557,7 +37674,7 @@
       </c>
       <c r="F45" s="7">
         <f>'1º Vuelta'!C10+'1º Vuelta'!K10+'1º Vuelta'!S10+'1º Vuelta'!AA10+'1º Vuelta'!AI10+'1º Vuelta'!AQ10+'1º Vuelta'!AY10+'1º Vuelta'!BG10+'1º Vuelta'!BO10+'1º Vuelta'!BW10+'1º Vuelta'!CE10+'1º Vuelta'!CM10+'1º Vuelta'!CU10+'1º Vuelta'!DC10+'1º Vuelta'!DK10+'1º Vuelta'!DS10+'1º Vuelta'!EA10</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G45" s="7">
         <f>'1º Vuelta'!D10+'1º Vuelta'!L10+'1º Vuelta'!T10+'1º Vuelta'!AB10+'1º Vuelta'!AJ10+'1º Vuelta'!AR10+'1º Vuelta'!AZ10+'1º Vuelta'!BH10+'1º Vuelta'!BP10+'1º Vuelta'!BX10+'1º Vuelta'!CF10+'1º Vuelta'!CN10+'1º Vuelta'!CV10+'1º Vuelta'!DD10+'1º Vuelta'!DL10+'1º Vuelta'!DT10+'1º Vuelta'!EB10</f>
@@ -37586,15 +37703,15 @@
       </c>
       <c r="F46" s="7">
         <f>'1º Vuelta'!C11+'1º Vuelta'!K11+'1º Vuelta'!S11+'1º Vuelta'!AA11+'1º Vuelta'!AI11+'1º Vuelta'!AQ11+'1º Vuelta'!AY11+'1º Vuelta'!BG11+'1º Vuelta'!BO11+'1º Vuelta'!BW11+'1º Vuelta'!CE11+'1º Vuelta'!CM11+'1º Vuelta'!CU11+'1º Vuelta'!DC11+'1º Vuelta'!DK11+'1º Vuelta'!DS11+'1º Vuelta'!EA11</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G46" s="7">
         <f>'1º Vuelta'!D11+'1º Vuelta'!L11+'1º Vuelta'!T11+'1º Vuelta'!AB11+'1º Vuelta'!AJ11+'1º Vuelta'!AR11+'1º Vuelta'!AZ11+'1º Vuelta'!BH11+'1º Vuelta'!BP11+'1º Vuelta'!BX11+'1º Vuelta'!CF11+'1º Vuelta'!CN11+'1º Vuelta'!CV11+'1º Vuelta'!DD11+'1º Vuelta'!DL11+'1º Vuelta'!DT11+'1º Vuelta'!EB11</f>
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="H46" s="7">
         <f>'1º Vuelta'!E11+'1º Vuelta'!M11+'1º Vuelta'!U11+'1º Vuelta'!AC11+'1º Vuelta'!AK11+'1º Vuelta'!AS11+'1º Vuelta'!BA11+'1º Vuelta'!BI11+'1º Vuelta'!BQ11+'1º Vuelta'!BY11+'1º Vuelta'!CG11+'1º Vuelta'!CO11+'1º Vuelta'!CW11+'1º Vuelta'!DE11+'1º Vuelta'!DM11+'1º Vuelta'!DU11+'1º Vuelta'!EC11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="7">
         <f>'1º Vuelta'!F11+'1º Vuelta'!N11+'1º Vuelta'!V11+'1º Vuelta'!AD11+'1º Vuelta'!AL11+'1º Vuelta'!AT11+'1º Vuelta'!BB11+'1º Vuelta'!BJ11+'1º Vuelta'!BR11+'1º Vuelta'!BZ11+'1º Vuelta'!CH11+'1º Vuelta'!CP11+'1º Vuelta'!CX11+'1º Vuelta'!DF11+'1º Vuelta'!DN11+'1º Vuelta'!DV11+'1º Vuelta'!ED11</f>
@@ -37619,7 +37736,7 @@
       </c>
       <c r="G47" s="7">
         <f>'1º Vuelta'!D12+'1º Vuelta'!L12+'1º Vuelta'!T12+'1º Vuelta'!AB12+'1º Vuelta'!AJ12+'1º Vuelta'!AR12+'1º Vuelta'!AZ12+'1º Vuelta'!BH12+'1º Vuelta'!BP12+'1º Vuelta'!BX12+'1º Vuelta'!CF12+'1º Vuelta'!CN12+'1º Vuelta'!CV12+'1º Vuelta'!DD12+'1º Vuelta'!DL12+'1º Vuelta'!DT12+'1º Vuelta'!EB12</f>
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="H47" s="7">
         <f>'1º Vuelta'!E12+'1º Vuelta'!M12+'1º Vuelta'!U12+'1º Vuelta'!AC12+'1º Vuelta'!AK12+'1º Vuelta'!AS12+'1º Vuelta'!BA12+'1º Vuelta'!BI12+'1º Vuelta'!BQ12+'1º Vuelta'!BY12+'1º Vuelta'!CG12+'1º Vuelta'!CO12+'1º Vuelta'!CW12+'1º Vuelta'!DE12+'1º Vuelta'!DM12+'1º Vuelta'!DU12+'1º Vuelta'!EC12</f>
@@ -37644,7 +37761,7 @@
       </c>
       <c r="F48" s="7">
         <f>'1º Vuelta'!C13+'1º Vuelta'!K13+'1º Vuelta'!S13+'1º Vuelta'!AA13+'1º Vuelta'!AI13+'1º Vuelta'!AQ13+'1º Vuelta'!AY13+'1º Vuelta'!BG13+'1º Vuelta'!BO13+'1º Vuelta'!BW13+'1º Vuelta'!CE13+'1º Vuelta'!CM13+'1º Vuelta'!CU13+'1º Vuelta'!DC13+'1º Vuelta'!DK13+'1º Vuelta'!DS13+'1º Vuelta'!EA13</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G48" s="7">
         <f>'1º Vuelta'!D13+'1º Vuelta'!L13+'1º Vuelta'!T13+'1º Vuelta'!AB13+'1º Vuelta'!AJ13+'1º Vuelta'!AR13+'1º Vuelta'!AZ13+'1º Vuelta'!BH13+'1º Vuelta'!BP13+'1º Vuelta'!BX13+'1º Vuelta'!CF13+'1º Vuelta'!CN13+'1º Vuelta'!CV13+'1º Vuelta'!DD13+'1º Vuelta'!DL13+'1º Vuelta'!DT13+'1º Vuelta'!EB13</f>
@@ -37677,7 +37794,7 @@
       </c>
       <c r="G49" s="7">
         <f>'1º Vuelta'!D14+'1º Vuelta'!L14+'1º Vuelta'!T14+'1º Vuelta'!AB14+'1º Vuelta'!AJ14+'1º Vuelta'!AR14+'1º Vuelta'!AZ14+'1º Vuelta'!BH14+'1º Vuelta'!BP14+'1º Vuelta'!BX14+'1º Vuelta'!CF14+'1º Vuelta'!CN14+'1º Vuelta'!CV14+'1º Vuelta'!DD14+'1º Vuelta'!DL14+'1º Vuelta'!DT14+'1º Vuelta'!EB14</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H49" s="7">
         <f>'1º Vuelta'!E14+'1º Vuelta'!M14+'1º Vuelta'!U14+'1º Vuelta'!AC14+'1º Vuelta'!AK14+'1º Vuelta'!AS14+'1º Vuelta'!BA14+'1º Vuelta'!BI14+'1º Vuelta'!BQ14+'1º Vuelta'!BY14+'1º Vuelta'!CG14+'1º Vuelta'!CO14+'1º Vuelta'!CW14+'1º Vuelta'!DE14+'1º Vuelta'!DM14+'1º Vuelta'!DU14+'1º Vuelta'!EC14</f>
@@ -37702,11 +37819,11 @@
       </c>
       <c r="F50" s="7">
         <f>'1º Vuelta'!C15+'1º Vuelta'!K15+'1º Vuelta'!S15+'1º Vuelta'!AA15+'1º Vuelta'!AI15+'1º Vuelta'!AQ15+'1º Vuelta'!AY15+'1º Vuelta'!BG15+'1º Vuelta'!BO15+'1º Vuelta'!BW15+'1º Vuelta'!CE15+'1º Vuelta'!CM15+'1º Vuelta'!CU15+'1º Vuelta'!DC15+'1º Vuelta'!DK15+'1º Vuelta'!DS15+'1º Vuelta'!EA15</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G50" s="7">
         <f>'1º Vuelta'!D15+'1º Vuelta'!L15+'1º Vuelta'!T15+'1º Vuelta'!AB15+'1º Vuelta'!AJ15+'1º Vuelta'!AR15+'1º Vuelta'!AZ15+'1º Vuelta'!BH15+'1º Vuelta'!BP15+'1º Vuelta'!BX15+'1º Vuelta'!CF15+'1º Vuelta'!CN15+'1º Vuelta'!CV15+'1º Vuelta'!DD15+'1º Vuelta'!DL15+'1º Vuelta'!DT15+'1º Vuelta'!EB15</f>
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="H50" s="7">
         <f>'1º Vuelta'!E15+'1º Vuelta'!M15+'1º Vuelta'!U15+'1º Vuelta'!AC15+'1º Vuelta'!AK15+'1º Vuelta'!AS15+'1º Vuelta'!BA15+'1º Vuelta'!BI15+'1º Vuelta'!BQ15+'1º Vuelta'!BY15+'1º Vuelta'!CG15+'1º Vuelta'!CO15+'1º Vuelta'!CW15+'1º Vuelta'!DE15+'1º Vuelta'!DM15+'1º Vuelta'!DU15+'1º Vuelta'!EC15</f>
@@ -37731,11 +37848,11 @@
       </c>
       <c r="F51" s="7">
         <f>'1º Vuelta'!C16+'1º Vuelta'!K16+'1º Vuelta'!S16+'1º Vuelta'!AA16+'1º Vuelta'!AI16+'1º Vuelta'!AQ16+'1º Vuelta'!AY16+'1º Vuelta'!BG16+'1º Vuelta'!BO16+'1º Vuelta'!BW16+'1º Vuelta'!CE16+'1º Vuelta'!CM16+'1º Vuelta'!CU16+'1º Vuelta'!DC16+'1º Vuelta'!DK16+'1º Vuelta'!DS16+'1º Vuelta'!EA16</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G51" s="7">
         <f>'1º Vuelta'!D16+'1º Vuelta'!L16+'1º Vuelta'!T16+'1º Vuelta'!AB16+'1º Vuelta'!AJ16+'1º Vuelta'!AR16+'1º Vuelta'!AZ16+'1º Vuelta'!BH16+'1º Vuelta'!BP16+'1º Vuelta'!BX16+'1º Vuelta'!CF16+'1º Vuelta'!CN16+'1º Vuelta'!CV16+'1º Vuelta'!DD16+'1º Vuelta'!DL16+'1º Vuelta'!DT16+'1º Vuelta'!EB16</f>
-        <v>371</v>
+        <v>439</v>
       </c>
       <c r="H51" s="7">
         <f>'1º Vuelta'!E16+'1º Vuelta'!M16+'1º Vuelta'!U16+'1º Vuelta'!AC16+'1º Vuelta'!AK16+'1º Vuelta'!AS16+'1º Vuelta'!BA16+'1º Vuelta'!BI16+'1º Vuelta'!BQ16+'1º Vuelta'!BY16+'1º Vuelta'!CG16+'1º Vuelta'!CO16+'1º Vuelta'!CW16+'1º Vuelta'!DE16+'1º Vuelta'!DM16+'1º Vuelta'!DU16+'1º Vuelta'!EC16</f>
@@ -37789,7 +37906,7 @@
       </c>
       <c r="F53" s="7">
         <f>'1º Vuelta'!C18+'1º Vuelta'!K18+'1º Vuelta'!S18+'1º Vuelta'!AA18+'1º Vuelta'!AI18+'1º Vuelta'!AQ18+'1º Vuelta'!AY18+'1º Vuelta'!BG18+'1º Vuelta'!BO18+'1º Vuelta'!BW18+'1º Vuelta'!CE18+'1º Vuelta'!CM18+'1º Vuelta'!CU18+'1º Vuelta'!DC18+'1º Vuelta'!DK18+'1º Vuelta'!DS18+'1º Vuelta'!EA18</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G53" s="7">
         <f>'1º Vuelta'!D18+'1º Vuelta'!L18+'1º Vuelta'!T18+'1º Vuelta'!AB18+'1º Vuelta'!AJ18+'1º Vuelta'!AR18+'1º Vuelta'!AZ18+'1º Vuelta'!BH18+'1º Vuelta'!BP18+'1º Vuelta'!BX18+'1º Vuelta'!CF18+'1º Vuelta'!CN18+'1º Vuelta'!CV18+'1º Vuelta'!DD18+'1º Vuelta'!DL18+'1º Vuelta'!DT18+'1º Vuelta'!EB18</f>
@@ -37822,7 +37939,7 @@
       </c>
       <c r="G54" s="7">
         <f>'1º Vuelta'!D19+'1º Vuelta'!L19+'1º Vuelta'!T19+'1º Vuelta'!AB19+'1º Vuelta'!AJ19+'1º Vuelta'!AR19+'1º Vuelta'!AZ19+'1º Vuelta'!BH19+'1º Vuelta'!BP19+'1º Vuelta'!BX19+'1º Vuelta'!CF19+'1º Vuelta'!CN19+'1º Vuelta'!CV19+'1º Vuelta'!DD19+'1º Vuelta'!DL19+'1º Vuelta'!DT19+'1º Vuelta'!EB19</f>
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="H54" s="7">
         <f>'1º Vuelta'!E19+'1º Vuelta'!M19+'1º Vuelta'!U19+'1º Vuelta'!AC19+'1º Vuelta'!AK19+'1º Vuelta'!AS19+'1º Vuelta'!BA19+'1º Vuelta'!BI19+'1º Vuelta'!BQ19+'1º Vuelta'!BY19+'1º Vuelta'!CG19+'1º Vuelta'!CO19+'1º Vuelta'!CW19+'1º Vuelta'!DE19+'1º Vuelta'!DM19+'1º Vuelta'!DU19+'1º Vuelta'!EC19</f>
@@ -37851,7 +37968,7 @@
       </c>
       <c r="G55" s="7">
         <f>'1º Vuelta'!D20+'1º Vuelta'!L20+'1º Vuelta'!T20+'1º Vuelta'!AB20+'1º Vuelta'!AJ20+'1º Vuelta'!AR20+'1º Vuelta'!AZ20+'1º Vuelta'!BH20+'1º Vuelta'!BP20+'1º Vuelta'!BX20+'1º Vuelta'!CF20+'1º Vuelta'!CN20+'1º Vuelta'!CV20+'1º Vuelta'!DD20+'1º Vuelta'!DL20+'1º Vuelta'!DT20+'1º Vuelta'!EB20</f>
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="H55" s="7">
         <f>'1º Vuelta'!E20+'1º Vuelta'!M20+'1º Vuelta'!U20+'1º Vuelta'!AC20+'1º Vuelta'!AK20+'1º Vuelta'!AS20+'1º Vuelta'!BA20+'1º Vuelta'!BI20+'1º Vuelta'!BQ20+'1º Vuelta'!BY20+'1º Vuelta'!CG20+'1º Vuelta'!CO20+'1º Vuelta'!CW20+'1º Vuelta'!DE20+'1º Vuelta'!DM20+'1º Vuelta'!DU20+'1º Vuelta'!EC20</f>
@@ -37876,7 +37993,7 @@
       </c>
       <c r="F56" s="7">
         <f>'1º Vuelta'!C21+'1º Vuelta'!K21+'1º Vuelta'!S21+'1º Vuelta'!AA21+'1º Vuelta'!AI21+'1º Vuelta'!AQ21+'1º Vuelta'!AY21+'1º Vuelta'!BG21+'1º Vuelta'!BO21+'1º Vuelta'!BW21+'1º Vuelta'!CE21+'1º Vuelta'!CM21+'1º Vuelta'!CU21+'1º Vuelta'!DC21+'1º Vuelta'!DK21+'1º Vuelta'!DS21+'1º Vuelta'!EA21</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G56" s="7">
         <f>'1º Vuelta'!D21+'1º Vuelta'!L21+'1º Vuelta'!T21+'1º Vuelta'!AB21+'1º Vuelta'!AJ21+'1º Vuelta'!AR21+'1º Vuelta'!AZ21+'1º Vuelta'!BH21+'1º Vuelta'!BP21+'1º Vuelta'!BX21+'1º Vuelta'!CF21+'1º Vuelta'!CN21+'1º Vuelta'!CV21+'1º Vuelta'!DD21+'1º Vuelta'!DL21+'1º Vuelta'!DT21+'1º Vuelta'!EB21</f>
@@ -37905,11 +38022,11 @@
       </c>
       <c r="F57" s="7">
         <f>'1º Vuelta'!C22+'1º Vuelta'!K22+'1º Vuelta'!S22+'1º Vuelta'!AA22+'1º Vuelta'!AI22+'1º Vuelta'!AQ22+'1º Vuelta'!AY22+'1º Vuelta'!BG22+'1º Vuelta'!BO22+'1º Vuelta'!BW22+'1º Vuelta'!CE22+'1º Vuelta'!CM22+'1º Vuelta'!CU22+'1º Vuelta'!DC22+'1º Vuelta'!DK22+'1º Vuelta'!DS22+'1º Vuelta'!EA22</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G57" s="7">
         <f>'1º Vuelta'!D22+'1º Vuelta'!L22+'1º Vuelta'!T22+'1º Vuelta'!AB22+'1º Vuelta'!AJ22+'1º Vuelta'!AR22+'1º Vuelta'!AZ22+'1º Vuelta'!BH22+'1º Vuelta'!BP22+'1º Vuelta'!BX22+'1º Vuelta'!CF22+'1º Vuelta'!CN22+'1º Vuelta'!CV22+'1º Vuelta'!DD22+'1º Vuelta'!DL22+'1º Vuelta'!DT22+'1º Vuelta'!EB22</f>
-        <v>317</v>
+        <v>403</v>
       </c>
       <c r="H57" s="7">
         <f>'1º Vuelta'!E22+'1º Vuelta'!M22+'1º Vuelta'!U22+'1º Vuelta'!AC22+'1º Vuelta'!AK22+'1º Vuelta'!AS22+'1º Vuelta'!BA22+'1º Vuelta'!BI22+'1º Vuelta'!BQ22+'1º Vuelta'!BY22+'1º Vuelta'!CG22+'1º Vuelta'!CO22+'1º Vuelta'!CW22+'1º Vuelta'!DE22+'1º Vuelta'!DM22+'1º Vuelta'!DU22+'1º Vuelta'!EC22</f>
@@ -37934,7 +38051,7 @@
       </c>
       <c r="F58" s="7">
         <f>'1º Vuelta'!C23+'1º Vuelta'!K23+'1º Vuelta'!S23+'1º Vuelta'!AA23+'1º Vuelta'!AI23+'1º Vuelta'!AQ23+'1º Vuelta'!AY23+'1º Vuelta'!BG23+'1º Vuelta'!BO23+'1º Vuelta'!BW23+'1º Vuelta'!CE23+'1º Vuelta'!CM23+'1º Vuelta'!CU23+'1º Vuelta'!DC23+'1º Vuelta'!DK23+'1º Vuelta'!DS23+'1º Vuelta'!EA23</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G58" s="7">
         <f>'1º Vuelta'!D23+'1º Vuelta'!L23+'1º Vuelta'!T23+'1º Vuelta'!AB23+'1º Vuelta'!AJ23+'1º Vuelta'!AR23+'1º Vuelta'!AZ23+'1º Vuelta'!BH23+'1º Vuelta'!BP23+'1º Vuelta'!BX23+'1º Vuelta'!CF23+'1º Vuelta'!CN23+'1º Vuelta'!CV23+'1º Vuelta'!DD23+'1º Vuelta'!DL23+'1º Vuelta'!DT23+'1º Vuelta'!EB23</f>
@@ -37942,7 +38059,7 @@
       </c>
       <c r="H58" s="7">
         <f>'1º Vuelta'!E23+'1º Vuelta'!M23+'1º Vuelta'!U23+'1º Vuelta'!AC23+'1º Vuelta'!AK23+'1º Vuelta'!AS23+'1º Vuelta'!BA23+'1º Vuelta'!BI23+'1º Vuelta'!BQ23+'1º Vuelta'!BY23+'1º Vuelta'!CG23+'1º Vuelta'!CO23+'1º Vuelta'!CW23+'1º Vuelta'!DE23+'1º Vuelta'!DM23+'1º Vuelta'!DU23+'1º Vuelta'!EC23</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" s="7">
         <f>'1º Vuelta'!F23+'1º Vuelta'!N23+'1º Vuelta'!V23+'1º Vuelta'!AD23+'1º Vuelta'!AL23+'1º Vuelta'!AT23+'1º Vuelta'!BB23+'1º Vuelta'!BJ23+'1º Vuelta'!BR23+'1º Vuelta'!BZ23+'1º Vuelta'!CH23+'1º Vuelta'!CP23+'1º Vuelta'!CX23+'1º Vuelta'!DF23+'1º Vuelta'!DN23+'1º Vuelta'!DV23+'1º Vuelta'!ED23</f>
@@ -37979,7 +38096,7 @@
       </c>
       <c r="J59" s="7">
         <f>'1º Vuelta'!G24+'1º Vuelta'!O24+'1º Vuelta'!W24+'1º Vuelta'!AE24+'1º Vuelta'!AM24+'1º Vuelta'!AU24+'1º Vuelta'!BC24+'1º Vuelta'!BK24+'1º Vuelta'!BS24+'1º Vuelta'!CA24+'1º Vuelta'!CI24+'1º Vuelta'!CQ24+'1º Vuelta'!CY24+'1º Vuelta'!DG24+'1º Vuelta'!DO24+'1º Vuelta'!DW24+'1º Vuelta'!EE24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K59" s="7">
         <f>'1º Vuelta'!H24+'1º Vuelta'!P24+'1º Vuelta'!X24+'1º Vuelta'!AF24+'1º Vuelta'!AN24+'1º Vuelta'!AV24+'1º Vuelta'!BD24+'1º Vuelta'!BL24+'1º Vuelta'!BT24+'1º Vuelta'!CB24+'1º Vuelta'!CJ24+'1º Vuelta'!CR24+'1º Vuelta'!CZ24+'1º Vuelta'!DH24+'1º Vuelta'!DP24+'1º Vuelta'!DX24+'1º Vuelta'!EF24</f>
@@ -38098,382 +38215,382 @@
   <sheetData>
     <row r="1" spans="2:136" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B2" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="148"/>
-      <c r="J2" s="146" t="s">
+      <c r="B2" s="141" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="143"/>
+      <c r="J2" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="148"/>
-      <c r="R2" s="146" t="s">
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="143"/>
+      <c r="R2" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="147"/>
-      <c r="T2" s="147"/>
-      <c r="U2" s="147"/>
-      <c r="V2" s="147"/>
-      <c r="W2" s="147"/>
-      <c r="X2" s="148"/>
-      <c r="Z2" s="146" t="s">
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="143"/>
+      <c r="Z2" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="147"/>
-      <c r="AB2" s="147"/>
-      <c r="AC2" s="147"/>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="148"/>
-      <c r="AH2" s="146" t="s">
+      <c r="AA2" s="142"/>
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="142"/>
+      <c r="AD2" s="142"/>
+      <c r="AE2" s="142"/>
+      <c r="AF2" s="143"/>
+      <c r="AH2" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="147"/>
-      <c r="AJ2" s="147"/>
-      <c r="AK2" s="147"/>
-      <c r="AL2" s="147"/>
-      <c r="AM2" s="147"/>
-      <c r="AN2" s="148"/>
-      <c r="AP2" s="146" t="s">
+      <c r="AI2" s="142"/>
+      <c r="AJ2" s="142"/>
+      <c r="AK2" s="142"/>
+      <c r="AL2" s="142"/>
+      <c r="AM2" s="142"/>
+      <c r="AN2" s="143"/>
+      <c r="AP2" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="AQ2" s="147"/>
-      <c r="AR2" s="147"/>
-      <c r="AS2" s="147"/>
-      <c r="AT2" s="147"/>
-      <c r="AU2" s="147"/>
-      <c r="AV2" s="148"/>
-      <c r="AX2" s="146" t="s">
+      <c r="AQ2" s="142"/>
+      <c r="AR2" s="142"/>
+      <c r="AS2" s="142"/>
+      <c r="AT2" s="142"/>
+      <c r="AU2" s="142"/>
+      <c r="AV2" s="143"/>
+      <c r="AX2" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="AY2" s="147"/>
-      <c r="AZ2" s="147"/>
-      <c r="BA2" s="147"/>
-      <c r="BB2" s="147"/>
-      <c r="BC2" s="147"/>
-      <c r="BD2" s="148"/>
-      <c r="BF2" s="146" t="s">
+      <c r="AY2" s="142"/>
+      <c r="AZ2" s="142"/>
+      <c r="BA2" s="142"/>
+      <c r="BB2" s="142"/>
+      <c r="BC2" s="142"/>
+      <c r="BD2" s="143"/>
+      <c r="BF2" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="BG2" s="147"/>
-      <c r="BH2" s="147"/>
-      <c r="BI2" s="147"/>
-      <c r="BJ2" s="147"/>
-      <c r="BK2" s="147"/>
-      <c r="BL2" s="148"/>
-      <c r="BN2" s="146" t="s">
+      <c r="BG2" s="142"/>
+      <c r="BH2" s="142"/>
+      <c r="BI2" s="142"/>
+      <c r="BJ2" s="142"/>
+      <c r="BK2" s="142"/>
+      <c r="BL2" s="143"/>
+      <c r="BN2" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="BO2" s="147"/>
-      <c r="BP2" s="147"/>
-      <c r="BQ2" s="147"/>
-      <c r="BR2" s="147"/>
-      <c r="BS2" s="147"/>
-      <c r="BT2" s="148"/>
-      <c r="BV2" s="146" t="s">
+      <c r="BO2" s="142"/>
+      <c r="BP2" s="142"/>
+      <c r="BQ2" s="142"/>
+      <c r="BR2" s="142"/>
+      <c r="BS2" s="142"/>
+      <c r="BT2" s="143"/>
+      <c r="BV2" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="BW2" s="147"/>
-      <c r="BX2" s="147"/>
-      <c r="BY2" s="147"/>
-      <c r="BZ2" s="147"/>
-      <c r="CA2" s="147"/>
-      <c r="CB2" s="148"/>
-      <c r="CD2" s="146" t="s">
+      <c r="BW2" s="142"/>
+      <c r="BX2" s="142"/>
+      <c r="BY2" s="142"/>
+      <c r="BZ2" s="142"/>
+      <c r="CA2" s="142"/>
+      <c r="CB2" s="143"/>
+      <c r="CD2" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="CE2" s="147"/>
-      <c r="CF2" s="147"/>
-      <c r="CG2" s="147"/>
-      <c r="CH2" s="147"/>
-      <c r="CI2" s="147"/>
-      <c r="CJ2" s="148"/>
-      <c r="CL2" s="146" t="s">
+      <c r="CE2" s="142"/>
+      <c r="CF2" s="142"/>
+      <c r="CG2" s="142"/>
+      <c r="CH2" s="142"/>
+      <c r="CI2" s="142"/>
+      <c r="CJ2" s="143"/>
+      <c r="CL2" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="CM2" s="147"/>
-      <c r="CN2" s="147"/>
-      <c r="CO2" s="147"/>
-      <c r="CP2" s="147"/>
-      <c r="CQ2" s="147"/>
-      <c r="CR2" s="148"/>
-      <c r="CT2" s="146" t="s">
+      <c r="CM2" s="142"/>
+      <c r="CN2" s="142"/>
+      <c r="CO2" s="142"/>
+      <c r="CP2" s="142"/>
+      <c r="CQ2" s="142"/>
+      <c r="CR2" s="143"/>
+      <c r="CT2" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="CU2" s="147"/>
-      <c r="CV2" s="147"/>
-      <c r="CW2" s="147"/>
-      <c r="CX2" s="147"/>
-      <c r="CY2" s="147"/>
-      <c r="CZ2" s="148"/>
-      <c r="DB2" s="146" t="s">
+      <c r="CU2" s="142"/>
+      <c r="CV2" s="142"/>
+      <c r="CW2" s="142"/>
+      <c r="CX2" s="142"/>
+      <c r="CY2" s="142"/>
+      <c r="CZ2" s="143"/>
+      <c r="DB2" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="DC2" s="147"/>
-      <c r="DD2" s="147"/>
-      <c r="DE2" s="147"/>
-      <c r="DF2" s="147"/>
-      <c r="DG2" s="147"/>
-      <c r="DH2" s="148"/>
-      <c r="DJ2" s="146" t="s">
+      <c r="DC2" s="142"/>
+      <c r="DD2" s="142"/>
+      <c r="DE2" s="142"/>
+      <c r="DF2" s="142"/>
+      <c r="DG2" s="142"/>
+      <c r="DH2" s="143"/>
+      <c r="DJ2" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="DK2" s="147"/>
-      <c r="DL2" s="147"/>
-      <c r="DM2" s="147"/>
-      <c r="DN2" s="147"/>
-      <c r="DO2" s="147"/>
-      <c r="DP2" s="148"/>
-      <c r="DR2" s="146" t="s">
+      <c r="DK2" s="142"/>
+      <c r="DL2" s="142"/>
+      <c r="DM2" s="142"/>
+      <c r="DN2" s="142"/>
+      <c r="DO2" s="142"/>
+      <c r="DP2" s="143"/>
+      <c r="DR2" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="DS2" s="147"/>
-      <c r="DT2" s="147"/>
-      <c r="DU2" s="147"/>
-      <c r="DV2" s="147"/>
-      <c r="DW2" s="147"/>
-      <c r="DX2" s="148"/>
-      <c r="DZ2" s="146" t="s">
+      <c r="DS2" s="142"/>
+      <c r="DT2" s="142"/>
+      <c r="DU2" s="142"/>
+      <c r="DV2" s="142"/>
+      <c r="DW2" s="142"/>
+      <c r="DX2" s="143"/>
+      <c r="DZ2" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="EA2" s="147"/>
-      <c r="EB2" s="147"/>
-      <c r="EC2" s="147"/>
-      <c r="ED2" s="147"/>
-      <c r="EE2" s="147"/>
-      <c r="EF2" s="148"/>
+      <c r="EA2" s="142"/>
+      <c r="EB2" s="142"/>
+      <c r="EC2" s="142"/>
+      <c r="ED2" s="142"/>
+      <c r="EE2" s="142"/>
+      <c r="EF2" s="143"/>
     </row>
     <row r="3" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
+      <c r="B3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
       <c r="E3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="144"/>
-      <c r="G3" s="142" t="s">
+      <c r="G3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="143"/>
-      <c r="J3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
+      <c r="H3" s="146"/>
+      <c r="J3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
       <c r="M3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="144"/>
-      <c r="O3" s="142" t="s">
+      <c r="O3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="143"/>
-      <c r="R3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="141"/>
-      <c r="T3" s="141"/>
+      <c r="P3" s="146"/>
+      <c r="R3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
       <c r="U3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="V3" s="144"/>
-      <c r="W3" s="142" t="s">
+      <c r="W3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="143"/>
-      <c r="Z3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="141"/>
-      <c r="AB3" s="141"/>
+      <c r="X3" s="146"/>
+      <c r="Z3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
       <c r="AC3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="AD3" s="144"/>
-      <c r="AE3" s="142" t="s">
+      <c r="AE3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="143"/>
-      <c r="AH3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="141"/>
-      <c r="AJ3" s="141"/>
+      <c r="AF3" s="146"/>
+      <c r="AH3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="148"/>
+      <c r="AJ3" s="148"/>
       <c r="AK3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="AL3" s="144"/>
-      <c r="AM3" s="142" t="s">
+      <c r="AM3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="143"/>
-      <c r="AP3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="141"/>
-      <c r="AR3" s="141"/>
+      <c r="AN3" s="146"/>
+      <c r="AP3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="148"/>
+      <c r="AR3" s="148"/>
       <c r="AS3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="AT3" s="144"/>
-      <c r="AU3" s="142" t="s">
+      <c r="AU3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="143"/>
-      <c r="AX3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="141"/>
-      <c r="AZ3" s="141"/>
+      <c r="AV3" s="146"/>
+      <c r="AX3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="148"/>
+      <c r="AZ3" s="148"/>
       <c r="BA3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="BB3" s="144"/>
-      <c r="BC3" s="142" t="s">
+      <c r="BC3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="143"/>
-      <c r="BF3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="141"/>
-      <c r="BH3" s="141"/>
+      <c r="BD3" s="146"/>
+      <c r="BF3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="148"/>
+      <c r="BH3" s="148"/>
       <c r="BI3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="BJ3" s="144"/>
-      <c r="BK3" s="142" t="s">
+      <c r="BK3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="143"/>
-      <c r="BN3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="141"/>
-      <c r="BP3" s="141"/>
+      <c r="BL3" s="146"/>
+      <c r="BN3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="148"/>
+      <c r="BP3" s="148"/>
       <c r="BQ3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="BR3" s="144"/>
-      <c r="BS3" s="142" t="s">
+      <c r="BS3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="143"/>
-      <c r="BV3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="141"/>
-      <c r="BX3" s="141"/>
+      <c r="BT3" s="146"/>
+      <c r="BV3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="148"/>
+      <c r="BX3" s="148"/>
       <c r="BY3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="BZ3" s="144"/>
-      <c r="CA3" s="142" t="s">
+      <c r="CA3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="143"/>
-      <c r="CD3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="141"/>
-      <c r="CF3" s="141"/>
+      <c r="CB3" s="146"/>
+      <c r="CD3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="148"/>
+      <c r="CF3" s="148"/>
       <c r="CG3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="CH3" s="144"/>
-      <c r="CI3" s="142" t="s">
+      <c r="CI3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CJ3" s="143"/>
-      <c r="CL3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="141"/>
-      <c r="CN3" s="141"/>
+      <c r="CJ3" s="146"/>
+      <c r="CL3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="148"/>
+      <c r="CN3" s="148"/>
       <c r="CO3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="CP3" s="144"/>
-      <c r="CQ3" s="142" t="s">
+      <c r="CQ3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CR3" s="143"/>
-      <c r="CT3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="141"/>
-      <c r="CV3" s="141"/>
+      <c r="CR3" s="146"/>
+      <c r="CT3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="148"/>
+      <c r="CV3" s="148"/>
       <c r="CW3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="CX3" s="144"/>
-      <c r="CY3" s="142" t="s">
+      <c r="CY3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CZ3" s="143"/>
-      <c r="DB3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="DC3" s="141"/>
-      <c r="DD3" s="141"/>
+      <c r="CZ3" s="146"/>
+      <c r="DB3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="148"/>
+      <c r="DD3" s="148"/>
       <c r="DE3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="DF3" s="144"/>
-      <c r="DG3" s="142" t="s">
+      <c r="DG3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="DH3" s="143"/>
-      <c r="DJ3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="DK3" s="141"/>
-      <c r="DL3" s="141"/>
+      <c r="DH3" s="146"/>
+      <c r="DJ3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="148"/>
+      <c r="DL3" s="148"/>
       <c r="DM3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="DN3" s="144"/>
-      <c r="DO3" s="142" t="s">
+      <c r="DO3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="DP3" s="143"/>
-      <c r="DR3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS3" s="141"/>
-      <c r="DT3" s="141"/>
+      <c r="DP3" s="146"/>
+      <c r="DR3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS3" s="148"/>
+      <c r="DT3" s="148"/>
       <c r="DU3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="DV3" s="144"/>
-      <c r="DW3" s="142" t="s">
+      <c r="DW3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="DX3" s="143"/>
-      <c r="DZ3" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="EA3" s="141"/>
-      <c r="EB3" s="141"/>
+      <c r="DX3" s="146"/>
+      <c r="DZ3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="148"/>
+      <c r="EB3" s="148"/>
       <c r="EC3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="ED3" s="144"/>
-      <c r="EE3" s="142" t="s">
+      <c r="EE3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="EF3" s="143"/>
+      <c r="EF3" s="146"/>
     </row>
     <row r="4" spans="2:136" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -42246,6 +42363,62 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="DW3:DX3"/>
+    <mergeCell ref="DZ3:EB3"/>
+    <mergeCell ref="EC3:ED3"/>
+    <mergeCell ref="EE3:EF3"/>
+    <mergeCell ref="DG3:DH3"/>
+    <mergeCell ref="DJ3:DL3"/>
+    <mergeCell ref="DM3:DN3"/>
+    <mergeCell ref="DO3:DP3"/>
+    <mergeCell ref="DR3:DT3"/>
+    <mergeCell ref="DU3:DV3"/>
+    <mergeCell ref="DE3:DF3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="CG3:CH3"/>
+    <mergeCell ref="CI3:CJ3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="CQ3:CR3"/>
+    <mergeCell ref="CT3:CV3"/>
+    <mergeCell ref="CW3:CX3"/>
+    <mergeCell ref="CY3:CZ3"/>
+    <mergeCell ref="DB3:DD3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="DB2:DH2"/>
+    <mergeCell ref="DJ2:DP2"/>
+    <mergeCell ref="DR2:DX2"/>
+    <mergeCell ref="DZ2:EF2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="CL2:CR2"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="J2:P2"/>
@@ -42258,62 +42431,6 @@
     <mergeCell ref="BN2:BT2"/>
     <mergeCell ref="BV2:CB2"/>
     <mergeCell ref="CD2:CJ2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="DB2:DH2"/>
-    <mergeCell ref="DJ2:DP2"/>
-    <mergeCell ref="DR2:DX2"/>
-    <mergeCell ref="DZ2:EF2"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="DE3:DF3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="CG3:CH3"/>
-    <mergeCell ref="CI3:CJ3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="CQ3:CR3"/>
-    <mergeCell ref="CT3:CV3"/>
-    <mergeCell ref="CW3:CX3"/>
-    <mergeCell ref="CY3:CZ3"/>
-    <mergeCell ref="DB3:DD3"/>
-    <mergeCell ref="DW3:DX3"/>
-    <mergeCell ref="DZ3:EB3"/>
-    <mergeCell ref="EC3:ED3"/>
-    <mergeCell ref="EE3:EF3"/>
-    <mergeCell ref="DG3:DH3"/>
-    <mergeCell ref="DJ3:DL3"/>
-    <mergeCell ref="DM3:DN3"/>
-    <mergeCell ref="DO3:DP3"/>
-    <mergeCell ref="DR3:DT3"/>
-    <mergeCell ref="DU3:DV3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43191,30 +43308,30 @@
     </row>
     <row r="38" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="3:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="C39" s="146" t="s">
+      <c r="C39" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="147"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="148"/>
+      <c r="D39" s="142"/>
+      <c r="E39" s="142"/>
+      <c r="F39" s="142"/>
+      <c r="G39" s="142"/>
+      <c r="H39" s="142"/>
+      <c r="I39" s="143"/>
     </row>
     <row r="40" spans="3:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="C40" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="141"/>
-      <c r="E40" s="141"/>
+      <c r="C40" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
       <c r="F40" s="144" t="s">
         <v>4</v>
       </c>
       <c r="G40" s="144"/>
-      <c r="H40" s="142" t="s">
+      <c r="H40" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="143"/>
+      <c r="I40" s="146"/>
     </row>
     <row r="41" spans="3:9" ht="19" x14ac:dyDescent="0.25">
       <c r="C41" s="14" t="s">
@@ -43961,7 +44078,7 @@
       </c>
       <c r="D3" s="8">
         <f>G42</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>10</v>
@@ -44049,14 +44166,14 @@
       </c>
       <c r="D5" s="8">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="8">
         <f t="shared" si="0"/>
-        <v>399</v>
+        <v>467</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>12</v>
@@ -44144,7 +44261,7 @@
       </c>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>14</v>
@@ -44181,7 +44298,7 @@
       </c>
       <c r="D8" s="8">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>15</v>
@@ -44225,21 +44342,21 @@
       </c>
       <c r="D9" s="8">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>16</v>
@@ -44276,7 +44393,7 @@
       </c>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>17</v>
@@ -44313,7 +44430,7 @@
       </c>
       <c r="D11" s="8">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>18</v>
@@ -44408,7 +44525,7 @@
       </c>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>20</v>
@@ -44445,14 +44562,14 @@
       </c>
       <c r="D14" s="8">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>21</v>
@@ -44489,14 +44606,14 @@
       </c>
       <c r="D15" s="8">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>371</v>
+        <v>439</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>22</v>
@@ -44577,7 +44694,7 @@
       </c>
       <c r="D17" s="8">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>24</v>
@@ -44628,7 +44745,7 @@
       </c>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>25</v>
@@ -44672,7 +44789,7 @@
       </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>26</v>
@@ -44709,7 +44826,7 @@
       </c>
       <c r="D20" s="8">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>27</v>
@@ -44753,14 +44870,14 @@
       </c>
       <c r="D21" s="8">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>317</v>
+        <v>403</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>28</v>
@@ -44797,7 +44914,7 @@
       </c>
       <c r="D22" s="8">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>29</v>
@@ -44811,7 +44928,7 @@
       </c>
       <c r="J22" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>29</v>
@@ -44869,7 +44986,7 @@
       </c>
       <c r="P23" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="6" t="s">
         <v>50</v>
@@ -44925,30 +45042,30 @@
     </row>
     <row r="38" spans="6:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="6:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="F39" s="149" t="s">
+      <c r="F39" s="150" t="s">
         <v>46</v>
       </c>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="151"/>
+      <c r="G39" s="151"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="151"/>
+      <c r="K39" s="151"/>
+      <c r="L39" s="152"/>
     </row>
     <row r="40" spans="6:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="F40" s="140" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="141"/>
-      <c r="H40" s="141"/>
+      <c r="F40" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
       <c r="I40" s="144" t="s">
         <v>4</v>
       </c>
       <c r="J40" s="144"/>
-      <c r="K40" s="142" t="s">
+      <c r="K40" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="143"/>
+      <c r="L40" s="146"/>
     </row>
     <row r="41" spans="6:12" ht="19" x14ac:dyDescent="0.25">
       <c r="F41" s="14" t="s">
@@ -44979,7 +45096,7 @@
       </c>
       <c r="G42" s="7">
         <f>'Estadisticas 1º Vuelta'!F40+'Estadisticas 2º Vuelta'!D42</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H42" s="7">
         <f>'Estadisticas 1º Vuelta'!G40+'Estadisticas 2º Vuelta'!E42</f>
@@ -45037,11 +45154,11 @@
       </c>
       <c r="G44" s="7">
         <f>'Estadisticas 1º Vuelta'!F42+'Estadisticas 2º Vuelta'!D44</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H44" s="7">
         <f>'Estadisticas 1º Vuelta'!G42+'Estadisticas 2º Vuelta'!E44</f>
-        <v>399</v>
+        <v>467</v>
       </c>
       <c r="I44" s="7">
         <f>'Estadisticas 1º Vuelta'!H42+'Estadisticas 2º Vuelta'!F44</f>
@@ -45099,7 +45216,7 @@
       </c>
       <c r="H46" s="7">
         <f>'Estadisticas 1º Vuelta'!G44+'Estadisticas 2º Vuelta'!E46</f>
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="I46" s="7">
         <f>'Estadisticas 1º Vuelta'!H44+'Estadisticas 2º Vuelta'!F46</f>
@@ -45124,7 +45241,7 @@
       </c>
       <c r="G47" s="7">
         <f>'Estadisticas 1º Vuelta'!F45+'Estadisticas 2º Vuelta'!D47</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H47" s="7">
         <f>'Estadisticas 1º Vuelta'!G45+'Estadisticas 2º Vuelta'!E47</f>
@@ -45153,15 +45270,15 @@
       </c>
       <c r="G48" s="7">
         <f>'Estadisticas 1º Vuelta'!F46+'Estadisticas 2º Vuelta'!D48</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H48" s="7">
         <f>'Estadisticas 1º Vuelta'!G46+'Estadisticas 2º Vuelta'!E48</f>
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="I48" s="7">
         <f>'Estadisticas 1º Vuelta'!H46+'Estadisticas 2º Vuelta'!F48</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="7">
         <f>'Estadisticas 1º Vuelta'!I46+'Estadisticas 2º Vuelta'!G48</f>
@@ -45186,7 +45303,7 @@
       </c>
       <c r="H49" s="7">
         <f>'Estadisticas 1º Vuelta'!G47+'Estadisticas 2º Vuelta'!E49</f>
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="I49" s="7">
         <f>'Estadisticas 1º Vuelta'!H47+'Estadisticas 2º Vuelta'!F49</f>
@@ -45211,7 +45328,7 @@
       </c>
       <c r="G50" s="7">
         <f>'Estadisticas 1º Vuelta'!F48+'Estadisticas 2º Vuelta'!D50</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H50" s="7">
         <f>'Estadisticas 1º Vuelta'!G48+'Estadisticas 2º Vuelta'!E50</f>
@@ -45273,7 +45390,7 @@
       </c>
       <c r="H52" s="7">
         <f>'Estadisticas 1º Vuelta'!G49+'Estadisticas 2º Vuelta'!E52</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I52" s="7">
         <f>'Estadisticas 1º Vuelta'!H49+'Estadisticas 2º Vuelta'!F52</f>
@@ -45298,11 +45415,11 @@
       </c>
       <c r="G53" s="7">
         <f>'Estadisticas 1º Vuelta'!F50+'Estadisticas 2º Vuelta'!D53</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H53" s="7">
         <f>'Estadisticas 1º Vuelta'!G50+'Estadisticas 2º Vuelta'!E53</f>
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="I53" s="7">
         <f>'Estadisticas 1º Vuelta'!H50+'Estadisticas 2º Vuelta'!F53</f>
@@ -45327,11 +45444,11 @@
       </c>
       <c r="G54" s="7">
         <f>'Estadisticas 1º Vuelta'!F51+'Estadisticas 2º Vuelta'!D54</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H54" s="7">
         <f>'Estadisticas 1º Vuelta'!G51+'Estadisticas 2º Vuelta'!E54</f>
-        <v>371</v>
+        <v>439</v>
       </c>
       <c r="I54" s="7">
         <f>'Estadisticas 1º Vuelta'!H51+'Estadisticas 2º Vuelta'!F54</f>
@@ -45385,7 +45502,7 @@
       </c>
       <c r="G56" s="7">
         <f>'Estadisticas 1º Vuelta'!F53+'Estadisticas 2º Vuelta'!D56</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H56" s="7">
         <f>'Estadisticas 1º Vuelta'!G53+'Estadisticas 2º Vuelta'!E56</f>
@@ -45418,7 +45535,7 @@
       </c>
       <c r="H57" s="7">
         <f>'Estadisticas 1º Vuelta'!G54+'Estadisticas 2º Vuelta'!E57</f>
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="I57" s="7">
         <f>'Estadisticas 1º Vuelta'!H54+'Estadisticas 2º Vuelta'!F57</f>
@@ -45447,7 +45564,7 @@
       </c>
       <c r="H58" s="7">
         <f>'Estadisticas 1º Vuelta'!G55+'Estadisticas 2º Vuelta'!E58</f>
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="I58" s="7">
         <f>'Estadisticas 1º Vuelta'!H55+'Estadisticas 2º Vuelta'!F58</f>
@@ -45472,7 +45589,7 @@
       </c>
       <c r="G59" s="7">
         <f>'Estadisticas 1º Vuelta'!F56+'Estadisticas 2º Vuelta'!D59</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H59" s="7">
         <f>'Estadisticas 1º Vuelta'!G56+'Estadisticas 2º Vuelta'!E59</f>
@@ -45501,11 +45618,11 @@
       </c>
       <c r="G60" s="7">
         <f>'Estadisticas 1º Vuelta'!F57+'Estadisticas 2º Vuelta'!D60</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H60" s="7">
         <f>'Estadisticas 1º Vuelta'!G57+'Estadisticas 2º Vuelta'!E60</f>
-        <v>317</v>
+        <v>403</v>
       </c>
       <c r="I60" s="7">
         <f>'Estadisticas 1º Vuelta'!H57+'Estadisticas 2º Vuelta'!F60</f>
@@ -45530,7 +45647,7 @@
       </c>
       <c r="G61" s="7">
         <f>'Estadisticas 1º Vuelta'!F58+'Estadisticas 2º Vuelta'!D61</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H61" s="7">
         <f>'Estadisticas 1º Vuelta'!G58+'Estadisticas 2º Vuelta'!E61</f>
@@ -45538,7 +45655,7 @@
       </c>
       <c r="I61" s="7">
         <f>'Estadisticas 1º Vuelta'!H58+'Estadisticas 2º Vuelta'!F61</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" s="7">
         <f>'Estadisticas 1º Vuelta'!I58+'Estadisticas 2º Vuelta'!G61</f>
@@ -45575,7 +45692,7 @@
       </c>
       <c r="K62" s="7">
         <f>'Estadisticas 1º Vuelta'!J59+'Estadisticas 2º Vuelta'!H62</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="8">
         <f>'Estadisticas 1º Vuelta'!K59+'Estadisticas 2º Vuelta'!I62</f>

--- a/SALAMANCA UDS 2324.xlsx
+++ b/SALAMANCA UDS 2324.xlsx
@@ -1888,6 +1888,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1900,16 +1912,22 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1919,24 +1937,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2545,42 +2545,42 @@
       </c>
     </row>
     <row r="3" spans="2:24" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139" t="s">
+      <c r="B3" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="140"/>
-      <c r="H3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="139" t="s">
+      <c r="F3" s="136"/>
+      <c r="H3" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="140"/>
-      <c r="N3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="139" t="s">
+      <c r="L3" s="136"/>
+      <c r="N3" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="140"/>
-      <c r="T3" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="135" t="s">
+      <c r="R3" s="136"/>
+      <c r="T3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="136"/>
+      <c r="X3" s="140"/>
     </row>
     <row r="4" spans="2:24" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -3916,18 +3916,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -27248,192 +27248,192 @@
       <c r="AF2" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="AH2" s="141" t="s">
+      <c r="AH2" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="142"/>
-      <c r="AJ2" s="142"/>
-      <c r="AK2" s="142"/>
-      <c r="AL2" s="142"/>
-      <c r="AM2" s="142"/>
-      <c r="AN2" s="143"/>
-      <c r="AP2" s="141" t="s">
+      <c r="AI2" s="148"/>
+      <c r="AJ2" s="148"/>
+      <c r="AK2" s="148"/>
+      <c r="AL2" s="148"/>
+      <c r="AM2" s="148"/>
+      <c r="AN2" s="149"/>
+      <c r="AP2" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="AQ2" s="142"/>
-      <c r="AR2" s="142"/>
-      <c r="AS2" s="142"/>
-      <c r="AT2" s="142"/>
-      <c r="AU2" s="142"/>
-      <c r="AV2" s="143"/>
-      <c r="AX2" s="141" t="s">
+      <c r="AQ2" s="148"/>
+      <c r="AR2" s="148"/>
+      <c r="AS2" s="148"/>
+      <c r="AT2" s="148"/>
+      <c r="AU2" s="148"/>
+      <c r="AV2" s="149"/>
+      <c r="AX2" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="AY2" s="142"/>
-      <c r="AZ2" s="142"/>
-      <c r="BA2" s="142"/>
-      <c r="BB2" s="142"/>
-      <c r="BC2" s="142"/>
-      <c r="BD2" s="143"/>
-      <c r="BF2" s="141" t="s">
+      <c r="AY2" s="148"/>
+      <c r="AZ2" s="148"/>
+      <c r="BA2" s="148"/>
+      <c r="BB2" s="148"/>
+      <c r="BC2" s="148"/>
+      <c r="BD2" s="149"/>
+      <c r="BF2" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="BG2" s="142"/>
-      <c r="BH2" s="142"/>
-      <c r="BI2" s="142"/>
-      <c r="BJ2" s="142"/>
-      <c r="BK2" s="142"/>
-      <c r="BL2" s="143"/>
-      <c r="BN2" s="141" t="s">
+      <c r="BG2" s="148"/>
+      <c r="BH2" s="148"/>
+      <c r="BI2" s="148"/>
+      <c r="BJ2" s="148"/>
+      <c r="BK2" s="148"/>
+      <c r="BL2" s="149"/>
+      <c r="BN2" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="BO2" s="142"/>
-      <c r="BP2" s="142"/>
-      <c r="BQ2" s="142"/>
-      <c r="BR2" s="142"/>
-      <c r="BS2" s="142"/>
-      <c r="BT2" s="143"/>
-      <c r="BV2" s="141" t="s">
+      <c r="BO2" s="148"/>
+      <c r="BP2" s="148"/>
+      <c r="BQ2" s="148"/>
+      <c r="BR2" s="148"/>
+      <c r="BS2" s="148"/>
+      <c r="BT2" s="149"/>
+      <c r="BV2" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="BW2" s="142"/>
-      <c r="BX2" s="142"/>
-      <c r="BY2" s="142"/>
-      <c r="BZ2" s="142"/>
-      <c r="CA2" s="142"/>
-      <c r="CB2" s="143"/>
+      <c r="BW2" s="148"/>
+      <c r="BX2" s="148"/>
+      <c r="BY2" s="148"/>
+      <c r="BZ2" s="148"/>
+      <c r="CA2" s="148"/>
+      <c r="CB2" s="149"/>
     </row>
     <row r="3" spans="2:80" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="149" t="s">
+      <c r="B3" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="149"/>
-      <c r="G3" s="139" t="s">
+      <c r="F3" s="146"/>
+      <c r="G3" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="140"/>
-      <c r="J3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="144" t="s">
+      <c r="H3" s="136"/>
+      <c r="J3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="144"/>
-      <c r="O3" s="145" t="s">
+      <c r="N3" s="145"/>
+      <c r="O3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="146"/>
-      <c r="R3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="148"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="144" t="s">
+      <c r="P3" s="144"/>
+      <c r="R3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="144"/>
-      <c r="W3" s="145" t="s">
+      <c r="V3" s="145"/>
+      <c r="W3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="146"/>
-      <c r="Z3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="148"/>
-      <c r="AB3" s="148"/>
-      <c r="AC3" s="144" t="s">
+      <c r="X3" s="144"/>
+      <c r="Z3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="145" t="s">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="146"/>
-      <c r="AH3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="148"/>
-      <c r="AJ3" s="148"/>
-      <c r="AK3" s="144" t="s">
+      <c r="AF3" s="144"/>
+      <c r="AH3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="142"/>
+      <c r="AJ3" s="142"/>
+      <c r="AK3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="144"/>
-      <c r="AM3" s="145" t="s">
+      <c r="AL3" s="145"/>
+      <c r="AM3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="146"/>
-      <c r="AP3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="148"/>
-      <c r="AR3" s="148"/>
-      <c r="AS3" s="144" t="s">
+      <c r="AN3" s="144"/>
+      <c r="AP3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="142"/>
+      <c r="AR3" s="142"/>
+      <c r="AS3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="144"/>
-      <c r="AU3" s="145" t="s">
+      <c r="AT3" s="145"/>
+      <c r="AU3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="146"/>
-      <c r="AX3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="148"/>
-      <c r="AZ3" s="148"/>
-      <c r="BA3" s="144" t="s">
+      <c r="AV3" s="144"/>
+      <c r="AX3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="142"/>
+      <c r="AZ3" s="142"/>
+      <c r="BA3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BB3" s="144"/>
-      <c r="BC3" s="145" t="s">
+      <c r="BB3" s="145"/>
+      <c r="BC3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="146"/>
-      <c r="BF3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="148"/>
-      <c r="BH3" s="148"/>
-      <c r="BI3" s="144" t="s">
+      <c r="BD3" s="144"/>
+      <c r="BF3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="142"/>
+      <c r="BH3" s="142"/>
+      <c r="BI3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BJ3" s="144"/>
-      <c r="BK3" s="145" t="s">
+      <c r="BJ3" s="145"/>
+      <c r="BK3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="146"/>
-      <c r="BN3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="148"/>
-      <c r="BP3" s="148"/>
-      <c r="BQ3" s="144" t="s">
+      <c r="BL3" s="144"/>
+      <c r="BN3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="142"/>
+      <c r="BP3" s="142"/>
+      <c r="BQ3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="144"/>
-      <c r="BS3" s="145" t="s">
+      <c r="BR3" s="145"/>
+      <c r="BS3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="146"/>
-      <c r="BV3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="148"/>
-      <c r="BX3" s="148"/>
-      <c r="BY3" s="144" t="s">
+      <c r="BT3" s="144"/>
+      <c r="BV3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="142"/>
+      <c r="BX3" s="142"/>
+      <c r="BY3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BZ3" s="144"/>
-      <c r="CA3" s="145" t="s">
+      <c r="BZ3" s="145"/>
+      <c r="CA3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="146"/>
+      <c r="CB3" s="144"/>
     </row>
     <row r="4" spans="2:80" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -29951,24 +29951,12 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="AX2:BD2"/>
+    <mergeCell ref="BF2:BL2"/>
+    <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="BN2:BT2"/>
     <mergeCell ref="BV2:CB2"/>
     <mergeCell ref="AH2:AN2"/>
@@ -29985,12 +29973,24 @@
     <mergeCell ref="AX3:AZ3"/>
     <mergeCell ref="BA3:BB3"/>
     <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="AX2:BD2"/>
-    <mergeCell ref="BF2:BL2"/>
-    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="BY3:BZ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31237,19 +31237,19 @@
       <c r="L39" s="152"/>
     </row>
     <row r="40" spans="6:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="F40" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="148"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="144" t="s">
+      <c r="F40" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="142"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="144"/>
-      <c r="K40" s="145" t="s">
+      <c r="J40" s="145"/>
+      <c r="K40" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="146"/>
+      <c r="L40" s="144"/>
     </row>
     <row r="41" spans="6:23" ht="19" x14ac:dyDescent="0.25">
       <c r="F41" s="14" t="s">
@@ -31927,8 +31927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:EF25"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AR26" sqref="AR26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32099,328 +32099,328 @@
       <c r="AV2" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="AX2" s="141" t="s">
+      <c r="AX2" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="AY2" s="142"/>
-      <c r="AZ2" s="142"/>
-      <c r="BA2" s="142"/>
-      <c r="BB2" s="142"/>
-      <c r="BC2" s="142"/>
-      <c r="BD2" s="143"/>
-      <c r="BF2" s="141" t="s">
+      <c r="AY2" s="148"/>
+      <c r="AZ2" s="148"/>
+      <c r="BA2" s="148"/>
+      <c r="BB2" s="148"/>
+      <c r="BC2" s="148"/>
+      <c r="BD2" s="149"/>
+      <c r="BF2" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="BG2" s="142"/>
-      <c r="BH2" s="142"/>
-      <c r="BI2" s="142"/>
-      <c r="BJ2" s="142"/>
-      <c r="BK2" s="142"/>
-      <c r="BL2" s="143"/>
-      <c r="BN2" s="141" t="s">
+      <c r="BG2" s="148"/>
+      <c r="BH2" s="148"/>
+      <c r="BI2" s="148"/>
+      <c r="BJ2" s="148"/>
+      <c r="BK2" s="148"/>
+      <c r="BL2" s="149"/>
+      <c r="BN2" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="BO2" s="142"/>
-      <c r="BP2" s="142"/>
-      <c r="BQ2" s="142"/>
-      <c r="BR2" s="142"/>
-      <c r="BS2" s="142"/>
-      <c r="BT2" s="143"/>
-      <c r="BV2" s="141" t="s">
+      <c r="BO2" s="148"/>
+      <c r="BP2" s="148"/>
+      <c r="BQ2" s="148"/>
+      <c r="BR2" s="148"/>
+      <c r="BS2" s="148"/>
+      <c r="BT2" s="149"/>
+      <c r="BV2" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="BW2" s="142"/>
-      <c r="BX2" s="142"/>
-      <c r="BY2" s="142"/>
-      <c r="BZ2" s="142"/>
-      <c r="CA2" s="142"/>
-      <c r="CB2" s="143"/>
-      <c r="CD2" s="141" t="s">
+      <c r="BW2" s="148"/>
+      <c r="BX2" s="148"/>
+      <c r="BY2" s="148"/>
+      <c r="BZ2" s="148"/>
+      <c r="CA2" s="148"/>
+      <c r="CB2" s="149"/>
+      <c r="CD2" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="CE2" s="142"/>
-      <c r="CF2" s="142"/>
-      <c r="CG2" s="142"/>
-      <c r="CH2" s="142"/>
-      <c r="CI2" s="142"/>
-      <c r="CJ2" s="143"/>
-      <c r="CL2" s="141" t="s">
+      <c r="CE2" s="148"/>
+      <c r="CF2" s="148"/>
+      <c r="CG2" s="148"/>
+      <c r="CH2" s="148"/>
+      <c r="CI2" s="148"/>
+      <c r="CJ2" s="149"/>
+      <c r="CL2" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="CM2" s="142"/>
-      <c r="CN2" s="142"/>
-      <c r="CO2" s="142"/>
-      <c r="CP2" s="142"/>
-      <c r="CQ2" s="142"/>
-      <c r="CR2" s="143"/>
-      <c r="CT2" s="141" t="s">
+      <c r="CM2" s="148"/>
+      <c r="CN2" s="148"/>
+      <c r="CO2" s="148"/>
+      <c r="CP2" s="148"/>
+      <c r="CQ2" s="148"/>
+      <c r="CR2" s="149"/>
+      <c r="CT2" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="CU2" s="142"/>
-      <c r="CV2" s="142"/>
-      <c r="CW2" s="142"/>
-      <c r="CX2" s="142"/>
-      <c r="CY2" s="142"/>
-      <c r="CZ2" s="143"/>
-      <c r="DB2" s="141" t="s">
+      <c r="CU2" s="148"/>
+      <c r="CV2" s="148"/>
+      <c r="CW2" s="148"/>
+      <c r="CX2" s="148"/>
+      <c r="CY2" s="148"/>
+      <c r="CZ2" s="149"/>
+      <c r="DB2" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="DC2" s="142"/>
-      <c r="DD2" s="142"/>
-      <c r="DE2" s="142"/>
-      <c r="DF2" s="142"/>
-      <c r="DG2" s="142"/>
-      <c r="DH2" s="143"/>
-      <c r="DJ2" s="141" t="s">
+      <c r="DC2" s="148"/>
+      <c r="DD2" s="148"/>
+      <c r="DE2" s="148"/>
+      <c r="DF2" s="148"/>
+      <c r="DG2" s="148"/>
+      <c r="DH2" s="149"/>
+      <c r="DJ2" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="DK2" s="142"/>
-      <c r="DL2" s="142"/>
-      <c r="DM2" s="142"/>
-      <c r="DN2" s="142"/>
-      <c r="DO2" s="142"/>
-      <c r="DP2" s="143"/>
-      <c r="DR2" s="141" t="s">
+      <c r="DK2" s="148"/>
+      <c r="DL2" s="148"/>
+      <c r="DM2" s="148"/>
+      <c r="DN2" s="148"/>
+      <c r="DO2" s="148"/>
+      <c r="DP2" s="149"/>
+      <c r="DR2" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="DS2" s="142"/>
-      <c r="DT2" s="142"/>
-      <c r="DU2" s="142"/>
-      <c r="DV2" s="142"/>
-      <c r="DW2" s="142"/>
-      <c r="DX2" s="143"/>
-      <c r="DZ2" s="141" t="s">
+      <c r="DS2" s="148"/>
+      <c r="DT2" s="148"/>
+      <c r="DU2" s="148"/>
+      <c r="DV2" s="148"/>
+      <c r="DW2" s="148"/>
+      <c r="DX2" s="149"/>
+      <c r="DZ2" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="EA2" s="142"/>
-      <c r="EB2" s="142"/>
-      <c r="EC2" s="142"/>
-      <c r="ED2" s="142"/>
-      <c r="EE2" s="142"/>
-      <c r="EF2" s="143"/>
+      <c r="EA2" s="148"/>
+      <c r="EB2" s="148"/>
+      <c r="EC2" s="148"/>
+      <c r="ED2" s="148"/>
+      <c r="EE2" s="148"/>
+      <c r="EF2" s="149"/>
     </row>
     <row r="3" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="144" t="s">
+      <c r="B3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="144"/>
-      <c r="G3" s="145" t="s">
+      <c r="F3" s="145"/>
+      <c r="G3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="J3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="144" t="s">
+      <c r="H3" s="144"/>
+      <c r="J3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="144"/>
-      <c r="O3" s="145" t="s">
+      <c r="N3" s="145"/>
+      <c r="O3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="146"/>
-      <c r="R3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="148"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="144" t="s">
+      <c r="P3" s="144"/>
+      <c r="R3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="144"/>
-      <c r="W3" s="145" t="s">
+      <c r="V3" s="145"/>
+      <c r="W3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="146"/>
-      <c r="Z3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="148"/>
-      <c r="AB3" s="148"/>
-      <c r="AC3" s="144" t="s">
+      <c r="X3" s="144"/>
+      <c r="Z3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="145" t="s">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="146"/>
-      <c r="AH3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="148"/>
-      <c r="AJ3" s="148"/>
-      <c r="AK3" s="144" t="s">
+      <c r="AF3" s="144"/>
+      <c r="AH3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="142"/>
+      <c r="AJ3" s="142"/>
+      <c r="AK3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="144"/>
-      <c r="AM3" s="145" t="s">
+      <c r="AL3" s="145"/>
+      <c r="AM3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="146"/>
-      <c r="AP3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="148"/>
-      <c r="AR3" s="148"/>
-      <c r="AS3" s="144" t="s">
+      <c r="AN3" s="144"/>
+      <c r="AP3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="142"/>
+      <c r="AR3" s="142"/>
+      <c r="AS3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="144"/>
-      <c r="AU3" s="145" t="s">
+      <c r="AT3" s="145"/>
+      <c r="AU3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="146"/>
-      <c r="AX3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="148"/>
-      <c r="AZ3" s="148"/>
-      <c r="BA3" s="144" t="s">
+      <c r="AV3" s="144"/>
+      <c r="AX3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="142"/>
+      <c r="AZ3" s="142"/>
+      <c r="BA3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BB3" s="144"/>
-      <c r="BC3" s="145" t="s">
+      <c r="BB3" s="145"/>
+      <c r="BC3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="146"/>
-      <c r="BF3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="148"/>
-      <c r="BH3" s="148"/>
-      <c r="BI3" s="144" t="s">
+      <c r="BD3" s="144"/>
+      <c r="BF3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="142"/>
+      <c r="BH3" s="142"/>
+      <c r="BI3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BJ3" s="144"/>
-      <c r="BK3" s="145" t="s">
+      <c r="BJ3" s="145"/>
+      <c r="BK3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="146"/>
-      <c r="BN3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="148"/>
-      <c r="BP3" s="148"/>
-      <c r="BQ3" s="144" t="s">
+      <c r="BL3" s="144"/>
+      <c r="BN3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="142"/>
+      <c r="BP3" s="142"/>
+      <c r="BQ3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="144"/>
-      <c r="BS3" s="145" t="s">
+      <c r="BR3" s="145"/>
+      <c r="BS3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="146"/>
-      <c r="BV3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="148"/>
-      <c r="BX3" s="148"/>
-      <c r="BY3" s="144" t="s">
+      <c r="BT3" s="144"/>
+      <c r="BV3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="142"/>
+      <c r="BX3" s="142"/>
+      <c r="BY3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BZ3" s="144"/>
-      <c r="CA3" s="145" t="s">
+      <c r="BZ3" s="145"/>
+      <c r="CA3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="146"/>
-      <c r="CD3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="148"/>
-      <c r="CF3" s="148"/>
-      <c r="CG3" s="144" t="s">
+      <c r="CB3" s="144"/>
+      <c r="CD3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="142"/>
+      <c r="CF3" s="142"/>
+      <c r="CG3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="CH3" s="144"/>
-      <c r="CI3" s="145" t="s">
+      <c r="CH3" s="145"/>
+      <c r="CI3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="CJ3" s="146"/>
-      <c r="CL3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="148"/>
-      <c r="CN3" s="148"/>
-      <c r="CO3" s="144" t="s">
+      <c r="CJ3" s="144"/>
+      <c r="CL3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="142"/>
+      <c r="CN3" s="142"/>
+      <c r="CO3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="CP3" s="144"/>
-      <c r="CQ3" s="145" t="s">
+      <c r="CP3" s="145"/>
+      <c r="CQ3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="CR3" s="146"/>
-      <c r="CT3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="148"/>
-      <c r="CV3" s="148"/>
-      <c r="CW3" s="144" t="s">
+      <c r="CR3" s="144"/>
+      <c r="CT3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="142"/>
+      <c r="CV3" s="142"/>
+      <c r="CW3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="CX3" s="144"/>
-      <c r="CY3" s="145" t="s">
+      <c r="CX3" s="145"/>
+      <c r="CY3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="CZ3" s="146"/>
-      <c r="DB3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="DC3" s="148"/>
-      <c r="DD3" s="148"/>
-      <c r="DE3" s="144" t="s">
+      <c r="CZ3" s="144"/>
+      <c r="DB3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="142"/>
+      <c r="DD3" s="142"/>
+      <c r="DE3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="DF3" s="144"/>
-      <c r="DG3" s="145" t="s">
+      <c r="DF3" s="145"/>
+      <c r="DG3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="DH3" s="146"/>
-      <c r="DJ3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="DK3" s="148"/>
-      <c r="DL3" s="148"/>
-      <c r="DM3" s="144" t="s">
+      <c r="DH3" s="144"/>
+      <c r="DJ3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="142"/>
+      <c r="DL3" s="142"/>
+      <c r="DM3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="DN3" s="144"/>
-      <c r="DO3" s="145" t="s">
+      <c r="DN3" s="145"/>
+      <c r="DO3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="DP3" s="146"/>
-      <c r="DR3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS3" s="148"/>
-      <c r="DT3" s="148"/>
-      <c r="DU3" s="144" t="s">
+      <c r="DP3" s="144"/>
+      <c r="DR3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS3" s="142"/>
+      <c r="DT3" s="142"/>
+      <c r="DU3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="DV3" s="144"/>
-      <c r="DW3" s="145" t="s">
+      <c r="DV3" s="145"/>
+      <c r="DW3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="DX3" s="146"/>
-      <c r="DZ3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="EA3" s="148"/>
-      <c r="EB3" s="148"/>
-      <c r="EC3" s="144" t="s">
+      <c r="DX3" s="144"/>
+      <c r="DZ3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="142"/>
+      <c r="EB3" s="142"/>
+      <c r="EC3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="ED3" s="144"/>
-      <c r="EE3" s="145" t="s">
+      <c r="ED3" s="145"/>
+      <c r="EE3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="EF3" s="146"/>
+      <c r="EF3" s="144"/>
     </row>
     <row r="4" spans="2:136" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -32853,7 +32853,9 @@
       <c r="AQ5" s="7">
         <v>1</v>
       </c>
-      <c r="AR5" s="7"/>
+      <c r="AR5" s="7">
+        <v>90</v>
+      </c>
       <c r="AS5" s="7"/>
       <c r="AT5" s="7"/>
       <c r="AU5" s="7"/>
@@ -33692,7 +33694,9 @@
       <c r="AQ10" s="7">
         <v>1</v>
       </c>
-      <c r="AR10" s="7"/>
+      <c r="AR10" s="7">
+        <v>90</v>
+      </c>
       <c r="AS10" s="7"/>
       <c r="AT10" s="7"/>
       <c r="AU10" s="7"/>
@@ -34219,7 +34223,9 @@
       <c r="AQ13" s="7">
         <v>1</v>
       </c>
-      <c r="AR13" s="7"/>
+      <c r="AR13" s="7">
+        <v>90</v>
+      </c>
       <c r="AS13" s="7"/>
       <c r="AT13" s="7"/>
       <c r="AU13" s="7"/>
@@ -35084,7 +35090,9 @@
       <c r="AQ18" s="7">
         <v>1</v>
       </c>
-      <c r="AR18" s="7"/>
+      <c r="AR18" s="7">
+        <v>90</v>
+      </c>
       <c r="AS18" s="7"/>
       <c r="AT18" s="7"/>
       <c r="AU18" s="7"/>
@@ -35609,7 +35617,9 @@
       <c r="AQ21" s="7">
         <v>1</v>
       </c>
-      <c r="AR21" s="7"/>
+      <c r="AR21" s="7">
+        <v>90</v>
+      </c>
       <c r="AS21" s="7"/>
       <c r="AT21" s="7"/>
       <c r="AU21" s="7"/>
@@ -35965,7 +35975,9 @@
       <c r="AQ23" s="7">
         <v>1</v>
       </c>
-      <c r="AR23" s="7"/>
+      <c r="AR23" s="7">
+        <v>90</v>
+      </c>
       <c r="AS23" s="7">
         <v>1</v>
       </c>
@@ -36246,9 +36258,69 @@
         <f>SUM(AB5:AB24)</f>
         <v>990</v>
       </c>
+      <c r="AR25">
+        <f>SUM(AR5:AR23)</f>
+        <v>990</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AI2:AM2"/>
+    <mergeCell ref="AQ2:AU2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AX2:BD2"/>
+    <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BF2:BL2"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BN2:BT2"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV2:CB2"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="CD2:CJ2"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="CG3:CH3"/>
+    <mergeCell ref="CI3:CJ3"/>
+    <mergeCell ref="CL2:CR2"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="CQ3:CR3"/>
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="CT3:CV3"/>
+    <mergeCell ref="CW3:CX3"/>
+    <mergeCell ref="CY3:CZ3"/>
+    <mergeCell ref="DB2:DH2"/>
+    <mergeCell ref="DB3:DD3"/>
+    <mergeCell ref="DE3:DF3"/>
+    <mergeCell ref="DG3:DH3"/>
     <mergeCell ref="DZ2:EF2"/>
     <mergeCell ref="DZ3:EB3"/>
     <mergeCell ref="EC3:ED3"/>
@@ -36261,62 +36333,6 @@
     <mergeCell ref="DR3:DT3"/>
     <mergeCell ref="DU3:DV3"/>
     <mergeCell ref="DW3:DX3"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="CT3:CV3"/>
-    <mergeCell ref="CW3:CX3"/>
-    <mergeCell ref="CY3:CZ3"/>
-    <mergeCell ref="DB2:DH2"/>
-    <mergeCell ref="DB3:DD3"/>
-    <mergeCell ref="DE3:DF3"/>
-    <mergeCell ref="DG3:DH3"/>
-    <mergeCell ref="CD2:CJ2"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="CG3:CH3"/>
-    <mergeCell ref="CI3:CJ3"/>
-    <mergeCell ref="CL2:CR2"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="CQ3:CR3"/>
-    <mergeCell ref="BN2:BT2"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV2:CB2"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="AX2:BD2"/>
-    <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BF2:BL2"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AI2:AM2"/>
-    <mergeCell ref="AQ2:AU2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36405,7 +36421,7 @@
       </c>
       <c r="F3" s="8">
         <f>'1º Vuelta'!D5+'1º Vuelta'!L5+'1º Vuelta'!T5+'1º Vuelta'!AB5+'1º Vuelta'!AJ5+'1º Vuelta'!AR5+'1º Vuelta'!AZ5+'1º Vuelta'!BH5+'1º Vuelta'!BP5+'1º Vuelta'!BX5+'1º Vuelta'!CF5+'1º Vuelta'!CN5+'1º Vuelta'!CV5+'1º Vuelta'!DD5+'1º Vuelta'!DL5+'1º Vuelta'!DT5+'1º Vuelta'!EB5</f>
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>10</v>
@@ -36655,7 +36671,7 @@
       </c>
       <c r="F8" s="8">
         <f>'1º Vuelta'!D10+'1º Vuelta'!L10+'1º Vuelta'!T10+'1º Vuelta'!AB10+'1º Vuelta'!AJ10+'1º Vuelta'!AR10+'1º Vuelta'!AZ10+'1º Vuelta'!BH10+'1º Vuelta'!BP10+'1º Vuelta'!BX10+'1º Vuelta'!CF10+'1º Vuelta'!CN10+'1º Vuelta'!CV10+'1º Vuelta'!DD10+'1º Vuelta'!DL10+'1º Vuelta'!DT10+'1º Vuelta'!EB10</f>
-        <v>439</v>
+        <v>529</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>15</v>
@@ -36805,7 +36821,7 @@
       </c>
       <c r="F11" s="8">
         <f>'1º Vuelta'!D13+'1º Vuelta'!L13+'1º Vuelta'!T13+'1º Vuelta'!AB13+'1º Vuelta'!AJ13+'1º Vuelta'!AR13+'1º Vuelta'!AZ13+'1º Vuelta'!BH13+'1º Vuelta'!BP13+'1º Vuelta'!BX13+'1º Vuelta'!CF13+'1º Vuelta'!CN13+'1º Vuelta'!CV13+'1º Vuelta'!DD13+'1º Vuelta'!DL13+'1º Vuelta'!DT13+'1º Vuelta'!EB13</f>
-        <v>370</v>
+        <v>460</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>18</v>
@@ -37050,7 +37066,7 @@
       </c>
       <c r="F16" s="8">
         <f>'1º Vuelta'!D18+'1º Vuelta'!L18+'1º Vuelta'!T18+'1º Vuelta'!AB18+'1º Vuelta'!AJ18+'1º Vuelta'!AR18+'1º Vuelta'!AZ18+'1º Vuelta'!BH18+'1º Vuelta'!BP18+'1º Vuelta'!BX18+'1º Vuelta'!CF18+'1º Vuelta'!CN18+'1º Vuelta'!CV18+'1º Vuelta'!DD18+'1º Vuelta'!DL18+'1º Vuelta'!DT18+'1º Vuelta'!EB18</f>
-        <v>428</v>
+        <v>518</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>24</v>
@@ -37200,7 +37216,7 @@
       </c>
       <c r="F19" s="8">
         <f>'1º Vuelta'!D21+'1º Vuelta'!L21+'1º Vuelta'!T21+'1º Vuelta'!AB21+'1º Vuelta'!AJ21+'1º Vuelta'!AR21+'1º Vuelta'!AZ21+'1º Vuelta'!BH21+'1º Vuelta'!BP21+'1º Vuelta'!BX21+'1º Vuelta'!CF21+'1º Vuelta'!CN21+'1º Vuelta'!CV21+'1º Vuelta'!DD21+'1º Vuelta'!DL21+'1º Vuelta'!DT21+'1º Vuelta'!EB21</f>
-        <v>319</v>
+        <v>409</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>27</v>
@@ -37300,7 +37316,7 @@
       </c>
       <c r="F21" s="8">
         <f>'1º Vuelta'!D23+'1º Vuelta'!L23+'1º Vuelta'!T23+'1º Vuelta'!AB23+'1º Vuelta'!AJ23+'1º Vuelta'!AR23+'1º Vuelta'!AZ23+'1º Vuelta'!BH23+'1º Vuelta'!BP23+'1º Vuelta'!BX23+'1º Vuelta'!CF23+'1º Vuelta'!CN23+'1º Vuelta'!CV23+'1º Vuelta'!DD23+'1º Vuelta'!DL23+'1º Vuelta'!DT23+'1º Vuelta'!EB23</f>
-        <v>365</v>
+        <v>455</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>29</v>
@@ -37475,30 +37491,30 @@
     </row>
     <row r="36" spans="5:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="5:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="E37" s="141" t="s">
+      <c r="E37" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="142"/>
-      <c r="G37" s="142"/>
-      <c r="H37" s="142"/>
-      <c r="I37" s="142"/>
-      <c r="J37" s="142"/>
-      <c r="K37" s="143"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="149"/>
     </row>
     <row r="38" spans="5:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="E38" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="148"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="144" t="s">
+      <c r="E38" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="142"/>
+      <c r="G38" s="142"/>
+      <c r="H38" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="144"/>
-      <c r="J38" s="145" t="s">
+      <c r="I38" s="145"/>
+      <c r="J38" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="146"/>
+      <c r="K38" s="144"/>
     </row>
     <row r="39" spans="5:22" ht="19" x14ac:dyDescent="0.25">
       <c r="E39" s="14" t="s">
@@ -37533,7 +37549,7 @@
       </c>
       <c r="G40" s="7">
         <f>'1º Vuelta'!D5+'1º Vuelta'!L5+'1º Vuelta'!T5+'1º Vuelta'!AB5+'1º Vuelta'!AJ5+'1º Vuelta'!AR5+'1º Vuelta'!AZ5+'1º Vuelta'!BH5+'1º Vuelta'!BP5+'1º Vuelta'!BX5+'1º Vuelta'!CF5+'1º Vuelta'!CN5+'1º Vuelta'!CV5+'1º Vuelta'!DD5+'1º Vuelta'!DL5+'1º Vuelta'!DT5+'1º Vuelta'!EB5</f>
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="H40" s="7">
         <f>'1º Vuelta'!E5+'1º Vuelta'!M5+'1º Vuelta'!U5+'1º Vuelta'!AC5+'1º Vuelta'!AK5+'1º Vuelta'!AS5+'1º Vuelta'!BA5+'1º Vuelta'!BI5+'1º Vuelta'!BQ5+'1º Vuelta'!BY5+'1º Vuelta'!CG5+'1º Vuelta'!CO5+'1º Vuelta'!CW5+'1º Vuelta'!DE5+'1º Vuelta'!DM5+'1º Vuelta'!DU5+'1º Vuelta'!EC5</f>
@@ -37678,7 +37694,7 @@
       </c>
       <c r="G45" s="7">
         <f>'1º Vuelta'!D10+'1º Vuelta'!L10+'1º Vuelta'!T10+'1º Vuelta'!AB10+'1º Vuelta'!AJ10+'1º Vuelta'!AR10+'1º Vuelta'!AZ10+'1º Vuelta'!BH10+'1º Vuelta'!BP10+'1º Vuelta'!BX10+'1º Vuelta'!CF10+'1º Vuelta'!CN10+'1º Vuelta'!CV10+'1º Vuelta'!DD10+'1º Vuelta'!DL10+'1º Vuelta'!DT10+'1º Vuelta'!EB10</f>
-        <v>439</v>
+        <v>529</v>
       </c>
       <c r="H45" s="7">
         <f>'1º Vuelta'!E10+'1º Vuelta'!M10+'1º Vuelta'!U10+'1º Vuelta'!AC10+'1º Vuelta'!AK10+'1º Vuelta'!AS10+'1º Vuelta'!BA10+'1º Vuelta'!BI10+'1º Vuelta'!BQ10+'1º Vuelta'!BY10+'1º Vuelta'!CG10+'1º Vuelta'!CO10+'1º Vuelta'!CW10+'1º Vuelta'!DE10+'1º Vuelta'!DM10+'1º Vuelta'!DU10+'1º Vuelta'!EC10</f>
@@ -37765,7 +37781,7 @@
       </c>
       <c r="G48" s="7">
         <f>'1º Vuelta'!D13+'1º Vuelta'!L13+'1º Vuelta'!T13+'1º Vuelta'!AB13+'1º Vuelta'!AJ13+'1º Vuelta'!AR13+'1º Vuelta'!AZ13+'1º Vuelta'!BH13+'1º Vuelta'!BP13+'1º Vuelta'!BX13+'1º Vuelta'!CF13+'1º Vuelta'!CN13+'1º Vuelta'!CV13+'1º Vuelta'!DD13+'1º Vuelta'!DL13+'1º Vuelta'!DT13+'1º Vuelta'!EB13</f>
-        <v>370</v>
+        <v>460</v>
       </c>
       <c r="H48" s="7">
         <f>'1º Vuelta'!E13+'1º Vuelta'!M13+'1º Vuelta'!U13+'1º Vuelta'!AC13+'1º Vuelta'!AK13+'1º Vuelta'!AS13+'1º Vuelta'!BA13+'1º Vuelta'!BI13+'1º Vuelta'!BQ13+'1º Vuelta'!BY13+'1º Vuelta'!CG13+'1º Vuelta'!CO13+'1º Vuelta'!CW13+'1º Vuelta'!DE13+'1º Vuelta'!DM13+'1º Vuelta'!DU13+'1º Vuelta'!EC13</f>
@@ -37910,7 +37926,7 @@
       </c>
       <c r="G53" s="7">
         <f>'1º Vuelta'!D18+'1º Vuelta'!L18+'1º Vuelta'!T18+'1º Vuelta'!AB18+'1º Vuelta'!AJ18+'1º Vuelta'!AR18+'1º Vuelta'!AZ18+'1º Vuelta'!BH18+'1º Vuelta'!BP18+'1º Vuelta'!BX18+'1º Vuelta'!CF18+'1º Vuelta'!CN18+'1º Vuelta'!CV18+'1º Vuelta'!DD18+'1º Vuelta'!DL18+'1º Vuelta'!DT18+'1º Vuelta'!EB18</f>
-        <v>428</v>
+        <v>518</v>
       </c>
       <c r="H53" s="7">
         <f>'1º Vuelta'!E18+'1º Vuelta'!M18+'1º Vuelta'!U18+'1º Vuelta'!AC18+'1º Vuelta'!AK18+'1º Vuelta'!AS18+'1º Vuelta'!BA18+'1º Vuelta'!BI18+'1º Vuelta'!BQ18+'1º Vuelta'!BY18+'1º Vuelta'!CG18+'1º Vuelta'!CO18+'1º Vuelta'!CW18+'1º Vuelta'!DE18+'1º Vuelta'!DM18+'1º Vuelta'!DU18+'1º Vuelta'!EC18</f>
@@ -37997,7 +38013,7 @@
       </c>
       <c r="G56" s="7">
         <f>'1º Vuelta'!D21+'1º Vuelta'!L21+'1º Vuelta'!T21+'1º Vuelta'!AB21+'1º Vuelta'!AJ21+'1º Vuelta'!AR21+'1º Vuelta'!AZ21+'1º Vuelta'!BH21+'1º Vuelta'!BP21+'1º Vuelta'!BX21+'1º Vuelta'!CF21+'1º Vuelta'!CN21+'1º Vuelta'!CV21+'1º Vuelta'!DD21+'1º Vuelta'!DL21+'1º Vuelta'!DT21+'1º Vuelta'!EB21</f>
-        <v>319</v>
+        <v>409</v>
       </c>
       <c r="H56" s="7">
         <f>'1º Vuelta'!E21+'1º Vuelta'!M21+'1º Vuelta'!U21+'1º Vuelta'!AC21+'1º Vuelta'!AK21+'1º Vuelta'!AS21+'1º Vuelta'!BA21+'1º Vuelta'!BI21+'1º Vuelta'!BQ21+'1º Vuelta'!BY21+'1º Vuelta'!CG21+'1º Vuelta'!CO21+'1º Vuelta'!CW21+'1º Vuelta'!DE21+'1º Vuelta'!DM21+'1º Vuelta'!DU21+'1º Vuelta'!EC21</f>
@@ -38055,7 +38071,7 @@
       </c>
       <c r="G58" s="7">
         <f>'1º Vuelta'!D23+'1º Vuelta'!L23+'1º Vuelta'!T23+'1º Vuelta'!AB23+'1º Vuelta'!AJ23+'1º Vuelta'!AR23+'1º Vuelta'!AZ23+'1º Vuelta'!BH23+'1º Vuelta'!BP23+'1º Vuelta'!BX23+'1º Vuelta'!CF23+'1º Vuelta'!CN23+'1º Vuelta'!CV23+'1º Vuelta'!DD23+'1º Vuelta'!DL23+'1º Vuelta'!DT23+'1º Vuelta'!EB23</f>
-        <v>365</v>
+        <v>455</v>
       </c>
       <c r="H58" s="7">
         <f>'1º Vuelta'!E23+'1º Vuelta'!M23+'1º Vuelta'!U23+'1º Vuelta'!AC23+'1º Vuelta'!AK23+'1º Vuelta'!AS23+'1º Vuelta'!BA23+'1º Vuelta'!BI23+'1º Vuelta'!BQ23+'1º Vuelta'!BY23+'1º Vuelta'!CG23+'1º Vuelta'!CO23+'1º Vuelta'!CW23+'1º Vuelta'!DE23+'1º Vuelta'!DM23+'1º Vuelta'!DU23+'1º Vuelta'!EC23</f>
@@ -38215,382 +38231,382 @@
   <sheetData>
     <row r="1" spans="2:136" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B2" s="141" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="143"/>
-      <c r="J2" s="141" t="s">
+      <c r="B2" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="149"/>
+      <c r="J2" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="143"/>
-      <c r="R2" s="141" t="s">
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="149"/>
+      <c r="R2" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="142"/>
-      <c r="T2" s="142"/>
-      <c r="U2" s="142"/>
-      <c r="V2" s="142"/>
-      <c r="W2" s="142"/>
-      <c r="X2" s="143"/>
-      <c r="Z2" s="141" t="s">
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="149"/>
+      <c r="Z2" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="142"/>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="142"/>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="143"/>
-      <c r="AH2" s="141" t="s">
+      <c r="AA2" s="148"/>
+      <c r="AB2" s="148"/>
+      <c r="AC2" s="148"/>
+      <c r="AD2" s="148"/>
+      <c r="AE2" s="148"/>
+      <c r="AF2" s="149"/>
+      <c r="AH2" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="142"/>
-      <c r="AJ2" s="142"/>
-      <c r="AK2" s="142"/>
-      <c r="AL2" s="142"/>
-      <c r="AM2" s="142"/>
-      <c r="AN2" s="143"/>
-      <c r="AP2" s="141" t="s">
+      <c r="AI2" s="148"/>
+      <c r="AJ2" s="148"/>
+      <c r="AK2" s="148"/>
+      <c r="AL2" s="148"/>
+      <c r="AM2" s="148"/>
+      <c r="AN2" s="149"/>
+      <c r="AP2" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="AQ2" s="142"/>
-      <c r="AR2" s="142"/>
-      <c r="AS2" s="142"/>
-      <c r="AT2" s="142"/>
-      <c r="AU2" s="142"/>
-      <c r="AV2" s="143"/>
-      <c r="AX2" s="141" t="s">
+      <c r="AQ2" s="148"/>
+      <c r="AR2" s="148"/>
+      <c r="AS2" s="148"/>
+      <c r="AT2" s="148"/>
+      <c r="AU2" s="148"/>
+      <c r="AV2" s="149"/>
+      <c r="AX2" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="AY2" s="142"/>
-      <c r="AZ2" s="142"/>
-      <c r="BA2" s="142"/>
-      <c r="BB2" s="142"/>
-      <c r="BC2" s="142"/>
-      <c r="BD2" s="143"/>
-      <c r="BF2" s="141" t="s">
+      <c r="AY2" s="148"/>
+      <c r="AZ2" s="148"/>
+      <c r="BA2" s="148"/>
+      <c r="BB2" s="148"/>
+      <c r="BC2" s="148"/>
+      <c r="BD2" s="149"/>
+      <c r="BF2" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="BG2" s="142"/>
-      <c r="BH2" s="142"/>
-      <c r="BI2" s="142"/>
-      <c r="BJ2" s="142"/>
-      <c r="BK2" s="142"/>
-      <c r="BL2" s="143"/>
-      <c r="BN2" s="141" t="s">
+      <c r="BG2" s="148"/>
+      <c r="BH2" s="148"/>
+      <c r="BI2" s="148"/>
+      <c r="BJ2" s="148"/>
+      <c r="BK2" s="148"/>
+      <c r="BL2" s="149"/>
+      <c r="BN2" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="BO2" s="142"/>
-      <c r="BP2" s="142"/>
-      <c r="BQ2" s="142"/>
-      <c r="BR2" s="142"/>
-      <c r="BS2" s="142"/>
-      <c r="BT2" s="143"/>
-      <c r="BV2" s="141" t="s">
+      <c r="BO2" s="148"/>
+      <c r="BP2" s="148"/>
+      <c r="BQ2" s="148"/>
+      <c r="BR2" s="148"/>
+      <c r="BS2" s="148"/>
+      <c r="BT2" s="149"/>
+      <c r="BV2" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="BW2" s="142"/>
-      <c r="BX2" s="142"/>
-      <c r="BY2" s="142"/>
-      <c r="BZ2" s="142"/>
-      <c r="CA2" s="142"/>
-      <c r="CB2" s="143"/>
-      <c r="CD2" s="141" t="s">
+      <c r="BW2" s="148"/>
+      <c r="BX2" s="148"/>
+      <c r="BY2" s="148"/>
+      <c r="BZ2" s="148"/>
+      <c r="CA2" s="148"/>
+      <c r="CB2" s="149"/>
+      <c r="CD2" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="CE2" s="142"/>
-      <c r="CF2" s="142"/>
-      <c r="CG2" s="142"/>
-      <c r="CH2" s="142"/>
-      <c r="CI2" s="142"/>
-      <c r="CJ2" s="143"/>
-      <c r="CL2" s="141" t="s">
+      <c r="CE2" s="148"/>
+      <c r="CF2" s="148"/>
+      <c r="CG2" s="148"/>
+      <c r="CH2" s="148"/>
+      <c r="CI2" s="148"/>
+      <c r="CJ2" s="149"/>
+      <c r="CL2" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="CM2" s="142"/>
-      <c r="CN2" s="142"/>
-      <c r="CO2" s="142"/>
-      <c r="CP2" s="142"/>
-      <c r="CQ2" s="142"/>
-      <c r="CR2" s="143"/>
-      <c r="CT2" s="141" t="s">
+      <c r="CM2" s="148"/>
+      <c r="CN2" s="148"/>
+      <c r="CO2" s="148"/>
+      <c r="CP2" s="148"/>
+      <c r="CQ2" s="148"/>
+      <c r="CR2" s="149"/>
+      <c r="CT2" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="CU2" s="142"/>
-      <c r="CV2" s="142"/>
-      <c r="CW2" s="142"/>
-      <c r="CX2" s="142"/>
-      <c r="CY2" s="142"/>
-      <c r="CZ2" s="143"/>
-      <c r="DB2" s="141" t="s">
+      <c r="CU2" s="148"/>
+      <c r="CV2" s="148"/>
+      <c r="CW2" s="148"/>
+      <c r="CX2" s="148"/>
+      <c r="CY2" s="148"/>
+      <c r="CZ2" s="149"/>
+      <c r="DB2" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="DC2" s="142"/>
-      <c r="DD2" s="142"/>
-      <c r="DE2" s="142"/>
-      <c r="DF2" s="142"/>
-      <c r="DG2" s="142"/>
-      <c r="DH2" s="143"/>
-      <c r="DJ2" s="141" t="s">
+      <c r="DC2" s="148"/>
+      <c r="DD2" s="148"/>
+      <c r="DE2" s="148"/>
+      <c r="DF2" s="148"/>
+      <c r="DG2" s="148"/>
+      <c r="DH2" s="149"/>
+      <c r="DJ2" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="DK2" s="142"/>
-      <c r="DL2" s="142"/>
-      <c r="DM2" s="142"/>
-      <c r="DN2" s="142"/>
-      <c r="DO2" s="142"/>
-      <c r="DP2" s="143"/>
-      <c r="DR2" s="141" t="s">
+      <c r="DK2" s="148"/>
+      <c r="DL2" s="148"/>
+      <c r="DM2" s="148"/>
+      <c r="DN2" s="148"/>
+      <c r="DO2" s="148"/>
+      <c r="DP2" s="149"/>
+      <c r="DR2" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="DS2" s="142"/>
-      <c r="DT2" s="142"/>
-      <c r="DU2" s="142"/>
-      <c r="DV2" s="142"/>
-      <c r="DW2" s="142"/>
-      <c r="DX2" s="143"/>
-      <c r="DZ2" s="141" t="s">
+      <c r="DS2" s="148"/>
+      <c r="DT2" s="148"/>
+      <c r="DU2" s="148"/>
+      <c r="DV2" s="148"/>
+      <c r="DW2" s="148"/>
+      <c r="DX2" s="149"/>
+      <c r="DZ2" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="EA2" s="142"/>
-      <c r="EB2" s="142"/>
-      <c r="EC2" s="142"/>
-      <c r="ED2" s="142"/>
-      <c r="EE2" s="142"/>
-      <c r="EF2" s="143"/>
+      <c r="EA2" s="148"/>
+      <c r="EB2" s="148"/>
+      <c r="EC2" s="148"/>
+      <c r="ED2" s="148"/>
+      <c r="EE2" s="148"/>
+      <c r="EF2" s="149"/>
     </row>
     <row r="3" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="144" t="s">
+      <c r="B3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="144"/>
-      <c r="G3" s="145" t="s">
+      <c r="F3" s="145"/>
+      <c r="G3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="J3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="144" t="s">
+      <c r="H3" s="144"/>
+      <c r="J3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="144"/>
-      <c r="O3" s="145" t="s">
+      <c r="N3" s="145"/>
+      <c r="O3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="146"/>
-      <c r="R3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="148"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="144" t="s">
+      <c r="P3" s="144"/>
+      <c r="R3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="144"/>
-      <c r="W3" s="145" t="s">
+      <c r="V3" s="145"/>
+      <c r="W3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="146"/>
-      <c r="Z3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="148"/>
-      <c r="AB3" s="148"/>
-      <c r="AC3" s="144" t="s">
+      <c r="X3" s="144"/>
+      <c r="Z3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="145" t="s">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="146"/>
-      <c r="AH3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="148"/>
-      <c r="AJ3" s="148"/>
-      <c r="AK3" s="144" t="s">
+      <c r="AF3" s="144"/>
+      <c r="AH3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="142"/>
+      <c r="AJ3" s="142"/>
+      <c r="AK3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="144"/>
-      <c r="AM3" s="145" t="s">
+      <c r="AL3" s="145"/>
+      <c r="AM3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="146"/>
-      <c r="AP3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="148"/>
-      <c r="AR3" s="148"/>
-      <c r="AS3" s="144" t="s">
+      <c r="AN3" s="144"/>
+      <c r="AP3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="142"/>
+      <c r="AR3" s="142"/>
+      <c r="AS3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="144"/>
-      <c r="AU3" s="145" t="s">
+      <c r="AT3" s="145"/>
+      <c r="AU3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="146"/>
-      <c r="AX3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="148"/>
-      <c r="AZ3" s="148"/>
-      <c r="BA3" s="144" t="s">
+      <c r="AV3" s="144"/>
+      <c r="AX3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="142"/>
+      <c r="AZ3" s="142"/>
+      <c r="BA3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BB3" s="144"/>
-      <c r="BC3" s="145" t="s">
+      <c r="BB3" s="145"/>
+      <c r="BC3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="146"/>
-      <c r="BF3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="148"/>
-      <c r="BH3" s="148"/>
-      <c r="BI3" s="144" t="s">
+      <c r="BD3" s="144"/>
+      <c r="BF3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="142"/>
+      <c r="BH3" s="142"/>
+      <c r="BI3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BJ3" s="144"/>
-      <c r="BK3" s="145" t="s">
+      <c r="BJ3" s="145"/>
+      <c r="BK3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="146"/>
-      <c r="BN3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="148"/>
-      <c r="BP3" s="148"/>
-      <c r="BQ3" s="144" t="s">
+      <c r="BL3" s="144"/>
+      <c r="BN3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="142"/>
+      <c r="BP3" s="142"/>
+      <c r="BQ3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="144"/>
-      <c r="BS3" s="145" t="s">
+      <c r="BR3" s="145"/>
+      <c r="BS3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="146"/>
-      <c r="BV3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="148"/>
-      <c r="BX3" s="148"/>
-      <c r="BY3" s="144" t="s">
+      <c r="BT3" s="144"/>
+      <c r="BV3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="142"/>
+      <c r="BX3" s="142"/>
+      <c r="BY3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BZ3" s="144"/>
-      <c r="CA3" s="145" t="s">
+      <c r="BZ3" s="145"/>
+      <c r="CA3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="146"/>
-      <c r="CD3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="148"/>
-      <c r="CF3" s="148"/>
-      <c r="CG3" s="144" t="s">
+      <c r="CB3" s="144"/>
+      <c r="CD3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="142"/>
+      <c r="CF3" s="142"/>
+      <c r="CG3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="CH3" s="144"/>
-      <c r="CI3" s="145" t="s">
+      <c r="CH3" s="145"/>
+      <c r="CI3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="CJ3" s="146"/>
-      <c r="CL3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="148"/>
-      <c r="CN3" s="148"/>
-      <c r="CO3" s="144" t="s">
+      <c r="CJ3" s="144"/>
+      <c r="CL3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="142"/>
+      <c r="CN3" s="142"/>
+      <c r="CO3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="CP3" s="144"/>
-      <c r="CQ3" s="145" t="s">
+      <c r="CP3" s="145"/>
+      <c r="CQ3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="CR3" s="146"/>
-      <c r="CT3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="148"/>
-      <c r="CV3" s="148"/>
-      <c r="CW3" s="144" t="s">
+      <c r="CR3" s="144"/>
+      <c r="CT3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="142"/>
+      <c r="CV3" s="142"/>
+      <c r="CW3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="CX3" s="144"/>
-      <c r="CY3" s="145" t="s">
+      <c r="CX3" s="145"/>
+      <c r="CY3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="CZ3" s="146"/>
-      <c r="DB3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="DC3" s="148"/>
-      <c r="DD3" s="148"/>
-      <c r="DE3" s="144" t="s">
+      <c r="CZ3" s="144"/>
+      <c r="DB3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="142"/>
+      <c r="DD3" s="142"/>
+      <c r="DE3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="DF3" s="144"/>
-      <c r="DG3" s="145" t="s">
+      <c r="DF3" s="145"/>
+      <c r="DG3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="DH3" s="146"/>
-      <c r="DJ3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="DK3" s="148"/>
-      <c r="DL3" s="148"/>
-      <c r="DM3" s="144" t="s">
+      <c r="DH3" s="144"/>
+      <c r="DJ3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="142"/>
+      <c r="DL3" s="142"/>
+      <c r="DM3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="DN3" s="144"/>
-      <c r="DO3" s="145" t="s">
+      <c r="DN3" s="145"/>
+      <c r="DO3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="DP3" s="146"/>
-      <c r="DR3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS3" s="148"/>
-      <c r="DT3" s="148"/>
-      <c r="DU3" s="144" t="s">
+      <c r="DP3" s="144"/>
+      <c r="DR3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS3" s="142"/>
+      <c r="DT3" s="142"/>
+      <c r="DU3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="DV3" s="144"/>
-      <c r="DW3" s="145" t="s">
+      <c r="DV3" s="145"/>
+      <c r="DW3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="DX3" s="146"/>
-      <c r="DZ3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="EA3" s="148"/>
-      <c r="EB3" s="148"/>
-      <c r="EC3" s="144" t="s">
+      <c r="DX3" s="144"/>
+      <c r="DZ3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="142"/>
+      <c r="EB3" s="142"/>
+      <c r="EC3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="ED3" s="144"/>
-      <c r="EE3" s="145" t="s">
+      <c r="ED3" s="145"/>
+      <c r="EE3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="EF3" s="146"/>
+      <c r="EF3" s="144"/>
     </row>
     <row r="4" spans="2:136" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -42363,16 +42379,52 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="DW3:DX3"/>
-    <mergeCell ref="DZ3:EB3"/>
-    <mergeCell ref="EC3:ED3"/>
-    <mergeCell ref="EE3:EF3"/>
-    <mergeCell ref="DG3:DH3"/>
-    <mergeCell ref="DJ3:DL3"/>
-    <mergeCell ref="DM3:DN3"/>
-    <mergeCell ref="DO3:DP3"/>
-    <mergeCell ref="DR3:DT3"/>
-    <mergeCell ref="DU3:DV3"/>
+    <mergeCell ref="CL2:CR2"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="Z2:AF2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AP2:AV2"/>
+    <mergeCell ref="AX2:BD2"/>
+    <mergeCell ref="BF2:BL2"/>
+    <mergeCell ref="BN2:BT2"/>
+    <mergeCell ref="BV2:CB2"/>
+    <mergeCell ref="CD2:CJ2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="DB2:DH2"/>
+    <mergeCell ref="DJ2:DP2"/>
+    <mergeCell ref="DR2:DX2"/>
+    <mergeCell ref="DZ2:EF2"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV3:BX3"/>
     <mergeCell ref="DE3:DF3"/>
     <mergeCell ref="CA3:CB3"/>
     <mergeCell ref="CD3:CF3"/>
@@ -42385,52 +42437,16 @@
     <mergeCell ref="CW3:CX3"/>
     <mergeCell ref="CY3:CZ3"/>
     <mergeCell ref="DB3:DD3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="DB2:DH2"/>
-    <mergeCell ref="DJ2:DP2"/>
-    <mergeCell ref="DR2:DX2"/>
-    <mergeCell ref="DZ2:EF2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="CL2:CR2"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="R2:X2"/>
-    <mergeCell ref="Z2:AF2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AP2:AV2"/>
-    <mergeCell ref="AX2:BD2"/>
-    <mergeCell ref="BF2:BL2"/>
-    <mergeCell ref="BN2:BT2"/>
-    <mergeCell ref="BV2:CB2"/>
-    <mergeCell ref="CD2:CJ2"/>
+    <mergeCell ref="DW3:DX3"/>
+    <mergeCell ref="DZ3:EB3"/>
+    <mergeCell ref="EC3:ED3"/>
+    <mergeCell ref="EE3:EF3"/>
+    <mergeCell ref="DG3:DH3"/>
+    <mergeCell ref="DJ3:DL3"/>
+    <mergeCell ref="DM3:DN3"/>
+    <mergeCell ref="DO3:DP3"/>
+    <mergeCell ref="DR3:DT3"/>
+    <mergeCell ref="DU3:DV3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43308,30 +43324,30 @@
     </row>
     <row r="38" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="3:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="C39" s="141" t="s">
+      <c r="C39" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="142"/>
-      <c r="E39" s="142"/>
-      <c r="F39" s="142"/>
-      <c r="G39" s="142"/>
-      <c r="H39" s="142"/>
-      <c r="I39" s="143"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="149"/>
     </row>
     <row r="40" spans="3:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="C40" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="148"/>
-      <c r="E40" s="148"/>
-      <c r="F40" s="144" t="s">
+      <c r="C40" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="142"/>
+      <c r="E40" s="142"/>
+      <c r="F40" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="144"/>
-      <c r="H40" s="145" t="s">
+      <c r="G40" s="145"/>
+      <c r="H40" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="146"/>
+      <c r="I40" s="144"/>
     </row>
     <row r="41" spans="3:9" ht="19" x14ac:dyDescent="0.25">
       <c r="C41" s="14" t="s">
@@ -44085,7 +44101,7 @@
       </c>
       <c r="G3" s="8">
         <f t="shared" ref="G3:G24" si="0">H42</f>
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>10</v>
@@ -44305,7 +44321,7 @@
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>439</v>
+        <v>529</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>15</v>
@@ -44437,7 +44453,7 @@
       </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>370</v>
+        <v>460</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>18</v>
@@ -44701,7 +44717,7 @@
       </c>
       <c r="G17" s="8">
         <f t="shared" si="0"/>
-        <v>428</v>
+        <v>518</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>24</v>
@@ -44833,7 +44849,7 @@
       </c>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>319</v>
+        <v>409</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>27</v>
@@ -44921,7 +44937,7 @@
       </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>455</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>29</v>
@@ -45053,19 +45069,19 @@
       <c r="L39" s="152"/>
     </row>
     <row r="40" spans="6:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="F40" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="148"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="144" t="s">
+      <c r="F40" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="142"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="144"/>
-      <c r="K40" s="145" t="s">
+      <c r="J40" s="145"/>
+      <c r="K40" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="146"/>
+      <c r="L40" s="144"/>
     </row>
     <row r="41" spans="6:12" ht="19" x14ac:dyDescent="0.25">
       <c r="F41" s="14" t="s">
@@ -45100,7 +45116,7 @@
       </c>
       <c r="H42" s="7">
         <f>'Estadisticas 1º Vuelta'!G40+'Estadisticas 2º Vuelta'!E42</f>
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="I42" s="7">
         <f>'Estadisticas 1º Vuelta'!H40+'Estadisticas 2º Vuelta'!F42</f>
@@ -45245,7 +45261,7 @@
       </c>
       <c r="H47" s="7">
         <f>'Estadisticas 1º Vuelta'!G45+'Estadisticas 2º Vuelta'!E47</f>
-        <v>439</v>
+        <v>529</v>
       </c>
       <c r="I47" s="7">
         <f>'Estadisticas 1º Vuelta'!H45+'Estadisticas 2º Vuelta'!F47</f>
@@ -45332,7 +45348,7 @@
       </c>
       <c r="H50" s="7">
         <f>'Estadisticas 1º Vuelta'!G48+'Estadisticas 2º Vuelta'!E50</f>
-        <v>370</v>
+        <v>460</v>
       </c>
       <c r="I50" s="7">
         <f>'Estadisticas 1º Vuelta'!H48+'Estadisticas 2º Vuelta'!F50</f>
@@ -45506,7 +45522,7 @@
       </c>
       <c r="H56" s="7">
         <f>'Estadisticas 1º Vuelta'!G53+'Estadisticas 2º Vuelta'!E56</f>
-        <v>428</v>
+        <v>518</v>
       </c>
       <c r="I56" s="7">
         <f>'Estadisticas 1º Vuelta'!H53+'Estadisticas 2º Vuelta'!F56</f>
@@ -45593,7 +45609,7 @@
       </c>
       <c r="H59" s="7">
         <f>'Estadisticas 1º Vuelta'!G56+'Estadisticas 2º Vuelta'!E59</f>
-        <v>319</v>
+        <v>409</v>
       </c>
       <c r="I59" s="7">
         <f>'Estadisticas 1º Vuelta'!H56+'Estadisticas 2º Vuelta'!F59</f>
@@ -45651,7 +45667,7 @@
       </c>
       <c r="H61" s="7">
         <f>'Estadisticas 1º Vuelta'!G58+'Estadisticas 2º Vuelta'!E61</f>
-        <v>365</v>
+        <v>455</v>
       </c>
       <c r="I61" s="7">
         <f>'Estadisticas 1º Vuelta'!H58+'Estadisticas 2º Vuelta'!F61</f>

--- a/SALAMANCA UDS 2324.xlsx
+++ b/SALAMANCA UDS 2324.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="PRETEMPORADA" sheetId="10" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3343" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="198">
   <si>
     <t>Jugadores</t>
   </si>
@@ -948,6 +948,35 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 15/10/2023</t>
+    </r>
+  </si>
+  <si>
+    <t>CD. VILLARALBO</t>
+  </si>
+  <si>
+    <t>0 - 5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 21/10/2023</t>
     </r>
   </si>
 </sst>
@@ -1888,6 +1917,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1900,16 +1941,22 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1918,25 +1965,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2545,42 +2574,42 @@
       </c>
     </row>
     <row r="3" spans="2:24" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135" t="s">
+      <c r="B3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="136"/>
-      <c r="H3" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="135" t="s">
+      <c r="F3" s="140"/>
+      <c r="H3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="136"/>
-      <c r="N3" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="135" t="s">
+      <c r="L3" s="140"/>
+      <c r="N3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="136"/>
-      <c r="T3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="138"/>
-      <c r="V3" s="138"/>
-      <c r="W3" s="139" t="s">
+      <c r="R3" s="140"/>
+      <c r="T3" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="140"/>
+      <c r="X3" s="136"/>
     </row>
     <row r="4" spans="2:24" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -3916,18 +3945,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3938,8 +3967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2752"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4021,7 +4050,7 @@
       </c>
       <c r="K2" s="53" t="str">
         <f>IF(H2="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F2,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(3)</v>
+        <v>Pos.9(3)</v>
       </c>
       <c r="M2" t="str">
         <f>IF(H2="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B2,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4029,7 +4058,7 @@
       </c>
       <c r="N2" t="str">
         <f>IF(H2="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F2,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -4057,19 +4086,19 @@
       </c>
       <c r="J3" s="53" t="str">
         <f>IF(H3="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B3,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="K3" s="53" t="str">
         <f>IF(H3="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F3,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
       <c r="M3" t="str">
         <f>IF(H3="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B3,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="N3" t="str">
         <f>IF(H3="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F3,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -4097,19 +4126,19 @@
       </c>
       <c r="J4" s="53" t="str">
         <f>IF(H4="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B4,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="K4" s="53" t="str">
         <f>IF(H4="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F4,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(3)</v>
+        <v>-</v>
       </c>
       <c r="M4" t="str">
         <f>IF(H4="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B4,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="N4" t="str">
         <f>IF(H4="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F4,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -4137,11 +4166,11 @@
       </c>
       <c r="J5" s="53" t="str">
         <f>IF(H5="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B5,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.9(3)</v>
       </c>
       <c r="K5" s="53" t="str">
         <f>IF(H5="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F5,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="M5" t="str">
         <f>IF(H5="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B5,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4149,7 +4178,7 @@
       </c>
       <c r="N5" t="str">
         <f>IF(H5="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F5,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -4177,19 +4206,19 @@
       </c>
       <c r="J6" s="53" t="str">
         <f>IF(H6="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B6,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(3)</v>
+        <v>Pos.9(3)</v>
       </c>
       <c r="K6" s="53" t="str">
         <f>IF(H6="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F6,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(3)</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="M6" t="str">
         <f>IF(H6="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B6,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(2)</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="N6" t="str">
         <f>IF(H6="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F6,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(2)</v>
+        <v>Pos.5(2)</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -4217,11 +4246,11 @@
       </c>
       <c r="J7" s="53" t="str">
         <f>IF(H7="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B7,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(3)</v>
+        <v>-</v>
       </c>
       <c r="K7" s="53" t="str">
         <f>IF(H7="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F7,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
       <c r="M7" t="str">
         <f>IF(H7="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B7,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4229,7 +4258,7 @@
       </c>
       <c r="N7" t="str">
         <f>IF(H7="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F7,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -4257,7 +4286,7 @@
       </c>
       <c r="J8" s="53" t="str">
         <f>IF(H8="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B8,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(3)</v>
+        <v>-</v>
       </c>
       <c r="K8" s="53" t="str">
         <f>IF(H8="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F8,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4265,7 +4294,7 @@
       </c>
       <c r="M8" t="str">
         <f>IF(H8="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B8,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(2)</v>
+        <v>-</v>
       </c>
       <c r="N8" t="str">
         <f>IF(H8="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F8,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4381,7 +4410,7 @@
       </c>
       <c r="K11" s="53" t="str">
         <f>IF(H11="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F11,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(3)</v>
+        <v>-</v>
       </c>
       <c r="M11" t="str">
         <f>IF(H11="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B11,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4417,7 +4446,7 @@
       </c>
       <c r="J12" s="53" t="str">
         <f>IF(H12="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B12,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
       <c r="K12" s="53" t="str">
         <f>IF(H12="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F12,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4425,7 +4454,7 @@
       </c>
       <c r="M12" t="str">
         <f>IF(H12="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B12,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
       <c r="N12" t="str">
         <f>IF(H12="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F12,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4457,19 +4486,19 @@
       </c>
       <c r="J13" s="53" t="str">
         <f>IF(H13="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B13,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(3)</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="K13" s="53" t="str">
         <f>IF(H13="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F13,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="M13" t="str">
         <f>IF(H13="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B13,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(2)</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="N13" t="str">
         <f>IF(H13="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F13,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -4497,19 +4526,19 @@
       </c>
       <c r="J14" s="53" t="str">
         <f>IF(H14="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B14,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(3)</v>
+        <v>Pos.9(3)</v>
       </c>
       <c r="K14" s="53" t="str">
         <f>IF(H14="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F14,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(3)</v>
+        <v>-</v>
       </c>
       <c r="M14" t="str">
         <f>IF(H14="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B14,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="N14" t="str">
         <f>IF(H14="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F14,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -4537,15 +4566,15 @@
       </c>
       <c r="J15" s="53" t="str">
         <f>IF(H15="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B15,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
       <c r="K15" s="53" t="str">
         <f>IF(H15="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F15,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.9(3)</v>
       </c>
       <c r="M15" t="str">
         <f>IF(H15="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B15,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
       <c r="N15" t="str">
         <f>IF(H15="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F15,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4617,19 +4646,19 @@
       </c>
       <c r="J17" s="53" t="str">
         <f>IF(H17="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B17,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="K17" s="53" t="str">
         <f>IF(H17="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F17,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="M17" t="str">
         <f>IF(H17="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B17,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="N17" t="str">
         <f>IF(H17="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F17,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -4661,7 +4690,7 @@
       </c>
       <c r="K18" s="53" t="str">
         <f>IF(H18="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F18,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(3)</v>
+        <v>Pos.9(3)</v>
       </c>
       <c r="M18" t="str">
         <f>IF(H18="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B18,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4669,7 +4698,7 @@
       </c>
       <c r="N18" t="str">
         <f>IF(H18="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F18,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(2)</v>
+        <v>Pos.10(2)</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4697,7 +4726,7 @@
       </c>
       <c r="J19" s="53" t="str">
         <f>IF(H19="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B19,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(3)</v>
+        <v>-</v>
       </c>
       <c r="K19" s="53" t="str">
         <f>IF(H19="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F19,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4705,7 +4734,7 @@
       </c>
       <c r="M19" t="str">
         <f>IF(H19="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B19,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(2)</v>
+        <v>-</v>
       </c>
       <c r="N19" t="str">
         <f>IF(H19="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F19,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4741,7 +4770,7 @@
       </c>
       <c r="K20" s="53" t="str">
         <f>IF(H20="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F20,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
       <c r="M20" t="str">
         <f>IF(H20="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B20,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4749,7 +4778,7 @@
       </c>
       <c r="N20" t="str">
         <f>IF(H20="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F20,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -4777,7 +4806,7 @@
       </c>
       <c r="J21" s="53" t="str">
         <f>IF(H21="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B21,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(3)</v>
+        <v>Pos.9(3)</v>
       </c>
       <c r="K21" s="53" t="str">
         <f>IF(H21="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F21,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4785,7 +4814,7 @@
       </c>
       <c r="M21" t="str">
         <f>IF(H21="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B21,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="N21" t="str">
         <f>IF(H21="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F21,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4817,19 +4846,19 @@
       </c>
       <c r="J22" s="53" t="str">
         <f>IF(H22="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B22,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="K22" s="53" t="str">
         <f>IF(H22="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F22,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
       <c r="M22" t="str">
         <f>IF(H22="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B22,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="N22" t="str">
         <f>IF(H22="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F22,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -4857,7 +4886,7 @@
       </c>
       <c r="J23" s="53" t="str">
         <f>IF(H23="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B23,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.9(3)</v>
       </c>
       <c r="K23" s="53" t="str">
         <f>IF(H23="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F23,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4897,11 +4926,11 @@
       </c>
       <c r="J24" s="53" t="str">
         <f>IF(H24="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B24,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(3)</v>
+        <v>-</v>
       </c>
       <c r="K24" s="53" t="str">
         <f>IF(H24="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F24,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(3)</v>
+        <v>-</v>
       </c>
       <c r="M24" t="str">
         <f>IF(H24="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B24,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4909,7 +4938,7 @@
       </c>
       <c r="N24" t="str">
         <f>IF(H24="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F24,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -4941,7 +4970,7 @@
       </c>
       <c r="K25" s="53" t="str">
         <f>IF(H25="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F25,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(3)</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="M25" t="str">
         <f>IF(H25="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B25,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4949,7 +4978,7 @@
       </c>
       <c r="N25" t="str">
         <f>IF(H25="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F25,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(2)</v>
+        <v>Pos.5(2)</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -4977,7 +5006,7 @@
       </c>
       <c r="J26" s="53" t="str">
         <f>IF(H26="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B26,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="K26" s="53" t="str">
         <f>IF(H26="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F26,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4985,7 +5014,7 @@
       </c>
       <c r="M26" t="str">
         <f>IF(H26="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B26,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="N26" t="str">
         <f>IF(H26="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F26,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5017,19 +5046,19 @@
       </c>
       <c r="J27" s="53" t="str">
         <f>IF(H27="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B27,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(3)</v>
+        <v>-</v>
       </c>
       <c r="K27" s="53" t="str">
         <f>IF(H27="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F27,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(3)</v>
+        <v>Pos.9(3)</v>
       </c>
       <c r="M27" t="str">
         <f>IF(H27="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B27,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(2)</v>
+        <v>-</v>
       </c>
       <c r="N27" t="str">
         <f>IF(H27="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F27,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(2)</v>
+        <v>Pos.10(2)</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5061,7 +5090,7 @@
       </c>
       <c r="K28" s="53" t="str">
         <f>IF(H28="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F28,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="M28" t="str">
         <f>IF(H28="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B28,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5069,7 +5098,7 @@
       </c>
       <c r="N28" t="str">
         <f>IF(H28="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F28,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -5101,7 +5130,7 @@
       </c>
       <c r="K29" s="53" t="str">
         <f>IF(H29="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F29,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(3)</v>
+        <v>-</v>
       </c>
       <c r="M29" t="str">
         <f>IF(H29="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B29,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5109,7 +5138,7 @@
       </c>
       <c r="N29" t="str">
         <f>IF(H29="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F29,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -5137,15 +5166,15 @@
       </c>
       <c r="K30" s="53" t="str">
         <f>IF(H30="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F30,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(3)</v>
+        <v>Pos.9(3)</v>
       </c>
       <c r="M30" t="str">
         <f>IF(H30="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B30,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
       <c r="N30" t="str">
         <f>IF(H30="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F30,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -5173,7 +5202,7 @@
       </c>
       <c r="J31" s="53" t="str">
         <f>IF(H31="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B31,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="K31" s="53" t="str">
         <f>IF(H31="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F31,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5181,7 +5210,7 @@
       </c>
       <c r="M31" t="str">
         <f>IF(H31="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B31,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="N31" t="str">
         <f>IF(H31="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F31,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5213,7 +5242,7 @@
       </c>
       <c r="J32" s="53" t="str">
         <f>IF(H32="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B32,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
       <c r="K32" s="53" t="str">
         <f>IF(H32="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F32,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5221,7 +5250,7 @@
       </c>
       <c r="M32" t="str">
         <f>IF(H32="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B32,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
       <c r="N32" t="str">
         <f>IF(H32="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F32,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5257,7 +5286,7 @@
       </c>
       <c r="K33" s="53" t="str">
         <f>IF(H33="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F33,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="M33" t="str">
         <f>IF(H33="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B33,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5265,7 +5294,7 @@
       </c>
       <c r="N33" t="str">
         <f>IF(H33="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F33,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -5293,15 +5322,15 @@
       </c>
       <c r="J34" s="53" t="str">
         <f>IF(H34="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B34,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(3)</v>
+        <v>-</v>
       </c>
       <c r="K34" s="53" t="str">
         <f>IF(H34="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F34,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.9(3)</v>
       </c>
       <c r="M34" t="str">
         <f>IF(H34="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B34,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(2)</v>
+        <v>-</v>
       </c>
       <c r="N34" t="str">
         <f>IF(H34="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F34,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5333,15 +5362,15 @@
       </c>
       <c r="J35" s="53" t="str">
         <f>IF(H35="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B35,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(3)</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="K35" s="53" t="str">
         <f>IF(H35="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F35,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(3)</v>
+        <v>-</v>
       </c>
       <c r="M35" t="str">
         <f>IF(H35="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B35,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(2)</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="N35" t="str">
         <f>IF(H35="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F35,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5413,19 +5442,19 @@
       </c>
       <c r="J37" s="53" t="str">
         <f>IF(H37="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B37,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(3)</v>
+        <v>Pos.9(3)</v>
       </c>
       <c r="K37" s="53" t="str">
         <f>IF(H37="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F37,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="M37" t="str">
         <f>IF(H37="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B37,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(2)</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="N37" t="str">
         <f>IF(H37="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F37,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -5457,7 +5486,7 @@
       </c>
       <c r="K38" s="53" t="str">
         <f>IF(H38="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F38,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
       <c r="M38" t="str">
         <f>IF(H38="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B38,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5465,7 +5494,7 @@
       </c>
       <c r="N38" t="str">
         <f>IF(H38="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F38,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -5493,19 +5522,19 @@
       </c>
       <c r="J39" s="53" t="str">
         <f>IF(H39="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B39,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(3)</v>
+        <v>Pos.9(3)</v>
       </c>
       <c r="K39" s="53" t="str">
         <f>IF(H39="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F39,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="M39" t="str">
         <f>IF(H39="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B39,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="N39" t="str">
         <f>IF(H39="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F39,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -5537,7 +5566,7 @@
       </c>
       <c r="K40" s="53" t="str">
         <f>IF(H40="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F40,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
       <c r="M40" t="str">
         <f>IF(H40="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B40,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5545,7 +5574,7 @@
       </c>
       <c r="N40" t="str">
         <f>IF(H40="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F40,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -5613,19 +5642,19 @@
       </c>
       <c r="J42" s="53" t="str">
         <f>IF(H42="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B42,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="K42" s="53" t="str">
         <f>IF(H42="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F42,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(3)</v>
+        <v>-</v>
       </c>
       <c r="M42" t="str">
         <f>IF(H42="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B42,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="N42" t="str">
         <f>IF(H42="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F42,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -5653,11 +5682,11 @@
       </c>
       <c r="J43" s="53" t="str">
         <f>IF(H43="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B43,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.9(3)</v>
       </c>
       <c r="K43" s="53" t="str">
         <f>IF(H43="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F43,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(3)</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="M43" t="str">
         <f>IF(H43="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B43,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5665,7 +5694,7 @@
       </c>
       <c r="N43" t="str">
         <f>IF(H43="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F43,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(2)</v>
+        <v>Pos.5(2)</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -5693,7 +5722,7 @@
       </c>
       <c r="J44" s="53" t="str">
         <f>IF(H44="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B44,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(3)</v>
+        <v>-</v>
       </c>
       <c r="K44" s="53" t="str">
         <f>IF(H44="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F44,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5737,7 +5766,7 @@
       </c>
       <c r="K45" s="53" t="str">
         <f>IF(H45="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F45,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(3)</v>
+        <v>Pos.9(3)</v>
       </c>
       <c r="M45" t="str">
         <f>IF(H45="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B45,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5745,7 +5774,7 @@
       </c>
       <c r="N45" t="str">
         <f>IF(H45="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F45,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(2)</v>
+        <v>Pos.10(2)</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5773,19 +5802,19 @@
       </c>
       <c r="J46" s="53" t="str">
         <f>IF(H46="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B46,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(3)</v>
+        <v>-</v>
       </c>
       <c r="K46" s="53" t="str">
         <f>IF(H46="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F46,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="M46" t="str">
         <f>IF(H46="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B46,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(2)</v>
+        <v>-</v>
       </c>
       <c r="N46" t="str">
         <f>IF(H46="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F46,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -5813,19 +5842,19 @@
       </c>
       <c r="J47" s="53" t="str">
         <f>IF(H47="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B47,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
       <c r="K47" s="53" t="str">
         <f>IF(H47="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F47,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(3)</v>
+        <v>-</v>
       </c>
       <c r="M47" t="str">
         <f>IF(H47="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B47,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
       <c r="N47" t="str">
         <f>IF(H47="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F47,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -5853,7 +5882,7 @@
       </c>
       <c r="J48" s="53" t="str">
         <f>IF(H48="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B48,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="K48" s="53" t="str">
         <f>IF(H48="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F48,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5861,7 +5890,7 @@
       </c>
       <c r="M48" t="str">
         <f>IF(H48="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B48,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="N48" t="str">
         <f>IF(H48="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F48,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5893,19 +5922,19 @@
       </c>
       <c r="J49" s="53" t="str">
         <f>IF(H49="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B49,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
       <c r="K49" s="53" t="str">
         <f>IF(H49="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F49,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(3)</v>
+        <v>Pos.9(3)</v>
       </c>
       <c r="M49" t="str">
         <f>IF(H49="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B49,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
       <c r="N49" t="str">
         <f>IF(H49="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F49,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -5973,7 +6002,7 @@
       </c>
       <c r="J51" s="53" t="str">
         <f>IF(H51="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B51,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(3)</v>
+        <v>-</v>
       </c>
       <c r="K51" s="53" t="str">
         <f>IF(H51="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F51,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5981,7 +6010,7 @@
       </c>
       <c r="M51" t="str">
         <f>IF(H51="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B51,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(2)</v>
+        <v>-</v>
       </c>
       <c r="N51" t="str">
         <f>IF(H51="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F51,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5996,7 +6025,7 @@
         <v>119</v>
       </c>
       <c r="C52" s="117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D52" s="118" t="s">
         <v>19</v>
@@ -6009,23 +6038,23 @@
       </c>
       <c r="H52" t="str">
         <f t="shared" si="1"/>
-        <v>Empate</v>
+        <v>Local</v>
       </c>
       <c r="J52" s="53" t="str">
         <f>IF(H52="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B52,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(3)</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="K52" s="53" t="str">
         <f>IF(H52="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F52,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="M52" t="str">
         <f>IF(H52="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B52,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(2)</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="N52" t="str">
         <f>IF(H52="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F52,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
@@ -6057,7 +6086,7 @@
       </c>
       <c r="K53" s="53" t="str">
         <f>IF(H53="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F53,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.9(3)</v>
       </c>
       <c r="M53" t="str">
         <f>IF(H53="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B53,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6093,15 +6122,15 @@
       </c>
       <c r="J54" s="53" t="str">
         <f>IF(H54="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B54,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(3)</v>
+        <v>Pos.9(3)</v>
       </c>
       <c r="K54" s="53" t="str">
         <f>IF(H54="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F54,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.4(3)</v>
+        <v>-</v>
       </c>
       <c r="M54" t="str">
         <f>IF(H54="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B54,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.8(2)</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="N54" t="str">
         <f>IF(H54="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F54,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6133,7 +6162,7 @@
       </c>
       <c r="J55" s="53" t="str">
         <f>IF(H55="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B55,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="K55" s="53" t="str">
         <f>IF(H55="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F55,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6141,7 +6170,7 @@
       </c>
       <c r="M55" t="str">
         <f>IF(H55="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B55,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="N55" t="str">
         <f>IF(H55="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F55,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6155,33 +6184,37 @@
       <c r="B56" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="78"/>
+      <c r="C56" s="78">
+        <v>0</v>
+      </c>
       <c r="D56" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="78"/>
+      <c r="E56" s="78">
+        <v>5</v>
+      </c>
       <c r="F56" s="79" t="s">
         <v>118</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" ref="H56:H120" si="2">IF(OR(C56="",E56=""),"Pendiente",IF(C56&gt;E56,"Local",IF(E56&gt;C56,"Visitante",IF(C56=E56,"Empate"))))</f>
-        <v>Pendiente</v>
+        <v>Visitante</v>
       </c>
       <c r="J56" s="53" t="str">
         <f>IF(H56="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B56,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.12(2)</v>
       </c>
       <c r="K56" s="53" t="str">
         <f>IF(H56="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F56,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="M56" t="str">
         <f>IF(H56="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B56,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.12(2)</v>
       </c>
       <c r="N56" t="str">
         <f>IF(H56="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F56,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -6191,33 +6224,37 @@
       <c r="B57" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="C57" s="80"/>
+      <c r="C57" s="80">
+        <v>1</v>
+      </c>
       <c r="D57" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="80"/>
+      <c r="E57" s="80">
+        <v>0</v>
+      </c>
       <c r="F57" s="81" t="s">
         <v>120</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Local</v>
       </c>
       <c r="J57" s="53" t="str">
         <f>IF(H57="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B57,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="K57" s="53" t="str">
         <f>IF(H57="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F57,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.12(2)</v>
       </c>
       <c r="M57" t="str">
         <f>IF(H57="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B57,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="N57" t="str">
         <f>IF(H57="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F57,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.12(2)</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -6227,33 +6264,37 @@
       <c r="B58" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="80"/>
+      <c r="C58" s="80">
+        <v>0</v>
+      </c>
       <c r="D58" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="80"/>
+      <c r="E58" s="80">
+        <v>1</v>
+      </c>
       <c r="F58" s="81" t="s">
         <v>122</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Visitante</v>
       </c>
       <c r="J58" s="53" t="str">
         <f>IF(H58="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B58,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.9(3)</v>
       </c>
       <c r="K58" s="53" t="str">
         <f>IF(H58="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F58,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="M58" t="str">
         <f>IF(H58="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B58,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="N58" t="str">
         <f>IF(H58="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F58,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -6263,17 +6304,21 @@
       <c r="B59" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="C59" s="80"/>
+      <c r="C59" s="80">
+        <v>1</v>
+      </c>
       <c r="D59" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E59" s="80"/>
+      <c r="E59" s="80">
+        <v>3</v>
+      </c>
       <c r="F59" s="81" t="s">
         <v>117</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Visitante</v>
       </c>
       <c r="J59" s="53" t="str">
         <f>IF(H59="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B59,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6299,17 +6344,21 @@
       <c r="B60" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="C60" s="80"/>
+      <c r="C60" s="80">
+        <v>1</v>
+      </c>
       <c r="D60" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="80"/>
+      <c r="E60" s="80">
+        <v>0</v>
+      </c>
       <c r="F60" s="81" t="s">
         <v>119</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Local</v>
       </c>
       <c r="J60" s="53" t="str">
         <f>IF(H60="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B60,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6317,7 +6366,7 @@
       </c>
       <c r="K60" s="53" t="str">
         <f>IF(H60="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F60,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="M60" t="str">
         <f>IF(H60="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B60,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6325,7 +6374,7 @@
       </c>
       <c r="N60" t="str">
         <f>IF(H60="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F60,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -6335,21 +6384,25 @@
       <c r="B61" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="80"/>
+      <c r="C61" s="80">
+        <v>1</v>
+      </c>
       <c r="D61" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E61" s="80"/>
+      <c r="E61" s="80">
+        <v>2</v>
+      </c>
       <c r="F61" s="81" t="s">
         <v>121</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Visitante</v>
       </c>
       <c r="J61" s="53" t="str">
         <f>IF(H61="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B61,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="K61" s="53" t="str">
         <f>IF(H61="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F61,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6357,7 +6410,7 @@
       </c>
       <c r="M61" t="str">
         <f>IF(H61="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B61,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="N61" t="str">
         <f>IF(H61="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F61,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6371,25 +6424,29 @@
       <c r="B62" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="80"/>
+      <c r="C62" s="80">
+        <v>1</v>
+      </c>
       <c r="D62" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="80"/>
+      <c r="E62" s="80">
+        <v>0</v>
+      </c>
       <c r="F62" s="81" t="s">
         <v>127</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Local</v>
       </c>
       <c r="J62" s="53" t="str">
         <f>IF(H62="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B62,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.9(3)</v>
       </c>
       <c r="K62" s="53" t="str">
         <f>IF(H62="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F62,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.9(3)</v>
       </c>
       <c r="M62" t="str">
         <f>IF(H62="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B62,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6397,7 +6454,7 @@
       </c>
       <c r="N62" t="str">
         <f>IF(H62="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F62,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -6407,17 +6464,21 @@
       <c r="B63" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="80"/>
+      <c r="C63" s="80">
+        <v>0</v>
+      </c>
       <c r="D63" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="80"/>
+      <c r="E63" s="80">
+        <v>0</v>
+      </c>
       <c r="F63" s="81" t="s">
         <v>125</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Empate</v>
       </c>
       <c r="J63" s="53" t="str">
         <f>IF(H63="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B63,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6425,7 +6486,7 @@
       </c>
       <c r="K63" s="53" t="str">
         <f>IF(H63="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F63,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="M63" t="str">
         <f>IF(H63="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B63,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6433,7 +6494,7 @@
       </c>
       <c r="N63" t="str">
         <f>IF(H63="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F63,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6443,17 +6504,21 @@
       <c r="B64" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="82"/>
+      <c r="C64" s="82">
+        <v>1</v>
+      </c>
       <c r="D64" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="E64" s="82"/>
+      <c r="E64" s="82">
+        <v>1</v>
+      </c>
       <c r="F64" s="83" t="s">
         <v>130</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Empate</v>
       </c>
       <c r="J64" s="53" t="str">
         <f>IF(H64="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B64,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -22701,7 +22766,7 @@
       </c>
       <c r="B2" s="53">
         <f>C2+D2+E2</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="53">
         <f t="shared" ref="C2:C19" si="0">COUNTIFS(EQUIPO_LOCAL,$A2, GANADOR,"Local")+COUNTIFS(EQUIPO_VISITANTE,$A2,GANADOR,"Visitante")</f>
@@ -22713,7 +22778,7 @@
       </c>
       <c r="E2" s="53">
         <f t="shared" ref="E2:E19" si="2">COUNTIFS(EQUIPO_LOCAL,$A2, GANADOR,"Visitante")+COUNTIFS(EQUIPO_VISITANTE,$A2,GANADOR,"Local")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="53">
         <f t="shared" ref="F2:F19" si="3">SUMIFS(GOLES_LOCAL,EQUIPO_LOCAL,$A2)+SUMIFS(GOLES_VISITANTE,EQUIPO_VISITANTE,$A2)</f>
@@ -22721,11 +22786,11 @@
       </c>
       <c r="G2" s="53">
         <f t="shared" ref="G2:G19" si="4">SUMIFS(GOLES_VISITANTE,EQUIPO_LOCAL,$A2)+SUMIFS(GOLES_LOCAL,EQUIPO_VISITANTE,$A2)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="53">
         <f>F2-G2</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I2" s="53">
         <f>3*C2+1*D2</f>
@@ -22733,11 +22798,11 @@
       </c>
       <c r="J2" s="53">
         <f>COUNTIF(I$2:I$19,"&gt;"&amp;I2)+1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K2" s="53" t="str">
         <f>IF(COUNTIF(J$2:J$19,J2)=1,"-","Pos."&amp;J2&amp;"("&amp;COUNTIF(J$2:J$19,J2)&amp;")")</f>
-        <v>Pos.8(3)</v>
+        <v>Pos.9(3)</v>
       </c>
       <c r="L2" s="64"/>
       <c r="M2" s="53">
@@ -22750,7 +22815,7 @@
       </c>
       <c r="O2" s="53">
         <f t="shared" ref="O2:O19" si="6">IF($K2="-","-",COUNTIFS(EQUIPO_LOCAL,$A2, GANADOR,"Visitante",Grupo_de_Empate__A_priori__Equipo_Visitante,$K2)+COUNTIFS(EQUIPO_VISITANTE,$A2,GANADOR,"Local",Grupo_de_Empate__A_priori__Equipo_Local,$K2))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="53">
         <f>IF(K2="-","-",3*M2+1*N2)</f>
@@ -22762,20 +22827,20 @@
       </c>
       <c r="R2" s="53" t="str">
         <f>IF(COUNTIF(Q$2:Q$19,Q2)=1,"-","Pos."&amp;Q2&amp;"("&amp;COUNTIF(Q$2:Q$19,Q2)&amp;")")</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="S2" s="65"/>
-      <c r="T2" s="53" t="str">
+      <c r="T2" s="53">
         <f>IF(R2="-","-",SUMIFS(GOLES_LOCAL,EQUIPO_LOCAL,$A2,Grupo_de_Empate_Criterio_1__Equipo_Visitante,$R2)+SUMIFS(GOLES_VISITANTE,EQUIPO_VISITANTE,$A2,Grupo_de_Empate__Criterio_1__Equipo_Local,$R2))</f>
-        <v>-</v>
-      </c>
-      <c r="U2" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="U2" s="53">
         <f t="shared" ref="U2:U19" si="7">IF(R2="-","-",SUMIFS(GOLES_VISITANTE,EQUIPO_LOCAL,$A2,Grupo_de_Empate_Criterio_1__Equipo_Visitante,$R2)+SUMIFS(GOLES_LOCAL,EQUIPO_VISITANTE,$A2,Grupo_de_Empate__Criterio_1__Equipo_Local,$R2))</f>
-        <v>-</v>
-      </c>
-      <c r="V2" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="V2" s="53">
         <f>IF($R2="-","-",T2-U2)</f>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="W2" s="53">
         <f>Q2+COUNTIFS(R$2:R$19,R2,V$2:V$19,"&gt;"&amp;V2)</f>
@@ -22783,16 +22848,16 @@
       </c>
       <c r="X2" s="53" t="str">
         <f>IF(COUNTIF(W$2:W$19,W2)=1,"-","Pos."&amp;W2&amp;"("&amp;COUNTIF(W$2:W$19,W2)&amp;")")</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="Y2" s="63"/>
-      <c r="Z2" s="53" t="str">
+      <c r="Z2" s="53">
         <f>IF(X2="-","-",H2)</f>
-        <v>-</v>
+        <v>-1</v>
       </c>
       <c r="AA2" s="53">
         <f>W2+COUNTIFS(X$2:X$19,X2,Z$2:Z$19,"&gt;"&amp;Z2)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB2" s="53" t="str">
         <f>IF(COUNTIF(AA$2:AA$19,AA2)=1,"-","Pos."&amp;AA2&amp;"("&amp;COUNTIF(AA$2:AA$19,AA2)&amp;")")</f>
@@ -22805,7 +22870,7 @@
       </c>
       <c r="AE2" s="53">
         <f>AA2+COUNTIFS(AB$2:AB$19,AB2,AD$2:AD$19,"&gt;"&amp;AD2)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF2" s="53" t="str">
         <f>IF(COUNTIF(AE$2:AE$19,AE2)=1,"-","Pos."&amp;AE2&amp;"("&amp;COUNTIF(AE$2:AE$19,AE2)&amp;")")</f>
@@ -22818,7 +22883,7 @@
       </c>
       <c r="AI2" s="53">
         <f>AE2+COUNTIFS(AF$2:AF$19,AF2,AH$2:AH$19,"&lt;"&amp;AH2)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
@@ -22827,7 +22892,7 @@
       </c>
       <c r="B3" s="53">
         <f t="shared" ref="B3:B19" si="8">C3+D3+E3</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="53">
         <f t="shared" si="0"/>
@@ -22839,7 +22904,7 @@
       </c>
       <c r="E3" s="53">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="53">
         <f t="shared" si="3"/>
@@ -22847,11 +22912,11 @@
       </c>
       <c r="G3" s="53">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" s="53">
         <f t="shared" ref="H3:H19" si="9">F3-G3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="53">
         <f t="shared" ref="I3:I19" si="10">3*C3+1*D3</f>
@@ -22859,16 +22924,16 @@
       </c>
       <c r="J3" s="53">
         <f t="shared" ref="J3:J19" si="11">COUNTIF(I$2:I$19,"&gt;"&amp;I3)+1</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K3" s="53" t="str">
         <f t="shared" ref="K3:K19" si="12">IF(COUNTIF(J$2:J$19,J3)=1,"-","Pos."&amp;J3&amp;"("&amp;COUNTIF(J$2:J$19,J3)&amp;")")</f>
-        <v>Pos.8(3)</v>
+        <v>Pos.9(3)</v>
       </c>
       <c r="L3" s="64"/>
       <c r="M3" s="53">
         <f t="shared" ref="M3:M19" si="13">IF($K3="-","-",COUNTIFS(EQUIPO_LOCAL,$A3, GANADOR,"Local",Grupo_de_Empate__A_priori__Equipo_Visitante,$K3)+COUNTIFS(EQUIPO_VISITANTE,$A3,GANADOR,"Visitante",Grupo_de_Empate__A_priori__Equipo_Local,$K3))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="53">
         <f t="shared" si="5"/>
@@ -22876,49 +22941,49 @@
       </c>
       <c r="O3" s="53">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="53">
         <f t="shared" ref="P3:P19" si="14">IF(K3="-","-",3*M3+1*N3)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="53">
         <f t="shared" ref="Q3:Q19" si="15">$J3+COUNTIFS(K$2:K$19,K3,$P$2:$P$19,"&gt;"&amp;P3)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R3" s="53" t="str">
         <f t="shared" ref="R3:R19" si="16">IF(COUNTIF(Q$2:Q$19,Q3)=1,"-","Pos."&amp;Q3&amp;"("&amp;COUNTIF(Q$2:Q$19,Q3)&amp;")")</f>
-        <v>Pos.8(2)</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="S3" s="65"/>
       <c r="T3" s="53">
         <f t="shared" ref="T3:T19" si="17">IF(R3="-","-",SUMIFS(GOLES_LOCAL,EQUIPO_LOCAL,$A3,Grupo_de_Empate_Criterio_1__Equipo_Visitante,$R3)+SUMIFS(GOLES_VISITANTE,EQUIPO_VISITANTE,$A3,Grupo_de_Empate__Criterio_1__Equipo_Local,$R3))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U3" s="53">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" s="53">
         <f t="shared" ref="V3:V19" si="18">IF($R3="-","-",T3-U3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" s="53">
         <f t="shared" ref="W3:W19" si="19">Q3+COUNTIFS(R$2:R$19,R3,V$2:V$19,"&gt;"&amp;V3)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X3" s="53" t="str">
         <f t="shared" ref="X3:X19" si="20">IF(COUNTIF(W$2:W$19,W3)=1,"-","Pos."&amp;W3&amp;"("&amp;COUNTIF(W$2:W$19,W3)&amp;")")</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="Y3" s="63"/>
-      <c r="Z3" s="53" t="str">
+      <c r="Z3" s="53">
         <f t="shared" ref="Z3:Z19" si="21">IF(X3="-","-",H3)</f>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="53">
         <f t="shared" ref="AA3:AA19" si="22">W3+COUNTIFS(X$2:X$19,X3,Z$2:Z$19,"&gt;"&amp;Z3)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AB3" s="53" t="str">
         <f t="shared" ref="AB3:AB19" si="23">IF(COUNTIF(AA$2:AA$19,AA3)=1,"-","Pos."&amp;AA3&amp;"("&amp;COUNTIF(AA$2:AA$19,AA3)&amp;")")</f>
@@ -22931,7 +22996,7 @@
       </c>
       <c r="AE3" s="53">
         <f t="shared" ref="AE3:AE19" si="25">AA3+COUNTIFS(AB$2:AB$19,AB3,AD$2:AD$19,"&gt;"&amp;AD3)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF3" s="53" t="str">
         <f t="shared" ref="AF3:AF19" si="26">IF(COUNTIF(AE$2:AE$19,AE3)=1,"-","Pos."&amp;AE3&amp;"("&amp;COUNTIF(AE$2:AE$19,AE3)&amp;")")</f>
@@ -22944,7 +23009,7 @@
       </c>
       <c r="AI3" s="53">
         <f t="shared" ref="AI3:AI19" si="28">AE3+COUNTIFS(AF$2:AF$19,AF3,AH$2:AH$19,"&lt;"&amp;AH3)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
@@ -22953,11 +23018,11 @@
       </c>
       <c r="B4" s="53">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="53">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="53">
         <f t="shared" si="1"/>
@@ -22969,19 +23034,19 @@
       </c>
       <c r="F4" s="53">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4" s="53">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="53">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" s="53">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J4" s="53">
         <f t="shared" si="11"/>
@@ -23079,11 +23144,11 @@
       </c>
       <c r="B5" s="53">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="53">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="53">
         <f t="shared" si="1"/>
@@ -23095,7 +23160,7 @@
       </c>
       <c r="F5" s="53">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="53">
         <f t="shared" si="4"/>
@@ -23103,15 +23168,15 @@
       </c>
       <c r="H5" s="53">
         <f t="shared" si="9"/>
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="I5" s="53">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J5" s="53">
         <f t="shared" si="11"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K5" s="53" t="str">
         <f t="shared" si="12"/>
@@ -23136,7 +23201,7 @@
       </c>
       <c r="Q5" s="53">
         <f t="shared" si="15"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R5" s="53" t="str">
         <f>IF(COUNTIF(Q$2:Q$19,Q5)=1,"-","Pos."&amp;Q5&amp;"("&amp;COUNTIF(Q$2:Q$19,Q5)&amp;")")</f>
@@ -23157,7 +23222,7 @@
       </c>
       <c r="W5" s="53">
         <f t="shared" si="19"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="X5" s="53" t="str">
         <f t="shared" si="20"/>
@@ -23170,7 +23235,7 @@
       </c>
       <c r="AA5" s="53">
         <f t="shared" si="22"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AB5" s="53" t="str">
         <f t="shared" si="23"/>
@@ -23183,7 +23248,7 @@
       </c>
       <c r="AE5" s="53">
         <f t="shared" si="25"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF5" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23196,7 +23261,7 @@
       </c>
       <c r="AI5" s="53">
         <f>AE5+COUNTIFS(AF$2:AF$19,AF5,AH$2:AH$19,"&lt;"&amp;AH5)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
@@ -23205,11 +23270,11 @@
       </c>
       <c r="B6" s="53">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="53">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="53">
         <f t="shared" si="1"/>
@@ -23221,19 +23286,19 @@
       </c>
       <c r="F6" s="53">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G6" s="53">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="53">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I6" s="53">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J6" s="53">
         <f t="shared" si="11"/>
@@ -23241,24 +23306,24 @@
       </c>
       <c r="K6" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.4(3)</v>
+        <v>-</v>
       </c>
       <c r="L6" s="64"/>
-      <c r="M6" s="53">
+      <c r="M6" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="N6" s="53">
+        <v>-</v>
+      </c>
+      <c r="N6" s="53" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="53">
+        <v>-</v>
+      </c>
+      <c r="O6" s="53" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="53">
+        <v>-</v>
+      </c>
+      <c r="P6" s="53" t="str">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>-</v>
       </c>
       <c r="Q6" s="53">
         <f t="shared" si="15"/>
@@ -23266,20 +23331,20 @@
       </c>
       <c r="R6" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.4(2)</v>
+        <v>-</v>
       </c>
       <c r="S6" s="65"/>
-      <c r="T6" s="53">
+      <c r="T6" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="53">
+        <v>-</v>
+      </c>
+      <c r="U6" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="53">
+        <v>-</v>
+      </c>
+      <c r="V6" s="53" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W6" s="53">
         <f>Q6+COUNTIFS(R$2:R$19,R6,V$2:V$19,"&gt;"&amp;V6)</f>
@@ -23287,12 +23352,12 @@
       </c>
       <c r="X6" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.4(2)</v>
+        <v>-</v>
       </c>
       <c r="Y6" s="63"/>
-      <c r="Z6" s="53">
+      <c r="Z6" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>4</v>
+        <v>-</v>
       </c>
       <c r="AA6" s="53">
         <f t="shared" si="22"/>
@@ -23300,16 +23365,16 @@
       </c>
       <c r="AB6" s="53" t="str">
         <f t="shared" si="23"/>
-        <v>Pos.4(2)</v>
+        <v>-</v>
       </c>
       <c r="AC6" s="65"/>
-      <c r="AD6" s="53">
+      <c r="AD6" s="53" t="str">
         <f t="shared" si="24"/>
-        <v>5</v>
+        <v>-</v>
       </c>
       <c r="AE6" s="53">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF6" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23322,7 +23387,7 @@
       </c>
       <c r="AI6" s="53">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
@@ -23331,7 +23396,7 @@
       </c>
       <c r="B7" s="53">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="53">
         <f t="shared" si="0"/>
@@ -23343,19 +23408,19 @@
       </c>
       <c r="E7" s="53">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" s="53">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" s="53">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H7" s="53">
         <f t="shared" si="9"/>
-        <v>-14</v>
+        <v>-16</v>
       </c>
       <c r="I7" s="53">
         <f t="shared" si="10"/>
@@ -23457,7 +23522,7 @@
       </c>
       <c r="B8" s="53">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="53">
         <f t="shared" si="0"/>
@@ -23469,7 +23534,7 @@
       </c>
       <c r="E8" s="53">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="53">
         <f t="shared" si="3"/>
@@ -23477,11 +23542,11 @@
       </c>
       <c r="G8" s="53">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H8" s="53">
         <f t="shared" si="9"/>
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="I8" s="53">
         <f t="shared" si="10"/>
@@ -23489,11 +23554,11 @@
       </c>
       <c r="J8" s="53">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K8" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
       <c r="L8" s="64"/>
       <c r="M8" s="53">
@@ -23514,11 +23579,11 @@
       </c>
       <c r="Q8" s="53">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R8" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
       <c r="S8" s="65"/>
       <c r="T8" s="53">
@@ -23535,33 +23600,33 @@
       </c>
       <c r="W8" s="53">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X8" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
       <c r="Y8" s="63"/>
       <c r="Z8" s="53">
         <f t="shared" si="21"/>
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="AA8" s="53">
         <f t="shared" si="22"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB8" s="53" t="str">
         <f t="shared" si="23"/>
-        <v>Pos.11(2)</v>
+        <v>-</v>
       </c>
       <c r="AC8" s="65"/>
-      <c r="AD8" s="53">
+      <c r="AD8" s="53" t="str">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>-</v>
       </c>
       <c r="AE8" s="53">
         <f t="shared" si="25"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF8" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23574,7 +23639,7 @@
       </c>
       <c r="AI8" s="53">
         <f t="shared" si="28"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
@@ -23583,7 +23648,7 @@
       </c>
       <c r="B9" s="53">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="53">
         <f t="shared" si="0"/>
@@ -23591,7 +23656,7 @@
       </c>
       <c r="D9" s="53">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="53">
         <f t="shared" si="2"/>
@@ -23611,7 +23676,7 @@
       </c>
       <c r="I9" s="53">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="53">
         <f t="shared" si="11"/>
@@ -23619,24 +23684,24 @@
       </c>
       <c r="K9" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="L9" s="64"/>
-      <c r="M9" s="53" t="str">
+      <c r="M9" s="53">
         <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="N9" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="N9" s="53">
         <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="O9" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="O9" s="53">
         <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="P9" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="P9" s="53">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="53">
         <f>$J9+COUNTIFS(K$2:K$19,K9,$P$2:$P$19,"&gt;"&amp;P9)</f>
@@ -23644,20 +23709,20 @@
       </c>
       <c r="R9" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="S9" s="65"/>
-      <c r="T9" s="53" t="str">
+      <c r="T9" s="53">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="U9" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="U9" s="53">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V9" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="V9" s="53">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="W9" s="53">
         <f t="shared" si="19"/>
@@ -23665,12 +23730,12 @@
       </c>
       <c r="X9" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="Y9" s="63"/>
-      <c r="Z9" s="53" t="str">
+      <c r="Z9" s="53">
         <f t="shared" si="21"/>
-        <v>-</v>
+        <v>-4</v>
       </c>
       <c r="AA9" s="53">
         <f t="shared" si="22"/>
@@ -23709,11 +23774,11 @@
       </c>
       <c r="B10" s="53">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="53">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="53">
         <f t="shared" si="1"/>
@@ -23725,7 +23790,7 @@
       </c>
       <c r="F10" s="53">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" s="53">
         <f t="shared" si="4"/>
@@ -23733,11 +23798,11 @@
       </c>
       <c r="H10" s="53">
         <f t="shared" si="9"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I10" s="53">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J10" s="53">
         <f t="shared" si="11"/>
@@ -23796,7 +23861,7 @@
       <c r="Y10" s="63"/>
       <c r="Z10" s="53">
         <f t="shared" si="21"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA10" s="53">
         <f t="shared" si="22"/>
@@ -23835,11 +23900,11 @@
       </c>
       <c r="B11" s="53">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="53">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="53">
         <f t="shared" si="1"/>
@@ -23851,7 +23916,7 @@
       </c>
       <c r="F11" s="53">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11" s="53">
         <f t="shared" si="4"/>
@@ -23859,40 +23924,40 @@
       </c>
       <c r="H11" s="53">
         <f t="shared" si="9"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="53">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J11" s="53">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K11" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>Pos.9(3)</v>
       </c>
       <c r="L11" s="64"/>
-      <c r="M11" s="53" t="str">
+      <c r="M11" s="53">
         <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="N11" s="53" t="str">
+        <v>1</v>
+      </c>
+      <c r="N11" s="53">
         <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="O11" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="O11" s="53">
         <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="P11" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="P11" s="53">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="Q11" s="53">
         <f t="shared" si="15"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="R11" s="53" t="str">
         <f t="shared" si="16"/>
@@ -23913,7 +23978,7 @@
       </c>
       <c r="W11" s="53">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="X11" s="53" t="str">
         <f t="shared" si="20"/>
@@ -23926,7 +23991,7 @@
       </c>
       <c r="AA11" s="53">
         <f t="shared" si="22"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AB11" s="53" t="str">
         <f t="shared" si="23"/>
@@ -23939,7 +24004,7 @@
       </c>
       <c r="AE11" s="53">
         <f t="shared" si="25"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AF11" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23952,7 +24017,7 @@
       </c>
       <c r="AI11" s="53">
         <f t="shared" si="28"/>
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
@@ -23961,7 +24026,7 @@
       </c>
       <c r="B12" s="53">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="53">
         <f t="shared" si="0"/>
@@ -23969,90 +24034,90 @@
       </c>
       <c r="D12" s="53">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="53">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" s="53">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" s="53">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H12" s="53">
         <f t="shared" si="9"/>
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="I12" s="53">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12" s="53">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="L12" s="64"/>
-      <c r="M12" s="53" t="str">
+      <c r="M12" s="53">
         <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="N12" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="N12" s="53">
         <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="O12" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="O12" s="53">
         <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="P12" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="P12" s="53">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="53">
         <f t="shared" si="15"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R12" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="S12" s="65"/>
-      <c r="T12" s="53" t="str">
+      <c r="T12" s="53">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="U12" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="U12" s="53">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V12" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="V12" s="53">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="W12" s="53">
         <f t="shared" si="19"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X12" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>-</v>
+        <v>Pos.15(2)</v>
       </c>
       <c r="Y12" s="63"/>
-      <c r="Z12" s="53" t="str">
+      <c r="Z12" s="53">
         <f t="shared" si="21"/>
-        <v>-</v>
+        <v>-6</v>
       </c>
       <c r="AA12" s="53">
         <f t="shared" si="22"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AB12" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24065,7 +24130,7 @@
       </c>
       <c r="AE12" s="53">
         <f t="shared" si="25"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AF12" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24078,7 +24143,7 @@
       </c>
       <c r="AI12" s="53">
         <f t="shared" si="28"/>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
@@ -24087,48 +24152,48 @@
       </c>
       <c r="B13" s="53">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="53">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="53">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" s="53">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="53">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G13" s="53">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" s="53">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13" s="53">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J13" s="53">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K13" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.4(3)</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="L13" s="64"/>
       <c r="M13" s="53">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="53">
         <f t="shared" si="5"/>
@@ -24140,15 +24205,15 @@
       </c>
       <c r="P13" s="53">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="53">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R13" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.4(2)</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="S13" s="65"/>
       <c r="T13" s="53">
@@ -24165,33 +24230,33 @@
       </c>
       <c r="W13" s="53">
         <f t="shared" si="19"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X13" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.4(2)</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="Y13" s="63"/>
       <c r="Z13" s="53">
         <f t="shared" si="21"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA13" s="53">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB13" s="53" t="str">
         <f t="shared" si="23"/>
-        <v>Pos.4(2)</v>
+        <v>-</v>
       </c>
       <c r="AC13" s="65"/>
-      <c r="AD13" s="53">
+      <c r="AD13" s="53" t="str">
         <f t="shared" si="24"/>
-        <v>8</v>
+        <v>-</v>
       </c>
       <c r="AE13" s="53">
         <f t="shared" si="25"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF13" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24204,7 +24269,7 @@
       </c>
       <c r="AI13" s="53">
         <f t="shared" si="28"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
@@ -24213,7 +24278,7 @@
       </c>
       <c r="B14" s="53">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="53">
         <f t="shared" si="0"/>
@@ -24221,7 +24286,7 @@
       </c>
       <c r="D14" s="53">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14" s="53">
         <f t="shared" si="2"/>
@@ -24229,11 +24294,11 @@
       </c>
       <c r="F14" s="53">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14" s="53">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H14" s="53">
         <f t="shared" si="9"/>
@@ -24241,7 +24306,7 @@
       </c>
       <c r="I14" s="53">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J14" s="53">
         <f t="shared" si="11"/>
@@ -24249,24 +24314,24 @@
       </c>
       <c r="K14" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.8(3)</v>
+        <v>-</v>
       </c>
       <c r="L14" s="64"/>
-      <c r="M14" s="53">
+      <c r="M14" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="N14" s="53">
+        <v>-</v>
+      </c>
+      <c r="N14" s="53" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="53">
+        <v>-</v>
+      </c>
+      <c r="O14" s="53" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="P14" s="53">
+        <v>-</v>
+      </c>
+      <c r="P14" s="53" t="str">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>-</v>
       </c>
       <c r="Q14" s="53">
         <f t="shared" si="15"/>
@@ -24274,24 +24339,24 @@
       </c>
       <c r="R14" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.8(2)</v>
+        <v>-</v>
       </c>
       <c r="S14" s="65"/>
-      <c r="T14" s="53">
+      <c r="T14" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="U14" s="53">
+        <v>-</v>
+      </c>
+      <c r="U14" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="V14" s="53">
+        <v>-</v>
+      </c>
+      <c r="V14" s="53" t="str">
         <f t="shared" si="18"/>
-        <v>-1</v>
+        <v>-</v>
       </c>
       <c r="W14" s="53">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X14" s="53" t="str">
         <f t="shared" si="20"/>
@@ -24304,7 +24369,7 @@
       </c>
       <c r="AA14" s="53">
         <f t="shared" si="22"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB14" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24317,7 +24382,7 @@
       </c>
       <c r="AE14" s="53">
         <f t="shared" si="25"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF14" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24330,7 +24395,7 @@
       </c>
       <c r="AI14" s="53">
         <f t="shared" si="28"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
@@ -24339,7 +24404,7 @@
       </c>
       <c r="B15" s="53">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" s="53">
         <f t="shared" si="0"/>
@@ -24347,7 +24412,7 @@
       </c>
       <c r="D15" s="53">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15" s="53">
         <f t="shared" si="2"/>
@@ -24355,11 +24420,11 @@
       </c>
       <c r="F15" s="53">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="53">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" s="53">
         <f t="shared" si="9"/>
@@ -24367,7 +24432,7 @@
       </c>
       <c r="I15" s="53">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="53">
         <f t="shared" si="11"/>
@@ -24465,11 +24530,11 @@
       </c>
       <c r="B16" s="53">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" s="53">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="53">
         <f t="shared" si="1"/>
@@ -24481,7 +24546,7 @@
       </c>
       <c r="F16" s="53">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" s="53">
         <f t="shared" si="4"/>
@@ -24489,11 +24554,11 @@
       </c>
       <c r="H16" s="53">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I16" s="53">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J16" s="53">
         <f t="shared" si="11"/>
@@ -24552,7 +24617,7 @@
       <c r="Y16" s="63"/>
       <c r="Z16" s="53">
         <f t="shared" si="21"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA16" s="53">
         <f t="shared" si="22"/>
@@ -24591,11 +24656,11 @@
       </c>
       <c r="B17" s="53">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="53">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="53">
         <f t="shared" si="1"/>
@@ -24607,7 +24672,7 @@
       </c>
       <c r="F17" s="53">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G17" s="53">
         <f t="shared" si="4"/>
@@ -24615,74 +24680,74 @@
       </c>
       <c r="H17" s="53">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I17" s="53">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J17" s="53">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K17" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="L17" s="64"/>
-      <c r="M17" s="53" t="str">
+      <c r="M17" s="53">
         <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="N17" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="N17" s="53">
         <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="O17" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="O17" s="53">
         <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="P17" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="P17" s="53">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="53">
         <f t="shared" si="15"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R17" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="S17" s="65"/>
-      <c r="T17" s="53" t="str">
+      <c r="T17" s="53">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="U17" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="U17" s="53">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V17" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="V17" s="53">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="W17" s="53">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X17" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="Y17" s="63"/>
-      <c r="Z17" s="53" t="str">
+      <c r="Z17" s="53">
         <f t="shared" si="21"/>
-        <v>-</v>
+        <v>13</v>
       </c>
       <c r="AA17" s="53">
         <f t="shared" si="22"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB17" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24695,7 +24760,7 @@
       </c>
       <c r="AE17" s="53">
         <f t="shared" si="25"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF17" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24708,7 +24773,7 @@
       </c>
       <c r="AI17" s="53">
         <f t="shared" si="28"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
@@ -24717,7 +24782,7 @@
       </c>
       <c r="B18" s="53">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="53">
         <f t="shared" si="0"/>
@@ -24729,7 +24794,7 @@
       </c>
       <c r="E18" s="53">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="53">
         <f t="shared" si="3"/>
@@ -24737,11 +24802,11 @@
       </c>
       <c r="G18" s="53">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" s="53">
         <f t="shared" si="9"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="I18" s="53">
         <f t="shared" si="10"/>
@@ -24749,11 +24814,11 @@
       </c>
       <c r="J18" s="53">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K18" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
       <c r="L18" s="64"/>
       <c r="M18" s="53">
@@ -24774,11 +24839,11 @@
       </c>
       <c r="Q18" s="53">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R18" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
       <c r="S18" s="65"/>
       <c r="T18" s="53">
@@ -24795,33 +24860,33 @@
       </c>
       <c r="W18" s="53">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X18" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.11(2)</v>
+        <v>Pos.12(2)</v>
       </c>
       <c r="Y18" s="63"/>
       <c r="Z18" s="53">
         <f t="shared" si="21"/>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="AA18" s="53">
         <f t="shared" si="22"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB18" s="53" t="str">
         <f t="shared" si="23"/>
-        <v>Pos.11(2)</v>
+        <v>-</v>
       </c>
       <c r="AC18" s="65"/>
-      <c r="AD18" s="53">
+      <c r="AD18" s="53" t="str">
         <f t="shared" si="24"/>
-        <v>9</v>
+        <v>-</v>
       </c>
       <c r="AE18" s="53">
         <f t="shared" si="25"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF18" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24834,7 +24899,7 @@
       </c>
       <c r="AI18" s="53">
         <f t="shared" si="28"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
@@ -24843,7 +24908,7 @@
       </c>
       <c r="B19" s="53">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="53">
         <f t="shared" si="0"/>
@@ -24851,7 +24916,7 @@
       </c>
       <c r="D19" s="53">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="53">
         <f t="shared" si="2"/>
@@ -24871,36 +24936,36 @@
       </c>
       <c r="I19" s="53">
         <f t="shared" si="10"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J19" s="53">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K19" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.4(3)</v>
+        <v>-</v>
       </c>
       <c r="L19" s="64"/>
-      <c r="M19" s="53">
+      <c r="M19" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="53">
+        <v>-</v>
+      </c>
+      <c r="N19" s="53" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="53">
+        <v>-</v>
+      </c>
+      <c r="O19" s="53" t="str">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="P19" s="53">
+        <v>-</v>
+      </c>
+      <c r="P19" s="53" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="Q19" s="53">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R19" s="53" t="str">
         <f t="shared" si="16"/>
@@ -24921,7 +24986,7 @@
       </c>
       <c r="W19" s="53">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X19" s="53" t="str">
         <f t="shared" si="20"/>
@@ -24934,7 +24999,7 @@
       </c>
       <c r="AA19" s="53">
         <f t="shared" si="22"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB19" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24947,7 +25012,7 @@
       </c>
       <c r="AE19" s="53">
         <f t="shared" si="25"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF19" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24960,7 +25025,7 @@
       </c>
       <c r="AI19" s="53">
         <f t="shared" si="28"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -24975,7 +25040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -25027,15 +25092,15 @@
       </c>
       <c r="C2" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25047,7 +25112,7 @@
       </c>
       <c r="H2" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25055,7 +25120,7 @@
       </c>
       <c r="J2" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -25068,15 +25133,15 @@
       </c>
       <c r="C3" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25088,7 +25153,7 @@
       </c>
       <c r="H3" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25096,7 +25161,7 @@
       </c>
       <c r="J3" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -25109,15 +25174,15 @@
       </c>
       <c r="C4" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25129,15 +25194,15 @@
       </c>
       <c r="H4" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I4" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J4" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -25146,19 +25211,19 @@
       </c>
       <c r="B5" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Palencia CF</v>
+        <v>Burgos CF B</v>
       </c>
       <c r="C5" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25174,11 +25239,11 @@
       </c>
       <c r="I5" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -25187,39 +25252,39 @@
       </c>
       <c r="B6" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Burgos CF B</v>
+        <v>Salamanca UDS</v>
       </c>
       <c r="C6" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I6" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -25228,15 +25293,15 @@
       </c>
       <c r="B7" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>UD. Santa Marta</v>
+        <v>Palencia CF</v>
       </c>
       <c r="C7" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D7" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25244,23 +25309,23 @@
       </c>
       <c r="F7" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I7" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -25269,39 +25334,39 @@
       </c>
       <c r="B8" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Salamanca UDS</v>
+        <v>UD. Santa Marta</v>
       </c>
       <c r="C8" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I8" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -25310,15 +25375,15 @@
       </c>
       <c r="B9" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Atl. Astorga</v>
+        <v>Palencia Cristo Atlético</v>
       </c>
       <c r="C9" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25326,7 +25391,7 @@
       </c>
       <c r="F9" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25334,7 +25399,7 @@
       </c>
       <c r="H9" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I9" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25342,7 +25407,7 @@
       </c>
       <c r="J9" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -25351,7 +25416,7 @@
       </c>
       <c r="B10" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Palencia Cristo Atlético</v>
+        <v>La Virgen del Camino</v>
       </c>
       <c r="C10" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25359,7 +25424,7 @@
       </c>
       <c r="D10" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25371,19 +25436,19 @@
       </c>
       <c r="G10" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I10" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J10" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -25392,7 +25457,7 @@
       </c>
       <c r="B11" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Atco. Bembibre</v>
+        <v>Atl. Astorga</v>
       </c>
       <c r="C11" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25400,7 +25465,7 @@
       </c>
       <c r="D11" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25412,15 +25477,15 @@
       </c>
       <c r="G11" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I11" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J11" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25433,15 +25498,15 @@
       </c>
       <c r="B12" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>SD Almazán</v>
+        <v>Atco. Bembibre</v>
       </c>
       <c r="C12" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25449,7 +25514,7 @@
       </c>
       <c r="F12" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25457,15 +25522,15 @@
       </c>
       <c r="H12" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I12" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J12" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -25474,7 +25539,7 @@
       </c>
       <c r="B13" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>CD. Villaralbo</v>
+        <v>SD Almazán</v>
       </c>
       <c r="C13" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25482,7 +25547,7 @@
       </c>
       <c r="D13" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25494,19 +25559,19 @@
       </c>
       <c r="G13" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I13" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J13" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -25515,39 +25580,39 @@
       </c>
       <c r="B14" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Mirandés B</v>
+        <v>CD. Villaralbo</v>
       </c>
       <c r="C14" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E14" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J14" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-3</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -25556,39 +25621,39 @@
       </c>
       <c r="B15" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>La Virgen del Camino</v>
+        <v>Becerril</v>
       </c>
       <c r="C15" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H15" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I15" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J15" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-1</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -25601,11 +25666,11 @@
       </c>
       <c r="C16" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E16" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25613,7 +25678,7 @@
       </c>
       <c r="F16" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25638,15 +25703,15 @@
       </c>
       <c r="B17" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Becerril</v>
+        <v>Mirandés B</v>
       </c>
       <c r="C17" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E17" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25654,23 +25719,23 @@
       </c>
       <c r="F17" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H17" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J17" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-9</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -25683,11 +25748,11 @@
       </c>
       <c r="C18" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25695,7 +25760,7 @@
       </c>
       <c r="F18" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25703,11 +25768,11 @@
       </c>
       <c r="H18" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J18" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25728,7 +25793,7 @@
       </c>
       <c r="D19" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25740,19 +25805,19 @@
       </c>
       <c r="G19" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H19" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J19" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-14</v>
+        <v>-16</v>
       </c>
     </row>
   </sheetData>
@@ -27248,192 +27313,192 @@
       <c r="AF2" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="AH2" s="147" t="s">
+      <c r="AH2" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="148"/>
-      <c r="AJ2" s="148"/>
-      <c r="AK2" s="148"/>
-      <c r="AL2" s="148"/>
-      <c r="AM2" s="148"/>
-      <c r="AN2" s="149"/>
-      <c r="AP2" s="147" t="s">
+      <c r="AI2" s="142"/>
+      <c r="AJ2" s="142"/>
+      <c r="AK2" s="142"/>
+      <c r="AL2" s="142"/>
+      <c r="AM2" s="142"/>
+      <c r="AN2" s="143"/>
+      <c r="AP2" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="AQ2" s="148"/>
-      <c r="AR2" s="148"/>
-      <c r="AS2" s="148"/>
-      <c r="AT2" s="148"/>
-      <c r="AU2" s="148"/>
-      <c r="AV2" s="149"/>
-      <c r="AX2" s="147" t="s">
+      <c r="AQ2" s="142"/>
+      <c r="AR2" s="142"/>
+      <c r="AS2" s="142"/>
+      <c r="AT2" s="142"/>
+      <c r="AU2" s="142"/>
+      <c r="AV2" s="143"/>
+      <c r="AX2" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="AY2" s="148"/>
-      <c r="AZ2" s="148"/>
-      <c r="BA2" s="148"/>
-      <c r="BB2" s="148"/>
-      <c r="BC2" s="148"/>
-      <c r="BD2" s="149"/>
-      <c r="BF2" s="147" t="s">
+      <c r="AY2" s="142"/>
+      <c r="AZ2" s="142"/>
+      <c r="BA2" s="142"/>
+      <c r="BB2" s="142"/>
+      <c r="BC2" s="142"/>
+      <c r="BD2" s="143"/>
+      <c r="BF2" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="BG2" s="148"/>
-      <c r="BH2" s="148"/>
-      <c r="BI2" s="148"/>
-      <c r="BJ2" s="148"/>
-      <c r="BK2" s="148"/>
-      <c r="BL2" s="149"/>
-      <c r="BN2" s="147" t="s">
+      <c r="BG2" s="142"/>
+      <c r="BH2" s="142"/>
+      <c r="BI2" s="142"/>
+      <c r="BJ2" s="142"/>
+      <c r="BK2" s="142"/>
+      <c r="BL2" s="143"/>
+      <c r="BN2" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="BO2" s="148"/>
-      <c r="BP2" s="148"/>
-      <c r="BQ2" s="148"/>
-      <c r="BR2" s="148"/>
-      <c r="BS2" s="148"/>
-      <c r="BT2" s="149"/>
-      <c r="BV2" s="147" t="s">
+      <c r="BO2" s="142"/>
+      <c r="BP2" s="142"/>
+      <c r="BQ2" s="142"/>
+      <c r="BR2" s="142"/>
+      <c r="BS2" s="142"/>
+      <c r="BT2" s="143"/>
+      <c r="BV2" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="BW2" s="148"/>
-      <c r="BX2" s="148"/>
-      <c r="BY2" s="148"/>
-      <c r="BZ2" s="148"/>
-      <c r="CA2" s="148"/>
-      <c r="CB2" s="149"/>
+      <c r="BW2" s="142"/>
+      <c r="BX2" s="142"/>
+      <c r="BY2" s="142"/>
+      <c r="BZ2" s="142"/>
+      <c r="CA2" s="142"/>
+      <c r="CB2" s="143"/>
     </row>
     <row r="3" spans="2:80" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="146" t="s">
+      <c r="B3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="146"/>
-      <c r="G3" s="135" t="s">
+      <c r="F3" s="149"/>
+      <c r="G3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="J3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="145" t="s">
+      <c r="H3" s="140"/>
+      <c r="J3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="145"/>
-      <c r="O3" s="143" t="s">
+      <c r="N3" s="144"/>
+      <c r="O3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="144"/>
-      <c r="R3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="145" t="s">
+      <c r="P3" s="146"/>
+      <c r="R3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="145"/>
-      <c r="W3" s="143" t="s">
+      <c r="V3" s="144"/>
+      <c r="W3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="144"/>
-      <c r="Z3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="145" t="s">
+      <c r="X3" s="146"/>
+      <c r="Z3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="143" t="s">
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="144"/>
-      <c r="AH3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="142"/>
-      <c r="AJ3" s="142"/>
-      <c r="AK3" s="145" t="s">
+      <c r="AF3" s="146"/>
+      <c r="AH3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="148"/>
+      <c r="AJ3" s="148"/>
+      <c r="AK3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="145"/>
-      <c r="AM3" s="143" t="s">
+      <c r="AL3" s="144"/>
+      <c r="AM3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="144"/>
-      <c r="AP3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="142"/>
-      <c r="AR3" s="142"/>
-      <c r="AS3" s="145" t="s">
+      <c r="AN3" s="146"/>
+      <c r="AP3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="148"/>
+      <c r="AR3" s="148"/>
+      <c r="AS3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="145"/>
-      <c r="AU3" s="143" t="s">
+      <c r="AT3" s="144"/>
+      <c r="AU3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="144"/>
-      <c r="AX3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="142"/>
-      <c r="AZ3" s="142"/>
-      <c r="BA3" s="145" t="s">
+      <c r="AV3" s="146"/>
+      <c r="AX3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="148"/>
+      <c r="AZ3" s="148"/>
+      <c r="BA3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BB3" s="145"/>
-      <c r="BC3" s="143" t="s">
+      <c r="BB3" s="144"/>
+      <c r="BC3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="144"/>
-      <c r="BF3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="142"/>
-      <c r="BH3" s="142"/>
-      <c r="BI3" s="145" t="s">
+      <c r="BD3" s="146"/>
+      <c r="BF3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="148"/>
+      <c r="BH3" s="148"/>
+      <c r="BI3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BJ3" s="145"/>
-      <c r="BK3" s="143" t="s">
+      <c r="BJ3" s="144"/>
+      <c r="BK3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="144"/>
-      <c r="BN3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="142"/>
-      <c r="BP3" s="142"/>
-      <c r="BQ3" s="145" t="s">
+      <c r="BL3" s="146"/>
+      <c r="BN3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="148"/>
+      <c r="BP3" s="148"/>
+      <c r="BQ3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="145"/>
-      <c r="BS3" s="143" t="s">
+      <c r="BR3" s="144"/>
+      <c r="BS3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="144"/>
-      <c r="BV3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="142"/>
-      <c r="BX3" s="142"/>
-      <c r="BY3" s="145" t="s">
+      <c r="BT3" s="146"/>
+      <c r="BV3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="148"/>
+      <c r="BX3" s="148"/>
+      <c r="BY3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BZ3" s="145"/>
-      <c r="CA3" s="143" t="s">
+      <c r="BZ3" s="144"/>
+      <c r="CA3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="144"/>
+      <c r="CB3" s="146"/>
     </row>
     <row r="4" spans="2:80" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -29951,12 +30016,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="AX2:BD2"/>
-    <mergeCell ref="BF2:BL2"/>
-    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="BN2:BT2"/>
     <mergeCell ref="BV2:CB2"/>
     <mergeCell ref="AH2:AN2"/>
@@ -29973,24 +30050,12 @@
     <mergeCell ref="AX3:AZ3"/>
     <mergeCell ref="BA3:BB3"/>
     <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="AX2:BD2"/>
+    <mergeCell ref="BF2:BL2"/>
+    <mergeCell ref="AA2:AE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31237,19 +31302,19 @@
       <c r="L39" s="152"/>
     </row>
     <row r="40" spans="6:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="F40" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="142"/>
-      <c r="H40" s="142"/>
-      <c r="I40" s="145" t="s">
+      <c r="F40" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="145"/>
-      <c r="K40" s="143" t="s">
+      <c r="J40" s="144"/>
+      <c r="K40" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="144"/>
+      <c r="L40" s="146"/>
     </row>
     <row r="41" spans="6:23" ht="19" x14ac:dyDescent="0.25">
       <c r="F41" s="14" t="s">
@@ -31927,8 +31992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:EF25"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AR26" sqref="AR26"/>
+    <sheetView topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AZ28" sqref="AZ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31962,7 +32027,7 @@
     <col min="45" max="45" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="46" max="47" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19" bestFit="1" customWidth="1"/>
     <col min="51" max="52" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="54" max="55" width="7.33203125" bestFit="1" customWidth="1"/>
@@ -32099,328 +32164,332 @@
       <c r="AV2" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="AX2" s="147" t="s">
-        <v>35</v>
-      </c>
-      <c r="AY2" s="148"/>
-      <c r="AZ2" s="148"/>
-      <c r="BA2" s="148"/>
-      <c r="BB2" s="148"/>
-      <c r="BC2" s="148"/>
-      <c r="BD2" s="149"/>
-      <c r="BF2" s="147" t="s">
+      <c r="AX2" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="AY2" s="132" t="s">
+        <v>195</v>
+      </c>
+      <c r="AZ2" s="132"/>
+      <c r="BA2" s="132"/>
+      <c r="BB2" s="132"/>
+      <c r="BC2" s="132"/>
+      <c r="BD2" s="123" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF2" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="BG2" s="148"/>
-      <c r="BH2" s="148"/>
-      <c r="BI2" s="148"/>
-      <c r="BJ2" s="148"/>
-      <c r="BK2" s="148"/>
-      <c r="BL2" s="149"/>
-      <c r="BN2" s="147" t="s">
+      <c r="BG2" s="142"/>
+      <c r="BH2" s="142"/>
+      <c r="BI2" s="142"/>
+      <c r="BJ2" s="142"/>
+      <c r="BK2" s="142"/>
+      <c r="BL2" s="143"/>
+      <c r="BN2" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="BO2" s="148"/>
-      <c r="BP2" s="148"/>
-      <c r="BQ2" s="148"/>
-      <c r="BR2" s="148"/>
-      <c r="BS2" s="148"/>
-      <c r="BT2" s="149"/>
-      <c r="BV2" s="147" t="s">
+      <c r="BO2" s="142"/>
+      <c r="BP2" s="142"/>
+      <c r="BQ2" s="142"/>
+      <c r="BR2" s="142"/>
+      <c r="BS2" s="142"/>
+      <c r="BT2" s="143"/>
+      <c r="BV2" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="BW2" s="148"/>
-      <c r="BX2" s="148"/>
-      <c r="BY2" s="148"/>
-      <c r="BZ2" s="148"/>
-      <c r="CA2" s="148"/>
-      <c r="CB2" s="149"/>
-      <c r="CD2" s="147" t="s">
+      <c r="BW2" s="142"/>
+      <c r="BX2" s="142"/>
+      <c r="BY2" s="142"/>
+      <c r="BZ2" s="142"/>
+      <c r="CA2" s="142"/>
+      <c r="CB2" s="143"/>
+      <c r="CD2" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="CE2" s="148"/>
-      <c r="CF2" s="148"/>
-      <c r="CG2" s="148"/>
-      <c r="CH2" s="148"/>
-      <c r="CI2" s="148"/>
-      <c r="CJ2" s="149"/>
-      <c r="CL2" s="147" t="s">
+      <c r="CE2" s="142"/>
+      <c r="CF2" s="142"/>
+      <c r="CG2" s="142"/>
+      <c r="CH2" s="142"/>
+      <c r="CI2" s="142"/>
+      <c r="CJ2" s="143"/>
+      <c r="CL2" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="CM2" s="148"/>
-      <c r="CN2" s="148"/>
-      <c r="CO2" s="148"/>
-      <c r="CP2" s="148"/>
-      <c r="CQ2" s="148"/>
-      <c r="CR2" s="149"/>
-      <c r="CT2" s="147" t="s">
+      <c r="CM2" s="142"/>
+      <c r="CN2" s="142"/>
+      <c r="CO2" s="142"/>
+      <c r="CP2" s="142"/>
+      <c r="CQ2" s="142"/>
+      <c r="CR2" s="143"/>
+      <c r="CT2" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="CU2" s="148"/>
-      <c r="CV2" s="148"/>
-      <c r="CW2" s="148"/>
-      <c r="CX2" s="148"/>
-      <c r="CY2" s="148"/>
-      <c r="CZ2" s="149"/>
-      <c r="DB2" s="147" t="s">
+      <c r="CU2" s="142"/>
+      <c r="CV2" s="142"/>
+      <c r="CW2" s="142"/>
+      <c r="CX2" s="142"/>
+      <c r="CY2" s="142"/>
+      <c r="CZ2" s="143"/>
+      <c r="DB2" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="DC2" s="148"/>
-      <c r="DD2" s="148"/>
-      <c r="DE2" s="148"/>
-      <c r="DF2" s="148"/>
-      <c r="DG2" s="148"/>
-      <c r="DH2" s="149"/>
-      <c r="DJ2" s="147" t="s">
+      <c r="DC2" s="142"/>
+      <c r="DD2" s="142"/>
+      <c r="DE2" s="142"/>
+      <c r="DF2" s="142"/>
+      <c r="DG2" s="142"/>
+      <c r="DH2" s="143"/>
+      <c r="DJ2" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="DK2" s="148"/>
-      <c r="DL2" s="148"/>
-      <c r="DM2" s="148"/>
-      <c r="DN2" s="148"/>
-      <c r="DO2" s="148"/>
-      <c r="DP2" s="149"/>
-      <c r="DR2" s="147" t="s">
+      <c r="DK2" s="142"/>
+      <c r="DL2" s="142"/>
+      <c r="DM2" s="142"/>
+      <c r="DN2" s="142"/>
+      <c r="DO2" s="142"/>
+      <c r="DP2" s="143"/>
+      <c r="DR2" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="DS2" s="148"/>
-      <c r="DT2" s="148"/>
-      <c r="DU2" s="148"/>
-      <c r="DV2" s="148"/>
-      <c r="DW2" s="148"/>
-      <c r="DX2" s="149"/>
-      <c r="DZ2" s="147" t="s">
+      <c r="DS2" s="142"/>
+      <c r="DT2" s="142"/>
+      <c r="DU2" s="142"/>
+      <c r="DV2" s="142"/>
+      <c r="DW2" s="142"/>
+      <c r="DX2" s="143"/>
+      <c r="DZ2" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="EA2" s="148"/>
-      <c r="EB2" s="148"/>
-      <c r="EC2" s="148"/>
-      <c r="ED2" s="148"/>
-      <c r="EE2" s="148"/>
-      <c r="EF2" s="149"/>
+      <c r="EA2" s="142"/>
+      <c r="EB2" s="142"/>
+      <c r="EC2" s="142"/>
+      <c r="ED2" s="142"/>
+      <c r="EE2" s="142"/>
+      <c r="EF2" s="143"/>
     </row>
     <row r="3" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="145" t="s">
+      <c r="B3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="143" t="s">
+      <c r="F3" s="144"/>
+      <c r="G3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="144"/>
-      <c r="J3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="145" t="s">
+      <c r="H3" s="146"/>
+      <c r="J3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="145"/>
-      <c r="O3" s="143" t="s">
+      <c r="N3" s="144"/>
+      <c r="O3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="144"/>
-      <c r="R3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="145" t="s">
+      <c r="P3" s="146"/>
+      <c r="R3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="145"/>
-      <c r="W3" s="143" t="s">
+      <c r="V3" s="144"/>
+      <c r="W3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="144"/>
-      <c r="Z3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="145" t="s">
+      <c r="X3" s="146"/>
+      <c r="Z3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="143" t="s">
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="144"/>
-      <c r="AH3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="142"/>
-      <c r="AJ3" s="142"/>
-      <c r="AK3" s="145" t="s">
+      <c r="AF3" s="146"/>
+      <c r="AH3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="148"/>
+      <c r="AJ3" s="148"/>
+      <c r="AK3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="145"/>
-      <c r="AM3" s="143" t="s">
+      <c r="AL3" s="144"/>
+      <c r="AM3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="144"/>
-      <c r="AP3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="142"/>
-      <c r="AR3" s="142"/>
-      <c r="AS3" s="145" t="s">
+      <c r="AN3" s="146"/>
+      <c r="AP3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="148"/>
+      <c r="AR3" s="148"/>
+      <c r="AS3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="145"/>
-      <c r="AU3" s="143" t="s">
+      <c r="AT3" s="144"/>
+      <c r="AU3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="144"/>
-      <c r="AX3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="142"/>
-      <c r="AZ3" s="142"/>
-      <c r="BA3" s="145" t="s">
+      <c r="AV3" s="146"/>
+      <c r="AX3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="148"/>
+      <c r="AZ3" s="148"/>
+      <c r="BA3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BB3" s="145"/>
-      <c r="BC3" s="143" t="s">
+      <c r="BB3" s="144"/>
+      <c r="BC3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="144"/>
-      <c r="BF3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="142"/>
-      <c r="BH3" s="142"/>
-      <c r="BI3" s="145" t="s">
+      <c r="BD3" s="146"/>
+      <c r="BF3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="148"/>
+      <c r="BH3" s="148"/>
+      <c r="BI3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BJ3" s="145"/>
-      <c r="BK3" s="143" t="s">
+      <c r="BJ3" s="144"/>
+      <c r="BK3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="144"/>
-      <c r="BN3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="142"/>
-      <c r="BP3" s="142"/>
-      <c r="BQ3" s="145" t="s">
+      <c r="BL3" s="146"/>
+      <c r="BN3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="148"/>
+      <c r="BP3" s="148"/>
+      <c r="BQ3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="145"/>
-      <c r="BS3" s="143" t="s">
+      <c r="BR3" s="144"/>
+      <c r="BS3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="144"/>
-      <c r="BV3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="142"/>
-      <c r="BX3" s="142"/>
-      <c r="BY3" s="145" t="s">
+      <c r="BT3" s="146"/>
+      <c r="BV3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="148"/>
+      <c r="BX3" s="148"/>
+      <c r="BY3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BZ3" s="145"/>
-      <c r="CA3" s="143" t="s">
+      <c r="BZ3" s="144"/>
+      <c r="CA3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="144"/>
-      <c r="CD3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="142"/>
-      <c r="CF3" s="142"/>
-      <c r="CG3" s="145" t="s">
+      <c r="CB3" s="146"/>
+      <c r="CD3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="148"/>
+      <c r="CF3" s="148"/>
+      <c r="CG3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="CH3" s="145"/>
-      <c r="CI3" s="143" t="s">
+      <c r="CH3" s="144"/>
+      <c r="CI3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CJ3" s="144"/>
-      <c r="CL3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="142"/>
-      <c r="CN3" s="142"/>
-      <c r="CO3" s="145" t="s">
+      <c r="CJ3" s="146"/>
+      <c r="CL3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="148"/>
+      <c r="CN3" s="148"/>
+      <c r="CO3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="CP3" s="145"/>
-      <c r="CQ3" s="143" t="s">
+      <c r="CP3" s="144"/>
+      <c r="CQ3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CR3" s="144"/>
-      <c r="CT3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="142"/>
-      <c r="CV3" s="142"/>
-      <c r="CW3" s="145" t="s">
+      <c r="CR3" s="146"/>
+      <c r="CT3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="148"/>
+      <c r="CV3" s="148"/>
+      <c r="CW3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="CX3" s="145"/>
-      <c r="CY3" s="143" t="s">
+      <c r="CX3" s="144"/>
+      <c r="CY3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CZ3" s="144"/>
-      <c r="DB3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="DC3" s="142"/>
-      <c r="DD3" s="142"/>
-      <c r="DE3" s="145" t="s">
+      <c r="CZ3" s="146"/>
+      <c r="DB3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="148"/>
+      <c r="DD3" s="148"/>
+      <c r="DE3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="DF3" s="145"/>
-      <c r="DG3" s="143" t="s">
+      <c r="DF3" s="144"/>
+      <c r="DG3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="DH3" s="144"/>
-      <c r="DJ3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="DK3" s="142"/>
-      <c r="DL3" s="142"/>
-      <c r="DM3" s="145" t="s">
+      <c r="DH3" s="146"/>
+      <c r="DJ3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="148"/>
+      <c r="DL3" s="148"/>
+      <c r="DM3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="DN3" s="145"/>
-      <c r="DO3" s="143" t="s">
+      <c r="DN3" s="144"/>
+      <c r="DO3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="DP3" s="144"/>
-      <c r="DR3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS3" s="142"/>
-      <c r="DT3" s="142"/>
-      <c r="DU3" s="145" t="s">
+      <c r="DP3" s="146"/>
+      <c r="DR3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS3" s="148"/>
+      <c r="DT3" s="148"/>
+      <c r="DU3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="DV3" s="145"/>
-      <c r="DW3" s="143" t="s">
+      <c r="DV3" s="144"/>
+      <c r="DW3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="DX3" s="144"/>
-      <c r="DZ3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="EA3" s="142"/>
-      <c r="EB3" s="142"/>
-      <c r="EC3" s="145" t="s">
+      <c r="DX3" s="146"/>
+      <c r="DZ3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="148"/>
+      <c r="EB3" s="148"/>
+      <c r="EC3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="ED3" s="145"/>
-      <c r="EE3" s="143" t="s">
+      <c r="ED3" s="144"/>
+      <c r="EE3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="EF3" s="144"/>
+      <c r="EF3" s="146"/>
     </row>
     <row r="4" spans="2:136" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -32863,8 +32932,12 @@
       <c r="AX5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AY5" s="7"/>
-      <c r="AZ5" s="7"/>
+      <c r="AY5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="7">
+        <v>90</v>
+      </c>
       <c r="BA5" s="7"/>
       <c r="BB5" s="7"/>
       <c r="BC5" s="7"/>
@@ -33525,8 +33598,12 @@
       <c r="AX9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AY9" s="7"/>
-      <c r="AZ9" s="7"/>
+      <c r="AY9" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="7">
+        <v>90</v>
+      </c>
       <c r="BA9" s="7"/>
       <c r="BB9" s="7"/>
       <c r="BC9" s="7"/>
@@ -33704,8 +33781,12 @@
       <c r="AX10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AY10" s="7"/>
-      <c r="AZ10" s="7"/>
+      <c r="AY10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ10" s="7">
+        <v>90</v>
+      </c>
       <c r="BA10" s="7"/>
       <c r="BB10" s="7"/>
       <c r="BC10" s="7"/>
@@ -33888,7 +33969,9 @@
         <v>16</v>
       </c>
       <c r="AY11" s="7"/>
-      <c r="AZ11" s="7"/>
+      <c r="AZ11" s="7">
+        <v>55</v>
+      </c>
       <c r="BA11" s="7"/>
       <c r="BB11" s="7"/>
       <c r="BC11" s="7"/>
@@ -34050,11 +34133,17 @@
       <c r="AX12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AY12" s="7"/>
-      <c r="AZ12" s="7"/>
+      <c r="AY12" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="7">
+        <v>90</v>
+      </c>
       <c r="BA12" s="7"/>
       <c r="BB12" s="7"/>
-      <c r="BC12" s="7"/>
+      <c r="BC12" s="7">
+        <v>1</v>
+      </c>
       <c r="BD12" s="8"/>
       <c r="BF12" s="6" t="s">
         <v>17</v>
@@ -34233,8 +34322,12 @@
       <c r="AX13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AY13" s="7"/>
-      <c r="AZ13" s="7"/>
+      <c r="AY13" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="7">
+        <v>35</v>
+      </c>
       <c r="BA13" s="7"/>
       <c r="BB13" s="7"/>
       <c r="BC13" s="7"/>
@@ -34395,7 +34488,9 @@
         <v>20</v>
       </c>
       <c r="AY14" s="7"/>
-      <c r="AZ14" s="7"/>
+      <c r="AZ14" s="7">
+        <v>25</v>
+      </c>
       <c r="BA14" s="7"/>
       <c r="BB14" s="7"/>
       <c r="BC14" s="7"/>
@@ -34572,7 +34667,9 @@
         <v>21</v>
       </c>
       <c r="AY15" s="7"/>
-      <c r="AZ15" s="7"/>
+      <c r="AZ15" s="7">
+        <v>14</v>
+      </c>
       <c r="BA15" s="7"/>
       <c r="BB15" s="7"/>
       <c r="BC15" s="7"/>
@@ -34756,8 +34853,12 @@
       <c r="AX16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AY16" s="7"/>
-      <c r="AZ16" s="7"/>
+      <c r="AY16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ16" s="7">
+        <v>76</v>
+      </c>
       <c r="BA16" s="7"/>
       <c r="BB16" s="7"/>
       <c r="BC16" s="7"/>
@@ -34916,7 +35017,9 @@
         <v>23</v>
       </c>
       <c r="AY17" s="7"/>
-      <c r="AZ17" s="7"/>
+      <c r="AZ17" s="7">
+        <v>14</v>
+      </c>
       <c r="BA17" s="7"/>
       <c r="BB17" s="7"/>
       <c r="BC17" s="7"/>
@@ -35100,8 +35203,12 @@
       <c r="AX18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="AY18" s="7"/>
-      <c r="AZ18" s="7"/>
+      <c r="AY18" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ18" s="7">
+        <v>65</v>
+      </c>
       <c r="BA18" s="7"/>
       <c r="BB18" s="7"/>
       <c r="BC18" s="7"/>
@@ -35273,12 +35380,18 @@
       <c r="AX19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AY19" s="7"/>
-      <c r="AZ19" s="7"/>
+      <c r="AY19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ19" s="7">
+        <v>90</v>
+      </c>
       <c r="BA19" s="7"/>
       <c r="BB19" s="7"/>
       <c r="BC19" s="7"/>
-      <c r="BD19" s="8"/>
+      <c r="BD19" s="8">
+        <v>2</v>
+      </c>
       <c r="BF19" s="6" t="s">
         <v>25</v>
       </c>
@@ -35450,8 +35563,12 @@
       <c r="AX20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AY20" s="7"/>
-      <c r="AZ20" s="7"/>
+      <c r="AY20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ20" s="7">
+        <v>90</v>
+      </c>
       <c r="BA20" s="7"/>
       <c r="BB20" s="7"/>
       <c r="BC20" s="7"/>
@@ -35627,11 +35744,17 @@
       <c r="AX21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AY21" s="7"/>
-      <c r="AZ21" s="7"/>
+      <c r="AY21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ21" s="7">
+        <v>76</v>
+      </c>
       <c r="BA21" s="7"/>
       <c r="BB21" s="7"/>
-      <c r="BC21" s="7"/>
+      <c r="BC21" s="7">
+        <v>1</v>
+      </c>
       <c r="BD21" s="8"/>
       <c r="BF21" s="6" t="s">
         <v>27</v>
@@ -35804,12 +35927,20 @@
       <c r="AX22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AY22" s="7"/>
-      <c r="AZ22" s="7"/>
+      <c r="AY22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AZ22" s="7">
+        <v>65</v>
+      </c>
       <c r="BA22" s="7"/>
       <c r="BB22" s="7"/>
-      <c r="BC22" s="7"/>
-      <c r="BD22" s="8"/>
+      <c r="BC22" s="7">
+        <v>2</v>
+      </c>
+      <c r="BD22" s="8">
+        <v>1</v>
+      </c>
       <c r="BF22" s="6" t="s">
         <v>28</v>
       </c>
@@ -36153,10 +36284,14 @@
         <v>50</v>
       </c>
       <c r="AY24" s="7"/>
-      <c r="AZ24" s="7"/>
+      <c r="AZ24" s="7">
+        <v>25</v>
+      </c>
       <c r="BA24" s="7"/>
       <c r="BB24" s="7"/>
-      <c r="BC24" s="7"/>
+      <c r="BC24" s="7">
+        <v>1</v>
+      </c>
       <c r="BD24" s="8"/>
       <c r="BF24" s="6" t="s">
         <v>50</v>
@@ -36262,19 +36397,61 @@
         <f>SUM(AR5:AR23)</f>
         <v>990</v>
       </c>
+      <c r="AY25">
+        <f>SUM(AY5:AY24)</f>
+        <v>11</v>
+      </c>
+      <c r="AZ25">
+        <f>SUM(AZ5:AZ24)</f>
+        <v>990</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="DZ2:EF2"/>
+    <mergeCell ref="DZ3:EB3"/>
+    <mergeCell ref="EC3:ED3"/>
+    <mergeCell ref="EE3:EF3"/>
+    <mergeCell ref="DJ2:DP2"/>
+    <mergeCell ref="DJ3:DL3"/>
+    <mergeCell ref="DM3:DN3"/>
+    <mergeCell ref="DO3:DP3"/>
+    <mergeCell ref="DR2:DX2"/>
+    <mergeCell ref="DR3:DT3"/>
+    <mergeCell ref="DU3:DV3"/>
+    <mergeCell ref="DW3:DX3"/>
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="CT3:CV3"/>
+    <mergeCell ref="CW3:CX3"/>
+    <mergeCell ref="CY3:CZ3"/>
+    <mergeCell ref="DB2:DH2"/>
+    <mergeCell ref="DB3:DD3"/>
+    <mergeCell ref="DE3:DF3"/>
+    <mergeCell ref="DG3:DH3"/>
+    <mergeCell ref="CD2:CJ2"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="CG3:CH3"/>
+    <mergeCell ref="CI3:CJ3"/>
+    <mergeCell ref="CL2:CR2"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="CQ3:CR3"/>
+    <mergeCell ref="BN2:BT2"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV2:CB2"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BF2:BL2"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="AY2:BC2"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AI2:AM2"/>
     <mergeCell ref="AQ2:AU2"/>
@@ -36289,50 +36466,16 @@
     <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="AP3:AR3"/>
     <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AX2:BD2"/>
-    <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BF2:BL2"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BN2:BT2"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV2:CB2"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="CD2:CJ2"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="CG3:CH3"/>
-    <mergeCell ref="CI3:CJ3"/>
-    <mergeCell ref="CL2:CR2"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="CQ3:CR3"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="CT3:CV3"/>
-    <mergeCell ref="CW3:CX3"/>
-    <mergeCell ref="CY3:CZ3"/>
-    <mergeCell ref="DB2:DH2"/>
-    <mergeCell ref="DB3:DD3"/>
-    <mergeCell ref="DE3:DF3"/>
-    <mergeCell ref="DG3:DH3"/>
-    <mergeCell ref="DZ2:EF2"/>
-    <mergeCell ref="DZ3:EB3"/>
-    <mergeCell ref="EC3:ED3"/>
-    <mergeCell ref="EE3:EF3"/>
-    <mergeCell ref="DJ2:DP2"/>
-    <mergeCell ref="DJ3:DL3"/>
-    <mergeCell ref="DM3:DN3"/>
-    <mergeCell ref="DO3:DP3"/>
-    <mergeCell ref="DR2:DX2"/>
-    <mergeCell ref="DR3:DT3"/>
-    <mergeCell ref="DU3:DV3"/>
-    <mergeCell ref="DW3:DX3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36342,8 +36485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36414,14 +36557,14 @@
       </c>
       <c r="C3" s="8">
         <f t="shared" ref="C3:C22" si="0">F40</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="8">
         <f>'1º Vuelta'!D5+'1º Vuelta'!L5+'1º Vuelta'!T5+'1º Vuelta'!AB5+'1º Vuelta'!AJ5+'1º Vuelta'!AR5+'1º Vuelta'!AZ5+'1º Vuelta'!BH5+'1º Vuelta'!BP5+'1º Vuelta'!BX5+'1º Vuelta'!CF5+'1º Vuelta'!CN5+'1º Vuelta'!CV5+'1º Vuelta'!DD5+'1º Vuelta'!DL5+'1º Vuelta'!DT5+'1º Vuelta'!EB5</f>
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>10</v>
@@ -36505,7 +36648,7 @@
         <v>100</v>
       </c>
       <c r="V4" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:22" ht="19" x14ac:dyDescent="0.25">
@@ -36555,7 +36698,7 @@
         <v>101</v>
       </c>
       <c r="V5" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="19" x14ac:dyDescent="0.25">
@@ -36614,14 +36757,14 @@
       </c>
       <c r="C7" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="8">
         <f>'1º Vuelta'!D9+'1º Vuelta'!L9+'1º Vuelta'!T9+'1º Vuelta'!AB9+'1º Vuelta'!AJ9+'1º Vuelta'!AR9+'1º Vuelta'!AZ9+'1º Vuelta'!BH9+'1º Vuelta'!BP9+'1º Vuelta'!BX9+'1º Vuelta'!CF9+'1º Vuelta'!CN9+'1º Vuelta'!CV9+'1º Vuelta'!DD9+'1º Vuelta'!DL9+'1º Vuelta'!DT9+'1º Vuelta'!EB9</f>
-        <v>146</v>
+        <v>236</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>14</v>
@@ -36664,14 +36807,14 @@
       </c>
       <c r="C8" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="8">
         <f>'1º Vuelta'!D10+'1º Vuelta'!L10+'1º Vuelta'!T10+'1º Vuelta'!AB10+'1º Vuelta'!AJ10+'1º Vuelta'!AR10+'1º Vuelta'!AZ10+'1º Vuelta'!BH10+'1º Vuelta'!BP10+'1º Vuelta'!BX10+'1º Vuelta'!CF10+'1º Vuelta'!CN10+'1º Vuelta'!CV10+'1º Vuelta'!DD10+'1º Vuelta'!DL10+'1º Vuelta'!DT10+'1º Vuelta'!EB10</f>
-        <v>529</v>
+        <v>619</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>15</v>
@@ -36705,7 +36848,7 @@
         <v>104</v>
       </c>
       <c r="V8" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:22" ht="19" x14ac:dyDescent="0.25">
@@ -36721,7 +36864,7 @@
       </c>
       <c r="F9" s="8">
         <f>'1º Vuelta'!D11+'1º Vuelta'!L11+'1º Vuelta'!T11+'1º Vuelta'!AB11+'1º Vuelta'!AJ11+'1º Vuelta'!AR11+'1º Vuelta'!AZ11+'1º Vuelta'!BH11+'1º Vuelta'!BP11+'1º Vuelta'!BX11+'1º Vuelta'!CF11+'1º Vuelta'!CN11+'1º Vuelta'!CV11+'1º Vuelta'!DD11+'1º Vuelta'!DL11+'1º Vuelta'!DT11+'1º Vuelta'!EB11</f>
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>16</v>
@@ -36764,14 +36907,14 @@
       </c>
       <c r="C10" s="8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="8">
         <f>'1º Vuelta'!D12+'1º Vuelta'!L12+'1º Vuelta'!T12+'1º Vuelta'!AB12+'1º Vuelta'!AJ12+'1º Vuelta'!AR12+'1º Vuelta'!AZ12+'1º Vuelta'!BH12+'1º Vuelta'!BP12+'1º Vuelta'!BX12+'1º Vuelta'!CF12+'1º Vuelta'!CN12+'1º Vuelta'!CV12+'1º Vuelta'!DD12+'1º Vuelta'!DL12+'1º Vuelta'!DT12+'1º Vuelta'!EB12</f>
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>17</v>
@@ -36792,7 +36935,7 @@
       </c>
       <c r="O10" s="8">
         <f>'1º Vuelta'!G12+'1º Vuelta'!O12+'1º Vuelta'!W12+'1º Vuelta'!AE12+'1º Vuelta'!AM12+'1º Vuelta'!AU12+'1º Vuelta'!BC12+'1º Vuelta'!BK12+'1º Vuelta'!BS12+'1º Vuelta'!CA12+'1º Vuelta'!CI12+'1º Vuelta'!CQ12+'1º Vuelta'!CY12+'1º Vuelta'!DG12+'1º Vuelta'!DO12+'1º Vuelta'!DW12+'1º Vuelta'!EE12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>17</v>
@@ -36814,14 +36957,14 @@
       </c>
       <c r="C11" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="8">
         <f>'1º Vuelta'!D13+'1º Vuelta'!L13+'1º Vuelta'!T13+'1º Vuelta'!AB13+'1º Vuelta'!AJ13+'1º Vuelta'!AR13+'1º Vuelta'!AZ13+'1º Vuelta'!BH13+'1º Vuelta'!BP13+'1º Vuelta'!BX13+'1º Vuelta'!CF13+'1º Vuelta'!CN13+'1º Vuelta'!CV13+'1º Vuelta'!DD13+'1º Vuelta'!DL13+'1º Vuelta'!DT13+'1º Vuelta'!EB13</f>
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>18</v>
@@ -36855,7 +36998,7 @@
         <v>107</v>
       </c>
       <c r="V11" s="22">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="19" x14ac:dyDescent="0.25">
@@ -36871,7 +37014,7 @@
       </c>
       <c r="F12" s="8">
         <f>'1º Vuelta'!D14+'1º Vuelta'!L14+'1º Vuelta'!T14+'1º Vuelta'!AB14+'1º Vuelta'!AJ14+'1º Vuelta'!AR14+'1º Vuelta'!AZ14+'1º Vuelta'!BH14+'1º Vuelta'!BP14+'1º Vuelta'!BX14+'1º Vuelta'!CF14+'1º Vuelta'!CN14+'1º Vuelta'!CV14+'1º Vuelta'!DD14+'1º Vuelta'!DL14+'1º Vuelta'!DT14+'1º Vuelta'!EB14</f>
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>20</v>
@@ -36916,7 +37059,7 @@
       </c>
       <c r="F13" s="8">
         <f>'1º Vuelta'!D15+'1º Vuelta'!L15+'1º Vuelta'!T15+'1º Vuelta'!AB15+'1º Vuelta'!AJ15+'1º Vuelta'!AR15+'1º Vuelta'!AZ15+'1º Vuelta'!BH15+'1º Vuelta'!BP15+'1º Vuelta'!BX15+'1º Vuelta'!CF15+'1º Vuelta'!CN15+'1º Vuelta'!CV15+'1º Vuelta'!DD15+'1º Vuelta'!DL15+'1º Vuelta'!DT15+'1º Vuelta'!EB15</f>
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>21</v>
@@ -36959,14 +37102,14 @@
       </c>
       <c r="C14" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="8">
         <f>'1º Vuelta'!D16+'1º Vuelta'!L16+'1º Vuelta'!T16+'1º Vuelta'!AB16+'1º Vuelta'!AJ16+'1º Vuelta'!AR16+'1º Vuelta'!AZ16+'1º Vuelta'!BH16+'1º Vuelta'!BP16+'1º Vuelta'!BX16+'1º Vuelta'!CF16+'1º Vuelta'!CN16+'1º Vuelta'!CV16+'1º Vuelta'!DD16+'1º Vuelta'!DL16+'1º Vuelta'!DT16+'1º Vuelta'!EB16</f>
-        <v>439</v>
+        <v>515</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>22</v>
@@ -37016,7 +37159,7 @@
       </c>
       <c r="F15" s="8">
         <f>'1º Vuelta'!D17+'1º Vuelta'!L17+'1º Vuelta'!T17+'1º Vuelta'!AB17+'1º Vuelta'!AJ17+'1º Vuelta'!AR17+'1º Vuelta'!AZ17+'1º Vuelta'!BH17+'1º Vuelta'!BP17+'1º Vuelta'!BX17+'1º Vuelta'!CF17+'1º Vuelta'!CN17+'1º Vuelta'!CV17+'1º Vuelta'!DD17+'1º Vuelta'!DL17+'1º Vuelta'!DT17+'1º Vuelta'!EB17</f>
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>23</v>
@@ -37059,14 +37202,14 @@
       </c>
       <c r="C16" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="8">
         <f>'1º Vuelta'!D18+'1º Vuelta'!L18+'1º Vuelta'!T18+'1º Vuelta'!AB18+'1º Vuelta'!AJ18+'1º Vuelta'!AR18+'1º Vuelta'!AZ18+'1º Vuelta'!BH18+'1º Vuelta'!BP18+'1º Vuelta'!BX18+'1º Vuelta'!CF18+'1º Vuelta'!CN18+'1º Vuelta'!CV18+'1º Vuelta'!DD18+'1º Vuelta'!DL18+'1º Vuelta'!DT18+'1º Vuelta'!EB18</f>
-        <v>518</v>
+        <v>583</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>24</v>
@@ -37109,14 +37252,14 @@
       </c>
       <c r="C17" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="8">
         <f>'1º Vuelta'!D19+'1º Vuelta'!L19+'1º Vuelta'!T19+'1º Vuelta'!AB19+'1º Vuelta'!AJ19+'1º Vuelta'!AR19+'1º Vuelta'!AZ19+'1º Vuelta'!BH19+'1º Vuelta'!BP19+'1º Vuelta'!BX19+'1º Vuelta'!CF19+'1º Vuelta'!CN19+'1º Vuelta'!CV19+'1º Vuelta'!DD19+'1º Vuelta'!DL19+'1º Vuelta'!DT19+'1º Vuelta'!EB19</f>
-        <v>203</v>
+        <v>293</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>25</v>
@@ -37144,7 +37287,7 @@
       </c>
       <c r="R17" s="8">
         <f>'1º Vuelta'!H19+'1º Vuelta'!P19+'1º Vuelta'!X19+'1º Vuelta'!AF19+'1º Vuelta'!AN19+'1º Vuelta'!AV19+'1º Vuelta'!BD19+'1º Vuelta'!BL19+'1º Vuelta'!BT19+'1º Vuelta'!CB19+'1º Vuelta'!CJ19+'1º Vuelta'!CR19+'1º Vuelta'!CZ19+'1º Vuelta'!DH19+'1º Vuelta'!DP19+'1º Vuelta'!DX19+'1º Vuelta'!EF19</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U17" s="50" t="s">
         <v>102</v>
@@ -37159,14 +37302,14 @@
       </c>
       <c r="C18" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="8">
         <f>'1º Vuelta'!D20+'1º Vuelta'!L20+'1º Vuelta'!T20+'1º Vuelta'!AB20+'1º Vuelta'!AJ20+'1º Vuelta'!AR20+'1º Vuelta'!AZ20+'1º Vuelta'!BH20+'1º Vuelta'!BP20+'1º Vuelta'!BX20+'1º Vuelta'!CF20+'1º Vuelta'!CN20+'1º Vuelta'!CV20+'1º Vuelta'!DD20+'1º Vuelta'!DL20+'1º Vuelta'!DT20+'1º Vuelta'!EB20</f>
-        <v>373</v>
+        <v>463</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>26</v>
@@ -37209,14 +37352,14 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="8">
         <f>'1º Vuelta'!D21+'1º Vuelta'!L21+'1º Vuelta'!T21+'1º Vuelta'!AB21+'1º Vuelta'!AJ21+'1º Vuelta'!AR21+'1º Vuelta'!AZ21+'1º Vuelta'!BH21+'1º Vuelta'!BP21+'1º Vuelta'!BX21+'1º Vuelta'!CF21+'1º Vuelta'!CN21+'1º Vuelta'!CV21+'1º Vuelta'!DD21+'1º Vuelta'!DL21+'1º Vuelta'!DT21+'1º Vuelta'!EB21</f>
-        <v>409</v>
+        <v>485</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>27</v>
@@ -37237,7 +37380,7 @@
       </c>
       <c r="O19" s="8">
         <f>'1º Vuelta'!G21+'1º Vuelta'!O21+'1º Vuelta'!W21+'1º Vuelta'!AE21+'1º Vuelta'!AM21+'1º Vuelta'!AU21+'1º Vuelta'!BC21+'1º Vuelta'!BK21+'1º Vuelta'!BS21+'1º Vuelta'!CA21+'1º Vuelta'!CI21+'1º Vuelta'!CQ21+'1º Vuelta'!CY21+'1º Vuelta'!DG21+'1º Vuelta'!DO21+'1º Vuelta'!DW21+'1º Vuelta'!EE21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="6" t="s">
         <v>27</v>
@@ -37259,14 +37402,14 @@
       </c>
       <c r="C20" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="8">
         <f>'1º Vuelta'!D22+'1º Vuelta'!L22+'1º Vuelta'!T22+'1º Vuelta'!AB22+'1º Vuelta'!AJ22+'1º Vuelta'!AR22+'1º Vuelta'!AZ22+'1º Vuelta'!BH22+'1º Vuelta'!BP22+'1º Vuelta'!BX22+'1º Vuelta'!CF22+'1º Vuelta'!CN22+'1º Vuelta'!CV22+'1º Vuelta'!DD22+'1º Vuelta'!DL22+'1º Vuelta'!DT22+'1º Vuelta'!EB22</f>
-        <v>403</v>
+        <v>468</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>28</v>
@@ -37287,14 +37430,14 @@
       </c>
       <c r="O20" s="8">
         <f>'1º Vuelta'!G22+'1º Vuelta'!O22+'1º Vuelta'!W22+'1º Vuelta'!AE22+'1º Vuelta'!AM22+'1º Vuelta'!AU22+'1º Vuelta'!BC22+'1º Vuelta'!BK22+'1º Vuelta'!BS22+'1º Vuelta'!CA22+'1º Vuelta'!CI22+'1º Vuelta'!CQ22+'1º Vuelta'!CY22+'1º Vuelta'!DG22+'1º Vuelta'!DO22+'1º Vuelta'!DW22+'1º Vuelta'!EE22</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>28</v>
       </c>
       <c r="R20" s="8">
         <f>'1º Vuelta'!H22+'1º Vuelta'!P22+'1º Vuelta'!X22+'1º Vuelta'!AF22+'1º Vuelta'!AN22+'1º Vuelta'!AV22+'1º Vuelta'!BD22+'1º Vuelta'!BL22+'1º Vuelta'!BT22+'1º Vuelta'!CB22+'1º Vuelta'!CJ22+'1º Vuelta'!CR22+'1º Vuelta'!CZ22+'1º Vuelta'!DH22+'1º Vuelta'!DP22+'1º Vuelta'!DX22+'1º Vuelta'!EF22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" s="50" t="s">
         <v>105</v>
@@ -37366,7 +37509,7 @@
       </c>
       <c r="F22" s="8">
         <f>'1º Vuelta'!D24+'1º Vuelta'!L24+'1º Vuelta'!T24+'1º Vuelta'!AB24+'1º Vuelta'!AJ24+'1º Vuelta'!AR24+'1º Vuelta'!AZ24+'1º Vuelta'!BH24+'1º Vuelta'!BP24+'1º Vuelta'!BX24+'1º Vuelta'!CF24+'1º Vuelta'!CN24+'1º Vuelta'!CV24+'1º Vuelta'!DD24+'1º Vuelta'!DL24+'1º Vuelta'!DT24+'1º Vuelta'!EB24</f>
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>50</v>
@@ -37387,7 +37530,7 @@
       </c>
       <c r="O22" s="8">
         <f>'1º Vuelta'!G24+'1º Vuelta'!O24+'1º Vuelta'!W24+'1º Vuelta'!AE24+'1º Vuelta'!AM24+'1º Vuelta'!AU24+'1º Vuelta'!BC24+'1º Vuelta'!BK24+'1º Vuelta'!BS24+'1º Vuelta'!CA24+'1º Vuelta'!CI24+'1º Vuelta'!CQ24+'1º Vuelta'!CY24+'1º Vuelta'!DG24+'1º Vuelta'!DO24+'1º Vuelta'!DW24+'1º Vuelta'!EE24</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q22" s="6" t="s">
         <v>50</v>
@@ -37440,7 +37583,7 @@
         <v>102</v>
       </c>
       <c r="V28" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.2">
@@ -37464,7 +37607,7 @@
         <v>105</v>
       </c>
       <c r="V31" s="22">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.2">
@@ -37472,7 +37615,7 @@
         <v>106</v>
       </c>
       <c r="V32" s="22">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="5:22" x14ac:dyDescent="0.2">
@@ -37491,30 +37634,30 @@
     </row>
     <row r="36" spans="5:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="5:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="E37" s="147" t="s">
+      <c r="E37" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="148"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="148"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="148"/>
-      <c r="K37" s="149"/>
+      <c r="F37" s="142"/>
+      <c r="G37" s="142"/>
+      <c r="H37" s="142"/>
+      <c r="I37" s="142"/>
+      <c r="J37" s="142"/>
+      <c r="K37" s="143"/>
     </row>
     <row r="38" spans="5:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="E38" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="142"/>
-      <c r="G38" s="142"/>
-      <c r="H38" s="145" t="s">
+      <c r="E38" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="145"/>
-      <c r="J38" s="143" t="s">
+      <c r="I38" s="144"/>
+      <c r="J38" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="144"/>
+      <c r="K38" s="146"/>
     </row>
     <row r="39" spans="5:22" ht="19" x14ac:dyDescent="0.25">
       <c r="E39" s="14" t="s">
@@ -37545,11 +37688,11 @@
       </c>
       <c r="F40" s="7">
         <f>'1º Vuelta'!C5+'1º Vuelta'!K5+'1º Vuelta'!S5+'1º Vuelta'!AA5+'1º Vuelta'!AI5+'1º Vuelta'!AQ5+'1º Vuelta'!AY5+'1º Vuelta'!BG5+'1º Vuelta'!BO5+'1º Vuelta'!BW5+'1º Vuelta'!CE5+'1º Vuelta'!CM5+'1º Vuelta'!CU5+'1º Vuelta'!DC5+'1º Vuelta'!DK5+'1º Vuelta'!DS5+'1º Vuelta'!EA5</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G40" s="7">
         <f>'1º Vuelta'!D5+'1º Vuelta'!L5+'1º Vuelta'!T5+'1º Vuelta'!AB5+'1º Vuelta'!AJ5+'1º Vuelta'!AR5+'1º Vuelta'!AZ5+'1º Vuelta'!BH5+'1º Vuelta'!BP5+'1º Vuelta'!BX5+'1º Vuelta'!CF5+'1º Vuelta'!CN5+'1º Vuelta'!CV5+'1º Vuelta'!DD5+'1º Vuelta'!DL5+'1º Vuelta'!DT5+'1º Vuelta'!EB5</f>
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="H40" s="7">
         <f>'1º Vuelta'!E5+'1º Vuelta'!M5+'1º Vuelta'!U5+'1º Vuelta'!AC5+'1º Vuelta'!AK5+'1º Vuelta'!AS5+'1º Vuelta'!BA5+'1º Vuelta'!BI5+'1º Vuelta'!BQ5+'1º Vuelta'!BY5+'1º Vuelta'!CG5+'1º Vuelta'!CO5+'1º Vuelta'!CW5+'1º Vuelta'!DE5+'1º Vuelta'!DM5+'1º Vuelta'!DU5+'1º Vuelta'!EC5</f>
@@ -37661,11 +37804,11 @@
       </c>
       <c r="F44" s="7">
         <f>'1º Vuelta'!C9+'1º Vuelta'!K9+'1º Vuelta'!S9+'1º Vuelta'!AA9+'1º Vuelta'!AI9+'1º Vuelta'!AQ9+'1º Vuelta'!AY9+'1º Vuelta'!BG9+'1º Vuelta'!BO9+'1º Vuelta'!BW9+'1º Vuelta'!CE9+'1º Vuelta'!CM9+'1º Vuelta'!CU9+'1º Vuelta'!DC9+'1º Vuelta'!DK9+'1º Vuelta'!DS9+'1º Vuelta'!EA9</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" s="7">
         <f>'1º Vuelta'!D9+'1º Vuelta'!L9+'1º Vuelta'!T9+'1º Vuelta'!AB9+'1º Vuelta'!AJ9+'1º Vuelta'!AR9+'1º Vuelta'!AZ9+'1º Vuelta'!BH9+'1º Vuelta'!BP9+'1º Vuelta'!BX9+'1º Vuelta'!CF9+'1º Vuelta'!CN9+'1º Vuelta'!CV9+'1º Vuelta'!DD9+'1º Vuelta'!DL9+'1º Vuelta'!DT9+'1º Vuelta'!EB9</f>
-        <v>146</v>
+        <v>236</v>
       </c>
       <c r="H44" s="7">
         <f>'1º Vuelta'!E9+'1º Vuelta'!M9+'1º Vuelta'!U9+'1º Vuelta'!AC9+'1º Vuelta'!AK9+'1º Vuelta'!AS9+'1º Vuelta'!BA9+'1º Vuelta'!BI9+'1º Vuelta'!BQ9+'1º Vuelta'!BY9+'1º Vuelta'!CG9+'1º Vuelta'!CO9+'1º Vuelta'!CW9+'1º Vuelta'!DE9+'1º Vuelta'!DM9+'1º Vuelta'!DU9+'1º Vuelta'!EC9</f>
@@ -37690,11 +37833,11 @@
       </c>
       <c r="F45" s="7">
         <f>'1º Vuelta'!C10+'1º Vuelta'!K10+'1º Vuelta'!S10+'1º Vuelta'!AA10+'1º Vuelta'!AI10+'1º Vuelta'!AQ10+'1º Vuelta'!AY10+'1º Vuelta'!BG10+'1º Vuelta'!BO10+'1º Vuelta'!BW10+'1º Vuelta'!CE10+'1º Vuelta'!CM10+'1º Vuelta'!CU10+'1º Vuelta'!DC10+'1º Vuelta'!DK10+'1º Vuelta'!DS10+'1º Vuelta'!EA10</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G45" s="7">
         <f>'1º Vuelta'!D10+'1º Vuelta'!L10+'1º Vuelta'!T10+'1º Vuelta'!AB10+'1º Vuelta'!AJ10+'1º Vuelta'!AR10+'1º Vuelta'!AZ10+'1º Vuelta'!BH10+'1º Vuelta'!BP10+'1º Vuelta'!BX10+'1º Vuelta'!CF10+'1º Vuelta'!CN10+'1º Vuelta'!CV10+'1º Vuelta'!DD10+'1º Vuelta'!DL10+'1º Vuelta'!DT10+'1º Vuelta'!EB10</f>
-        <v>529</v>
+        <v>619</v>
       </c>
       <c r="H45" s="7">
         <f>'1º Vuelta'!E10+'1º Vuelta'!M10+'1º Vuelta'!U10+'1º Vuelta'!AC10+'1º Vuelta'!AK10+'1º Vuelta'!AS10+'1º Vuelta'!BA10+'1º Vuelta'!BI10+'1º Vuelta'!BQ10+'1º Vuelta'!BY10+'1º Vuelta'!CG10+'1º Vuelta'!CO10+'1º Vuelta'!CW10+'1º Vuelta'!DE10+'1º Vuelta'!DM10+'1º Vuelta'!DU10+'1º Vuelta'!EC10</f>
@@ -37723,7 +37866,7 @@
       </c>
       <c r="G46" s="7">
         <f>'1º Vuelta'!D11+'1º Vuelta'!L11+'1º Vuelta'!T11+'1º Vuelta'!AB11+'1º Vuelta'!AJ11+'1º Vuelta'!AR11+'1º Vuelta'!AZ11+'1º Vuelta'!BH11+'1º Vuelta'!BP11+'1º Vuelta'!BX11+'1º Vuelta'!CF11+'1º Vuelta'!CN11+'1º Vuelta'!CV11+'1º Vuelta'!DD11+'1º Vuelta'!DL11+'1º Vuelta'!DT11+'1º Vuelta'!EB11</f>
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="H46" s="7">
         <f>'1º Vuelta'!E11+'1º Vuelta'!M11+'1º Vuelta'!U11+'1º Vuelta'!AC11+'1º Vuelta'!AK11+'1º Vuelta'!AS11+'1º Vuelta'!BA11+'1º Vuelta'!BI11+'1º Vuelta'!BQ11+'1º Vuelta'!BY11+'1º Vuelta'!CG11+'1º Vuelta'!CO11+'1º Vuelta'!CW11+'1º Vuelta'!DE11+'1º Vuelta'!DM11+'1º Vuelta'!DU11+'1º Vuelta'!EC11</f>
@@ -37748,11 +37891,11 @@
       </c>
       <c r="F47" s="7">
         <f>'1º Vuelta'!C12+'1º Vuelta'!K12+'1º Vuelta'!S12+'1º Vuelta'!AA12+'1º Vuelta'!AI12+'1º Vuelta'!AQ12+'1º Vuelta'!AY12+'1º Vuelta'!BG12+'1º Vuelta'!BO12+'1º Vuelta'!BW12+'1º Vuelta'!CE12+'1º Vuelta'!CM12+'1º Vuelta'!CU12+'1º Vuelta'!DC12+'1º Vuelta'!DK12+'1º Vuelta'!DS12+'1º Vuelta'!EA12</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" s="7">
         <f>'1º Vuelta'!D12+'1º Vuelta'!L12+'1º Vuelta'!T12+'1º Vuelta'!AB12+'1º Vuelta'!AJ12+'1º Vuelta'!AR12+'1º Vuelta'!AZ12+'1º Vuelta'!BH12+'1º Vuelta'!BP12+'1º Vuelta'!BX12+'1º Vuelta'!CF12+'1º Vuelta'!CN12+'1º Vuelta'!CV12+'1º Vuelta'!DD12+'1º Vuelta'!DL12+'1º Vuelta'!DT12+'1º Vuelta'!EB12</f>
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="H47" s="7">
         <f>'1º Vuelta'!E12+'1º Vuelta'!M12+'1º Vuelta'!U12+'1º Vuelta'!AC12+'1º Vuelta'!AK12+'1º Vuelta'!AS12+'1º Vuelta'!BA12+'1º Vuelta'!BI12+'1º Vuelta'!BQ12+'1º Vuelta'!BY12+'1º Vuelta'!CG12+'1º Vuelta'!CO12+'1º Vuelta'!CW12+'1º Vuelta'!DE12+'1º Vuelta'!DM12+'1º Vuelta'!DU12+'1º Vuelta'!EC12</f>
@@ -37764,7 +37907,7 @@
       </c>
       <c r="J47" s="7">
         <f>'1º Vuelta'!G12+'1º Vuelta'!O12+'1º Vuelta'!W12+'1º Vuelta'!AE12+'1º Vuelta'!AM12+'1º Vuelta'!AU12+'1º Vuelta'!BC12+'1º Vuelta'!BK12+'1º Vuelta'!BS12+'1º Vuelta'!CA12+'1º Vuelta'!CI12+'1º Vuelta'!CQ12+'1º Vuelta'!CY12+'1º Vuelta'!DG12+'1º Vuelta'!DO12+'1º Vuelta'!DW12+'1º Vuelta'!EE12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="7">
         <f>'1º Vuelta'!H12+'1º Vuelta'!P12+'1º Vuelta'!X12+'1º Vuelta'!AF12+'1º Vuelta'!AN12+'1º Vuelta'!AV12+'1º Vuelta'!BD12+'1º Vuelta'!BL12+'1º Vuelta'!BT12+'1º Vuelta'!CB12+'1º Vuelta'!CJ12+'1º Vuelta'!CR12+'1º Vuelta'!CZ12+'1º Vuelta'!DH12+'1º Vuelta'!DP12+'1º Vuelta'!DX12+'1º Vuelta'!EF12</f>
@@ -37777,11 +37920,11 @@
       </c>
       <c r="F48" s="7">
         <f>'1º Vuelta'!C13+'1º Vuelta'!K13+'1º Vuelta'!S13+'1º Vuelta'!AA13+'1º Vuelta'!AI13+'1º Vuelta'!AQ13+'1º Vuelta'!AY13+'1º Vuelta'!BG13+'1º Vuelta'!BO13+'1º Vuelta'!BW13+'1º Vuelta'!CE13+'1º Vuelta'!CM13+'1º Vuelta'!CU13+'1º Vuelta'!DC13+'1º Vuelta'!DK13+'1º Vuelta'!DS13+'1º Vuelta'!EA13</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G48" s="7">
         <f>'1º Vuelta'!D13+'1º Vuelta'!L13+'1º Vuelta'!T13+'1º Vuelta'!AB13+'1º Vuelta'!AJ13+'1º Vuelta'!AR13+'1º Vuelta'!AZ13+'1º Vuelta'!BH13+'1º Vuelta'!BP13+'1º Vuelta'!BX13+'1º Vuelta'!CF13+'1º Vuelta'!CN13+'1º Vuelta'!CV13+'1º Vuelta'!DD13+'1º Vuelta'!DL13+'1º Vuelta'!DT13+'1º Vuelta'!EB13</f>
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="H48" s="7">
         <f>'1º Vuelta'!E13+'1º Vuelta'!M13+'1º Vuelta'!U13+'1º Vuelta'!AC13+'1º Vuelta'!AK13+'1º Vuelta'!AS13+'1º Vuelta'!BA13+'1º Vuelta'!BI13+'1º Vuelta'!BQ13+'1º Vuelta'!BY13+'1º Vuelta'!CG13+'1º Vuelta'!CO13+'1º Vuelta'!CW13+'1º Vuelta'!DE13+'1º Vuelta'!DM13+'1º Vuelta'!DU13+'1º Vuelta'!EC13</f>
@@ -37810,7 +37953,7 @@
       </c>
       <c r="G49" s="7">
         <f>'1º Vuelta'!D14+'1º Vuelta'!L14+'1º Vuelta'!T14+'1º Vuelta'!AB14+'1º Vuelta'!AJ14+'1º Vuelta'!AR14+'1º Vuelta'!AZ14+'1º Vuelta'!BH14+'1º Vuelta'!BP14+'1º Vuelta'!BX14+'1º Vuelta'!CF14+'1º Vuelta'!CN14+'1º Vuelta'!CV14+'1º Vuelta'!DD14+'1º Vuelta'!DL14+'1º Vuelta'!DT14+'1º Vuelta'!EB14</f>
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="H49" s="7">
         <f>'1º Vuelta'!E14+'1º Vuelta'!M14+'1º Vuelta'!U14+'1º Vuelta'!AC14+'1º Vuelta'!AK14+'1º Vuelta'!AS14+'1º Vuelta'!BA14+'1º Vuelta'!BI14+'1º Vuelta'!BQ14+'1º Vuelta'!BY14+'1º Vuelta'!CG14+'1º Vuelta'!CO14+'1º Vuelta'!CW14+'1º Vuelta'!DE14+'1º Vuelta'!DM14+'1º Vuelta'!DU14+'1º Vuelta'!EC14</f>
@@ -37839,7 +37982,7 @@
       </c>
       <c r="G50" s="7">
         <f>'1º Vuelta'!D15+'1º Vuelta'!L15+'1º Vuelta'!T15+'1º Vuelta'!AB15+'1º Vuelta'!AJ15+'1º Vuelta'!AR15+'1º Vuelta'!AZ15+'1º Vuelta'!BH15+'1º Vuelta'!BP15+'1º Vuelta'!BX15+'1º Vuelta'!CF15+'1º Vuelta'!CN15+'1º Vuelta'!CV15+'1º Vuelta'!DD15+'1º Vuelta'!DL15+'1º Vuelta'!DT15+'1º Vuelta'!EB15</f>
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="H50" s="7">
         <f>'1º Vuelta'!E15+'1º Vuelta'!M15+'1º Vuelta'!U15+'1º Vuelta'!AC15+'1º Vuelta'!AK15+'1º Vuelta'!AS15+'1º Vuelta'!BA15+'1º Vuelta'!BI15+'1º Vuelta'!BQ15+'1º Vuelta'!BY15+'1º Vuelta'!CG15+'1º Vuelta'!CO15+'1º Vuelta'!CW15+'1º Vuelta'!DE15+'1º Vuelta'!DM15+'1º Vuelta'!DU15+'1º Vuelta'!EC15</f>
@@ -37864,11 +38007,11 @@
       </c>
       <c r="F51" s="7">
         <f>'1º Vuelta'!C16+'1º Vuelta'!K16+'1º Vuelta'!S16+'1º Vuelta'!AA16+'1º Vuelta'!AI16+'1º Vuelta'!AQ16+'1º Vuelta'!AY16+'1º Vuelta'!BG16+'1º Vuelta'!BO16+'1º Vuelta'!BW16+'1º Vuelta'!CE16+'1º Vuelta'!CM16+'1º Vuelta'!CU16+'1º Vuelta'!DC16+'1º Vuelta'!DK16+'1º Vuelta'!DS16+'1º Vuelta'!EA16</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G51" s="7">
         <f>'1º Vuelta'!D16+'1º Vuelta'!L16+'1º Vuelta'!T16+'1º Vuelta'!AB16+'1º Vuelta'!AJ16+'1º Vuelta'!AR16+'1º Vuelta'!AZ16+'1º Vuelta'!BH16+'1º Vuelta'!BP16+'1º Vuelta'!BX16+'1º Vuelta'!CF16+'1º Vuelta'!CN16+'1º Vuelta'!CV16+'1º Vuelta'!DD16+'1º Vuelta'!DL16+'1º Vuelta'!DT16+'1º Vuelta'!EB16</f>
-        <v>439</v>
+        <v>515</v>
       </c>
       <c r="H51" s="7">
         <f>'1º Vuelta'!E16+'1º Vuelta'!M16+'1º Vuelta'!U16+'1º Vuelta'!AC16+'1º Vuelta'!AK16+'1º Vuelta'!AS16+'1º Vuelta'!BA16+'1º Vuelta'!BI16+'1º Vuelta'!BQ16+'1º Vuelta'!BY16+'1º Vuelta'!CG16+'1º Vuelta'!CO16+'1º Vuelta'!CW16+'1º Vuelta'!DE16+'1º Vuelta'!DM16+'1º Vuelta'!DU16+'1º Vuelta'!EC16</f>
@@ -37897,7 +38040,7 @@
       </c>
       <c r="G52" s="7">
         <f>'1º Vuelta'!D17+'1º Vuelta'!L17+'1º Vuelta'!T17+'1º Vuelta'!AB17+'1º Vuelta'!AJ17+'1º Vuelta'!AR17+'1º Vuelta'!AZ17+'1º Vuelta'!BH17+'1º Vuelta'!BP17+'1º Vuelta'!BX17+'1º Vuelta'!CF17+'1º Vuelta'!CN17+'1º Vuelta'!CV17+'1º Vuelta'!DD17+'1º Vuelta'!DL17+'1º Vuelta'!DT17+'1º Vuelta'!EB17</f>
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H52" s="7">
         <f>'1º Vuelta'!E17+'1º Vuelta'!M17+'1º Vuelta'!U17+'1º Vuelta'!AC17+'1º Vuelta'!AK17+'1º Vuelta'!AS17+'1º Vuelta'!BA17+'1º Vuelta'!BI17+'1º Vuelta'!BQ17+'1º Vuelta'!BY17+'1º Vuelta'!CG17+'1º Vuelta'!CO17+'1º Vuelta'!CW17+'1º Vuelta'!DE17+'1º Vuelta'!DM17+'1º Vuelta'!DU17+'1º Vuelta'!EC17</f>
@@ -37922,11 +38065,11 @@
       </c>
       <c r="F53" s="7">
         <f>'1º Vuelta'!C18+'1º Vuelta'!K18+'1º Vuelta'!S18+'1º Vuelta'!AA18+'1º Vuelta'!AI18+'1º Vuelta'!AQ18+'1º Vuelta'!AY18+'1º Vuelta'!BG18+'1º Vuelta'!BO18+'1º Vuelta'!BW18+'1º Vuelta'!CE18+'1º Vuelta'!CM18+'1º Vuelta'!CU18+'1º Vuelta'!DC18+'1º Vuelta'!DK18+'1º Vuelta'!DS18+'1º Vuelta'!EA18</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G53" s="7">
         <f>'1º Vuelta'!D18+'1º Vuelta'!L18+'1º Vuelta'!T18+'1º Vuelta'!AB18+'1º Vuelta'!AJ18+'1º Vuelta'!AR18+'1º Vuelta'!AZ18+'1º Vuelta'!BH18+'1º Vuelta'!BP18+'1º Vuelta'!BX18+'1º Vuelta'!CF18+'1º Vuelta'!CN18+'1º Vuelta'!CV18+'1º Vuelta'!DD18+'1º Vuelta'!DL18+'1º Vuelta'!DT18+'1º Vuelta'!EB18</f>
-        <v>518</v>
+        <v>583</v>
       </c>
       <c r="H53" s="7">
         <f>'1º Vuelta'!E18+'1º Vuelta'!M18+'1º Vuelta'!U18+'1º Vuelta'!AC18+'1º Vuelta'!AK18+'1º Vuelta'!AS18+'1º Vuelta'!BA18+'1º Vuelta'!BI18+'1º Vuelta'!BQ18+'1º Vuelta'!BY18+'1º Vuelta'!CG18+'1º Vuelta'!CO18+'1º Vuelta'!CW18+'1º Vuelta'!DE18+'1º Vuelta'!DM18+'1º Vuelta'!DU18+'1º Vuelta'!EC18</f>
@@ -37951,11 +38094,11 @@
       </c>
       <c r="F54" s="7">
         <f>'1º Vuelta'!C19+'1º Vuelta'!K19+'1º Vuelta'!S19+'1º Vuelta'!AA19+'1º Vuelta'!AI19+'1º Vuelta'!AQ19+'1º Vuelta'!AY19+'1º Vuelta'!BG19+'1º Vuelta'!BO19+'1º Vuelta'!BW19+'1º Vuelta'!CE19+'1º Vuelta'!CM19+'1º Vuelta'!CU19+'1º Vuelta'!DC19+'1º Vuelta'!DK19+'1º Vuelta'!DS19+'1º Vuelta'!EA19</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G54" s="7">
         <f>'1º Vuelta'!D19+'1º Vuelta'!L19+'1º Vuelta'!T19+'1º Vuelta'!AB19+'1º Vuelta'!AJ19+'1º Vuelta'!AR19+'1º Vuelta'!AZ19+'1º Vuelta'!BH19+'1º Vuelta'!BP19+'1º Vuelta'!BX19+'1º Vuelta'!CF19+'1º Vuelta'!CN19+'1º Vuelta'!CV19+'1º Vuelta'!DD19+'1º Vuelta'!DL19+'1º Vuelta'!DT19+'1º Vuelta'!EB19</f>
-        <v>203</v>
+        <v>293</v>
       </c>
       <c r="H54" s="7">
         <f>'1º Vuelta'!E19+'1º Vuelta'!M19+'1º Vuelta'!U19+'1º Vuelta'!AC19+'1º Vuelta'!AK19+'1º Vuelta'!AS19+'1º Vuelta'!BA19+'1º Vuelta'!BI19+'1º Vuelta'!BQ19+'1º Vuelta'!BY19+'1º Vuelta'!CG19+'1º Vuelta'!CO19+'1º Vuelta'!CW19+'1º Vuelta'!DE19+'1º Vuelta'!DM19+'1º Vuelta'!DU19+'1º Vuelta'!EC19</f>
@@ -37971,7 +38114,7 @@
       </c>
       <c r="K54" s="7">
         <f>'1º Vuelta'!H19+'1º Vuelta'!P19+'1º Vuelta'!X19+'1º Vuelta'!AF19+'1º Vuelta'!AN19+'1º Vuelta'!AV19+'1º Vuelta'!BD19+'1º Vuelta'!BL19+'1º Vuelta'!BT19+'1º Vuelta'!CB19+'1º Vuelta'!CJ19+'1º Vuelta'!CR19+'1º Vuelta'!CZ19+'1º Vuelta'!DH19+'1º Vuelta'!DP19+'1º Vuelta'!DX19+'1º Vuelta'!EF19</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="5:11" ht="19" x14ac:dyDescent="0.25">
@@ -37980,11 +38123,11 @@
       </c>
       <c r="F55" s="7">
         <f>'1º Vuelta'!C20+'1º Vuelta'!K20+'1º Vuelta'!S20+'1º Vuelta'!AA20+'1º Vuelta'!AI20+'1º Vuelta'!AQ20+'1º Vuelta'!AY20+'1º Vuelta'!BG20+'1º Vuelta'!BO20+'1º Vuelta'!BW20+'1º Vuelta'!CE20+'1º Vuelta'!CM20+'1º Vuelta'!CU20+'1º Vuelta'!DC20+'1º Vuelta'!DK20+'1º Vuelta'!DS20+'1º Vuelta'!EA20</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G55" s="7">
         <f>'1º Vuelta'!D20+'1º Vuelta'!L20+'1º Vuelta'!T20+'1º Vuelta'!AB20+'1º Vuelta'!AJ20+'1º Vuelta'!AR20+'1º Vuelta'!AZ20+'1º Vuelta'!BH20+'1º Vuelta'!BP20+'1º Vuelta'!BX20+'1º Vuelta'!CF20+'1º Vuelta'!CN20+'1º Vuelta'!CV20+'1º Vuelta'!DD20+'1º Vuelta'!DL20+'1º Vuelta'!DT20+'1º Vuelta'!EB20</f>
-        <v>373</v>
+        <v>463</v>
       </c>
       <c r="H55" s="7">
         <f>'1º Vuelta'!E20+'1º Vuelta'!M20+'1º Vuelta'!U20+'1º Vuelta'!AC20+'1º Vuelta'!AK20+'1º Vuelta'!AS20+'1º Vuelta'!BA20+'1º Vuelta'!BI20+'1º Vuelta'!BQ20+'1º Vuelta'!BY20+'1º Vuelta'!CG20+'1º Vuelta'!CO20+'1º Vuelta'!CW20+'1º Vuelta'!DE20+'1º Vuelta'!DM20+'1º Vuelta'!DU20+'1º Vuelta'!EC20</f>
@@ -38009,11 +38152,11 @@
       </c>
       <c r="F56" s="7">
         <f>'1º Vuelta'!C21+'1º Vuelta'!K21+'1º Vuelta'!S21+'1º Vuelta'!AA21+'1º Vuelta'!AI21+'1º Vuelta'!AQ21+'1º Vuelta'!AY21+'1º Vuelta'!BG21+'1º Vuelta'!BO21+'1º Vuelta'!BW21+'1º Vuelta'!CE21+'1º Vuelta'!CM21+'1º Vuelta'!CU21+'1º Vuelta'!DC21+'1º Vuelta'!DK21+'1º Vuelta'!DS21+'1º Vuelta'!EA21</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G56" s="7">
         <f>'1º Vuelta'!D21+'1º Vuelta'!L21+'1º Vuelta'!T21+'1º Vuelta'!AB21+'1º Vuelta'!AJ21+'1º Vuelta'!AR21+'1º Vuelta'!AZ21+'1º Vuelta'!BH21+'1º Vuelta'!BP21+'1º Vuelta'!BX21+'1º Vuelta'!CF21+'1º Vuelta'!CN21+'1º Vuelta'!CV21+'1º Vuelta'!DD21+'1º Vuelta'!DL21+'1º Vuelta'!DT21+'1º Vuelta'!EB21</f>
-        <v>409</v>
+        <v>485</v>
       </c>
       <c r="H56" s="7">
         <f>'1º Vuelta'!E21+'1º Vuelta'!M21+'1º Vuelta'!U21+'1º Vuelta'!AC21+'1º Vuelta'!AK21+'1º Vuelta'!AS21+'1º Vuelta'!BA21+'1º Vuelta'!BI21+'1º Vuelta'!BQ21+'1º Vuelta'!BY21+'1º Vuelta'!CG21+'1º Vuelta'!CO21+'1º Vuelta'!CW21+'1º Vuelta'!DE21+'1º Vuelta'!DM21+'1º Vuelta'!DU21+'1º Vuelta'!EC21</f>
@@ -38025,7 +38168,7 @@
       </c>
       <c r="J56" s="7">
         <f>'1º Vuelta'!G21+'1º Vuelta'!O21+'1º Vuelta'!W21+'1º Vuelta'!AE21+'1º Vuelta'!AM21+'1º Vuelta'!AU21+'1º Vuelta'!BC21+'1º Vuelta'!BK21+'1º Vuelta'!BS21+'1º Vuelta'!CA21+'1º Vuelta'!CI21+'1º Vuelta'!CQ21+'1º Vuelta'!CY21+'1º Vuelta'!DG21+'1º Vuelta'!DO21+'1º Vuelta'!DW21+'1º Vuelta'!EE21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="7">
         <f>'1º Vuelta'!H21+'1º Vuelta'!P21+'1º Vuelta'!X21+'1º Vuelta'!AF21+'1º Vuelta'!AN21+'1º Vuelta'!AV21+'1º Vuelta'!BD21+'1º Vuelta'!BL21+'1º Vuelta'!BT21+'1º Vuelta'!CB21+'1º Vuelta'!CJ21+'1º Vuelta'!CR21+'1º Vuelta'!CZ21+'1º Vuelta'!DH21+'1º Vuelta'!DP21+'1º Vuelta'!DX21+'1º Vuelta'!EF21</f>
@@ -38038,11 +38181,11 @@
       </c>
       <c r="F57" s="7">
         <f>'1º Vuelta'!C22+'1º Vuelta'!K22+'1º Vuelta'!S22+'1º Vuelta'!AA22+'1º Vuelta'!AI22+'1º Vuelta'!AQ22+'1º Vuelta'!AY22+'1º Vuelta'!BG22+'1º Vuelta'!BO22+'1º Vuelta'!BW22+'1º Vuelta'!CE22+'1º Vuelta'!CM22+'1º Vuelta'!CU22+'1º Vuelta'!DC22+'1º Vuelta'!DK22+'1º Vuelta'!DS22+'1º Vuelta'!EA22</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G57" s="7">
         <f>'1º Vuelta'!D22+'1º Vuelta'!L22+'1º Vuelta'!T22+'1º Vuelta'!AB22+'1º Vuelta'!AJ22+'1º Vuelta'!AR22+'1º Vuelta'!AZ22+'1º Vuelta'!BH22+'1º Vuelta'!BP22+'1º Vuelta'!BX22+'1º Vuelta'!CF22+'1º Vuelta'!CN22+'1º Vuelta'!CV22+'1º Vuelta'!DD22+'1º Vuelta'!DL22+'1º Vuelta'!DT22+'1º Vuelta'!EB22</f>
-        <v>403</v>
+        <v>468</v>
       </c>
       <c r="H57" s="7">
         <f>'1º Vuelta'!E22+'1º Vuelta'!M22+'1º Vuelta'!U22+'1º Vuelta'!AC22+'1º Vuelta'!AK22+'1º Vuelta'!AS22+'1º Vuelta'!BA22+'1º Vuelta'!BI22+'1º Vuelta'!BQ22+'1º Vuelta'!BY22+'1º Vuelta'!CG22+'1º Vuelta'!CO22+'1º Vuelta'!CW22+'1º Vuelta'!DE22+'1º Vuelta'!DM22+'1º Vuelta'!DU22+'1º Vuelta'!EC22</f>
@@ -38054,11 +38197,11 @@
       </c>
       <c r="J57" s="7">
         <f>'1º Vuelta'!G22+'1º Vuelta'!O22+'1º Vuelta'!W22+'1º Vuelta'!AE22+'1º Vuelta'!AM22+'1º Vuelta'!AU22+'1º Vuelta'!BC22+'1º Vuelta'!BK22+'1º Vuelta'!BS22+'1º Vuelta'!CA22+'1º Vuelta'!CI22+'1º Vuelta'!CQ22+'1º Vuelta'!CY22+'1º Vuelta'!DG22+'1º Vuelta'!DO22+'1º Vuelta'!DW22+'1º Vuelta'!EE22</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K57" s="7">
         <f>'1º Vuelta'!H22+'1º Vuelta'!P22+'1º Vuelta'!X22+'1º Vuelta'!AF22+'1º Vuelta'!AN22+'1º Vuelta'!AV22+'1º Vuelta'!BD22+'1º Vuelta'!BL22+'1º Vuelta'!BT22+'1º Vuelta'!CB22+'1º Vuelta'!CJ22+'1º Vuelta'!CR22+'1º Vuelta'!CZ22+'1º Vuelta'!DH22+'1º Vuelta'!DP22+'1º Vuelta'!DX22+'1º Vuelta'!EF22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="5:11" ht="19" x14ac:dyDescent="0.25">
@@ -38100,7 +38243,7 @@
       </c>
       <c r="G59" s="7">
         <f>'1º Vuelta'!D24+'1º Vuelta'!L24+'1º Vuelta'!T24+'1º Vuelta'!AB24+'1º Vuelta'!AJ24+'1º Vuelta'!AR24+'1º Vuelta'!AZ24+'1º Vuelta'!BH24+'1º Vuelta'!BP24+'1º Vuelta'!BX24+'1º Vuelta'!CF24+'1º Vuelta'!CN24+'1º Vuelta'!CV24+'1º Vuelta'!DD24+'1º Vuelta'!DL24+'1º Vuelta'!DT24+'1º Vuelta'!EB24</f>
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="H59" s="7">
         <f>'1º Vuelta'!E24+'1º Vuelta'!M24+'1º Vuelta'!U24+'1º Vuelta'!AC24+'1º Vuelta'!AK24+'1º Vuelta'!AS24+'1º Vuelta'!BA24+'1º Vuelta'!BI24+'1º Vuelta'!BQ24+'1º Vuelta'!BY24+'1º Vuelta'!CG24+'1º Vuelta'!CO24+'1º Vuelta'!CW24+'1º Vuelta'!DE24+'1º Vuelta'!DM24+'1º Vuelta'!DU24+'1º Vuelta'!EC24</f>
@@ -38112,7 +38255,7 @@
       </c>
       <c r="J59" s="7">
         <f>'1º Vuelta'!G24+'1º Vuelta'!O24+'1º Vuelta'!W24+'1º Vuelta'!AE24+'1º Vuelta'!AM24+'1º Vuelta'!AU24+'1º Vuelta'!BC24+'1º Vuelta'!BK24+'1º Vuelta'!BS24+'1º Vuelta'!CA24+'1º Vuelta'!CI24+'1º Vuelta'!CQ24+'1º Vuelta'!CY24+'1º Vuelta'!DG24+'1º Vuelta'!DO24+'1º Vuelta'!DW24+'1º Vuelta'!EE24</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K59" s="7">
         <f>'1º Vuelta'!H24+'1º Vuelta'!P24+'1º Vuelta'!X24+'1º Vuelta'!AF24+'1º Vuelta'!AN24+'1º Vuelta'!AV24+'1º Vuelta'!BD24+'1º Vuelta'!BL24+'1º Vuelta'!BT24+'1º Vuelta'!CB24+'1º Vuelta'!CJ24+'1º Vuelta'!CR24+'1º Vuelta'!CZ24+'1º Vuelta'!DH24+'1º Vuelta'!DP24+'1º Vuelta'!DX24+'1º Vuelta'!EF24</f>
@@ -38231,382 +38374,382 @@
   <sheetData>
     <row r="1" spans="2:136" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B2" s="147" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="149"/>
-      <c r="J2" s="147" t="s">
+      <c r="B2" s="141" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="143"/>
+      <c r="J2" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="149"/>
-      <c r="R2" s="147" t="s">
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="143"/>
+      <c r="R2" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="149"/>
-      <c r="Z2" s="147" t="s">
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="143"/>
+      <c r="Z2" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="148"/>
-      <c r="AB2" s="148"/>
-      <c r="AC2" s="148"/>
-      <c r="AD2" s="148"/>
-      <c r="AE2" s="148"/>
-      <c r="AF2" s="149"/>
-      <c r="AH2" s="147" t="s">
+      <c r="AA2" s="142"/>
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="142"/>
+      <c r="AD2" s="142"/>
+      <c r="AE2" s="142"/>
+      <c r="AF2" s="143"/>
+      <c r="AH2" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="148"/>
-      <c r="AJ2" s="148"/>
-      <c r="AK2" s="148"/>
-      <c r="AL2" s="148"/>
-      <c r="AM2" s="148"/>
-      <c r="AN2" s="149"/>
-      <c r="AP2" s="147" t="s">
+      <c r="AI2" s="142"/>
+      <c r="AJ2" s="142"/>
+      <c r="AK2" s="142"/>
+      <c r="AL2" s="142"/>
+      <c r="AM2" s="142"/>
+      <c r="AN2" s="143"/>
+      <c r="AP2" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="AQ2" s="148"/>
-      <c r="AR2" s="148"/>
-      <c r="AS2" s="148"/>
-      <c r="AT2" s="148"/>
-      <c r="AU2" s="148"/>
-      <c r="AV2" s="149"/>
-      <c r="AX2" s="147" t="s">
+      <c r="AQ2" s="142"/>
+      <c r="AR2" s="142"/>
+      <c r="AS2" s="142"/>
+      <c r="AT2" s="142"/>
+      <c r="AU2" s="142"/>
+      <c r="AV2" s="143"/>
+      <c r="AX2" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="AY2" s="148"/>
-      <c r="AZ2" s="148"/>
-      <c r="BA2" s="148"/>
-      <c r="BB2" s="148"/>
-      <c r="BC2" s="148"/>
-      <c r="BD2" s="149"/>
-      <c r="BF2" s="147" t="s">
+      <c r="AY2" s="142"/>
+      <c r="AZ2" s="142"/>
+      <c r="BA2" s="142"/>
+      <c r="BB2" s="142"/>
+      <c r="BC2" s="142"/>
+      <c r="BD2" s="143"/>
+      <c r="BF2" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="BG2" s="148"/>
-      <c r="BH2" s="148"/>
-      <c r="BI2" s="148"/>
-      <c r="BJ2" s="148"/>
-      <c r="BK2" s="148"/>
-      <c r="BL2" s="149"/>
-      <c r="BN2" s="147" t="s">
+      <c r="BG2" s="142"/>
+      <c r="BH2" s="142"/>
+      <c r="BI2" s="142"/>
+      <c r="BJ2" s="142"/>
+      <c r="BK2" s="142"/>
+      <c r="BL2" s="143"/>
+      <c r="BN2" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="BO2" s="148"/>
-      <c r="BP2" s="148"/>
-      <c r="BQ2" s="148"/>
-      <c r="BR2" s="148"/>
-      <c r="BS2" s="148"/>
-      <c r="BT2" s="149"/>
-      <c r="BV2" s="147" t="s">
+      <c r="BO2" s="142"/>
+      <c r="BP2" s="142"/>
+      <c r="BQ2" s="142"/>
+      <c r="BR2" s="142"/>
+      <c r="BS2" s="142"/>
+      <c r="BT2" s="143"/>
+      <c r="BV2" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="BW2" s="148"/>
-      <c r="BX2" s="148"/>
-      <c r="BY2" s="148"/>
-      <c r="BZ2" s="148"/>
-      <c r="CA2" s="148"/>
-      <c r="CB2" s="149"/>
-      <c r="CD2" s="147" t="s">
+      <c r="BW2" s="142"/>
+      <c r="BX2" s="142"/>
+      <c r="BY2" s="142"/>
+      <c r="BZ2" s="142"/>
+      <c r="CA2" s="142"/>
+      <c r="CB2" s="143"/>
+      <c r="CD2" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="CE2" s="148"/>
-      <c r="CF2" s="148"/>
-      <c r="CG2" s="148"/>
-      <c r="CH2" s="148"/>
-      <c r="CI2" s="148"/>
-      <c r="CJ2" s="149"/>
-      <c r="CL2" s="147" t="s">
+      <c r="CE2" s="142"/>
+      <c r="CF2" s="142"/>
+      <c r="CG2" s="142"/>
+      <c r="CH2" s="142"/>
+      <c r="CI2" s="142"/>
+      <c r="CJ2" s="143"/>
+      <c r="CL2" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="CM2" s="148"/>
-      <c r="CN2" s="148"/>
-      <c r="CO2" s="148"/>
-      <c r="CP2" s="148"/>
-      <c r="CQ2" s="148"/>
-      <c r="CR2" s="149"/>
-      <c r="CT2" s="147" t="s">
+      <c r="CM2" s="142"/>
+      <c r="CN2" s="142"/>
+      <c r="CO2" s="142"/>
+      <c r="CP2" s="142"/>
+      <c r="CQ2" s="142"/>
+      <c r="CR2" s="143"/>
+      <c r="CT2" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="CU2" s="148"/>
-      <c r="CV2" s="148"/>
-      <c r="CW2" s="148"/>
-      <c r="CX2" s="148"/>
-      <c r="CY2" s="148"/>
-      <c r="CZ2" s="149"/>
-      <c r="DB2" s="147" t="s">
+      <c r="CU2" s="142"/>
+      <c r="CV2" s="142"/>
+      <c r="CW2" s="142"/>
+      <c r="CX2" s="142"/>
+      <c r="CY2" s="142"/>
+      <c r="CZ2" s="143"/>
+      <c r="DB2" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="DC2" s="148"/>
-      <c r="DD2" s="148"/>
-      <c r="DE2" s="148"/>
-      <c r="DF2" s="148"/>
-      <c r="DG2" s="148"/>
-      <c r="DH2" s="149"/>
-      <c r="DJ2" s="147" t="s">
+      <c r="DC2" s="142"/>
+      <c r="DD2" s="142"/>
+      <c r="DE2" s="142"/>
+      <c r="DF2" s="142"/>
+      <c r="DG2" s="142"/>
+      <c r="DH2" s="143"/>
+      <c r="DJ2" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="DK2" s="148"/>
-      <c r="DL2" s="148"/>
-      <c r="DM2" s="148"/>
-      <c r="DN2" s="148"/>
-      <c r="DO2" s="148"/>
-      <c r="DP2" s="149"/>
-      <c r="DR2" s="147" t="s">
+      <c r="DK2" s="142"/>
+      <c r="DL2" s="142"/>
+      <c r="DM2" s="142"/>
+      <c r="DN2" s="142"/>
+      <c r="DO2" s="142"/>
+      <c r="DP2" s="143"/>
+      <c r="DR2" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="DS2" s="148"/>
-      <c r="DT2" s="148"/>
-      <c r="DU2" s="148"/>
-      <c r="DV2" s="148"/>
-      <c r="DW2" s="148"/>
-      <c r="DX2" s="149"/>
-      <c r="DZ2" s="147" t="s">
+      <c r="DS2" s="142"/>
+      <c r="DT2" s="142"/>
+      <c r="DU2" s="142"/>
+      <c r="DV2" s="142"/>
+      <c r="DW2" s="142"/>
+      <c r="DX2" s="143"/>
+      <c r="DZ2" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="EA2" s="148"/>
-      <c r="EB2" s="148"/>
-      <c r="EC2" s="148"/>
-      <c r="ED2" s="148"/>
-      <c r="EE2" s="148"/>
-      <c r="EF2" s="149"/>
+      <c r="EA2" s="142"/>
+      <c r="EB2" s="142"/>
+      <c r="EC2" s="142"/>
+      <c r="ED2" s="142"/>
+      <c r="EE2" s="142"/>
+      <c r="EF2" s="143"/>
     </row>
     <row r="3" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="145" t="s">
+      <c r="B3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="143" t="s">
+      <c r="F3" s="144"/>
+      <c r="G3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="144"/>
-      <c r="J3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="145" t="s">
+      <c r="H3" s="146"/>
+      <c r="J3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="145"/>
-      <c r="O3" s="143" t="s">
+      <c r="N3" s="144"/>
+      <c r="O3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="144"/>
-      <c r="R3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="145" t="s">
+      <c r="P3" s="146"/>
+      <c r="R3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="145"/>
-      <c r="W3" s="143" t="s">
+      <c r="V3" s="144"/>
+      <c r="W3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="144"/>
-      <c r="Z3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="145" t="s">
+      <c r="X3" s="146"/>
+      <c r="Z3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="143" t="s">
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="144"/>
-      <c r="AH3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="142"/>
-      <c r="AJ3" s="142"/>
-      <c r="AK3" s="145" t="s">
+      <c r="AF3" s="146"/>
+      <c r="AH3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="148"/>
+      <c r="AJ3" s="148"/>
+      <c r="AK3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="145"/>
-      <c r="AM3" s="143" t="s">
+      <c r="AL3" s="144"/>
+      <c r="AM3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="144"/>
-      <c r="AP3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="142"/>
-      <c r="AR3" s="142"/>
-      <c r="AS3" s="145" t="s">
+      <c r="AN3" s="146"/>
+      <c r="AP3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="148"/>
+      <c r="AR3" s="148"/>
+      <c r="AS3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="145"/>
-      <c r="AU3" s="143" t="s">
+      <c r="AT3" s="144"/>
+      <c r="AU3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="144"/>
-      <c r="AX3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="142"/>
-      <c r="AZ3" s="142"/>
-      <c r="BA3" s="145" t="s">
+      <c r="AV3" s="146"/>
+      <c r="AX3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="148"/>
+      <c r="AZ3" s="148"/>
+      <c r="BA3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BB3" s="145"/>
-      <c r="BC3" s="143" t="s">
+      <c r="BB3" s="144"/>
+      <c r="BC3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="144"/>
-      <c r="BF3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="142"/>
-      <c r="BH3" s="142"/>
-      <c r="BI3" s="145" t="s">
+      <c r="BD3" s="146"/>
+      <c r="BF3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="148"/>
+      <c r="BH3" s="148"/>
+      <c r="BI3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BJ3" s="145"/>
-      <c r="BK3" s="143" t="s">
+      <c r="BJ3" s="144"/>
+      <c r="BK3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="144"/>
-      <c r="BN3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="142"/>
-      <c r="BP3" s="142"/>
-      <c r="BQ3" s="145" t="s">
+      <c r="BL3" s="146"/>
+      <c r="BN3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="148"/>
+      <c r="BP3" s="148"/>
+      <c r="BQ3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="145"/>
-      <c r="BS3" s="143" t="s">
+      <c r="BR3" s="144"/>
+      <c r="BS3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="144"/>
-      <c r="BV3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="142"/>
-      <c r="BX3" s="142"/>
-      <c r="BY3" s="145" t="s">
+      <c r="BT3" s="146"/>
+      <c r="BV3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="148"/>
+      <c r="BX3" s="148"/>
+      <c r="BY3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BZ3" s="145"/>
-      <c r="CA3" s="143" t="s">
+      <c r="BZ3" s="144"/>
+      <c r="CA3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="144"/>
-      <c r="CD3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="142"/>
-      <c r="CF3" s="142"/>
-      <c r="CG3" s="145" t="s">
+      <c r="CB3" s="146"/>
+      <c r="CD3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="148"/>
+      <c r="CF3" s="148"/>
+      <c r="CG3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="CH3" s="145"/>
-      <c r="CI3" s="143" t="s">
+      <c r="CH3" s="144"/>
+      <c r="CI3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CJ3" s="144"/>
-      <c r="CL3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="142"/>
-      <c r="CN3" s="142"/>
-      <c r="CO3" s="145" t="s">
+      <c r="CJ3" s="146"/>
+      <c r="CL3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="148"/>
+      <c r="CN3" s="148"/>
+      <c r="CO3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="CP3" s="145"/>
-      <c r="CQ3" s="143" t="s">
+      <c r="CP3" s="144"/>
+      <c r="CQ3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CR3" s="144"/>
-      <c r="CT3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="142"/>
-      <c r="CV3" s="142"/>
-      <c r="CW3" s="145" t="s">
+      <c r="CR3" s="146"/>
+      <c r="CT3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="148"/>
+      <c r="CV3" s="148"/>
+      <c r="CW3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="CX3" s="145"/>
-      <c r="CY3" s="143" t="s">
+      <c r="CX3" s="144"/>
+      <c r="CY3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CZ3" s="144"/>
-      <c r="DB3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="DC3" s="142"/>
-      <c r="DD3" s="142"/>
-      <c r="DE3" s="145" t="s">
+      <c r="CZ3" s="146"/>
+      <c r="DB3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="148"/>
+      <c r="DD3" s="148"/>
+      <c r="DE3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="DF3" s="145"/>
-      <c r="DG3" s="143" t="s">
+      <c r="DF3" s="144"/>
+      <c r="DG3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="DH3" s="144"/>
-      <c r="DJ3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="DK3" s="142"/>
-      <c r="DL3" s="142"/>
-      <c r="DM3" s="145" t="s">
+      <c r="DH3" s="146"/>
+      <c r="DJ3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="148"/>
+      <c r="DL3" s="148"/>
+      <c r="DM3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="DN3" s="145"/>
-      <c r="DO3" s="143" t="s">
+      <c r="DN3" s="144"/>
+      <c r="DO3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="DP3" s="144"/>
-      <c r="DR3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS3" s="142"/>
-      <c r="DT3" s="142"/>
-      <c r="DU3" s="145" t="s">
+      <c r="DP3" s="146"/>
+      <c r="DR3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS3" s="148"/>
+      <c r="DT3" s="148"/>
+      <c r="DU3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="DV3" s="145"/>
-      <c r="DW3" s="143" t="s">
+      <c r="DV3" s="144"/>
+      <c r="DW3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="DX3" s="144"/>
-      <c r="DZ3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="EA3" s="142"/>
-      <c r="EB3" s="142"/>
-      <c r="EC3" s="145" t="s">
+      <c r="DX3" s="146"/>
+      <c r="DZ3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="148"/>
+      <c r="EB3" s="148"/>
+      <c r="EC3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="ED3" s="145"/>
-      <c r="EE3" s="143" t="s">
+      <c r="ED3" s="144"/>
+      <c r="EE3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="EF3" s="144"/>
+      <c r="EF3" s="146"/>
     </row>
     <row r="4" spans="2:136" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -42379,6 +42522,62 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="DW3:DX3"/>
+    <mergeCell ref="DZ3:EB3"/>
+    <mergeCell ref="EC3:ED3"/>
+    <mergeCell ref="EE3:EF3"/>
+    <mergeCell ref="DG3:DH3"/>
+    <mergeCell ref="DJ3:DL3"/>
+    <mergeCell ref="DM3:DN3"/>
+    <mergeCell ref="DO3:DP3"/>
+    <mergeCell ref="DR3:DT3"/>
+    <mergeCell ref="DU3:DV3"/>
+    <mergeCell ref="DE3:DF3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="CG3:CH3"/>
+    <mergeCell ref="CI3:CJ3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="CQ3:CR3"/>
+    <mergeCell ref="CT3:CV3"/>
+    <mergeCell ref="CW3:CX3"/>
+    <mergeCell ref="CY3:CZ3"/>
+    <mergeCell ref="DB3:DD3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="DB2:DH2"/>
+    <mergeCell ref="DJ2:DP2"/>
+    <mergeCell ref="DR2:DX2"/>
+    <mergeCell ref="DZ2:EF2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="CL2:CR2"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="J2:P2"/>
@@ -42391,62 +42590,6 @@
     <mergeCell ref="BN2:BT2"/>
     <mergeCell ref="BV2:CB2"/>
     <mergeCell ref="CD2:CJ2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="DB2:DH2"/>
-    <mergeCell ref="DJ2:DP2"/>
-    <mergeCell ref="DR2:DX2"/>
-    <mergeCell ref="DZ2:EF2"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="DE3:DF3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="CG3:CH3"/>
-    <mergeCell ref="CI3:CJ3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="CQ3:CR3"/>
-    <mergeCell ref="CT3:CV3"/>
-    <mergeCell ref="CW3:CX3"/>
-    <mergeCell ref="CY3:CZ3"/>
-    <mergeCell ref="DB3:DD3"/>
-    <mergeCell ref="DW3:DX3"/>
-    <mergeCell ref="DZ3:EB3"/>
-    <mergeCell ref="EC3:ED3"/>
-    <mergeCell ref="EE3:EF3"/>
-    <mergeCell ref="DG3:DH3"/>
-    <mergeCell ref="DJ3:DL3"/>
-    <mergeCell ref="DM3:DN3"/>
-    <mergeCell ref="DO3:DP3"/>
-    <mergeCell ref="DR3:DT3"/>
-    <mergeCell ref="DU3:DV3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43324,30 +43467,30 @@
     </row>
     <row r="38" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="3:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="C39" s="147" t="s">
+      <c r="C39" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="148"/>
-      <c r="E39" s="148"/>
-      <c r="F39" s="148"/>
-      <c r="G39" s="148"/>
-      <c r="H39" s="148"/>
-      <c r="I39" s="149"/>
+      <c r="D39" s="142"/>
+      <c r="E39" s="142"/>
+      <c r="F39" s="142"/>
+      <c r="G39" s="142"/>
+      <c r="H39" s="142"/>
+      <c r="I39" s="143"/>
     </row>
     <row r="40" spans="3:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="C40" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="142"/>
-      <c r="E40" s="142"/>
-      <c r="F40" s="145" t="s">
+      <c r="C40" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="145"/>
-      <c r="H40" s="143" t="s">
+      <c r="G40" s="144"/>
+      <c r="H40" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="144"/>
+      <c r="I40" s="146"/>
     </row>
     <row r="41" spans="3:9" ht="19" x14ac:dyDescent="0.25">
       <c r="C41" s="14" t="s">
@@ -44094,14 +44237,14 @@
       </c>
       <c r="D3" s="8">
         <f>G42</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="8">
         <f t="shared" ref="G3:G24" si="0">H42</f>
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>10</v>
@@ -44270,14 +44413,14 @@
       </c>
       <c r="D7" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
-        <v>146</v>
+        <v>236</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>14</v>
@@ -44314,14 +44457,14 @@
       </c>
       <c r="D8" s="8">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>529</v>
+        <v>619</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>15</v>
@@ -44365,7 +44508,7 @@
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>16</v>
@@ -44402,14 +44545,14 @@
       </c>
       <c r="D10" s="8">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>17</v>
@@ -44430,7 +44573,7 @@
       </c>
       <c r="P10" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="6" t="s">
         <v>17</v>
@@ -44446,14 +44589,14 @@
       </c>
       <c r="D11" s="8">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>18</v>
@@ -44541,7 +44684,7 @@
       </c>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>20</v>
@@ -44585,7 +44728,7 @@
       </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>21</v>
@@ -44622,14 +44765,14 @@
       </c>
       <c r="D15" s="8">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>439</v>
+        <v>515</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>22</v>
@@ -44673,7 +44816,7 @@
       </c>
       <c r="G16" s="8">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>23</v>
@@ -44710,14 +44853,14 @@
       </c>
       <c r="D17" s="8">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="0"/>
-        <v>518</v>
+        <v>583</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>24</v>
@@ -44754,14 +44897,14 @@
       </c>
       <c r="D18" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
-        <v>203</v>
+        <v>293</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>25</v>
@@ -44789,7 +44932,7 @@
       </c>
       <c r="S18" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="3:19" ht="19" x14ac:dyDescent="0.25">
@@ -44798,14 +44941,14 @@
       </c>
       <c r="D19" s="8">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>373</v>
+        <v>463</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>26</v>
@@ -44842,14 +44985,14 @@
       </c>
       <c r="D20" s="8">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>409</v>
+        <v>485</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>27</v>
@@ -44870,7 +45013,7 @@
       </c>
       <c r="P20" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="6" t="s">
         <v>27</v>
@@ -44886,14 +45029,14 @@
       </c>
       <c r="D21" s="8">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>403</v>
+        <v>468</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>28</v>
@@ -44914,14 +45057,14 @@
       </c>
       <c r="P21" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R21" s="6" t="s">
         <v>28</v>
       </c>
       <c r="S21" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="3:19" ht="19" x14ac:dyDescent="0.25">
@@ -44981,7 +45124,7 @@
       </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>50</v>
@@ -45002,7 +45145,7 @@
       </c>
       <c r="P23" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R23" s="6" t="s">
         <v>50</v>
@@ -45069,19 +45212,19 @@
       <c r="L39" s="152"/>
     </row>
     <row r="40" spans="6:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="F40" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="142"/>
-      <c r="H40" s="142"/>
-      <c r="I40" s="145" t="s">
+      <c r="F40" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="145"/>
-      <c r="K40" s="143" t="s">
+      <c r="J40" s="144"/>
+      <c r="K40" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="144"/>
+      <c r="L40" s="146"/>
     </row>
     <row r="41" spans="6:12" ht="19" x14ac:dyDescent="0.25">
       <c r="F41" s="14" t="s">
@@ -45112,11 +45255,11 @@
       </c>
       <c r="G42" s="7">
         <f>'Estadisticas 1º Vuelta'!F40+'Estadisticas 2º Vuelta'!D42</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H42" s="7">
         <f>'Estadisticas 1º Vuelta'!G40+'Estadisticas 2º Vuelta'!E42</f>
-        <v>540</v>
+        <v>630</v>
       </c>
       <c r="I42" s="7">
         <f>'Estadisticas 1º Vuelta'!H40+'Estadisticas 2º Vuelta'!F42</f>
@@ -45228,11 +45371,11 @@
       </c>
       <c r="G46" s="7">
         <f>'Estadisticas 1º Vuelta'!F44+'Estadisticas 2º Vuelta'!D46</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" s="7">
         <f>'Estadisticas 1º Vuelta'!G44+'Estadisticas 2º Vuelta'!E46</f>
-        <v>146</v>
+        <v>236</v>
       </c>
       <c r="I46" s="7">
         <f>'Estadisticas 1º Vuelta'!H44+'Estadisticas 2º Vuelta'!F46</f>
@@ -45257,11 +45400,11 @@
       </c>
       <c r="G47" s="7">
         <f>'Estadisticas 1º Vuelta'!F45+'Estadisticas 2º Vuelta'!D47</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H47" s="7">
         <f>'Estadisticas 1º Vuelta'!G45+'Estadisticas 2º Vuelta'!E47</f>
-        <v>529</v>
+        <v>619</v>
       </c>
       <c r="I47" s="7">
         <f>'Estadisticas 1º Vuelta'!H45+'Estadisticas 2º Vuelta'!F47</f>
@@ -45290,7 +45433,7 @@
       </c>
       <c r="H48" s="7">
         <f>'Estadisticas 1º Vuelta'!G46+'Estadisticas 2º Vuelta'!E48</f>
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="I48" s="7">
         <f>'Estadisticas 1º Vuelta'!H46+'Estadisticas 2º Vuelta'!F48</f>
@@ -45315,11 +45458,11 @@
       </c>
       <c r="G49" s="7">
         <f>'Estadisticas 1º Vuelta'!F47+'Estadisticas 2º Vuelta'!D49</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" s="7">
         <f>'Estadisticas 1º Vuelta'!G47+'Estadisticas 2º Vuelta'!E49</f>
-        <v>121</v>
+        <v>211</v>
       </c>
       <c r="I49" s="7">
         <f>'Estadisticas 1º Vuelta'!H47+'Estadisticas 2º Vuelta'!F49</f>
@@ -45331,7 +45474,7 @@
       </c>
       <c r="K49" s="7">
         <f>'Estadisticas 1º Vuelta'!J47+'Estadisticas 2º Vuelta'!H49</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="8">
         <f>'Estadisticas 1º Vuelta'!K47+'Estadisticas 2º Vuelta'!I49</f>
@@ -45344,11 +45487,11 @@
       </c>
       <c r="G50" s="7">
         <f>'Estadisticas 1º Vuelta'!F48+'Estadisticas 2º Vuelta'!D50</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H50" s="7">
         <f>'Estadisticas 1º Vuelta'!G48+'Estadisticas 2º Vuelta'!E50</f>
-        <v>460</v>
+        <v>495</v>
       </c>
       <c r="I50" s="7">
         <f>'Estadisticas 1º Vuelta'!H48+'Estadisticas 2º Vuelta'!F50</f>
@@ -45406,7 +45549,7 @@
       </c>
       <c r="H52" s="7">
         <f>'Estadisticas 1º Vuelta'!G49+'Estadisticas 2º Vuelta'!E52</f>
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I52" s="7">
         <f>'Estadisticas 1º Vuelta'!H49+'Estadisticas 2º Vuelta'!F52</f>
@@ -45435,7 +45578,7 @@
       </c>
       <c r="H53" s="7">
         <f>'Estadisticas 1º Vuelta'!G50+'Estadisticas 2º Vuelta'!E53</f>
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="I53" s="7">
         <f>'Estadisticas 1º Vuelta'!H50+'Estadisticas 2º Vuelta'!F53</f>
@@ -45460,11 +45603,11 @@
       </c>
       <c r="G54" s="7">
         <f>'Estadisticas 1º Vuelta'!F51+'Estadisticas 2º Vuelta'!D54</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H54" s="7">
         <f>'Estadisticas 1º Vuelta'!G51+'Estadisticas 2º Vuelta'!E54</f>
-        <v>439</v>
+        <v>515</v>
       </c>
       <c r="I54" s="7">
         <f>'Estadisticas 1º Vuelta'!H51+'Estadisticas 2º Vuelta'!F54</f>
@@ -45493,7 +45636,7 @@
       </c>
       <c r="H55" s="7">
         <f>'Estadisticas 1º Vuelta'!G52+'Estadisticas 2º Vuelta'!E55</f>
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="I55" s="7">
         <f>'Estadisticas 1º Vuelta'!H52+'Estadisticas 2º Vuelta'!F55</f>
@@ -45518,11 +45661,11 @@
       </c>
       <c r="G56" s="7">
         <f>'Estadisticas 1º Vuelta'!F53+'Estadisticas 2º Vuelta'!D56</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H56" s="7">
         <f>'Estadisticas 1º Vuelta'!G53+'Estadisticas 2º Vuelta'!E56</f>
-        <v>518</v>
+        <v>583</v>
       </c>
       <c r="I56" s="7">
         <f>'Estadisticas 1º Vuelta'!H53+'Estadisticas 2º Vuelta'!F56</f>
@@ -45547,11 +45690,11 @@
       </c>
       <c r="G57" s="7">
         <f>'Estadisticas 1º Vuelta'!F54+'Estadisticas 2º Vuelta'!D57</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H57" s="7">
         <f>'Estadisticas 1º Vuelta'!G54+'Estadisticas 2º Vuelta'!E57</f>
-        <v>203</v>
+        <v>293</v>
       </c>
       <c r="I57" s="7">
         <f>'Estadisticas 1º Vuelta'!H54+'Estadisticas 2º Vuelta'!F57</f>
@@ -45567,7 +45710,7 @@
       </c>
       <c r="L57" s="8">
         <f>'Estadisticas 1º Vuelta'!K54+'Estadisticas 2º Vuelta'!I57</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="6:12" ht="19" x14ac:dyDescent="0.25">
@@ -45576,11 +45719,11 @@
       </c>
       <c r="G58" s="7">
         <f>'Estadisticas 1º Vuelta'!F55+'Estadisticas 2º Vuelta'!D58</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H58" s="7">
         <f>'Estadisticas 1º Vuelta'!G55+'Estadisticas 2º Vuelta'!E58</f>
-        <v>373</v>
+        <v>463</v>
       </c>
       <c r="I58" s="7">
         <f>'Estadisticas 1º Vuelta'!H55+'Estadisticas 2º Vuelta'!F58</f>
@@ -45605,11 +45748,11 @@
       </c>
       <c r="G59" s="7">
         <f>'Estadisticas 1º Vuelta'!F56+'Estadisticas 2º Vuelta'!D59</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H59" s="7">
         <f>'Estadisticas 1º Vuelta'!G56+'Estadisticas 2º Vuelta'!E59</f>
-        <v>409</v>
+        <v>485</v>
       </c>
       <c r="I59" s="7">
         <f>'Estadisticas 1º Vuelta'!H56+'Estadisticas 2º Vuelta'!F59</f>
@@ -45621,7 +45764,7 @@
       </c>
       <c r="K59" s="7">
         <f>'Estadisticas 1º Vuelta'!J56+'Estadisticas 2º Vuelta'!H59</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="8">
         <f>'Estadisticas 1º Vuelta'!K56+'Estadisticas 2º Vuelta'!I59</f>
@@ -45634,11 +45777,11 @@
       </c>
       <c r="G60" s="7">
         <f>'Estadisticas 1º Vuelta'!F57+'Estadisticas 2º Vuelta'!D60</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H60" s="7">
         <f>'Estadisticas 1º Vuelta'!G57+'Estadisticas 2º Vuelta'!E60</f>
-        <v>403</v>
+        <v>468</v>
       </c>
       <c r="I60" s="7">
         <f>'Estadisticas 1º Vuelta'!H57+'Estadisticas 2º Vuelta'!F60</f>
@@ -45650,11 +45793,11 @@
       </c>
       <c r="K60" s="7">
         <f>'Estadisticas 1º Vuelta'!J57+'Estadisticas 2º Vuelta'!H60</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L60" s="8">
         <f>'Estadisticas 1º Vuelta'!K57+'Estadisticas 2º Vuelta'!I60</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="6:12" ht="19" x14ac:dyDescent="0.25">
@@ -45696,7 +45839,7 @@
       </c>
       <c r="H62" s="7">
         <f>'Estadisticas 1º Vuelta'!G59+'Estadisticas 2º Vuelta'!E62</f>
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="I62" s="7">
         <f>'Estadisticas 1º Vuelta'!H59+'Estadisticas 2º Vuelta'!F62</f>
@@ -45708,7 +45851,7 @@
       </c>
       <c r="K62" s="7">
         <f>'Estadisticas 1º Vuelta'!J59+'Estadisticas 2º Vuelta'!H62</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L62" s="8">
         <f>'Estadisticas 1º Vuelta'!K59+'Estadisticas 2º Vuelta'!I62</f>

--- a/SALAMANCA UDS 2324.xlsx
+++ b/SALAMANCA UDS 2324.xlsx
@@ -1917,6 +1917,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1929,16 +1941,22 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1948,24 +1966,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2574,42 +2574,42 @@
       </c>
     </row>
     <row r="3" spans="2:24" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139" t="s">
+      <c r="B3" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="140"/>
-      <c r="H3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="139" t="s">
+      <c r="F3" s="136"/>
+      <c r="H3" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="140"/>
-      <c r="N3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="139" t="s">
+      <c r="L3" s="136"/>
+      <c r="N3" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="140"/>
-      <c r="T3" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="135" t="s">
+      <c r="R3" s="136"/>
+      <c r="T3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="136"/>
+      <c r="X3" s="140"/>
     </row>
     <row r="4" spans="2:24" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -3945,18 +3945,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3968,7 +3968,7 @@
   <dimension ref="A1:N2752"/>
   <sheetViews>
     <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="K2" s="53" t="str">
         <f>IF(H2="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F2,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="M2" t="str">
         <f>IF(H2="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B2,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="N2" t="str">
         <f>IF(H2="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F2,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>Pos.8(2)</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -4086,19 +4086,19 @@
       </c>
       <c r="J3" s="53" t="str">
         <f>IF(H3="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B3,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="K3" s="53" t="str">
         <f>IF(H3="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F3,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="M3" t="str">
         <f>IF(H3="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B3,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="N3" t="str">
         <f>IF(H3="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F3,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="J4" s="53" t="str">
         <f>IF(H4="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B4,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="K4" s="53" t="str">
         <f>IF(H4="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F4,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="M4" t="str">
         <f>IF(H4="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B4,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="N4" t="str">
         <f>IF(H4="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F4,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4166,19 +4166,19 @@
       </c>
       <c r="J5" s="53" t="str">
         <f>IF(H5="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B5,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="K5" s="53" t="str">
         <f>IF(H5="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F5,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="M5" t="str">
         <f>IF(H5="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B5,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="N5" t="str">
         <f>IF(H5="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F5,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.6(2)</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -4206,19 +4206,19 @@
       </c>
       <c r="J6" s="53" t="str">
         <f>IF(H6="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B6,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="K6" s="53" t="str">
         <f>IF(H6="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F6,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>-</v>
       </c>
       <c r="M6" t="str">
         <f>IF(H6="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B6,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="N6" t="str">
         <f>IF(H6="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F6,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -4246,19 +4246,19 @@
       </c>
       <c r="J7" s="53" t="str">
         <f>IF(H7="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B7,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="K7" s="53" t="str">
         <f>IF(H7="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F7,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="M7" t="str">
         <f>IF(H7="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B7,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="N7" t="str">
         <f>IF(H7="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F7,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="J8" s="53" t="str">
         <f>IF(H8="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B8,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="K8" s="53" t="str">
         <f>IF(H8="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F8,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="M8" t="str">
         <f>IF(H8="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B8,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="N8" t="str">
         <f>IF(H8="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F8,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="J10" s="53" t="str">
         <f>IF(H10="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B10,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="K10" s="53" t="str">
         <f>IF(H10="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F10,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4374,7 +4374,7 @@
       </c>
       <c r="M10" t="str">
         <f>IF(H10="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B10,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="N10" t="str">
         <f>IF(H10="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F10,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4410,7 +4410,7 @@
       </c>
       <c r="K11" s="53" t="str">
         <f>IF(H11="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F11,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="M11" t="str">
         <f>IF(H11="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B11,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="N11" t="str">
         <f>IF(H11="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F11,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.6(2)</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -4446,19 +4446,19 @@
       </c>
       <c r="J12" s="53" t="str">
         <f>IF(H12="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B12,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="K12" s="53" t="str">
         <f>IF(H12="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F12,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="M12" t="str">
         <f>IF(H12="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B12,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="N12" t="str">
         <f>IF(H12="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F12,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -4486,19 +4486,19 @@
       </c>
       <c r="J13" s="53" t="str">
         <f>IF(H13="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B13,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>-</v>
       </c>
       <c r="K13" s="53" t="str">
         <f>IF(H13="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F13,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="M13" t="str">
         <f>IF(H13="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B13,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>-</v>
       </c>
       <c r="N13" t="str">
         <f>IF(H13="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F13,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -4526,19 +4526,19 @@
       </c>
       <c r="J14" s="53" t="str">
         <f>IF(H14="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B14,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="K14" s="53" t="str">
         <f>IF(H14="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F14,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="M14" t="str">
         <f>IF(H14="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B14,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="N14" t="str">
         <f>IF(H14="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F14,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="J15" s="53" t="str">
         <f>IF(H15="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B15,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="K15" s="53" t="str">
         <f>IF(H15="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F15,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="M15" t="str">
         <f>IF(H15="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B15,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="N15" t="str">
         <f>IF(H15="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F15,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -4646,19 +4646,19 @@
       </c>
       <c r="J17" s="53" t="str">
         <f>IF(H17="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B17,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="K17" s="53" t="str">
         <f>IF(H17="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F17,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="M17" t="str">
         <f>IF(H17="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B17,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="N17" t="str">
         <f>IF(H17="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F17,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="K18" s="53" t="str">
         <f>IF(H18="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F18,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="M18" t="str">
         <f>IF(H18="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B18,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4698,7 +4698,7 @@
       </c>
       <c r="N18" t="str">
         <f>IF(H18="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F18,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4770,7 +4770,7 @@
       </c>
       <c r="K20" s="53" t="str">
         <f>IF(H20="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F20,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="M20" t="str">
         <f>IF(H20="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B20,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="N20" t="str">
         <f>IF(H20="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F20,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="J21" s="53" t="str">
         <f>IF(H21="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B21,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="K21" s="53" t="str">
         <f>IF(H21="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F21,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4814,7 +4814,7 @@
       </c>
       <c r="M21" t="str">
         <f>IF(H21="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B21,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="N21" t="str">
         <f>IF(H21="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F21,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4846,19 +4846,19 @@
       </c>
       <c r="J22" s="53" t="str">
         <f>IF(H22="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B22,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="K22" s="53" t="str">
         <f>IF(H22="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F22,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="M22" t="str">
         <f>IF(H22="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B22,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="N22" t="str">
         <f>IF(H22="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F22,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -4886,7 +4886,7 @@
       </c>
       <c r="J23" s="53" t="str">
         <f>IF(H23="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B23,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="K23" s="53" t="str">
         <f>IF(H23="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F23,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4894,7 +4894,7 @@
       </c>
       <c r="M23" t="str">
         <f>IF(H23="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B23,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="N23" t="str">
         <f>IF(H23="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F23,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="J24" s="53" t="str">
         <f>IF(H24="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B24,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="K24" s="53" t="str">
         <f>IF(H24="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F24,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4934,7 +4934,7 @@
       </c>
       <c r="M24" t="str">
         <f>IF(H24="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B24,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="N24" t="str">
         <f>IF(H24="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F24,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="K25" s="53" t="str">
         <f>IF(H25="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F25,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>-</v>
       </c>
       <c r="M25" t="str">
         <f>IF(H25="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B25,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="N25" t="str">
         <f>IF(H25="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F25,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -5006,7 +5006,7 @@
       </c>
       <c r="J26" s="53" t="str">
         <f>IF(H26="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B26,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="K26" s="53" t="str">
         <f>IF(H26="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F26,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5014,7 +5014,7 @@
       </c>
       <c r="M26" t="str">
         <f>IF(H26="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B26,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="N26" t="str">
         <f>IF(H26="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F26,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5046,19 +5046,19 @@
       </c>
       <c r="J27" s="53" t="str">
         <f>IF(H27="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B27,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="K27" s="53" t="str">
         <f>IF(H27="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F27,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="M27" t="str">
         <f>IF(H27="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B27,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="N27" t="str">
         <f>IF(H27="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F27,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5086,19 +5086,19 @@
       </c>
       <c r="J28" s="53" t="str">
         <f>IF(H28="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B28,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="K28" s="53" t="str">
         <f>IF(H28="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F28,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="M28" t="str">
         <f>IF(H28="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B28,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="N28" t="str">
         <f>IF(H28="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F28,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.6(2)</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -5130,7 +5130,7 @@
       </c>
       <c r="K29" s="53" t="str">
         <f>IF(H29="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F29,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="M29" t="str">
         <f>IF(H29="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B29,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="N29" t="str">
         <f>IF(H29="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F29,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -5166,15 +5166,15 @@
       </c>
       <c r="K30" s="53" t="str">
         <f>IF(H30="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F30,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="M30" t="str">
         <f>IF(H30="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B30,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="N30" t="str">
         <f>IF(H30="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F30,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>Pos.8(2)</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="J31" s="53" t="str">
         <f>IF(H31="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B31,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="K31" s="53" t="str">
         <f>IF(H31="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F31,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="M31" t="str">
         <f>IF(H31="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B31,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="N31" t="str">
         <f>IF(H31="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F31,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5242,19 +5242,19 @@
       </c>
       <c r="J32" s="53" t="str">
         <f>IF(H32="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B32,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="K32" s="53" t="str">
         <f>IF(H32="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F32,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="M32" t="str">
         <f>IF(H32="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B32,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="N32" t="str">
         <f>IF(H32="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F32,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="K33" s="53" t="str">
         <f>IF(H33="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F33,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="M33" t="str">
         <f>IF(H33="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B33,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5294,7 +5294,7 @@
       </c>
       <c r="N33" t="str">
         <f>IF(H33="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F33,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="K34" s="53" t="str">
         <f>IF(H34="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F34,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="M34" t="str">
         <f>IF(H34="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B34,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5334,7 +5334,7 @@
       </c>
       <c r="N34" t="str">
         <f>IF(H34="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F34,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -5362,19 +5362,19 @@
       </c>
       <c r="J35" s="53" t="str">
         <f>IF(H35="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B35,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>-</v>
       </c>
       <c r="K35" s="53" t="str">
         <f>IF(H35="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F35,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="M35" t="str">
         <f>IF(H35="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B35,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>-</v>
       </c>
       <c r="N35" t="str">
         <f>IF(H35="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F35,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.6(2)</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -5442,19 +5442,19 @@
       </c>
       <c r="J37" s="53" t="str">
         <f>IF(H37="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B37,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="K37" s="53" t="str">
         <f>IF(H37="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F37,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="M37" t="str">
         <f>IF(H37="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B37,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="N37" t="str">
         <f>IF(H37="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F37,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -5486,7 +5486,7 @@
       </c>
       <c r="K38" s="53" t="str">
         <f>IF(H38="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F38,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="M38" t="str">
         <f>IF(H38="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B38,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5494,7 +5494,7 @@
       </c>
       <c r="N38" t="str">
         <f>IF(H38="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F38,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -5522,19 +5522,19 @@
       </c>
       <c r="J39" s="53" t="str">
         <f>IF(H39="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B39,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="K39" s="53" t="str">
         <f>IF(H39="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F39,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="M39" t="str">
         <f>IF(H39="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B39,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="N39" t="str">
         <f>IF(H39="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F39,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.6(2)</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="K40" s="53" t="str">
         <f>IF(H40="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F40,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="M40" t="str">
         <f>IF(H40="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B40,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5574,7 +5574,7 @@
       </c>
       <c r="N40" t="str">
         <f>IF(H40="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F40,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="J41" s="53" t="str">
         <f>IF(H41="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B41,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="K41" s="53" t="str">
         <f>IF(H41="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F41,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5610,7 +5610,7 @@
       </c>
       <c r="M41" t="str">
         <f>IF(H41="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B41,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="N41" t="str">
         <f>IF(H41="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F41,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5642,7 +5642,7 @@
       </c>
       <c r="J42" s="53" t="str">
         <f>IF(H42="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B42,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="K42" s="53" t="str">
         <f>IF(H42="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F42,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5650,7 +5650,7 @@
       </c>
       <c r="M42" t="str">
         <f>IF(H42="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B42,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="N42" t="str">
         <f>IF(H42="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F42,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5682,19 +5682,19 @@
       </c>
       <c r="J43" s="53" t="str">
         <f>IF(H43="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B43,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="K43" s="53" t="str">
         <f>IF(H43="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F43,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>-</v>
       </c>
       <c r="M43" t="str">
         <f>IF(H43="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B43,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="N43" t="str">
         <f>IF(H43="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F43,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -5722,7 +5722,7 @@
       </c>
       <c r="J44" s="53" t="str">
         <f>IF(H44="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B44,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="K44" s="53" t="str">
         <f>IF(H44="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F44,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5730,7 +5730,7 @@
       </c>
       <c r="M44" t="str">
         <f>IF(H44="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B44,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="N44" t="str">
         <f>IF(H44="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F44,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5766,7 +5766,7 @@
       </c>
       <c r="K45" s="53" t="str">
         <f>IF(H45="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F45,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="M45" t="str">
         <f>IF(H45="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B45,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="N45" t="str">
         <f>IF(H45="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F45,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5802,19 +5802,19 @@
       </c>
       <c r="J46" s="53" t="str">
         <f>IF(H46="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B46,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="K46" s="53" t="str">
         <f>IF(H46="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F46,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="M46" t="str">
         <f>IF(H46="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B46,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="N46" t="str">
         <f>IF(H46="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F46,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -5842,19 +5842,19 @@
       </c>
       <c r="J47" s="53" t="str">
         <f>IF(H47="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B47,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="K47" s="53" t="str">
         <f>IF(H47="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F47,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="M47" t="str">
         <f>IF(H47="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B47,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="N47" t="str">
         <f>IF(H47="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F47,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="J48" s="53" t="str">
         <f>IF(H48="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B48,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="K48" s="53" t="str">
         <f>IF(H48="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F48,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5890,7 +5890,7 @@
       </c>
       <c r="M48" t="str">
         <f>IF(H48="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B48,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="N48" t="str">
         <f>IF(H48="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F48,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5922,19 +5922,19 @@
       </c>
       <c r="J49" s="53" t="str">
         <f>IF(H49="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B49,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="K49" s="53" t="str">
         <f>IF(H49="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F49,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="M49" t="str">
         <f>IF(H49="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B49,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="N49" t="str">
         <f>IF(H49="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F49,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>Pos.8(2)</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -6006,7 +6006,7 @@
       </c>
       <c r="K51" s="53" t="str">
         <f>IF(H51="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F51,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="M51" t="str">
         <f>IF(H51="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B51,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6014,7 +6014,7 @@
       </c>
       <c r="N51" t="str">
         <f>IF(H51="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F51,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -6042,19 +6042,19 @@
       </c>
       <c r="J52" s="53" t="str">
         <f>IF(H52="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B52,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>-</v>
       </c>
       <c r="K52" s="53" t="str">
         <f>IF(H52="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F52,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="M52" t="str">
         <f>IF(H52="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B52,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>-</v>
       </c>
       <c r="N52" t="str">
         <f>IF(H52="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F52,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="K53" s="53" t="str">
         <f>IF(H53="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F53,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="M53" t="str">
         <f>IF(H53="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B53,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6094,7 +6094,7 @@
       </c>
       <c r="N53" t="str">
         <f>IF(H53="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F53,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -6122,19 +6122,19 @@
       </c>
       <c r="J54" s="53" t="str">
         <f>IF(H54="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B54,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="K54" s="53" t="str">
         <f>IF(H54="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F54,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="M54" t="str">
         <f>IF(H54="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B54,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="N54" t="str">
         <f>IF(H54="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F54,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.6(2)</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="J55" s="53" t="str">
         <f>IF(H55="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B55,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="K55" s="53" t="str">
         <f>IF(H55="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F55,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6170,7 +6170,7 @@
       </c>
       <c r="M55" t="str">
         <f>IF(H55="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B55,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="N55" t="str">
         <f>IF(H55="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F55,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6202,19 +6202,19 @@
       </c>
       <c r="J56" s="53" t="str">
         <f>IF(H56="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B56,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="K56" s="53" t="str">
         <f>IF(H56="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F56,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="M56" t="str">
         <f>IF(H56="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B56,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="N56" t="str">
         <f>IF(H56="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F56,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.6(2)</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="K57" s="53" t="str">
         <f>IF(H57="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F57,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="M57" t="str">
         <f>IF(H57="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B57,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6254,7 +6254,7 @@
       </c>
       <c r="N57" t="str">
         <f>IF(H57="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F57,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -6282,7 +6282,7 @@
       </c>
       <c r="J58" s="53" t="str">
         <f>IF(H58="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B58,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="K58" s="53" t="str">
         <f>IF(H58="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F58,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6290,7 +6290,7 @@
       </c>
       <c r="M58" t="str">
         <f>IF(H58="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B58,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="N58" t="str">
         <f>IF(H58="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F58,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6362,19 +6362,19 @@
       </c>
       <c r="J60" s="53" t="str">
         <f>IF(H60="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B60,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="K60" s="53" t="str">
         <f>IF(H60="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F60,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>-</v>
       </c>
       <c r="M60" t="str">
         <f>IF(H60="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B60,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="N60" t="str">
         <f>IF(H60="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F60,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -6402,7 +6402,7 @@
       </c>
       <c r="J61" s="53" t="str">
         <f>IF(H61="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B61,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="K61" s="53" t="str">
         <f>IF(H61="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F61,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6410,7 +6410,7 @@
       </c>
       <c r="M61" t="str">
         <f>IF(H61="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B61,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="N61" t="str">
         <f>IF(H61="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F61,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6442,19 +6442,19 @@
       </c>
       <c r="J62" s="53" t="str">
         <f>IF(H62="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B62,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="K62" s="53" t="str">
         <f>IF(H62="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F62,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="M62" t="str">
         <f>IF(H62="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B62,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="N62" t="str">
         <f>IF(H62="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F62,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -6482,19 +6482,19 @@
       </c>
       <c r="J63" s="53" t="str">
         <f>IF(H63="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B63,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="K63" s="53" t="str">
         <f>IF(H63="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F63,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="M63" t="str">
         <f>IF(H63="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B63,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="N63" t="str">
         <f>IF(H63="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F63,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6522,7 +6522,7 @@
       </c>
       <c r="J64" s="53" t="str">
         <f>IF(H64="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B64,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="K64" s="53" t="str">
         <f>IF(H64="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F64,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6530,7 +6530,7 @@
       </c>
       <c r="M64" t="str">
         <f>IF(H64="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B64,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="N64" t="str">
         <f>IF(H64="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F64,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6580,17 +6580,21 @@
       <c r="B66" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="C66" s="80"/>
+      <c r="C66" s="80">
+        <v>1</v>
+      </c>
       <c r="D66" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E66" s="80"/>
+      <c r="E66" s="80">
+        <v>0</v>
+      </c>
       <c r="F66" s="81" t="s">
         <v>116</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Local</v>
       </c>
       <c r="J66" s="53" t="str">
         <f>IF(H66="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B66,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6616,33 +6620,37 @@
       <c r="B67" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="C67" s="80"/>
+      <c r="C67" s="80">
+        <v>0</v>
+      </c>
       <c r="D67" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="80"/>
+      <c r="E67" s="80">
+        <v>0</v>
+      </c>
       <c r="F67" s="81" t="s">
         <v>123</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Empate</v>
       </c>
       <c r="J67" s="53" t="str">
         <f>IF(H67="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B67,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="K67" s="53" t="str">
         <f>IF(H67="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F67,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="M67" t="str">
         <f>IF(H67="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B67,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="N67" t="str">
         <f>IF(H67="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F67,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -6652,17 +6660,21 @@
       <c r="B68" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="80"/>
+      <c r="C68" s="80">
+        <v>1</v>
+      </c>
       <c r="D68" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E68" s="80"/>
+      <c r="E68" s="80">
+        <v>2</v>
+      </c>
       <c r="F68" s="81" t="s">
         <v>115</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Visitante</v>
       </c>
       <c r="J68" s="53" t="str">
         <f>IF(H68="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B68,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6670,7 +6682,7 @@
       </c>
       <c r="K68" s="53" t="str">
         <f>IF(H68="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F68,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="M68" t="str">
         <f>IF(H68="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B68,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6678,7 +6690,7 @@
       </c>
       <c r="N68" t="str">
         <f>IF(H68="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F68,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -6688,17 +6700,21 @@
       <c r="B69" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="C69" s="80"/>
+      <c r="C69" s="80">
+        <v>2</v>
+      </c>
       <c r="D69" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="80"/>
+      <c r="E69" s="80">
+        <v>1</v>
+      </c>
       <c r="F69" s="81" t="s">
         <v>114</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Local</v>
       </c>
       <c r="J69" s="53" t="str">
         <f>IF(H69="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B69,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6724,17 +6740,21 @@
       <c r="B70" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="C70" s="80"/>
+      <c r="C70" s="80">
+        <v>0</v>
+      </c>
       <c r="D70" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E70" s="80"/>
+      <c r="E70" s="80">
+        <v>1</v>
+      </c>
       <c r="F70" s="81" t="s">
         <v>131</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Visitante</v>
       </c>
       <c r="J70" s="53" t="str">
         <f>IF(H70="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B70,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6742,7 +6762,7 @@
       </c>
       <c r="K70" s="53" t="str">
         <f>IF(H70="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F70,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="M70" t="str">
         <f>IF(H70="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B70,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6750,7 +6770,7 @@
       </c>
       <c r="N70" t="str">
         <f>IF(H70="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F70,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -6760,25 +6780,29 @@
       <c r="B71" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="C71" s="80"/>
+      <c r="C71" s="80">
+        <v>0</v>
+      </c>
       <c r="D71" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E71" s="80"/>
+      <c r="E71" s="80">
+        <v>1</v>
+      </c>
       <c r="F71" s="81" t="s">
         <v>124</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Visitante</v>
       </c>
       <c r="J71" s="53" t="str">
         <f>IF(H71="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B71,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="K71" s="53" t="str">
         <f>IF(H71="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F71,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="M71" t="str">
         <f>IF(H71="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B71,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6796,17 +6820,21 @@
       <c r="B72" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="80"/>
+      <c r="C72" s="80">
+        <v>2</v>
+      </c>
       <c r="D72" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E72" s="80"/>
+      <c r="E72" s="80">
+        <v>3</v>
+      </c>
       <c r="F72" s="81" t="s">
         <v>126</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Visitante</v>
       </c>
       <c r="J72" s="53" t="str">
         <f>IF(H72="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B72,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6814,7 +6842,7 @@
       </c>
       <c r="K72" s="53" t="str">
         <f>IF(H72="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F72,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="M72" t="str">
         <f>IF(H72="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B72,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6822,7 +6850,7 @@
       </c>
       <c r="N72" t="str">
         <f>IF(H72="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F72,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6832,17 +6860,21 @@
       <c r="B73" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="C73" s="82"/>
+      <c r="C73" s="82">
+        <v>2</v>
+      </c>
       <c r="D73" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="E73" s="82"/>
+      <c r="E73" s="82">
+        <v>2</v>
+      </c>
       <c r="F73" s="83" t="s">
         <v>128</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Empate</v>
       </c>
       <c r="J73" s="53" t="str">
         <f>IF(H73="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B73,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6850,7 +6882,7 @@
       </c>
       <c r="K73" s="53" t="str">
         <f>IF(H73="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F73,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="M73" t="str">
         <f>IF(H73="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B73,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6858,7 +6890,7 @@
       </c>
       <c r="N73" t="str">
         <f>IF(H73="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F73,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.6(2)</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
@@ -22766,11 +22798,11 @@
       </c>
       <c r="B2" s="53">
         <f>C2+D2+E2</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="53">
         <f t="shared" ref="C2:C19" si="0">COUNTIFS(EQUIPO_LOCAL,$A2, GANADOR,"Local")+COUNTIFS(EQUIPO_VISITANTE,$A2,GANADOR,"Visitante")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="53">
         <f t="shared" ref="D2:D19" si="1">COUNTIFS(EQUIPO_LOCAL,$A2, GANADOR,"Empate")+COUNTIFS(EQUIPO_VISITANTE,$A2,GANADOR,"Empate")</f>
@@ -22782,27 +22814,27 @@
       </c>
       <c r="F2" s="53">
         <f t="shared" ref="F2:F19" si="3">SUMIFS(GOLES_LOCAL,EQUIPO_LOCAL,$A2)+SUMIFS(GOLES_VISITANTE,EQUIPO_VISITANTE,$A2)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" s="53">
         <f t="shared" ref="G2:G19" si="4">SUMIFS(GOLES_VISITANTE,EQUIPO_LOCAL,$A2)+SUMIFS(GOLES_LOCAL,EQUIPO_VISITANTE,$A2)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="53">
         <f>F2-G2</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="53">
         <f>3*C2+1*D2</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J2" s="53">
         <f>COUNTIF(I$2:I$19,"&gt;"&amp;I2)+1</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2" s="53" t="str">
         <f>IF(COUNTIF(J$2:J$19,J2)=1,"-","Pos."&amp;J2&amp;"("&amp;COUNTIF(J$2:J$19,J2)&amp;")")</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="L2" s="64"/>
       <c r="M2" s="53">
@@ -22823,11 +22855,11 @@
       </c>
       <c r="Q2" s="53">
         <f>$J2+COUNTIFS(K$2:K$19,K2,$P$2:$P$19,"&gt;"&amp;P2)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R2" s="53" t="str">
         <f>IF(COUNTIF(Q$2:Q$19,Q2)=1,"-","Pos."&amp;Q2&amp;"("&amp;COUNTIF(Q$2:Q$19,Q2)&amp;")")</f>
-        <v>Pos.10(2)</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="S2" s="65"/>
       <c r="T2" s="53">
@@ -22844,20 +22876,20 @@
       </c>
       <c r="W2" s="53">
         <f>Q2+COUNTIFS(R$2:R$19,R2,V$2:V$19,"&gt;"&amp;V2)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X2" s="53" t="str">
         <f>IF(COUNTIF(W$2:W$19,W2)=1,"-","Pos."&amp;W2&amp;"("&amp;COUNTIF(W$2:W$19,W2)&amp;")")</f>
-        <v>Pos.10(2)</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="Y2" s="63"/>
       <c r="Z2" s="53">
         <f>IF(X2="-","-",H2)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="53">
         <f>W2+COUNTIFS(X$2:X$19,X2,Z$2:Z$19,"&gt;"&amp;Z2)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB2" s="53" t="str">
         <f>IF(COUNTIF(AA$2:AA$19,AA2)=1,"-","Pos."&amp;AA2&amp;"("&amp;COUNTIF(AA$2:AA$19,AA2)&amp;")")</f>
@@ -22870,7 +22902,7 @@
       </c>
       <c r="AE2" s="53">
         <f>AA2+COUNTIFS(AB$2:AB$19,AB2,AD$2:AD$19,"&gt;"&amp;AD2)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF2" s="53" t="str">
         <f>IF(COUNTIF(AE$2:AE$19,AE2)=1,"-","Pos."&amp;AE2&amp;"("&amp;COUNTIF(AE$2:AE$19,AE2)&amp;")")</f>
@@ -22883,7 +22915,7 @@
       </c>
       <c r="AI2" s="53">
         <f>AE2+COUNTIFS(AF$2:AF$19,AF2,AH$2:AH$19,"&lt;"&amp;AH2)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
@@ -22892,7 +22924,7 @@
       </c>
       <c r="B3" s="53">
         <f t="shared" ref="B3:B19" si="8">C3+D3+E3</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="53">
         <f t="shared" si="0"/>
@@ -22904,7 +22936,7 @@
       </c>
       <c r="E3" s="53">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="53">
         <f t="shared" si="3"/>
@@ -22912,11 +22944,11 @@
       </c>
       <c r="G3" s="53">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="53">
         <f t="shared" ref="H3:H19" si="9">F3-G3</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I3" s="53">
         <f t="shared" ref="I3:I19" si="10">3*C3+1*D3</f>
@@ -22924,11 +22956,11 @@
       </c>
       <c r="J3" s="53">
         <f t="shared" ref="J3:J19" si="11">COUNTIF(I$2:I$19,"&gt;"&amp;I3)+1</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K3" s="53" t="str">
         <f t="shared" ref="K3:K19" si="12">IF(COUNTIF(J$2:J$19,J3)=1,"-","Pos."&amp;J3&amp;"("&amp;COUNTIF(J$2:J$19,J3)&amp;")")</f>
-        <v>Pos.9(3)</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="L3" s="64"/>
       <c r="M3" s="53">
@@ -22949,41 +22981,41 @@
       </c>
       <c r="Q3" s="53">
         <f t="shared" ref="Q3:Q19" si="15">$J3+COUNTIFS(K$2:K$19,K3,$P$2:$P$19,"&gt;"&amp;P3)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R3" s="53" t="str">
         <f t="shared" ref="R3:R19" si="16">IF(COUNTIF(Q$2:Q$19,Q3)=1,"-","Pos."&amp;Q3&amp;"("&amp;COUNTIF(Q$2:Q$19,Q3)&amp;")")</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="S3" s="65"/>
-      <c r="T3" s="53">
+      <c r="T3" s="53" t="str">
         <f t="shared" ref="T3:T19" si="17">IF(R3="-","-",SUMIFS(GOLES_LOCAL,EQUIPO_LOCAL,$A3,Grupo_de_Empate_Criterio_1__Equipo_Visitante,$R3)+SUMIFS(GOLES_VISITANTE,EQUIPO_VISITANTE,$A3,Grupo_de_Empate__Criterio_1__Equipo_Local,$R3))</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="53">
+        <v>-</v>
+      </c>
+      <c r="U3" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V3" s="53">
+        <v>-</v>
+      </c>
+      <c r="V3" s="53" t="str">
         <f t="shared" ref="V3:V19" si="18">IF($R3="-","-",T3-U3)</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W3" s="53">
         <f t="shared" ref="W3:W19" si="19">Q3+COUNTIFS(R$2:R$19,R3,V$2:V$19,"&gt;"&amp;V3)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="X3" s="53" t="str">
         <f t="shared" ref="X3:X19" si="20">IF(COUNTIF(W$2:W$19,W3)=1,"-","Pos."&amp;W3&amp;"("&amp;COUNTIF(W$2:W$19,W3)&amp;")")</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="Y3" s="63"/>
-      <c r="Z3" s="53">
+      <c r="Z3" s="53" t="str">
         <f t="shared" ref="Z3:Z19" si="21">IF(X3="-","-",H3)</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="AA3" s="53">
         <f t="shared" ref="AA3:AA19" si="22">W3+COUNTIFS(X$2:X$19,X3,Z$2:Z$19,"&gt;"&amp;Z3)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AB3" s="53" t="str">
         <f t="shared" ref="AB3:AB19" si="23">IF(COUNTIF(AA$2:AA$19,AA3)=1,"-","Pos."&amp;AA3&amp;"("&amp;COUNTIF(AA$2:AA$19,AA3)&amp;")")</f>
@@ -22996,7 +23028,7 @@
       </c>
       <c r="AE3" s="53">
         <f t="shared" ref="AE3:AE19" si="25">AA3+COUNTIFS(AB$2:AB$19,AB3,AD$2:AD$19,"&gt;"&amp;AD3)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AF3" s="53" t="str">
         <f t="shared" ref="AF3:AF19" si="26">IF(COUNTIF(AE$2:AE$19,AE3)=1,"-","Pos."&amp;AE3&amp;"("&amp;COUNTIF(AE$2:AE$19,AE3)&amp;")")</f>
@@ -23009,7 +23041,7 @@
       </c>
       <c r="AI3" s="53">
         <f t="shared" ref="AI3:AI19" si="28">AE3+COUNTIFS(AF$2:AF$19,AF3,AH$2:AH$19,"&lt;"&amp;AH3)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
@@ -23018,7 +23050,7 @@
       </c>
       <c r="B4" s="53">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="53">
         <f t="shared" si="0"/>
@@ -23030,7 +23062,7 @@
       </c>
       <c r="E4" s="53">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="53">
         <f t="shared" si="3"/>
@@ -23038,11 +23070,11 @@
       </c>
       <c r="G4" s="53">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" s="53">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4" s="53">
         <f t="shared" si="10"/>
@@ -23050,7 +23082,7 @@
       </c>
       <c r="J4" s="53">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" s="53" t="str">
         <f t="shared" si="12"/>
@@ -23075,7 +23107,7 @@
       </c>
       <c r="Q4" s="53">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R4" s="53" t="str">
         <f t="shared" si="16"/>
@@ -23096,7 +23128,7 @@
       </c>
       <c r="W4" s="53">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X4" s="53" t="str">
         <f t="shared" si="20"/>
@@ -23109,7 +23141,7 @@
       </c>
       <c r="AA4" s="53">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB4" s="53" t="str">
         <f t="shared" si="23"/>
@@ -23122,7 +23154,7 @@
       </c>
       <c r="AE4" s="53">
         <f t="shared" si="25"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF4" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23135,7 +23167,7 @@
       </c>
       <c r="AI4" s="53">
         <f t="shared" si="28"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
@@ -23144,11 +23176,11 @@
       </c>
       <c r="B5" s="53">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="53">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="53">
         <f t="shared" si="1"/>
@@ -23160,7 +23192,7 @@
       </c>
       <c r="F5" s="53">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="53">
         <f t="shared" si="4"/>
@@ -23168,74 +23200,74 @@
       </c>
       <c r="H5" s="53">
         <f t="shared" si="9"/>
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="I5" s="53">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J5" s="53">
         <f t="shared" si="11"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K5" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="L5" s="64"/>
-      <c r="M5" s="53" t="str">
+      <c r="M5" s="53">
         <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="N5" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="N5" s="53">
         <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="O5" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="O5" s="53">
         <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="P5" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="P5" s="53">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="53">
         <f t="shared" si="15"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="R5" s="53" t="str">
         <f>IF(COUNTIF(Q$2:Q$19,Q5)=1,"-","Pos."&amp;Q5&amp;"("&amp;COUNTIF(Q$2:Q$19,Q5)&amp;")")</f>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="S5" s="65"/>
-      <c r="T5" s="53" t="str">
+      <c r="T5" s="53">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="U5" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="U5" s="53">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V5" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="V5" s="53">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="W5" s="53">
         <f t="shared" si="19"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="X5" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="Y5" s="63"/>
-      <c r="Z5" s="53" t="str">
+      <c r="Z5" s="53">
         <f t="shared" si="21"/>
-        <v>-</v>
+        <v>-7</v>
       </c>
       <c r="AA5" s="53">
         <f t="shared" si="22"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AB5" s="53" t="str">
         <f t="shared" si="23"/>
@@ -23248,7 +23280,7 @@
       </c>
       <c r="AE5" s="53">
         <f t="shared" si="25"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AF5" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23261,7 +23293,7 @@
       </c>
       <c r="AI5" s="53">
         <f>AE5+COUNTIFS(AF$2:AF$19,AF5,AH$2:AH$19,"&lt;"&amp;AH5)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
@@ -23270,7 +23302,7 @@
       </c>
       <c r="B6" s="53">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="53">
         <f t="shared" si="0"/>
@@ -23282,19 +23314,19 @@
       </c>
       <c r="E6" s="53">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="53">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" s="53">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6" s="53">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6" s="53">
         <f t="shared" si="10"/>
@@ -23302,7 +23334,7 @@
       </c>
       <c r="J6" s="53">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6" s="53" t="str">
         <f t="shared" si="12"/>
@@ -23327,7 +23359,7 @@
       </c>
       <c r="Q6" s="53">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R6" s="53" t="str">
         <f t="shared" si="16"/>
@@ -23348,7 +23380,7 @@
       </c>
       <c r="W6" s="53">
         <f>Q6+COUNTIFS(R$2:R$19,R6,V$2:V$19,"&gt;"&amp;V6)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X6" s="53" t="str">
         <f t="shared" si="20"/>
@@ -23361,7 +23393,7 @@
       </c>
       <c r="AA6" s="53">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB6" s="53" t="str">
         <f t="shared" si="23"/>
@@ -23374,7 +23406,7 @@
       </c>
       <c r="AE6" s="53">
         <f t="shared" si="25"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF6" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23387,7 +23419,7 @@
       </c>
       <c r="AI6" s="53">
         <f t="shared" si="28"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
@@ -23396,7 +23428,7 @@
       </c>
       <c r="B7" s="53">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="53">
         <f t="shared" si="0"/>
@@ -23408,19 +23440,19 @@
       </c>
       <c r="E7" s="53">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" s="53">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" s="53">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H7" s="53">
         <f t="shared" si="9"/>
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="I7" s="53">
         <f t="shared" si="10"/>
@@ -23522,7 +23554,7 @@
       </c>
       <c r="B8" s="53">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="53">
         <f t="shared" si="0"/>
@@ -23534,7 +23566,7 @@
       </c>
       <c r="E8" s="53">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="53">
         <f t="shared" si="3"/>
@@ -23542,11 +23574,11 @@
       </c>
       <c r="G8" s="53">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" s="53">
         <f t="shared" si="9"/>
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="I8" s="53">
         <f t="shared" si="10"/>
@@ -23554,66 +23586,66 @@
       </c>
       <c r="J8" s="53">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K8" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="L8" s="64"/>
-      <c r="M8" s="53">
+      <c r="M8" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="53">
+        <v>-</v>
+      </c>
+      <c r="N8" s="53" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="53">
+        <v>-</v>
+      </c>
+      <c r="O8" s="53" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="53">
+        <v>-</v>
+      </c>
+      <c r="P8" s="53" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="Q8" s="53">
         <f t="shared" si="15"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R8" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="S8" s="65"/>
-      <c r="T8" s="53">
+      <c r="T8" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="53">
+        <v>-</v>
+      </c>
+      <c r="U8" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="53">
+        <v>-</v>
+      </c>
+      <c r="V8" s="53" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W8" s="53">
         <f t="shared" si="19"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="X8" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="Y8" s="63"/>
-      <c r="Z8" s="53">
+      <c r="Z8" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>-8</v>
+        <v>-</v>
       </c>
       <c r="AA8" s="53">
         <f t="shared" si="22"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB8" s="53" t="str">
         <f t="shared" si="23"/>
@@ -23626,7 +23658,7 @@
       </c>
       <c r="AE8" s="53">
         <f t="shared" si="25"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF8" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23639,7 +23671,7 @@
       </c>
       <c r="AI8" s="53">
         <f t="shared" si="28"/>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
@@ -23648,7 +23680,7 @@
       </c>
       <c r="B9" s="53">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="53">
         <f t="shared" si="0"/>
@@ -23660,19 +23692,19 @@
       </c>
       <c r="E9" s="53">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="53">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="53">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H9" s="53">
         <f t="shared" si="9"/>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="I9" s="53">
         <f t="shared" si="10"/>
@@ -23680,66 +23712,66 @@
       </c>
       <c r="J9" s="53">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K9" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="L9" s="64"/>
-      <c r="M9" s="53">
+      <c r="M9" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="53">
+        <v>-</v>
+      </c>
+      <c r="N9" s="53" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="53">
+        <v>-</v>
+      </c>
+      <c r="O9" s="53" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="53">
+        <v>-</v>
+      </c>
+      <c r="P9" s="53" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="Q9" s="53">
         <f>$J9+COUNTIFS(K$2:K$19,K9,$P$2:$P$19,"&gt;"&amp;P9)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R9" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="S9" s="65"/>
-      <c r="T9" s="53">
+      <c r="T9" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="53">
+        <v>-</v>
+      </c>
+      <c r="U9" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="53">
+        <v>-</v>
+      </c>
+      <c r="V9" s="53" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W9" s="53">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X9" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="Y9" s="63"/>
-      <c r="Z9" s="53">
+      <c r="Z9" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>-4</v>
+        <v>-</v>
       </c>
       <c r="AA9" s="53">
         <f t="shared" si="22"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB9" s="53" t="str">
         <f t="shared" si="23"/>
@@ -23752,7 +23784,7 @@
       </c>
       <c r="AE9" s="53">
         <f t="shared" si="25"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF9" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23765,7 +23797,7 @@
       </c>
       <c r="AI9" s="53">
         <f t="shared" si="28"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
@@ -23774,7 +23806,7 @@
       </c>
       <c r="B10" s="53">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="53">
         <f t="shared" si="0"/>
@@ -23782,7 +23814,7 @@
       </c>
       <c r="D10" s="53">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="53">
         <f t="shared" si="2"/>
@@ -23802,7 +23834,7 @@
       </c>
       <c r="I10" s="53">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J10" s="53">
         <f t="shared" si="11"/>
@@ -23819,7 +23851,7 @@
       </c>
       <c r="N10" s="53">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="53">
         <f t="shared" si="6"/>
@@ -23827,7 +23859,7 @@
       </c>
       <c r="P10" s="53">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="53">
         <f t="shared" si="15"/>
@@ -23900,11 +23932,11 @@
       </c>
       <c r="B11" s="53">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="53">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="53">
         <f t="shared" si="1"/>
@@ -23916,32 +23948,32 @@
       </c>
       <c r="F11" s="53">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G11" s="53">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H11" s="53">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="53">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J11" s="53">
         <f t="shared" si="11"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K11" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.9(3)</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="L11" s="64"/>
       <c r="M11" s="53">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="53">
         <f t="shared" si="5"/>
@@ -23953,45 +23985,45 @@
       </c>
       <c r="P11" s="53">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="53">
         <f t="shared" si="15"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R11" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="S11" s="65"/>
-      <c r="T11" s="53" t="str">
+      <c r="T11" s="53">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="U11" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="U11" s="53">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V11" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="V11" s="53">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="W11" s="53">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X11" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="Y11" s="63"/>
-      <c r="Z11" s="53" t="str">
+      <c r="Z11" s="53">
         <f t="shared" si="21"/>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="53">
         <f t="shared" si="22"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB11" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24004,7 +24036,7 @@
       </c>
       <c r="AE11" s="53">
         <f t="shared" si="25"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF11" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24017,7 +24049,7 @@
       </c>
       <c r="AI11" s="53">
         <f t="shared" si="28"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
@@ -24026,11 +24058,11 @@
       </c>
       <c r="B12" s="53">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="53">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="53">
         <f t="shared" si="1"/>
@@ -24042,7 +24074,7 @@
       </c>
       <c r="F12" s="53">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="53">
         <f t="shared" si="4"/>
@@ -24050,24 +24082,24 @@
       </c>
       <c r="H12" s="53">
         <f t="shared" si="9"/>
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="I12" s="53">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J12" s="53">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K12" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.15(2)</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="L12" s="64"/>
       <c r="M12" s="53">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="53">
         <f t="shared" si="5"/>
@@ -24079,45 +24111,45 @@
       </c>
       <c r="P12" s="53">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q12" s="53">
         <f t="shared" si="15"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R12" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="S12" s="65"/>
-      <c r="T12" s="53">
+      <c r="T12" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="53">
+        <v>-</v>
+      </c>
+      <c r="U12" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="53">
+        <v>-</v>
+      </c>
+      <c r="V12" s="53" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W12" s="53">
         <f t="shared" si="19"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X12" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.15(2)</v>
+        <v>-</v>
       </c>
       <c r="Y12" s="63"/>
-      <c r="Z12" s="53">
+      <c r="Z12" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>-6</v>
+        <v>-</v>
       </c>
       <c r="AA12" s="53">
         <f t="shared" si="22"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AB12" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24130,7 +24162,7 @@
       </c>
       <c r="AE12" s="53">
         <f t="shared" si="25"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AF12" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24143,7 +24175,7 @@
       </c>
       <c r="AI12" s="53">
         <f t="shared" si="28"/>
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
@@ -24152,11 +24184,11 @@
       </c>
       <c r="B13" s="53">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="53">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="53">
         <f t="shared" si="1"/>
@@ -24168,82 +24200,82 @@
       </c>
       <c r="F13" s="53">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13" s="53">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13" s="53">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I13" s="53">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J13" s="53">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K13" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.5(2)</v>
+        <v>-</v>
       </c>
       <c r="L13" s="64"/>
-      <c r="M13" s="53">
+      <c r="M13" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="53">
+        <v>-</v>
+      </c>
+      <c r="N13" s="53" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="53">
+        <v>-</v>
+      </c>
+      <c r="O13" s="53" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="53">
+        <v>-</v>
+      </c>
+      <c r="P13" s="53" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="Q13" s="53">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R13" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.5(2)</v>
+        <v>-</v>
       </c>
       <c r="S13" s="65"/>
-      <c r="T13" s="53">
+      <c r="T13" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="53">
+        <v>-</v>
+      </c>
+      <c r="U13" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="53">
+        <v>-</v>
+      </c>
+      <c r="V13" s="53" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W13" s="53">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X13" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.5(2)</v>
+        <v>-</v>
       </c>
       <c r="Y13" s="63"/>
-      <c r="Z13" s="53">
+      <c r="Z13" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>5</v>
+        <v>-</v>
       </c>
       <c r="AA13" s="53">
         <f t="shared" si="22"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB13" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24256,7 +24288,7 @@
       </c>
       <c r="AE13" s="53">
         <f t="shared" si="25"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF13" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24269,7 +24301,7 @@
       </c>
       <c r="AI13" s="53">
         <f t="shared" si="28"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
@@ -24310,66 +24342,66 @@
       </c>
       <c r="J14" s="53">
         <f t="shared" si="11"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K14" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="L14" s="64"/>
-      <c r="M14" s="53" t="str">
+      <c r="M14" s="53">
         <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="N14" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="N14" s="53">
         <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="O14" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="O14" s="53">
         <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="P14" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="P14" s="53">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="53">
         <f t="shared" si="15"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R14" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="S14" s="65"/>
-      <c r="T14" s="53" t="str">
+      <c r="T14" s="53">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="U14" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="U14" s="53">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V14" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="V14" s="53">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="W14" s="53">
         <f t="shared" si="19"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X14" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>-</v>
+        <v>Pos.11(2)</v>
       </c>
       <c r="Y14" s="63"/>
-      <c r="Z14" s="53" t="str">
+      <c r="Z14" s="53">
         <f t="shared" si="21"/>
-        <v>-</v>
+        <v>-1</v>
       </c>
       <c r="AA14" s="53">
         <f t="shared" si="22"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AB14" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24382,7 +24414,7 @@
       </c>
       <c r="AE14" s="53">
         <f t="shared" si="25"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AF14" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24395,7 +24427,7 @@
       </c>
       <c r="AI14" s="53">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
@@ -24404,7 +24436,7 @@
       </c>
       <c r="B15" s="53">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="53">
         <f t="shared" si="0"/>
@@ -24412,7 +24444,7 @@
       </c>
       <c r="D15" s="53">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" s="53">
         <f t="shared" si="2"/>
@@ -24420,11 +24452,11 @@
       </c>
       <c r="F15" s="53">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G15" s="53">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H15" s="53">
         <f t="shared" si="9"/>
@@ -24432,7 +24464,7 @@
       </c>
       <c r="I15" s="53">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" s="53">
         <f t="shared" si="11"/>
@@ -24530,7 +24562,7 @@
       </c>
       <c r="B16" s="53">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="53">
         <f t="shared" si="0"/>
@@ -24538,7 +24570,7 @@
       </c>
       <c r="D16" s="53">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="53">
         <f t="shared" si="2"/>
@@ -24558,7 +24590,7 @@
       </c>
       <c r="I16" s="53">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J16" s="53">
         <f t="shared" si="11"/>
@@ -24575,7 +24607,7 @@
       </c>
       <c r="N16" s="53">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="53">
         <f t="shared" si="6"/>
@@ -24583,7 +24615,7 @@
       </c>
       <c r="P16" s="53">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="53">
         <f t="shared" si="15"/>
@@ -24688,11 +24720,11 @@
       </c>
       <c r="J17" s="53">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K17" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.5(2)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="L17" s="64"/>
       <c r="M17" s="53">
@@ -24713,11 +24745,11 @@
       </c>
       <c r="Q17" s="53">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R17" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.5(2)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="S17" s="65"/>
       <c r="T17" s="53">
@@ -24734,11 +24766,11 @@
       </c>
       <c r="W17" s="53">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X17" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.5(2)</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="Y17" s="63"/>
       <c r="Z17" s="53">
@@ -24747,7 +24779,7 @@
       </c>
       <c r="AA17" s="53">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB17" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24760,7 +24792,7 @@
       </c>
       <c r="AE17" s="53">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF17" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24773,7 +24805,7 @@
       </c>
       <c r="AI17" s="53">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
@@ -24782,11 +24814,11 @@
       </c>
       <c r="B18" s="53">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="53">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="53">
         <f t="shared" si="1"/>
@@ -24798,7 +24830,7 @@
       </c>
       <c r="F18" s="53">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" s="53">
         <f t="shared" si="4"/>
@@ -24806,74 +24838,74 @@
       </c>
       <c r="H18" s="53">
         <f t="shared" si="9"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="I18" s="53">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J18" s="53">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K18" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="L18" s="64"/>
-      <c r="M18" s="53">
+      <c r="M18" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="53">
+        <v>-</v>
+      </c>
+      <c r="N18" s="53" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="53">
+        <v>-</v>
+      </c>
+      <c r="O18" s="53" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="53">
+        <v>-</v>
+      </c>
+      <c r="P18" s="53" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="Q18" s="53">
         <f t="shared" si="15"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R18" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="S18" s="65"/>
-      <c r="T18" s="53">
+      <c r="T18" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="53">
+        <v>-</v>
+      </c>
+      <c r="U18" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="53">
+        <v>-</v>
+      </c>
+      <c r="V18" s="53" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W18" s="53">
         <f t="shared" si="19"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X18" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.12(2)</v>
+        <v>-</v>
       </c>
       <c r="Y18" s="63"/>
-      <c r="Z18" s="53">
+      <c r="Z18" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>-4</v>
+        <v>-</v>
       </c>
       <c r="AA18" s="53">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB18" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24886,7 +24918,7 @@
       </c>
       <c r="AE18" s="53">
         <f t="shared" si="25"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF18" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24899,7 +24931,7 @@
       </c>
       <c r="AI18" s="53">
         <f t="shared" si="28"/>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
@@ -24908,7 +24940,7 @@
       </c>
       <c r="B19" s="53">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="53">
         <f t="shared" si="0"/>
@@ -24916,7 +24948,7 @@
       </c>
       <c r="D19" s="53">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="53">
         <f t="shared" si="2"/>
@@ -24924,11 +24956,11 @@
       </c>
       <c r="F19" s="53">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G19" s="53">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H19" s="53">
         <f t="shared" si="9"/>
@@ -24936,66 +24968,66 @@
       </c>
       <c r="I19" s="53">
         <f t="shared" si="10"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J19" s="53">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K19" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="L19" s="64"/>
-      <c r="M19" s="53" t="str">
+      <c r="M19" s="53">
         <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="N19" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="N19" s="53">
         <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="O19" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="O19" s="53">
         <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="P19" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="P19" s="53">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="53">
         <f t="shared" si="15"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>-</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="S19" s="65"/>
-      <c r="T19" s="53" t="str">
+      <c r="T19" s="53">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="U19" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="U19" s="53">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V19" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="V19" s="53">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="W19" s="53">
         <f t="shared" si="19"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X19" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>-</v>
+        <v>Pos.6(2)</v>
       </c>
       <c r="Y19" s="63"/>
-      <c r="Z19" s="53" t="str">
+      <c r="Z19" s="53">
         <f t="shared" si="21"/>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="AA19" s="53">
         <f t="shared" si="22"/>
@@ -25092,11 +25124,11 @@
       </c>
       <c r="C2" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25104,7 +25136,7 @@
       </c>
       <c r="F2" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25133,11 +25165,11 @@
       </c>
       <c r="C3" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25145,7 +25177,7 @@
       </c>
       <c r="F3" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25170,15 +25202,15 @@
       </c>
       <c r="B4" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Atlético Tordesillas</v>
+        <v>Palencia CF</v>
       </c>
       <c r="C4" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25186,7 +25218,7 @@
       </c>
       <c r="F4" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25194,15 +25226,15 @@
       </c>
       <c r="H4" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J4" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -25211,35 +25243,35 @@
       </c>
       <c r="B5" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Burgos CF B</v>
+        <v>Atlético Tordesillas</v>
       </c>
       <c r="C5" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I5" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J5" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25252,15 +25284,15 @@
       </c>
       <c r="B6" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Salamanca UDS</v>
+        <v>Burgos CF B</v>
       </c>
       <c r="C6" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25268,7 +25300,7 @@
       </c>
       <c r="F6" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25276,15 +25308,15 @@
       </c>
       <c r="H6" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I6" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -25293,7 +25325,7 @@
       </c>
       <c r="B7" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Palencia CF</v>
+        <v>Salamanca UDS</v>
       </c>
       <c r="C7" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25317,15 +25349,15 @@
       </c>
       <c r="H7" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I7" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J7" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -25338,11 +25370,11 @@
       </c>
       <c r="C8" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25350,7 +25382,7 @@
       </c>
       <c r="F8" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25358,11 +25390,11 @@
       </c>
       <c r="H8" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I8" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J8" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25375,39 +25407,39 @@
       </c>
       <c r="B9" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Palencia Cristo Atlético</v>
+        <v>La Virgen del Camino</v>
       </c>
       <c r="C9" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D9" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I9" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J9" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -25416,19 +25448,19 @@
       </c>
       <c r="B10" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>La Virgen del Camino</v>
+        <v>Atco. Bembibre</v>
       </c>
       <c r="C10" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D10" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25440,11 +25472,11 @@
       </c>
       <c r="H10" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I10" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J10" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25457,39 +25489,39 @@
       </c>
       <c r="B11" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Atl. Astorga</v>
+        <v>SD Almazán</v>
       </c>
       <c r="C11" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H11" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I11" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J11" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -25498,11 +25530,11 @@
       </c>
       <c r="B12" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Atco. Bembibre</v>
+        <v>Palencia Cristo Atlético</v>
       </c>
       <c r="C12" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25514,11 +25546,11 @@
       </c>
       <c r="F12" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25539,39 +25571,39 @@
       </c>
       <c r="B13" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>SD Almazán</v>
+        <v>Becerril</v>
       </c>
       <c r="C13" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H13" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I13" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-4</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -25580,15 +25612,15 @@
       </c>
       <c r="B14" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>CD. Villaralbo</v>
+        <v>Mirandés B</v>
       </c>
       <c r="C14" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25596,7 +25628,7 @@
       </c>
       <c r="F14" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25604,15 +25636,15 @@
       </c>
       <c r="H14" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J14" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-8</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -25621,15 +25653,15 @@
       </c>
       <c r="B15" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Becerril</v>
+        <v>Atl. Astorga</v>
       </c>
       <c r="C15" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E15" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25637,23 +25669,23 @@
       </c>
       <c r="F15" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H15" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I15" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J15" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -25662,39 +25694,39 @@
       </c>
       <c r="B16" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>DiocesanosAvila</v>
+        <v>CD. Villaralbo</v>
       </c>
       <c r="C16" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D16" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G16" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H16" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I16" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J16" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-4</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -25703,7 +25735,7 @@
       </c>
       <c r="B17" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Mirandés B</v>
+        <v>DiocesanosAvila</v>
       </c>
       <c r="C17" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25711,31 +25743,31 @@
       </c>
       <c r="D17" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G17" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H17" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J17" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -25748,11 +25780,11 @@
       </c>
       <c r="C18" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25760,7 +25792,7 @@
       </c>
       <c r="F18" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25768,11 +25800,11 @@
       </c>
       <c r="H18" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I18" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J18" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25793,7 +25825,7 @@
       </c>
       <c r="D19" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25805,19 +25837,19 @@
       </c>
       <c r="G19" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H19" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I19" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J19" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-16</v>
+        <v>-17</v>
       </c>
     </row>
   </sheetData>
@@ -27313,192 +27345,192 @@
       <c r="AF2" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="AH2" s="141" t="s">
+      <c r="AH2" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="142"/>
-      <c r="AJ2" s="142"/>
-      <c r="AK2" s="142"/>
-      <c r="AL2" s="142"/>
-      <c r="AM2" s="142"/>
-      <c r="AN2" s="143"/>
-      <c r="AP2" s="141" t="s">
+      <c r="AI2" s="148"/>
+      <c r="AJ2" s="148"/>
+      <c r="AK2" s="148"/>
+      <c r="AL2" s="148"/>
+      <c r="AM2" s="148"/>
+      <c r="AN2" s="149"/>
+      <c r="AP2" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="AQ2" s="142"/>
-      <c r="AR2" s="142"/>
-      <c r="AS2" s="142"/>
-      <c r="AT2" s="142"/>
-      <c r="AU2" s="142"/>
-      <c r="AV2" s="143"/>
-      <c r="AX2" s="141" t="s">
+      <c r="AQ2" s="148"/>
+      <c r="AR2" s="148"/>
+      <c r="AS2" s="148"/>
+      <c r="AT2" s="148"/>
+      <c r="AU2" s="148"/>
+      <c r="AV2" s="149"/>
+      <c r="AX2" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="AY2" s="142"/>
-      <c r="AZ2" s="142"/>
-      <c r="BA2" s="142"/>
-      <c r="BB2" s="142"/>
-      <c r="BC2" s="142"/>
-      <c r="BD2" s="143"/>
-      <c r="BF2" s="141" t="s">
+      <c r="AY2" s="148"/>
+      <c r="AZ2" s="148"/>
+      <c r="BA2" s="148"/>
+      <c r="BB2" s="148"/>
+      <c r="BC2" s="148"/>
+      <c r="BD2" s="149"/>
+      <c r="BF2" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="BG2" s="142"/>
-      <c r="BH2" s="142"/>
-      <c r="BI2" s="142"/>
-      <c r="BJ2" s="142"/>
-      <c r="BK2" s="142"/>
-      <c r="BL2" s="143"/>
-      <c r="BN2" s="141" t="s">
+      <c r="BG2" s="148"/>
+      <c r="BH2" s="148"/>
+      <c r="BI2" s="148"/>
+      <c r="BJ2" s="148"/>
+      <c r="BK2" s="148"/>
+      <c r="BL2" s="149"/>
+      <c r="BN2" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="BO2" s="142"/>
-      <c r="BP2" s="142"/>
-      <c r="BQ2" s="142"/>
-      <c r="BR2" s="142"/>
-      <c r="BS2" s="142"/>
-      <c r="BT2" s="143"/>
-      <c r="BV2" s="141" t="s">
+      <c r="BO2" s="148"/>
+      <c r="BP2" s="148"/>
+      <c r="BQ2" s="148"/>
+      <c r="BR2" s="148"/>
+      <c r="BS2" s="148"/>
+      <c r="BT2" s="149"/>
+      <c r="BV2" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="BW2" s="142"/>
-      <c r="BX2" s="142"/>
-      <c r="BY2" s="142"/>
-      <c r="BZ2" s="142"/>
-      <c r="CA2" s="142"/>
-      <c r="CB2" s="143"/>
+      <c r="BW2" s="148"/>
+      <c r="BX2" s="148"/>
+      <c r="BY2" s="148"/>
+      <c r="BZ2" s="148"/>
+      <c r="CA2" s="148"/>
+      <c r="CB2" s="149"/>
     </row>
     <row r="3" spans="2:80" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="149" t="s">
+      <c r="B3" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="149"/>
-      <c r="G3" s="139" t="s">
+      <c r="F3" s="146"/>
+      <c r="G3" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="140"/>
-      <c r="J3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="144" t="s">
+      <c r="H3" s="136"/>
+      <c r="J3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="144"/>
-      <c r="O3" s="145" t="s">
+      <c r="N3" s="145"/>
+      <c r="O3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="146"/>
-      <c r="R3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="148"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="144" t="s">
+      <c r="P3" s="144"/>
+      <c r="R3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="144"/>
-      <c r="W3" s="145" t="s">
+      <c r="V3" s="145"/>
+      <c r="W3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="146"/>
-      <c r="Z3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="148"/>
-      <c r="AB3" s="148"/>
-      <c r="AC3" s="144" t="s">
+      <c r="X3" s="144"/>
+      <c r="Z3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="145" t="s">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="146"/>
-      <c r="AH3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="148"/>
-      <c r="AJ3" s="148"/>
-      <c r="AK3" s="144" t="s">
+      <c r="AF3" s="144"/>
+      <c r="AH3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="142"/>
+      <c r="AJ3" s="142"/>
+      <c r="AK3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="144"/>
-      <c r="AM3" s="145" t="s">
+      <c r="AL3" s="145"/>
+      <c r="AM3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="146"/>
-      <c r="AP3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="148"/>
-      <c r="AR3" s="148"/>
-      <c r="AS3" s="144" t="s">
+      <c r="AN3" s="144"/>
+      <c r="AP3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="142"/>
+      <c r="AR3" s="142"/>
+      <c r="AS3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="144"/>
-      <c r="AU3" s="145" t="s">
+      <c r="AT3" s="145"/>
+      <c r="AU3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="146"/>
-      <c r="AX3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="148"/>
-      <c r="AZ3" s="148"/>
-      <c r="BA3" s="144" t="s">
+      <c r="AV3" s="144"/>
+      <c r="AX3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="142"/>
+      <c r="AZ3" s="142"/>
+      <c r="BA3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BB3" s="144"/>
-      <c r="BC3" s="145" t="s">
+      <c r="BB3" s="145"/>
+      <c r="BC3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="146"/>
-      <c r="BF3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="148"/>
-      <c r="BH3" s="148"/>
-      <c r="BI3" s="144" t="s">
+      <c r="BD3" s="144"/>
+      <c r="BF3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="142"/>
+      <c r="BH3" s="142"/>
+      <c r="BI3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BJ3" s="144"/>
-      <c r="BK3" s="145" t="s">
+      <c r="BJ3" s="145"/>
+      <c r="BK3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="146"/>
-      <c r="BN3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="148"/>
-      <c r="BP3" s="148"/>
-      <c r="BQ3" s="144" t="s">
+      <c r="BL3" s="144"/>
+      <c r="BN3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="142"/>
+      <c r="BP3" s="142"/>
+      <c r="BQ3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="144"/>
-      <c r="BS3" s="145" t="s">
+      <c r="BR3" s="145"/>
+      <c r="BS3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="146"/>
-      <c r="BV3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="148"/>
-      <c r="BX3" s="148"/>
-      <c r="BY3" s="144" t="s">
+      <c r="BT3" s="144"/>
+      <c r="BV3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="142"/>
+      <c r="BX3" s="142"/>
+      <c r="BY3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BZ3" s="144"/>
-      <c r="CA3" s="145" t="s">
+      <c r="BZ3" s="145"/>
+      <c r="CA3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="146"/>
+      <c r="CB3" s="144"/>
     </row>
     <row r="4" spans="2:80" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -30016,24 +30048,12 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="AX2:BD2"/>
+    <mergeCell ref="BF2:BL2"/>
+    <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="BN2:BT2"/>
     <mergeCell ref="BV2:CB2"/>
     <mergeCell ref="AH2:AN2"/>
@@ -30050,12 +30070,24 @@
     <mergeCell ref="AX3:AZ3"/>
     <mergeCell ref="BA3:BB3"/>
     <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="AX2:BD2"/>
-    <mergeCell ref="BF2:BL2"/>
-    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="BY3:BZ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31302,19 +31334,19 @@
       <c r="L39" s="152"/>
     </row>
     <row r="40" spans="6:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="F40" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="148"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="144" t="s">
+      <c r="F40" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="142"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="144"/>
-      <c r="K40" s="145" t="s">
+      <c r="J40" s="145"/>
+      <c r="K40" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="146"/>
+      <c r="L40" s="144"/>
     </row>
     <row r="41" spans="6:23" ht="19" x14ac:dyDescent="0.25">
       <c r="F41" s="14" t="s">
@@ -32177,319 +32209,319 @@
       <c r="BD2" s="123" t="s">
         <v>196</v>
       </c>
-      <c r="BF2" s="141" t="s">
+      <c r="BF2" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="BG2" s="142"/>
-      <c r="BH2" s="142"/>
-      <c r="BI2" s="142"/>
-      <c r="BJ2" s="142"/>
-      <c r="BK2" s="142"/>
-      <c r="BL2" s="143"/>
-      <c r="BN2" s="141" t="s">
+      <c r="BG2" s="148"/>
+      <c r="BH2" s="148"/>
+      <c r="BI2" s="148"/>
+      <c r="BJ2" s="148"/>
+      <c r="BK2" s="148"/>
+      <c r="BL2" s="149"/>
+      <c r="BN2" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="BO2" s="142"/>
-      <c r="BP2" s="142"/>
-      <c r="BQ2" s="142"/>
-      <c r="BR2" s="142"/>
-      <c r="BS2" s="142"/>
-      <c r="BT2" s="143"/>
-      <c r="BV2" s="141" t="s">
+      <c r="BO2" s="148"/>
+      <c r="BP2" s="148"/>
+      <c r="BQ2" s="148"/>
+      <c r="BR2" s="148"/>
+      <c r="BS2" s="148"/>
+      <c r="BT2" s="149"/>
+      <c r="BV2" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="BW2" s="142"/>
-      <c r="BX2" s="142"/>
-      <c r="BY2" s="142"/>
-      <c r="BZ2" s="142"/>
-      <c r="CA2" s="142"/>
-      <c r="CB2" s="143"/>
-      <c r="CD2" s="141" t="s">
+      <c r="BW2" s="148"/>
+      <c r="BX2" s="148"/>
+      <c r="BY2" s="148"/>
+      <c r="BZ2" s="148"/>
+      <c r="CA2" s="148"/>
+      <c r="CB2" s="149"/>
+      <c r="CD2" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="CE2" s="142"/>
-      <c r="CF2" s="142"/>
-      <c r="CG2" s="142"/>
-      <c r="CH2" s="142"/>
-      <c r="CI2" s="142"/>
-      <c r="CJ2" s="143"/>
-      <c r="CL2" s="141" t="s">
+      <c r="CE2" s="148"/>
+      <c r="CF2" s="148"/>
+      <c r="CG2" s="148"/>
+      <c r="CH2" s="148"/>
+      <c r="CI2" s="148"/>
+      <c r="CJ2" s="149"/>
+      <c r="CL2" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="CM2" s="142"/>
-      <c r="CN2" s="142"/>
-      <c r="CO2" s="142"/>
-      <c r="CP2" s="142"/>
-      <c r="CQ2" s="142"/>
-      <c r="CR2" s="143"/>
-      <c r="CT2" s="141" t="s">
+      <c r="CM2" s="148"/>
+      <c r="CN2" s="148"/>
+      <c r="CO2" s="148"/>
+      <c r="CP2" s="148"/>
+      <c r="CQ2" s="148"/>
+      <c r="CR2" s="149"/>
+      <c r="CT2" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="CU2" s="142"/>
-      <c r="CV2" s="142"/>
-      <c r="CW2" s="142"/>
-      <c r="CX2" s="142"/>
-      <c r="CY2" s="142"/>
-      <c r="CZ2" s="143"/>
-      <c r="DB2" s="141" t="s">
+      <c r="CU2" s="148"/>
+      <c r="CV2" s="148"/>
+      <c r="CW2" s="148"/>
+      <c r="CX2" s="148"/>
+      <c r="CY2" s="148"/>
+      <c r="CZ2" s="149"/>
+      <c r="DB2" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="DC2" s="142"/>
-      <c r="DD2" s="142"/>
-      <c r="DE2" s="142"/>
-      <c r="DF2" s="142"/>
-      <c r="DG2" s="142"/>
-      <c r="DH2" s="143"/>
-      <c r="DJ2" s="141" t="s">
+      <c r="DC2" s="148"/>
+      <c r="DD2" s="148"/>
+      <c r="DE2" s="148"/>
+      <c r="DF2" s="148"/>
+      <c r="DG2" s="148"/>
+      <c r="DH2" s="149"/>
+      <c r="DJ2" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="DK2" s="142"/>
-      <c r="DL2" s="142"/>
-      <c r="DM2" s="142"/>
-      <c r="DN2" s="142"/>
-      <c r="DO2" s="142"/>
-      <c r="DP2" s="143"/>
-      <c r="DR2" s="141" t="s">
+      <c r="DK2" s="148"/>
+      <c r="DL2" s="148"/>
+      <c r="DM2" s="148"/>
+      <c r="DN2" s="148"/>
+      <c r="DO2" s="148"/>
+      <c r="DP2" s="149"/>
+      <c r="DR2" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="DS2" s="142"/>
-      <c r="DT2" s="142"/>
-      <c r="DU2" s="142"/>
-      <c r="DV2" s="142"/>
-      <c r="DW2" s="142"/>
-      <c r="DX2" s="143"/>
-      <c r="DZ2" s="141" t="s">
+      <c r="DS2" s="148"/>
+      <c r="DT2" s="148"/>
+      <c r="DU2" s="148"/>
+      <c r="DV2" s="148"/>
+      <c r="DW2" s="148"/>
+      <c r="DX2" s="149"/>
+      <c r="DZ2" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="EA2" s="142"/>
-      <c r="EB2" s="142"/>
-      <c r="EC2" s="142"/>
-      <c r="ED2" s="142"/>
-      <c r="EE2" s="142"/>
-      <c r="EF2" s="143"/>
+      <c r="EA2" s="148"/>
+      <c r="EB2" s="148"/>
+      <c r="EC2" s="148"/>
+      <c r="ED2" s="148"/>
+      <c r="EE2" s="148"/>
+      <c r="EF2" s="149"/>
     </row>
     <row r="3" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="144" t="s">
+      <c r="B3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="144"/>
-      <c r="G3" s="145" t="s">
+      <c r="F3" s="145"/>
+      <c r="G3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="J3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="144" t="s">
+      <c r="H3" s="144"/>
+      <c r="J3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="144"/>
-      <c r="O3" s="145" t="s">
+      <c r="N3" s="145"/>
+      <c r="O3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="146"/>
-      <c r="R3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="148"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="144" t="s">
+      <c r="P3" s="144"/>
+      <c r="R3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="144"/>
-      <c r="W3" s="145" t="s">
+      <c r="V3" s="145"/>
+      <c r="W3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="146"/>
-      <c r="Z3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="148"/>
-      <c r="AB3" s="148"/>
-      <c r="AC3" s="144" t="s">
+      <c r="X3" s="144"/>
+      <c r="Z3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="145" t="s">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="146"/>
-      <c r="AH3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="148"/>
-      <c r="AJ3" s="148"/>
-      <c r="AK3" s="144" t="s">
+      <c r="AF3" s="144"/>
+      <c r="AH3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="142"/>
+      <c r="AJ3" s="142"/>
+      <c r="AK3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="144"/>
-      <c r="AM3" s="145" t="s">
+      <c r="AL3" s="145"/>
+      <c r="AM3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="146"/>
-      <c r="AP3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="148"/>
-      <c r="AR3" s="148"/>
-      <c r="AS3" s="144" t="s">
+      <c r="AN3" s="144"/>
+      <c r="AP3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="142"/>
+      <c r="AR3" s="142"/>
+      <c r="AS3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="144"/>
-      <c r="AU3" s="145" t="s">
+      <c r="AT3" s="145"/>
+      <c r="AU3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="146"/>
-      <c r="AX3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="148"/>
-      <c r="AZ3" s="148"/>
-      <c r="BA3" s="144" t="s">
+      <c r="AV3" s="144"/>
+      <c r="AX3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="142"/>
+      <c r="AZ3" s="142"/>
+      <c r="BA3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BB3" s="144"/>
-      <c r="BC3" s="145" t="s">
+      <c r="BB3" s="145"/>
+      <c r="BC3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="146"/>
-      <c r="BF3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="148"/>
-      <c r="BH3" s="148"/>
-      <c r="BI3" s="144" t="s">
+      <c r="BD3" s="144"/>
+      <c r="BF3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="142"/>
+      <c r="BH3" s="142"/>
+      <c r="BI3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BJ3" s="144"/>
-      <c r="BK3" s="145" t="s">
+      <c r="BJ3" s="145"/>
+      <c r="BK3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="146"/>
-      <c r="BN3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="148"/>
-      <c r="BP3" s="148"/>
-      <c r="BQ3" s="144" t="s">
+      <c r="BL3" s="144"/>
+      <c r="BN3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="142"/>
+      <c r="BP3" s="142"/>
+      <c r="BQ3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="144"/>
-      <c r="BS3" s="145" t="s">
+      <c r="BR3" s="145"/>
+      <c r="BS3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="146"/>
-      <c r="BV3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="148"/>
-      <c r="BX3" s="148"/>
-      <c r="BY3" s="144" t="s">
+      <c r="BT3" s="144"/>
+      <c r="BV3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="142"/>
+      <c r="BX3" s="142"/>
+      <c r="BY3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BZ3" s="144"/>
-      <c r="CA3" s="145" t="s">
+      <c r="BZ3" s="145"/>
+      <c r="CA3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="146"/>
-      <c r="CD3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="148"/>
-      <c r="CF3" s="148"/>
-      <c r="CG3" s="144" t="s">
+      <c r="CB3" s="144"/>
+      <c r="CD3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="142"/>
+      <c r="CF3" s="142"/>
+      <c r="CG3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="CH3" s="144"/>
-      <c r="CI3" s="145" t="s">
+      <c r="CH3" s="145"/>
+      <c r="CI3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="CJ3" s="146"/>
-      <c r="CL3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="148"/>
-      <c r="CN3" s="148"/>
-      <c r="CO3" s="144" t="s">
+      <c r="CJ3" s="144"/>
+      <c r="CL3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="142"/>
+      <c r="CN3" s="142"/>
+      <c r="CO3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="CP3" s="144"/>
-      <c r="CQ3" s="145" t="s">
+      <c r="CP3" s="145"/>
+      <c r="CQ3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="CR3" s="146"/>
-      <c r="CT3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="148"/>
-      <c r="CV3" s="148"/>
-      <c r="CW3" s="144" t="s">
+      <c r="CR3" s="144"/>
+      <c r="CT3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="142"/>
+      <c r="CV3" s="142"/>
+      <c r="CW3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="CX3" s="144"/>
-      <c r="CY3" s="145" t="s">
+      <c r="CX3" s="145"/>
+      <c r="CY3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="CZ3" s="146"/>
-      <c r="DB3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="DC3" s="148"/>
-      <c r="DD3" s="148"/>
-      <c r="DE3" s="144" t="s">
+      <c r="CZ3" s="144"/>
+      <c r="DB3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="142"/>
+      <c r="DD3" s="142"/>
+      <c r="DE3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="DF3" s="144"/>
-      <c r="DG3" s="145" t="s">
+      <c r="DF3" s="145"/>
+      <c r="DG3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="DH3" s="146"/>
-      <c r="DJ3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="DK3" s="148"/>
-      <c r="DL3" s="148"/>
-      <c r="DM3" s="144" t="s">
+      <c r="DH3" s="144"/>
+      <c r="DJ3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="142"/>
+      <c r="DL3" s="142"/>
+      <c r="DM3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="DN3" s="144"/>
-      <c r="DO3" s="145" t="s">
+      <c r="DN3" s="145"/>
+      <c r="DO3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="DP3" s="146"/>
-      <c r="DR3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS3" s="148"/>
-      <c r="DT3" s="148"/>
-      <c r="DU3" s="144" t="s">
+      <c r="DP3" s="144"/>
+      <c r="DR3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS3" s="142"/>
+      <c r="DT3" s="142"/>
+      <c r="DU3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="DV3" s="144"/>
-      <c r="DW3" s="145" t="s">
+      <c r="DV3" s="145"/>
+      <c r="DW3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="DX3" s="146"/>
-      <c r="DZ3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="EA3" s="148"/>
-      <c r="EB3" s="148"/>
-      <c r="EC3" s="144" t="s">
+      <c r="DX3" s="144"/>
+      <c r="DZ3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="142"/>
+      <c r="EB3" s="142"/>
+      <c r="EC3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="ED3" s="144"/>
-      <c r="EE3" s="145" t="s">
+      <c r="ED3" s="145"/>
+      <c r="EE3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="EF3" s="146"/>
+      <c r="EF3" s="144"/>
     </row>
     <row r="4" spans="2:136" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -36408,50 +36440,16 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="DZ2:EF2"/>
-    <mergeCell ref="DZ3:EB3"/>
-    <mergeCell ref="EC3:ED3"/>
-    <mergeCell ref="EE3:EF3"/>
-    <mergeCell ref="DJ2:DP2"/>
-    <mergeCell ref="DJ3:DL3"/>
-    <mergeCell ref="DM3:DN3"/>
-    <mergeCell ref="DO3:DP3"/>
-    <mergeCell ref="DR2:DX2"/>
-    <mergeCell ref="DR3:DT3"/>
-    <mergeCell ref="DU3:DV3"/>
-    <mergeCell ref="DW3:DX3"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="CT3:CV3"/>
-    <mergeCell ref="CW3:CX3"/>
-    <mergeCell ref="CY3:CZ3"/>
-    <mergeCell ref="DB2:DH2"/>
-    <mergeCell ref="DB3:DD3"/>
-    <mergeCell ref="DE3:DF3"/>
-    <mergeCell ref="DG3:DH3"/>
-    <mergeCell ref="CD2:CJ2"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="CG3:CH3"/>
-    <mergeCell ref="CI3:CJ3"/>
-    <mergeCell ref="CL2:CR2"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="CQ3:CR3"/>
-    <mergeCell ref="BN2:BT2"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV2:CB2"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BF2:BL2"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="AY2:BC2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AI2:AM2"/>
     <mergeCell ref="AQ2:AU2"/>
@@ -36466,16 +36464,50 @@
     <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="AP3:AR3"/>
     <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BF2:BL2"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="AY2:BC2"/>
+    <mergeCell ref="BN2:BT2"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV2:CB2"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="CD2:CJ2"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="CG3:CH3"/>
+    <mergeCell ref="CI3:CJ3"/>
+    <mergeCell ref="CL2:CR2"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="CQ3:CR3"/>
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="CT3:CV3"/>
+    <mergeCell ref="CW3:CX3"/>
+    <mergeCell ref="CY3:CZ3"/>
+    <mergeCell ref="DB2:DH2"/>
+    <mergeCell ref="DB3:DD3"/>
+    <mergeCell ref="DE3:DF3"/>
+    <mergeCell ref="DG3:DH3"/>
+    <mergeCell ref="DZ2:EF2"/>
+    <mergeCell ref="DZ3:EB3"/>
+    <mergeCell ref="EC3:ED3"/>
+    <mergeCell ref="EE3:EF3"/>
+    <mergeCell ref="DJ2:DP2"/>
+    <mergeCell ref="DJ3:DL3"/>
+    <mergeCell ref="DM3:DN3"/>
+    <mergeCell ref="DO3:DP3"/>
+    <mergeCell ref="DR2:DX2"/>
+    <mergeCell ref="DR3:DT3"/>
+    <mergeCell ref="DU3:DV3"/>
+    <mergeCell ref="DW3:DX3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37634,30 +37666,30 @@
     </row>
     <row r="36" spans="5:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="5:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="E37" s="141" t="s">
+      <c r="E37" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="142"/>
-      <c r="G37" s="142"/>
-      <c r="H37" s="142"/>
-      <c r="I37" s="142"/>
-      <c r="J37" s="142"/>
-      <c r="K37" s="143"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="149"/>
     </row>
     <row r="38" spans="5:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="E38" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="148"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="144" t="s">
+      <c r="E38" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="142"/>
+      <c r="G38" s="142"/>
+      <c r="H38" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="144"/>
-      <c r="J38" s="145" t="s">
+      <c r="I38" s="145"/>
+      <c r="J38" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="146"/>
+      <c r="K38" s="144"/>
     </row>
     <row r="39" spans="5:22" ht="19" x14ac:dyDescent="0.25">
       <c r="E39" s="14" t="s">
@@ -38374,382 +38406,382 @@
   <sheetData>
     <row r="1" spans="2:136" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B2" s="141" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="143"/>
-      <c r="J2" s="141" t="s">
+      <c r="B2" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="149"/>
+      <c r="J2" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="143"/>
-      <c r="R2" s="141" t="s">
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="149"/>
+      <c r="R2" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="142"/>
-      <c r="T2" s="142"/>
-      <c r="U2" s="142"/>
-      <c r="V2" s="142"/>
-      <c r="W2" s="142"/>
-      <c r="X2" s="143"/>
-      <c r="Z2" s="141" t="s">
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="149"/>
+      <c r="Z2" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="142"/>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="142"/>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="143"/>
-      <c r="AH2" s="141" t="s">
+      <c r="AA2" s="148"/>
+      <c r="AB2" s="148"/>
+      <c r="AC2" s="148"/>
+      <c r="AD2" s="148"/>
+      <c r="AE2" s="148"/>
+      <c r="AF2" s="149"/>
+      <c r="AH2" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="142"/>
-      <c r="AJ2" s="142"/>
-      <c r="AK2" s="142"/>
-      <c r="AL2" s="142"/>
-      <c r="AM2" s="142"/>
-      <c r="AN2" s="143"/>
-      <c r="AP2" s="141" t="s">
+      <c r="AI2" s="148"/>
+      <c r="AJ2" s="148"/>
+      <c r="AK2" s="148"/>
+      <c r="AL2" s="148"/>
+      <c r="AM2" s="148"/>
+      <c r="AN2" s="149"/>
+      <c r="AP2" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="AQ2" s="142"/>
-      <c r="AR2" s="142"/>
-      <c r="AS2" s="142"/>
-      <c r="AT2" s="142"/>
-      <c r="AU2" s="142"/>
-      <c r="AV2" s="143"/>
-      <c r="AX2" s="141" t="s">
+      <c r="AQ2" s="148"/>
+      <c r="AR2" s="148"/>
+      <c r="AS2" s="148"/>
+      <c r="AT2" s="148"/>
+      <c r="AU2" s="148"/>
+      <c r="AV2" s="149"/>
+      <c r="AX2" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="AY2" s="142"/>
-      <c r="AZ2" s="142"/>
-      <c r="BA2" s="142"/>
-      <c r="BB2" s="142"/>
-      <c r="BC2" s="142"/>
-      <c r="BD2" s="143"/>
-      <c r="BF2" s="141" t="s">
+      <c r="AY2" s="148"/>
+      <c r="AZ2" s="148"/>
+      <c r="BA2" s="148"/>
+      <c r="BB2" s="148"/>
+      <c r="BC2" s="148"/>
+      <c r="BD2" s="149"/>
+      <c r="BF2" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="BG2" s="142"/>
-      <c r="BH2" s="142"/>
-      <c r="BI2" s="142"/>
-      <c r="BJ2" s="142"/>
-      <c r="BK2" s="142"/>
-      <c r="BL2" s="143"/>
-      <c r="BN2" s="141" t="s">
+      <c r="BG2" s="148"/>
+      <c r="BH2" s="148"/>
+      <c r="BI2" s="148"/>
+      <c r="BJ2" s="148"/>
+      <c r="BK2" s="148"/>
+      <c r="BL2" s="149"/>
+      <c r="BN2" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="BO2" s="142"/>
-      <c r="BP2" s="142"/>
-      <c r="BQ2" s="142"/>
-      <c r="BR2" s="142"/>
-      <c r="BS2" s="142"/>
-      <c r="BT2" s="143"/>
-      <c r="BV2" s="141" t="s">
+      <c r="BO2" s="148"/>
+      <c r="BP2" s="148"/>
+      <c r="BQ2" s="148"/>
+      <c r="BR2" s="148"/>
+      <c r="BS2" s="148"/>
+      <c r="BT2" s="149"/>
+      <c r="BV2" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="BW2" s="142"/>
-      <c r="BX2" s="142"/>
-      <c r="BY2" s="142"/>
-      <c r="BZ2" s="142"/>
-      <c r="CA2" s="142"/>
-      <c r="CB2" s="143"/>
-      <c r="CD2" s="141" t="s">
+      <c r="BW2" s="148"/>
+      <c r="BX2" s="148"/>
+      <c r="BY2" s="148"/>
+      <c r="BZ2" s="148"/>
+      <c r="CA2" s="148"/>
+      <c r="CB2" s="149"/>
+      <c r="CD2" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="CE2" s="142"/>
-      <c r="CF2" s="142"/>
-      <c r="CG2" s="142"/>
-      <c r="CH2" s="142"/>
-      <c r="CI2" s="142"/>
-      <c r="CJ2" s="143"/>
-      <c r="CL2" s="141" t="s">
+      <c r="CE2" s="148"/>
+      <c r="CF2" s="148"/>
+      <c r="CG2" s="148"/>
+      <c r="CH2" s="148"/>
+      <c r="CI2" s="148"/>
+      <c r="CJ2" s="149"/>
+      <c r="CL2" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="CM2" s="142"/>
-      <c r="CN2" s="142"/>
-      <c r="CO2" s="142"/>
-      <c r="CP2" s="142"/>
-      <c r="CQ2" s="142"/>
-      <c r="CR2" s="143"/>
-      <c r="CT2" s="141" t="s">
+      <c r="CM2" s="148"/>
+      <c r="CN2" s="148"/>
+      <c r="CO2" s="148"/>
+      <c r="CP2" s="148"/>
+      <c r="CQ2" s="148"/>
+      <c r="CR2" s="149"/>
+      <c r="CT2" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="CU2" s="142"/>
-      <c r="CV2" s="142"/>
-      <c r="CW2" s="142"/>
-      <c r="CX2" s="142"/>
-      <c r="CY2" s="142"/>
-      <c r="CZ2" s="143"/>
-      <c r="DB2" s="141" t="s">
+      <c r="CU2" s="148"/>
+      <c r="CV2" s="148"/>
+      <c r="CW2" s="148"/>
+      <c r="CX2" s="148"/>
+      <c r="CY2" s="148"/>
+      <c r="CZ2" s="149"/>
+      <c r="DB2" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="DC2" s="142"/>
-      <c r="DD2" s="142"/>
-      <c r="DE2" s="142"/>
-      <c r="DF2" s="142"/>
-      <c r="DG2" s="142"/>
-      <c r="DH2" s="143"/>
-      <c r="DJ2" s="141" t="s">
+      <c r="DC2" s="148"/>
+      <c r="DD2" s="148"/>
+      <c r="DE2" s="148"/>
+      <c r="DF2" s="148"/>
+      <c r="DG2" s="148"/>
+      <c r="DH2" s="149"/>
+      <c r="DJ2" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="DK2" s="142"/>
-      <c r="DL2" s="142"/>
-      <c r="DM2" s="142"/>
-      <c r="DN2" s="142"/>
-      <c r="DO2" s="142"/>
-      <c r="DP2" s="143"/>
-      <c r="DR2" s="141" t="s">
+      <c r="DK2" s="148"/>
+      <c r="DL2" s="148"/>
+      <c r="DM2" s="148"/>
+      <c r="DN2" s="148"/>
+      <c r="DO2" s="148"/>
+      <c r="DP2" s="149"/>
+      <c r="DR2" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="DS2" s="142"/>
-      <c r="DT2" s="142"/>
-      <c r="DU2" s="142"/>
-      <c r="DV2" s="142"/>
-      <c r="DW2" s="142"/>
-      <c r="DX2" s="143"/>
-      <c r="DZ2" s="141" t="s">
+      <c r="DS2" s="148"/>
+      <c r="DT2" s="148"/>
+      <c r="DU2" s="148"/>
+      <c r="DV2" s="148"/>
+      <c r="DW2" s="148"/>
+      <c r="DX2" s="149"/>
+      <c r="DZ2" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="EA2" s="142"/>
-      <c r="EB2" s="142"/>
-      <c r="EC2" s="142"/>
-      <c r="ED2" s="142"/>
-      <c r="EE2" s="142"/>
-      <c r="EF2" s="143"/>
+      <c r="EA2" s="148"/>
+      <c r="EB2" s="148"/>
+      <c r="EC2" s="148"/>
+      <c r="ED2" s="148"/>
+      <c r="EE2" s="148"/>
+      <c r="EF2" s="149"/>
     </row>
     <row r="3" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="144" t="s">
+      <c r="B3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="144"/>
-      <c r="G3" s="145" t="s">
+      <c r="F3" s="145"/>
+      <c r="G3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="J3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="144" t="s">
+      <c r="H3" s="144"/>
+      <c r="J3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="144"/>
-      <c r="O3" s="145" t="s">
+      <c r="N3" s="145"/>
+      <c r="O3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="146"/>
-      <c r="R3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="148"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="144" t="s">
+      <c r="P3" s="144"/>
+      <c r="R3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="144"/>
-      <c r="W3" s="145" t="s">
+      <c r="V3" s="145"/>
+      <c r="W3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="146"/>
-      <c r="Z3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="148"/>
-      <c r="AB3" s="148"/>
-      <c r="AC3" s="144" t="s">
+      <c r="X3" s="144"/>
+      <c r="Z3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="145" t="s">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="146"/>
-      <c r="AH3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="148"/>
-      <c r="AJ3" s="148"/>
-      <c r="AK3" s="144" t="s">
+      <c r="AF3" s="144"/>
+      <c r="AH3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="142"/>
+      <c r="AJ3" s="142"/>
+      <c r="AK3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="144"/>
-      <c r="AM3" s="145" t="s">
+      <c r="AL3" s="145"/>
+      <c r="AM3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="146"/>
-      <c r="AP3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="148"/>
-      <c r="AR3" s="148"/>
-      <c r="AS3" s="144" t="s">
+      <c r="AN3" s="144"/>
+      <c r="AP3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="142"/>
+      <c r="AR3" s="142"/>
+      <c r="AS3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="144"/>
-      <c r="AU3" s="145" t="s">
+      <c r="AT3" s="145"/>
+      <c r="AU3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="146"/>
-      <c r="AX3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="148"/>
-      <c r="AZ3" s="148"/>
-      <c r="BA3" s="144" t="s">
+      <c r="AV3" s="144"/>
+      <c r="AX3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="142"/>
+      <c r="AZ3" s="142"/>
+      <c r="BA3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BB3" s="144"/>
-      <c r="BC3" s="145" t="s">
+      <c r="BB3" s="145"/>
+      <c r="BC3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="146"/>
-      <c r="BF3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="148"/>
-      <c r="BH3" s="148"/>
-      <c r="BI3" s="144" t="s">
+      <c r="BD3" s="144"/>
+      <c r="BF3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="142"/>
+      <c r="BH3" s="142"/>
+      <c r="BI3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BJ3" s="144"/>
-      <c r="BK3" s="145" t="s">
+      <c r="BJ3" s="145"/>
+      <c r="BK3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="146"/>
-      <c r="BN3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="148"/>
-      <c r="BP3" s="148"/>
-      <c r="BQ3" s="144" t="s">
+      <c r="BL3" s="144"/>
+      <c r="BN3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="142"/>
+      <c r="BP3" s="142"/>
+      <c r="BQ3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="144"/>
-      <c r="BS3" s="145" t="s">
+      <c r="BR3" s="145"/>
+      <c r="BS3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="146"/>
-      <c r="BV3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="148"/>
-      <c r="BX3" s="148"/>
-      <c r="BY3" s="144" t="s">
+      <c r="BT3" s="144"/>
+      <c r="BV3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="142"/>
+      <c r="BX3" s="142"/>
+      <c r="BY3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BZ3" s="144"/>
-      <c r="CA3" s="145" t="s">
+      <c r="BZ3" s="145"/>
+      <c r="CA3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="146"/>
-      <c r="CD3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="148"/>
-      <c r="CF3" s="148"/>
-      <c r="CG3" s="144" t="s">
+      <c r="CB3" s="144"/>
+      <c r="CD3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="142"/>
+      <c r="CF3" s="142"/>
+      <c r="CG3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="CH3" s="144"/>
-      <c r="CI3" s="145" t="s">
+      <c r="CH3" s="145"/>
+      <c r="CI3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="CJ3" s="146"/>
-      <c r="CL3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="148"/>
-      <c r="CN3" s="148"/>
-      <c r="CO3" s="144" t="s">
+      <c r="CJ3" s="144"/>
+      <c r="CL3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="142"/>
+      <c r="CN3" s="142"/>
+      <c r="CO3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="CP3" s="144"/>
-      <c r="CQ3" s="145" t="s">
+      <c r="CP3" s="145"/>
+      <c r="CQ3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="CR3" s="146"/>
-      <c r="CT3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="148"/>
-      <c r="CV3" s="148"/>
-      <c r="CW3" s="144" t="s">
+      <c r="CR3" s="144"/>
+      <c r="CT3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="142"/>
+      <c r="CV3" s="142"/>
+      <c r="CW3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="CX3" s="144"/>
-      <c r="CY3" s="145" t="s">
+      <c r="CX3" s="145"/>
+      <c r="CY3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="CZ3" s="146"/>
-      <c r="DB3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="DC3" s="148"/>
-      <c r="DD3" s="148"/>
-      <c r="DE3" s="144" t="s">
+      <c r="CZ3" s="144"/>
+      <c r="DB3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="142"/>
+      <c r="DD3" s="142"/>
+      <c r="DE3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="DF3" s="144"/>
-      <c r="DG3" s="145" t="s">
+      <c r="DF3" s="145"/>
+      <c r="DG3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="DH3" s="146"/>
-      <c r="DJ3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="DK3" s="148"/>
-      <c r="DL3" s="148"/>
-      <c r="DM3" s="144" t="s">
+      <c r="DH3" s="144"/>
+      <c r="DJ3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="142"/>
+      <c r="DL3" s="142"/>
+      <c r="DM3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="DN3" s="144"/>
-      <c r="DO3" s="145" t="s">
+      <c r="DN3" s="145"/>
+      <c r="DO3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="DP3" s="146"/>
-      <c r="DR3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS3" s="148"/>
-      <c r="DT3" s="148"/>
-      <c r="DU3" s="144" t="s">
+      <c r="DP3" s="144"/>
+      <c r="DR3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS3" s="142"/>
+      <c r="DT3" s="142"/>
+      <c r="DU3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="DV3" s="144"/>
-      <c r="DW3" s="145" t="s">
+      <c r="DV3" s="145"/>
+      <c r="DW3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="DX3" s="146"/>
-      <c r="DZ3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="EA3" s="148"/>
-      <c r="EB3" s="148"/>
-      <c r="EC3" s="144" t="s">
+      <c r="DX3" s="144"/>
+      <c r="DZ3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="142"/>
+      <c r="EB3" s="142"/>
+      <c r="EC3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="ED3" s="144"/>
-      <c r="EE3" s="145" t="s">
+      <c r="ED3" s="145"/>
+      <c r="EE3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="EF3" s="146"/>
+      <c r="EF3" s="144"/>
     </row>
     <row r="4" spans="2:136" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -42522,16 +42554,52 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="DW3:DX3"/>
-    <mergeCell ref="DZ3:EB3"/>
-    <mergeCell ref="EC3:ED3"/>
-    <mergeCell ref="EE3:EF3"/>
-    <mergeCell ref="DG3:DH3"/>
-    <mergeCell ref="DJ3:DL3"/>
-    <mergeCell ref="DM3:DN3"/>
-    <mergeCell ref="DO3:DP3"/>
-    <mergeCell ref="DR3:DT3"/>
-    <mergeCell ref="DU3:DV3"/>
+    <mergeCell ref="CL2:CR2"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="Z2:AF2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AP2:AV2"/>
+    <mergeCell ref="AX2:BD2"/>
+    <mergeCell ref="BF2:BL2"/>
+    <mergeCell ref="BN2:BT2"/>
+    <mergeCell ref="BV2:CB2"/>
+    <mergeCell ref="CD2:CJ2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="DB2:DH2"/>
+    <mergeCell ref="DJ2:DP2"/>
+    <mergeCell ref="DR2:DX2"/>
+    <mergeCell ref="DZ2:EF2"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV3:BX3"/>
     <mergeCell ref="DE3:DF3"/>
     <mergeCell ref="CA3:CB3"/>
     <mergeCell ref="CD3:CF3"/>
@@ -42544,52 +42612,16 @@
     <mergeCell ref="CW3:CX3"/>
     <mergeCell ref="CY3:CZ3"/>
     <mergeCell ref="DB3:DD3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="DB2:DH2"/>
-    <mergeCell ref="DJ2:DP2"/>
-    <mergeCell ref="DR2:DX2"/>
-    <mergeCell ref="DZ2:EF2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="CL2:CR2"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="R2:X2"/>
-    <mergeCell ref="Z2:AF2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AP2:AV2"/>
-    <mergeCell ref="AX2:BD2"/>
-    <mergeCell ref="BF2:BL2"/>
-    <mergeCell ref="BN2:BT2"/>
-    <mergeCell ref="BV2:CB2"/>
-    <mergeCell ref="CD2:CJ2"/>
+    <mergeCell ref="DW3:DX3"/>
+    <mergeCell ref="DZ3:EB3"/>
+    <mergeCell ref="EC3:ED3"/>
+    <mergeCell ref="EE3:EF3"/>
+    <mergeCell ref="DG3:DH3"/>
+    <mergeCell ref="DJ3:DL3"/>
+    <mergeCell ref="DM3:DN3"/>
+    <mergeCell ref="DO3:DP3"/>
+    <mergeCell ref="DR3:DT3"/>
+    <mergeCell ref="DU3:DV3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43467,30 +43499,30 @@
     </row>
     <row r="38" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="3:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="C39" s="141" t="s">
+      <c r="C39" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="142"/>
-      <c r="E39" s="142"/>
-      <c r="F39" s="142"/>
-      <c r="G39" s="142"/>
-      <c r="H39" s="142"/>
-      <c r="I39" s="143"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="149"/>
     </row>
     <row r="40" spans="3:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="C40" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="148"/>
-      <c r="E40" s="148"/>
-      <c r="F40" s="144" t="s">
+      <c r="C40" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="142"/>
+      <c r="E40" s="142"/>
+      <c r="F40" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="144"/>
-      <c r="H40" s="145" t="s">
+      <c r="G40" s="145"/>
+      <c r="H40" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="146"/>
+      <c r="I40" s="144"/>
     </row>
     <row r="41" spans="3:9" ht="19" x14ac:dyDescent="0.25">
       <c r="C41" s="14" t="s">
@@ -45212,19 +45244,19 @@
       <c r="L39" s="152"/>
     </row>
     <row r="40" spans="6:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="F40" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="148"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="144" t="s">
+      <c r="F40" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="142"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="144"/>
-      <c r="K40" s="145" t="s">
+      <c r="J40" s="145"/>
+      <c r="K40" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="146"/>
+      <c r="L40" s="144"/>
     </row>
     <row r="41" spans="6:12" ht="19" x14ac:dyDescent="0.25">
       <c r="F41" s="14" t="s">

--- a/SALAMANCA UDS 2324.xlsx
+++ b/SALAMANCA UDS 2324.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PRETEMPORADA" sheetId="10" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3347" uniqueCount="200">
   <si>
     <t>Jugadores</t>
   </si>
@@ -978,6 +978,32 @@
       </rPr>
       <t xml:space="preserve"> 21/10/2023</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1/11/2023</t>
+    </r>
+  </si>
+  <si>
+    <t>CRISTO ATLÉTICO PALENCIA</t>
   </si>
 </sst>
 </file>
@@ -1917,6 +1943,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1929,16 +1967,22 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1947,25 +1991,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2574,42 +2600,42 @@
       </c>
     </row>
     <row r="3" spans="2:24" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135" t="s">
+      <c r="B3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="136"/>
-      <c r="H3" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="135" t="s">
+      <c r="F3" s="140"/>
+      <c r="H3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="136"/>
-      <c r="N3" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="135" t="s">
+      <c r="L3" s="140"/>
+      <c r="N3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="136"/>
-      <c r="T3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="138"/>
-      <c r="V3" s="138"/>
-      <c r="W3" s="139" t="s">
+      <c r="R3" s="140"/>
+      <c r="T3" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="140"/>
+      <c r="X3" s="136"/>
     </row>
     <row r="4" spans="2:24" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -3945,18 +3971,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3968,7 +3994,7 @@
   <dimension ref="A1:N2752"/>
   <sheetViews>
     <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4130,7 +4156,7 @@
       </c>
       <c r="K4" s="53" t="str">
         <f>IF(H4="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F4,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="M4" t="str">
         <f>IF(H4="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B4,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4138,7 +4164,7 @@
       </c>
       <c r="N4" t="str">
         <f>IF(H4="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F4,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -4170,7 +4196,7 @@
       </c>
       <c r="K5" s="53" t="str">
         <f>IF(H5="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F5,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="M5" t="str">
         <f>IF(H5="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B5,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4178,7 +4204,7 @@
       </c>
       <c r="N5" t="str">
         <f>IF(H5="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F5,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>Pos.5(2)</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -4246,19 +4272,19 @@
       </c>
       <c r="J7" s="53" t="str">
         <f>IF(H7="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B7,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>-</v>
       </c>
       <c r="K7" s="53" t="str">
         <f>IF(H7="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F7,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="M7" t="str">
         <f>IF(H7="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B7,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>-</v>
       </c>
       <c r="N7" t="str">
         <f>IF(H7="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F7,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -4286,7 +4312,7 @@
       </c>
       <c r="J8" s="53" t="str">
         <f>IF(H8="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B8,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="K8" s="53" t="str">
         <f>IF(H8="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F8,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4294,7 +4320,7 @@
       </c>
       <c r="M8" t="str">
         <f>IF(H8="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B8,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="N8" t="str">
         <f>IF(H8="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F8,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4366,7 +4392,7 @@
       </c>
       <c r="J10" s="53" t="str">
         <f>IF(H10="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B10,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>-</v>
       </c>
       <c r="K10" s="53" t="str">
         <f>IF(H10="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F10,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4374,7 +4400,7 @@
       </c>
       <c r="M10" t="str">
         <f>IF(H10="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B10,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>-</v>
       </c>
       <c r="N10" t="str">
         <f>IF(H10="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F10,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4410,7 +4436,7 @@
       </c>
       <c r="K11" s="53" t="str">
         <f>IF(H11="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F11,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>-</v>
       </c>
       <c r="M11" t="str">
         <f>IF(H11="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B11,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4418,7 +4444,7 @@
       </c>
       <c r="N11" t="str">
         <f>IF(H11="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F11,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -4450,7 +4476,7 @@
       </c>
       <c r="K12" s="53" t="str">
         <f>IF(H12="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F12,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>-</v>
       </c>
       <c r="M12" t="str">
         <f>IF(H12="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B12,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4458,7 +4484,7 @@
       </c>
       <c r="N12" t="str">
         <f>IF(H12="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F12,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -4530,7 +4556,7 @@
       </c>
       <c r="K14" s="53" t="str">
         <f>IF(H14="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F14,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="M14" t="str">
         <f>IF(H14="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B14,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4538,7 +4564,7 @@
       </c>
       <c r="N14" t="str">
         <f>IF(H14="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F14,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.10(2)</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -4566,7 +4592,7 @@
       </c>
       <c r="J15" s="53" t="str">
         <f>IF(H15="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B15,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="K15" s="53" t="str">
         <f>IF(H15="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F15,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4574,7 +4600,7 @@
       </c>
       <c r="M15" t="str">
         <f>IF(H15="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B15,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="N15" t="str">
         <f>IF(H15="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F15,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4646,7 +4672,7 @@
       </c>
       <c r="J17" s="53" t="str">
         <f>IF(H17="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B17,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="K17" s="53" t="str">
         <f>IF(H17="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F17,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4654,7 +4680,7 @@
       </c>
       <c r="M17" t="str">
         <f>IF(H17="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B17,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="N17" t="str">
         <f>IF(H17="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F17,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4726,7 +4752,7 @@
       </c>
       <c r="J19" s="53" t="str">
         <f>IF(H19="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B19,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="K19" s="53" t="str">
         <f>IF(H19="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F19,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4734,7 +4760,7 @@
       </c>
       <c r="M19" t="str">
         <f>IF(H19="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B19,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="N19" t="str">
         <f>IF(H19="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F19,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4850,7 +4876,7 @@
       </c>
       <c r="K22" s="53" t="str">
         <f>IF(H22="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F22,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="M22" t="str">
         <f>IF(H22="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B22,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4858,7 +4884,7 @@
       </c>
       <c r="N22" t="str">
         <f>IF(H22="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F22,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -4926,19 +4952,19 @@
       </c>
       <c r="J24" s="53" t="str">
         <f>IF(H24="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B24,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>-</v>
       </c>
       <c r="K24" s="53" t="str">
         <f>IF(H24="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F24,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="M24" t="str">
         <f>IF(H24="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B24,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>-</v>
       </c>
       <c r="N24" t="str">
         <f>IF(H24="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F24,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -5046,7 +5072,7 @@
       </c>
       <c r="J27" s="53" t="str">
         <f>IF(H27="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B27,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="K27" s="53" t="str">
         <f>IF(H27="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F27,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5054,7 +5080,7 @@
       </c>
       <c r="M27" t="str">
         <f>IF(H27="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B27,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="N27" t="str">
         <f>IF(H27="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F27,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5086,19 +5112,19 @@
       </c>
       <c r="J28" s="53" t="str">
         <f>IF(H28="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B28,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>-</v>
       </c>
       <c r="K28" s="53" t="str">
         <f>IF(H28="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F28,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="M28" t="str">
         <f>IF(H28="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B28,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>-</v>
       </c>
       <c r="N28" t="str">
         <f>IF(H28="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F28,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>Pos.5(2)</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -5130,7 +5156,7 @@
       </c>
       <c r="K29" s="53" t="str">
         <f>IF(H29="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F29,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="M29" t="str">
         <f>IF(H29="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B29,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5138,7 +5164,7 @@
       </c>
       <c r="N29" t="str">
         <f>IF(H29="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F29,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.10(2)</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -5202,7 +5228,7 @@
       </c>
       <c r="J31" s="53" t="str">
         <f>IF(H31="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B31,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="K31" s="53" t="str">
         <f>IF(H31="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F31,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5210,7 +5236,7 @@
       </c>
       <c r="M31" t="str">
         <f>IF(H31="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B31,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="N31" t="str">
         <f>IF(H31="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F31,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5242,19 +5268,19 @@
       </c>
       <c r="J32" s="53" t="str">
         <f>IF(H32="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B32,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="K32" s="53" t="str">
         <f>IF(H32="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F32,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>-</v>
       </c>
       <c r="M32" t="str">
         <f>IF(H32="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B32,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="N32" t="str">
         <f>IF(H32="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F32,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -5322,7 +5348,7 @@
       </c>
       <c r="J34" s="53" t="str">
         <f>IF(H34="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B34,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="K34" s="53" t="str">
         <f>IF(H34="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F34,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5330,7 +5356,7 @@
       </c>
       <c r="M34" t="str">
         <f>IF(H34="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B34,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="N34" t="str">
         <f>IF(H34="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F34,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5366,7 +5392,7 @@
       </c>
       <c r="K35" s="53" t="str">
         <f>IF(H35="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F35,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>-</v>
       </c>
       <c r="M35" t="str">
         <f>IF(H35="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B35,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5374,7 +5400,7 @@
       </c>
       <c r="N35" t="str">
         <f>IF(H35="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F35,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -5526,7 +5552,7 @@
       </c>
       <c r="K39" s="53" t="str">
         <f>IF(H39="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F39,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="M39" t="str">
         <f>IF(H39="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B39,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5534,7 +5560,7 @@
       </c>
       <c r="N39" t="str">
         <f>IF(H39="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F39,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>Pos.5(2)</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -5566,7 +5592,7 @@
       </c>
       <c r="K40" s="53" t="str">
         <f>IF(H40="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F40,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="M40" t="str">
         <f>IF(H40="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B40,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5574,7 +5600,7 @@
       </c>
       <c r="N40" t="str">
         <f>IF(H40="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F40,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -5602,7 +5628,7 @@
       </c>
       <c r="J41" s="53" t="str">
         <f>IF(H41="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B41,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>-</v>
       </c>
       <c r="K41" s="53" t="str">
         <f>IF(H41="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F41,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5610,7 +5636,7 @@
       </c>
       <c r="M41" t="str">
         <f>IF(H41="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B41,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>-</v>
       </c>
       <c r="N41" t="str">
         <f>IF(H41="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F41,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5646,7 +5672,7 @@
       </c>
       <c r="K42" s="53" t="str">
         <f>IF(H42="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F42,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="M42" t="str">
         <f>IF(H42="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B42,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5654,7 +5680,7 @@
       </c>
       <c r="N42" t="str">
         <f>IF(H42="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F42,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -5722,7 +5748,7 @@
       </c>
       <c r="J44" s="53" t="str">
         <f>IF(H44="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B44,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>-</v>
       </c>
       <c r="K44" s="53" t="str">
         <f>IF(H44="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F44,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5730,7 +5756,7 @@
       </c>
       <c r="M44" t="str">
         <f>IF(H44="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B44,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>-</v>
       </c>
       <c r="N44" t="str">
         <f>IF(H44="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F44,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5802,7 +5828,7 @@
       </c>
       <c r="J46" s="53" t="str">
         <f>IF(H46="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B46,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="K46" s="53" t="str">
         <f>IF(H46="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F46,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5810,7 +5836,7 @@
       </c>
       <c r="M46" t="str">
         <f>IF(H46="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B46,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="N46" t="str">
         <f>IF(H46="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F46,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5846,7 +5872,7 @@
       </c>
       <c r="K47" s="53" t="str">
         <f>IF(H47="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F47,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="M47" t="str">
         <f>IF(H47="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B47,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5854,7 +5880,7 @@
       </c>
       <c r="N47" t="str">
         <f>IF(H47="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F47,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.10(2)</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -5882,7 +5908,7 @@
       </c>
       <c r="J48" s="53" t="str">
         <f>IF(H48="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B48,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="K48" s="53" t="str">
         <f>IF(H48="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F48,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5890,7 +5916,7 @@
       </c>
       <c r="M48" t="str">
         <f>IF(H48="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B48,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="N48" t="str">
         <f>IF(H48="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F48,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5922,7 +5948,7 @@
       </c>
       <c r="J49" s="53" t="str">
         <f>IF(H49="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B49,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="K49" s="53" t="str">
         <f>IF(H49="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F49,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5930,7 +5956,7 @@
       </c>
       <c r="M49" t="str">
         <f>IF(H49="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B49,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="N49" t="str">
         <f>IF(H49="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F49,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6002,19 +6028,19 @@
       </c>
       <c r="J51" s="53" t="str">
         <f>IF(H51="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B51,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="K51" s="53" t="str">
         <f>IF(H51="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F51,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>-</v>
       </c>
       <c r="M51" t="str">
         <f>IF(H51="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B51,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="N51" t="str">
         <f>IF(H51="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F51,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -6126,7 +6152,7 @@
       </c>
       <c r="K54" s="53" t="str">
         <f>IF(H54="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F54,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>-</v>
       </c>
       <c r="M54" t="str">
         <f>IF(H54="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B54,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6134,7 +6160,7 @@
       </c>
       <c r="N54" t="str">
         <f>IF(H54="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F54,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6206,7 +6232,7 @@
       </c>
       <c r="K56" s="53" t="str">
         <f>IF(H56="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F56,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="M56" t="str">
         <f>IF(H56="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B56,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6214,7 +6240,7 @@
       </c>
       <c r="N56" t="str">
         <f>IF(H56="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F56,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>Pos.5(2)</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -6246,7 +6272,7 @@
       </c>
       <c r="K57" s="53" t="str">
         <f>IF(H57="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F57,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="M57" t="str">
         <f>IF(H57="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B57,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6254,7 +6280,7 @@
       </c>
       <c r="N57" t="str">
         <f>IF(H57="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F57,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -6326,7 +6352,7 @@
       </c>
       <c r="K59" s="53" t="str">
         <f>IF(H59="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F59,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="M59" t="str">
         <f>IF(H59="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B59,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6334,7 +6360,7 @@
       </c>
       <c r="N59" t="str">
         <f>IF(H59="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F59,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -6362,7 +6388,7 @@
       </c>
       <c r="J60" s="53" t="str">
         <f>IF(H60="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B60,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>-</v>
       </c>
       <c r="K60" s="53" t="str">
         <f>IF(H60="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F60,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6370,7 +6396,7 @@
       </c>
       <c r="M60" t="str">
         <f>IF(H60="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B60,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>-</v>
       </c>
       <c r="N60" t="str">
         <f>IF(H60="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F60,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6482,7 +6508,7 @@
       </c>
       <c r="J63" s="53" t="str">
         <f>IF(H63="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B63,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>-</v>
       </c>
       <c r="K63" s="53" t="str">
         <f>IF(H63="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F63,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6490,7 +6516,7 @@
       </c>
       <c r="M63" t="str">
         <f>IF(H63="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B63,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>-</v>
       </c>
       <c r="N63" t="str">
         <f>IF(H63="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F63,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6522,7 +6548,7 @@
       </c>
       <c r="J64" s="53" t="str">
         <f>IF(H64="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B64,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="K64" s="53" t="str">
         <f>IF(H64="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F64,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6530,7 +6556,7 @@
       </c>
       <c r="M64" t="str">
         <f>IF(H64="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B64,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="N64" t="str">
         <f>IF(H64="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F64,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6544,33 +6570,37 @@
       <c r="B65" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="C65" s="78"/>
+      <c r="C65" s="78">
+        <v>1</v>
+      </c>
       <c r="D65" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="E65" s="78"/>
+      <c r="E65" s="78">
+        <v>1</v>
+      </c>
       <c r="F65" s="79" t="s">
         <v>129</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Empate</v>
       </c>
       <c r="J65" s="53" t="str">
         <f>IF(H65="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B65,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="K65" s="53" t="str">
         <f>IF(H65="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F65,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="M65" t="str">
         <f>IF(H65="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B65,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="N65" t="str">
         <f>IF(H65="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F65,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
@@ -6598,7 +6628,7 @@
       </c>
       <c r="J66" s="53" t="str">
         <f>IF(H66="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B66,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="K66" s="53" t="str">
         <f>IF(H66="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F66,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6606,7 +6636,7 @@
       </c>
       <c r="M66" t="str">
         <f>IF(H66="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B66,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="N66" t="str">
         <f>IF(H66="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F66,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6678,7 +6708,7 @@
       </c>
       <c r="J68" s="53" t="str">
         <f>IF(H68="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B68,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="K68" s="53" t="str">
         <f>IF(H68="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F68,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6686,7 +6716,7 @@
       </c>
       <c r="M68" t="str">
         <f>IF(H68="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B68,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="N68" t="str">
         <f>IF(H68="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F68,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6762,7 +6792,7 @@
       </c>
       <c r="K70" s="53" t="str">
         <f>IF(H70="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F70,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>-</v>
       </c>
       <c r="M70" t="str">
         <f>IF(H70="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B70,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6770,7 +6800,7 @@
       </c>
       <c r="N70" t="str">
         <f>IF(H70="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F70,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.11(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -6882,7 +6912,7 @@
       </c>
       <c r="K73" s="53" t="str">
         <f>IF(H73="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F73,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>-</v>
       </c>
       <c r="M73" t="str">
         <f>IF(H73="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B73,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6890,7 +6920,7 @@
       </c>
       <c r="N73" t="str">
         <f>IF(H73="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F73,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.6(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
@@ -23208,62 +23238,62 @@
       </c>
       <c r="J5" s="53">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.11(2)</v>
+        <v>-</v>
       </c>
       <c r="L5" s="64"/>
-      <c r="M5" s="53">
+      <c r="M5" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="53">
+        <v>-</v>
+      </c>
+      <c r="N5" s="53" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="53">
+        <v>-</v>
+      </c>
+      <c r="O5" s="53" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="53">
+        <v>-</v>
+      </c>
+      <c r="P5" s="53" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="Q5" s="53">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R5" s="53" t="str">
         <f>IF(COUNTIF(Q$2:Q$19,Q5)=1,"-","Pos."&amp;Q5&amp;"("&amp;COUNTIF(Q$2:Q$19,Q5)&amp;")")</f>
-        <v>Pos.11(2)</v>
+        <v>-</v>
       </c>
       <c r="S5" s="65"/>
-      <c r="T5" s="53">
+      <c r="T5" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="53">
+        <v>-</v>
+      </c>
+      <c r="U5" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="53">
+        <v>-</v>
+      </c>
+      <c r="V5" s="53" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W5" s="53">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X5" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.11(2)</v>
+        <v>-</v>
       </c>
       <c r="Y5" s="63"/>
-      <c r="Z5" s="53">
+      <c r="Z5" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>-7</v>
+        <v>-</v>
       </c>
       <c r="AA5" s="53">
         <f t="shared" si="22"/>
@@ -23338,24 +23368,24 @@
       </c>
       <c r="K6" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="L6" s="64"/>
-      <c r="M6" s="53" t="str">
+      <c r="M6" s="53">
         <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="N6" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="N6" s="53">
         <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="O6" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="O6" s="53">
         <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="P6" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="P6" s="53">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="53">
         <f t="shared" si="15"/>
@@ -23363,20 +23393,20 @@
       </c>
       <c r="R6" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="S6" s="65"/>
-      <c r="T6" s="53" t="str">
+      <c r="T6" s="53">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="U6" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="U6" s="53">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V6" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="V6" s="53">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="W6" s="53">
         <f>Q6+COUNTIFS(R$2:R$19,R6,V$2:V$19,"&gt;"&amp;V6)</f>
@@ -23384,16 +23414,16 @@
       </c>
       <c r="X6" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="Y6" s="63"/>
-      <c r="Z6" s="53" t="str">
+      <c r="Z6" s="53">
         <f t="shared" si="21"/>
-        <v>-</v>
+        <v>5</v>
       </c>
       <c r="AA6" s="53">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB6" s="53" t="str">
         <f t="shared" si="23"/>
@@ -23406,7 +23436,7 @@
       </c>
       <c r="AE6" s="53">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF6" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23419,7 +23449,7 @@
       </c>
       <c r="AI6" s="53">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
@@ -24310,7 +24340,7 @@
       </c>
       <c r="B14" s="53">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="53">
         <f t="shared" si="0"/>
@@ -24318,7 +24348,7 @@
       </c>
       <c r="D14" s="53">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" s="53">
         <f t="shared" si="2"/>
@@ -24326,11 +24356,11 @@
       </c>
       <c r="F14" s="53">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G14" s="53">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H14" s="53">
         <f t="shared" si="9"/>
@@ -24338,15 +24368,15 @@
       </c>
       <c r="I14" s="53">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J14" s="53">
         <f t="shared" si="11"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K14" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.11(2)</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="L14" s="64"/>
       <c r="M14" s="53">
@@ -24367,11 +24397,11 @@
       </c>
       <c r="Q14" s="53">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R14" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.11(2)</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="S14" s="65"/>
       <c r="T14" s="53">
@@ -24388,11 +24418,11 @@
       </c>
       <c r="W14" s="53">
         <f t="shared" si="19"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X14" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.11(2)</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="Y14" s="63"/>
       <c r="Z14" s="53">
@@ -24401,7 +24431,7 @@
       </c>
       <c r="AA14" s="53">
         <f t="shared" si="22"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB14" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24414,7 +24444,7 @@
       </c>
       <c r="AE14" s="53">
         <f t="shared" si="25"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF14" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24427,7 +24457,7 @@
       </c>
       <c r="AI14" s="53">
         <f t="shared" si="28"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
@@ -24688,7 +24718,7 @@
       </c>
       <c r="B17" s="53">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" s="53">
         <f t="shared" si="0"/>
@@ -24696,7 +24726,7 @@
       </c>
       <c r="D17" s="53">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="53">
         <f t="shared" si="2"/>
@@ -24704,11 +24734,11 @@
       </c>
       <c r="F17" s="53">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" s="53">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" s="53">
         <f t="shared" si="9"/>
@@ -24716,15 +24746,15 @@
       </c>
       <c r="I17" s="53">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J17" s="53">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K17" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.6(2)</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="L17" s="64"/>
       <c r="M17" s="53">
@@ -24745,11 +24775,11 @@
       </c>
       <c r="Q17" s="53">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.6(2)</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="S17" s="65"/>
       <c r="T17" s="53">
@@ -24766,11 +24796,11 @@
       </c>
       <c r="W17" s="53">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X17" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.6(2)</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="Y17" s="63"/>
       <c r="Z17" s="53">
@@ -24779,7 +24809,7 @@
       </c>
       <c r="AA17" s="53">
         <f t="shared" si="22"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB17" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24792,7 +24822,7 @@
       </c>
       <c r="AE17" s="53">
         <f t="shared" si="25"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF17" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24805,7 +24835,7 @@
       </c>
       <c r="AI17" s="53">
         <f t="shared" si="28"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
@@ -24850,24 +24880,24 @@
       </c>
       <c r="K18" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="L18" s="64"/>
-      <c r="M18" s="53" t="str">
+      <c r="M18" s="53">
         <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="N18" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="N18" s="53">
         <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="O18" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="O18" s="53">
         <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="P18" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="P18" s="53">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="53">
         <f t="shared" si="15"/>
@@ -24875,20 +24905,20 @@
       </c>
       <c r="R18" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="S18" s="65"/>
-      <c r="T18" s="53" t="str">
+      <c r="T18" s="53">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="U18" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="U18" s="53">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V18" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="V18" s="53">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="W18" s="53">
         <f t="shared" si="19"/>
@@ -24896,16 +24926,16 @@
       </c>
       <c r="X18" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="Y18" s="63"/>
-      <c r="Z18" s="53" t="str">
+      <c r="Z18" s="53">
         <f t="shared" si="21"/>
-        <v>-</v>
+        <v>-3</v>
       </c>
       <c r="AA18" s="53">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB18" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24918,7 +24948,7 @@
       </c>
       <c r="AE18" s="53">
         <f t="shared" si="25"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF18" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24931,7 +24961,7 @@
       </c>
       <c r="AI18" s="53">
         <f t="shared" si="28"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
@@ -24972,62 +25002,62 @@
       </c>
       <c r="J19" s="53">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K19" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.6(2)</v>
+        <v>-</v>
       </c>
       <c r="L19" s="64"/>
-      <c r="M19" s="53">
+      <c r="M19" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="53">
+        <v>-</v>
+      </c>
+      <c r="N19" s="53" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="53">
+        <v>-</v>
+      </c>
+      <c r="O19" s="53" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="53">
+        <v>-</v>
+      </c>
+      <c r="P19" s="53" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="Q19" s="53">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R19" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.6(2)</v>
+        <v>-</v>
       </c>
       <c r="S19" s="65"/>
-      <c r="T19" s="53">
+      <c r="T19" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="53">
+        <v>-</v>
+      </c>
+      <c r="U19" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V19" s="53">
+        <v>-</v>
+      </c>
+      <c r="V19" s="53" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W19" s="53">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X19" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.6(2)</v>
+        <v>-</v>
       </c>
       <c r="Y19" s="63"/>
-      <c r="Z19" s="53">
+      <c r="Z19" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>-</v>
       </c>
       <c r="AA19" s="53">
         <f t="shared" si="22"/>
@@ -25072,7 +25102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -25284,7 +25314,7 @@
       </c>
       <c r="B6" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Burgos CF B</v>
+        <v>Salamanca UDS</v>
       </c>
       <c r="C6" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25308,15 +25338,15 @@
       </c>
       <c r="H6" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I6" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -25325,15 +25355,15 @@
       </c>
       <c r="B7" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Salamanca UDS</v>
+        <v>Burgos CF B</v>
       </c>
       <c r="C7" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25341,7 +25371,7 @@
       </c>
       <c r="F7" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25349,15 +25379,15 @@
       </c>
       <c r="H7" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I7" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -25489,7 +25519,7 @@
       </c>
       <c r="B11" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>SD Almazán</v>
+        <v>Palencia Cristo Atlético</v>
       </c>
       <c r="C11" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25501,27 +25531,27 @@
       </c>
       <c r="E11" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G11" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H11" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I11" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J11" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -25530,39 +25560,39 @@
       </c>
       <c r="B12" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Palencia Cristo Atlético</v>
+        <v>SD Almazán</v>
       </c>
       <c r="C12" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H12" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I12" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J12" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -27345,192 +27375,192 @@
       <c r="AF2" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="AH2" s="147" t="s">
+      <c r="AH2" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="148"/>
-      <c r="AJ2" s="148"/>
-      <c r="AK2" s="148"/>
-      <c r="AL2" s="148"/>
-      <c r="AM2" s="148"/>
-      <c r="AN2" s="149"/>
-      <c r="AP2" s="147" t="s">
+      <c r="AI2" s="142"/>
+      <c r="AJ2" s="142"/>
+      <c r="AK2" s="142"/>
+      <c r="AL2" s="142"/>
+      <c r="AM2" s="142"/>
+      <c r="AN2" s="143"/>
+      <c r="AP2" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="AQ2" s="148"/>
-      <c r="AR2" s="148"/>
-      <c r="AS2" s="148"/>
-      <c r="AT2" s="148"/>
-      <c r="AU2" s="148"/>
-      <c r="AV2" s="149"/>
-      <c r="AX2" s="147" t="s">
+      <c r="AQ2" s="142"/>
+      <c r="AR2" s="142"/>
+      <c r="AS2" s="142"/>
+      <c r="AT2" s="142"/>
+      <c r="AU2" s="142"/>
+      <c r="AV2" s="143"/>
+      <c r="AX2" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="AY2" s="148"/>
-      <c r="AZ2" s="148"/>
-      <c r="BA2" s="148"/>
-      <c r="BB2" s="148"/>
-      <c r="BC2" s="148"/>
-      <c r="BD2" s="149"/>
-      <c r="BF2" s="147" t="s">
+      <c r="AY2" s="142"/>
+      <c r="AZ2" s="142"/>
+      <c r="BA2" s="142"/>
+      <c r="BB2" s="142"/>
+      <c r="BC2" s="142"/>
+      <c r="BD2" s="143"/>
+      <c r="BF2" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="BG2" s="148"/>
-      <c r="BH2" s="148"/>
-      <c r="BI2" s="148"/>
-      <c r="BJ2" s="148"/>
-      <c r="BK2" s="148"/>
-      <c r="BL2" s="149"/>
-      <c r="BN2" s="147" t="s">
+      <c r="BG2" s="142"/>
+      <c r="BH2" s="142"/>
+      <c r="BI2" s="142"/>
+      <c r="BJ2" s="142"/>
+      <c r="BK2" s="142"/>
+      <c r="BL2" s="143"/>
+      <c r="BN2" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="BO2" s="148"/>
-      <c r="BP2" s="148"/>
-      <c r="BQ2" s="148"/>
-      <c r="BR2" s="148"/>
-      <c r="BS2" s="148"/>
-      <c r="BT2" s="149"/>
-      <c r="BV2" s="147" t="s">
+      <c r="BO2" s="142"/>
+      <c r="BP2" s="142"/>
+      <c r="BQ2" s="142"/>
+      <c r="BR2" s="142"/>
+      <c r="BS2" s="142"/>
+      <c r="BT2" s="143"/>
+      <c r="BV2" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="BW2" s="148"/>
-      <c r="BX2" s="148"/>
-      <c r="BY2" s="148"/>
-      <c r="BZ2" s="148"/>
-      <c r="CA2" s="148"/>
-      <c r="CB2" s="149"/>
+      <c r="BW2" s="142"/>
+      <c r="BX2" s="142"/>
+      <c r="BY2" s="142"/>
+      <c r="BZ2" s="142"/>
+      <c r="CA2" s="142"/>
+      <c r="CB2" s="143"/>
     </row>
     <row r="3" spans="2:80" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="146" t="s">
+      <c r="B3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="146"/>
-      <c r="G3" s="135" t="s">
+      <c r="F3" s="149"/>
+      <c r="G3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="J3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="145" t="s">
+      <c r="H3" s="140"/>
+      <c r="J3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="145"/>
-      <c r="O3" s="143" t="s">
+      <c r="N3" s="144"/>
+      <c r="O3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="144"/>
-      <c r="R3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="145" t="s">
+      <c r="P3" s="146"/>
+      <c r="R3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="145"/>
-      <c r="W3" s="143" t="s">
+      <c r="V3" s="144"/>
+      <c r="W3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="144"/>
-      <c r="Z3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="145" t="s">
+      <c r="X3" s="146"/>
+      <c r="Z3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="143" t="s">
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="144"/>
-      <c r="AH3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="142"/>
-      <c r="AJ3" s="142"/>
-      <c r="AK3" s="145" t="s">
+      <c r="AF3" s="146"/>
+      <c r="AH3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="148"/>
+      <c r="AJ3" s="148"/>
+      <c r="AK3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="145"/>
-      <c r="AM3" s="143" t="s">
+      <c r="AL3" s="144"/>
+      <c r="AM3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="144"/>
-      <c r="AP3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="142"/>
-      <c r="AR3" s="142"/>
-      <c r="AS3" s="145" t="s">
+      <c r="AN3" s="146"/>
+      <c r="AP3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="148"/>
+      <c r="AR3" s="148"/>
+      <c r="AS3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="145"/>
-      <c r="AU3" s="143" t="s">
+      <c r="AT3" s="144"/>
+      <c r="AU3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="144"/>
-      <c r="AX3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="142"/>
-      <c r="AZ3" s="142"/>
-      <c r="BA3" s="145" t="s">
+      <c r="AV3" s="146"/>
+      <c r="AX3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="148"/>
+      <c r="AZ3" s="148"/>
+      <c r="BA3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BB3" s="145"/>
-      <c r="BC3" s="143" t="s">
+      <c r="BB3" s="144"/>
+      <c r="BC3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="144"/>
-      <c r="BF3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="142"/>
-      <c r="BH3" s="142"/>
-      <c r="BI3" s="145" t="s">
+      <c r="BD3" s="146"/>
+      <c r="BF3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="148"/>
+      <c r="BH3" s="148"/>
+      <c r="BI3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BJ3" s="145"/>
-      <c r="BK3" s="143" t="s">
+      <c r="BJ3" s="144"/>
+      <c r="BK3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="144"/>
-      <c r="BN3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="142"/>
-      <c r="BP3" s="142"/>
-      <c r="BQ3" s="145" t="s">
+      <c r="BL3" s="146"/>
+      <c r="BN3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="148"/>
+      <c r="BP3" s="148"/>
+      <c r="BQ3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="145"/>
-      <c r="BS3" s="143" t="s">
+      <c r="BR3" s="144"/>
+      <c r="BS3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="144"/>
-      <c r="BV3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="142"/>
-      <c r="BX3" s="142"/>
-      <c r="BY3" s="145" t="s">
+      <c r="BT3" s="146"/>
+      <c r="BV3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="148"/>
+      <c r="BX3" s="148"/>
+      <c r="BY3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BZ3" s="145"/>
-      <c r="CA3" s="143" t="s">
+      <c r="BZ3" s="144"/>
+      <c r="CA3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="144"/>
+      <c r="CB3" s="146"/>
     </row>
     <row r="4" spans="2:80" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -30048,12 +30078,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="AX2:BD2"/>
-    <mergeCell ref="BF2:BL2"/>
-    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="BN2:BT2"/>
     <mergeCell ref="BV2:CB2"/>
     <mergeCell ref="AH2:AN2"/>
@@ -30070,24 +30112,12 @@
     <mergeCell ref="AX3:AZ3"/>
     <mergeCell ref="BA3:BB3"/>
     <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="AX2:BD2"/>
+    <mergeCell ref="BF2:BL2"/>
+    <mergeCell ref="AA2:AE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31334,19 +31364,19 @@
       <c r="L39" s="152"/>
     </row>
     <row r="40" spans="6:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="F40" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="142"/>
-      <c r="H40" s="142"/>
-      <c r="I40" s="145" t="s">
+      <c r="F40" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="145"/>
-      <c r="K40" s="143" t="s">
+      <c r="J40" s="144"/>
+      <c r="K40" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="144"/>
+      <c r="L40" s="146"/>
     </row>
     <row r="41" spans="6:23" ht="19" x14ac:dyDescent="0.25">
       <c r="F41" s="14" t="s">
@@ -32024,8 +32054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:EF25"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AZ28" sqref="AZ28"/>
+    <sheetView topLeftCell="AV1" workbookViewId="0">
+      <selection activeCell="BH26" sqref="BH26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32064,7 +32094,7 @@
     <col min="53" max="53" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="54" max="55" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="17" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19" bestFit="1" customWidth="1"/>
     <col min="59" max="60" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="62" max="63" width="7.33203125" bestFit="1" customWidth="1"/>
@@ -32209,319 +32239,323 @@
       <c r="BD2" s="123" t="s">
         <v>196</v>
       </c>
-      <c r="BF2" s="147" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" s="148"/>
-      <c r="BH2" s="148"/>
-      <c r="BI2" s="148"/>
-      <c r="BJ2" s="148"/>
-      <c r="BK2" s="148"/>
-      <c r="BL2" s="149"/>
-      <c r="BN2" s="147" t="s">
+      <c r="BF2" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="BG2" s="132" t="s">
+        <v>199</v>
+      </c>
+      <c r="BH2" s="132"/>
+      <c r="BI2" s="132"/>
+      <c r="BJ2" s="132"/>
+      <c r="BK2" s="132"/>
+      <c r="BL2" s="131" t="s">
+        <v>80</v>
+      </c>
+      <c r="BN2" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="BO2" s="148"/>
-      <c r="BP2" s="148"/>
-      <c r="BQ2" s="148"/>
-      <c r="BR2" s="148"/>
-      <c r="BS2" s="148"/>
-      <c r="BT2" s="149"/>
-      <c r="BV2" s="147" t="s">
+      <c r="BO2" s="142"/>
+      <c r="BP2" s="142"/>
+      <c r="BQ2" s="142"/>
+      <c r="BR2" s="142"/>
+      <c r="BS2" s="142"/>
+      <c r="BT2" s="143"/>
+      <c r="BV2" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="BW2" s="148"/>
-      <c r="BX2" s="148"/>
-      <c r="BY2" s="148"/>
-      <c r="BZ2" s="148"/>
-      <c r="CA2" s="148"/>
-      <c r="CB2" s="149"/>
-      <c r="CD2" s="147" t="s">
+      <c r="BW2" s="142"/>
+      <c r="BX2" s="142"/>
+      <c r="BY2" s="142"/>
+      <c r="BZ2" s="142"/>
+      <c r="CA2" s="142"/>
+      <c r="CB2" s="143"/>
+      <c r="CD2" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="CE2" s="148"/>
-      <c r="CF2" s="148"/>
-      <c r="CG2" s="148"/>
-      <c r="CH2" s="148"/>
-      <c r="CI2" s="148"/>
-      <c r="CJ2" s="149"/>
-      <c r="CL2" s="147" t="s">
+      <c r="CE2" s="142"/>
+      <c r="CF2" s="142"/>
+      <c r="CG2" s="142"/>
+      <c r="CH2" s="142"/>
+      <c r="CI2" s="142"/>
+      <c r="CJ2" s="143"/>
+      <c r="CL2" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="CM2" s="148"/>
-      <c r="CN2" s="148"/>
-      <c r="CO2" s="148"/>
-      <c r="CP2" s="148"/>
-      <c r="CQ2" s="148"/>
-      <c r="CR2" s="149"/>
-      <c r="CT2" s="147" t="s">
+      <c r="CM2" s="142"/>
+      <c r="CN2" s="142"/>
+      <c r="CO2" s="142"/>
+      <c r="CP2" s="142"/>
+      <c r="CQ2" s="142"/>
+      <c r="CR2" s="143"/>
+      <c r="CT2" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="CU2" s="148"/>
-      <c r="CV2" s="148"/>
-      <c r="CW2" s="148"/>
-      <c r="CX2" s="148"/>
-      <c r="CY2" s="148"/>
-      <c r="CZ2" s="149"/>
-      <c r="DB2" s="147" t="s">
+      <c r="CU2" s="142"/>
+      <c r="CV2" s="142"/>
+      <c r="CW2" s="142"/>
+      <c r="CX2" s="142"/>
+      <c r="CY2" s="142"/>
+      <c r="CZ2" s="143"/>
+      <c r="DB2" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="DC2" s="148"/>
-      <c r="DD2" s="148"/>
-      <c r="DE2" s="148"/>
-      <c r="DF2" s="148"/>
-      <c r="DG2" s="148"/>
-      <c r="DH2" s="149"/>
-      <c r="DJ2" s="147" t="s">
+      <c r="DC2" s="142"/>
+      <c r="DD2" s="142"/>
+      <c r="DE2" s="142"/>
+      <c r="DF2" s="142"/>
+      <c r="DG2" s="142"/>
+      <c r="DH2" s="143"/>
+      <c r="DJ2" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="DK2" s="148"/>
-      <c r="DL2" s="148"/>
-      <c r="DM2" s="148"/>
-      <c r="DN2" s="148"/>
-      <c r="DO2" s="148"/>
-      <c r="DP2" s="149"/>
-      <c r="DR2" s="147" t="s">
+      <c r="DK2" s="142"/>
+      <c r="DL2" s="142"/>
+      <c r="DM2" s="142"/>
+      <c r="DN2" s="142"/>
+      <c r="DO2" s="142"/>
+      <c r="DP2" s="143"/>
+      <c r="DR2" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="DS2" s="148"/>
-      <c r="DT2" s="148"/>
-      <c r="DU2" s="148"/>
-      <c r="DV2" s="148"/>
-      <c r="DW2" s="148"/>
-      <c r="DX2" s="149"/>
-      <c r="DZ2" s="147" t="s">
+      <c r="DS2" s="142"/>
+      <c r="DT2" s="142"/>
+      <c r="DU2" s="142"/>
+      <c r="DV2" s="142"/>
+      <c r="DW2" s="142"/>
+      <c r="DX2" s="143"/>
+      <c r="DZ2" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="EA2" s="148"/>
-      <c r="EB2" s="148"/>
-      <c r="EC2" s="148"/>
-      <c r="ED2" s="148"/>
-      <c r="EE2" s="148"/>
-      <c r="EF2" s="149"/>
+      <c r="EA2" s="142"/>
+      <c r="EB2" s="142"/>
+      <c r="EC2" s="142"/>
+      <c r="ED2" s="142"/>
+      <c r="EE2" s="142"/>
+      <c r="EF2" s="143"/>
     </row>
     <row r="3" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="145" t="s">
+      <c r="B3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="143" t="s">
+      <c r="F3" s="144"/>
+      <c r="G3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="144"/>
-      <c r="J3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="145" t="s">
+      <c r="H3" s="146"/>
+      <c r="J3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="145"/>
-      <c r="O3" s="143" t="s">
+      <c r="N3" s="144"/>
+      <c r="O3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="144"/>
-      <c r="R3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="145" t="s">
+      <c r="P3" s="146"/>
+      <c r="R3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="145"/>
-      <c r="W3" s="143" t="s">
+      <c r="V3" s="144"/>
+      <c r="W3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="144"/>
-      <c r="Z3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="145" t="s">
+      <c r="X3" s="146"/>
+      <c r="Z3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="143" t="s">
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="144"/>
-      <c r="AH3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="142"/>
-      <c r="AJ3" s="142"/>
-      <c r="AK3" s="145" t="s">
+      <c r="AF3" s="146"/>
+      <c r="AH3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="148"/>
+      <c r="AJ3" s="148"/>
+      <c r="AK3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="145"/>
-      <c r="AM3" s="143" t="s">
+      <c r="AL3" s="144"/>
+      <c r="AM3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="144"/>
-      <c r="AP3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="142"/>
-      <c r="AR3" s="142"/>
-      <c r="AS3" s="145" t="s">
+      <c r="AN3" s="146"/>
+      <c r="AP3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="148"/>
+      <c r="AR3" s="148"/>
+      <c r="AS3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="145"/>
-      <c r="AU3" s="143" t="s">
+      <c r="AT3" s="144"/>
+      <c r="AU3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="144"/>
-      <c r="AX3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="142"/>
-      <c r="AZ3" s="142"/>
-      <c r="BA3" s="145" t="s">
+      <c r="AV3" s="146"/>
+      <c r="AX3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="148"/>
+      <c r="AZ3" s="148"/>
+      <c r="BA3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BB3" s="145"/>
-      <c r="BC3" s="143" t="s">
+      <c r="BB3" s="144"/>
+      <c r="BC3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="144"/>
-      <c r="BF3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="142"/>
-      <c r="BH3" s="142"/>
-      <c r="BI3" s="145" t="s">
+      <c r="BD3" s="146"/>
+      <c r="BF3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="148"/>
+      <c r="BH3" s="148"/>
+      <c r="BI3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BJ3" s="145"/>
-      <c r="BK3" s="143" t="s">
+      <c r="BJ3" s="144"/>
+      <c r="BK3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="144"/>
-      <c r="BN3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="142"/>
-      <c r="BP3" s="142"/>
-      <c r="BQ3" s="145" t="s">
+      <c r="BL3" s="146"/>
+      <c r="BN3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="148"/>
+      <c r="BP3" s="148"/>
+      <c r="BQ3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="145"/>
-      <c r="BS3" s="143" t="s">
+      <c r="BR3" s="144"/>
+      <c r="BS3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="144"/>
-      <c r="BV3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="142"/>
-      <c r="BX3" s="142"/>
-      <c r="BY3" s="145" t="s">
+      <c r="BT3" s="146"/>
+      <c r="BV3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="148"/>
+      <c r="BX3" s="148"/>
+      <c r="BY3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BZ3" s="145"/>
-      <c r="CA3" s="143" t="s">
+      <c r="BZ3" s="144"/>
+      <c r="CA3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="144"/>
-      <c r="CD3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="142"/>
-      <c r="CF3" s="142"/>
-      <c r="CG3" s="145" t="s">
+      <c r="CB3" s="146"/>
+      <c r="CD3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="148"/>
+      <c r="CF3" s="148"/>
+      <c r="CG3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="CH3" s="145"/>
-      <c r="CI3" s="143" t="s">
+      <c r="CH3" s="144"/>
+      <c r="CI3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CJ3" s="144"/>
-      <c r="CL3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="142"/>
-      <c r="CN3" s="142"/>
-      <c r="CO3" s="145" t="s">
+      <c r="CJ3" s="146"/>
+      <c r="CL3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="148"/>
+      <c r="CN3" s="148"/>
+      <c r="CO3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="CP3" s="145"/>
-      <c r="CQ3" s="143" t="s">
+      <c r="CP3" s="144"/>
+      <c r="CQ3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CR3" s="144"/>
-      <c r="CT3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="142"/>
-      <c r="CV3" s="142"/>
-      <c r="CW3" s="145" t="s">
+      <c r="CR3" s="146"/>
+      <c r="CT3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="148"/>
+      <c r="CV3" s="148"/>
+      <c r="CW3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="CX3" s="145"/>
-      <c r="CY3" s="143" t="s">
+      <c r="CX3" s="144"/>
+      <c r="CY3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CZ3" s="144"/>
-      <c r="DB3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="DC3" s="142"/>
-      <c r="DD3" s="142"/>
-      <c r="DE3" s="145" t="s">
+      <c r="CZ3" s="146"/>
+      <c r="DB3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="148"/>
+      <c r="DD3" s="148"/>
+      <c r="DE3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="DF3" s="145"/>
-      <c r="DG3" s="143" t="s">
+      <c r="DF3" s="144"/>
+      <c r="DG3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="DH3" s="144"/>
-      <c r="DJ3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="DK3" s="142"/>
-      <c r="DL3" s="142"/>
-      <c r="DM3" s="145" t="s">
+      <c r="DH3" s="146"/>
+      <c r="DJ3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="148"/>
+      <c r="DL3" s="148"/>
+      <c r="DM3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="DN3" s="145"/>
-      <c r="DO3" s="143" t="s">
+      <c r="DN3" s="144"/>
+      <c r="DO3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="DP3" s="144"/>
-      <c r="DR3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS3" s="142"/>
-      <c r="DT3" s="142"/>
-      <c r="DU3" s="145" t="s">
+      <c r="DP3" s="146"/>
+      <c r="DR3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS3" s="148"/>
+      <c r="DT3" s="148"/>
+      <c r="DU3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="DV3" s="145"/>
-      <c r="DW3" s="143" t="s">
+      <c r="DV3" s="144"/>
+      <c r="DW3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="DX3" s="144"/>
-      <c r="DZ3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="EA3" s="142"/>
-      <c r="EB3" s="142"/>
-      <c r="EC3" s="145" t="s">
+      <c r="DX3" s="146"/>
+      <c r="DZ3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="148"/>
+      <c r="EB3" s="148"/>
+      <c r="EC3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="ED3" s="145"/>
-      <c r="EE3" s="143" t="s">
+      <c r="ED3" s="144"/>
+      <c r="EE3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="EF3" s="144"/>
+      <c r="EF3" s="146"/>
     </row>
     <row r="4" spans="2:136" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -32977,8 +33011,12 @@
       <c r="BF5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="BG5" s="7"/>
-      <c r="BH5" s="7"/>
+      <c r="BG5" s="7">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="7">
+        <v>90</v>
+      </c>
       <c r="BI5" s="7"/>
       <c r="BJ5" s="7"/>
       <c r="BK5" s="7"/>
@@ -33643,8 +33681,12 @@
       <c r="BF9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="BG9" s="7"/>
-      <c r="BH9" s="7"/>
+      <c r="BG9" s="7">
+        <v>1</v>
+      </c>
+      <c r="BH9" s="7">
+        <v>90</v>
+      </c>
       <c r="BI9" s="7"/>
       <c r="BJ9" s="7"/>
       <c r="BK9" s="7"/>
@@ -33826,8 +33868,12 @@
       <c r="BF10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="BG10" s="7"/>
-      <c r="BH10" s="7"/>
+      <c r="BG10" s="7">
+        <v>1</v>
+      </c>
+      <c r="BH10" s="7">
+        <v>90</v>
+      </c>
       <c r="BI10" s="7"/>
       <c r="BJ10" s="7"/>
       <c r="BK10" s="7"/>
@@ -34011,8 +34057,12 @@
       <c r="BF11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="BG11" s="7"/>
-      <c r="BH11" s="7"/>
+      <c r="BG11" s="7">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="7">
+        <v>90</v>
+      </c>
       <c r="BI11" s="7"/>
       <c r="BJ11" s="7"/>
       <c r="BK11" s="7"/>
@@ -34180,8 +34230,12 @@
       <c r="BF12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="BG12" s="7"/>
-      <c r="BH12" s="7"/>
+      <c r="BG12" s="7">
+        <v>1</v>
+      </c>
+      <c r="BH12" s="7">
+        <v>71</v>
+      </c>
       <c r="BI12" s="7"/>
       <c r="BJ12" s="7"/>
       <c r="BK12" s="7"/>
@@ -34368,7 +34422,9 @@
         <v>18</v>
       </c>
       <c r="BG13" s="7"/>
-      <c r="BH13" s="7"/>
+      <c r="BH13" s="7">
+        <v>19</v>
+      </c>
       <c r="BI13" s="7"/>
       <c r="BJ13" s="7"/>
       <c r="BK13" s="7"/>
@@ -34710,7 +34766,9 @@
         <v>21</v>
       </c>
       <c r="BG15" s="7"/>
-      <c r="BH15" s="7"/>
+      <c r="BH15" s="7">
+        <v>9</v>
+      </c>
       <c r="BI15" s="7"/>
       <c r="BJ15" s="7"/>
       <c r="BK15" s="7"/>
@@ -34898,8 +34956,12 @@
       <c r="BF16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="BG16" s="7"/>
-      <c r="BH16" s="7"/>
+      <c r="BG16" s="7">
+        <v>1</v>
+      </c>
+      <c r="BH16" s="7">
+        <v>90</v>
+      </c>
       <c r="BI16" s="7"/>
       <c r="BJ16" s="7"/>
       <c r="BK16" s="7"/>
@@ -35248,8 +35310,12 @@
       <c r="BF18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="BG18" s="7"/>
-      <c r="BH18" s="7"/>
+      <c r="BG18" s="7">
+        <v>1</v>
+      </c>
+      <c r="BH18" s="7">
+        <v>90</v>
+      </c>
       <c r="BI18" s="7"/>
       <c r="BJ18" s="7"/>
       <c r="BK18" s="7"/>
@@ -35427,8 +35493,12 @@
       <c r="BF19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="BG19" s="7"/>
-      <c r="BH19" s="7"/>
+      <c r="BG19" s="7">
+        <v>1</v>
+      </c>
+      <c r="BH19" s="7">
+        <v>81</v>
+      </c>
       <c r="BI19" s="7"/>
       <c r="BJ19" s="7"/>
       <c r="BK19" s="7"/>
@@ -35608,11 +35678,17 @@
       <c r="BF20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="BG20" s="7"/>
-      <c r="BH20" s="7"/>
+      <c r="BG20" s="7">
+        <v>1</v>
+      </c>
+      <c r="BH20" s="7">
+        <v>90</v>
+      </c>
       <c r="BI20" s="7"/>
       <c r="BJ20" s="7"/>
-      <c r="BK20" s="7"/>
+      <c r="BK20" s="7">
+        <v>1</v>
+      </c>
       <c r="BL20" s="8"/>
       <c r="BN20" s="6" t="s">
         <v>26</v>
@@ -35791,9 +35867,15 @@
       <c r="BF21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="BG21" s="7"/>
-      <c r="BH21" s="7"/>
-      <c r="BI21" s="7"/>
+      <c r="BG21" s="7">
+        <v>1</v>
+      </c>
+      <c r="BH21" s="7">
+        <v>59</v>
+      </c>
+      <c r="BI21" s="7">
+        <v>1</v>
+      </c>
       <c r="BJ21" s="7"/>
       <c r="BK21" s="7"/>
       <c r="BL21" s="8"/>
@@ -35976,8 +36058,12 @@
       <c r="BF22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="BG22" s="7"/>
-      <c r="BH22" s="7"/>
+      <c r="BG22" s="7">
+        <v>1</v>
+      </c>
+      <c r="BH22" s="7">
+        <v>71</v>
+      </c>
       <c r="BI22" s="7"/>
       <c r="BJ22" s="7"/>
       <c r="BK22" s="7"/>
@@ -36160,7 +36246,9 @@
         <v>29</v>
       </c>
       <c r="BG23" s="7"/>
-      <c r="BH23" s="7"/>
+      <c r="BH23" s="7">
+        <v>31</v>
+      </c>
       <c r="BI23" s="7"/>
       <c r="BJ23" s="7"/>
       <c r="BK23" s="7"/>
@@ -36329,7 +36417,9 @@
         <v>50</v>
       </c>
       <c r="BG24" s="7"/>
-      <c r="BH24" s="7"/>
+      <c r="BH24" s="7">
+        <v>19</v>
+      </c>
       <c r="BI24" s="7"/>
       <c r="BJ24" s="7"/>
       <c r="BK24" s="7"/>
@@ -36437,19 +36527,61 @@
         <f>SUM(AZ5:AZ24)</f>
         <v>990</v>
       </c>
+      <c r="BG25">
+        <f>SUM(BG5:BG24)</f>
+        <v>11</v>
+      </c>
+      <c r="BH25">
+        <f>SUM(BH5:BH24)</f>
+        <v>990</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="DZ2:EF2"/>
+    <mergeCell ref="DZ3:EB3"/>
+    <mergeCell ref="EC3:ED3"/>
+    <mergeCell ref="EE3:EF3"/>
+    <mergeCell ref="DJ2:DP2"/>
+    <mergeCell ref="DJ3:DL3"/>
+    <mergeCell ref="DM3:DN3"/>
+    <mergeCell ref="DO3:DP3"/>
+    <mergeCell ref="DR2:DX2"/>
+    <mergeCell ref="DR3:DT3"/>
+    <mergeCell ref="DU3:DV3"/>
+    <mergeCell ref="DW3:DX3"/>
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="CT3:CV3"/>
+    <mergeCell ref="CW3:CX3"/>
+    <mergeCell ref="CY3:CZ3"/>
+    <mergeCell ref="DB2:DH2"/>
+    <mergeCell ref="DB3:DD3"/>
+    <mergeCell ref="DE3:DF3"/>
+    <mergeCell ref="DG3:DH3"/>
+    <mergeCell ref="CD2:CJ2"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="CG3:CH3"/>
+    <mergeCell ref="CI3:CJ3"/>
+    <mergeCell ref="CL2:CR2"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="CQ3:CR3"/>
+    <mergeCell ref="BN2:BT2"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV2:CB2"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="AY2:BC2"/>
+    <mergeCell ref="BG2:BK2"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AI2:AM2"/>
     <mergeCell ref="AQ2:AU2"/>
@@ -36464,50 +36596,16 @@
     <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="AP3:AR3"/>
     <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BF2:BL2"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="AY2:BC2"/>
-    <mergeCell ref="BN2:BT2"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV2:CB2"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="CD2:CJ2"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="CG3:CH3"/>
-    <mergeCell ref="CI3:CJ3"/>
-    <mergeCell ref="CL2:CR2"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="CQ3:CR3"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="CT3:CV3"/>
-    <mergeCell ref="CW3:CX3"/>
-    <mergeCell ref="CY3:CZ3"/>
-    <mergeCell ref="DB2:DH2"/>
-    <mergeCell ref="DB3:DD3"/>
-    <mergeCell ref="DE3:DF3"/>
-    <mergeCell ref="DG3:DH3"/>
-    <mergeCell ref="DZ2:EF2"/>
-    <mergeCell ref="DZ3:EB3"/>
-    <mergeCell ref="EC3:ED3"/>
-    <mergeCell ref="EE3:EF3"/>
-    <mergeCell ref="DJ2:DP2"/>
-    <mergeCell ref="DJ3:DL3"/>
-    <mergeCell ref="DM3:DN3"/>
-    <mergeCell ref="DO3:DP3"/>
-    <mergeCell ref="DR2:DX2"/>
-    <mergeCell ref="DR3:DT3"/>
-    <mergeCell ref="DU3:DV3"/>
-    <mergeCell ref="DW3:DX3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36517,8 +36615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V59"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36589,14 +36687,14 @@
       </c>
       <c r="C3" s="8">
         <f t="shared" ref="C3:C22" si="0">F40</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="8">
         <f>'1º Vuelta'!D5+'1º Vuelta'!L5+'1º Vuelta'!T5+'1º Vuelta'!AB5+'1º Vuelta'!AJ5+'1º Vuelta'!AR5+'1º Vuelta'!AZ5+'1º Vuelta'!BH5+'1º Vuelta'!BP5+'1º Vuelta'!BX5+'1º Vuelta'!CF5+'1º Vuelta'!CN5+'1º Vuelta'!CV5+'1º Vuelta'!DD5+'1º Vuelta'!DL5+'1º Vuelta'!DT5+'1º Vuelta'!EB5</f>
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>10</v>
@@ -36730,7 +36828,7 @@
         <v>101</v>
       </c>
       <c r="V5" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="19" x14ac:dyDescent="0.25">
@@ -36789,14 +36887,14 @@
       </c>
       <c r="C7" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="8">
         <f>'1º Vuelta'!D9+'1º Vuelta'!L9+'1º Vuelta'!T9+'1º Vuelta'!AB9+'1º Vuelta'!AJ9+'1º Vuelta'!AR9+'1º Vuelta'!AZ9+'1º Vuelta'!BH9+'1º Vuelta'!BP9+'1º Vuelta'!BX9+'1º Vuelta'!CF9+'1º Vuelta'!CN9+'1º Vuelta'!CV9+'1º Vuelta'!DD9+'1º Vuelta'!DL9+'1º Vuelta'!DT9+'1º Vuelta'!EB9</f>
-        <v>236</v>
+        <v>326</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>14</v>
@@ -36839,14 +36937,14 @@
       </c>
       <c r="C8" s="8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="8">
         <f>'1º Vuelta'!D10+'1º Vuelta'!L10+'1º Vuelta'!T10+'1º Vuelta'!AB10+'1º Vuelta'!AJ10+'1º Vuelta'!AR10+'1º Vuelta'!AZ10+'1º Vuelta'!BH10+'1º Vuelta'!BP10+'1º Vuelta'!BX10+'1º Vuelta'!CF10+'1º Vuelta'!CN10+'1º Vuelta'!CV10+'1º Vuelta'!DD10+'1º Vuelta'!DL10+'1º Vuelta'!DT10+'1º Vuelta'!EB10</f>
-        <v>619</v>
+        <v>709</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>15</v>
@@ -36889,14 +36987,14 @@
       </c>
       <c r="C9" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="8">
         <f>'1º Vuelta'!D11+'1º Vuelta'!L11+'1º Vuelta'!T11+'1º Vuelta'!AB11+'1º Vuelta'!AJ11+'1º Vuelta'!AR11+'1º Vuelta'!AZ11+'1º Vuelta'!BH11+'1º Vuelta'!BP11+'1º Vuelta'!BX11+'1º Vuelta'!CF11+'1º Vuelta'!CN11+'1º Vuelta'!CV11+'1º Vuelta'!DD11+'1º Vuelta'!DL11+'1º Vuelta'!DT11+'1º Vuelta'!EB11</f>
-        <v>565</v>
+        <v>655</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>16</v>
@@ -36939,14 +37037,14 @@
       </c>
       <c r="C10" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="8">
         <f>'1º Vuelta'!D12+'1º Vuelta'!L12+'1º Vuelta'!T12+'1º Vuelta'!AB12+'1º Vuelta'!AJ12+'1º Vuelta'!AR12+'1º Vuelta'!AZ12+'1º Vuelta'!BH12+'1º Vuelta'!BP12+'1º Vuelta'!BX12+'1º Vuelta'!CF12+'1º Vuelta'!CN12+'1º Vuelta'!CV12+'1º Vuelta'!DD12+'1º Vuelta'!DL12+'1º Vuelta'!DT12+'1º Vuelta'!EB12</f>
-        <v>211</v>
+        <v>282</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>17</v>
@@ -36996,7 +37094,7 @@
       </c>
       <c r="F11" s="8">
         <f>'1º Vuelta'!D13+'1º Vuelta'!L13+'1º Vuelta'!T13+'1º Vuelta'!AB13+'1º Vuelta'!AJ13+'1º Vuelta'!AR13+'1º Vuelta'!AZ13+'1º Vuelta'!BH13+'1º Vuelta'!BP13+'1º Vuelta'!BX13+'1º Vuelta'!CF13+'1º Vuelta'!CN13+'1º Vuelta'!CV13+'1º Vuelta'!DD13+'1º Vuelta'!DL13+'1º Vuelta'!DT13+'1º Vuelta'!EB13</f>
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>18</v>
@@ -37091,7 +37189,7 @@
       </c>
       <c r="F13" s="8">
         <f>'1º Vuelta'!D15+'1º Vuelta'!L15+'1º Vuelta'!T15+'1º Vuelta'!AB15+'1º Vuelta'!AJ15+'1º Vuelta'!AR15+'1º Vuelta'!AZ15+'1º Vuelta'!BH15+'1º Vuelta'!BP15+'1º Vuelta'!BX15+'1º Vuelta'!CF15+'1º Vuelta'!CN15+'1º Vuelta'!CV15+'1º Vuelta'!DD15+'1º Vuelta'!DL15+'1º Vuelta'!DT15+'1º Vuelta'!EB15</f>
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>21</v>
@@ -37134,14 +37232,14 @@
       </c>
       <c r="C14" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="8">
         <f>'1º Vuelta'!D16+'1º Vuelta'!L16+'1º Vuelta'!T16+'1º Vuelta'!AB16+'1º Vuelta'!AJ16+'1º Vuelta'!AR16+'1º Vuelta'!AZ16+'1º Vuelta'!BH16+'1º Vuelta'!BP16+'1º Vuelta'!BX16+'1º Vuelta'!CF16+'1º Vuelta'!CN16+'1º Vuelta'!CV16+'1º Vuelta'!DD16+'1º Vuelta'!DL16+'1º Vuelta'!DT16+'1º Vuelta'!EB16</f>
-        <v>515</v>
+        <v>605</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>22</v>
@@ -37234,14 +37332,14 @@
       </c>
       <c r="C16" s="8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="8">
         <f>'1º Vuelta'!D18+'1º Vuelta'!L18+'1º Vuelta'!T18+'1º Vuelta'!AB18+'1º Vuelta'!AJ18+'1º Vuelta'!AR18+'1º Vuelta'!AZ18+'1º Vuelta'!BH18+'1º Vuelta'!BP18+'1º Vuelta'!BX18+'1º Vuelta'!CF18+'1º Vuelta'!CN18+'1º Vuelta'!CV18+'1º Vuelta'!DD18+'1º Vuelta'!DL18+'1º Vuelta'!DT18+'1º Vuelta'!EB18</f>
-        <v>583</v>
+        <v>673</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>24</v>
@@ -37284,14 +37382,14 @@
       </c>
       <c r="C17" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="8">
         <f>'1º Vuelta'!D19+'1º Vuelta'!L19+'1º Vuelta'!T19+'1º Vuelta'!AB19+'1º Vuelta'!AJ19+'1º Vuelta'!AR19+'1º Vuelta'!AZ19+'1º Vuelta'!BH19+'1º Vuelta'!BP19+'1º Vuelta'!BX19+'1º Vuelta'!CF19+'1º Vuelta'!CN19+'1º Vuelta'!CV19+'1º Vuelta'!DD19+'1º Vuelta'!DL19+'1º Vuelta'!DT19+'1º Vuelta'!EB19</f>
-        <v>293</v>
+        <v>374</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>25</v>
@@ -37334,14 +37432,14 @@
       </c>
       <c r="C18" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="8">
         <f>'1º Vuelta'!D20+'1º Vuelta'!L20+'1º Vuelta'!T20+'1º Vuelta'!AB20+'1º Vuelta'!AJ20+'1º Vuelta'!AR20+'1º Vuelta'!AZ20+'1º Vuelta'!BH20+'1º Vuelta'!BP20+'1º Vuelta'!BX20+'1º Vuelta'!CF20+'1º Vuelta'!CN20+'1º Vuelta'!CV20+'1º Vuelta'!DD20+'1º Vuelta'!DL20+'1º Vuelta'!DT20+'1º Vuelta'!EB20</f>
-        <v>463</v>
+        <v>553</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>26</v>
@@ -37362,7 +37460,7 @@
       </c>
       <c r="O18" s="8">
         <f>'1º Vuelta'!G20+'1º Vuelta'!O20+'1º Vuelta'!W20+'1º Vuelta'!AE20+'1º Vuelta'!AM20+'1º Vuelta'!AU20+'1º Vuelta'!BC20+'1º Vuelta'!BK20+'1º Vuelta'!BS20+'1º Vuelta'!CA20+'1º Vuelta'!CI20+'1º Vuelta'!CQ20+'1º Vuelta'!CY20+'1º Vuelta'!DG20+'1º Vuelta'!DO20+'1º Vuelta'!DW20+'1º Vuelta'!EE20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="6" t="s">
         <v>26</v>
@@ -37375,7 +37473,7 @@
         <v>103</v>
       </c>
       <c r="V18" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:22" ht="19" x14ac:dyDescent="0.25">
@@ -37384,21 +37482,21 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="8">
         <f>'1º Vuelta'!D21+'1º Vuelta'!L21+'1º Vuelta'!T21+'1º Vuelta'!AB21+'1º Vuelta'!AJ21+'1º Vuelta'!AR21+'1º Vuelta'!AZ21+'1º Vuelta'!BH21+'1º Vuelta'!BP21+'1º Vuelta'!BX21+'1º Vuelta'!CF21+'1º Vuelta'!CN21+'1º Vuelta'!CV21+'1º Vuelta'!DD21+'1º Vuelta'!DL21+'1º Vuelta'!DT21+'1º Vuelta'!EB21</f>
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I19" s="8">
         <f>'1º Vuelta'!E21+'1º Vuelta'!M21+'1º Vuelta'!U21+'1º Vuelta'!AC21+'1º Vuelta'!AK21+'1º Vuelta'!AS21+'1º Vuelta'!BA21+'1º Vuelta'!BI21+'1º Vuelta'!BQ21+'1º Vuelta'!BY21+'1º Vuelta'!CG21+'1º Vuelta'!CO21+'1º Vuelta'!CW21+'1º Vuelta'!DE21+'1º Vuelta'!DM21+'1º Vuelta'!DU21+'1º Vuelta'!EC21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>27</v>
@@ -37434,14 +37532,14 @@
       </c>
       <c r="C20" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="8">
         <f>'1º Vuelta'!D22+'1º Vuelta'!L22+'1º Vuelta'!T22+'1º Vuelta'!AB22+'1º Vuelta'!AJ22+'1º Vuelta'!AR22+'1º Vuelta'!AZ22+'1º Vuelta'!BH22+'1º Vuelta'!BP22+'1º Vuelta'!BX22+'1º Vuelta'!CF22+'1º Vuelta'!CN22+'1º Vuelta'!CV22+'1º Vuelta'!DD22+'1º Vuelta'!DL22+'1º Vuelta'!DT22+'1º Vuelta'!EB22</f>
-        <v>468</v>
+        <v>539</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>28</v>
@@ -37491,7 +37589,7 @@
       </c>
       <c r="F21" s="8">
         <f>'1º Vuelta'!D23+'1º Vuelta'!L23+'1º Vuelta'!T23+'1º Vuelta'!AB23+'1º Vuelta'!AJ23+'1º Vuelta'!AR23+'1º Vuelta'!AZ23+'1º Vuelta'!BH23+'1º Vuelta'!BP23+'1º Vuelta'!BX23+'1º Vuelta'!CF23+'1º Vuelta'!CN23+'1º Vuelta'!CV23+'1º Vuelta'!DD23+'1º Vuelta'!DL23+'1º Vuelta'!DT23+'1º Vuelta'!EB23</f>
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>29</v>
@@ -37541,7 +37639,7 @@
       </c>
       <c r="F22" s="8">
         <f>'1º Vuelta'!D24+'1º Vuelta'!L24+'1º Vuelta'!T24+'1º Vuelta'!AB24+'1º Vuelta'!AJ24+'1º Vuelta'!AR24+'1º Vuelta'!AZ24+'1º Vuelta'!BH24+'1º Vuelta'!BP24+'1º Vuelta'!BX24+'1º Vuelta'!CF24+'1º Vuelta'!CN24+'1º Vuelta'!CV24+'1º Vuelta'!DD24+'1º Vuelta'!DL24+'1º Vuelta'!DT24+'1º Vuelta'!EB24</f>
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>50</v>
@@ -37631,7 +37729,7 @@
         <v>104</v>
       </c>
       <c r="V30" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.2">
@@ -37647,7 +37745,7 @@
         <v>106</v>
       </c>
       <c r="V32" s="22">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="5:22" x14ac:dyDescent="0.2">
@@ -37655,7 +37753,7 @@
         <v>107</v>
       </c>
       <c r="V33" s="22">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="5:22" x14ac:dyDescent="0.2">
@@ -37666,30 +37764,30 @@
     </row>
     <row r="36" spans="5:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="5:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="E37" s="147" t="s">
+      <c r="E37" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="148"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="148"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="148"/>
-      <c r="K37" s="149"/>
+      <c r="F37" s="142"/>
+      <c r="G37" s="142"/>
+      <c r="H37" s="142"/>
+      <c r="I37" s="142"/>
+      <c r="J37" s="142"/>
+      <c r="K37" s="143"/>
     </row>
     <row r="38" spans="5:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="E38" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="142"/>
-      <c r="G38" s="142"/>
-      <c r="H38" s="145" t="s">
+      <c r="E38" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="145"/>
-      <c r="J38" s="143" t="s">
+      <c r="I38" s="144"/>
+      <c r="J38" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="144"/>
+      <c r="K38" s="146"/>
     </row>
     <row r="39" spans="5:22" ht="19" x14ac:dyDescent="0.25">
       <c r="E39" s="14" t="s">
@@ -37720,11 +37818,11 @@
       </c>
       <c r="F40" s="7">
         <f>'1º Vuelta'!C5+'1º Vuelta'!K5+'1º Vuelta'!S5+'1º Vuelta'!AA5+'1º Vuelta'!AI5+'1º Vuelta'!AQ5+'1º Vuelta'!AY5+'1º Vuelta'!BG5+'1º Vuelta'!BO5+'1º Vuelta'!BW5+'1º Vuelta'!CE5+'1º Vuelta'!CM5+'1º Vuelta'!CU5+'1º Vuelta'!DC5+'1º Vuelta'!DK5+'1º Vuelta'!DS5+'1º Vuelta'!EA5</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G40" s="7">
         <f>'1º Vuelta'!D5+'1º Vuelta'!L5+'1º Vuelta'!T5+'1º Vuelta'!AB5+'1º Vuelta'!AJ5+'1º Vuelta'!AR5+'1º Vuelta'!AZ5+'1º Vuelta'!BH5+'1º Vuelta'!BP5+'1º Vuelta'!BX5+'1º Vuelta'!CF5+'1º Vuelta'!CN5+'1º Vuelta'!CV5+'1º Vuelta'!DD5+'1º Vuelta'!DL5+'1º Vuelta'!DT5+'1º Vuelta'!EB5</f>
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="H40" s="7">
         <f>'1º Vuelta'!E5+'1º Vuelta'!M5+'1º Vuelta'!U5+'1º Vuelta'!AC5+'1º Vuelta'!AK5+'1º Vuelta'!AS5+'1º Vuelta'!BA5+'1º Vuelta'!BI5+'1º Vuelta'!BQ5+'1º Vuelta'!BY5+'1º Vuelta'!CG5+'1º Vuelta'!CO5+'1º Vuelta'!CW5+'1º Vuelta'!DE5+'1º Vuelta'!DM5+'1º Vuelta'!DU5+'1º Vuelta'!EC5</f>
@@ -37836,11 +37934,11 @@
       </c>
       <c r="F44" s="7">
         <f>'1º Vuelta'!C9+'1º Vuelta'!K9+'1º Vuelta'!S9+'1º Vuelta'!AA9+'1º Vuelta'!AI9+'1º Vuelta'!AQ9+'1º Vuelta'!AY9+'1º Vuelta'!BG9+'1º Vuelta'!BO9+'1º Vuelta'!BW9+'1º Vuelta'!CE9+'1º Vuelta'!CM9+'1º Vuelta'!CU9+'1º Vuelta'!DC9+'1º Vuelta'!DK9+'1º Vuelta'!DS9+'1º Vuelta'!EA9</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44" s="7">
         <f>'1º Vuelta'!D9+'1º Vuelta'!L9+'1º Vuelta'!T9+'1º Vuelta'!AB9+'1º Vuelta'!AJ9+'1º Vuelta'!AR9+'1º Vuelta'!AZ9+'1º Vuelta'!BH9+'1º Vuelta'!BP9+'1º Vuelta'!BX9+'1º Vuelta'!CF9+'1º Vuelta'!CN9+'1º Vuelta'!CV9+'1º Vuelta'!DD9+'1º Vuelta'!DL9+'1º Vuelta'!DT9+'1º Vuelta'!EB9</f>
-        <v>236</v>
+        <v>326</v>
       </c>
       <c r="H44" s="7">
         <f>'1º Vuelta'!E9+'1º Vuelta'!M9+'1º Vuelta'!U9+'1º Vuelta'!AC9+'1º Vuelta'!AK9+'1º Vuelta'!AS9+'1º Vuelta'!BA9+'1º Vuelta'!BI9+'1º Vuelta'!BQ9+'1º Vuelta'!BY9+'1º Vuelta'!CG9+'1º Vuelta'!CO9+'1º Vuelta'!CW9+'1º Vuelta'!DE9+'1º Vuelta'!DM9+'1º Vuelta'!DU9+'1º Vuelta'!EC9</f>
@@ -37865,11 +37963,11 @@
       </c>
       <c r="F45" s="7">
         <f>'1º Vuelta'!C10+'1º Vuelta'!K10+'1º Vuelta'!S10+'1º Vuelta'!AA10+'1º Vuelta'!AI10+'1º Vuelta'!AQ10+'1º Vuelta'!AY10+'1º Vuelta'!BG10+'1º Vuelta'!BO10+'1º Vuelta'!BW10+'1º Vuelta'!CE10+'1º Vuelta'!CM10+'1º Vuelta'!CU10+'1º Vuelta'!DC10+'1º Vuelta'!DK10+'1º Vuelta'!DS10+'1º Vuelta'!EA10</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G45" s="7">
         <f>'1º Vuelta'!D10+'1º Vuelta'!L10+'1º Vuelta'!T10+'1º Vuelta'!AB10+'1º Vuelta'!AJ10+'1º Vuelta'!AR10+'1º Vuelta'!AZ10+'1º Vuelta'!BH10+'1º Vuelta'!BP10+'1º Vuelta'!BX10+'1º Vuelta'!CF10+'1º Vuelta'!CN10+'1º Vuelta'!CV10+'1º Vuelta'!DD10+'1º Vuelta'!DL10+'1º Vuelta'!DT10+'1º Vuelta'!EB10</f>
-        <v>619</v>
+        <v>709</v>
       </c>
       <c r="H45" s="7">
         <f>'1º Vuelta'!E10+'1º Vuelta'!M10+'1º Vuelta'!U10+'1º Vuelta'!AC10+'1º Vuelta'!AK10+'1º Vuelta'!AS10+'1º Vuelta'!BA10+'1º Vuelta'!BI10+'1º Vuelta'!BQ10+'1º Vuelta'!BY10+'1º Vuelta'!CG10+'1º Vuelta'!CO10+'1º Vuelta'!CW10+'1º Vuelta'!DE10+'1º Vuelta'!DM10+'1º Vuelta'!DU10+'1º Vuelta'!EC10</f>
@@ -37894,11 +37992,11 @@
       </c>
       <c r="F46" s="7">
         <f>'1º Vuelta'!C11+'1º Vuelta'!K11+'1º Vuelta'!S11+'1º Vuelta'!AA11+'1º Vuelta'!AI11+'1º Vuelta'!AQ11+'1º Vuelta'!AY11+'1º Vuelta'!BG11+'1º Vuelta'!BO11+'1º Vuelta'!BW11+'1º Vuelta'!CE11+'1º Vuelta'!CM11+'1º Vuelta'!CU11+'1º Vuelta'!DC11+'1º Vuelta'!DK11+'1º Vuelta'!DS11+'1º Vuelta'!EA11</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G46" s="7">
         <f>'1º Vuelta'!D11+'1º Vuelta'!L11+'1º Vuelta'!T11+'1º Vuelta'!AB11+'1º Vuelta'!AJ11+'1º Vuelta'!AR11+'1º Vuelta'!AZ11+'1º Vuelta'!BH11+'1º Vuelta'!BP11+'1º Vuelta'!BX11+'1º Vuelta'!CF11+'1º Vuelta'!CN11+'1º Vuelta'!CV11+'1º Vuelta'!DD11+'1º Vuelta'!DL11+'1º Vuelta'!DT11+'1º Vuelta'!EB11</f>
-        <v>565</v>
+        <v>655</v>
       </c>
       <c r="H46" s="7">
         <f>'1º Vuelta'!E11+'1º Vuelta'!M11+'1º Vuelta'!U11+'1º Vuelta'!AC11+'1º Vuelta'!AK11+'1º Vuelta'!AS11+'1º Vuelta'!BA11+'1º Vuelta'!BI11+'1º Vuelta'!BQ11+'1º Vuelta'!BY11+'1º Vuelta'!CG11+'1º Vuelta'!CO11+'1º Vuelta'!CW11+'1º Vuelta'!DE11+'1º Vuelta'!DM11+'1º Vuelta'!DU11+'1º Vuelta'!EC11</f>
@@ -37923,11 +38021,11 @@
       </c>
       <c r="F47" s="7">
         <f>'1º Vuelta'!C12+'1º Vuelta'!K12+'1º Vuelta'!S12+'1º Vuelta'!AA12+'1º Vuelta'!AI12+'1º Vuelta'!AQ12+'1º Vuelta'!AY12+'1º Vuelta'!BG12+'1º Vuelta'!BO12+'1º Vuelta'!BW12+'1º Vuelta'!CE12+'1º Vuelta'!CM12+'1º Vuelta'!CU12+'1º Vuelta'!DC12+'1º Vuelta'!DK12+'1º Vuelta'!DS12+'1º Vuelta'!EA12</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G47" s="7">
         <f>'1º Vuelta'!D12+'1º Vuelta'!L12+'1º Vuelta'!T12+'1º Vuelta'!AB12+'1º Vuelta'!AJ12+'1º Vuelta'!AR12+'1º Vuelta'!AZ12+'1º Vuelta'!BH12+'1º Vuelta'!BP12+'1º Vuelta'!BX12+'1º Vuelta'!CF12+'1º Vuelta'!CN12+'1º Vuelta'!CV12+'1º Vuelta'!DD12+'1º Vuelta'!DL12+'1º Vuelta'!DT12+'1º Vuelta'!EB12</f>
-        <v>211</v>
+        <v>282</v>
       </c>
       <c r="H47" s="7">
         <f>'1º Vuelta'!E12+'1º Vuelta'!M12+'1º Vuelta'!U12+'1º Vuelta'!AC12+'1º Vuelta'!AK12+'1º Vuelta'!AS12+'1º Vuelta'!BA12+'1º Vuelta'!BI12+'1º Vuelta'!BQ12+'1º Vuelta'!BY12+'1º Vuelta'!CG12+'1º Vuelta'!CO12+'1º Vuelta'!CW12+'1º Vuelta'!DE12+'1º Vuelta'!DM12+'1º Vuelta'!DU12+'1º Vuelta'!EC12</f>
@@ -37956,7 +38054,7 @@
       </c>
       <c r="G48" s="7">
         <f>'1º Vuelta'!D13+'1º Vuelta'!L13+'1º Vuelta'!T13+'1º Vuelta'!AB13+'1º Vuelta'!AJ13+'1º Vuelta'!AR13+'1º Vuelta'!AZ13+'1º Vuelta'!BH13+'1º Vuelta'!BP13+'1º Vuelta'!BX13+'1º Vuelta'!CF13+'1º Vuelta'!CN13+'1º Vuelta'!CV13+'1º Vuelta'!DD13+'1º Vuelta'!DL13+'1º Vuelta'!DT13+'1º Vuelta'!EB13</f>
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="H48" s="7">
         <f>'1º Vuelta'!E13+'1º Vuelta'!M13+'1º Vuelta'!U13+'1º Vuelta'!AC13+'1º Vuelta'!AK13+'1º Vuelta'!AS13+'1º Vuelta'!BA13+'1º Vuelta'!BI13+'1º Vuelta'!BQ13+'1º Vuelta'!BY13+'1º Vuelta'!CG13+'1º Vuelta'!CO13+'1º Vuelta'!CW13+'1º Vuelta'!DE13+'1º Vuelta'!DM13+'1º Vuelta'!DU13+'1º Vuelta'!EC13</f>
@@ -38014,7 +38112,7 @@
       </c>
       <c r="G50" s="7">
         <f>'1º Vuelta'!D15+'1º Vuelta'!L15+'1º Vuelta'!T15+'1º Vuelta'!AB15+'1º Vuelta'!AJ15+'1º Vuelta'!AR15+'1º Vuelta'!AZ15+'1º Vuelta'!BH15+'1º Vuelta'!BP15+'1º Vuelta'!BX15+'1º Vuelta'!CF15+'1º Vuelta'!CN15+'1º Vuelta'!CV15+'1º Vuelta'!DD15+'1º Vuelta'!DL15+'1º Vuelta'!DT15+'1º Vuelta'!EB15</f>
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="H50" s="7">
         <f>'1º Vuelta'!E15+'1º Vuelta'!M15+'1º Vuelta'!U15+'1º Vuelta'!AC15+'1º Vuelta'!AK15+'1º Vuelta'!AS15+'1º Vuelta'!BA15+'1º Vuelta'!BI15+'1º Vuelta'!BQ15+'1º Vuelta'!BY15+'1º Vuelta'!CG15+'1º Vuelta'!CO15+'1º Vuelta'!CW15+'1º Vuelta'!DE15+'1º Vuelta'!DM15+'1º Vuelta'!DU15+'1º Vuelta'!EC15</f>
@@ -38039,11 +38137,11 @@
       </c>
       <c r="F51" s="7">
         <f>'1º Vuelta'!C16+'1º Vuelta'!K16+'1º Vuelta'!S16+'1º Vuelta'!AA16+'1º Vuelta'!AI16+'1º Vuelta'!AQ16+'1º Vuelta'!AY16+'1º Vuelta'!BG16+'1º Vuelta'!BO16+'1º Vuelta'!BW16+'1º Vuelta'!CE16+'1º Vuelta'!CM16+'1º Vuelta'!CU16+'1º Vuelta'!DC16+'1º Vuelta'!DK16+'1º Vuelta'!DS16+'1º Vuelta'!EA16</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G51" s="7">
         <f>'1º Vuelta'!D16+'1º Vuelta'!L16+'1º Vuelta'!T16+'1º Vuelta'!AB16+'1º Vuelta'!AJ16+'1º Vuelta'!AR16+'1º Vuelta'!AZ16+'1º Vuelta'!BH16+'1º Vuelta'!BP16+'1º Vuelta'!BX16+'1º Vuelta'!CF16+'1º Vuelta'!CN16+'1º Vuelta'!CV16+'1º Vuelta'!DD16+'1º Vuelta'!DL16+'1º Vuelta'!DT16+'1º Vuelta'!EB16</f>
-        <v>515</v>
+        <v>605</v>
       </c>
       <c r="H51" s="7">
         <f>'1º Vuelta'!E16+'1º Vuelta'!M16+'1º Vuelta'!U16+'1º Vuelta'!AC16+'1º Vuelta'!AK16+'1º Vuelta'!AS16+'1º Vuelta'!BA16+'1º Vuelta'!BI16+'1º Vuelta'!BQ16+'1º Vuelta'!BY16+'1º Vuelta'!CG16+'1º Vuelta'!CO16+'1º Vuelta'!CW16+'1º Vuelta'!DE16+'1º Vuelta'!DM16+'1º Vuelta'!DU16+'1º Vuelta'!EC16</f>
@@ -38097,11 +38195,11 @@
       </c>
       <c r="F53" s="7">
         <f>'1º Vuelta'!C18+'1º Vuelta'!K18+'1º Vuelta'!S18+'1º Vuelta'!AA18+'1º Vuelta'!AI18+'1º Vuelta'!AQ18+'1º Vuelta'!AY18+'1º Vuelta'!BG18+'1º Vuelta'!BO18+'1º Vuelta'!BW18+'1º Vuelta'!CE18+'1º Vuelta'!CM18+'1º Vuelta'!CU18+'1º Vuelta'!DC18+'1º Vuelta'!DK18+'1º Vuelta'!DS18+'1º Vuelta'!EA18</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G53" s="7">
         <f>'1º Vuelta'!D18+'1º Vuelta'!L18+'1º Vuelta'!T18+'1º Vuelta'!AB18+'1º Vuelta'!AJ18+'1º Vuelta'!AR18+'1º Vuelta'!AZ18+'1º Vuelta'!BH18+'1º Vuelta'!BP18+'1º Vuelta'!BX18+'1º Vuelta'!CF18+'1º Vuelta'!CN18+'1º Vuelta'!CV18+'1º Vuelta'!DD18+'1º Vuelta'!DL18+'1º Vuelta'!DT18+'1º Vuelta'!EB18</f>
-        <v>583</v>
+        <v>673</v>
       </c>
       <c r="H53" s="7">
         <f>'1º Vuelta'!E18+'1º Vuelta'!M18+'1º Vuelta'!U18+'1º Vuelta'!AC18+'1º Vuelta'!AK18+'1º Vuelta'!AS18+'1º Vuelta'!BA18+'1º Vuelta'!BI18+'1º Vuelta'!BQ18+'1º Vuelta'!BY18+'1º Vuelta'!CG18+'1º Vuelta'!CO18+'1º Vuelta'!CW18+'1º Vuelta'!DE18+'1º Vuelta'!DM18+'1º Vuelta'!DU18+'1º Vuelta'!EC18</f>
@@ -38126,11 +38224,11 @@
       </c>
       <c r="F54" s="7">
         <f>'1º Vuelta'!C19+'1º Vuelta'!K19+'1º Vuelta'!S19+'1º Vuelta'!AA19+'1º Vuelta'!AI19+'1º Vuelta'!AQ19+'1º Vuelta'!AY19+'1º Vuelta'!BG19+'1º Vuelta'!BO19+'1º Vuelta'!BW19+'1º Vuelta'!CE19+'1º Vuelta'!CM19+'1º Vuelta'!CU19+'1º Vuelta'!DC19+'1º Vuelta'!DK19+'1º Vuelta'!DS19+'1º Vuelta'!EA19</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G54" s="7">
         <f>'1º Vuelta'!D19+'1º Vuelta'!L19+'1º Vuelta'!T19+'1º Vuelta'!AB19+'1º Vuelta'!AJ19+'1º Vuelta'!AR19+'1º Vuelta'!AZ19+'1º Vuelta'!BH19+'1º Vuelta'!BP19+'1º Vuelta'!BX19+'1º Vuelta'!CF19+'1º Vuelta'!CN19+'1º Vuelta'!CV19+'1º Vuelta'!DD19+'1º Vuelta'!DL19+'1º Vuelta'!DT19+'1º Vuelta'!EB19</f>
-        <v>293</v>
+        <v>374</v>
       </c>
       <c r="H54" s="7">
         <f>'1º Vuelta'!E19+'1º Vuelta'!M19+'1º Vuelta'!U19+'1º Vuelta'!AC19+'1º Vuelta'!AK19+'1º Vuelta'!AS19+'1º Vuelta'!BA19+'1º Vuelta'!BI19+'1º Vuelta'!BQ19+'1º Vuelta'!BY19+'1º Vuelta'!CG19+'1º Vuelta'!CO19+'1º Vuelta'!CW19+'1º Vuelta'!DE19+'1º Vuelta'!DM19+'1º Vuelta'!DU19+'1º Vuelta'!EC19</f>
@@ -38155,11 +38253,11 @@
       </c>
       <c r="F55" s="7">
         <f>'1º Vuelta'!C20+'1º Vuelta'!K20+'1º Vuelta'!S20+'1º Vuelta'!AA20+'1º Vuelta'!AI20+'1º Vuelta'!AQ20+'1º Vuelta'!AY20+'1º Vuelta'!BG20+'1º Vuelta'!BO20+'1º Vuelta'!BW20+'1º Vuelta'!CE20+'1º Vuelta'!CM20+'1º Vuelta'!CU20+'1º Vuelta'!DC20+'1º Vuelta'!DK20+'1º Vuelta'!DS20+'1º Vuelta'!EA20</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G55" s="7">
         <f>'1º Vuelta'!D20+'1º Vuelta'!L20+'1º Vuelta'!T20+'1º Vuelta'!AB20+'1º Vuelta'!AJ20+'1º Vuelta'!AR20+'1º Vuelta'!AZ20+'1º Vuelta'!BH20+'1º Vuelta'!BP20+'1º Vuelta'!BX20+'1º Vuelta'!CF20+'1º Vuelta'!CN20+'1º Vuelta'!CV20+'1º Vuelta'!DD20+'1º Vuelta'!DL20+'1º Vuelta'!DT20+'1º Vuelta'!EB20</f>
-        <v>463</v>
+        <v>553</v>
       </c>
       <c r="H55" s="7">
         <f>'1º Vuelta'!E20+'1º Vuelta'!M20+'1º Vuelta'!U20+'1º Vuelta'!AC20+'1º Vuelta'!AK20+'1º Vuelta'!AS20+'1º Vuelta'!BA20+'1º Vuelta'!BI20+'1º Vuelta'!BQ20+'1º Vuelta'!BY20+'1º Vuelta'!CG20+'1º Vuelta'!CO20+'1º Vuelta'!CW20+'1º Vuelta'!DE20+'1º Vuelta'!DM20+'1º Vuelta'!DU20+'1º Vuelta'!EC20</f>
@@ -38171,7 +38269,7 @@
       </c>
       <c r="J55" s="7">
         <f>'1º Vuelta'!G20+'1º Vuelta'!O20+'1º Vuelta'!W20+'1º Vuelta'!AE20+'1º Vuelta'!AM20+'1º Vuelta'!AU20+'1º Vuelta'!BC20+'1º Vuelta'!BK20+'1º Vuelta'!BS20+'1º Vuelta'!CA20+'1º Vuelta'!CI20+'1º Vuelta'!CQ20+'1º Vuelta'!CY20+'1º Vuelta'!DG20+'1º Vuelta'!DO20+'1º Vuelta'!DW20+'1º Vuelta'!EE20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="7">
         <f>'1º Vuelta'!H20+'1º Vuelta'!P20+'1º Vuelta'!X20+'1º Vuelta'!AF20+'1º Vuelta'!AN20+'1º Vuelta'!AV20+'1º Vuelta'!BD20+'1º Vuelta'!BL20+'1º Vuelta'!BT20+'1º Vuelta'!CB20+'1º Vuelta'!CJ20+'1º Vuelta'!CR20+'1º Vuelta'!CZ20+'1º Vuelta'!DH20+'1º Vuelta'!DP20+'1º Vuelta'!DX20+'1º Vuelta'!EF20</f>
@@ -38184,15 +38282,15 @@
       </c>
       <c r="F56" s="7">
         <f>'1º Vuelta'!C21+'1º Vuelta'!K21+'1º Vuelta'!S21+'1º Vuelta'!AA21+'1º Vuelta'!AI21+'1º Vuelta'!AQ21+'1º Vuelta'!AY21+'1º Vuelta'!BG21+'1º Vuelta'!BO21+'1º Vuelta'!BW21+'1º Vuelta'!CE21+'1º Vuelta'!CM21+'1º Vuelta'!CU21+'1º Vuelta'!DC21+'1º Vuelta'!DK21+'1º Vuelta'!DS21+'1º Vuelta'!EA21</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G56" s="7">
         <f>'1º Vuelta'!D21+'1º Vuelta'!L21+'1º Vuelta'!T21+'1º Vuelta'!AB21+'1º Vuelta'!AJ21+'1º Vuelta'!AR21+'1º Vuelta'!AZ21+'1º Vuelta'!BH21+'1º Vuelta'!BP21+'1º Vuelta'!BX21+'1º Vuelta'!CF21+'1º Vuelta'!CN21+'1º Vuelta'!CV21+'1º Vuelta'!DD21+'1º Vuelta'!DL21+'1º Vuelta'!DT21+'1º Vuelta'!EB21</f>
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="H56" s="7">
         <f>'1º Vuelta'!E21+'1º Vuelta'!M21+'1º Vuelta'!U21+'1º Vuelta'!AC21+'1º Vuelta'!AK21+'1º Vuelta'!AS21+'1º Vuelta'!BA21+'1º Vuelta'!BI21+'1º Vuelta'!BQ21+'1º Vuelta'!BY21+'1º Vuelta'!CG21+'1º Vuelta'!CO21+'1º Vuelta'!CW21+'1º Vuelta'!DE21+'1º Vuelta'!DM21+'1º Vuelta'!DU21+'1º Vuelta'!EC21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="7">
         <f>'1º Vuelta'!F21+'1º Vuelta'!N21+'1º Vuelta'!V21+'1º Vuelta'!AD21+'1º Vuelta'!AL21+'1º Vuelta'!AT21+'1º Vuelta'!BB21+'1º Vuelta'!BJ21+'1º Vuelta'!BR21+'1º Vuelta'!BZ21+'1º Vuelta'!CH21+'1º Vuelta'!CP21+'1º Vuelta'!CX21+'1º Vuelta'!DF21+'1º Vuelta'!DN21+'1º Vuelta'!DV21+'1º Vuelta'!ED21</f>
@@ -38213,11 +38311,11 @@
       </c>
       <c r="F57" s="7">
         <f>'1º Vuelta'!C22+'1º Vuelta'!K22+'1º Vuelta'!S22+'1º Vuelta'!AA22+'1º Vuelta'!AI22+'1º Vuelta'!AQ22+'1º Vuelta'!AY22+'1º Vuelta'!BG22+'1º Vuelta'!BO22+'1º Vuelta'!BW22+'1º Vuelta'!CE22+'1º Vuelta'!CM22+'1º Vuelta'!CU22+'1º Vuelta'!DC22+'1º Vuelta'!DK22+'1º Vuelta'!DS22+'1º Vuelta'!EA22</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G57" s="7">
         <f>'1º Vuelta'!D22+'1º Vuelta'!L22+'1º Vuelta'!T22+'1º Vuelta'!AB22+'1º Vuelta'!AJ22+'1º Vuelta'!AR22+'1º Vuelta'!AZ22+'1º Vuelta'!BH22+'1º Vuelta'!BP22+'1º Vuelta'!BX22+'1º Vuelta'!CF22+'1º Vuelta'!CN22+'1º Vuelta'!CV22+'1º Vuelta'!DD22+'1º Vuelta'!DL22+'1º Vuelta'!DT22+'1º Vuelta'!EB22</f>
-        <v>468</v>
+        <v>539</v>
       </c>
       <c r="H57" s="7">
         <f>'1º Vuelta'!E22+'1º Vuelta'!M22+'1º Vuelta'!U22+'1º Vuelta'!AC22+'1º Vuelta'!AK22+'1º Vuelta'!AS22+'1º Vuelta'!BA22+'1º Vuelta'!BI22+'1º Vuelta'!BQ22+'1º Vuelta'!BY22+'1º Vuelta'!CG22+'1º Vuelta'!CO22+'1º Vuelta'!CW22+'1º Vuelta'!DE22+'1º Vuelta'!DM22+'1º Vuelta'!DU22+'1º Vuelta'!EC22</f>
@@ -38246,7 +38344,7 @@
       </c>
       <c r="G58" s="7">
         <f>'1º Vuelta'!D23+'1º Vuelta'!L23+'1º Vuelta'!T23+'1º Vuelta'!AB23+'1º Vuelta'!AJ23+'1º Vuelta'!AR23+'1º Vuelta'!AZ23+'1º Vuelta'!BH23+'1º Vuelta'!BP23+'1º Vuelta'!BX23+'1º Vuelta'!CF23+'1º Vuelta'!CN23+'1º Vuelta'!CV23+'1º Vuelta'!DD23+'1º Vuelta'!DL23+'1º Vuelta'!DT23+'1º Vuelta'!EB23</f>
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="H58" s="7">
         <f>'1º Vuelta'!E23+'1º Vuelta'!M23+'1º Vuelta'!U23+'1º Vuelta'!AC23+'1º Vuelta'!AK23+'1º Vuelta'!AS23+'1º Vuelta'!BA23+'1º Vuelta'!BI23+'1º Vuelta'!BQ23+'1º Vuelta'!BY23+'1º Vuelta'!CG23+'1º Vuelta'!CO23+'1º Vuelta'!CW23+'1º Vuelta'!DE23+'1º Vuelta'!DM23+'1º Vuelta'!DU23+'1º Vuelta'!EC23</f>
@@ -38275,7 +38373,7 @@
       </c>
       <c r="G59" s="7">
         <f>'1º Vuelta'!D24+'1º Vuelta'!L24+'1º Vuelta'!T24+'1º Vuelta'!AB24+'1º Vuelta'!AJ24+'1º Vuelta'!AR24+'1º Vuelta'!AZ24+'1º Vuelta'!BH24+'1º Vuelta'!BP24+'1º Vuelta'!BX24+'1º Vuelta'!CF24+'1º Vuelta'!CN24+'1º Vuelta'!CV24+'1º Vuelta'!DD24+'1º Vuelta'!DL24+'1º Vuelta'!DT24+'1º Vuelta'!EB24</f>
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="H59" s="7">
         <f>'1º Vuelta'!E24+'1º Vuelta'!M24+'1º Vuelta'!U24+'1º Vuelta'!AC24+'1º Vuelta'!AK24+'1º Vuelta'!AS24+'1º Vuelta'!BA24+'1º Vuelta'!BI24+'1º Vuelta'!BQ24+'1º Vuelta'!BY24+'1º Vuelta'!CG24+'1º Vuelta'!CO24+'1º Vuelta'!CW24+'1º Vuelta'!DE24+'1º Vuelta'!DM24+'1º Vuelta'!DU24+'1º Vuelta'!EC24</f>
@@ -38406,382 +38504,382 @@
   <sheetData>
     <row r="1" spans="2:136" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B2" s="147" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="149"/>
-      <c r="J2" s="147" t="s">
+      <c r="B2" s="141" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="143"/>
+      <c r="J2" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="149"/>
-      <c r="R2" s="147" t="s">
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="143"/>
+      <c r="R2" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="149"/>
-      <c r="Z2" s="147" t="s">
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="143"/>
+      <c r="Z2" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="148"/>
-      <c r="AB2" s="148"/>
-      <c r="AC2" s="148"/>
-      <c r="AD2" s="148"/>
-      <c r="AE2" s="148"/>
-      <c r="AF2" s="149"/>
-      <c r="AH2" s="147" t="s">
+      <c r="AA2" s="142"/>
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="142"/>
+      <c r="AD2" s="142"/>
+      <c r="AE2" s="142"/>
+      <c r="AF2" s="143"/>
+      <c r="AH2" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="148"/>
-      <c r="AJ2" s="148"/>
-      <c r="AK2" s="148"/>
-      <c r="AL2" s="148"/>
-      <c r="AM2" s="148"/>
-      <c r="AN2" s="149"/>
-      <c r="AP2" s="147" t="s">
+      <c r="AI2" s="142"/>
+      <c r="AJ2" s="142"/>
+      <c r="AK2" s="142"/>
+      <c r="AL2" s="142"/>
+      <c r="AM2" s="142"/>
+      <c r="AN2" s="143"/>
+      <c r="AP2" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="AQ2" s="148"/>
-      <c r="AR2" s="148"/>
-      <c r="AS2" s="148"/>
-      <c r="AT2" s="148"/>
-      <c r="AU2" s="148"/>
-      <c r="AV2" s="149"/>
-      <c r="AX2" s="147" t="s">
+      <c r="AQ2" s="142"/>
+      <c r="AR2" s="142"/>
+      <c r="AS2" s="142"/>
+      <c r="AT2" s="142"/>
+      <c r="AU2" s="142"/>
+      <c r="AV2" s="143"/>
+      <c r="AX2" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="AY2" s="148"/>
-      <c r="AZ2" s="148"/>
-      <c r="BA2" s="148"/>
-      <c r="BB2" s="148"/>
-      <c r="BC2" s="148"/>
-      <c r="BD2" s="149"/>
-      <c r="BF2" s="147" t="s">
+      <c r="AY2" s="142"/>
+      <c r="AZ2" s="142"/>
+      <c r="BA2" s="142"/>
+      <c r="BB2" s="142"/>
+      <c r="BC2" s="142"/>
+      <c r="BD2" s="143"/>
+      <c r="BF2" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="BG2" s="148"/>
-      <c r="BH2" s="148"/>
-      <c r="BI2" s="148"/>
-      <c r="BJ2" s="148"/>
-      <c r="BK2" s="148"/>
-      <c r="BL2" s="149"/>
-      <c r="BN2" s="147" t="s">
+      <c r="BG2" s="142"/>
+      <c r="BH2" s="142"/>
+      <c r="BI2" s="142"/>
+      <c r="BJ2" s="142"/>
+      <c r="BK2" s="142"/>
+      <c r="BL2" s="143"/>
+      <c r="BN2" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="BO2" s="148"/>
-      <c r="BP2" s="148"/>
-      <c r="BQ2" s="148"/>
-      <c r="BR2" s="148"/>
-      <c r="BS2" s="148"/>
-      <c r="BT2" s="149"/>
-      <c r="BV2" s="147" t="s">
+      <c r="BO2" s="142"/>
+      <c r="BP2" s="142"/>
+      <c r="BQ2" s="142"/>
+      <c r="BR2" s="142"/>
+      <c r="BS2" s="142"/>
+      <c r="BT2" s="143"/>
+      <c r="BV2" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="BW2" s="148"/>
-      <c r="BX2" s="148"/>
-      <c r="BY2" s="148"/>
-      <c r="BZ2" s="148"/>
-      <c r="CA2" s="148"/>
-      <c r="CB2" s="149"/>
-      <c r="CD2" s="147" t="s">
+      <c r="BW2" s="142"/>
+      <c r="BX2" s="142"/>
+      <c r="BY2" s="142"/>
+      <c r="BZ2" s="142"/>
+      <c r="CA2" s="142"/>
+      <c r="CB2" s="143"/>
+      <c r="CD2" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="CE2" s="148"/>
-      <c r="CF2" s="148"/>
-      <c r="CG2" s="148"/>
-      <c r="CH2" s="148"/>
-      <c r="CI2" s="148"/>
-      <c r="CJ2" s="149"/>
-      <c r="CL2" s="147" t="s">
+      <c r="CE2" s="142"/>
+      <c r="CF2" s="142"/>
+      <c r="CG2" s="142"/>
+      <c r="CH2" s="142"/>
+      <c r="CI2" s="142"/>
+      <c r="CJ2" s="143"/>
+      <c r="CL2" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="CM2" s="148"/>
-      <c r="CN2" s="148"/>
-      <c r="CO2" s="148"/>
-      <c r="CP2" s="148"/>
-      <c r="CQ2" s="148"/>
-      <c r="CR2" s="149"/>
-      <c r="CT2" s="147" t="s">
+      <c r="CM2" s="142"/>
+      <c r="CN2" s="142"/>
+      <c r="CO2" s="142"/>
+      <c r="CP2" s="142"/>
+      <c r="CQ2" s="142"/>
+      <c r="CR2" s="143"/>
+      <c r="CT2" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="CU2" s="148"/>
-      <c r="CV2" s="148"/>
-      <c r="CW2" s="148"/>
-      <c r="CX2" s="148"/>
-      <c r="CY2" s="148"/>
-      <c r="CZ2" s="149"/>
-      <c r="DB2" s="147" t="s">
+      <c r="CU2" s="142"/>
+      <c r="CV2" s="142"/>
+      <c r="CW2" s="142"/>
+      <c r="CX2" s="142"/>
+      <c r="CY2" s="142"/>
+      <c r="CZ2" s="143"/>
+      <c r="DB2" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="DC2" s="148"/>
-      <c r="DD2" s="148"/>
-      <c r="DE2" s="148"/>
-      <c r="DF2" s="148"/>
-      <c r="DG2" s="148"/>
-      <c r="DH2" s="149"/>
-      <c r="DJ2" s="147" t="s">
+      <c r="DC2" s="142"/>
+      <c r="DD2" s="142"/>
+      <c r="DE2" s="142"/>
+      <c r="DF2" s="142"/>
+      <c r="DG2" s="142"/>
+      <c r="DH2" s="143"/>
+      <c r="DJ2" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="DK2" s="148"/>
-      <c r="DL2" s="148"/>
-      <c r="DM2" s="148"/>
-      <c r="DN2" s="148"/>
-      <c r="DO2" s="148"/>
-      <c r="DP2" s="149"/>
-      <c r="DR2" s="147" t="s">
+      <c r="DK2" s="142"/>
+      <c r="DL2" s="142"/>
+      <c r="DM2" s="142"/>
+      <c r="DN2" s="142"/>
+      <c r="DO2" s="142"/>
+      <c r="DP2" s="143"/>
+      <c r="DR2" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="DS2" s="148"/>
-      <c r="DT2" s="148"/>
-      <c r="DU2" s="148"/>
-      <c r="DV2" s="148"/>
-      <c r="DW2" s="148"/>
-      <c r="DX2" s="149"/>
-      <c r="DZ2" s="147" t="s">
+      <c r="DS2" s="142"/>
+      <c r="DT2" s="142"/>
+      <c r="DU2" s="142"/>
+      <c r="DV2" s="142"/>
+      <c r="DW2" s="142"/>
+      <c r="DX2" s="143"/>
+      <c r="DZ2" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="EA2" s="148"/>
-      <c r="EB2" s="148"/>
-      <c r="EC2" s="148"/>
-      <c r="ED2" s="148"/>
-      <c r="EE2" s="148"/>
-      <c r="EF2" s="149"/>
+      <c r="EA2" s="142"/>
+      <c r="EB2" s="142"/>
+      <c r="EC2" s="142"/>
+      <c r="ED2" s="142"/>
+      <c r="EE2" s="142"/>
+      <c r="EF2" s="143"/>
     </row>
     <row r="3" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="145" t="s">
+      <c r="B3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="143" t="s">
+      <c r="F3" s="144"/>
+      <c r="G3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="144"/>
-      <c r="J3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="145" t="s">
+      <c r="H3" s="146"/>
+      <c r="J3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="145"/>
-      <c r="O3" s="143" t="s">
+      <c r="N3" s="144"/>
+      <c r="O3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="144"/>
-      <c r="R3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="145" t="s">
+      <c r="P3" s="146"/>
+      <c r="R3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="145"/>
-      <c r="W3" s="143" t="s">
+      <c r="V3" s="144"/>
+      <c r="W3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="144"/>
-      <c r="Z3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="145" t="s">
+      <c r="X3" s="146"/>
+      <c r="Z3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="143" t="s">
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="144"/>
-      <c r="AH3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="142"/>
-      <c r="AJ3" s="142"/>
-      <c r="AK3" s="145" t="s">
+      <c r="AF3" s="146"/>
+      <c r="AH3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="148"/>
+      <c r="AJ3" s="148"/>
+      <c r="AK3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="145"/>
-      <c r="AM3" s="143" t="s">
+      <c r="AL3" s="144"/>
+      <c r="AM3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="144"/>
-      <c r="AP3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="142"/>
-      <c r="AR3" s="142"/>
-      <c r="AS3" s="145" t="s">
+      <c r="AN3" s="146"/>
+      <c r="AP3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="148"/>
+      <c r="AR3" s="148"/>
+      <c r="AS3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="145"/>
-      <c r="AU3" s="143" t="s">
+      <c r="AT3" s="144"/>
+      <c r="AU3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="144"/>
-      <c r="AX3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="142"/>
-      <c r="AZ3" s="142"/>
-      <c r="BA3" s="145" t="s">
+      <c r="AV3" s="146"/>
+      <c r="AX3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="148"/>
+      <c r="AZ3" s="148"/>
+      <c r="BA3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BB3" s="145"/>
-      <c r="BC3" s="143" t="s">
+      <c r="BB3" s="144"/>
+      <c r="BC3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="144"/>
-      <c r="BF3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="142"/>
-      <c r="BH3" s="142"/>
-      <c r="BI3" s="145" t="s">
+      <c r="BD3" s="146"/>
+      <c r="BF3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="148"/>
+      <c r="BH3" s="148"/>
+      <c r="BI3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BJ3" s="145"/>
-      <c r="BK3" s="143" t="s">
+      <c r="BJ3" s="144"/>
+      <c r="BK3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="144"/>
-      <c r="BN3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="142"/>
-      <c r="BP3" s="142"/>
-      <c r="BQ3" s="145" t="s">
+      <c r="BL3" s="146"/>
+      <c r="BN3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="148"/>
+      <c r="BP3" s="148"/>
+      <c r="BQ3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="145"/>
-      <c r="BS3" s="143" t="s">
+      <c r="BR3" s="144"/>
+      <c r="BS3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="144"/>
-      <c r="BV3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="142"/>
-      <c r="BX3" s="142"/>
-      <c r="BY3" s="145" t="s">
+      <c r="BT3" s="146"/>
+      <c r="BV3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="148"/>
+      <c r="BX3" s="148"/>
+      <c r="BY3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BZ3" s="145"/>
-      <c r="CA3" s="143" t="s">
+      <c r="BZ3" s="144"/>
+      <c r="CA3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="144"/>
-      <c r="CD3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="142"/>
-      <c r="CF3" s="142"/>
-      <c r="CG3" s="145" t="s">
+      <c r="CB3" s="146"/>
+      <c r="CD3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="148"/>
+      <c r="CF3" s="148"/>
+      <c r="CG3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="CH3" s="145"/>
-      <c r="CI3" s="143" t="s">
+      <c r="CH3" s="144"/>
+      <c r="CI3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CJ3" s="144"/>
-      <c r="CL3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="142"/>
-      <c r="CN3" s="142"/>
-      <c r="CO3" s="145" t="s">
+      <c r="CJ3" s="146"/>
+      <c r="CL3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="148"/>
+      <c r="CN3" s="148"/>
+      <c r="CO3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="CP3" s="145"/>
-      <c r="CQ3" s="143" t="s">
+      <c r="CP3" s="144"/>
+      <c r="CQ3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CR3" s="144"/>
-      <c r="CT3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="142"/>
-      <c r="CV3" s="142"/>
-      <c r="CW3" s="145" t="s">
+      <c r="CR3" s="146"/>
+      <c r="CT3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="148"/>
+      <c r="CV3" s="148"/>
+      <c r="CW3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="CX3" s="145"/>
-      <c r="CY3" s="143" t="s">
+      <c r="CX3" s="144"/>
+      <c r="CY3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CZ3" s="144"/>
-      <c r="DB3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="DC3" s="142"/>
-      <c r="DD3" s="142"/>
-      <c r="DE3" s="145" t="s">
+      <c r="CZ3" s="146"/>
+      <c r="DB3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="148"/>
+      <c r="DD3" s="148"/>
+      <c r="DE3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="DF3" s="145"/>
-      <c r="DG3" s="143" t="s">
+      <c r="DF3" s="144"/>
+      <c r="DG3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="DH3" s="144"/>
-      <c r="DJ3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="DK3" s="142"/>
-      <c r="DL3" s="142"/>
-      <c r="DM3" s="145" t="s">
+      <c r="DH3" s="146"/>
+      <c r="DJ3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="148"/>
+      <c r="DL3" s="148"/>
+      <c r="DM3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="DN3" s="145"/>
-      <c r="DO3" s="143" t="s">
+      <c r="DN3" s="144"/>
+      <c r="DO3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="DP3" s="144"/>
-      <c r="DR3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS3" s="142"/>
-      <c r="DT3" s="142"/>
-      <c r="DU3" s="145" t="s">
+      <c r="DP3" s="146"/>
+      <c r="DR3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS3" s="148"/>
+      <c r="DT3" s="148"/>
+      <c r="DU3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="DV3" s="145"/>
-      <c r="DW3" s="143" t="s">
+      <c r="DV3" s="144"/>
+      <c r="DW3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="DX3" s="144"/>
-      <c r="DZ3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="EA3" s="142"/>
-      <c r="EB3" s="142"/>
-      <c r="EC3" s="145" t="s">
+      <c r="DX3" s="146"/>
+      <c r="DZ3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="148"/>
+      <c r="EB3" s="148"/>
+      <c r="EC3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="ED3" s="145"/>
-      <c r="EE3" s="143" t="s">
+      <c r="ED3" s="144"/>
+      <c r="EE3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="EF3" s="144"/>
+      <c r="EF3" s="146"/>
     </row>
     <row r="4" spans="2:136" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -42554,6 +42652,62 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="DW3:DX3"/>
+    <mergeCell ref="DZ3:EB3"/>
+    <mergeCell ref="EC3:ED3"/>
+    <mergeCell ref="EE3:EF3"/>
+    <mergeCell ref="DG3:DH3"/>
+    <mergeCell ref="DJ3:DL3"/>
+    <mergeCell ref="DM3:DN3"/>
+    <mergeCell ref="DO3:DP3"/>
+    <mergeCell ref="DR3:DT3"/>
+    <mergeCell ref="DU3:DV3"/>
+    <mergeCell ref="DE3:DF3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="CG3:CH3"/>
+    <mergeCell ref="CI3:CJ3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="CQ3:CR3"/>
+    <mergeCell ref="CT3:CV3"/>
+    <mergeCell ref="CW3:CX3"/>
+    <mergeCell ref="CY3:CZ3"/>
+    <mergeCell ref="DB3:DD3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="DB2:DH2"/>
+    <mergeCell ref="DJ2:DP2"/>
+    <mergeCell ref="DR2:DX2"/>
+    <mergeCell ref="DZ2:EF2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="CL2:CR2"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="J2:P2"/>
@@ -42566,62 +42720,6 @@
     <mergeCell ref="BN2:BT2"/>
     <mergeCell ref="BV2:CB2"/>
     <mergeCell ref="CD2:CJ2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="DB2:DH2"/>
-    <mergeCell ref="DJ2:DP2"/>
-    <mergeCell ref="DR2:DX2"/>
-    <mergeCell ref="DZ2:EF2"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="DE3:DF3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="CG3:CH3"/>
-    <mergeCell ref="CI3:CJ3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="CQ3:CR3"/>
-    <mergeCell ref="CT3:CV3"/>
-    <mergeCell ref="CW3:CX3"/>
-    <mergeCell ref="CY3:CZ3"/>
-    <mergeCell ref="DB3:DD3"/>
-    <mergeCell ref="DW3:DX3"/>
-    <mergeCell ref="DZ3:EB3"/>
-    <mergeCell ref="EC3:ED3"/>
-    <mergeCell ref="EE3:EF3"/>
-    <mergeCell ref="DG3:DH3"/>
-    <mergeCell ref="DJ3:DL3"/>
-    <mergeCell ref="DM3:DN3"/>
-    <mergeCell ref="DO3:DP3"/>
-    <mergeCell ref="DR3:DT3"/>
-    <mergeCell ref="DU3:DV3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43499,30 +43597,30 @@
     </row>
     <row r="38" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="3:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="C39" s="147" t="s">
+      <c r="C39" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="148"/>
-      <c r="E39" s="148"/>
-      <c r="F39" s="148"/>
-      <c r="G39" s="148"/>
-      <c r="H39" s="148"/>
-      <c r="I39" s="149"/>
+      <c r="D39" s="142"/>
+      <c r="E39" s="142"/>
+      <c r="F39" s="142"/>
+      <c r="G39" s="142"/>
+      <c r="H39" s="142"/>
+      <c r="I39" s="143"/>
     </row>
     <row r="40" spans="3:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="C40" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="142"/>
-      <c r="E40" s="142"/>
-      <c r="F40" s="145" t="s">
+      <c r="C40" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="145"/>
-      <c r="H40" s="143" t="s">
+      <c r="G40" s="144"/>
+      <c r="H40" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="144"/>
+      <c r="I40" s="146"/>
     </row>
     <row r="41" spans="3:9" ht="19" x14ac:dyDescent="0.25">
       <c r="C41" s="14" t="s">
@@ -44269,14 +44367,14 @@
       </c>
       <c r="D3" s="8">
         <f>G42</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="8">
         <f t="shared" ref="G3:G24" si="0">H42</f>
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>10</v>
@@ -44445,14 +44543,14 @@
       </c>
       <c r="D7" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
-        <v>236</v>
+        <v>326</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>14</v>
@@ -44489,14 +44587,14 @@
       </c>
       <c r="D8" s="8">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>619</v>
+        <v>709</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>15</v>
@@ -44533,14 +44631,14 @@
       </c>
       <c r="D9" s="8">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>565</v>
+        <v>655</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>16</v>
@@ -44577,14 +44675,14 @@
       </c>
       <c r="D10" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
-        <v>211</v>
+        <v>282</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>17</v>
@@ -44628,7 +44726,7 @@
       </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>18</v>
@@ -44760,7 +44858,7 @@
       </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>21</v>
@@ -44797,14 +44895,14 @@
       </c>
       <c r="D15" s="8">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>515</v>
+        <v>605</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>22</v>
@@ -44885,14 +44983,14 @@
       </c>
       <c r="D17" s="8">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="0"/>
-        <v>583</v>
+        <v>673</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>24</v>
@@ -44929,14 +45027,14 @@
       </c>
       <c r="D18" s="8">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
-        <v>293</v>
+        <v>374</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>25</v>
@@ -44973,14 +45071,14 @@
       </c>
       <c r="D19" s="8">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>463</v>
+        <v>553</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>26</v>
@@ -45001,7 +45099,7 @@
       </c>
       <c r="P19" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="6" t="s">
         <v>26</v>
@@ -45017,21 +45115,21 @@
       </c>
       <c r="D20" s="8">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>27</v>
       </c>
       <c r="J20" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>27</v>
@@ -45061,14 +45159,14 @@
       </c>
       <c r="D21" s="8">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>468</v>
+        <v>539</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>28</v>
@@ -45112,7 +45210,7 @@
       </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>29</v>
@@ -45156,7 +45254,7 @@
       </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>50</v>
@@ -45244,19 +45342,19 @@
       <c r="L39" s="152"/>
     </row>
     <row r="40" spans="6:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="F40" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="142"/>
-      <c r="H40" s="142"/>
-      <c r="I40" s="145" t="s">
+      <c r="F40" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="145"/>
-      <c r="K40" s="143" t="s">
+      <c r="J40" s="144"/>
+      <c r="K40" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="144"/>
+      <c r="L40" s="146"/>
     </row>
     <row r="41" spans="6:12" ht="19" x14ac:dyDescent="0.25">
       <c r="F41" s="14" t="s">
@@ -45287,11 +45385,11 @@
       </c>
       <c r="G42" s="7">
         <f>'Estadisticas 1º Vuelta'!F40+'Estadisticas 2º Vuelta'!D42</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H42" s="7">
         <f>'Estadisticas 1º Vuelta'!G40+'Estadisticas 2º Vuelta'!E42</f>
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="I42" s="7">
         <f>'Estadisticas 1º Vuelta'!H40+'Estadisticas 2º Vuelta'!F42</f>
@@ -45403,11 +45501,11 @@
       </c>
       <c r="G46" s="7">
         <f>'Estadisticas 1º Vuelta'!F44+'Estadisticas 2º Vuelta'!D46</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46" s="7">
         <f>'Estadisticas 1º Vuelta'!G44+'Estadisticas 2º Vuelta'!E46</f>
-        <v>236</v>
+        <v>326</v>
       </c>
       <c r="I46" s="7">
         <f>'Estadisticas 1º Vuelta'!H44+'Estadisticas 2º Vuelta'!F46</f>
@@ -45432,11 +45530,11 @@
       </c>
       <c r="G47" s="7">
         <f>'Estadisticas 1º Vuelta'!F45+'Estadisticas 2º Vuelta'!D47</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H47" s="7">
         <f>'Estadisticas 1º Vuelta'!G45+'Estadisticas 2º Vuelta'!E47</f>
-        <v>619</v>
+        <v>709</v>
       </c>
       <c r="I47" s="7">
         <f>'Estadisticas 1º Vuelta'!H45+'Estadisticas 2º Vuelta'!F47</f>
@@ -45461,11 +45559,11 @@
       </c>
       <c r="G48" s="7">
         <f>'Estadisticas 1º Vuelta'!F46+'Estadisticas 2º Vuelta'!D48</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H48" s="7">
         <f>'Estadisticas 1º Vuelta'!G46+'Estadisticas 2º Vuelta'!E48</f>
-        <v>565</v>
+        <v>655</v>
       </c>
       <c r="I48" s="7">
         <f>'Estadisticas 1º Vuelta'!H46+'Estadisticas 2º Vuelta'!F48</f>
@@ -45490,11 +45588,11 @@
       </c>
       <c r="G49" s="7">
         <f>'Estadisticas 1º Vuelta'!F47+'Estadisticas 2º Vuelta'!D49</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H49" s="7">
         <f>'Estadisticas 1º Vuelta'!G47+'Estadisticas 2º Vuelta'!E49</f>
-        <v>211</v>
+        <v>282</v>
       </c>
       <c r="I49" s="7">
         <f>'Estadisticas 1º Vuelta'!H47+'Estadisticas 2º Vuelta'!F49</f>
@@ -45523,7 +45621,7 @@
       </c>
       <c r="H50" s="7">
         <f>'Estadisticas 1º Vuelta'!G48+'Estadisticas 2º Vuelta'!E50</f>
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="I50" s="7">
         <f>'Estadisticas 1º Vuelta'!H48+'Estadisticas 2º Vuelta'!F50</f>
@@ -45610,7 +45708,7 @@
       </c>
       <c r="H53" s="7">
         <f>'Estadisticas 1º Vuelta'!G50+'Estadisticas 2º Vuelta'!E53</f>
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="I53" s="7">
         <f>'Estadisticas 1º Vuelta'!H50+'Estadisticas 2º Vuelta'!F53</f>
@@ -45635,11 +45733,11 @@
       </c>
       <c r="G54" s="7">
         <f>'Estadisticas 1º Vuelta'!F51+'Estadisticas 2º Vuelta'!D54</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H54" s="7">
         <f>'Estadisticas 1º Vuelta'!G51+'Estadisticas 2º Vuelta'!E54</f>
-        <v>515</v>
+        <v>605</v>
       </c>
       <c r="I54" s="7">
         <f>'Estadisticas 1º Vuelta'!H51+'Estadisticas 2º Vuelta'!F54</f>
@@ -45693,11 +45791,11 @@
       </c>
       <c r="G56" s="7">
         <f>'Estadisticas 1º Vuelta'!F53+'Estadisticas 2º Vuelta'!D56</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H56" s="7">
         <f>'Estadisticas 1º Vuelta'!G53+'Estadisticas 2º Vuelta'!E56</f>
-        <v>583</v>
+        <v>673</v>
       </c>
       <c r="I56" s="7">
         <f>'Estadisticas 1º Vuelta'!H53+'Estadisticas 2º Vuelta'!F56</f>
@@ -45722,11 +45820,11 @@
       </c>
       <c r="G57" s="7">
         <f>'Estadisticas 1º Vuelta'!F54+'Estadisticas 2º Vuelta'!D57</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H57" s="7">
         <f>'Estadisticas 1º Vuelta'!G54+'Estadisticas 2º Vuelta'!E57</f>
-        <v>293</v>
+        <v>374</v>
       </c>
       <c r="I57" s="7">
         <f>'Estadisticas 1º Vuelta'!H54+'Estadisticas 2º Vuelta'!F57</f>
@@ -45751,11 +45849,11 @@
       </c>
       <c r="G58" s="7">
         <f>'Estadisticas 1º Vuelta'!F55+'Estadisticas 2º Vuelta'!D58</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H58" s="7">
         <f>'Estadisticas 1º Vuelta'!G55+'Estadisticas 2º Vuelta'!E58</f>
-        <v>463</v>
+        <v>553</v>
       </c>
       <c r="I58" s="7">
         <f>'Estadisticas 1º Vuelta'!H55+'Estadisticas 2º Vuelta'!F58</f>
@@ -45767,7 +45865,7 @@
       </c>
       <c r="K58" s="7">
         <f>'Estadisticas 1º Vuelta'!J55+'Estadisticas 2º Vuelta'!H58</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="8">
         <f>'Estadisticas 1º Vuelta'!K55+'Estadisticas 2º Vuelta'!I58</f>
@@ -45780,15 +45878,15 @@
       </c>
       <c r="G59" s="7">
         <f>'Estadisticas 1º Vuelta'!F56+'Estadisticas 2º Vuelta'!D59</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H59" s="7">
         <f>'Estadisticas 1º Vuelta'!G56+'Estadisticas 2º Vuelta'!E59</f>
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="I59" s="7">
         <f>'Estadisticas 1º Vuelta'!H56+'Estadisticas 2º Vuelta'!F59</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" s="7">
         <f>'Estadisticas 1º Vuelta'!I56+'Estadisticas 2º Vuelta'!G59</f>
@@ -45809,11 +45907,11 @@
       </c>
       <c r="G60" s="7">
         <f>'Estadisticas 1º Vuelta'!F57+'Estadisticas 2º Vuelta'!D60</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H60" s="7">
         <f>'Estadisticas 1º Vuelta'!G57+'Estadisticas 2º Vuelta'!E60</f>
-        <v>468</v>
+        <v>539</v>
       </c>
       <c r="I60" s="7">
         <f>'Estadisticas 1º Vuelta'!H57+'Estadisticas 2º Vuelta'!F60</f>
@@ -45842,7 +45940,7 @@
       </c>
       <c r="H61" s="7">
         <f>'Estadisticas 1º Vuelta'!G58+'Estadisticas 2º Vuelta'!E61</f>
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="I61" s="7">
         <f>'Estadisticas 1º Vuelta'!H58+'Estadisticas 2º Vuelta'!F61</f>
@@ -45871,7 +45969,7 @@
       </c>
       <c r="H62" s="7">
         <f>'Estadisticas 1º Vuelta'!G59+'Estadisticas 2º Vuelta'!E62</f>
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="I62" s="7">
         <f>'Estadisticas 1º Vuelta'!H59+'Estadisticas 2º Vuelta'!F62</f>

--- a/SALAMANCA UDS 2324.xlsx
+++ b/SALAMANCA UDS 2324.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PRETEMPORADA" sheetId="10" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3347" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="202">
   <si>
     <t>Jugadores</t>
   </si>
@@ -1005,6 +1005,32 @@
   <si>
     <t>CRISTO ATLÉTICO PALENCIA</t>
   </si>
+  <si>
+    <t>ALMAZÁN</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5/11/2023</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1943,6 +1969,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1955,16 +1993,22 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1974,24 +2018,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2600,42 +2626,42 @@
       </c>
     </row>
     <row r="3" spans="2:24" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139" t="s">
+      <c r="B3" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="140"/>
-      <c r="H3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="139" t="s">
+      <c r="F3" s="136"/>
+      <c r="H3" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="140"/>
-      <c r="N3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="139" t="s">
+      <c r="L3" s="136"/>
+      <c r="N3" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="140"/>
-      <c r="T3" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="135" t="s">
+      <c r="R3" s="136"/>
+      <c r="T3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="136"/>
+      <c r="X3" s="140"/>
     </row>
     <row r="4" spans="2:24" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -3971,18 +3997,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:R3"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3993,8 +4019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2752"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4356,7 +4382,7 @@
       </c>
       <c r="K9" s="53" t="str">
         <f>IF(H9="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F9,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="M9" t="str">
         <f>IF(H9="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B9,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4364,7 +4390,7 @@
       </c>
       <c r="N9" t="str">
         <f>IF(H9="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F9,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4396,7 +4422,7 @@
       </c>
       <c r="K10" s="53" t="str">
         <f>IF(H10="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F10,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="M10" t="str">
         <f>IF(H10="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B10,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4404,7 +4430,7 @@
       </c>
       <c r="N10" t="str">
         <f>IF(H10="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F10,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -4432,7 +4458,7 @@
       </c>
       <c r="J11" s="53" t="str">
         <f>IF(H11="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B11,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="K11" s="53" t="str">
         <f>IF(H11="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F11,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4440,7 +4466,7 @@
       </c>
       <c r="M11" t="str">
         <f>IF(H11="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B11,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="N11" t="str">
         <f>IF(H11="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F11,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4632,7 +4658,7 @@
       </c>
       <c r="J16" s="53" t="str">
         <f>IF(H16="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B16,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="K16" s="53" t="str">
         <f>IF(H16="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F16,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4640,7 +4666,7 @@
       </c>
       <c r="M16" t="str">
         <f>IF(H16="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B16,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="N16" t="str">
         <f>IF(H16="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F16,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4836,7 +4862,7 @@
       </c>
       <c r="K21" s="53" t="str">
         <f>IF(H21="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F21,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="M21" t="str">
         <f>IF(H21="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B21,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4844,7 +4870,7 @@
       </c>
       <c r="N21" t="str">
         <f>IF(H21="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F21,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -4916,7 +4942,7 @@
       </c>
       <c r="K23" s="53" t="str">
         <f>IF(H23="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F23,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="M23" t="str">
         <f>IF(H23="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B23,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4924,7 +4950,7 @@
       </c>
       <c r="N23" t="str">
         <f>IF(H23="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F23,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -5152,7 +5178,7 @@
       </c>
       <c r="J29" s="53" t="str">
         <f>IF(H29="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B29,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="K29" s="53" t="str">
         <f>IF(H29="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F29,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5160,7 +5186,7 @@
       </c>
       <c r="M29" t="str">
         <f>IF(H29="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B29,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="N29" t="str">
         <f>IF(H29="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F29,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5308,7 +5334,7 @@
       </c>
       <c r="J33" s="53" t="str">
         <f>IF(H33="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B33,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="K33" s="53" t="str">
         <f>IF(H33="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F33,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5316,7 +5342,7 @@
       </c>
       <c r="M33" t="str">
         <f>IF(H33="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B33,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="N33" t="str">
         <f>IF(H33="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F33,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5508,7 +5534,7 @@
       </c>
       <c r="J38" s="53" t="str">
         <f>IF(H38="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B38,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="K38" s="53" t="str">
         <f>IF(H38="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F38,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5516,7 +5542,7 @@
       </c>
       <c r="M38" t="str">
         <f>IF(H38="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B38,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="N38" t="str">
         <f>IF(H38="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F38,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5632,7 +5658,7 @@
       </c>
       <c r="K41" s="53" t="str">
         <f>IF(H41="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F41,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="M41" t="str">
         <f>IF(H41="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B41,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5640,7 +5666,7 @@
       </c>
       <c r="N41" t="str">
         <f>IF(H41="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F41,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -5912,7 +5938,7 @@
       </c>
       <c r="K48" s="53" t="str">
         <f>IF(H48="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F48,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="M48" t="str">
         <f>IF(H48="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B48,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5920,7 +5946,7 @@
       </c>
       <c r="N48" t="str">
         <f>IF(H48="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F48,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -5988,7 +6014,7 @@
       </c>
       <c r="J50" s="53" t="str">
         <f>IF(H50="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B50,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="K50" s="53" t="str">
         <f>IF(H50="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F50,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5996,7 +6022,7 @@
       </c>
       <c r="M50" t="str">
         <f>IF(H50="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B50,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="N50" t="str">
         <f>IF(H50="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F50,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6268,7 +6294,7 @@
       </c>
       <c r="J57" s="53" t="str">
         <f>IF(H57="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B57,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="K57" s="53" t="str">
         <f>IF(H57="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F57,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6276,7 +6302,7 @@
       </c>
       <c r="M57" t="str">
         <f>IF(H57="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B57,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="N57" t="str">
         <f>IF(H57="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F57,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6312,7 +6338,7 @@
       </c>
       <c r="K58" s="53" t="str">
         <f>IF(H58="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F58,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="M58" t="str">
         <f>IF(H58="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B58,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6320,7 +6346,7 @@
       </c>
       <c r="N58" t="str">
         <f>IF(H58="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F58,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -6668,19 +6694,19 @@
       </c>
       <c r="J67" s="53" t="str">
         <f>IF(H67="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B67,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="K67" s="53" t="str">
         <f>IF(H67="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F67,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="M67" t="str">
         <f>IF(H67="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B67,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="N67" t="str">
         <f>IF(H67="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F67,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -6930,33 +6956,37 @@
       <c r="B74" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="C74" s="78"/>
+      <c r="C74" s="78">
+        <v>0</v>
+      </c>
       <c r="D74" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="78"/>
+      <c r="E74" s="78">
+        <v>0</v>
+      </c>
       <c r="F74" s="79" t="s">
         <v>120</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Empate</v>
       </c>
       <c r="J74" s="53" t="str">
         <f>IF(H74="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B74,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="K74" s="53" t="str">
         <f>IF(H74="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F74,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="M74" t="str">
         <f>IF(H74="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B74,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="N74" t="str">
         <f>IF(H74="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F74,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -6966,17 +6996,21 @@
       <c r="B75" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="C75" s="80"/>
+      <c r="C75" s="80">
+        <v>1</v>
+      </c>
       <c r="D75" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E75" s="80"/>
+      <c r="E75" s="80">
+        <v>3</v>
+      </c>
       <c r="F75" s="81" t="s">
         <v>122</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Visitante</v>
       </c>
       <c r="J75" s="53" t="str">
         <f>IF(H75="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B75,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -7002,17 +7036,21 @@
       <c r="B76" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="C76" s="80"/>
+      <c r="C76" s="80">
+        <v>1</v>
+      </c>
       <c r="D76" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="80"/>
+      <c r="E76" s="80">
+        <v>1</v>
+      </c>
       <c r="F76" s="81" t="s">
         <v>117</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Empate</v>
       </c>
       <c r="J76" s="53" t="str">
         <f>IF(H76="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B76,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -7020,7 +7058,7 @@
       </c>
       <c r="K76" s="53" t="str">
         <f>IF(H76="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F76,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
       <c r="M76" t="str">
         <f>IF(H76="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B76,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -7028,7 +7066,7 @@
       </c>
       <c r="N76" t="str">
         <f>IF(H76="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F76,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.5(2)</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -7038,21 +7076,25 @@
       <c r="B77" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="C77" s="80"/>
+      <c r="C77" s="80">
+        <v>3</v>
+      </c>
       <c r="D77" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E77" s="80"/>
+      <c r="E77" s="80">
+        <v>1</v>
+      </c>
       <c r="F77" s="81" t="s">
         <v>119</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Local</v>
       </c>
       <c r="J77" s="53" t="str">
         <f>IF(H77="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B77,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="K77" s="53" t="str">
         <f>IF(H77="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F77,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -7060,7 +7102,7 @@
       </c>
       <c r="M77" t="str">
         <f>IF(H77="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B77,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="N77" t="str">
         <f>IF(H77="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F77,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -7074,17 +7116,21 @@
       <c r="B78" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="C78" s="80"/>
+      <c r="C78" s="80">
+        <v>0</v>
+      </c>
       <c r="D78" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E78" s="80"/>
+      <c r="E78" s="80">
+        <v>1</v>
+      </c>
       <c r="F78" s="81" t="s">
         <v>121</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Visitante</v>
       </c>
       <c r="J78" s="53" t="str">
         <f>IF(H78="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B78,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -7110,17 +7156,21 @@
       <c r="B79" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="C79" s="80"/>
+      <c r="C79" s="80">
+        <v>0</v>
+      </c>
       <c r="D79" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E79" s="80"/>
+      <c r="E79" s="80">
+        <v>0</v>
+      </c>
       <c r="F79" s="81" t="s">
         <v>127</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Empate</v>
       </c>
       <c r="J79" s="53" t="str">
         <f>IF(H79="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B79,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -7128,7 +7178,7 @@
       </c>
       <c r="K79" s="53" t="str">
         <f>IF(H79="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F79,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="M79" t="str">
         <f>IF(H79="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B79,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -7146,21 +7196,25 @@
       <c r="B80" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="C80" s="80"/>
+      <c r="C80" s="80">
+        <v>0</v>
+      </c>
       <c r="D80" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E80" s="80"/>
+      <c r="E80" s="80">
+        <v>0</v>
+      </c>
       <c r="F80" s="81" t="s">
         <v>125</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Empate</v>
       </c>
       <c r="J80" s="53" t="str">
         <f>IF(H80="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B80,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.13(2)</v>
       </c>
       <c r="K80" s="53" t="str">
         <f>IF(H80="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F80,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -7182,21 +7236,25 @@
       <c r="B81" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="C81" s="80"/>
+      <c r="C81" s="80">
+        <v>1</v>
+      </c>
       <c r="D81" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E81" s="80"/>
+      <c r="E81" s="80">
+        <v>0</v>
+      </c>
       <c r="F81" s="81" t="s">
         <v>130</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Local</v>
       </c>
       <c r="J81" s="53" t="str">
         <f>IF(H81="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B81,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="K81" s="53" t="str">
         <f>IF(H81="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F81,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -7204,7 +7262,7 @@
       </c>
       <c r="M81" t="str">
         <f>IF(H81="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B81,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="N81" t="str">
         <f>IF(H81="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F81,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -7218,21 +7276,25 @@
       <c r="B82" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="C82" s="82"/>
+      <c r="C82" s="82">
+        <v>2</v>
+      </c>
       <c r="D82" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="E82" s="82"/>
+      <c r="E82" s="82">
+        <v>2</v>
+      </c>
       <c r="F82" s="83" t="s">
         <v>128</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Empate</v>
       </c>
       <c r="J82" s="53" t="str">
         <f>IF(H82="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B82,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="K82" s="53" t="str">
         <f>IF(H82="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F82,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -7240,7 +7302,7 @@
       </c>
       <c r="M82" t="str">
         <f>IF(H82="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B82,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.10(2)</v>
       </c>
       <c r="N82" t="str">
         <f>IF(H82="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F82,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -22828,11 +22890,11 @@
       </c>
       <c r="B2" s="53">
         <f>C2+D2+E2</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="53">
         <f t="shared" ref="C2:C19" si="0">COUNTIFS(EQUIPO_LOCAL,$A2, GANADOR,"Local")+COUNTIFS(EQUIPO_VISITANTE,$A2,GANADOR,"Visitante")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="53">
         <f t="shared" ref="D2:D19" si="1">COUNTIFS(EQUIPO_LOCAL,$A2, GANADOR,"Empate")+COUNTIFS(EQUIPO_VISITANTE,$A2,GANADOR,"Empate")</f>
@@ -22844,19 +22906,19 @@
       </c>
       <c r="F2" s="53">
         <f t="shared" ref="F2:F19" si="3">SUMIFS(GOLES_LOCAL,EQUIPO_LOCAL,$A2)+SUMIFS(GOLES_VISITANTE,EQUIPO_VISITANTE,$A2)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G2" s="53">
         <f t="shared" ref="G2:G19" si="4">SUMIFS(GOLES_VISITANTE,EQUIPO_LOCAL,$A2)+SUMIFS(GOLES_LOCAL,EQUIPO_VISITANTE,$A2)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="53">
         <f>F2-G2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="53">
         <f>3*C2+1*D2</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J2" s="53">
         <f>COUNTIF(I$2:I$19,"&gt;"&amp;I2)+1</f>
@@ -22915,37 +22977,37 @@
       <c r="Y2" s="63"/>
       <c r="Z2" s="53">
         <f>IF(X2="-","-",H2)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA2" s="53">
         <f>W2+COUNTIFS(X$2:X$19,X2,Z$2:Z$19,"&gt;"&amp;Z2)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB2" s="53" t="str">
         <f>IF(COUNTIF(AA$2:AA$19,AA2)=1,"-","Pos."&amp;AA2&amp;"("&amp;COUNTIF(AA$2:AA$19,AA2)&amp;")")</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="AC2" s="65"/>
-      <c r="AD2" s="53" t="str">
+      <c r="AD2" s="53">
         <f>IF(AB2="-","-",F2)</f>
-        <v>-</v>
+        <v>11</v>
       </c>
       <c r="AE2" s="53">
         <f>AA2+COUNTIFS(AB$2:AB$19,AB2,AD$2:AD$19,"&gt;"&amp;AD2)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF2" s="53" t="str">
         <f>IF(COUNTIF(AE$2:AE$19,AE2)=1,"-","Pos."&amp;AE2&amp;"("&amp;COUNTIF(AE$2:AE$19,AE2)&amp;")")</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="AG2" s="65"/>
-      <c r="AH2" s="53" t="str">
+      <c r="AH2" s="53">
         <f>IF(AF2="-","-",COUNTIF(A$2:A$19,"&lt;"&amp;A2))</f>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="53">
         <f>AE2+COUNTIFS(AF$2:AF$19,AF2,AH$2:AH$19,"&lt;"&amp;AH2)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
@@ -22954,7 +23016,7 @@
       </c>
       <c r="B3" s="53">
         <f t="shared" ref="B3:B19" si="8">C3+D3+E3</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="53">
         <f t="shared" si="0"/>
@@ -22962,7 +23024,7 @@
       </c>
       <c r="D3" s="53">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="53">
         <f t="shared" si="2"/>
@@ -22982,7 +23044,7 @@
       </c>
       <c r="I3" s="53">
         <f t="shared" ref="I3:I19" si="10">3*C3+1*D3</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3" s="53">
         <f t="shared" ref="J3:J19" si="11">COUNTIF(I$2:I$19,"&gt;"&amp;I3)+1</f>
@@ -23080,11 +23142,11 @@
       </c>
       <c r="B4" s="53">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="53">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="53">
         <f t="shared" si="1"/>
@@ -23096,7 +23158,7 @@
       </c>
       <c r="F4" s="53">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="53">
         <f t="shared" si="4"/>
@@ -23104,15 +23166,15 @@
       </c>
       <c r="H4" s="53">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" s="53">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J4" s="53">
         <f t="shared" si="11"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K4" s="53" t="str">
         <f t="shared" si="12"/>
@@ -23137,7 +23199,7 @@
       </c>
       <c r="Q4" s="53">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R4" s="53" t="str">
         <f t="shared" si="16"/>
@@ -23158,7 +23220,7 @@
       </c>
       <c r="W4" s="53">
         <f t="shared" si="19"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X4" s="53" t="str">
         <f t="shared" si="20"/>
@@ -23171,7 +23233,7 @@
       </c>
       <c r="AA4" s="53">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB4" s="53" t="str">
         <f t="shared" si="23"/>
@@ -23184,7 +23246,7 @@
       </c>
       <c r="AE4" s="53">
         <f t="shared" si="25"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF4" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23197,7 +23259,7 @@
       </c>
       <c r="AI4" s="53">
         <f t="shared" si="28"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
@@ -23206,7 +23268,7 @@
       </c>
       <c r="B5" s="53">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="53">
         <f t="shared" si="0"/>
@@ -23214,7 +23276,7 @@
       </c>
       <c r="D5" s="53">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="53">
         <f t="shared" si="2"/>
@@ -23234,7 +23296,7 @@
       </c>
       <c r="I5" s="53">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J5" s="53">
         <f t="shared" si="11"/>
@@ -23332,7 +23394,7 @@
       </c>
       <c r="B6" s="53">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="53">
         <f t="shared" si="0"/>
@@ -23340,7 +23402,7 @@
       </c>
       <c r="D6" s="53">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="53">
         <f t="shared" si="2"/>
@@ -23348,11 +23410,11 @@
       </c>
       <c r="F6" s="53">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" s="53">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6" s="53">
         <f t="shared" si="9"/>
@@ -23360,7 +23422,7 @@
       </c>
       <c r="I6" s="53">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6" s="53">
         <f t="shared" si="11"/>
@@ -23458,7 +23520,7 @@
       </c>
       <c r="B7" s="53">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="53">
         <f t="shared" si="0"/>
@@ -23470,7 +23532,7 @@
       </c>
       <c r="E7" s="53">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" s="53">
         <f t="shared" si="3"/>
@@ -23478,11 +23540,11 @@
       </c>
       <c r="G7" s="53">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" s="53">
         <f t="shared" si="9"/>
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="I7" s="53">
         <f t="shared" si="10"/>
@@ -23584,7 +23646,7 @@
       </c>
       <c r="B8" s="53">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="53">
         <f t="shared" si="0"/>
@@ -23596,19 +23658,19 @@
       </c>
       <c r="E8" s="53">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="53">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" s="53">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H8" s="53">
         <f t="shared" si="9"/>
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="I8" s="53">
         <f t="shared" si="10"/>
@@ -23710,7 +23772,7 @@
       </c>
       <c r="B9" s="53">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="53">
         <f t="shared" si="0"/>
@@ -23718,7 +23780,7 @@
       </c>
       <c r="D9" s="53">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" s="53">
         <f t="shared" si="2"/>
@@ -23738,7 +23800,7 @@
       </c>
       <c r="I9" s="53">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J9" s="53">
         <f t="shared" si="11"/>
@@ -23836,11 +23898,11 @@
       </c>
       <c r="B10" s="53">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="53">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="53">
         <f t="shared" si="1"/>
@@ -23852,19 +23914,19 @@
       </c>
       <c r="F10" s="53">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G10" s="53">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="53">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I10" s="53">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J10" s="53">
         <f t="shared" si="11"/>
@@ -23872,24 +23934,24 @@
       </c>
       <c r="K10" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="L10" s="64"/>
-      <c r="M10" s="53">
+      <c r="M10" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="53">
+        <v>-</v>
+      </c>
+      <c r="N10" s="53" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O10" s="53">
+        <v>-</v>
+      </c>
+      <c r="O10" s="53" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="53">
+        <v>-</v>
+      </c>
+      <c r="P10" s="53" t="str">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>-</v>
       </c>
       <c r="Q10" s="53">
         <f t="shared" si="15"/>
@@ -23897,20 +23959,20 @@
       </c>
       <c r="R10" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="S10" s="65"/>
-      <c r="T10" s="53">
+      <c r="T10" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="53">
+        <v>-</v>
+      </c>
+      <c r="U10" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="53">
+        <v>-</v>
+      </c>
+      <c r="V10" s="53" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W10" s="53">
         <f t="shared" si="19"/>
@@ -23918,16 +23980,16 @@
       </c>
       <c r="X10" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="Y10" s="63"/>
-      <c r="Z10" s="53">
+      <c r="Z10" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>10</v>
+        <v>-</v>
       </c>
       <c r="AA10" s="53">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="53" t="str">
         <f t="shared" si="23"/>
@@ -23940,7 +24002,7 @@
       </c>
       <c r="AE10" s="53">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF10" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23953,7 +24015,7 @@
       </c>
       <c r="AI10" s="53">
         <f>AE10+COUNTIFS(AF$2:AF$19,AF10,AH$2:AH$19,"&lt;"&amp;AH10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
@@ -23962,11 +24024,11 @@
       </c>
       <c r="B11" s="53">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="53">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="53">
         <f t="shared" si="1"/>
@@ -23978,7 +24040,7 @@
       </c>
       <c r="F11" s="53">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" s="53">
         <f t="shared" si="4"/>
@@ -23986,11 +24048,11 @@
       </c>
       <c r="H11" s="53">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="53">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J11" s="53">
         <f t="shared" si="11"/>
@@ -24049,7 +24111,7 @@
       <c r="Y11" s="63"/>
       <c r="Z11" s="53">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA11" s="53">
         <f t="shared" si="22"/>
@@ -24057,12 +24119,12 @@
       </c>
       <c r="AB11" s="53" t="str">
         <f t="shared" si="23"/>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="AC11" s="65"/>
-      <c r="AD11" s="53" t="str">
+      <c r="AD11" s="53">
         <f t="shared" si="24"/>
-        <v>-</v>
+        <v>11</v>
       </c>
       <c r="AE11" s="53">
         <f t="shared" si="25"/>
@@ -24070,16 +24132,16 @@
       </c>
       <c r="AF11" s="53" t="str">
         <f t="shared" si="26"/>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="AG11" s="65"/>
-      <c r="AH11" s="53" t="str">
+      <c r="AH11" s="53">
         <f t="shared" si="27"/>
-        <v>-</v>
+        <v>9</v>
       </c>
       <c r="AI11" s="53">
         <f t="shared" si="28"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
@@ -24088,7 +24150,7 @@
       </c>
       <c r="B12" s="53">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="53">
         <f t="shared" si="0"/>
@@ -24096,7 +24158,7 @@
       </c>
       <c r="D12" s="53">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="53">
         <f t="shared" si="2"/>
@@ -24116,7 +24178,7 @@
       </c>
       <c r="I12" s="53">
         <f t="shared" si="10"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J12" s="53">
         <f t="shared" si="11"/>
@@ -24214,7 +24276,7 @@
       </c>
       <c r="B13" s="53">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="53">
         <f t="shared" si="0"/>
@@ -24226,19 +24288,19 @@
       </c>
       <c r="E13" s="53">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="53">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="53">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H13" s="53">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I13" s="53">
         <f t="shared" si="10"/>
@@ -24246,7 +24308,7 @@
       </c>
       <c r="J13" s="53">
         <f t="shared" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" s="53" t="str">
         <f t="shared" si="12"/>
@@ -24271,7 +24333,7 @@
       </c>
       <c r="Q13" s="53">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R13" s="53" t="str">
         <f t="shared" si="16"/>
@@ -24292,7 +24354,7 @@
       </c>
       <c r="W13" s="53">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X13" s="53" t="str">
         <f t="shared" si="20"/>
@@ -24305,7 +24367,7 @@
       </c>
       <c r="AA13" s="53">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB13" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24318,7 +24380,7 @@
       </c>
       <c r="AE13" s="53">
         <f t="shared" si="25"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF13" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24331,7 +24393,7 @@
       </c>
       <c r="AI13" s="53">
         <f t="shared" si="28"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
@@ -24340,7 +24402,7 @@
       </c>
       <c r="B14" s="53">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="53">
         <f t="shared" si="0"/>
@@ -24348,7 +24410,7 @@
       </c>
       <c r="D14" s="53">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="53">
         <f t="shared" si="2"/>
@@ -24356,11 +24418,11 @@
       </c>
       <c r="F14" s="53">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G14" s="53">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" s="53">
         <f t="shared" si="9"/>
@@ -24368,7 +24430,7 @@
       </c>
       <c r="I14" s="53">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J14" s="53">
         <f t="shared" si="11"/>
@@ -24466,7 +24528,7 @@
       </c>
       <c r="B15" s="53">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="53">
         <f t="shared" si="0"/>
@@ -24478,7 +24540,7 @@
       </c>
       <c r="E15" s="53">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" s="53">
         <f t="shared" si="3"/>
@@ -24486,11 +24548,11 @@
       </c>
       <c r="G15" s="53">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H15" s="53">
         <f t="shared" si="9"/>
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="I15" s="53">
         <f t="shared" si="10"/>
@@ -24592,7 +24654,7 @@
       </c>
       <c r="B16" s="53">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="53">
         <f t="shared" si="0"/>
@@ -24600,7 +24662,7 @@
       </c>
       <c r="D16" s="53">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="53">
         <f t="shared" si="2"/>
@@ -24608,11 +24670,11 @@
       </c>
       <c r="F16" s="53">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" s="53">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="53">
         <f t="shared" si="9"/>
@@ -24620,70 +24682,70 @@
       </c>
       <c r="I16" s="53">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J16" s="53">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="L16" s="64"/>
-      <c r="M16" s="53">
+      <c r="M16" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="53">
+        <v>-</v>
+      </c>
+      <c r="N16" s="53" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="53">
+        <v>-</v>
+      </c>
+      <c r="O16" s="53" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="53">
+        <v>-</v>
+      </c>
+      <c r="P16" s="53" t="str">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>-</v>
       </c>
       <c r="Q16" s="53">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R16" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="S16" s="65"/>
-      <c r="T16" s="53">
+      <c r="T16" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="53">
+        <v>-</v>
+      </c>
+      <c r="U16" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="53">
+        <v>-</v>
+      </c>
+      <c r="V16" s="53" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W16" s="53">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X16" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.1(2)</v>
+        <v>-</v>
       </c>
       <c r="Y16" s="63"/>
-      <c r="Z16" s="53">
+      <c r="Z16" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>14</v>
+        <v>-</v>
       </c>
       <c r="AA16" s="53">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB16" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24696,7 +24758,7 @@
       </c>
       <c r="AE16" s="53">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF16" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24709,7 +24771,7 @@
       </c>
       <c r="AI16" s="53">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
@@ -24718,7 +24780,7 @@
       </c>
       <c r="B17" s="53">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" s="53">
         <f t="shared" si="0"/>
@@ -24726,7 +24788,7 @@
       </c>
       <c r="D17" s="53">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="53">
         <f t="shared" si="2"/>
@@ -24746,7 +24808,7 @@
       </c>
       <c r="I17" s="53">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J17" s="53">
         <f t="shared" si="11"/>
@@ -24844,7 +24906,7 @@
       </c>
       <c r="B18" s="53">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" s="53">
         <f t="shared" si="0"/>
@@ -24852,7 +24914,7 @@
       </c>
       <c r="D18" s="53">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="53">
         <f t="shared" si="2"/>
@@ -24872,7 +24934,7 @@
       </c>
       <c r="I18" s="53">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J18" s="53">
         <f t="shared" si="11"/>
@@ -24970,7 +25032,7 @@
       </c>
       <c r="B19" s="53">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" s="53">
         <f t="shared" si="0"/>
@@ -24978,7 +25040,7 @@
       </c>
       <c r="D19" s="53">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="53">
         <f t="shared" si="2"/>
@@ -24986,11 +25048,11 @@
       </c>
       <c r="F19" s="53">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G19" s="53">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H19" s="53">
         <f t="shared" si="9"/>
@@ -24998,7 +25060,7 @@
       </c>
       <c r="I19" s="53">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J19" s="53">
         <f t="shared" si="11"/>
@@ -25150,19 +25212,19 @@
       </c>
       <c r="B2" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Real Ávila</v>
+        <v>Júpiter Leonés</v>
       </c>
       <c r="C2" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25174,15 +25236,15 @@
       </c>
       <c r="H2" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J2" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -25191,15 +25253,15 @@
       </c>
       <c r="B3" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Júpiter Leonés</v>
+        <v>Real Ávila</v>
       </c>
       <c r="C3" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25207,7 +25269,7 @@
       </c>
       <c r="F3" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25215,15 +25277,15 @@
       </c>
       <c r="H3" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I3" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -25232,27 +25294,27 @@
       </c>
       <c r="B4" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Palencia CF</v>
+        <v>Atlético Tordesillas</v>
       </c>
       <c r="C4" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25260,11 +25322,11 @@
       </c>
       <c r="I4" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -25273,15 +25335,15 @@
       </c>
       <c r="B5" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Atlético Tordesillas</v>
+        <v>Palencia CF</v>
       </c>
       <c r="C5" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25289,7 +25351,7 @@
       </c>
       <c r="F5" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25297,15 +25359,15 @@
       </c>
       <c r="H5" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I5" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J5" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -25318,11 +25380,11 @@
       </c>
       <c r="C6" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25330,7 +25392,7 @@
       </c>
       <c r="F6" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25359,11 +25421,11 @@
       </c>
       <c r="C7" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25371,7 +25433,7 @@
       </c>
       <c r="F7" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25379,11 +25441,11 @@
       </c>
       <c r="H7" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I7" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25400,11 +25462,11 @@
       </c>
       <c r="C8" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25412,7 +25474,7 @@
       </c>
       <c r="F8" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25420,11 +25482,11 @@
       </c>
       <c r="H8" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I8" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J8" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25437,19 +25499,19 @@
       </c>
       <c r="B9" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>La Virgen del Camino</v>
+        <v>Atco. Bembibre</v>
       </c>
       <c r="C9" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D9" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25461,7 +25523,7 @@
       </c>
       <c r="H9" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I9" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25469,7 +25531,7 @@
       </c>
       <c r="J9" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -25478,19 +25540,19 @@
       </c>
       <c r="B10" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Atco. Bembibre</v>
+        <v>La Virgen del Camino</v>
       </c>
       <c r="C10" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D10" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25502,15 +25564,15 @@
       </c>
       <c r="H10" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I10" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J10" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -25523,11 +25585,11 @@
       </c>
       <c r="C11" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25535,7 +25597,7 @@
       </c>
       <c r="F11" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25543,11 +25605,11 @@
       </c>
       <c r="H11" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I11" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J11" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25564,11 +25626,11 @@
       </c>
       <c r="C12" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25576,7 +25638,7 @@
       </c>
       <c r="F12" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25605,11 +25667,11 @@
       </c>
       <c r="C13" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25617,7 +25679,7 @@
       </c>
       <c r="F13" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25646,11 +25708,11 @@
       </c>
       <c r="C14" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25658,7 +25720,7 @@
       </c>
       <c r="F14" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25687,11 +25749,11 @@
       </c>
       <c r="C15" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25699,7 +25761,7 @@
       </c>
       <c r="F15" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25732,7 +25794,7 @@
       </c>
       <c r="D16" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25744,19 +25806,19 @@
       </c>
       <c r="G16" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H16" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I16" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J16" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-9</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -25769,11 +25831,11 @@
       </c>
       <c r="C17" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25781,7 +25843,7 @@
       </c>
       <c r="F17" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G17" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25814,7 +25876,7 @@
       </c>
       <c r="D18" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25826,7 +25888,7 @@
       </c>
       <c r="G18" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H18" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25834,11 +25896,11 @@
       </c>
       <c r="I18" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J18" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-10</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -25855,7 +25917,7 @@
       </c>
       <c r="D19" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25867,7 +25929,7 @@
       </c>
       <c r="G19" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H19" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25875,11 +25937,11 @@
       </c>
       <c r="I19" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J19" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-17</v>
+        <v>-18</v>
       </c>
     </row>
   </sheetData>
@@ -27375,192 +27437,192 @@
       <c r="AF2" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="AH2" s="141" t="s">
+      <c r="AH2" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="142"/>
-      <c r="AJ2" s="142"/>
-      <c r="AK2" s="142"/>
-      <c r="AL2" s="142"/>
-      <c r="AM2" s="142"/>
-      <c r="AN2" s="143"/>
-      <c r="AP2" s="141" t="s">
+      <c r="AI2" s="148"/>
+      <c r="AJ2" s="148"/>
+      <c r="AK2" s="148"/>
+      <c r="AL2" s="148"/>
+      <c r="AM2" s="148"/>
+      <c r="AN2" s="149"/>
+      <c r="AP2" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="AQ2" s="142"/>
-      <c r="AR2" s="142"/>
-      <c r="AS2" s="142"/>
-      <c r="AT2" s="142"/>
-      <c r="AU2" s="142"/>
-      <c r="AV2" s="143"/>
-      <c r="AX2" s="141" t="s">
+      <c r="AQ2" s="148"/>
+      <c r="AR2" s="148"/>
+      <c r="AS2" s="148"/>
+      <c r="AT2" s="148"/>
+      <c r="AU2" s="148"/>
+      <c r="AV2" s="149"/>
+      <c r="AX2" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="AY2" s="142"/>
-      <c r="AZ2" s="142"/>
-      <c r="BA2" s="142"/>
-      <c r="BB2" s="142"/>
-      <c r="BC2" s="142"/>
-      <c r="BD2" s="143"/>
-      <c r="BF2" s="141" t="s">
+      <c r="AY2" s="148"/>
+      <c r="AZ2" s="148"/>
+      <c r="BA2" s="148"/>
+      <c r="BB2" s="148"/>
+      <c r="BC2" s="148"/>
+      <c r="BD2" s="149"/>
+      <c r="BF2" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="BG2" s="142"/>
-      <c r="BH2" s="142"/>
-      <c r="BI2" s="142"/>
-      <c r="BJ2" s="142"/>
-      <c r="BK2" s="142"/>
-      <c r="BL2" s="143"/>
-      <c r="BN2" s="141" t="s">
+      <c r="BG2" s="148"/>
+      <c r="BH2" s="148"/>
+      <c r="BI2" s="148"/>
+      <c r="BJ2" s="148"/>
+      <c r="BK2" s="148"/>
+      <c r="BL2" s="149"/>
+      <c r="BN2" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="BO2" s="142"/>
-      <c r="BP2" s="142"/>
-      <c r="BQ2" s="142"/>
-      <c r="BR2" s="142"/>
-      <c r="BS2" s="142"/>
-      <c r="BT2" s="143"/>
-      <c r="BV2" s="141" t="s">
+      <c r="BO2" s="148"/>
+      <c r="BP2" s="148"/>
+      <c r="BQ2" s="148"/>
+      <c r="BR2" s="148"/>
+      <c r="BS2" s="148"/>
+      <c r="BT2" s="149"/>
+      <c r="BV2" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="BW2" s="142"/>
-      <c r="BX2" s="142"/>
-      <c r="BY2" s="142"/>
-      <c r="BZ2" s="142"/>
-      <c r="CA2" s="142"/>
-      <c r="CB2" s="143"/>
+      <c r="BW2" s="148"/>
+      <c r="BX2" s="148"/>
+      <c r="BY2" s="148"/>
+      <c r="BZ2" s="148"/>
+      <c r="CA2" s="148"/>
+      <c r="CB2" s="149"/>
     </row>
     <row r="3" spans="2:80" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="149" t="s">
+      <c r="B3" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="146" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="149"/>
-      <c r="G3" s="139" t="s">
+      <c r="F3" s="146"/>
+      <c r="G3" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="140"/>
-      <c r="J3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="144" t="s">
+      <c r="H3" s="136"/>
+      <c r="J3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="144"/>
-      <c r="O3" s="145" t="s">
+      <c r="N3" s="145"/>
+      <c r="O3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="146"/>
-      <c r="R3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="148"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="144" t="s">
+      <c r="P3" s="144"/>
+      <c r="R3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="144"/>
-      <c r="W3" s="145" t="s">
+      <c r="V3" s="145"/>
+      <c r="W3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="146"/>
-      <c r="Z3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="148"/>
-      <c r="AB3" s="148"/>
-      <c r="AC3" s="144" t="s">
+      <c r="X3" s="144"/>
+      <c r="Z3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="145" t="s">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="146"/>
-      <c r="AH3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="148"/>
-      <c r="AJ3" s="148"/>
-      <c r="AK3" s="144" t="s">
+      <c r="AF3" s="144"/>
+      <c r="AH3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="142"/>
+      <c r="AJ3" s="142"/>
+      <c r="AK3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="144"/>
-      <c r="AM3" s="145" t="s">
+      <c r="AL3" s="145"/>
+      <c r="AM3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="146"/>
-      <c r="AP3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="148"/>
-      <c r="AR3" s="148"/>
-      <c r="AS3" s="144" t="s">
+      <c r="AN3" s="144"/>
+      <c r="AP3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="142"/>
+      <c r="AR3" s="142"/>
+      <c r="AS3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="144"/>
-      <c r="AU3" s="145" t="s">
+      <c r="AT3" s="145"/>
+      <c r="AU3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="146"/>
-      <c r="AX3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="148"/>
-      <c r="AZ3" s="148"/>
-      <c r="BA3" s="144" t="s">
+      <c r="AV3" s="144"/>
+      <c r="AX3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="142"/>
+      <c r="AZ3" s="142"/>
+      <c r="BA3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BB3" s="144"/>
-      <c r="BC3" s="145" t="s">
+      <c r="BB3" s="145"/>
+      <c r="BC3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="146"/>
-      <c r="BF3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="148"/>
-      <c r="BH3" s="148"/>
-      <c r="BI3" s="144" t="s">
+      <c r="BD3" s="144"/>
+      <c r="BF3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="142"/>
+      <c r="BH3" s="142"/>
+      <c r="BI3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BJ3" s="144"/>
-      <c r="BK3" s="145" t="s">
+      <c r="BJ3" s="145"/>
+      <c r="BK3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="146"/>
-      <c r="BN3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="148"/>
-      <c r="BP3" s="148"/>
-      <c r="BQ3" s="144" t="s">
+      <c r="BL3" s="144"/>
+      <c r="BN3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="142"/>
+      <c r="BP3" s="142"/>
+      <c r="BQ3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="144"/>
-      <c r="BS3" s="145" t="s">
+      <c r="BR3" s="145"/>
+      <c r="BS3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="146"/>
-      <c r="BV3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="148"/>
-      <c r="BX3" s="148"/>
-      <c r="BY3" s="144" t="s">
+      <c r="BT3" s="144"/>
+      <c r="BV3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="142"/>
+      <c r="BX3" s="142"/>
+      <c r="BY3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BZ3" s="144"/>
-      <c r="CA3" s="145" t="s">
+      <c r="BZ3" s="145"/>
+      <c r="CA3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="146"/>
+      <c r="CB3" s="144"/>
     </row>
     <row r="4" spans="2:80" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -30078,24 +30140,12 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="AX2:BD2"/>
+    <mergeCell ref="BF2:BL2"/>
+    <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="BN2:BT2"/>
     <mergeCell ref="BV2:CB2"/>
     <mergeCell ref="AH2:AN2"/>
@@ -30112,12 +30162,24 @@
     <mergeCell ref="AX3:AZ3"/>
     <mergeCell ref="BA3:BB3"/>
     <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="AX2:BD2"/>
-    <mergeCell ref="BF2:BL2"/>
-    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="BY3:BZ3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31364,19 +31426,19 @@
       <c r="L39" s="152"/>
     </row>
     <row r="40" spans="6:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="F40" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="148"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="144" t="s">
+      <c r="F40" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="142"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="144"/>
-      <c r="K40" s="145" t="s">
+      <c r="J40" s="145"/>
+      <c r="K40" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="146"/>
+      <c r="L40" s="144"/>
     </row>
     <row r="41" spans="6:23" ht="19" x14ac:dyDescent="0.25">
       <c r="F41" s="14" t="s">
@@ -32054,8 +32116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:EF25"/>
   <sheetViews>
-    <sheetView topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="BH26" sqref="BH26"/>
+    <sheetView tabSelected="1" topLeftCell="BE2" workbookViewId="0">
+      <selection activeCell="BQ27" sqref="BQ27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32252,310 +32314,314 @@
       <c r="BL2" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="BN2" s="141" t="s">
-        <v>37</v>
-      </c>
-      <c r="BO2" s="142"/>
-      <c r="BP2" s="142"/>
-      <c r="BQ2" s="142"/>
-      <c r="BR2" s="142"/>
-      <c r="BS2" s="142"/>
-      <c r="BT2" s="143"/>
-      <c r="BV2" s="141" t="s">
+      <c r="BN2" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="BO2" s="132" t="s">
+        <v>200</v>
+      </c>
+      <c r="BP2" s="132"/>
+      <c r="BQ2" s="132"/>
+      <c r="BR2" s="132"/>
+      <c r="BS2" s="132"/>
+      <c r="BT2" s="131" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV2" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="BW2" s="142"/>
-      <c r="BX2" s="142"/>
-      <c r="BY2" s="142"/>
-      <c r="BZ2" s="142"/>
-      <c r="CA2" s="142"/>
-      <c r="CB2" s="143"/>
-      <c r="CD2" s="141" t="s">
+      <c r="BW2" s="148"/>
+      <c r="BX2" s="148"/>
+      <c r="BY2" s="148"/>
+      <c r="BZ2" s="148"/>
+      <c r="CA2" s="148"/>
+      <c r="CB2" s="149"/>
+      <c r="CD2" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="CE2" s="142"/>
-      <c r="CF2" s="142"/>
-      <c r="CG2" s="142"/>
-      <c r="CH2" s="142"/>
-      <c r="CI2" s="142"/>
-      <c r="CJ2" s="143"/>
-      <c r="CL2" s="141" t="s">
+      <c r="CE2" s="148"/>
+      <c r="CF2" s="148"/>
+      <c r="CG2" s="148"/>
+      <c r="CH2" s="148"/>
+      <c r="CI2" s="148"/>
+      <c r="CJ2" s="149"/>
+      <c r="CL2" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="CM2" s="142"/>
-      <c r="CN2" s="142"/>
-      <c r="CO2" s="142"/>
-      <c r="CP2" s="142"/>
-      <c r="CQ2" s="142"/>
-      <c r="CR2" s="143"/>
-      <c r="CT2" s="141" t="s">
+      <c r="CM2" s="148"/>
+      <c r="CN2" s="148"/>
+      <c r="CO2" s="148"/>
+      <c r="CP2" s="148"/>
+      <c r="CQ2" s="148"/>
+      <c r="CR2" s="149"/>
+      <c r="CT2" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="CU2" s="142"/>
-      <c r="CV2" s="142"/>
-      <c r="CW2" s="142"/>
-      <c r="CX2" s="142"/>
-      <c r="CY2" s="142"/>
-      <c r="CZ2" s="143"/>
-      <c r="DB2" s="141" t="s">
+      <c r="CU2" s="148"/>
+      <c r="CV2" s="148"/>
+      <c r="CW2" s="148"/>
+      <c r="CX2" s="148"/>
+      <c r="CY2" s="148"/>
+      <c r="CZ2" s="149"/>
+      <c r="DB2" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="DC2" s="142"/>
-      <c r="DD2" s="142"/>
-      <c r="DE2" s="142"/>
-      <c r="DF2" s="142"/>
-      <c r="DG2" s="142"/>
-      <c r="DH2" s="143"/>
-      <c r="DJ2" s="141" t="s">
+      <c r="DC2" s="148"/>
+      <c r="DD2" s="148"/>
+      <c r="DE2" s="148"/>
+      <c r="DF2" s="148"/>
+      <c r="DG2" s="148"/>
+      <c r="DH2" s="149"/>
+      <c r="DJ2" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="DK2" s="142"/>
-      <c r="DL2" s="142"/>
-      <c r="DM2" s="142"/>
-      <c r="DN2" s="142"/>
-      <c r="DO2" s="142"/>
-      <c r="DP2" s="143"/>
-      <c r="DR2" s="141" t="s">
+      <c r="DK2" s="148"/>
+      <c r="DL2" s="148"/>
+      <c r="DM2" s="148"/>
+      <c r="DN2" s="148"/>
+      <c r="DO2" s="148"/>
+      <c r="DP2" s="149"/>
+      <c r="DR2" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="DS2" s="142"/>
-      <c r="DT2" s="142"/>
-      <c r="DU2" s="142"/>
-      <c r="DV2" s="142"/>
-      <c r="DW2" s="142"/>
-      <c r="DX2" s="143"/>
-      <c r="DZ2" s="141" t="s">
+      <c r="DS2" s="148"/>
+      <c r="DT2" s="148"/>
+      <c r="DU2" s="148"/>
+      <c r="DV2" s="148"/>
+      <c r="DW2" s="148"/>
+      <c r="DX2" s="149"/>
+      <c r="DZ2" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="EA2" s="142"/>
-      <c r="EB2" s="142"/>
-      <c r="EC2" s="142"/>
-      <c r="ED2" s="142"/>
-      <c r="EE2" s="142"/>
-      <c r="EF2" s="143"/>
+      <c r="EA2" s="148"/>
+      <c r="EB2" s="148"/>
+      <c r="EC2" s="148"/>
+      <c r="ED2" s="148"/>
+      <c r="EE2" s="148"/>
+      <c r="EF2" s="149"/>
     </row>
     <row r="3" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="144" t="s">
+      <c r="B3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="144"/>
-      <c r="G3" s="145" t="s">
+      <c r="F3" s="145"/>
+      <c r="G3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="J3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="144" t="s">
+      <c r="H3" s="144"/>
+      <c r="J3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="144"/>
-      <c r="O3" s="145" t="s">
+      <c r="N3" s="145"/>
+      <c r="O3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="146"/>
-      <c r="R3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="148"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="144" t="s">
+      <c r="P3" s="144"/>
+      <c r="R3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="144"/>
-      <c r="W3" s="145" t="s">
+      <c r="V3" s="145"/>
+      <c r="W3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="146"/>
-      <c r="Z3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="148"/>
-      <c r="AB3" s="148"/>
-      <c r="AC3" s="144" t="s">
+      <c r="X3" s="144"/>
+      <c r="Z3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="145" t="s">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="146"/>
-      <c r="AH3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="148"/>
-      <c r="AJ3" s="148"/>
-      <c r="AK3" s="144" t="s">
+      <c r="AF3" s="144"/>
+      <c r="AH3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="142"/>
+      <c r="AJ3" s="142"/>
+      <c r="AK3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="144"/>
-      <c r="AM3" s="145" t="s">
+      <c r="AL3" s="145"/>
+      <c r="AM3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="146"/>
-      <c r="AP3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="148"/>
-      <c r="AR3" s="148"/>
-      <c r="AS3" s="144" t="s">
+      <c r="AN3" s="144"/>
+      <c r="AP3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="142"/>
+      <c r="AR3" s="142"/>
+      <c r="AS3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="144"/>
-      <c r="AU3" s="145" t="s">
+      <c r="AT3" s="145"/>
+      <c r="AU3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="146"/>
-      <c r="AX3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="148"/>
-      <c r="AZ3" s="148"/>
-      <c r="BA3" s="144" t="s">
+      <c r="AV3" s="144"/>
+      <c r="AX3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="142"/>
+      <c r="AZ3" s="142"/>
+      <c r="BA3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BB3" s="144"/>
-      <c r="BC3" s="145" t="s">
+      <c r="BB3" s="145"/>
+      <c r="BC3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="146"/>
-      <c r="BF3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="148"/>
-      <c r="BH3" s="148"/>
-      <c r="BI3" s="144" t="s">
+      <c r="BD3" s="144"/>
+      <c r="BF3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="142"/>
+      <c r="BH3" s="142"/>
+      <c r="BI3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BJ3" s="144"/>
-      <c r="BK3" s="145" t="s">
+      <c r="BJ3" s="145"/>
+      <c r="BK3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="146"/>
-      <c r="BN3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="148"/>
-      <c r="BP3" s="148"/>
-      <c r="BQ3" s="144" t="s">
+      <c r="BL3" s="144"/>
+      <c r="BN3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="142"/>
+      <c r="BP3" s="142"/>
+      <c r="BQ3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="144"/>
-      <c r="BS3" s="145" t="s">
+      <c r="BR3" s="145"/>
+      <c r="BS3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="146"/>
-      <c r="BV3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="148"/>
-      <c r="BX3" s="148"/>
-      <c r="BY3" s="144" t="s">
+      <c r="BT3" s="144"/>
+      <c r="BV3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="142"/>
+      <c r="BX3" s="142"/>
+      <c r="BY3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BZ3" s="144"/>
-      <c r="CA3" s="145" t="s">
+      <c r="BZ3" s="145"/>
+      <c r="CA3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="146"/>
-      <c r="CD3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="148"/>
-      <c r="CF3" s="148"/>
-      <c r="CG3" s="144" t="s">
+      <c r="CB3" s="144"/>
+      <c r="CD3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="142"/>
+      <c r="CF3" s="142"/>
+      <c r="CG3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="CH3" s="144"/>
-      <c r="CI3" s="145" t="s">
+      <c r="CH3" s="145"/>
+      <c r="CI3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="CJ3" s="146"/>
-      <c r="CL3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="148"/>
-      <c r="CN3" s="148"/>
-      <c r="CO3" s="144" t="s">
+      <c r="CJ3" s="144"/>
+      <c r="CL3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="142"/>
+      <c r="CN3" s="142"/>
+      <c r="CO3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="CP3" s="144"/>
-      <c r="CQ3" s="145" t="s">
+      <c r="CP3" s="145"/>
+      <c r="CQ3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="CR3" s="146"/>
-      <c r="CT3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="148"/>
-      <c r="CV3" s="148"/>
-      <c r="CW3" s="144" t="s">
+      <c r="CR3" s="144"/>
+      <c r="CT3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="142"/>
+      <c r="CV3" s="142"/>
+      <c r="CW3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="CX3" s="144"/>
-      <c r="CY3" s="145" t="s">
+      <c r="CX3" s="145"/>
+      <c r="CY3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="CZ3" s="146"/>
-      <c r="DB3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="DC3" s="148"/>
-      <c r="DD3" s="148"/>
-      <c r="DE3" s="144" t="s">
+      <c r="CZ3" s="144"/>
+      <c r="DB3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="142"/>
+      <c r="DD3" s="142"/>
+      <c r="DE3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="DF3" s="144"/>
-      <c r="DG3" s="145" t="s">
+      <c r="DF3" s="145"/>
+      <c r="DG3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="DH3" s="146"/>
-      <c r="DJ3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="DK3" s="148"/>
-      <c r="DL3" s="148"/>
-      <c r="DM3" s="144" t="s">
+      <c r="DH3" s="144"/>
+      <c r="DJ3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="142"/>
+      <c r="DL3" s="142"/>
+      <c r="DM3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="DN3" s="144"/>
-      <c r="DO3" s="145" t="s">
+      <c r="DN3" s="145"/>
+      <c r="DO3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="DP3" s="146"/>
-      <c r="DR3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS3" s="148"/>
-      <c r="DT3" s="148"/>
-      <c r="DU3" s="144" t="s">
+      <c r="DP3" s="144"/>
+      <c r="DR3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS3" s="142"/>
+      <c r="DT3" s="142"/>
+      <c r="DU3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="DV3" s="144"/>
-      <c r="DW3" s="145" t="s">
+      <c r="DV3" s="145"/>
+      <c r="DW3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="DX3" s="146"/>
-      <c r="DZ3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="EA3" s="148"/>
-      <c r="EB3" s="148"/>
-      <c r="EC3" s="144" t="s">
+      <c r="DX3" s="144"/>
+      <c r="DZ3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="142"/>
+      <c r="EB3" s="142"/>
+      <c r="EC3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="ED3" s="144"/>
-      <c r="EE3" s="145" t="s">
+      <c r="ED3" s="145"/>
+      <c r="EE3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="EF3" s="146"/>
+      <c r="EF3" s="144"/>
     </row>
     <row r="4" spans="2:136" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -33024,8 +33090,12 @@
       <c r="BN5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="BO5" s="7"/>
-      <c r="BP5" s="7"/>
+      <c r="BO5" s="7">
+        <v>1</v>
+      </c>
+      <c r="BP5" s="7">
+        <v>90</v>
+      </c>
       <c r="BQ5" s="7"/>
       <c r="BR5" s="7"/>
       <c r="BS5" s="7"/>
@@ -33363,7 +33433,9 @@
         <v>12</v>
       </c>
       <c r="BO7" s="7"/>
-      <c r="BP7" s="7"/>
+      <c r="BP7" s="7">
+        <v>18</v>
+      </c>
       <c r="BQ7" s="7"/>
       <c r="BR7" s="7"/>
       <c r="BS7" s="7"/>
@@ -33694,8 +33766,12 @@
       <c r="BN9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="BO9" s="7"/>
-      <c r="BP9" s="7"/>
+      <c r="BO9" s="7">
+        <v>1</v>
+      </c>
+      <c r="BP9" s="7">
+        <v>72</v>
+      </c>
       <c r="BQ9" s="7"/>
       <c r="BR9" s="7"/>
       <c r="BS9" s="7"/>
@@ -33881,8 +33957,12 @@
       <c r="BN10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="BO10" s="7"/>
-      <c r="BP10" s="7"/>
+      <c r="BO10" s="7">
+        <v>1</v>
+      </c>
+      <c r="BP10" s="7">
+        <v>90</v>
+      </c>
       <c r="BQ10" s="7"/>
       <c r="BR10" s="7"/>
       <c r="BS10" s="7"/>
@@ -34071,8 +34151,12 @@
         <v>16</v>
       </c>
       <c r="BO11" s="7"/>
-      <c r="BP11" s="7"/>
-      <c r="BQ11" s="7"/>
+      <c r="BP11" s="7">
+        <v>45</v>
+      </c>
+      <c r="BQ11" s="7">
+        <v>1</v>
+      </c>
       <c r="BR11" s="7"/>
       <c r="BS11" s="7"/>
       <c r="BT11" s="8"/>
@@ -34243,9 +34327,15 @@
       <c r="BN12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="BO12" s="7"/>
-      <c r="BP12" s="7"/>
-      <c r="BQ12" s="7"/>
+      <c r="BO12" s="7">
+        <v>1</v>
+      </c>
+      <c r="BP12" s="7">
+        <v>45</v>
+      </c>
+      <c r="BQ12" s="7">
+        <v>1</v>
+      </c>
       <c r="BR12" s="7"/>
       <c r="BS12" s="7"/>
       <c r="BT12" s="8"/>
@@ -34432,8 +34522,12 @@
       <c r="BN13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="BO13" s="7"/>
-      <c r="BP13" s="7"/>
+      <c r="BO13" s="7">
+        <v>1</v>
+      </c>
+      <c r="BP13" s="7">
+        <v>90</v>
+      </c>
       <c r="BQ13" s="7"/>
       <c r="BR13" s="7"/>
       <c r="BS13" s="7"/>
@@ -34776,8 +34870,12 @@
       <c r="BN15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="BO15" s="7"/>
-      <c r="BP15" s="7"/>
+      <c r="BO15" s="7">
+        <v>1</v>
+      </c>
+      <c r="BP15" s="7">
+        <v>45</v>
+      </c>
       <c r="BQ15" s="7"/>
       <c r="BR15" s="7"/>
       <c r="BS15" s="7"/>
@@ -34969,8 +35067,12 @@
       <c r="BN16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="BO16" s="7"/>
-      <c r="BP16" s="7"/>
+      <c r="BO16" s="7">
+        <v>1</v>
+      </c>
+      <c r="BP16" s="7">
+        <v>72</v>
+      </c>
       <c r="BQ16" s="7"/>
       <c r="BR16" s="7"/>
       <c r="BS16" s="7"/>
@@ -35323,8 +35425,12 @@
       <c r="BN18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="BO18" s="7"/>
-      <c r="BP18" s="7"/>
+      <c r="BO18" s="7">
+        <v>1</v>
+      </c>
+      <c r="BP18" s="7">
+        <v>90</v>
+      </c>
       <c r="BQ18" s="7"/>
       <c r="BR18" s="7"/>
       <c r="BS18" s="7"/>
@@ -35507,7 +35613,9 @@
         <v>25</v>
       </c>
       <c r="BO19" s="7"/>
-      <c r="BP19" s="7"/>
+      <c r="BP19" s="7">
+        <v>45</v>
+      </c>
       <c r="BQ19" s="7"/>
       <c r="BR19" s="7"/>
       <c r="BS19" s="7"/>
@@ -35693,9 +35801,15 @@
       <c r="BN20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="BO20" s="7"/>
-      <c r="BP20" s="7"/>
-      <c r="BQ20" s="7"/>
+      <c r="BO20" s="7">
+        <v>1</v>
+      </c>
+      <c r="BP20" s="7">
+        <v>90</v>
+      </c>
+      <c r="BQ20" s="7">
+        <v>1</v>
+      </c>
       <c r="BR20" s="7"/>
       <c r="BS20" s="7"/>
       <c r="BT20" s="8"/>
@@ -35882,8 +35996,12 @@
       <c r="BN21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="BO21" s="7"/>
-      <c r="BP21" s="7"/>
+      <c r="BO21" s="7">
+        <v>1</v>
+      </c>
+      <c r="BP21" s="7">
+        <v>90</v>
+      </c>
       <c r="BQ21" s="7"/>
       <c r="BR21" s="7"/>
       <c r="BS21" s="7"/>
@@ -36256,8 +36374,12 @@
       <c r="BN23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="BO23" s="7"/>
-      <c r="BP23" s="7"/>
+      <c r="BO23" s="7">
+        <v>1</v>
+      </c>
+      <c r="BP23" s="7">
+        <v>90</v>
+      </c>
       <c r="BQ23" s="7"/>
       <c r="BR23" s="7"/>
       <c r="BS23" s="7"/>
@@ -36428,7 +36550,9 @@
         <v>50</v>
       </c>
       <c r="BO24" s="7"/>
-      <c r="BP24" s="7"/>
+      <c r="BP24" s="7">
+        <v>18</v>
+      </c>
       <c r="BQ24" s="7"/>
       <c r="BR24" s="7"/>
       <c r="BS24" s="7"/>
@@ -36535,9 +36659,73 @@
         <f>SUM(BH5:BH24)</f>
         <v>990</v>
       </c>
+      <c r="BO25">
+        <f>SUM(BO5:BO24)</f>
+        <v>11</v>
+      </c>
+      <c r="BP25">
+        <f>SUM(BP5:BP24)</f>
+        <v>990</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="AY2:BC2"/>
+    <mergeCell ref="BG2:BK2"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AI2:AM2"/>
+    <mergeCell ref="AQ2:AU2"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV2:CB2"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="BO2:BS2"/>
+    <mergeCell ref="CD2:CJ2"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="CG3:CH3"/>
+    <mergeCell ref="CI3:CJ3"/>
+    <mergeCell ref="CL2:CR2"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="CQ3:CR3"/>
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="CT3:CV3"/>
+    <mergeCell ref="CW3:CX3"/>
+    <mergeCell ref="CY3:CZ3"/>
+    <mergeCell ref="DB2:DH2"/>
+    <mergeCell ref="DB3:DD3"/>
+    <mergeCell ref="DE3:DF3"/>
+    <mergeCell ref="DG3:DH3"/>
     <mergeCell ref="DZ2:EF2"/>
     <mergeCell ref="DZ3:EB3"/>
     <mergeCell ref="EC3:ED3"/>
@@ -36550,62 +36738,6 @@
     <mergeCell ref="DR3:DT3"/>
     <mergeCell ref="DU3:DV3"/>
     <mergeCell ref="DW3:DX3"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="CT3:CV3"/>
-    <mergeCell ref="CW3:CX3"/>
-    <mergeCell ref="CY3:CZ3"/>
-    <mergeCell ref="DB2:DH2"/>
-    <mergeCell ref="DB3:DD3"/>
-    <mergeCell ref="DE3:DF3"/>
-    <mergeCell ref="DG3:DH3"/>
-    <mergeCell ref="CD2:CJ2"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="CG3:CH3"/>
-    <mergeCell ref="CI3:CJ3"/>
-    <mergeCell ref="CL2:CR2"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="CQ3:CR3"/>
-    <mergeCell ref="BN2:BT2"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV2:CB2"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="AY2:BC2"/>
-    <mergeCell ref="BG2:BK2"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AI2:AM2"/>
-    <mergeCell ref="AQ2:AU2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36615,8 +36747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36687,14 +36819,14 @@
       </c>
       <c r="C3" s="8">
         <f t="shared" ref="C3:C22" si="0">F40</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="8">
         <f>'1º Vuelta'!D5+'1º Vuelta'!L5+'1º Vuelta'!T5+'1º Vuelta'!AB5+'1º Vuelta'!AJ5+'1º Vuelta'!AR5+'1º Vuelta'!AZ5+'1º Vuelta'!BH5+'1º Vuelta'!BP5+'1º Vuelta'!BX5+'1º Vuelta'!CF5+'1º Vuelta'!CN5+'1º Vuelta'!CV5+'1º Vuelta'!DD5+'1º Vuelta'!DL5+'1º Vuelta'!DT5+'1º Vuelta'!EB5</f>
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>10</v>
@@ -36794,7 +36926,7 @@
       </c>
       <c r="F5" s="8">
         <f>'1º Vuelta'!D7+'1º Vuelta'!L7+'1º Vuelta'!T7+'1º Vuelta'!AB7+'1º Vuelta'!AJ7+'1º Vuelta'!AR7+'1º Vuelta'!AZ7+'1º Vuelta'!BH7+'1º Vuelta'!BP7+'1º Vuelta'!BX7+'1º Vuelta'!CF7+'1º Vuelta'!CN7+'1º Vuelta'!CV7+'1º Vuelta'!DD7+'1º Vuelta'!DL7+'1º Vuelta'!DT7+'1º Vuelta'!EB7</f>
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>12</v>
@@ -36887,14 +37019,14 @@
       </c>
       <c r="C7" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="8">
         <f>'1º Vuelta'!D9+'1º Vuelta'!L9+'1º Vuelta'!T9+'1º Vuelta'!AB9+'1º Vuelta'!AJ9+'1º Vuelta'!AR9+'1º Vuelta'!AZ9+'1º Vuelta'!BH9+'1º Vuelta'!BP9+'1º Vuelta'!BX9+'1º Vuelta'!CF9+'1º Vuelta'!CN9+'1º Vuelta'!CV9+'1º Vuelta'!DD9+'1º Vuelta'!DL9+'1º Vuelta'!DT9+'1º Vuelta'!EB9</f>
-        <v>326</v>
+        <v>398</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>14</v>
@@ -36937,14 +37069,14 @@
       </c>
       <c r="C8" s="8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="8">
         <f>'1º Vuelta'!D10+'1º Vuelta'!L10+'1º Vuelta'!T10+'1º Vuelta'!AB10+'1º Vuelta'!AJ10+'1º Vuelta'!AR10+'1º Vuelta'!AZ10+'1º Vuelta'!BH10+'1º Vuelta'!BP10+'1º Vuelta'!BX10+'1º Vuelta'!CF10+'1º Vuelta'!CN10+'1º Vuelta'!CV10+'1º Vuelta'!DD10+'1º Vuelta'!DL10+'1º Vuelta'!DT10+'1º Vuelta'!EB10</f>
-        <v>709</v>
+        <v>799</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>15</v>
@@ -36994,14 +37126,14 @@
       </c>
       <c r="F9" s="8">
         <f>'1º Vuelta'!D11+'1º Vuelta'!L11+'1º Vuelta'!T11+'1º Vuelta'!AB11+'1º Vuelta'!AJ11+'1º Vuelta'!AR11+'1º Vuelta'!AZ11+'1º Vuelta'!BH11+'1º Vuelta'!BP11+'1º Vuelta'!BX11+'1º Vuelta'!CF11+'1º Vuelta'!CN11+'1º Vuelta'!CV11+'1º Vuelta'!DD11+'1º Vuelta'!DL11+'1º Vuelta'!DT11+'1º Vuelta'!EB11</f>
-        <v>655</v>
+        <v>700</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="8">
         <f>'1º Vuelta'!E11+'1º Vuelta'!M11+'1º Vuelta'!U11+'1º Vuelta'!AC11+'1º Vuelta'!AK11+'1º Vuelta'!AS11+'1º Vuelta'!BA11+'1º Vuelta'!BI11+'1º Vuelta'!BQ11+'1º Vuelta'!BY11+'1º Vuelta'!CG11+'1º Vuelta'!CO11+'1º Vuelta'!CW11+'1º Vuelta'!DE11+'1º Vuelta'!DM11+'1º Vuelta'!DU11+'1º Vuelta'!EC11</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>16</v>
@@ -37037,21 +37169,21 @@
       </c>
       <c r="C10" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="8">
         <f>'1º Vuelta'!D12+'1º Vuelta'!L12+'1º Vuelta'!T12+'1º Vuelta'!AB12+'1º Vuelta'!AJ12+'1º Vuelta'!AR12+'1º Vuelta'!AZ12+'1º Vuelta'!BH12+'1º Vuelta'!BP12+'1º Vuelta'!BX12+'1º Vuelta'!CF12+'1º Vuelta'!CN12+'1º Vuelta'!CV12+'1º Vuelta'!DD12+'1º Vuelta'!DL12+'1º Vuelta'!DT12+'1º Vuelta'!EB12</f>
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="8">
         <f>'1º Vuelta'!E12+'1º Vuelta'!M12+'1º Vuelta'!U12+'1º Vuelta'!AC12+'1º Vuelta'!AK12+'1º Vuelta'!AS12+'1º Vuelta'!BA12+'1º Vuelta'!BI12+'1º Vuelta'!BQ12+'1º Vuelta'!BY12+'1º Vuelta'!CG12+'1º Vuelta'!CO12+'1º Vuelta'!CW12+'1º Vuelta'!DE12+'1º Vuelta'!DM12+'1º Vuelta'!DU12+'1º Vuelta'!EC12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>17</v>
@@ -37087,14 +37219,14 @@
       </c>
       <c r="C11" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="8">
         <f>'1º Vuelta'!D13+'1º Vuelta'!L13+'1º Vuelta'!T13+'1º Vuelta'!AB13+'1º Vuelta'!AJ13+'1º Vuelta'!AR13+'1º Vuelta'!AZ13+'1º Vuelta'!BH13+'1º Vuelta'!BP13+'1º Vuelta'!BX13+'1º Vuelta'!CF13+'1º Vuelta'!CN13+'1º Vuelta'!CV13+'1º Vuelta'!DD13+'1º Vuelta'!DL13+'1º Vuelta'!DT13+'1º Vuelta'!EB13</f>
-        <v>514</v>
+        <v>604</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>18</v>
@@ -37182,14 +37314,14 @@
       </c>
       <c r="C13" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="8">
         <f>'1º Vuelta'!D15+'1º Vuelta'!L15+'1º Vuelta'!T15+'1º Vuelta'!AB15+'1º Vuelta'!AJ15+'1º Vuelta'!AR15+'1º Vuelta'!AZ15+'1º Vuelta'!BH15+'1º Vuelta'!BP15+'1º Vuelta'!BX15+'1º Vuelta'!CF15+'1º Vuelta'!CN15+'1º Vuelta'!CV15+'1º Vuelta'!DD15+'1º Vuelta'!DL15+'1º Vuelta'!DT15+'1º Vuelta'!EB15</f>
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>21</v>
@@ -37232,14 +37364,14 @@
       </c>
       <c r="C14" s="8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="8">
         <f>'1º Vuelta'!D16+'1º Vuelta'!L16+'1º Vuelta'!T16+'1º Vuelta'!AB16+'1º Vuelta'!AJ16+'1º Vuelta'!AR16+'1º Vuelta'!AZ16+'1º Vuelta'!BH16+'1º Vuelta'!BP16+'1º Vuelta'!BX16+'1º Vuelta'!CF16+'1º Vuelta'!CN16+'1º Vuelta'!CV16+'1º Vuelta'!DD16+'1º Vuelta'!DL16+'1º Vuelta'!DT16+'1º Vuelta'!EB16</f>
-        <v>605</v>
+        <v>677</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>22</v>
@@ -37332,14 +37464,14 @@
       </c>
       <c r="C16" s="8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="8">
         <f>'1º Vuelta'!D18+'1º Vuelta'!L18+'1º Vuelta'!T18+'1º Vuelta'!AB18+'1º Vuelta'!AJ18+'1º Vuelta'!AR18+'1º Vuelta'!AZ18+'1º Vuelta'!BH18+'1º Vuelta'!BP18+'1º Vuelta'!BX18+'1º Vuelta'!CF18+'1º Vuelta'!CN18+'1º Vuelta'!CV18+'1º Vuelta'!DD18+'1º Vuelta'!DL18+'1º Vuelta'!DT18+'1º Vuelta'!EB18</f>
-        <v>673</v>
+        <v>763</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>24</v>
@@ -37373,7 +37505,7 @@
         <v>101</v>
       </c>
       <c r="V16" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:22" ht="19" x14ac:dyDescent="0.25">
@@ -37389,7 +37521,7 @@
       </c>
       <c r="F17" s="8">
         <f>'1º Vuelta'!D19+'1º Vuelta'!L19+'1º Vuelta'!T19+'1º Vuelta'!AB19+'1º Vuelta'!AJ19+'1º Vuelta'!AR19+'1º Vuelta'!AZ19+'1º Vuelta'!BH19+'1º Vuelta'!BP19+'1º Vuelta'!BX19+'1º Vuelta'!CF19+'1º Vuelta'!CN19+'1º Vuelta'!CV19+'1º Vuelta'!DD19+'1º Vuelta'!DL19+'1º Vuelta'!DT19+'1º Vuelta'!EB19</f>
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>25</v>
@@ -37432,21 +37564,21 @@
       </c>
       <c r="C18" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="8">
         <f>'1º Vuelta'!D20+'1º Vuelta'!L20+'1º Vuelta'!T20+'1º Vuelta'!AB20+'1º Vuelta'!AJ20+'1º Vuelta'!AR20+'1º Vuelta'!AZ20+'1º Vuelta'!BH20+'1º Vuelta'!BP20+'1º Vuelta'!BX20+'1º Vuelta'!CF20+'1º Vuelta'!CN20+'1º Vuelta'!CV20+'1º Vuelta'!DD20+'1º Vuelta'!DL20+'1º Vuelta'!DT20+'1º Vuelta'!EB20</f>
-        <v>553</v>
+        <v>643</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>26</v>
       </c>
       <c r="I18" s="8">
         <f>'1º Vuelta'!E20+'1º Vuelta'!M20+'1º Vuelta'!U20+'1º Vuelta'!AC20+'1º Vuelta'!AK20+'1º Vuelta'!AS20+'1º Vuelta'!BA20+'1º Vuelta'!BI20+'1º Vuelta'!BQ20+'1º Vuelta'!BY20+'1º Vuelta'!CG20+'1º Vuelta'!CO20+'1º Vuelta'!CW20+'1º Vuelta'!DE20+'1º Vuelta'!DM20+'1º Vuelta'!DU20+'1º Vuelta'!EC20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>26</v>
@@ -37473,7 +37605,7 @@
         <v>103</v>
       </c>
       <c r="V18" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:22" ht="19" x14ac:dyDescent="0.25">
@@ -37482,14 +37614,14 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="8">
         <f>'1º Vuelta'!D21+'1º Vuelta'!L21+'1º Vuelta'!T21+'1º Vuelta'!AB21+'1º Vuelta'!AJ21+'1º Vuelta'!AR21+'1º Vuelta'!AZ21+'1º Vuelta'!BH21+'1º Vuelta'!BP21+'1º Vuelta'!BX21+'1º Vuelta'!CF21+'1º Vuelta'!CN21+'1º Vuelta'!CV21+'1º Vuelta'!DD21+'1º Vuelta'!DL21+'1º Vuelta'!DT21+'1º Vuelta'!EB21</f>
-        <v>544</v>
+        <v>634</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>27</v>
@@ -37582,14 +37714,14 @@
       </c>
       <c r="C21" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F21" s="8">
         <f>'1º Vuelta'!D23+'1º Vuelta'!L23+'1º Vuelta'!T23+'1º Vuelta'!AB23+'1º Vuelta'!AJ23+'1º Vuelta'!AR23+'1º Vuelta'!AZ23+'1º Vuelta'!BH23+'1º Vuelta'!BP23+'1º Vuelta'!BX23+'1º Vuelta'!CF23+'1º Vuelta'!CN23+'1º Vuelta'!CV23+'1º Vuelta'!DD23+'1º Vuelta'!DL23+'1º Vuelta'!DT23+'1º Vuelta'!EB23</f>
-        <v>486</v>
+        <v>576</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>29</v>
@@ -37639,7 +37771,7 @@
       </c>
       <c r="F22" s="8">
         <f>'1º Vuelta'!D24+'1º Vuelta'!L24+'1º Vuelta'!T24+'1º Vuelta'!AB24+'1º Vuelta'!AJ24+'1º Vuelta'!AR24+'1º Vuelta'!AZ24+'1º Vuelta'!BH24+'1º Vuelta'!BP24+'1º Vuelta'!BX24+'1º Vuelta'!CF24+'1º Vuelta'!CN24+'1º Vuelta'!CV24+'1º Vuelta'!DD24+'1º Vuelta'!DL24+'1º Vuelta'!DT24+'1º Vuelta'!EB24</f>
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>50</v>
@@ -37673,7 +37805,7 @@
         <v>107</v>
       </c>
       <c r="V22" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
@@ -37721,7 +37853,7 @@
         <v>103</v>
       </c>
       <c r="V29" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.2">
@@ -37745,7 +37877,7 @@
         <v>106</v>
       </c>
       <c r="V32" s="22">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="5:22" x14ac:dyDescent="0.2">
@@ -37764,30 +37896,30 @@
     </row>
     <row r="36" spans="5:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="5:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="E37" s="141" t="s">
+      <c r="E37" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="142"/>
-      <c r="G37" s="142"/>
-      <c r="H37" s="142"/>
-      <c r="I37" s="142"/>
-      <c r="J37" s="142"/>
-      <c r="K37" s="143"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="149"/>
     </row>
     <row r="38" spans="5:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="E38" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="148"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="144" t="s">
+      <c r="E38" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="142"/>
+      <c r="G38" s="142"/>
+      <c r="H38" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="144"/>
-      <c r="J38" s="145" t="s">
+      <c r="I38" s="145"/>
+      <c r="J38" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="146"/>
+      <c r="K38" s="144"/>
     </row>
     <row r="39" spans="5:22" ht="19" x14ac:dyDescent="0.25">
       <c r="E39" s="14" t="s">
@@ -37818,11 +37950,11 @@
       </c>
       <c r="F40" s="7">
         <f>'1º Vuelta'!C5+'1º Vuelta'!K5+'1º Vuelta'!S5+'1º Vuelta'!AA5+'1º Vuelta'!AI5+'1º Vuelta'!AQ5+'1º Vuelta'!AY5+'1º Vuelta'!BG5+'1º Vuelta'!BO5+'1º Vuelta'!BW5+'1º Vuelta'!CE5+'1º Vuelta'!CM5+'1º Vuelta'!CU5+'1º Vuelta'!DC5+'1º Vuelta'!DK5+'1º Vuelta'!DS5+'1º Vuelta'!EA5</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G40" s="7">
         <f>'1º Vuelta'!D5+'1º Vuelta'!L5+'1º Vuelta'!T5+'1º Vuelta'!AB5+'1º Vuelta'!AJ5+'1º Vuelta'!AR5+'1º Vuelta'!AZ5+'1º Vuelta'!BH5+'1º Vuelta'!BP5+'1º Vuelta'!BX5+'1º Vuelta'!CF5+'1º Vuelta'!CN5+'1º Vuelta'!CV5+'1º Vuelta'!DD5+'1º Vuelta'!DL5+'1º Vuelta'!DT5+'1º Vuelta'!EB5</f>
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="H40" s="7">
         <f>'1º Vuelta'!E5+'1º Vuelta'!M5+'1º Vuelta'!U5+'1º Vuelta'!AC5+'1º Vuelta'!AK5+'1º Vuelta'!AS5+'1º Vuelta'!BA5+'1º Vuelta'!BI5+'1º Vuelta'!BQ5+'1º Vuelta'!BY5+'1º Vuelta'!CG5+'1º Vuelta'!CO5+'1º Vuelta'!CW5+'1º Vuelta'!DE5+'1º Vuelta'!DM5+'1º Vuelta'!DU5+'1º Vuelta'!EC5</f>
@@ -37880,7 +38012,7 @@
       </c>
       <c r="G42" s="7">
         <f>'1º Vuelta'!D7+'1º Vuelta'!L7+'1º Vuelta'!T7+'1º Vuelta'!AB7+'1º Vuelta'!AJ7+'1º Vuelta'!AR7+'1º Vuelta'!AZ7+'1º Vuelta'!BH7+'1º Vuelta'!BP7+'1º Vuelta'!BX7+'1º Vuelta'!CF7+'1º Vuelta'!CN7+'1º Vuelta'!CV7+'1º Vuelta'!DD7+'1º Vuelta'!DL7+'1º Vuelta'!DT7+'1º Vuelta'!EB7</f>
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="H42" s="7">
         <f>'1º Vuelta'!E7+'1º Vuelta'!M7+'1º Vuelta'!U7+'1º Vuelta'!AC7+'1º Vuelta'!AK7+'1º Vuelta'!AS7+'1º Vuelta'!BA7+'1º Vuelta'!BI7+'1º Vuelta'!BQ7+'1º Vuelta'!BY7+'1º Vuelta'!CG7+'1º Vuelta'!CO7+'1º Vuelta'!CW7+'1º Vuelta'!DE7+'1º Vuelta'!DM7+'1º Vuelta'!DU7+'1º Vuelta'!EC7</f>
@@ -37934,11 +38066,11 @@
       </c>
       <c r="F44" s="7">
         <f>'1º Vuelta'!C9+'1º Vuelta'!K9+'1º Vuelta'!S9+'1º Vuelta'!AA9+'1º Vuelta'!AI9+'1º Vuelta'!AQ9+'1º Vuelta'!AY9+'1º Vuelta'!BG9+'1º Vuelta'!BO9+'1º Vuelta'!BW9+'1º Vuelta'!CE9+'1º Vuelta'!CM9+'1º Vuelta'!CU9+'1º Vuelta'!DC9+'1º Vuelta'!DK9+'1º Vuelta'!DS9+'1º Vuelta'!EA9</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G44" s="7">
         <f>'1º Vuelta'!D9+'1º Vuelta'!L9+'1º Vuelta'!T9+'1º Vuelta'!AB9+'1º Vuelta'!AJ9+'1º Vuelta'!AR9+'1º Vuelta'!AZ9+'1º Vuelta'!BH9+'1º Vuelta'!BP9+'1º Vuelta'!BX9+'1º Vuelta'!CF9+'1º Vuelta'!CN9+'1º Vuelta'!CV9+'1º Vuelta'!DD9+'1º Vuelta'!DL9+'1º Vuelta'!DT9+'1º Vuelta'!EB9</f>
-        <v>326</v>
+        <v>398</v>
       </c>
       <c r="H44" s="7">
         <f>'1º Vuelta'!E9+'1º Vuelta'!M9+'1º Vuelta'!U9+'1º Vuelta'!AC9+'1º Vuelta'!AK9+'1º Vuelta'!AS9+'1º Vuelta'!BA9+'1º Vuelta'!BI9+'1º Vuelta'!BQ9+'1º Vuelta'!BY9+'1º Vuelta'!CG9+'1º Vuelta'!CO9+'1º Vuelta'!CW9+'1º Vuelta'!DE9+'1º Vuelta'!DM9+'1º Vuelta'!DU9+'1º Vuelta'!EC9</f>
@@ -37963,11 +38095,11 @@
       </c>
       <c r="F45" s="7">
         <f>'1º Vuelta'!C10+'1º Vuelta'!K10+'1º Vuelta'!S10+'1º Vuelta'!AA10+'1º Vuelta'!AI10+'1º Vuelta'!AQ10+'1º Vuelta'!AY10+'1º Vuelta'!BG10+'1º Vuelta'!BO10+'1º Vuelta'!BW10+'1º Vuelta'!CE10+'1º Vuelta'!CM10+'1º Vuelta'!CU10+'1º Vuelta'!DC10+'1º Vuelta'!DK10+'1º Vuelta'!DS10+'1º Vuelta'!EA10</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G45" s="7">
         <f>'1º Vuelta'!D10+'1º Vuelta'!L10+'1º Vuelta'!T10+'1º Vuelta'!AB10+'1º Vuelta'!AJ10+'1º Vuelta'!AR10+'1º Vuelta'!AZ10+'1º Vuelta'!BH10+'1º Vuelta'!BP10+'1º Vuelta'!BX10+'1º Vuelta'!CF10+'1º Vuelta'!CN10+'1º Vuelta'!CV10+'1º Vuelta'!DD10+'1º Vuelta'!DL10+'1º Vuelta'!DT10+'1º Vuelta'!EB10</f>
-        <v>709</v>
+        <v>799</v>
       </c>
       <c r="H45" s="7">
         <f>'1º Vuelta'!E10+'1º Vuelta'!M10+'1º Vuelta'!U10+'1º Vuelta'!AC10+'1º Vuelta'!AK10+'1º Vuelta'!AS10+'1º Vuelta'!BA10+'1º Vuelta'!BI10+'1º Vuelta'!BQ10+'1º Vuelta'!BY10+'1º Vuelta'!CG10+'1º Vuelta'!CO10+'1º Vuelta'!CW10+'1º Vuelta'!DE10+'1º Vuelta'!DM10+'1º Vuelta'!DU10+'1º Vuelta'!EC10</f>
@@ -37996,11 +38128,11 @@
       </c>
       <c r="G46" s="7">
         <f>'1º Vuelta'!D11+'1º Vuelta'!L11+'1º Vuelta'!T11+'1º Vuelta'!AB11+'1º Vuelta'!AJ11+'1º Vuelta'!AR11+'1º Vuelta'!AZ11+'1º Vuelta'!BH11+'1º Vuelta'!BP11+'1º Vuelta'!BX11+'1º Vuelta'!CF11+'1º Vuelta'!CN11+'1º Vuelta'!CV11+'1º Vuelta'!DD11+'1º Vuelta'!DL11+'1º Vuelta'!DT11+'1º Vuelta'!EB11</f>
-        <v>655</v>
+        <v>700</v>
       </c>
       <c r="H46" s="7">
         <f>'1º Vuelta'!E11+'1º Vuelta'!M11+'1º Vuelta'!U11+'1º Vuelta'!AC11+'1º Vuelta'!AK11+'1º Vuelta'!AS11+'1º Vuelta'!BA11+'1º Vuelta'!BI11+'1º Vuelta'!BQ11+'1º Vuelta'!BY11+'1º Vuelta'!CG11+'1º Vuelta'!CO11+'1º Vuelta'!CW11+'1º Vuelta'!DE11+'1º Vuelta'!DM11+'1º Vuelta'!DU11+'1º Vuelta'!EC11</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" s="7">
         <f>'1º Vuelta'!F11+'1º Vuelta'!N11+'1º Vuelta'!V11+'1º Vuelta'!AD11+'1º Vuelta'!AL11+'1º Vuelta'!AT11+'1º Vuelta'!BB11+'1º Vuelta'!BJ11+'1º Vuelta'!BR11+'1º Vuelta'!BZ11+'1º Vuelta'!CH11+'1º Vuelta'!CP11+'1º Vuelta'!CX11+'1º Vuelta'!DF11+'1º Vuelta'!DN11+'1º Vuelta'!DV11+'1º Vuelta'!ED11</f>
@@ -38021,15 +38153,15 @@
       </c>
       <c r="F47" s="7">
         <f>'1º Vuelta'!C12+'1º Vuelta'!K12+'1º Vuelta'!S12+'1º Vuelta'!AA12+'1º Vuelta'!AI12+'1º Vuelta'!AQ12+'1º Vuelta'!AY12+'1º Vuelta'!BG12+'1º Vuelta'!BO12+'1º Vuelta'!BW12+'1º Vuelta'!CE12+'1º Vuelta'!CM12+'1º Vuelta'!CU12+'1º Vuelta'!DC12+'1º Vuelta'!DK12+'1º Vuelta'!DS12+'1º Vuelta'!EA12</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G47" s="7">
         <f>'1º Vuelta'!D12+'1º Vuelta'!L12+'1º Vuelta'!T12+'1º Vuelta'!AB12+'1º Vuelta'!AJ12+'1º Vuelta'!AR12+'1º Vuelta'!AZ12+'1º Vuelta'!BH12+'1º Vuelta'!BP12+'1º Vuelta'!BX12+'1º Vuelta'!CF12+'1º Vuelta'!CN12+'1º Vuelta'!CV12+'1º Vuelta'!DD12+'1º Vuelta'!DL12+'1º Vuelta'!DT12+'1º Vuelta'!EB12</f>
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="H47" s="7">
         <f>'1º Vuelta'!E12+'1º Vuelta'!M12+'1º Vuelta'!U12+'1º Vuelta'!AC12+'1º Vuelta'!AK12+'1º Vuelta'!AS12+'1º Vuelta'!BA12+'1º Vuelta'!BI12+'1º Vuelta'!BQ12+'1º Vuelta'!BY12+'1º Vuelta'!CG12+'1º Vuelta'!CO12+'1º Vuelta'!CW12+'1º Vuelta'!DE12+'1º Vuelta'!DM12+'1º Vuelta'!DU12+'1º Vuelta'!EC12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="7">
         <f>'1º Vuelta'!F12+'1º Vuelta'!N12+'1º Vuelta'!V12+'1º Vuelta'!AD12+'1º Vuelta'!AL12+'1º Vuelta'!AT12+'1º Vuelta'!BB12+'1º Vuelta'!BJ12+'1º Vuelta'!BR12+'1º Vuelta'!BZ12+'1º Vuelta'!CH12+'1º Vuelta'!CP12+'1º Vuelta'!CX12+'1º Vuelta'!DF12+'1º Vuelta'!DN12+'1º Vuelta'!DV12+'1º Vuelta'!ED12</f>
@@ -38050,11 +38182,11 @@
       </c>
       <c r="F48" s="7">
         <f>'1º Vuelta'!C13+'1º Vuelta'!K13+'1º Vuelta'!S13+'1º Vuelta'!AA13+'1º Vuelta'!AI13+'1º Vuelta'!AQ13+'1º Vuelta'!AY13+'1º Vuelta'!BG13+'1º Vuelta'!BO13+'1º Vuelta'!BW13+'1º Vuelta'!CE13+'1º Vuelta'!CM13+'1º Vuelta'!CU13+'1º Vuelta'!DC13+'1º Vuelta'!DK13+'1º Vuelta'!DS13+'1º Vuelta'!EA13</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G48" s="7">
         <f>'1º Vuelta'!D13+'1º Vuelta'!L13+'1º Vuelta'!T13+'1º Vuelta'!AB13+'1º Vuelta'!AJ13+'1º Vuelta'!AR13+'1º Vuelta'!AZ13+'1º Vuelta'!BH13+'1º Vuelta'!BP13+'1º Vuelta'!BX13+'1º Vuelta'!CF13+'1º Vuelta'!CN13+'1º Vuelta'!CV13+'1º Vuelta'!DD13+'1º Vuelta'!DL13+'1º Vuelta'!DT13+'1º Vuelta'!EB13</f>
-        <v>514</v>
+        <v>604</v>
       </c>
       <c r="H48" s="7">
         <f>'1º Vuelta'!E13+'1º Vuelta'!M13+'1º Vuelta'!U13+'1º Vuelta'!AC13+'1º Vuelta'!AK13+'1º Vuelta'!AS13+'1º Vuelta'!BA13+'1º Vuelta'!BI13+'1º Vuelta'!BQ13+'1º Vuelta'!BY13+'1º Vuelta'!CG13+'1º Vuelta'!CO13+'1º Vuelta'!CW13+'1º Vuelta'!DE13+'1º Vuelta'!DM13+'1º Vuelta'!DU13+'1º Vuelta'!EC13</f>
@@ -38108,11 +38240,11 @@
       </c>
       <c r="F50" s="7">
         <f>'1º Vuelta'!C15+'1º Vuelta'!K15+'1º Vuelta'!S15+'1º Vuelta'!AA15+'1º Vuelta'!AI15+'1º Vuelta'!AQ15+'1º Vuelta'!AY15+'1º Vuelta'!BG15+'1º Vuelta'!BO15+'1º Vuelta'!BW15+'1º Vuelta'!CE15+'1º Vuelta'!CM15+'1º Vuelta'!CU15+'1º Vuelta'!DC15+'1º Vuelta'!DK15+'1º Vuelta'!DS15+'1º Vuelta'!EA15</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G50" s="7">
         <f>'1º Vuelta'!D15+'1º Vuelta'!L15+'1º Vuelta'!T15+'1º Vuelta'!AB15+'1º Vuelta'!AJ15+'1º Vuelta'!AR15+'1º Vuelta'!AZ15+'1º Vuelta'!BH15+'1º Vuelta'!BP15+'1º Vuelta'!BX15+'1º Vuelta'!CF15+'1º Vuelta'!CN15+'1º Vuelta'!CV15+'1º Vuelta'!DD15+'1º Vuelta'!DL15+'1º Vuelta'!DT15+'1º Vuelta'!EB15</f>
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="H50" s="7">
         <f>'1º Vuelta'!E15+'1º Vuelta'!M15+'1º Vuelta'!U15+'1º Vuelta'!AC15+'1º Vuelta'!AK15+'1º Vuelta'!AS15+'1º Vuelta'!BA15+'1º Vuelta'!BI15+'1º Vuelta'!BQ15+'1º Vuelta'!BY15+'1º Vuelta'!CG15+'1º Vuelta'!CO15+'1º Vuelta'!CW15+'1º Vuelta'!DE15+'1º Vuelta'!DM15+'1º Vuelta'!DU15+'1º Vuelta'!EC15</f>
@@ -38137,11 +38269,11 @@
       </c>
       <c r="F51" s="7">
         <f>'1º Vuelta'!C16+'1º Vuelta'!K16+'1º Vuelta'!S16+'1º Vuelta'!AA16+'1º Vuelta'!AI16+'1º Vuelta'!AQ16+'1º Vuelta'!AY16+'1º Vuelta'!BG16+'1º Vuelta'!BO16+'1º Vuelta'!BW16+'1º Vuelta'!CE16+'1º Vuelta'!CM16+'1º Vuelta'!CU16+'1º Vuelta'!DC16+'1º Vuelta'!DK16+'1º Vuelta'!DS16+'1º Vuelta'!EA16</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G51" s="7">
         <f>'1º Vuelta'!D16+'1º Vuelta'!L16+'1º Vuelta'!T16+'1º Vuelta'!AB16+'1º Vuelta'!AJ16+'1º Vuelta'!AR16+'1º Vuelta'!AZ16+'1º Vuelta'!BH16+'1º Vuelta'!BP16+'1º Vuelta'!BX16+'1º Vuelta'!CF16+'1º Vuelta'!CN16+'1º Vuelta'!CV16+'1º Vuelta'!DD16+'1º Vuelta'!DL16+'1º Vuelta'!DT16+'1º Vuelta'!EB16</f>
-        <v>605</v>
+        <v>677</v>
       </c>
       <c r="H51" s="7">
         <f>'1º Vuelta'!E16+'1º Vuelta'!M16+'1º Vuelta'!U16+'1º Vuelta'!AC16+'1º Vuelta'!AK16+'1º Vuelta'!AS16+'1º Vuelta'!BA16+'1º Vuelta'!BI16+'1º Vuelta'!BQ16+'1º Vuelta'!BY16+'1º Vuelta'!CG16+'1º Vuelta'!CO16+'1º Vuelta'!CW16+'1º Vuelta'!DE16+'1º Vuelta'!DM16+'1º Vuelta'!DU16+'1º Vuelta'!EC16</f>
@@ -38195,11 +38327,11 @@
       </c>
       <c r="F53" s="7">
         <f>'1º Vuelta'!C18+'1º Vuelta'!K18+'1º Vuelta'!S18+'1º Vuelta'!AA18+'1º Vuelta'!AI18+'1º Vuelta'!AQ18+'1º Vuelta'!AY18+'1º Vuelta'!BG18+'1º Vuelta'!BO18+'1º Vuelta'!BW18+'1º Vuelta'!CE18+'1º Vuelta'!CM18+'1º Vuelta'!CU18+'1º Vuelta'!DC18+'1º Vuelta'!DK18+'1º Vuelta'!DS18+'1º Vuelta'!EA18</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G53" s="7">
         <f>'1º Vuelta'!D18+'1º Vuelta'!L18+'1º Vuelta'!T18+'1º Vuelta'!AB18+'1º Vuelta'!AJ18+'1º Vuelta'!AR18+'1º Vuelta'!AZ18+'1º Vuelta'!BH18+'1º Vuelta'!BP18+'1º Vuelta'!BX18+'1º Vuelta'!CF18+'1º Vuelta'!CN18+'1º Vuelta'!CV18+'1º Vuelta'!DD18+'1º Vuelta'!DL18+'1º Vuelta'!DT18+'1º Vuelta'!EB18</f>
-        <v>673</v>
+        <v>763</v>
       </c>
       <c r="H53" s="7">
         <f>'1º Vuelta'!E18+'1º Vuelta'!M18+'1º Vuelta'!U18+'1º Vuelta'!AC18+'1º Vuelta'!AK18+'1º Vuelta'!AS18+'1º Vuelta'!BA18+'1º Vuelta'!BI18+'1º Vuelta'!BQ18+'1º Vuelta'!BY18+'1º Vuelta'!CG18+'1º Vuelta'!CO18+'1º Vuelta'!CW18+'1º Vuelta'!DE18+'1º Vuelta'!DM18+'1º Vuelta'!DU18+'1º Vuelta'!EC18</f>
@@ -38228,7 +38360,7 @@
       </c>
       <c r="G54" s="7">
         <f>'1º Vuelta'!D19+'1º Vuelta'!L19+'1º Vuelta'!T19+'1º Vuelta'!AB19+'1º Vuelta'!AJ19+'1º Vuelta'!AR19+'1º Vuelta'!AZ19+'1º Vuelta'!BH19+'1º Vuelta'!BP19+'1º Vuelta'!BX19+'1º Vuelta'!CF19+'1º Vuelta'!CN19+'1º Vuelta'!CV19+'1º Vuelta'!DD19+'1º Vuelta'!DL19+'1º Vuelta'!DT19+'1º Vuelta'!EB19</f>
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="H54" s="7">
         <f>'1º Vuelta'!E19+'1º Vuelta'!M19+'1º Vuelta'!U19+'1º Vuelta'!AC19+'1º Vuelta'!AK19+'1º Vuelta'!AS19+'1º Vuelta'!BA19+'1º Vuelta'!BI19+'1º Vuelta'!BQ19+'1º Vuelta'!BY19+'1º Vuelta'!CG19+'1º Vuelta'!CO19+'1º Vuelta'!CW19+'1º Vuelta'!DE19+'1º Vuelta'!DM19+'1º Vuelta'!DU19+'1º Vuelta'!EC19</f>
@@ -38253,15 +38385,15 @@
       </c>
       <c r="F55" s="7">
         <f>'1º Vuelta'!C20+'1º Vuelta'!K20+'1º Vuelta'!S20+'1º Vuelta'!AA20+'1º Vuelta'!AI20+'1º Vuelta'!AQ20+'1º Vuelta'!AY20+'1º Vuelta'!BG20+'1º Vuelta'!BO20+'1º Vuelta'!BW20+'1º Vuelta'!CE20+'1º Vuelta'!CM20+'1º Vuelta'!CU20+'1º Vuelta'!DC20+'1º Vuelta'!DK20+'1º Vuelta'!DS20+'1º Vuelta'!EA20</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G55" s="7">
         <f>'1º Vuelta'!D20+'1º Vuelta'!L20+'1º Vuelta'!T20+'1º Vuelta'!AB20+'1º Vuelta'!AJ20+'1º Vuelta'!AR20+'1º Vuelta'!AZ20+'1º Vuelta'!BH20+'1º Vuelta'!BP20+'1º Vuelta'!BX20+'1º Vuelta'!CF20+'1º Vuelta'!CN20+'1º Vuelta'!CV20+'1º Vuelta'!DD20+'1º Vuelta'!DL20+'1º Vuelta'!DT20+'1º Vuelta'!EB20</f>
-        <v>553</v>
+        <v>643</v>
       </c>
       <c r="H55" s="7">
         <f>'1º Vuelta'!E20+'1º Vuelta'!M20+'1º Vuelta'!U20+'1º Vuelta'!AC20+'1º Vuelta'!AK20+'1º Vuelta'!AS20+'1º Vuelta'!BA20+'1º Vuelta'!BI20+'1º Vuelta'!BQ20+'1º Vuelta'!BY20+'1º Vuelta'!CG20+'1º Vuelta'!CO20+'1º Vuelta'!CW20+'1º Vuelta'!DE20+'1º Vuelta'!DM20+'1º Vuelta'!DU20+'1º Vuelta'!EC20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="7">
         <f>'1º Vuelta'!F20+'1º Vuelta'!N20+'1º Vuelta'!V20+'1º Vuelta'!AD20+'1º Vuelta'!AL20+'1º Vuelta'!AT20+'1º Vuelta'!BB20+'1º Vuelta'!BJ20+'1º Vuelta'!BR20+'1º Vuelta'!BZ20+'1º Vuelta'!CH20+'1º Vuelta'!CP20+'1º Vuelta'!CX20+'1º Vuelta'!DF20+'1º Vuelta'!DN20+'1º Vuelta'!DV20+'1º Vuelta'!ED20</f>
@@ -38282,11 +38414,11 @@
       </c>
       <c r="F56" s="7">
         <f>'1º Vuelta'!C21+'1º Vuelta'!K21+'1º Vuelta'!S21+'1º Vuelta'!AA21+'1º Vuelta'!AI21+'1º Vuelta'!AQ21+'1º Vuelta'!AY21+'1º Vuelta'!BG21+'1º Vuelta'!BO21+'1º Vuelta'!BW21+'1º Vuelta'!CE21+'1º Vuelta'!CM21+'1º Vuelta'!CU21+'1º Vuelta'!DC21+'1º Vuelta'!DK21+'1º Vuelta'!DS21+'1º Vuelta'!EA21</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G56" s="7">
         <f>'1º Vuelta'!D21+'1º Vuelta'!L21+'1º Vuelta'!T21+'1º Vuelta'!AB21+'1º Vuelta'!AJ21+'1º Vuelta'!AR21+'1º Vuelta'!AZ21+'1º Vuelta'!BH21+'1º Vuelta'!BP21+'1º Vuelta'!BX21+'1º Vuelta'!CF21+'1º Vuelta'!CN21+'1º Vuelta'!CV21+'1º Vuelta'!DD21+'1º Vuelta'!DL21+'1º Vuelta'!DT21+'1º Vuelta'!EB21</f>
-        <v>544</v>
+        <v>634</v>
       </c>
       <c r="H56" s="7">
         <f>'1º Vuelta'!E21+'1º Vuelta'!M21+'1º Vuelta'!U21+'1º Vuelta'!AC21+'1º Vuelta'!AK21+'1º Vuelta'!AS21+'1º Vuelta'!BA21+'1º Vuelta'!BI21+'1º Vuelta'!BQ21+'1º Vuelta'!BY21+'1º Vuelta'!CG21+'1º Vuelta'!CO21+'1º Vuelta'!CW21+'1º Vuelta'!DE21+'1º Vuelta'!DM21+'1º Vuelta'!DU21+'1º Vuelta'!EC21</f>
@@ -38340,11 +38472,11 @@
       </c>
       <c r="F58" s="7">
         <f>'1º Vuelta'!C23+'1º Vuelta'!K23+'1º Vuelta'!S23+'1º Vuelta'!AA23+'1º Vuelta'!AI23+'1º Vuelta'!AQ23+'1º Vuelta'!AY23+'1º Vuelta'!BG23+'1º Vuelta'!BO23+'1º Vuelta'!BW23+'1º Vuelta'!CE23+'1º Vuelta'!CM23+'1º Vuelta'!CU23+'1º Vuelta'!DC23+'1º Vuelta'!DK23+'1º Vuelta'!DS23+'1º Vuelta'!EA23</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G58" s="7">
         <f>'1º Vuelta'!D23+'1º Vuelta'!L23+'1º Vuelta'!T23+'1º Vuelta'!AB23+'1º Vuelta'!AJ23+'1º Vuelta'!AR23+'1º Vuelta'!AZ23+'1º Vuelta'!BH23+'1º Vuelta'!BP23+'1º Vuelta'!BX23+'1º Vuelta'!CF23+'1º Vuelta'!CN23+'1º Vuelta'!CV23+'1º Vuelta'!DD23+'1º Vuelta'!DL23+'1º Vuelta'!DT23+'1º Vuelta'!EB23</f>
-        <v>486</v>
+        <v>576</v>
       </c>
       <c r="H58" s="7">
         <f>'1º Vuelta'!E23+'1º Vuelta'!M23+'1º Vuelta'!U23+'1º Vuelta'!AC23+'1º Vuelta'!AK23+'1º Vuelta'!AS23+'1º Vuelta'!BA23+'1º Vuelta'!BI23+'1º Vuelta'!BQ23+'1º Vuelta'!BY23+'1º Vuelta'!CG23+'1º Vuelta'!CO23+'1º Vuelta'!CW23+'1º Vuelta'!DE23+'1º Vuelta'!DM23+'1º Vuelta'!DU23+'1º Vuelta'!EC23</f>
@@ -38373,7 +38505,7 @@
       </c>
       <c r="G59" s="7">
         <f>'1º Vuelta'!D24+'1º Vuelta'!L24+'1º Vuelta'!T24+'1º Vuelta'!AB24+'1º Vuelta'!AJ24+'1º Vuelta'!AR24+'1º Vuelta'!AZ24+'1º Vuelta'!BH24+'1º Vuelta'!BP24+'1º Vuelta'!BX24+'1º Vuelta'!CF24+'1º Vuelta'!CN24+'1º Vuelta'!CV24+'1º Vuelta'!DD24+'1º Vuelta'!DL24+'1º Vuelta'!DT24+'1º Vuelta'!EB24</f>
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="H59" s="7">
         <f>'1º Vuelta'!E24+'1º Vuelta'!M24+'1º Vuelta'!U24+'1º Vuelta'!AC24+'1º Vuelta'!AK24+'1º Vuelta'!AS24+'1º Vuelta'!BA24+'1º Vuelta'!BI24+'1º Vuelta'!BQ24+'1º Vuelta'!BY24+'1º Vuelta'!CG24+'1º Vuelta'!CO24+'1º Vuelta'!CW24+'1º Vuelta'!DE24+'1º Vuelta'!DM24+'1º Vuelta'!DU24+'1º Vuelta'!EC24</f>
@@ -38504,382 +38636,382 @@
   <sheetData>
     <row r="1" spans="2:136" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B2" s="141" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="143"/>
-      <c r="J2" s="141" t="s">
+      <c r="B2" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="149"/>
+      <c r="J2" s="147" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="143"/>
-      <c r="R2" s="141" t="s">
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="149"/>
+      <c r="R2" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="142"/>
-      <c r="T2" s="142"/>
-      <c r="U2" s="142"/>
-      <c r="V2" s="142"/>
-      <c r="W2" s="142"/>
-      <c r="X2" s="143"/>
-      <c r="Z2" s="141" t="s">
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="149"/>
+      <c r="Z2" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="142"/>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="142"/>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="143"/>
-      <c r="AH2" s="141" t="s">
+      <c r="AA2" s="148"/>
+      <c r="AB2" s="148"/>
+      <c r="AC2" s="148"/>
+      <c r="AD2" s="148"/>
+      <c r="AE2" s="148"/>
+      <c r="AF2" s="149"/>
+      <c r="AH2" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="142"/>
-      <c r="AJ2" s="142"/>
-      <c r="AK2" s="142"/>
-      <c r="AL2" s="142"/>
-      <c r="AM2" s="142"/>
-      <c r="AN2" s="143"/>
-      <c r="AP2" s="141" t="s">
+      <c r="AI2" s="148"/>
+      <c r="AJ2" s="148"/>
+      <c r="AK2" s="148"/>
+      <c r="AL2" s="148"/>
+      <c r="AM2" s="148"/>
+      <c r="AN2" s="149"/>
+      <c r="AP2" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="AQ2" s="142"/>
-      <c r="AR2" s="142"/>
-      <c r="AS2" s="142"/>
-      <c r="AT2" s="142"/>
-      <c r="AU2" s="142"/>
-      <c r="AV2" s="143"/>
-      <c r="AX2" s="141" t="s">
+      <c r="AQ2" s="148"/>
+      <c r="AR2" s="148"/>
+      <c r="AS2" s="148"/>
+      <c r="AT2" s="148"/>
+      <c r="AU2" s="148"/>
+      <c r="AV2" s="149"/>
+      <c r="AX2" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="AY2" s="142"/>
-      <c r="AZ2" s="142"/>
-      <c r="BA2" s="142"/>
-      <c r="BB2" s="142"/>
-      <c r="BC2" s="142"/>
-      <c r="BD2" s="143"/>
-      <c r="BF2" s="141" t="s">
+      <c r="AY2" s="148"/>
+      <c r="AZ2" s="148"/>
+      <c r="BA2" s="148"/>
+      <c r="BB2" s="148"/>
+      <c r="BC2" s="148"/>
+      <c r="BD2" s="149"/>
+      <c r="BF2" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="BG2" s="142"/>
-      <c r="BH2" s="142"/>
-      <c r="BI2" s="142"/>
-      <c r="BJ2" s="142"/>
-      <c r="BK2" s="142"/>
-      <c r="BL2" s="143"/>
-      <c r="BN2" s="141" t="s">
+      <c r="BG2" s="148"/>
+      <c r="BH2" s="148"/>
+      <c r="BI2" s="148"/>
+      <c r="BJ2" s="148"/>
+      <c r="BK2" s="148"/>
+      <c r="BL2" s="149"/>
+      <c r="BN2" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="BO2" s="142"/>
-      <c r="BP2" s="142"/>
-      <c r="BQ2" s="142"/>
-      <c r="BR2" s="142"/>
-      <c r="BS2" s="142"/>
-      <c r="BT2" s="143"/>
-      <c r="BV2" s="141" t="s">
+      <c r="BO2" s="148"/>
+      <c r="BP2" s="148"/>
+      <c r="BQ2" s="148"/>
+      <c r="BR2" s="148"/>
+      <c r="BS2" s="148"/>
+      <c r="BT2" s="149"/>
+      <c r="BV2" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="BW2" s="142"/>
-      <c r="BX2" s="142"/>
-      <c r="BY2" s="142"/>
-      <c r="BZ2" s="142"/>
-      <c r="CA2" s="142"/>
-      <c r="CB2" s="143"/>
-      <c r="CD2" s="141" t="s">
+      <c r="BW2" s="148"/>
+      <c r="BX2" s="148"/>
+      <c r="BY2" s="148"/>
+      <c r="BZ2" s="148"/>
+      <c r="CA2" s="148"/>
+      <c r="CB2" s="149"/>
+      <c r="CD2" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="CE2" s="142"/>
-      <c r="CF2" s="142"/>
-      <c r="CG2" s="142"/>
-      <c r="CH2" s="142"/>
-      <c r="CI2" s="142"/>
-      <c r="CJ2" s="143"/>
-      <c r="CL2" s="141" t="s">
+      <c r="CE2" s="148"/>
+      <c r="CF2" s="148"/>
+      <c r="CG2" s="148"/>
+      <c r="CH2" s="148"/>
+      <c r="CI2" s="148"/>
+      <c r="CJ2" s="149"/>
+      <c r="CL2" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="CM2" s="142"/>
-      <c r="CN2" s="142"/>
-      <c r="CO2" s="142"/>
-      <c r="CP2" s="142"/>
-      <c r="CQ2" s="142"/>
-      <c r="CR2" s="143"/>
-      <c r="CT2" s="141" t="s">
+      <c r="CM2" s="148"/>
+      <c r="CN2" s="148"/>
+      <c r="CO2" s="148"/>
+      <c r="CP2" s="148"/>
+      <c r="CQ2" s="148"/>
+      <c r="CR2" s="149"/>
+      <c r="CT2" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="CU2" s="142"/>
-      <c r="CV2" s="142"/>
-      <c r="CW2" s="142"/>
-      <c r="CX2" s="142"/>
-      <c r="CY2" s="142"/>
-      <c r="CZ2" s="143"/>
-      <c r="DB2" s="141" t="s">
+      <c r="CU2" s="148"/>
+      <c r="CV2" s="148"/>
+      <c r="CW2" s="148"/>
+      <c r="CX2" s="148"/>
+      <c r="CY2" s="148"/>
+      <c r="CZ2" s="149"/>
+      <c r="DB2" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="DC2" s="142"/>
-      <c r="DD2" s="142"/>
-      <c r="DE2" s="142"/>
-      <c r="DF2" s="142"/>
-      <c r="DG2" s="142"/>
-      <c r="DH2" s="143"/>
-      <c r="DJ2" s="141" t="s">
+      <c r="DC2" s="148"/>
+      <c r="DD2" s="148"/>
+      <c r="DE2" s="148"/>
+      <c r="DF2" s="148"/>
+      <c r="DG2" s="148"/>
+      <c r="DH2" s="149"/>
+      <c r="DJ2" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="DK2" s="142"/>
-      <c r="DL2" s="142"/>
-      <c r="DM2" s="142"/>
-      <c r="DN2" s="142"/>
-      <c r="DO2" s="142"/>
-      <c r="DP2" s="143"/>
-      <c r="DR2" s="141" t="s">
+      <c r="DK2" s="148"/>
+      <c r="DL2" s="148"/>
+      <c r="DM2" s="148"/>
+      <c r="DN2" s="148"/>
+      <c r="DO2" s="148"/>
+      <c r="DP2" s="149"/>
+      <c r="DR2" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="DS2" s="142"/>
-      <c r="DT2" s="142"/>
-      <c r="DU2" s="142"/>
-      <c r="DV2" s="142"/>
-      <c r="DW2" s="142"/>
-      <c r="DX2" s="143"/>
-      <c r="DZ2" s="141" t="s">
+      <c r="DS2" s="148"/>
+      <c r="DT2" s="148"/>
+      <c r="DU2" s="148"/>
+      <c r="DV2" s="148"/>
+      <c r="DW2" s="148"/>
+      <c r="DX2" s="149"/>
+      <c r="DZ2" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="EA2" s="142"/>
-      <c r="EB2" s="142"/>
-      <c r="EC2" s="142"/>
-      <c r="ED2" s="142"/>
-      <c r="EE2" s="142"/>
-      <c r="EF2" s="143"/>
+      <c r="EA2" s="148"/>
+      <c r="EB2" s="148"/>
+      <c r="EC2" s="148"/>
+      <c r="ED2" s="148"/>
+      <c r="EE2" s="148"/>
+      <c r="EF2" s="149"/>
     </row>
     <row r="3" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="144" t="s">
+      <c r="B3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="144"/>
-      <c r="G3" s="145" t="s">
+      <c r="F3" s="145"/>
+      <c r="G3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="146"/>
-      <c r="J3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="144" t="s">
+      <c r="H3" s="144"/>
+      <c r="J3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="144"/>
-      <c r="O3" s="145" t="s">
+      <c r="N3" s="145"/>
+      <c r="O3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="146"/>
-      <c r="R3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="148"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="144" t="s">
+      <c r="P3" s="144"/>
+      <c r="R3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="144"/>
-      <c r="W3" s="145" t="s">
+      <c r="V3" s="145"/>
+      <c r="W3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="146"/>
-      <c r="Z3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="148"/>
-      <c r="AB3" s="148"/>
-      <c r="AC3" s="144" t="s">
+      <c r="X3" s="144"/>
+      <c r="Z3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="145" t="s">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="146"/>
-      <c r="AH3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="148"/>
-      <c r="AJ3" s="148"/>
-      <c r="AK3" s="144" t="s">
+      <c r="AF3" s="144"/>
+      <c r="AH3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="142"/>
+      <c r="AJ3" s="142"/>
+      <c r="AK3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="144"/>
-      <c r="AM3" s="145" t="s">
+      <c r="AL3" s="145"/>
+      <c r="AM3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="146"/>
-      <c r="AP3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="148"/>
-      <c r="AR3" s="148"/>
-      <c r="AS3" s="144" t="s">
+      <c r="AN3" s="144"/>
+      <c r="AP3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="142"/>
+      <c r="AR3" s="142"/>
+      <c r="AS3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="144"/>
-      <c r="AU3" s="145" t="s">
+      <c r="AT3" s="145"/>
+      <c r="AU3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="146"/>
-      <c r="AX3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="148"/>
-      <c r="AZ3" s="148"/>
-      <c r="BA3" s="144" t="s">
+      <c r="AV3" s="144"/>
+      <c r="AX3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="142"/>
+      <c r="AZ3" s="142"/>
+      <c r="BA3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BB3" s="144"/>
-      <c r="BC3" s="145" t="s">
+      <c r="BB3" s="145"/>
+      <c r="BC3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="146"/>
-      <c r="BF3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="148"/>
-      <c r="BH3" s="148"/>
-      <c r="BI3" s="144" t="s">
+      <c r="BD3" s="144"/>
+      <c r="BF3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="142"/>
+      <c r="BH3" s="142"/>
+      <c r="BI3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BJ3" s="144"/>
-      <c r="BK3" s="145" t="s">
+      <c r="BJ3" s="145"/>
+      <c r="BK3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="146"/>
-      <c r="BN3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="148"/>
-      <c r="BP3" s="148"/>
-      <c r="BQ3" s="144" t="s">
+      <c r="BL3" s="144"/>
+      <c r="BN3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="142"/>
+      <c r="BP3" s="142"/>
+      <c r="BQ3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="144"/>
-      <c r="BS3" s="145" t="s">
+      <c r="BR3" s="145"/>
+      <c r="BS3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="146"/>
-      <c r="BV3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="148"/>
-      <c r="BX3" s="148"/>
-      <c r="BY3" s="144" t="s">
+      <c r="BT3" s="144"/>
+      <c r="BV3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="142"/>
+      <c r="BX3" s="142"/>
+      <c r="BY3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="BZ3" s="144"/>
-      <c r="CA3" s="145" t="s">
+      <c r="BZ3" s="145"/>
+      <c r="CA3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="146"/>
-      <c r="CD3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="148"/>
-      <c r="CF3" s="148"/>
-      <c r="CG3" s="144" t="s">
+      <c r="CB3" s="144"/>
+      <c r="CD3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="142"/>
+      <c r="CF3" s="142"/>
+      <c r="CG3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="CH3" s="144"/>
-      <c r="CI3" s="145" t="s">
+      <c r="CH3" s="145"/>
+      <c r="CI3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="CJ3" s="146"/>
-      <c r="CL3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="148"/>
-      <c r="CN3" s="148"/>
-      <c r="CO3" s="144" t="s">
+      <c r="CJ3" s="144"/>
+      <c r="CL3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="142"/>
+      <c r="CN3" s="142"/>
+      <c r="CO3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="CP3" s="144"/>
-      <c r="CQ3" s="145" t="s">
+      <c r="CP3" s="145"/>
+      <c r="CQ3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="CR3" s="146"/>
-      <c r="CT3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="148"/>
-      <c r="CV3" s="148"/>
-      <c r="CW3" s="144" t="s">
+      <c r="CR3" s="144"/>
+      <c r="CT3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="142"/>
+      <c r="CV3" s="142"/>
+      <c r="CW3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="CX3" s="144"/>
-      <c r="CY3" s="145" t="s">
+      <c r="CX3" s="145"/>
+      <c r="CY3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="CZ3" s="146"/>
-      <c r="DB3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="DC3" s="148"/>
-      <c r="DD3" s="148"/>
-      <c r="DE3" s="144" t="s">
+      <c r="CZ3" s="144"/>
+      <c r="DB3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="142"/>
+      <c r="DD3" s="142"/>
+      <c r="DE3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="DF3" s="144"/>
-      <c r="DG3" s="145" t="s">
+      <c r="DF3" s="145"/>
+      <c r="DG3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="DH3" s="146"/>
-      <c r="DJ3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="DK3" s="148"/>
-      <c r="DL3" s="148"/>
-      <c r="DM3" s="144" t="s">
+      <c r="DH3" s="144"/>
+      <c r="DJ3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="142"/>
+      <c r="DL3" s="142"/>
+      <c r="DM3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="DN3" s="144"/>
-      <c r="DO3" s="145" t="s">
+      <c r="DN3" s="145"/>
+      <c r="DO3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="DP3" s="146"/>
-      <c r="DR3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS3" s="148"/>
-      <c r="DT3" s="148"/>
-      <c r="DU3" s="144" t="s">
+      <c r="DP3" s="144"/>
+      <c r="DR3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS3" s="142"/>
+      <c r="DT3" s="142"/>
+      <c r="DU3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="DV3" s="144"/>
-      <c r="DW3" s="145" t="s">
+      <c r="DV3" s="145"/>
+      <c r="DW3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="DX3" s="146"/>
-      <c r="DZ3" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="EA3" s="148"/>
-      <c r="EB3" s="148"/>
-      <c r="EC3" s="144" t="s">
+      <c r="DX3" s="144"/>
+      <c r="DZ3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="142"/>
+      <c r="EB3" s="142"/>
+      <c r="EC3" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="ED3" s="144"/>
-      <c r="EE3" s="145" t="s">
+      <c r="ED3" s="145"/>
+      <c r="EE3" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="EF3" s="146"/>
+      <c r="EF3" s="144"/>
     </row>
     <row r="4" spans="2:136" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -42652,16 +42784,52 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="DW3:DX3"/>
-    <mergeCell ref="DZ3:EB3"/>
-    <mergeCell ref="EC3:ED3"/>
-    <mergeCell ref="EE3:EF3"/>
-    <mergeCell ref="DG3:DH3"/>
-    <mergeCell ref="DJ3:DL3"/>
-    <mergeCell ref="DM3:DN3"/>
-    <mergeCell ref="DO3:DP3"/>
-    <mergeCell ref="DR3:DT3"/>
-    <mergeCell ref="DU3:DV3"/>
+    <mergeCell ref="CL2:CR2"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="J2:P2"/>
+    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="Z2:AF2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AP2:AV2"/>
+    <mergeCell ref="AX2:BD2"/>
+    <mergeCell ref="BF2:BL2"/>
+    <mergeCell ref="BN2:BT2"/>
+    <mergeCell ref="BV2:CB2"/>
+    <mergeCell ref="CD2:CJ2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="DB2:DH2"/>
+    <mergeCell ref="DJ2:DP2"/>
+    <mergeCell ref="DR2:DX2"/>
+    <mergeCell ref="DZ2:EF2"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV3:BX3"/>
     <mergeCell ref="DE3:DF3"/>
     <mergeCell ref="CA3:CB3"/>
     <mergeCell ref="CD3:CF3"/>
@@ -42674,52 +42842,16 @@
     <mergeCell ref="CW3:CX3"/>
     <mergeCell ref="CY3:CZ3"/>
     <mergeCell ref="DB3:DD3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="DB2:DH2"/>
-    <mergeCell ref="DJ2:DP2"/>
-    <mergeCell ref="DR2:DX2"/>
-    <mergeCell ref="DZ2:EF2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="CL2:CR2"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="J2:P2"/>
-    <mergeCell ref="R2:X2"/>
-    <mergeCell ref="Z2:AF2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AP2:AV2"/>
-    <mergeCell ref="AX2:BD2"/>
-    <mergeCell ref="BF2:BL2"/>
-    <mergeCell ref="BN2:BT2"/>
-    <mergeCell ref="BV2:CB2"/>
-    <mergeCell ref="CD2:CJ2"/>
+    <mergeCell ref="DW3:DX3"/>
+    <mergeCell ref="DZ3:EB3"/>
+    <mergeCell ref="EC3:ED3"/>
+    <mergeCell ref="EE3:EF3"/>
+    <mergeCell ref="DG3:DH3"/>
+    <mergeCell ref="DJ3:DL3"/>
+    <mergeCell ref="DM3:DN3"/>
+    <mergeCell ref="DO3:DP3"/>
+    <mergeCell ref="DR3:DT3"/>
+    <mergeCell ref="DU3:DV3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43597,30 +43729,30 @@
     </row>
     <row r="38" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="3:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="C39" s="141" t="s">
+      <c r="C39" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="142"/>
-      <c r="E39" s="142"/>
-      <c r="F39" s="142"/>
-      <c r="G39" s="142"/>
-      <c r="H39" s="142"/>
-      <c r="I39" s="143"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="149"/>
     </row>
     <row r="40" spans="3:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="C40" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="148"/>
-      <c r="E40" s="148"/>
-      <c r="F40" s="144" t="s">
+      <c r="C40" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="142"/>
+      <c r="E40" s="142"/>
+      <c r="F40" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="144"/>
-      <c r="H40" s="145" t="s">
+      <c r="G40" s="145"/>
+      <c r="H40" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="146"/>
+      <c r="I40" s="144"/>
     </row>
     <row r="41" spans="3:9" ht="19" x14ac:dyDescent="0.25">
       <c r="C41" s="14" t="s">
@@ -44367,14 +44499,14 @@
       </c>
       <c r="D3" s="8">
         <f>G42</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="8">
         <f t="shared" ref="G3:G24" si="0">H42</f>
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>10</v>
@@ -44462,7 +44594,7 @@
       </c>
       <c r="G5" s="8">
         <f t="shared" si="0"/>
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>12</v>
@@ -44543,14 +44675,14 @@
       </c>
       <c r="D7" s="8">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
-        <v>326</v>
+        <v>398</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>14</v>
@@ -44587,14 +44719,14 @@
       </c>
       <c r="D8" s="8">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>709</v>
+        <v>799</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>15</v>
@@ -44638,14 +44770,14 @@
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>655</v>
+        <v>700</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>16</v>
@@ -44675,21 +44807,21 @@
       </c>
       <c r="D10" s="8">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>17</v>
@@ -44719,14 +44851,14 @@
       </c>
       <c r="D11" s="8">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>514</v>
+        <v>604</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>18</v>
@@ -44851,14 +44983,14 @@
       </c>
       <c r="D14" s="8">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="0"/>
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>21</v>
@@ -44895,14 +45027,14 @@
       </c>
       <c r="D15" s="8">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>605</v>
+        <v>677</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>22</v>
@@ -44983,14 +45115,14 @@
       </c>
       <c r="D17" s="8">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="0"/>
-        <v>673</v>
+        <v>763</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>24</v>
@@ -45034,7 +45166,7 @@
       </c>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>25</v>
@@ -45071,21 +45203,21 @@
       </c>
       <c r="D19" s="8">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>553</v>
+        <v>643</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J19" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>26</v>
@@ -45115,14 +45247,14 @@
       </c>
       <c r="D20" s="8">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>544</v>
+        <v>634</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>27</v>
@@ -45203,14 +45335,14 @@
       </c>
       <c r="D22" s="8">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>486</v>
+        <v>576</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>29</v>
@@ -45254,7 +45386,7 @@
       </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>50</v>
@@ -45342,19 +45474,19 @@
       <c r="L39" s="152"/>
     </row>
     <row r="40" spans="6:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="F40" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="148"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="144" t="s">
+      <c r="F40" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="142"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="144"/>
-      <c r="K40" s="145" t="s">
+      <c r="J40" s="145"/>
+      <c r="K40" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="146"/>
+      <c r="L40" s="144"/>
     </row>
     <row r="41" spans="6:12" ht="19" x14ac:dyDescent="0.25">
       <c r="F41" s="14" t="s">
@@ -45385,11 +45517,11 @@
       </c>
       <c r="G42" s="7">
         <f>'Estadisticas 1º Vuelta'!F40+'Estadisticas 2º Vuelta'!D42</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H42" s="7">
         <f>'Estadisticas 1º Vuelta'!G40+'Estadisticas 2º Vuelta'!E42</f>
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="I42" s="7">
         <f>'Estadisticas 1º Vuelta'!H40+'Estadisticas 2º Vuelta'!F42</f>
@@ -45447,7 +45579,7 @@
       </c>
       <c r="H44" s="7">
         <f>'Estadisticas 1º Vuelta'!G42+'Estadisticas 2º Vuelta'!E44</f>
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="I44" s="7">
         <f>'Estadisticas 1º Vuelta'!H42+'Estadisticas 2º Vuelta'!F44</f>
@@ -45501,11 +45633,11 @@
       </c>
       <c r="G46" s="7">
         <f>'Estadisticas 1º Vuelta'!F44+'Estadisticas 2º Vuelta'!D46</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H46" s="7">
         <f>'Estadisticas 1º Vuelta'!G44+'Estadisticas 2º Vuelta'!E46</f>
-        <v>326</v>
+        <v>398</v>
       </c>
       <c r="I46" s="7">
         <f>'Estadisticas 1º Vuelta'!H44+'Estadisticas 2º Vuelta'!F46</f>
@@ -45530,11 +45662,11 @@
       </c>
       <c r="G47" s="7">
         <f>'Estadisticas 1º Vuelta'!F45+'Estadisticas 2º Vuelta'!D47</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H47" s="7">
         <f>'Estadisticas 1º Vuelta'!G45+'Estadisticas 2º Vuelta'!E47</f>
-        <v>709</v>
+        <v>799</v>
       </c>
       <c r="I47" s="7">
         <f>'Estadisticas 1º Vuelta'!H45+'Estadisticas 2º Vuelta'!F47</f>
@@ -45563,11 +45695,11 @@
       </c>
       <c r="H48" s="7">
         <f>'Estadisticas 1º Vuelta'!G46+'Estadisticas 2º Vuelta'!E48</f>
-        <v>655</v>
+        <v>700</v>
       </c>
       <c r="I48" s="7">
         <f>'Estadisticas 1º Vuelta'!H46+'Estadisticas 2º Vuelta'!F48</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" s="7">
         <f>'Estadisticas 1º Vuelta'!I46+'Estadisticas 2º Vuelta'!G48</f>
@@ -45588,15 +45720,15 @@
       </c>
       <c r="G49" s="7">
         <f>'Estadisticas 1º Vuelta'!F47+'Estadisticas 2º Vuelta'!D49</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H49" s="7">
         <f>'Estadisticas 1º Vuelta'!G47+'Estadisticas 2º Vuelta'!E49</f>
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="I49" s="7">
         <f>'Estadisticas 1º Vuelta'!H47+'Estadisticas 2º Vuelta'!F49</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="7">
         <f>'Estadisticas 1º Vuelta'!I47+'Estadisticas 2º Vuelta'!G49</f>
@@ -45617,11 +45749,11 @@
       </c>
       <c r="G50" s="7">
         <f>'Estadisticas 1º Vuelta'!F48+'Estadisticas 2º Vuelta'!D50</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H50" s="7">
         <f>'Estadisticas 1º Vuelta'!G48+'Estadisticas 2º Vuelta'!E50</f>
-        <v>514</v>
+        <v>604</v>
       </c>
       <c r="I50" s="7">
         <f>'Estadisticas 1º Vuelta'!H48+'Estadisticas 2º Vuelta'!F50</f>
@@ -45704,11 +45836,11 @@
       </c>
       <c r="G53" s="7">
         <f>'Estadisticas 1º Vuelta'!F50+'Estadisticas 2º Vuelta'!D53</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H53" s="7">
         <f>'Estadisticas 1º Vuelta'!G50+'Estadisticas 2º Vuelta'!E53</f>
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="I53" s="7">
         <f>'Estadisticas 1º Vuelta'!H50+'Estadisticas 2º Vuelta'!F53</f>
@@ -45733,11 +45865,11 @@
       </c>
       <c r="G54" s="7">
         <f>'Estadisticas 1º Vuelta'!F51+'Estadisticas 2º Vuelta'!D54</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H54" s="7">
         <f>'Estadisticas 1º Vuelta'!G51+'Estadisticas 2º Vuelta'!E54</f>
-        <v>605</v>
+        <v>677</v>
       </c>
       <c r="I54" s="7">
         <f>'Estadisticas 1º Vuelta'!H51+'Estadisticas 2º Vuelta'!F54</f>
@@ -45791,11 +45923,11 @@
       </c>
       <c r="G56" s="7">
         <f>'Estadisticas 1º Vuelta'!F53+'Estadisticas 2º Vuelta'!D56</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H56" s="7">
         <f>'Estadisticas 1º Vuelta'!G53+'Estadisticas 2º Vuelta'!E56</f>
-        <v>673</v>
+        <v>763</v>
       </c>
       <c r="I56" s="7">
         <f>'Estadisticas 1º Vuelta'!H53+'Estadisticas 2º Vuelta'!F56</f>
@@ -45824,7 +45956,7 @@
       </c>
       <c r="H57" s="7">
         <f>'Estadisticas 1º Vuelta'!G54+'Estadisticas 2º Vuelta'!E57</f>
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="I57" s="7">
         <f>'Estadisticas 1º Vuelta'!H54+'Estadisticas 2º Vuelta'!F57</f>
@@ -45849,15 +45981,15 @@
       </c>
       <c r="G58" s="7">
         <f>'Estadisticas 1º Vuelta'!F55+'Estadisticas 2º Vuelta'!D58</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H58" s="7">
         <f>'Estadisticas 1º Vuelta'!G55+'Estadisticas 2º Vuelta'!E58</f>
-        <v>553</v>
+        <v>643</v>
       </c>
       <c r="I58" s="7">
         <f>'Estadisticas 1º Vuelta'!H55+'Estadisticas 2º Vuelta'!F58</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" s="7">
         <f>'Estadisticas 1º Vuelta'!I55+'Estadisticas 2º Vuelta'!G58</f>
@@ -45878,11 +46010,11 @@
       </c>
       <c r="G59" s="7">
         <f>'Estadisticas 1º Vuelta'!F56+'Estadisticas 2º Vuelta'!D59</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H59" s="7">
         <f>'Estadisticas 1º Vuelta'!G56+'Estadisticas 2º Vuelta'!E59</f>
-        <v>544</v>
+        <v>634</v>
       </c>
       <c r="I59" s="7">
         <f>'Estadisticas 1º Vuelta'!H56+'Estadisticas 2º Vuelta'!F59</f>
@@ -45936,11 +46068,11 @@
       </c>
       <c r="G61" s="7">
         <f>'Estadisticas 1º Vuelta'!F58+'Estadisticas 2º Vuelta'!D61</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H61" s="7">
         <f>'Estadisticas 1º Vuelta'!G58+'Estadisticas 2º Vuelta'!E61</f>
-        <v>486</v>
+        <v>576</v>
       </c>
       <c r="I61" s="7">
         <f>'Estadisticas 1º Vuelta'!H58+'Estadisticas 2º Vuelta'!F61</f>
@@ -45969,7 +46101,7 @@
       </c>
       <c r="H62" s="7">
         <f>'Estadisticas 1º Vuelta'!G59+'Estadisticas 2º Vuelta'!E62</f>
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="I62" s="7">
         <f>'Estadisticas 1º Vuelta'!H59+'Estadisticas 2º Vuelta'!F62</f>

--- a/SALAMANCA UDS 2324.xlsx
+++ b/SALAMANCA UDS 2324.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="PRETEMPORADA" sheetId="10" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3349" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3351" uniqueCount="204">
   <si>
     <t>Jugadores</t>
   </si>
@@ -1031,6 +1031,32 @@
       <t xml:space="preserve"> 5/11/2023</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fecha:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 11/11/2023</t>
+    </r>
+  </si>
+  <si>
+    <t>JÚPITER LEONÉS</t>
+  </si>
 </sst>
 </file>
 
@@ -1969,6 +1995,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1981,16 +2019,22 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1999,25 +2043,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2626,42 +2652,42 @@
       </c>
     </row>
     <row r="3" spans="2:24" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135" t="s">
+      <c r="B3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="136"/>
-      <c r="H3" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="135" t="s">
+      <c r="F3" s="140"/>
+      <c r="H3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="136"/>
-      <c r="N3" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="135" t="s">
+      <c r="L3" s="140"/>
+      <c r="N3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="136"/>
-      <c r="T3" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="138"/>
-      <c r="V3" s="138"/>
-      <c r="W3" s="139" t="s">
+      <c r="R3" s="140"/>
+      <c r="T3" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="140"/>
+      <c r="X3" s="136"/>
     </row>
     <row r="4" spans="2:24" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -3997,18 +4023,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4020,7 +4046,7 @@
   <dimension ref="A1:N2752"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4138,7 +4164,7 @@
       </c>
       <c r="J3" s="53" t="str">
         <f>IF(H3="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B3,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.13(2)</v>
+        <v>-</v>
       </c>
       <c r="K3" s="53" t="str">
         <f>IF(H3="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F3,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4182,7 +4208,7 @@
       </c>
       <c r="K4" s="53" t="str">
         <f>IF(H4="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F4,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="M4" t="str">
         <f>IF(H4="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B4,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4190,7 +4216,7 @@
       </c>
       <c r="N4" t="str">
         <f>IF(H4="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F4,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -4222,7 +4248,7 @@
       </c>
       <c r="K5" s="53" t="str">
         <f>IF(H5="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F5,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="M5" t="str">
         <f>IF(H5="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B5,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4230,7 +4256,7 @@
       </c>
       <c r="N5" t="str">
         <f>IF(H5="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F5,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -4258,11 +4284,11 @@
       </c>
       <c r="J6" s="53" t="str">
         <f>IF(H6="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B6,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.13(2)</v>
+        <v>-</v>
       </c>
       <c r="K6" s="53" t="str">
         <f>IF(H6="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F6,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="M6" t="str">
         <f>IF(H6="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B6,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4270,7 +4296,7 @@
       </c>
       <c r="N6" t="str">
         <f>IF(H6="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F6,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -4302,7 +4328,7 @@
       </c>
       <c r="K7" s="53" t="str">
         <f>IF(H7="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F7,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="M7" t="str">
         <f>IF(H7="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B7,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4310,7 +4336,7 @@
       </c>
       <c r="N7" t="str">
         <f>IF(H7="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F7,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -4338,7 +4364,7 @@
       </c>
       <c r="J8" s="53" t="str">
         <f>IF(H8="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B8,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="K8" s="53" t="str">
         <f>IF(H8="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F8,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4346,7 +4372,7 @@
       </c>
       <c r="M8" t="str">
         <f>IF(H8="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B8,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="N8" t="str">
         <f>IF(H8="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F8,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4382,7 +4408,7 @@
       </c>
       <c r="K9" s="53" t="str">
         <f>IF(H9="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F9,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="M9" t="str">
         <f>IF(H9="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B9,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4390,7 +4416,7 @@
       </c>
       <c r="N9" t="str">
         <f>IF(H9="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F9,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4422,7 +4448,7 @@
       </c>
       <c r="K10" s="53" t="str">
         <f>IF(H10="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F10,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="M10" t="str">
         <f>IF(H10="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B10,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4430,7 +4456,7 @@
       </c>
       <c r="N10" t="str">
         <f>IF(H10="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F10,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -4458,7 +4484,7 @@
       </c>
       <c r="J11" s="53" t="str">
         <f>IF(H11="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B11,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="K11" s="53" t="str">
         <f>IF(H11="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F11,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4466,7 +4492,7 @@
       </c>
       <c r="M11" t="str">
         <f>IF(H11="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B11,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="N11" t="str">
         <f>IF(H11="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F11,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4538,7 +4564,7 @@
       </c>
       <c r="J13" s="53" t="str">
         <f>IF(H13="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B13,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="K13" s="53" t="str">
         <f>IF(H13="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F13,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4546,7 +4572,7 @@
       </c>
       <c r="M13" t="str">
         <f>IF(H13="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B13,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="N13" t="str">
         <f>IF(H13="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F13,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4582,7 +4608,7 @@
       </c>
       <c r="K14" s="53" t="str">
         <f>IF(H14="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F14,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="M14" t="str">
         <f>IF(H14="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B14,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4590,7 +4616,7 @@
       </c>
       <c r="N14" t="str">
         <f>IF(H14="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F14,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -4618,7 +4644,7 @@
       </c>
       <c r="J15" s="53" t="str">
         <f>IF(H15="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B15,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="K15" s="53" t="str">
         <f>IF(H15="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F15,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4626,7 +4652,7 @@
       </c>
       <c r="M15" t="str">
         <f>IF(H15="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B15,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="N15" t="str">
         <f>IF(H15="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F15,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4658,7 +4684,7 @@
       </c>
       <c r="J16" s="53" t="str">
         <f>IF(H16="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B16,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="K16" s="53" t="str">
         <f>IF(H16="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F16,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4666,7 +4692,7 @@
       </c>
       <c r="M16" t="str">
         <f>IF(H16="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B16,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="N16" t="str">
         <f>IF(H16="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F16,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4698,15 +4724,15 @@
       </c>
       <c r="J17" s="53" t="str">
         <f>IF(H17="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B17,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="K17" s="53" t="str">
         <f>IF(H17="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F17,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.13(2)</v>
+        <v>-</v>
       </c>
       <c r="M17" t="str">
         <f>IF(H17="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B17,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="N17" t="str">
         <f>IF(H17="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F17,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4742,7 +4768,7 @@
       </c>
       <c r="K18" s="53" t="str">
         <f>IF(H18="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F18,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.13(2)</v>
+        <v>-</v>
       </c>
       <c r="M18" t="str">
         <f>IF(H18="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B18,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4778,7 +4804,7 @@
       </c>
       <c r="J19" s="53" t="str">
         <f>IF(H19="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B19,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="K19" s="53" t="str">
         <f>IF(H19="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F19,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4786,7 +4812,7 @@
       </c>
       <c r="M19" t="str">
         <f>IF(H19="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B19,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="N19" t="str">
         <f>IF(H19="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F19,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4862,7 +4888,7 @@
       </c>
       <c r="K21" s="53" t="str">
         <f>IF(H21="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F21,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="M21" t="str">
         <f>IF(H21="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B21,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4870,7 +4896,7 @@
       </c>
       <c r="N21" t="str">
         <f>IF(H21="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F21,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -4898,11 +4924,11 @@
       </c>
       <c r="J22" s="53" t="str">
         <f>IF(H22="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B22,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.13(2)</v>
+        <v>-</v>
       </c>
       <c r="K22" s="53" t="str">
         <f>IF(H22="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F22,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="M22" t="str">
         <f>IF(H22="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B22,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4910,7 +4936,7 @@
       </c>
       <c r="N22" t="str">
         <f>IF(H22="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F22,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -4942,7 +4968,7 @@
       </c>
       <c r="K23" s="53" t="str">
         <f>IF(H23="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F23,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="M23" t="str">
         <f>IF(H23="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B23,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4950,7 +4976,7 @@
       </c>
       <c r="N23" t="str">
         <f>IF(H23="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F23,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -4982,7 +5008,7 @@
       </c>
       <c r="K24" s="53" t="str">
         <f>IF(H24="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F24,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="M24" t="str">
         <f>IF(H24="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B24,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -4990,7 +5016,7 @@
       </c>
       <c r="N24" t="str">
         <f>IF(H24="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F24,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -5022,7 +5048,7 @@
       </c>
       <c r="K25" s="53" t="str">
         <f>IF(H25="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F25,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="M25" t="str">
         <f>IF(H25="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B25,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5030,7 +5056,7 @@
       </c>
       <c r="N25" t="str">
         <f>IF(H25="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F25,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -5098,15 +5124,15 @@
       </c>
       <c r="J27" s="53" t="str">
         <f>IF(H27="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B27,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="K27" s="53" t="str">
         <f>IF(H27="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F27,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.13(2)</v>
+        <v>-</v>
       </c>
       <c r="M27" t="str">
         <f>IF(H27="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B27,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="N27" t="str">
         <f>IF(H27="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F27,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5142,7 +5168,7 @@
       </c>
       <c r="K28" s="53" t="str">
         <f>IF(H28="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F28,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="M28" t="str">
         <f>IF(H28="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B28,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5150,7 +5176,7 @@
       </c>
       <c r="N28" t="str">
         <f>IF(H28="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F28,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -5178,19 +5204,19 @@
       </c>
       <c r="J29" s="53" t="str">
         <f>IF(H29="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B29,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="K29" s="53" t="str">
         <f>IF(H29="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F29,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="M29" t="str">
         <f>IF(H29="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B29,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="N29" t="str">
         <f>IF(H29="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F29,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -5254,7 +5280,7 @@
       </c>
       <c r="J31" s="53" t="str">
         <f>IF(H31="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B31,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="K31" s="53" t="str">
         <f>IF(H31="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F31,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5262,7 +5288,7 @@
       </c>
       <c r="M31" t="str">
         <f>IF(H31="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B31,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="N31" t="str">
         <f>IF(H31="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F31,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5294,7 +5320,7 @@
       </c>
       <c r="J32" s="53" t="str">
         <f>IF(H32="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B32,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="K32" s="53" t="str">
         <f>IF(H32="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F32,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5302,7 +5328,7 @@
       </c>
       <c r="M32" t="str">
         <f>IF(H32="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B32,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="N32" t="str">
         <f>IF(H32="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F32,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5334,15 +5360,15 @@
       </c>
       <c r="J33" s="53" t="str">
         <f>IF(H33="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B33,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="K33" s="53" t="str">
         <f>IF(H33="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F33,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.13(2)</v>
+        <v>-</v>
       </c>
       <c r="M33" t="str">
         <f>IF(H33="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B33,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="N33" t="str">
         <f>IF(H33="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F33,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5374,7 +5400,7 @@
       </c>
       <c r="J34" s="53" t="str">
         <f>IF(H34="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B34,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="K34" s="53" t="str">
         <f>IF(H34="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F34,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5382,7 +5408,7 @@
       </c>
       <c r="M34" t="str">
         <f>IF(H34="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B34,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="N34" t="str">
         <f>IF(H34="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F34,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5414,7 +5440,7 @@
       </c>
       <c r="J35" s="53" t="str">
         <f>IF(H35="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B35,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="K35" s="53" t="str">
         <f>IF(H35="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F35,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5422,7 +5448,7 @@
       </c>
       <c r="M35" t="str">
         <f>IF(H35="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B35,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="N35" t="str">
         <f>IF(H35="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F35,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5494,7 +5520,7 @@
       </c>
       <c r="J37" s="53" t="str">
         <f>IF(H37="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B37,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.13(2)</v>
+        <v>-</v>
       </c>
       <c r="K37" s="53" t="str">
         <f>IF(H37="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F37,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5534,7 +5560,7 @@
       </c>
       <c r="J38" s="53" t="str">
         <f>IF(H38="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B38,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="K38" s="53" t="str">
         <f>IF(H38="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F38,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5542,7 +5568,7 @@
       </c>
       <c r="M38" t="str">
         <f>IF(H38="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B38,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="N38" t="str">
         <f>IF(H38="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F38,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5578,7 +5604,7 @@
       </c>
       <c r="K39" s="53" t="str">
         <f>IF(H39="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F39,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="M39" t="str">
         <f>IF(H39="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B39,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5586,7 +5612,7 @@
       </c>
       <c r="N39" t="str">
         <f>IF(H39="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F39,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -5618,7 +5644,7 @@
       </c>
       <c r="K40" s="53" t="str">
         <f>IF(H40="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F40,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="M40" t="str">
         <f>IF(H40="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B40,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5626,7 +5652,7 @@
       </c>
       <c r="N40" t="str">
         <f>IF(H40="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F40,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -5658,7 +5684,7 @@
       </c>
       <c r="K41" s="53" t="str">
         <f>IF(H41="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F41,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="M41" t="str">
         <f>IF(H41="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B41,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5666,7 +5692,7 @@
       </c>
       <c r="N41" t="str">
         <f>IF(H41="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F41,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -5694,11 +5720,11 @@
       </c>
       <c r="J42" s="53" t="str">
         <f>IF(H42="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B42,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.13(2)</v>
+        <v>-</v>
       </c>
       <c r="K42" s="53" t="str">
         <f>IF(H42="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F42,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="M42" t="str">
         <f>IF(H42="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B42,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5706,7 +5732,7 @@
       </c>
       <c r="N42" t="str">
         <f>IF(H42="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F42,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -5738,7 +5764,7 @@
       </c>
       <c r="K43" s="53" t="str">
         <f>IF(H43="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F43,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="M43" t="str">
         <f>IF(H43="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B43,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5746,7 +5772,7 @@
       </c>
       <c r="N43" t="str">
         <f>IF(H43="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F43,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -5818,7 +5844,7 @@
       </c>
       <c r="K45" s="53" t="str">
         <f>IF(H45="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F45,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.13(2)</v>
+        <v>-</v>
       </c>
       <c r="M45" t="str">
         <f>IF(H45="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B45,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5854,7 +5880,7 @@
       </c>
       <c r="J46" s="53" t="str">
         <f>IF(H46="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B46,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="K46" s="53" t="str">
         <f>IF(H46="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F46,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5862,7 +5888,7 @@
       </c>
       <c r="M46" t="str">
         <f>IF(H46="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B46,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="N46" t="str">
         <f>IF(H46="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F46,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5898,7 +5924,7 @@
       </c>
       <c r="K47" s="53" t="str">
         <f>IF(H47="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F47,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="M47" t="str">
         <f>IF(H47="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B47,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5906,7 +5932,7 @@
       </c>
       <c r="N47" t="str">
         <f>IF(H47="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F47,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -5934,19 +5960,19 @@
       </c>
       <c r="J48" s="53" t="str">
         <f>IF(H48="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B48,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="K48" s="53" t="str">
         <f>IF(H48="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F48,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="M48" t="str">
         <f>IF(H48="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B48,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="N48" t="str">
         <f>IF(H48="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F48,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -5974,7 +6000,7 @@
       </c>
       <c r="J49" s="53" t="str">
         <f>IF(H49="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B49,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="K49" s="53" t="str">
         <f>IF(H49="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F49,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -5982,7 +6008,7 @@
       </c>
       <c r="M49" t="str">
         <f>IF(H49="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B49,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="N49" t="str">
         <f>IF(H49="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F49,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6014,7 +6040,7 @@
       </c>
       <c r="J50" s="53" t="str">
         <f>IF(H50="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B50,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="K50" s="53" t="str">
         <f>IF(H50="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F50,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6022,7 +6048,7 @@
       </c>
       <c r="M50" t="str">
         <f>IF(H50="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B50,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="N50" t="str">
         <f>IF(H50="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F50,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6054,7 +6080,7 @@
       </c>
       <c r="J51" s="53" t="str">
         <f>IF(H51="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B51,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="K51" s="53" t="str">
         <f>IF(H51="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F51,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6062,7 +6088,7 @@
       </c>
       <c r="M51" t="str">
         <f>IF(H51="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B51,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="N51" t="str">
         <f>IF(H51="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F51,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6094,15 +6120,15 @@
       </c>
       <c r="J52" s="53" t="str">
         <f>IF(H52="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B52,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="K52" s="53" t="str">
         <f>IF(H52="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F52,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.13(2)</v>
+        <v>-</v>
       </c>
       <c r="M52" t="str">
         <f>IF(H52="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B52,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="N52" t="str">
         <f>IF(H52="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F52,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6174,7 +6200,7 @@
       </c>
       <c r="J54" s="53" t="str">
         <f>IF(H54="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B54,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.13(2)</v>
+        <v>-</v>
       </c>
       <c r="K54" s="53" t="str">
         <f>IF(H54="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F54,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6258,7 +6284,7 @@
       </c>
       <c r="K56" s="53" t="str">
         <f>IF(H56="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F56,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="M56" t="str">
         <f>IF(H56="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B56,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6266,7 +6292,7 @@
       </c>
       <c r="N56" t="str">
         <f>IF(H56="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F56,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -6294,19 +6320,19 @@
       </c>
       <c r="J57" s="53" t="str">
         <f>IF(H57="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B57,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="K57" s="53" t="str">
         <f>IF(H57="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F57,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="M57" t="str">
         <f>IF(H57="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B57,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="N57" t="str">
         <f>IF(H57="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F57,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -6338,7 +6364,7 @@
       </c>
       <c r="K58" s="53" t="str">
         <f>IF(H58="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F58,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="M58" t="str">
         <f>IF(H58="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B58,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6346,7 +6372,7 @@
       </c>
       <c r="N58" t="str">
         <f>IF(H58="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F58,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -6378,7 +6404,7 @@
       </c>
       <c r="K59" s="53" t="str">
         <f>IF(H59="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F59,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="M59" t="str">
         <f>IF(H59="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B59,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6386,7 +6412,7 @@
       </c>
       <c r="N59" t="str">
         <f>IF(H59="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F59,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -6418,7 +6444,7 @@
       </c>
       <c r="K60" s="53" t="str">
         <f>IF(H60="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F60,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="M60" t="str">
         <f>IF(H60="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B60,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6426,7 +6452,7 @@
       </c>
       <c r="N60" t="str">
         <f>IF(H60="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F60,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -6454,7 +6480,7 @@
       </c>
       <c r="J61" s="53" t="str">
         <f>IF(H61="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B61,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.13(2)</v>
+        <v>-</v>
       </c>
       <c r="K61" s="53" t="str">
         <f>IF(H61="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F61,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6498,7 +6524,7 @@
       </c>
       <c r="K62" s="53" t="str">
         <f>IF(H62="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F62,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.13(2)</v>
+        <v>-</v>
       </c>
       <c r="M62" t="str">
         <f>IF(H62="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B62,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6574,7 +6600,7 @@
       </c>
       <c r="J64" s="53" t="str">
         <f>IF(H64="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B64,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="K64" s="53" t="str">
         <f>IF(H64="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F64,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6582,7 +6608,7 @@
       </c>
       <c r="M64" t="str">
         <f>IF(H64="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B64,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="N64" t="str">
         <f>IF(H64="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F64,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6614,19 +6640,19 @@
       </c>
       <c r="J65" s="53" t="str">
         <f>IF(H65="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B65,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="K65" s="53" t="str">
         <f>IF(H65="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F65,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="M65" t="str">
         <f>IF(H65="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B65,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="N65" t="str">
         <f>IF(H65="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F65,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
@@ -6654,7 +6680,7 @@
       </c>
       <c r="J66" s="53" t="str">
         <f>IF(H66="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B66,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="K66" s="53" t="str">
         <f>IF(H66="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F66,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6662,7 +6688,7 @@
       </c>
       <c r="M66" t="str">
         <f>IF(H66="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B66,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="N66" t="str">
         <f>IF(H66="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F66,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6694,19 +6720,19 @@
       </c>
       <c r="J67" s="53" t="str">
         <f>IF(H67="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B67,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="K67" s="53" t="str">
         <f>IF(H67="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F67,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="M67" t="str">
         <f>IF(H67="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B67,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="N67" t="str">
         <f>IF(H67="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F67,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -6734,7 +6760,7 @@
       </c>
       <c r="J68" s="53" t="str">
         <f>IF(H68="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B68,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="K68" s="53" t="str">
         <f>IF(H68="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F68,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6742,7 +6768,7 @@
       </c>
       <c r="M68" t="str">
         <f>IF(H68="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B68,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="N68" t="str">
         <f>IF(H68="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F68,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6774,7 +6800,7 @@
       </c>
       <c r="J69" s="53" t="str">
         <f>IF(H69="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B69,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="K69" s="53" t="str">
         <f>IF(H69="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F69,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6782,7 +6808,7 @@
       </c>
       <c r="M69" t="str">
         <f>IF(H69="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B69,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="N69" t="str">
         <f>IF(H69="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F69,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6854,11 +6880,11 @@
       </c>
       <c r="J71" s="53" t="str">
         <f>IF(H71="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B71,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.13(2)</v>
+        <v>-</v>
       </c>
       <c r="K71" s="53" t="str">
         <f>IF(H71="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F71,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.13(2)</v>
+        <v>-</v>
       </c>
       <c r="M71" t="str">
         <f>IF(H71="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B71,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -6974,19 +7000,19 @@
       </c>
       <c r="J74" s="53" t="str">
         <f>IF(H74="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B74,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="K74" s="53" t="str">
         <f>IF(H74="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F74,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="M74" t="str">
         <f>IF(H74="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B74,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="N74" t="str">
         <f>IF(H74="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F74,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -7018,7 +7044,7 @@
       </c>
       <c r="K75" s="53" t="str">
         <f>IF(H75="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F75,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="M75" t="str">
         <f>IF(H75="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B75,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -7026,7 +7052,7 @@
       </c>
       <c r="N75" t="str">
         <f>IF(H75="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F75,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
@@ -7054,19 +7080,19 @@
       </c>
       <c r="J76" s="53" t="str">
         <f>IF(H76="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B76,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="K76" s="53" t="str">
         <f>IF(H76="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F76,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="M76" t="str">
         <f>IF(H76="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B76,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="N76" t="str">
         <f>IF(H76="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F76,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -7098,7 +7124,7 @@
       </c>
       <c r="K77" s="53" t="str">
         <f>IF(H77="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F77,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="M77" t="str">
         <f>IF(H77="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B77,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -7106,7 +7132,7 @@
       </c>
       <c r="N77" t="str">
         <f>IF(H77="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F77,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -7178,7 +7204,7 @@
       </c>
       <c r="K79" s="53" t="str">
         <f>IF(H79="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F79,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.13(2)</v>
+        <v>-</v>
       </c>
       <c r="M79" t="str">
         <f>IF(H79="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B79,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -7214,7 +7240,7 @@
       </c>
       <c r="J80" s="53" t="str">
         <f>IF(H80="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B80,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.13(2)</v>
+        <v>-</v>
       </c>
       <c r="K80" s="53" t="str">
         <f>IF(H80="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F80,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -7294,7 +7320,7 @@
       </c>
       <c r="J82" s="53" t="str">
         <f>IF(H82="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B82,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="K82" s="53" t="str">
         <f>IF(H82="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F82,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -7302,7 +7328,7 @@
       </c>
       <c r="M82" t="str">
         <f>IF(H82="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B82,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="N82" t="str">
         <f>IF(H82="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F82,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -7316,17 +7342,21 @@
       <c r="B83" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="78"/>
+      <c r="C83" s="78">
+        <v>0</v>
+      </c>
       <c r="D83" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="E83" s="78"/>
+      <c r="E83" s="78">
+        <v>2</v>
+      </c>
       <c r="F83" s="79" t="s">
         <v>129</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Visitante</v>
       </c>
       <c r="J83" s="53" t="str">
         <f>IF(H83="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B83,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -7352,33 +7382,37 @@
       <c r="B84" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="C84" s="80"/>
+      <c r="C84" s="80">
+        <v>0</v>
+      </c>
       <c r="D84" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E84" s="80"/>
+      <c r="E84" s="80">
+        <v>0</v>
+      </c>
       <c r="F84" s="81" t="s">
         <v>118</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Empate</v>
       </c>
       <c r="J84" s="53" t="str">
         <f>IF(H84="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B84,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="K84" s="53" t="str">
         <f>IF(H84="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F84,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="M84" t="str">
         <f>IF(H84="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B84,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="N84" t="str">
         <f>IF(H84="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F84,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
@@ -7388,21 +7422,25 @@
       <c r="B85" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="C85" s="80"/>
+      <c r="C85" s="80">
+        <v>0</v>
+      </c>
       <c r="D85" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E85" s="80"/>
+      <c r="E85" s="80">
+        <v>0</v>
+      </c>
       <c r="F85" s="81" t="s">
         <v>116</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Empate</v>
       </c>
       <c r="J85" s="53" t="str">
         <f>IF(H85="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B85,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="K85" s="53" t="str">
         <f>IF(H85="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F85,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -7410,7 +7448,7 @@
       </c>
       <c r="M85" t="str">
         <f>IF(H85="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B85,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="N85" t="str">
         <f>IF(H85="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F85,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -7424,33 +7462,37 @@
       <c r="B86" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="C86" s="80"/>
+      <c r="C86" s="80">
+        <v>0</v>
+      </c>
       <c r="D86" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E86" s="80"/>
+      <c r="E86" s="80">
+        <v>1</v>
+      </c>
       <c r="F86" s="81" t="s">
         <v>123</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Visitante</v>
       </c>
       <c r="J86" s="53" t="str">
         <f>IF(H86="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B86,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="K86" s="53" t="str">
         <f>IF(H86="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F86,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="M86" t="str">
         <f>IF(H86="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B86,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="N86" t="str">
         <f>IF(H86="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F86,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -7460,17 +7502,21 @@
       <c r="B87" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="C87" s="80"/>
+      <c r="C87" s="80">
+        <v>3</v>
+      </c>
       <c r="D87" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E87" s="80"/>
+      <c r="E87" s="80">
+        <v>3</v>
+      </c>
       <c r="F87" s="81" t="s">
         <v>115</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Empate</v>
       </c>
       <c r="J87" s="53" t="str">
         <f>IF(H87="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B87,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -7478,7 +7524,7 @@
       </c>
       <c r="K87" s="53" t="str">
         <f>IF(H87="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F87,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="M87" t="str">
         <f>IF(H87="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B87,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -7486,7 +7532,7 @@
       </c>
       <c r="N87" t="str">
         <f>IF(H87="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F87,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
@@ -7496,17 +7542,21 @@
       <c r="B88" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="C88" s="80"/>
+      <c r="C88" s="80">
+        <v>1</v>
+      </c>
       <c r="D88" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E88" s="80"/>
+      <c r="E88" s="80">
+        <v>1</v>
+      </c>
       <c r="F88" s="81" t="s">
         <v>114</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Empate</v>
       </c>
       <c r="J88" s="53" t="str">
         <f>IF(H88="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B88,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -7532,17 +7582,21 @@
       <c r="B89" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="C89" s="80"/>
+      <c r="C89" s="80">
+        <v>0</v>
+      </c>
       <c r="D89" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E89" s="80"/>
+      <c r="E89" s="80">
+        <v>1</v>
+      </c>
       <c r="F89" s="81" t="s">
         <v>131</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Visitante</v>
       </c>
       <c r="J89" s="53" t="str">
         <f>IF(H89="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B89,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -7568,17 +7622,21 @@
       <c r="B90" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="C90" s="80"/>
+      <c r="C90" s="80">
+        <v>0</v>
+      </c>
       <c r="D90" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="E90" s="80"/>
+      <c r="E90" s="80">
+        <v>3</v>
+      </c>
       <c r="F90" s="81" t="s">
         <v>124</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Visitante</v>
       </c>
       <c r="J90" s="53" t="str">
         <f>IF(H90="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B90,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -7604,17 +7662,21 @@
       <c r="B91" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="C91" s="82"/>
+      <c r="C91" s="82">
+        <v>4</v>
+      </c>
       <c r="D91" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="E91" s="82"/>
+      <c r="E91" s="82">
+        <v>4</v>
+      </c>
       <c r="F91" s="83" t="s">
         <v>126</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="2"/>
-        <v>Pendiente</v>
+        <v>Empate</v>
       </c>
       <c r="J91" s="53" t="str">
         <f>IF(H91="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($B91,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -7622,7 +7684,7 @@
       </c>
       <c r="K91" s="53" t="str">
         <f>IF(H91="Pendiente","-",INDEX('Equipos (cálculos)'!K$2:K$19,MATCH($F91,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
       <c r="M91" t="str">
         <f>IF(H91="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($B91,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
@@ -7630,7 +7692,7 @@
       </c>
       <c r="N91" t="str">
         <f>IF(H91="Pendiente","-",INDEX('Equipos (cálculos)'!R$2:R$19,MATCH($F91,'Equipos (cálculos)'!$A$2:$A$19,0)))</f>
-        <v>-</v>
+        <v>Pos.8(2)</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
@@ -22890,7 +22952,7 @@
       </c>
       <c r="B2" s="53">
         <f>C2+D2+E2</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="53">
         <f t="shared" ref="C2:C19" si="0">COUNTIFS(EQUIPO_LOCAL,$A2, GANADOR,"Local")+COUNTIFS(EQUIPO_VISITANTE,$A2,GANADOR,"Visitante")</f>
@@ -22898,7 +22960,7 @@
       </c>
       <c r="D2" s="53">
         <f t="shared" ref="D2:D19" si="1">COUNTIFS(EQUIPO_LOCAL,$A2, GANADOR,"Empate")+COUNTIFS(EQUIPO_VISITANTE,$A2,GANADOR,"Empate")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="53">
         <f t="shared" ref="E2:E19" si="2">COUNTIFS(EQUIPO_LOCAL,$A2, GANADOR,"Visitante")+COUNTIFS(EQUIPO_VISITANTE,$A2,GANADOR,"Local")</f>
@@ -22906,11 +22968,11 @@
       </c>
       <c r="F2" s="53">
         <f t="shared" ref="F2:F19" si="3">SUMIFS(GOLES_LOCAL,EQUIPO_LOCAL,$A2)+SUMIFS(GOLES_VISITANTE,EQUIPO_VISITANTE,$A2)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2" s="53">
         <f t="shared" ref="G2:G19" si="4">SUMIFS(GOLES_VISITANTE,EQUIPO_LOCAL,$A2)+SUMIFS(GOLES_LOCAL,EQUIPO_VISITANTE,$A2)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H2" s="53">
         <f>F2-G2</f>
@@ -22918,7 +22980,7 @@
       </c>
       <c r="I2" s="53">
         <f>3*C2+1*D2</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" s="53">
         <f>COUNTIF(I$2:I$19,"&gt;"&amp;I2)+1</f>
@@ -22990,24 +23052,24 @@
       <c r="AC2" s="65"/>
       <c r="AD2" s="53">
         <f>IF(AB2="-","-",F2)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE2" s="53">
         <f>AA2+COUNTIFS(AB$2:AB$19,AB2,AD$2:AD$19,"&gt;"&amp;AD2)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF2" s="53" t="str">
         <f>IF(COUNTIF(AE$2:AE$19,AE2)=1,"-","Pos."&amp;AE2&amp;"("&amp;COUNTIF(AE$2:AE$19,AE2)&amp;")")</f>
-        <v>Pos.8(2)</v>
+        <v>-</v>
       </c>
       <c r="AG2" s="65"/>
-      <c r="AH2" s="53">
+      <c r="AH2" s="53" t="str">
         <f>IF(AF2="-","-",COUNTIF(A$2:A$19,"&lt;"&amp;A2))</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="AI2" s="53">
         <f>AE2+COUNTIFS(AF$2:AF$19,AF2,AH$2:AH$19,"&lt;"&amp;AH2)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
@@ -23016,7 +23078,7 @@
       </c>
       <c r="B3" s="53">
         <f t="shared" ref="B3:B19" si="8">C3+D3+E3</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="53">
         <f t="shared" si="0"/>
@@ -23024,7 +23086,7 @@
       </c>
       <c r="D3" s="53">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="53">
         <f t="shared" si="2"/>
@@ -23032,11 +23094,11 @@
       </c>
       <c r="F3" s="53">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" s="53">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" s="53">
         <f t="shared" ref="H3:H19" si="9">F3-G3</f>
@@ -23044,32 +23106,32 @@
       </c>
       <c r="I3" s="53">
         <f t="shared" ref="I3:I19" si="10">3*C3+1*D3</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J3" s="53">
         <f t="shared" ref="J3:J19" si="11">COUNTIF(I$2:I$19,"&gt;"&amp;I3)+1</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3" s="53" t="str">
         <f t="shared" ref="K3:K19" si="12">IF(COUNTIF(J$2:J$19,J3)=1,"-","Pos."&amp;J3&amp;"("&amp;COUNTIF(J$2:J$19,J3)&amp;")")</f>
-        <v>Pos.13(2)</v>
+        <v>-</v>
       </c>
       <c r="L3" s="64"/>
-      <c r="M3" s="53">
+      <c r="M3" s="53" t="str">
         <f t="shared" ref="M3:M19" si="13">IF($K3="-","-",COUNTIFS(EQUIPO_LOCAL,$A3, GANADOR,"Local",Grupo_de_Empate__A_priori__Equipo_Visitante,$K3)+COUNTIFS(EQUIPO_VISITANTE,$A3,GANADOR,"Visitante",Grupo_de_Empate__A_priori__Equipo_Local,$K3))</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="53">
+        <v>-</v>
+      </c>
+      <c r="N3" s="53" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O3" s="53">
+        <v>-</v>
+      </c>
+      <c r="O3" s="53" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="P3" s="53">
+        <v>-</v>
+      </c>
+      <c r="P3" s="53" t="str">
         <f t="shared" ref="P3:P19" si="14">IF(K3="-","-",3*M3+1*N3)</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="Q3" s="53">
         <f t="shared" ref="Q3:Q19" si="15">$J3+COUNTIFS(K$2:K$19,K3,$P$2:$P$19,"&gt;"&amp;P3)</f>
@@ -23142,7 +23204,7 @@
       </c>
       <c r="B4" s="53">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="53">
         <f t="shared" si="0"/>
@@ -23150,7 +23212,7 @@
       </c>
       <c r="D4" s="53">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="53">
         <f t="shared" si="2"/>
@@ -23158,11 +23220,11 @@
       </c>
       <c r="F4" s="53">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G4" s="53">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H4" s="53">
         <f t="shared" si="9"/>
@@ -23170,7 +23232,7 @@
       </c>
       <c r="I4" s="53">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J4" s="53">
         <f t="shared" si="11"/>
@@ -23268,11 +23330,11 @@
       </c>
       <c r="B5" s="53">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="53">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="53">
         <f t="shared" si="1"/>
@@ -23284,7 +23346,7 @@
       </c>
       <c r="F5" s="53">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" s="53">
         <f t="shared" si="4"/>
@@ -23292,15 +23354,15 @@
       </c>
       <c r="H5" s="53">
         <f t="shared" si="9"/>
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="I5" s="53">
         <f t="shared" si="10"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J5" s="53">
         <f t="shared" si="11"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K5" s="53" t="str">
         <f t="shared" si="12"/>
@@ -23325,7 +23387,7 @@
       </c>
       <c r="Q5" s="53">
         <f t="shared" si="15"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R5" s="53" t="str">
         <f>IF(COUNTIF(Q$2:Q$19,Q5)=1,"-","Pos."&amp;Q5&amp;"("&amp;COUNTIF(Q$2:Q$19,Q5)&amp;")")</f>
@@ -23346,7 +23408,7 @@
       </c>
       <c r="W5" s="53">
         <f t="shared" si="19"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X5" s="53" t="str">
         <f t="shared" si="20"/>
@@ -23359,7 +23421,7 @@
       </c>
       <c r="AA5" s="53">
         <f t="shared" si="22"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB5" s="53" t="str">
         <f t="shared" si="23"/>
@@ -23372,7 +23434,7 @@
       </c>
       <c r="AE5" s="53">
         <f t="shared" si="25"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF5" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23385,7 +23447,7 @@
       </c>
       <c r="AI5" s="53">
         <f>AE5+COUNTIFS(AF$2:AF$19,AF5,AH$2:AH$19,"&lt;"&amp;AH5)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
@@ -23394,7 +23456,7 @@
       </c>
       <c r="B6" s="53">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="53">
         <f t="shared" si="0"/>
@@ -23402,7 +23464,7 @@
       </c>
       <c r="D6" s="53">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="53">
         <f t="shared" si="2"/>
@@ -23422,15 +23484,15 @@
       </c>
       <c r="I6" s="53">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6" s="53">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K6" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="L6" s="64"/>
       <c r="M6" s="53">
@@ -23451,11 +23513,11 @@
       </c>
       <c r="Q6" s="53">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R6" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="S6" s="65"/>
       <c r="T6" s="53">
@@ -23472,11 +23534,11 @@
       </c>
       <c r="W6" s="53">
         <f>Q6+COUNTIFS(R$2:R$19,R6,V$2:V$19,"&gt;"&amp;V6)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X6" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="Y6" s="63"/>
       <c r="Z6" s="53">
@@ -23485,7 +23547,7 @@
       </c>
       <c r="AA6" s="53">
         <f t="shared" si="22"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB6" s="53" t="str">
         <f t="shared" si="23"/>
@@ -23498,7 +23560,7 @@
       </c>
       <c r="AE6" s="53">
         <f t="shared" si="25"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF6" s="53" t="str">
         <f t="shared" si="26"/>
@@ -23511,7 +23573,7 @@
       </c>
       <c r="AI6" s="53">
         <f t="shared" si="28"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
@@ -23520,7 +23582,7 @@
       </c>
       <c r="B7" s="53">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="53">
         <f t="shared" si="0"/>
@@ -23528,7 +23590,7 @@
       </c>
       <c r="D7" s="53">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="53">
         <f t="shared" si="2"/>
@@ -23536,11 +23598,11 @@
       </c>
       <c r="F7" s="53">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" s="53">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" s="53">
         <f t="shared" si="9"/>
@@ -23548,7 +23610,7 @@
       </c>
       <c r="I7" s="53">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="53">
         <f t="shared" si="11"/>
@@ -23646,7 +23708,7 @@
       </c>
       <c r="B8" s="53">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="53">
         <f t="shared" si="0"/>
@@ -23654,7 +23716,7 @@
       </c>
       <c r="D8" s="53">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="53">
         <f t="shared" si="2"/>
@@ -23674,7 +23736,7 @@
       </c>
       <c r="I8" s="53">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" s="53">
         <f t="shared" si="11"/>
@@ -23772,7 +23834,7 @@
       </c>
       <c r="B9" s="53">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="53">
         <f t="shared" si="0"/>
@@ -23784,7 +23846,7 @@
       </c>
       <c r="E9" s="53">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="53">
         <f t="shared" si="3"/>
@@ -23792,11 +23854,11 @@
       </c>
       <c r="G9" s="53">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H9" s="53">
         <f t="shared" si="9"/>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="I9" s="53">
         <f t="shared" si="10"/>
@@ -23898,7 +23960,7 @@
       </c>
       <c r="B10" s="53">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="53">
         <f t="shared" si="0"/>
@@ -23906,7 +23968,7 @@
       </c>
       <c r="D10" s="53">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="53">
         <f t="shared" si="2"/>
@@ -23926,7 +23988,7 @@
       </c>
       <c r="I10" s="53">
         <f t="shared" si="10"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J10" s="53">
         <f t="shared" si="11"/>
@@ -23934,24 +23996,24 @@
       </c>
       <c r="K10" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="L10" s="64"/>
-      <c r="M10" s="53" t="str">
+      <c r="M10" s="53">
         <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="N10" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="N10" s="53">
         <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="O10" s="53" t="str">
+        <v>1</v>
+      </c>
+      <c r="O10" s="53">
         <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="P10" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="P10" s="53">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="53">
         <f t="shared" si="15"/>
@@ -23959,20 +24021,20 @@
       </c>
       <c r="R10" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="S10" s="65"/>
-      <c r="T10" s="53" t="str">
+      <c r="T10" s="53">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="U10" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="U10" s="53">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V10" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="V10" s="53">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="W10" s="53">
         <f t="shared" si="19"/>
@@ -23980,16 +24042,16 @@
       </c>
       <c r="X10" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="Y10" s="63"/>
-      <c r="Z10" s="53" t="str">
+      <c r="Z10" s="53">
         <f t="shared" si="21"/>
-        <v>-</v>
+        <v>12</v>
       </c>
       <c r="AA10" s="53">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB10" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24002,7 +24064,7 @@
       </c>
       <c r="AE10" s="53">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF10" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24015,7 +24077,7 @@
       </c>
       <c r="AI10" s="53">
         <f>AE10+COUNTIFS(AF$2:AF$19,AF10,AH$2:AH$19,"&lt;"&amp;AH10)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
@@ -24024,7 +24086,7 @@
       </c>
       <c r="B11" s="53">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="53">
         <f t="shared" si="0"/>
@@ -24032,7 +24094,7 @@
       </c>
       <c r="D11" s="53">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="53">
         <f t="shared" si="2"/>
@@ -24040,11 +24102,11 @@
       </c>
       <c r="F11" s="53">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G11" s="53">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H11" s="53">
         <f t="shared" si="9"/>
@@ -24052,7 +24114,7 @@
       </c>
       <c r="I11" s="53">
         <f t="shared" si="10"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11" s="53">
         <f t="shared" si="11"/>
@@ -24124,7 +24186,7 @@
       <c r="AC11" s="65"/>
       <c r="AD11" s="53">
         <f t="shared" si="24"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE11" s="53">
         <f t="shared" si="25"/>
@@ -24132,16 +24194,16 @@
       </c>
       <c r="AF11" s="53" t="str">
         <f t="shared" si="26"/>
-        <v>Pos.8(2)</v>
+        <v>-</v>
       </c>
       <c r="AG11" s="65"/>
-      <c r="AH11" s="53">
+      <c r="AH11" s="53" t="str">
         <f t="shared" si="27"/>
-        <v>9</v>
+        <v>-</v>
       </c>
       <c r="AI11" s="53">
         <f t="shared" si="28"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
@@ -24150,11 +24212,11 @@
       </c>
       <c r="B12" s="53">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="53">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="53">
         <f t="shared" si="1"/>
@@ -24166,7 +24228,7 @@
       </c>
       <c r="F12" s="53">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G12" s="53">
         <f t="shared" si="4"/>
@@ -24174,40 +24236,40 @@
       </c>
       <c r="H12" s="53">
         <f t="shared" si="9"/>
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="I12" s="53">
         <f t="shared" si="10"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J12" s="53">
         <f t="shared" si="11"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K12" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.13(2)</v>
+        <v>-</v>
       </c>
       <c r="L12" s="64"/>
-      <c r="M12" s="53">
+      <c r="M12" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="N12" s="53">
+        <v>-</v>
+      </c>
+      <c r="N12" s="53" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="53">
+        <v>-</v>
+      </c>
+      <c r="O12" s="53" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="53">
+        <v>-</v>
+      </c>
+      <c r="P12" s="53" t="str">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>-</v>
       </c>
       <c r="Q12" s="53">
         <f t="shared" si="15"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R12" s="53" t="str">
         <f t="shared" si="16"/>
@@ -24228,7 +24290,7 @@
       </c>
       <c r="W12" s="53">
         <f t="shared" si="19"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X12" s="53" t="str">
         <f t="shared" si="20"/>
@@ -24241,7 +24303,7 @@
       </c>
       <c r="AA12" s="53">
         <f t="shared" si="22"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB12" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24254,7 +24316,7 @@
       </c>
       <c r="AE12" s="53">
         <f t="shared" si="25"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF12" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24267,7 +24329,7 @@
       </c>
       <c r="AI12" s="53">
         <f t="shared" si="28"/>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
@@ -24276,7 +24338,7 @@
       </c>
       <c r="B13" s="53">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="53">
         <f t="shared" si="0"/>
@@ -24288,7 +24350,7 @@
       </c>
       <c r="E13" s="53">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="53">
         <f t="shared" si="3"/>
@@ -24296,11 +24358,11 @@
       </c>
       <c r="G13" s="53">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H13" s="53">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13" s="53">
         <f t="shared" si="10"/>
@@ -24312,24 +24374,24 @@
       </c>
       <c r="K13" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="L13" s="64"/>
-      <c r="M13" s="53" t="str">
+      <c r="M13" s="53">
         <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="N13" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="N13" s="53">
         <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="O13" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="O13" s="53">
         <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="P13" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="P13" s="53">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="53">
         <f t="shared" si="15"/>
@@ -24337,20 +24399,20 @@
       </c>
       <c r="R13" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="S13" s="65"/>
-      <c r="T13" s="53" t="str">
+      <c r="T13" s="53">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="U13" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="U13" s="53">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V13" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="V13" s="53">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="W13" s="53">
         <f t="shared" si="19"/>
@@ -24358,16 +24420,16 @@
       </c>
       <c r="X13" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>-</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="Y13" s="63"/>
-      <c r="Z13" s="53" t="str">
+      <c r="Z13" s="53">
         <f t="shared" si="21"/>
-        <v>-</v>
+        <v>3</v>
       </c>
       <c r="AA13" s="53">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB13" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24380,7 +24442,7 @@
       </c>
       <c r="AE13" s="53">
         <f t="shared" si="25"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF13" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24393,7 +24455,7 @@
       </c>
       <c r="AI13" s="53">
         <f t="shared" si="28"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
@@ -24402,11 +24464,11 @@
       </c>
       <c r="B14" s="53">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" s="53">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="53">
         <f t="shared" si="1"/>
@@ -24418,7 +24480,7 @@
       </c>
       <c r="F14" s="53">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G14" s="53">
         <f t="shared" si="4"/>
@@ -24426,11 +24488,11 @@
       </c>
       <c r="H14" s="53">
         <f t="shared" si="9"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I14" s="53">
         <f t="shared" si="10"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J14" s="53">
         <f t="shared" si="11"/>
@@ -24438,24 +24500,24 @@
       </c>
       <c r="K14" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="L14" s="64"/>
-      <c r="M14" s="53">
+      <c r="M14" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="53">
+        <v>-</v>
+      </c>
+      <c r="N14" s="53" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="53">
+        <v>-</v>
+      </c>
+      <c r="O14" s="53" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="53">
+        <v>-</v>
+      </c>
+      <c r="P14" s="53" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="Q14" s="53">
         <f t="shared" si="15"/>
@@ -24463,20 +24525,20 @@
       </c>
       <c r="R14" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="S14" s="65"/>
-      <c r="T14" s="53">
+      <c r="T14" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="53">
+        <v>-</v>
+      </c>
+      <c r="U14" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="53">
+        <v>-</v>
+      </c>
+      <c r="V14" s="53" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W14" s="53">
         <f t="shared" si="19"/>
@@ -24484,12 +24546,12 @@
       </c>
       <c r="X14" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="Y14" s="63"/>
-      <c r="Z14" s="53">
+      <c r="Z14" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>-1</v>
+        <v>-</v>
       </c>
       <c r="AA14" s="53">
         <f t="shared" si="22"/>
@@ -24528,7 +24590,7 @@
       </c>
       <c r="B15" s="53">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="53">
         <f t="shared" si="0"/>
@@ -24540,7 +24602,7 @@
       </c>
       <c r="E15" s="53">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" s="53">
         <f t="shared" si="3"/>
@@ -24548,11 +24610,11 @@
       </c>
       <c r="G15" s="53">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H15" s="53">
         <f t="shared" si="9"/>
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="I15" s="53">
         <f t="shared" si="10"/>
@@ -24654,11 +24716,11 @@
       </c>
       <c r="B16" s="53">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" s="53">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" s="53">
         <f t="shared" si="1"/>
@@ -24670,7 +24732,7 @@
       </c>
       <c r="F16" s="53">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G16" s="53">
         <f t="shared" si="4"/>
@@ -24678,74 +24740,74 @@
       </c>
       <c r="H16" s="53">
         <f t="shared" si="9"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" s="53">
         <f t="shared" si="10"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J16" s="53">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="L16" s="64"/>
-      <c r="M16" s="53" t="str">
+      <c r="M16" s="53">
         <f t="shared" si="13"/>
-        <v>-</v>
-      </c>
-      <c r="N16" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="N16" s="53">
         <f t="shared" si="5"/>
-        <v>-</v>
-      </c>
-      <c r="O16" s="53" t="str">
+        <v>1</v>
+      </c>
+      <c r="O16" s="53">
         <f t="shared" si="6"/>
-        <v>-</v>
-      </c>
-      <c r="P16" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="P16" s="53">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="53">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R16" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="S16" s="65"/>
-      <c r="T16" s="53" t="str">
+      <c r="T16" s="53">
         <f t="shared" si="17"/>
-        <v>-</v>
-      </c>
-      <c r="U16" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="U16" s="53">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="V16" s="53" t="str">
+        <v>0</v>
+      </c>
+      <c r="V16" s="53">
         <f t="shared" si="18"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="W16" s="53">
         <f t="shared" si="19"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X16" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>-</v>
+        <v>Pos.1(2)</v>
       </c>
       <c r="Y16" s="63"/>
-      <c r="Z16" s="53" t="str">
+      <c r="Z16" s="53">
         <f t="shared" si="21"/>
-        <v>-</v>
+        <v>15</v>
       </c>
       <c r="AA16" s="53">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24758,7 +24820,7 @@
       </c>
       <c r="AE16" s="53">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF16" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24771,7 +24833,7 @@
       </c>
       <c r="AI16" s="53">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
@@ -24780,7 +24842,7 @@
       </c>
       <c r="B17" s="53">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" s="53">
         <f t="shared" si="0"/>
@@ -24788,7 +24850,7 @@
       </c>
       <c r="D17" s="53">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="53">
         <f t="shared" si="2"/>
@@ -24808,15 +24870,15 @@
       </c>
       <c r="I17" s="53">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J17" s="53">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K17" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="L17" s="64"/>
       <c r="M17" s="53">
@@ -24837,11 +24899,11 @@
       </c>
       <c r="Q17" s="53">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R17" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="S17" s="65"/>
       <c r="T17" s="53">
@@ -24858,11 +24920,11 @@
       </c>
       <c r="W17" s="53">
         <f t="shared" si="19"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X17" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.5(2)</v>
+        <v>Pos.4(3)</v>
       </c>
       <c r="Y17" s="63"/>
       <c r="Z17" s="53">
@@ -24871,7 +24933,7 @@
       </c>
       <c r="AA17" s="53">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB17" s="53" t="str">
         <f t="shared" si="23"/>
@@ -24884,7 +24946,7 @@
       </c>
       <c r="AE17" s="53">
         <f t="shared" si="25"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF17" s="53" t="str">
         <f t="shared" si="26"/>
@@ -24897,7 +24959,7 @@
       </c>
       <c r="AI17" s="53">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
@@ -24906,7 +24968,7 @@
       </c>
       <c r="B18" s="53">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18" s="53">
         <f t="shared" si="0"/>
@@ -24918,7 +24980,7 @@
       </c>
       <c r="E18" s="53">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="53">
         <f t="shared" si="3"/>
@@ -24926,11 +24988,11 @@
       </c>
       <c r="G18" s="53">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H18" s="53">
         <f t="shared" si="9"/>
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="I18" s="53">
         <f t="shared" si="10"/>
@@ -24938,66 +25000,66 @@
       </c>
       <c r="J18" s="53">
         <f t="shared" si="11"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K18" s="53" t="str">
         <f t="shared" si="12"/>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="L18" s="64"/>
-      <c r="M18" s="53">
+      <c r="M18" s="53" t="str">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="53">
+        <v>-</v>
+      </c>
+      <c r="N18" s="53" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="53">
+        <v>-</v>
+      </c>
+      <c r="O18" s="53" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="53">
+        <v>-</v>
+      </c>
+      <c r="P18" s="53" t="str">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="Q18" s="53">
         <f t="shared" si="15"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R18" s="53" t="str">
         <f t="shared" si="16"/>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="S18" s="65"/>
-      <c r="T18" s="53">
+      <c r="T18" s="53" t="str">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="53">
+        <v>-</v>
+      </c>
+      <c r="U18" s="53" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="53">
+        <v>-</v>
+      </c>
+      <c r="V18" s="53" t="str">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="W18" s="53">
         <f t="shared" si="19"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="X18" s="53" t="str">
         <f t="shared" si="20"/>
-        <v>Pos.10(2)</v>
+        <v>-</v>
       </c>
       <c r="Y18" s="63"/>
-      <c r="Z18" s="53">
+      <c r="Z18" s="53" t="str">
         <f t="shared" si="21"/>
-        <v>-3</v>
+        <v>-</v>
       </c>
       <c r="AA18" s="53">
         <f t="shared" si="22"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB18" s="53" t="str">
         <f t="shared" si="23"/>
@@ -25010,7 +25072,7 @@
       </c>
       <c r="AE18" s="53">
         <f t="shared" si="25"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF18" s="53" t="str">
         <f t="shared" si="26"/>
@@ -25023,7 +25085,7 @@
       </c>
       <c r="AI18" s="53">
         <f t="shared" si="28"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
@@ -25032,7 +25094,7 @@
       </c>
       <c r="B19" s="53">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C19" s="53">
         <f t="shared" si="0"/>
@@ -25040,7 +25102,7 @@
       </c>
       <c r="D19" s="53">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" s="53">
         <f t="shared" si="2"/>
@@ -25048,11 +25110,11 @@
       </c>
       <c r="F19" s="53">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G19" s="53">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H19" s="53">
         <f t="shared" si="9"/>
@@ -25060,7 +25122,7 @@
       </c>
       <c r="I19" s="53">
         <f t="shared" si="10"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J19" s="53">
         <f t="shared" si="11"/>
@@ -25164,7 +25226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -25212,15 +25274,15 @@
       </c>
       <c r="B2" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Júpiter Leonés</v>
+        <v>Real Ávila</v>
       </c>
       <c r="C2" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25228,7 +25290,7 @@
       </c>
       <c r="F2" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25236,15 +25298,15 @@
       </c>
       <c r="H2" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J2" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A2,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -25253,19 +25315,19 @@
       </c>
       <c r="B3" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Real Ávila</v>
+        <v>Júpiter Leonés</v>
       </c>
       <c r="C3" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25281,11 +25343,11 @@
       </c>
       <c r="I3" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A3,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -25298,11 +25360,11 @@
       </c>
       <c r="C4" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25310,7 +25372,7 @@
       </c>
       <c r="F4" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25318,11 +25380,11 @@
       </c>
       <c r="H4" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I4" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J4" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A4,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25335,7 +25397,7 @@
       </c>
       <c r="B5" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Palencia CF</v>
+        <v>Salamanca UDS</v>
       </c>
       <c r="C5" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25343,31 +25405,31 @@
       </c>
       <c r="D5" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G5" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I5" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J5" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A5,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -25376,15 +25438,15 @@
       </c>
       <c r="B6" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Salamanca UDS</v>
+        <v>Burgos CF B</v>
       </c>
       <c r="C6" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25392,7 +25454,7 @@
       </c>
       <c r="F6" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25400,15 +25462,15 @@
       </c>
       <c r="H6" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I6" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J6" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A6,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -25417,39 +25479,39 @@
       </c>
       <c r="B7" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Burgos CF B</v>
+        <v>Palencia CF</v>
       </c>
       <c r="C7" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I7" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J7" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A7,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -25462,11 +25524,11 @@
       </c>
       <c r="C8" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25474,7 +25536,7 @@
       </c>
       <c r="F8" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25482,11 +25544,11 @@
       </c>
       <c r="H8" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I8" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J8" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A8,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25499,15 +25561,15 @@
       </c>
       <c r="B9" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Atco. Bembibre</v>
+        <v>La Virgen del Camino</v>
       </c>
       <c r="C9" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25515,7 +25577,7 @@
       </c>
       <c r="F9" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25523,11 +25585,11 @@
       </c>
       <c r="H9" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I9" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J9" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A9,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25540,15 +25602,15 @@
       </c>
       <c r="B10" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>La Virgen del Camino</v>
+        <v>Atco. Bembibre</v>
       </c>
       <c r="C10" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25556,7 +25618,7 @@
       </c>
       <c r="F10" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25564,11 +25626,11 @@
       </c>
       <c r="H10" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I10" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J10" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A10,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25585,15 +25647,15 @@
       </c>
       <c r="C11" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D11" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25605,7 +25667,7 @@
       </c>
       <c r="H11" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I11" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25613,7 +25675,7 @@
       </c>
       <c r="J11" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A11,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -25622,39 +25684,39 @@
       </c>
       <c r="B12" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>SD Almazán</v>
+        <v>Becerril</v>
       </c>
       <c r="C12" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D12" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I12" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A12,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-3</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -25663,15 +25725,15 @@
       </c>
       <c r="B13" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Becerril</v>
+        <v>Mirandés B</v>
       </c>
       <c r="C13" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D13" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25679,23 +25741,23 @@
       </c>
       <c r="F13" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H13" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I13" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J13" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A13,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-7</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -25704,35 +25766,35 @@
       </c>
       <c r="B14" s="74" t="str">
         <f>INDEX('Equipos (cálculos)'!A$2:A$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>Mirandés B</v>
+        <v>SD Almazán</v>
       </c>
       <c r="C14" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D14" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I14" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J14" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A14,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25749,11 +25811,11 @@
       </c>
       <c r="C15" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25761,7 +25823,7 @@
       </c>
       <c r="F15" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25769,11 +25831,11 @@
       </c>
       <c r="H15" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I15" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J15" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A15,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25790,11 +25852,11 @@
       </c>
       <c r="C16" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25802,7 +25864,7 @@
       </c>
       <c r="F16" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A16,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25835,7 +25897,7 @@
       </c>
       <c r="D17" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25847,7 +25909,7 @@
       </c>
       <c r="G17" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25855,11 +25917,11 @@
       </c>
       <c r="I17" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J17" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A17,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -25876,7 +25938,7 @@
       </c>
       <c r="D18" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25888,7 +25950,7 @@
       </c>
       <c r="G18" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H18" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25896,11 +25958,11 @@
       </c>
       <c r="I18" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J18" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A18,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>-11</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -25913,11 +25975,11 @@
       </c>
       <c r="C19" s="75">
         <f>INDEX('Equipos (cálculos)'!I$2:I$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="75">
         <f>INDEX('Equipos (cálculos)'!B$2:B$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" s="75">
         <f>INDEX('Equipos (cálculos)'!C$2:C$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25925,7 +25987,7 @@
       </c>
       <c r="F19" s="75">
         <f>INDEX('Equipos (cálculos)'!D$2:D$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="75">
         <f>INDEX('Equipos (cálculos)'!E$2:E$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -25933,11 +25995,11 @@
       </c>
       <c r="H19" s="75">
         <f>INDEX('Equipos (cálculos)'!F$2:F$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I19" s="75">
         <f>INDEX('Equipos (cálculos)'!G$2:G$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J19" s="75">
         <f>INDEX('Equipos (cálculos)'!H$2:H$19,MATCH($A19,'Equipos (cálculos)'!$AI$2:$AI$19,0))</f>
@@ -27437,192 +27499,192 @@
       <c r="AF2" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="AH2" s="147" t="s">
+      <c r="AH2" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="148"/>
-      <c r="AJ2" s="148"/>
-      <c r="AK2" s="148"/>
-      <c r="AL2" s="148"/>
-      <c r="AM2" s="148"/>
-      <c r="AN2" s="149"/>
-      <c r="AP2" s="147" t="s">
+      <c r="AI2" s="142"/>
+      <c r="AJ2" s="142"/>
+      <c r="AK2" s="142"/>
+      <c r="AL2" s="142"/>
+      <c r="AM2" s="142"/>
+      <c r="AN2" s="143"/>
+      <c r="AP2" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="AQ2" s="148"/>
-      <c r="AR2" s="148"/>
-      <c r="AS2" s="148"/>
-      <c r="AT2" s="148"/>
-      <c r="AU2" s="148"/>
-      <c r="AV2" s="149"/>
-      <c r="AX2" s="147" t="s">
+      <c r="AQ2" s="142"/>
+      <c r="AR2" s="142"/>
+      <c r="AS2" s="142"/>
+      <c r="AT2" s="142"/>
+      <c r="AU2" s="142"/>
+      <c r="AV2" s="143"/>
+      <c r="AX2" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="AY2" s="148"/>
-      <c r="AZ2" s="148"/>
-      <c r="BA2" s="148"/>
-      <c r="BB2" s="148"/>
-      <c r="BC2" s="148"/>
-      <c r="BD2" s="149"/>
-      <c r="BF2" s="147" t="s">
+      <c r="AY2" s="142"/>
+      <c r="AZ2" s="142"/>
+      <c r="BA2" s="142"/>
+      <c r="BB2" s="142"/>
+      <c r="BC2" s="142"/>
+      <c r="BD2" s="143"/>
+      <c r="BF2" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="BG2" s="148"/>
-      <c r="BH2" s="148"/>
-      <c r="BI2" s="148"/>
-      <c r="BJ2" s="148"/>
-      <c r="BK2" s="148"/>
-      <c r="BL2" s="149"/>
-      <c r="BN2" s="147" t="s">
+      <c r="BG2" s="142"/>
+      <c r="BH2" s="142"/>
+      <c r="BI2" s="142"/>
+      <c r="BJ2" s="142"/>
+      <c r="BK2" s="142"/>
+      <c r="BL2" s="143"/>
+      <c r="BN2" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="BO2" s="148"/>
-      <c r="BP2" s="148"/>
-      <c r="BQ2" s="148"/>
-      <c r="BR2" s="148"/>
-      <c r="BS2" s="148"/>
-      <c r="BT2" s="149"/>
-      <c r="BV2" s="147" t="s">
+      <c r="BO2" s="142"/>
+      <c r="BP2" s="142"/>
+      <c r="BQ2" s="142"/>
+      <c r="BR2" s="142"/>
+      <c r="BS2" s="142"/>
+      <c r="BT2" s="143"/>
+      <c r="BV2" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="BW2" s="148"/>
-      <c r="BX2" s="148"/>
-      <c r="BY2" s="148"/>
-      <c r="BZ2" s="148"/>
-      <c r="CA2" s="148"/>
-      <c r="CB2" s="149"/>
+      <c r="BW2" s="142"/>
+      <c r="BX2" s="142"/>
+      <c r="BY2" s="142"/>
+      <c r="BZ2" s="142"/>
+      <c r="CA2" s="142"/>
+      <c r="CB2" s="143"/>
     </row>
     <row r="3" spans="2:80" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="146" t="s">
+      <c r="B3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="146"/>
-      <c r="G3" s="135" t="s">
+      <c r="F3" s="149"/>
+      <c r="G3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="J3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="145" t="s">
+      <c r="H3" s="140"/>
+      <c r="J3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="145"/>
-      <c r="O3" s="143" t="s">
+      <c r="N3" s="144"/>
+      <c r="O3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="144"/>
-      <c r="R3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="145" t="s">
+      <c r="P3" s="146"/>
+      <c r="R3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="145"/>
-      <c r="W3" s="143" t="s">
+      <c r="V3" s="144"/>
+      <c r="W3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="144"/>
-      <c r="Z3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="145" t="s">
+      <c r="X3" s="146"/>
+      <c r="Z3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="143" t="s">
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="144"/>
-      <c r="AH3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="142"/>
-      <c r="AJ3" s="142"/>
-      <c r="AK3" s="145" t="s">
+      <c r="AF3" s="146"/>
+      <c r="AH3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="148"/>
+      <c r="AJ3" s="148"/>
+      <c r="AK3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="145"/>
-      <c r="AM3" s="143" t="s">
+      <c r="AL3" s="144"/>
+      <c r="AM3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="144"/>
-      <c r="AP3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="142"/>
-      <c r="AR3" s="142"/>
-      <c r="AS3" s="145" t="s">
+      <c r="AN3" s="146"/>
+      <c r="AP3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="148"/>
+      <c r="AR3" s="148"/>
+      <c r="AS3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="145"/>
-      <c r="AU3" s="143" t="s">
+      <c r="AT3" s="144"/>
+      <c r="AU3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="144"/>
-      <c r="AX3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="142"/>
-      <c r="AZ3" s="142"/>
-      <c r="BA3" s="145" t="s">
+      <c r="AV3" s="146"/>
+      <c r="AX3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="148"/>
+      <c r="AZ3" s="148"/>
+      <c r="BA3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BB3" s="145"/>
-      <c r="BC3" s="143" t="s">
+      <c r="BB3" s="144"/>
+      <c r="BC3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="144"/>
-      <c r="BF3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="142"/>
-      <c r="BH3" s="142"/>
-      <c r="BI3" s="145" t="s">
+      <c r="BD3" s="146"/>
+      <c r="BF3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="148"/>
+      <c r="BH3" s="148"/>
+      <c r="BI3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BJ3" s="145"/>
-      <c r="BK3" s="143" t="s">
+      <c r="BJ3" s="144"/>
+      <c r="BK3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="144"/>
-      <c r="BN3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="142"/>
-      <c r="BP3" s="142"/>
-      <c r="BQ3" s="145" t="s">
+      <c r="BL3" s="146"/>
+      <c r="BN3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="148"/>
+      <c r="BP3" s="148"/>
+      <c r="BQ3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="145"/>
-      <c r="BS3" s="143" t="s">
+      <c r="BR3" s="144"/>
+      <c r="BS3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="144"/>
-      <c r="BV3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="142"/>
-      <c r="BX3" s="142"/>
-      <c r="BY3" s="145" t="s">
+      <c r="BT3" s="146"/>
+      <c r="BV3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="148"/>
+      <c r="BX3" s="148"/>
+      <c r="BY3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BZ3" s="145"/>
-      <c r="CA3" s="143" t="s">
+      <c r="BZ3" s="144"/>
+      <c r="CA3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="144"/>
+      <c r="CB3" s="146"/>
     </row>
     <row r="4" spans="2:80" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -30140,12 +30202,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="AX2:BD2"/>
-    <mergeCell ref="BF2:BL2"/>
-    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="BN2:BT2"/>
     <mergeCell ref="BV2:CB2"/>
     <mergeCell ref="AH2:AN2"/>
@@ -30162,24 +30236,12 @@
     <mergeCell ref="AX3:AZ3"/>
     <mergeCell ref="BA3:BB3"/>
     <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="AX2:BD2"/>
+    <mergeCell ref="BF2:BL2"/>
+    <mergeCell ref="AA2:AE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31426,19 +31488,19 @@
       <c r="L39" s="152"/>
     </row>
     <row r="40" spans="6:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="F40" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="142"/>
-      <c r="H40" s="142"/>
-      <c r="I40" s="145" t="s">
+      <c r="F40" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="145"/>
-      <c r="K40" s="143" t="s">
+      <c r="J40" s="144"/>
+      <c r="K40" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="144"/>
+      <c r="L40" s="146"/>
     </row>
     <row r="41" spans="6:23" ht="19" x14ac:dyDescent="0.25">
       <c r="F41" s="14" t="s">
@@ -32116,8 +32178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:EF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE2" workbookViewId="0">
-      <selection activeCell="BQ27" sqref="BQ27"/>
+    <sheetView topLeftCell="BI1" workbookViewId="0">
+      <selection activeCell="BW25" sqref="BW25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32327,301 +32389,305 @@
       <c r="BT2" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="BV2" s="147" t="s">
-        <v>38</v>
-      </c>
-      <c r="BW2" s="148"/>
-      <c r="BX2" s="148"/>
-      <c r="BY2" s="148"/>
-      <c r="BZ2" s="148"/>
-      <c r="CA2" s="148"/>
-      <c r="CB2" s="149"/>
-      <c r="CD2" s="147" t="s">
+      <c r="BV2" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="BW2" s="132" t="s">
+        <v>203</v>
+      </c>
+      <c r="BX2" s="132"/>
+      <c r="BY2" s="132"/>
+      <c r="BZ2" s="132"/>
+      <c r="CA2" s="132"/>
+      <c r="CB2" s="131" t="s">
+        <v>71</v>
+      </c>
+      <c r="CD2" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="CE2" s="148"/>
-      <c r="CF2" s="148"/>
-      <c r="CG2" s="148"/>
-      <c r="CH2" s="148"/>
-      <c r="CI2" s="148"/>
-      <c r="CJ2" s="149"/>
-      <c r="CL2" s="147" t="s">
+      <c r="CE2" s="142"/>
+      <c r="CF2" s="142"/>
+      <c r="CG2" s="142"/>
+      <c r="CH2" s="142"/>
+      <c r="CI2" s="142"/>
+      <c r="CJ2" s="143"/>
+      <c r="CL2" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="CM2" s="148"/>
-      <c r="CN2" s="148"/>
-      <c r="CO2" s="148"/>
-      <c r="CP2" s="148"/>
-      <c r="CQ2" s="148"/>
-      <c r="CR2" s="149"/>
-      <c r="CT2" s="147" t="s">
+      <c r="CM2" s="142"/>
+      <c r="CN2" s="142"/>
+      <c r="CO2" s="142"/>
+      <c r="CP2" s="142"/>
+      <c r="CQ2" s="142"/>
+      <c r="CR2" s="143"/>
+      <c r="CT2" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="CU2" s="148"/>
-      <c r="CV2" s="148"/>
-      <c r="CW2" s="148"/>
-      <c r="CX2" s="148"/>
-      <c r="CY2" s="148"/>
-      <c r="CZ2" s="149"/>
-      <c r="DB2" s="147" t="s">
+      <c r="CU2" s="142"/>
+      <c r="CV2" s="142"/>
+      <c r="CW2" s="142"/>
+      <c r="CX2" s="142"/>
+      <c r="CY2" s="142"/>
+      <c r="CZ2" s="143"/>
+      <c r="DB2" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="DC2" s="148"/>
-      <c r="DD2" s="148"/>
-      <c r="DE2" s="148"/>
-      <c r="DF2" s="148"/>
-      <c r="DG2" s="148"/>
-      <c r="DH2" s="149"/>
-      <c r="DJ2" s="147" t="s">
+      <c r="DC2" s="142"/>
+      <c r="DD2" s="142"/>
+      <c r="DE2" s="142"/>
+      <c r="DF2" s="142"/>
+      <c r="DG2" s="142"/>
+      <c r="DH2" s="143"/>
+      <c r="DJ2" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="DK2" s="148"/>
-      <c r="DL2" s="148"/>
-      <c r="DM2" s="148"/>
-      <c r="DN2" s="148"/>
-      <c r="DO2" s="148"/>
-      <c r="DP2" s="149"/>
-      <c r="DR2" s="147" t="s">
+      <c r="DK2" s="142"/>
+      <c r="DL2" s="142"/>
+      <c r="DM2" s="142"/>
+      <c r="DN2" s="142"/>
+      <c r="DO2" s="142"/>
+      <c r="DP2" s="143"/>
+      <c r="DR2" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="DS2" s="148"/>
-      <c r="DT2" s="148"/>
-      <c r="DU2" s="148"/>
-      <c r="DV2" s="148"/>
-      <c r="DW2" s="148"/>
-      <c r="DX2" s="149"/>
-      <c r="DZ2" s="147" t="s">
+      <c r="DS2" s="142"/>
+      <c r="DT2" s="142"/>
+      <c r="DU2" s="142"/>
+      <c r="DV2" s="142"/>
+      <c r="DW2" s="142"/>
+      <c r="DX2" s="143"/>
+      <c r="DZ2" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="EA2" s="148"/>
-      <c r="EB2" s="148"/>
-      <c r="EC2" s="148"/>
-      <c r="ED2" s="148"/>
-      <c r="EE2" s="148"/>
-      <c r="EF2" s="149"/>
+      <c r="EA2" s="142"/>
+      <c r="EB2" s="142"/>
+      <c r="EC2" s="142"/>
+      <c r="ED2" s="142"/>
+      <c r="EE2" s="142"/>
+      <c r="EF2" s="143"/>
     </row>
     <row r="3" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="145" t="s">
+      <c r="B3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="143" t="s">
+      <c r="F3" s="144"/>
+      <c r="G3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="144"/>
-      <c r="J3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="145" t="s">
+      <c r="H3" s="146"/>
+      <c r="J3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="145"/>
-      <c r="O3" s="143" t="s">
+      <c r="N3" s="144"/>
+      <c r="O3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="144"/>
-      <c r="R3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="145" t="s">
+      <c r="P3" s="146"/>
+      <c r="R3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="145"/>
-      <c r="W3" s="143" t="s">
+      <c r="V3" s="144"/>
+      <c r="W3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="144"/>
-      <c r="Z3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="145" t="s">
+      <c r="X3" s="146"/>
+      <c r="Z3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="143" t="s">
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="144"/>
-      <c r="AH3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="142"/>
-      <c r="AJ3" s="142"/>
-      <c r="AK3" s="145" t="s">
+      <c r="AF3" s="146"/>
+      <c r="AH3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="148"/>
+      <c r="AJ3" s="148"/>
+      <c r="AK3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="145"/>
-      <c r="AM3" s="143" t="s">
+      <c r="AL3" s="144"/>
+      <c r="AM3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="144"/>
-      <c r="AP3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="142"/>
-      <c r="AR3" s="142"/>
-      <c r="AS3" s="145" t="s">
+      <c r="AN3" s="146"/>
+      <c r="AP3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="148"/>
+      <c r="AR3" s="148"/>
+      <c r="AS3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="145"/>
-      <c r="AU3" s="143" t="s">
+      <c r="AT3" s="144"/>
+      <c r="AU3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="144"/>
-      <c r="AX3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="142"/>
-      <c r="AZ3" s="142"/>
-      <c r="BA3" s="145" t="s">
+      <c r="AV3" s="146"/>
+      <c r="AX3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="148"/>
+      <c r="AZ3" s="148"/>
+      <c r="BA3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BB3" s="145"/>
-      <c r="BC3" s="143" t="s">
+      <c r="BB3" s="144"/>
+      <c r="BC3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="144"/>
-      <c r="BF3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="142"/>
-      <c r="BH3" s="142"/>
-      <c r="BI3" s="145" t="s">
+      <c r="BD3" s="146"/>
+      <c r="BF3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="148"/>
+      <c r="BH3" s="148"/>
+      <c r="BI3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BJ3" s="145"/>
-      <c r="BK3" s="143" t="s">
+      <c r="BJ3" s="144"/>
+      <c r="BK3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="144"/>
-      <c r="BN3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="142"/>
-      <c r="BP3" s="142"/>
-      <c r="BQ3" s="145" t="s">
+      <c r="BL3" s="146"/>
+      <c r="BN3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="148"/>
+      <c r="BP3" s="148"/>
+      <c r="BQ3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="145"/>
-      <c r="BS3" s="143" t="s">
+      <c r="BR3" s="144"/>
+      <c r="BS3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="144"/>
-      <c r="BV3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="142"/>
-      <c r="BX3" s="142"/>
-      <c r="BY3" s="145" t="s">
+      <c r="BT3" s="146"/>
+      <c r="BV3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="148"/>
+      <c r="BX3" s="148"/>
+      <c r="BY3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BZ3" s="145"/>
-      <c r="CA3" s="143" t="s">
+      <c r="BZ3" s="144"/>
+      <c r="CA3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="144"/>
-      <c r="CD3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="142"/>
-      <c r="CF3" s="142"/>
-      <c r="CG3" s="145" t="s">
+      <c r="CB3" s="146"/>
+      <c r="CD3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="148"/>
+      <c r="CF3" s="148"/>
+      <c r="CG3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="CH3" s="145"/>
-      <c r="CI3" s="143" t="s">
+      <c r="CH3" s="144"/>
+      <c r="CI3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CJ3" s="144"/>
-      <c r="CL3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="142"/>
-      <c r="CN3" s="142"/>
-      <c r="CO3" s="145" t="s">
+      <c r="CJ3" s="146"/>
+      <c r="CL3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="148"/>
+      <c r="CN3" s="148"/>
+      <c r="CO3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="CP3" s="145"/>
-      <c r="CQ3" s="143" t="s">
+      <c r="CP3" s="144"/>
+      <c r="CQ3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CR3" s="144"/>
-      <c r="CT3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="142"/>
-      <c r="CV3" s="142"/>
-      <c r="CW3" s="145" t="s">
+      <c r="CR3" s="146"/>
+      <c r="CT3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="148"/>
+      <c r="CV3" s="148"/>
+      <c r="CW3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="CX3" s="145"/>
-      <c r="CY3" s="143" t="s">
+      <c r="CX3" s="144"/>
+      <c r="CY3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CZ3" s="144"/>
-      <c r="DB3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="DC3" s="142"/>
-      <c r="DD3" s="142"/>
-      <c r="DE3" s="145" t="s">
+      <c r="CZ3" s="146"/>
+      <c r="DB3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="148"/>
+      <c r="DD3" s="148"/>
+      <c r="DE3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="DF3" s="145"/>
-      <c r="DG3" s="143" t="s">
+      <c r="DF3" s="144"/>
+      <c r="DG3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="DH3" s="144"/>
-      <c r="DJ3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="DK3" s="142"/>
-      <c r="DL3" s="142"/>
-      <c r="DM3" s="145" t="s">
+      <c r="DH3" s="146"/>
+      <c r="DJ3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="148"/>
+      <c r="DL3" s="148"/>
+      <c r="DM3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="DN3" s="145"/>
-      <c r="DO3" s="143" t="s">
+      <c r="DN3" s="144"/>
+      <c r="DO3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="DP3" s="144"/>
-      <c r="DR3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS3" s="142"/>
-      <c r="DT3" s="142"/>
-      <c r="DU3" s="145" t="s">
+      <c r="DP3" s="146"/>
+      <c r="DR3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS3" s="148"/>
+      <c r="DT3" s="148"/>
+      <c r="DU3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="DV3" s="145"/>
-      <c r="DW3" s="143" t="s">
+      <c r="DV3" s="144"/>
+      <c r="DW3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="DX3" s="144"/>
-      <c r="DZ3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="EA3" s="142"/>
-      <c r="EB3" s="142"/>
-      <c r="EC3" s="145" t="s">
+      <c r="DX3" s="146"/>
+      <c r="DZ3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="148"/>
+      <c r="EB3" s="148"/>
+      <c r="EC3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="ED3" s="145"/>
-      <c r="EE3" s="143" t="s">
+      <c r="ED3" s="144"/>
+      <c r="EE3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="EF3" s="144"/>
+      <c r="EF3" s="146"/>
     </row>
     <row r="4" spans="2:136" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -33103,8 +33169,12 @@
       <c r="BV5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="BW5" s="7"/>
-      <c r="BX5" s="7"/>
+      <c r="BW5" s="7">
+        <v>1</v>
+      </c>
+      <c r="BX5" s="7">
+        <v>90</v>
+      </c>
       <c r="BY5" s="7"/>
       <c r="BZ5" s="7"/>
       <c r="CA5" s="7"/>
@@ -33444,7 +33514,9 @@
         <v>12</v>
       </c>
       <c r="BW7" s="7"/>
-      <c r="BX7" s="7"/>
+      <c r="BX7" s="7">
+        <v>7</v>
+      </c>
       <c r="BY7" s="7"/>
       <c r="BZ7" s="7"/>
       <c r="CA7" s="7"/>
@@ -33779,8 +33851,12 @@
       <c r="BV9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="BW9" s="7"/>
-      <c r="BX9" s="7"/>
+      <c r="BW9" s="7">
+        <v>1</v>
+      </c>
+      <c r="BX9" s="7">
+        <v>90</v>
+      </c>
       <c r="BY9" s="7"/>
       <c r="BZ9" s="7"/>
       <c r="CA9" s="7"/>
@@ -33970,9 +34046,15 @@
       <c r="BV10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="BW10" s="7"/>
-      <c r="BX10" s="7"/>
-      <c r="BY10" s="7"/>
+      <c r="BW10" s="7">
+        <v>1</v>
+      </c>
+      <c r="BX10" s="7">
+        <v>83</v>
+      </c>
+      <c r="BY10" s="7">
+        <v>1</v>
+      </c>
       <c r="BZ10" s="7"/>
       <c r="CA10" s="7"/>
       <c r="CB10" s="8"/>
@@ -34342,8 +34424,12 @@
       <c r="BV12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="BW12" s="7"/>
-      <c r="BX12" s="7"/>
+      <c r="BW12" s="7">
+        <v>1</v>
+      </c>
+      <c r="BX12" s="7">
+        <v>90</v>
+      </c>
       <c r="BY12" s="7"/>
       <c r="BZ12" s="7"/>
       <c r="CA12" s="7"/>
@@ -34535,9 +34621,15 @@
       <c r="BV13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="BW13" s="7"/>
-      <c r="BX13" s="7"/>
-      <c r="BY13" s="7"/>
+      <c r="BW13" s="7">
+        <v>1</v>
+      </c>
+      <c r="BX13" s="7">
+        <v>90</v>
+      </c>
+      <c r="BY13" s="7">
+        <v>1</v>
+      </c>
       <c r="BZ13" s="7"/>
       <c r="CA13" s="7"/>
       <c r="CB13" s="8"/>
@@ -34698,8 +34790,12 @@
       <c r="BV14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="BW14" s="7"/>
-      <c r="BX14" s="7"/>
+      <c r="BW14" s="7">
+        <v>1</v>
+      </c>
+      <c r="BX14" s="7">
+        <v>83</v>
+      </c>
       <c r="BY14" s="7"/>
       <c r="BZ14" s="7"/>
       <c r="CA14" s="7"/>
@@ -35081,7 +35177,9 @@
         <v>22</v>
       </c>
       <c r="BW16" s="7"/>
-      <c r="BX16" s="7"/>
+      <c r="BX16" s="7">
+        <v>7</v>
+      </c>
       <c r="BY16" s="7"/>
       <c r="BZ16" s="7"/>
       <c r="CA16" s="7"/>
@@ -35438,8 +35536,12 @@
       <c r="BV18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="BW18" s="7"/>
-      <c r="BX18" s="7"/>
+      <c r="BW18" s="7">
+        <v>1</v>
+      </c>
+      <c r="BX18" s="7">
+        <v>90</v>
+      </c>
       <c r="BY18" s="7"/>
       <c r="BZ18" s="7"/>
       <c r="CA18" s="7"/>
@@ -35623,8 +35725,12 @@
       <c r="BV19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="BW19" s="7"/>
-      <c r="BX19" s="7"/>
+      <c r="BW19" s="7">
+        <v>1</v>
+      </c>
+      <c r="BX19" s="7">
+        <v>68</v>
+      </c>
       <c r="BY19" s="7"/>
       <c r="BZ19" s="7"/>
       <c r="CA19" s="7"/>
@@ -35816,8 +35922,12 @@
       <c r="BV20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="BW20" s="7"/>
-      <c r="BX20" s="7"/>
+      <c r="BW20" s="7">
+        <v>1</v>
+      </c>
+      <c r="BX20" s="7">
+        <v>90</v>
+      </c>
       <c r="BY20" s="7"/>
       <c r="BZ20" s="7"/>
       <c r="CA20" s="7"/>
@@ -36009,8 +36119,12 @@
       <c r="BV21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="BW21" s="7"/>
-      <c r="BX21" s="7"/>
+      <c r="BW21" s="7">
+        <v>1</v>
+      </c>
+      <c r="BX21" s="7">
+        <v>90</v>
+      </c>
       <c r="BY21" s="7"/>
       <c r="BZ21" s="7"/>
       <c r="CA21" s="7"/>
@@ -36199,7 +36313,9 @@
         <v>28</v>
       </c>
       <c r="BW22" s="7"/>
-      <c r="BX22" s="7"/>
+      <c r="BX22" s="7">
+        <v>22</v>
+      </c>
       <c r="BY22" s="7"/>
       <c r="BZ22" s="7"/>
       <c r="CA22" s="7"/>
@@ -36387,9 +36503,15 @@
       <c r="BV23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="BW23" s="7"/>
-      <c r="BX23" s="7"/>
-      <c r="BY23" s="7"/>
+      <c r="BW23" s="7">
+        <v>1</v>
+      </c>
+      <c r="BX23" s="7">
+        <v>90</v>
+      </c>
+      <c r="BY23" s="7">
+        <v>1</v>
+      </c>
       <c r="BZ23" s="7"/>
       <c r="CA23" s="7"/>
       <c r="CB23" s="8"/>
@@ -36667,25 +36789,49 @@
         <f>SUM(BP5:BP24)</f>
         <v>990</v>
       </c>
+      <c r="BX25">
+        <f>SUM(BX5:BX24)</f>
+        <v>990</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="DZ2:EF2"/>
+    <mergeCell ref="DZ3:EB3"/>
+    <mergeCell ref="EC3:ED3"/>
+    <mergeCell ref="EE3:EF3"/>
+    <mergeCell ref="DJ2:DP2"/>
+    <mergeCell ref="DJ3:DL3"/>
+    <mergeCell ref="DM3:DN3"/>
+    <mergeCell ref="DO3:DP3"/>
+    <mergeCell ref="DR2:DX2"/>
+    <mergeCell ref="DR3:DT3"/>
+    <mergeCell ref="DU3:DV3"/>
+    <mergeCell ref="DW3:DX3"/>
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="CT3:CV3"/>
+    <mergeCell ref="CW3:CX3"/>
+    <mergeCell ref="CY3:CZ3"/>
+    <mergeCell ref="DB2:DH2"/>
+    <mergeCell ref="DB3:DD3"/>
+    <mergeCell ref="DE3:DF3"/>
+    <mergeCell ref="DG3:DH3"/>
+    <mergeCell ref="CD2:CJ2"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="CG3:CH3"/>
+    <mergeCell ref="CI3:CJ3"/>
+    <mergeCell ref="CL2:CR2"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="CQ3:CR3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="BO2:BS2"/>
+    <mergeCell ref="BW2:CA2"/>
     <mergeCell ref="BK3:BL3"/>
     <mergeCell ref="AY2:BC2"/>
     <mergeCell ref="BG2:BK2"/>
@@ -36702,42 +36848,22 @@
     <mergeCell ref="BC3:BD3"/>
     <mergeCell ref="BF3:BH3"/>
     <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV2:CB2"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="BO2:BS2"/>
-    <mergeCell ref="CD2:CJ2"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="CG3:CH3"/>
-    <mergeCell ref="CI3:CJ3"/>
-    <mergeCell ref="CL2:CR2"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="CQ3:CR3"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="CT3:CV3"/>
-    <mergeCell ref="CW3:CX3"/>
-    <mergeCell ref="CY3:CZ3"/>
-    <mergeCell ref="DB2:DH2"/>
-    <mergeCell ref="DB3:DD3"/>
-    <mergeCell ref="DE3:DF3"/>
-    <mergeCell ref="DG3:DH3"/>
-    <mergeCell ref="DZ2:EF2"/>
-    <mergeCell ref="DZ3:EB3"/>
-    <mergeCell ref="EC3:ED3"/>
-    <mergeCell ref="EE3:EF3"/>
-    <mergeCell ref="DJ2:DP2"/>
-    <mergeCell ref="DJ3:DL3"/>
-    <mergeCell ref="DM3:DN3"/>
-    <mergeCell ref="DO3:DP3"/>
-    <mergeCell ref="DR2:DX2"/>
-    <mergeCell ref="DR3:DT3"/>
-    <mergeCell ref="DU3:DV3"/>
-    <mergeCell ref="DW3:DX3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36747,8 +36873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36819,14 +36945,14 @@
       </c>
       <c r="C3" s="8">
         <f t="shared" ref="C3:C22" si="0">F40</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="8">
         <f>'1º Vuelta'!D5+'1º Vuelta'!L5+'1º Vuelta'!T5+'1º Vuelta'!AB5+'1º Vuelta'!AJ5+'1º Vuelta'!AR5+'1º Vuelta'!AZ5+'1º Vuelta'!BH5+'1º Vuelta'!BP5+'1º Vuelta'!BX5+'1º Vuelta'!CF5+'1º Vuelta'!CN5+'1º Vuelta'!CV5+'1º Vuelta'!DD5+'1º Vuelta'!DL5+'1º Vuelta'!DT5+'1º Vuelta'!EB5</f>
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>10</v>
@@ -36926,7 +37052,7 @@
       </c>
       <c r="F5" s="8">
         <f>'1º Vuelta'!D7+'1º Vuelta'!L7+'1º Vuelta'!T7+'1º Vuelta'!AB7+'1º Vuelta'!AJ7+'1º Vuelta'!AR7+'1º Vuelta'!AZ7+'1º Vuelta'!BH7+'1º Vuelta'!BP7+'1º Vuelta'!BX7+'1º Vuelta'!CF7+'1º Vuelta'!CN7+'1º Vuelta'!CV7+'1º Vuelta'!DD7+'1º Vuelta'!DL7+'1º Vuelta'!DT7+'1º Vuelta'!EB7</f>
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>12</v>
@@ -37019,14 +37145,14 @@
       </c>
       <c r="C7" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="8">
         <f>'1º Vuelta'!D9+'1º Vuelta'!L9+'1º Vuelta'!T9+'1º Vuelta'!AB9+'1º Vuelta'!AJ9+'1º Vuelta'!AR9+'1º Vuelta'!AZ9+'1º Vuelta'!BH9+'1º Vuelta'!BP9+'1º Vuelta'!BX9+'1º Vuelta'!CF9+'1º Vuelta'!CN9+'1º Vuelta'!CV9+'1º Vuelta'!DD9+'1º Vuelta'!DL9+'1º Vuelta'!DT9+'1º Vuelta'!EB9</f>
-        <v>398</v>
+        <v>488</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>14</v>
@@ -37069,21 +37195,21 @@
       </c>
       <c r="C8" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="8">
         <f>'1º Vuelta'!D10+'1º Vuelta'!L10+'1º Vuelta'!T10+'1º Vuelta'!AB10+'1º Vuelta'!AJ10+'1º Vuelta'!AR10+'1º Vuelta'!AZ10+'1º Vuelta'!BH10+'1º Vuelta'!BP10+'1º Vuelta'!BX10+'1º Vuelta'!CF10+'1º Vuelta'!CN10+'1º Vuelta'!CV10+'1º Vuelta'!DD10+'1º Vuelta'!DL10+'1º Vuelta'!DT10+'1º Vuelta'!EB10</f>
-        <v>799</v>
+        <v>882</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="8">
         <f>'1º Vuelta'!E10+'1º Vuelta'!M10+'1º Vuelta'!U10+'1º Vuelta'!AC10+'1º Vuelta'!AK10+'1º Vuelta'!AS10+'1º Vuelta'!BA10+'1º Vuelta'!BI10+'1º Vuelta'!BQ10+'1º Vuelta'!BY10+'1º Vuelta'!CG10+'1º Vuelta'!CO10+'1º Vuelta'!CW10+'1º Vuelta'!DE10+'1º Vuelta'!DM10+'1º Vuelta'!DU10+'1º Vuelta'!EC10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>15</v>
@@ -37169,14 +37295,14 @@
       </c>
       <c r="C10" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="8">
         <f>'1º Vuelta'!D12+'1º Vuelta'!L12+'1º Vuelta'!T12+'1º Vuelta'!AB12+'1º Vuelta'!AJ12+'1º Vuelta'!AR12+'1º Vuelta'!AZ12+'1º Vuelta'!BH12+'1º Vuelta'!BP12+'1º Vuelta'!BX12+'1º Vuelta'!CF12+'1º Vuelta'!CN12+'1º Vuelta'!CV12+'1º Vuelta'!DD12+'1º Vuelta'!DL12+'1º Vuelta'!DT12+'1º Vuelta'!EB12</f>
-        <v>327</v>
+        <v>417</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>17</v>
@@ -37219,21 +37345,21 @@
       </c>
       <c r="C11" s="8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="8">
         <f>'1º Vuelta'!D13+'1º Vuelta'!L13+'1º Vuelta'!T13+'1º Vuelta'!AB13+'1º Vuelta'!AJ13+'1º Vuelta'!AR13+'1º Vuelta'!AZ13+'1º Vuelta'!BH13+'1º Vuelta'!BP13+'1º Vuelta'!BX13+'1º Vuelta'!CF13+'1º Vuelta'!CN13+'1º Vuelta'!CV13+'1º Vuelta'!DD13+'1º Vuelta'!DL13+'1º Vuelta'!DT13+'1º Vuelta'!EB13</f>
-        <v>604</v>
+        <v>694</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I11" s="8">
         <f>'1º Vuelta'!E13+'1º Vuelta'!M13+'1º Vuelta'!U13+'1º Vuelta'!AC13+'1º Vuelta'!AK13+'1º Vuelta'!AS13+'1º Vuelta'!BA13+'1º Vuelta'!BI13+'1º Vuelta'!BQ13+'1º Vuelta'!BY13+'1º Vuelta'!CG13+'1º Vuelta'!CO13+'1º Vuelta'!CW13+'1º Vuelta'!DE13+'1º Vuelta'!DM13+'1º Vuelta'!DU13+'1º Vuelta'!EC13</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>18</v>
@@ -37269,14 +37395,14 @@
       </c>
       <c r="C12" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="8">
         <f>'1º Vuelta'!D14+'1º Vuelta'!L14+'1º Vuelta'!T14+'1º Vuelta'!AB14+'1º Vuelta'!AJ14+'1º Vuelta'!AR14+'1º Vuelta'!AZ14+'1º Vuelta'!BH14+'1º Vuelta'!BP14+'1º Vuelta'!BX14+'1º Vuelta'!CF14+'1º Vuelta'!CN14+'1º Vuelta'!CV14+'1º Vuelta'!DD14+'1º Vuelta'!DL14+'1º Vuelta'!DT14+'1º Vuelta'!EB14</f>
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>20</v>
@@ -37371,7 +37497,7 @@
       </c>
       <c r="F14" s="8">
         <f>'1º Vuelta'!D16+'1º Vuelta'!L16+'1º Vuelta'!T16+'1º Vuelta'!AB16+'1º Vuelta'!AJ16+'1º Vuelta'!AR16+'1º Vuelta'!AZ16+'1º Vuelta'!BH16+'1º Vuelta'!BP16+'1º Vuelta'!BX16+'1º Vuelta'!CF16+'1º Vuelta'!CN16+'1º Vuelta'!CV16+'1º Vuelta'!DD16+'1º Vuelta'!DL16+'1º Vuelta'!DT16+'1º Vuelta'!EB16</f>
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>22</v>
@@ -37464,14 +37590,14 @@
       </c>
       <c r="C16" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="8">
         <f>'1º Vuelta'!D18+'1º Vuelta'!L18+'1º Vuelta'!T18+'1º Vuelta'!AB18+'1º Vuelta'!AJ18+'1º Vuelta'!AR18+'1º Vuelta'!AZ18+'1º Vuelta'!BH18+'1º Vuelta'!BP18+'1º Vuelta'!BX18+'1º Vuelta'!CF18+'1º Vuelta'!CN18+'1º Vuelta'!CV18+'1º Vuelta'!DD18+'1º Vuelta'!DL18+'1º Vuelta'!DT18+'1º Vuelta'!EB18</f>
-        <v>763</v>
+        <v>853</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>24</v>
@@ -37514,14 +37640,14 @@
       </c>
       <c r="C17" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="8">
         <f>'1º Vuelta'!D19+'1º Vuelta'!L19+'1º Vuelta'!T19+'1º Vuelta'!AB19+'1º Vuelta'!AJ19+'1º Vuelta'!AR19+'1º Vuelta'!AZ19+'1º Vuelta'!BH19+'1º Vuelta'!BP19+'1º Vuelta'!BX19+'1º Vuelta'!CF19+'1º Vuelta'!CN19+'1º Vuelta'!CV19+'1º Vuelta'!DD19+'1º Vuelta'!DL19+'1º Vuelta'!DT19+'1º Vuelta'!EB19</f>
-        <v>419</v>
+        <v>487</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>25</v>
@@ -37555,7 +37681,7 @@
         <v>102</v>
       </c>
       <c r="V17" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:22" ht="19" x14ac:dyDescent="0.25">
@@ -37564,14 +37690,14 @@
       </c>
       <c r="C18" s="8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="8">
         <f>'1º Vuelta'!D20+'1º Vuelta'!L20+'1º Vuelta'!T20+'1º Vuelta'!AB20+'1º Vuelta'!AJ20+'1º Vuelta'!AR20+'1º Vuelta'!AZ20+'1º Vuelta'!BH20+'1º Vuelta'!BP20+'1º Vuelta'!BX20+'1º Vuelta'!CF20+'1º Vuelta'!CN20+'1º Vuelta'!CV20+'1º Vuelta'!DD20+'1º Vuelta'!DL20+'1º Vuelta'!DT20+'1º Vuelta'!EB20</f>
-        <v>643</v>
+        <v>733</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>26</v>
@@ -37614,14 +37740,14 @@
       </c>
       <c r="C19" s="8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="8">
         <f>'1º Vuelta'!D21+'1º Vuelta'!L21+'1º Vuelta'!T21+'1º Vuelta'!AB21+'1º Vuelta'!AJ21+'1º Vuelta'!AR21+'1º Vuelta'!AZ21+'1º Vuelta'!BH21+'1º Vuelta'!BP21+'1º Vuelta'!BX21+'1º Vuelta'!CF21+'1º Vuelta'!CN21+'1º Vuelta'!CV21+'1º Vuelta'!DD21+'1º Vuelta'!DL21+'1º Vuelta'!DT21+'1º Vuelta'!EB21</f>
-        <v>634</v>
+        <v>724</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>27</v>
@@ -37671,7 +37797,7 @@
       </c>
       <c r="F20" s="8">
         <f>'1º Vuelta'!D22+'1º Vuelta'!L22+'1º Vuelta'!T22+'1º Vuelta'!AB22+'1º Vuelta'!AJ22+'1º Vuelta'!AR22+'1º Vuelta'!AZ22+'1º Vuelta'!BH22+'1º Vuelta'!BP22+'1º Vuelta'!BX22+'1º Vuelta'!CF22+'1º Vuelta'!CN22+'1º Vuelta'!CV22+'1º Vuelta'!DD22+'1º Vuelta'!DL22+'1º Vuelta'!DT22+'1º Vuelta'!EB22</f>
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="H20" s="6" t="s">
         <v>28</v>
@@ -37705,7 +37831,7 @@
         <v>105</v>
       </c>
       <c r="V20" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:22" ht="19" x14ac:dyDescent="0.25">
@@ -37714,21 +37840,21 @@
       </c>
       <c r="C21" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F21" s="8">
         <f>'1º Vuelta'!D23+'1º Vuelta'!L23+'1º Vuelta'!T23+'1º Vuelta'!AB23+'1º Vuelta'!AJ23+'1º Vuelta'!AR23+'1º Vuelta'!AZ23+'1º Vuelta'!BH23+'1º Vuelta'!BP23+'1º Vuelta'!BX23+'1º Vuelta'!CF23+'1º Vuelta'!CN23+'1º Vuelta'!CV23+'1º Vuelta'!DD23+'1º Vuelta'!DL23+'1º Vuelta'!DT23+'1º Vuelta'!EB23</f>
-        <v>576</v>
+        <v>666</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>29</v>
       </c>
       <c r="I21" s="8">
         <f>'1º Vuelta'!E23+'1º Vuelta'!M23+'1º Vuelta'!U23+'1º Vuelta'!AC23+'1º Vuelta'!AK23+'1º Vuelta'!AS23+'1º Vuelta'!BA23+'1º Vuelta'!BI23+'1º Vuelta'!BQ23+'1º Vuelta'!BY23+'1º Vuelta'!CG23+'1º Vuelta'!CO23+'1º Vuelta'!CW23+'1º Vuelta'!DE23+'1º Vuelta'!DM23+'1º Vuelta'!DU23+'1º Vuelta'!EC23</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>29</v>
@@ -37869,7 +37995,7 @@
         <v>105</v>
       </c>
       <c r="V31" s="22">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.2">
@@ -37885,7 +38011,7 @@
         <v>107</v>
       </c>
       <c r="V33" s="22">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="5:22" x14ac:dyDescent="0.2">
@@ -37896,30 +38022,30 @@
     </row>
     <row r="36" spans="5:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="5:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="E37" s="147" t="s">
+      <c r="E37" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="148"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="148"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="148"/>
-      <c r="K37" s="149"/>
+      <c r="F37" s="142"/>
+      <c r="G37" s="142"/>
+      <c r="H37" s="142"/>
+      <c r="I37" s="142"/>
+      <c r="J37" s="142"/>
+      <c r="K37" s="143"/>
     </row>
     <row r="38" spans="5:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="E38" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="142"/>
-      <c r="G38" s="142"/>
-      <c r="H38" s="145" t="s">
+      <c r="E38" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="145"/>
-      <c r="J38" s="143" t="s">
+      <c r="I38" s="144"/>
+      <c r="J38" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="144"/>
+      <c r="K38" s="146"/>
     </row>
     <row r="39" spans="5:22" ht="19" x14ac:dyDescent="0.25">
       <c r="E39" s="14" t="s">
@@ -37950,11 +38076,11 @@
       </c>
       <c r="F40" s="7">
         <f>'1º Vuelta'!C5+'1º Vuelta'!K5+'1º Vuelta'!S5+'1º Vuelta'!AA5+'1º Vuelta'!AI5+'1º Vuelta'!AQ5+'1º Vuelta'!AY5+'1º Vuelta'!BG5+'1º Vuelta'!BO5+'1º Vuelta'!BW5+'1º Vuelta'!CE5+'1º Vuelta'!CM5+'1º Vuelta'!CU5+'1º Vuelta'!DC5+'1º Vuelta'!DK5+'1º Vuelta'!DS5+'1º Vuelta'!EA5</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G40" s="7">
         <f>'1º Vuelta'!D5+'1º Vuelta'!L5+'1º Vuelta'!T5+'1º Vuelta'!AB5+'1º Vuelta'!AJ5+'1º Vuelta'!AR5+'1º Vuelta'!AZ5+'1º Vuelta'!BH5+'1º Vuelta'!BP5+'1º Vuelta'!BX5+'1º Vuelta'!CF5+'1º Vuelta'!CN5+'1º Vuelta'!CV5+'1º Vuelta'!DD5+'1º Vuelta'!DL5+'1º Vuelta'!DT5+'1º Vuelta'!EB5</f>
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="H40" s="7">
         <f>'1º Vuelta'!E5+'1º Vuelta'!M5+'1º Vuelta'!U5+'1º Vuelta'!AC5+'1º Vuelta'!AK5+'1º Vuelta'!AS5+'1º Vuelta'!BA5+'1º Vuelta'!BI5+'1º Vuelta'!BQ5+'1º Vuelta'!BY5+'1º Vuelta'!CG5+'1º Vuelta'!CO5+'1º Vuelta'!CW5+'1º Vuelta'!DE5+'1º Vuelta'!DM5+'1º Vuelta'!DU5+'1º Vuelta'!EC5</f>
@@ -38012,7 +38138,7 @@
       </c>
       <c r="G42" s="7">
         <f>'1º Vuelta'!D7+'1º Vuelta'!L7+'1º Vuelta'!T7+'1º Vuelta'!AB7+'1º Vuelta'!AJ7+'1º Vuelta'!AR7+'1º Vuelta'!AZ7+'1º Vuelta'!BH7+'1º Vuelta'!BP7+'1º Vuelta'!BX7+'1º Vuelta'!CF7+'1º Vuelta'!CN7+'1º Vuelta'!CV7+'1º Vuelta'!DD7+'1º Vuelta'!DL7+'1º Vuelta'!DT7+'1º Vuelta'!EB7</f>
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="H42" s="7">
         <f>'1º Vuelta'!E7+'1º Vuelta'!M7+'1º Vuelta'!U7+'1º Vuelta'!AC7+'1º Vuelta'!AK7+'1º Vuelta'!AS7+'1º Vuelta'!BA7+'1º Vuelta'!BI7+'1º Vuelta'!BQ7+'1º Vuelta'!BY7+'1º Vuelta'!CG7+'1º Vuelta'!CO7+'1º Vuelta'!CW7+'1º Vuelta'!DE7+'1º Vuelta'!DM7+'1º Vuelta'!DU7+'1º Vuelta'!EC7</f>
@@ -38066,11 +38192,11 @@
       </c>
       <c r="F44" s="7">
         <f>'1º Vuelta'!C9+'1º Vuelta'!K9+'1º Vuelta'!S9+'1º Vuelta'!AA9+'1º Vuelta'!AI9+'1º Vuelta'!AQ9+'1º Vuelta'!AY9+'1º Vuelta'!BG9+'1º Vuelta'!BO9+'1º Vuelta'!BW9+'1º Vuelta'!CE9+'1º Vuelta'!CM9+'1º Vuelta'!CU9+'1º Vuelta'!DC9+'1º Vuelta'!DK9+'1º Vuelta'!DS9+'1º Vuelta'!EA9</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G44" s="7">
         <f>'1º Vuelta'!D9+'1º Vuelta'!L9+'1º Vuelta'!T9+'1º Vuelta'!AB9+'1º Vuelta'!AJ9+'1º Vuelta'!AR9+'1º Vuelta'!AZ9+'1º Vuelta'!BH9+'1º Vuelta'!BP9+'1º Vuelta'!BX9+'1º Vuelta'!CF9+'1º Vuelta'!CN9+'1º Vuelta'!CV9+'1º Vuelta'!DD9+'1º Vuelta'!DL9+'1º Vuelta'!DT9+'1º Vuelta'!EB9</f>
-        <v>398</v>
+        <v>488</v>
       </c>
       <c r="H44" s="7">
         <f>'1º Vuelta'!E9+'1º Vuelta'!M9+'1º Vuelta'!U9+'1º Vuelta'!AC9+'1º Vuelta'!AK9+'1º Vuelta'!AS9+'1º Vuelta'!BA9+'1º Vuelta'!BI9+'1º Vuelta'!BQ9+'1º Vuelta'!BY9+'1º Vuelta'!CG9+'1º Vuelta'!CO9+'1º Vuelta'!CW9+'1º Vuelta'!DE9+'1º Vuelta'!DM9+'1º Vuelta'!DU9+'1º Vuelta'!EC9</f>
@@ -38095,15 +38221,15 @@
       </c>
       <c r="F45" s="7">
         <f>'1º Vuelta'!C10+'1º Vuelta'!K10+'1º Vuelta'!S10+'1º Vuelta'!AA10+'1º Vuelta'!AI10+'1º Vuelta'!AQ10+'1º Vuelta'!AY10+'1º Vuelta'!BG10+'1º Vuelta'!BO10+'1º Vuelta'!BW10+'1º Vuelta'!CE10+'1º Vuelta'!CM10+'1º Vuelta'!CU10+'1º Vuelta'!DC10+'1º Vuelta'!DK10+'1º Vuelta'!DS10+'1º Vuelta'!EA10</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G45" s="7">
         <f>'1º Vuelta'!D10+'1º Vuelta'!L10+'1º Vuelta'!T10+'1º Vuelta'!AB10+'1º Vuelta'!AJ10+'1º Vuelta'!AR10+'1º Vuelta'!AZ10+'1º Vuelta'!BH10+'1º Vuelta'!BP10+'1º Vuelta'!BX10+'1º Vuelta'!CF10+'1º Vuelta'!CN10+'1º Vuelta'!CV10+'1º Vuelta'!DD10+'1º Vuelta'!DL10+'1º Vuelta'!DT10+'1º Vuelta'!EB10</f>
-        <v>799</v>
+        <v>882</v>
       </c>
       <c r="H45" s="7">
         <f>'1º Vuelta'!E10+'1º Vuelta'!M10+'1º Vuelta'!U10+'1º Vuelta'!AC10+'1º Vuelta'!AK10+'1º Vuelta'!AS10+'1º Vuelta'!BA10+'1º Vuelta'!BI10+'1º Vuelta'!BQ10+'1º Vuelta'!BY10+'1º Vuelta'!CG10+'1º Vuelta'!CO10+'1º Vuelta'!CW10+'1º Vuelta'!DE10+'1º Vuelta'!DM10+'1º Vuelta'!DU10+'1º Vuelta'!EC10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="7">
         <f>'1º Vuelta'!F10+'1º Vuelta'!N10+'1º Vuelta'!V10+'1º Vuelta'!AD10+'1º Vuelta'!AL10+'1º Vuelta'!AT10+'1º Vuelta'!BB10+'1º Vuelta'!BJ10+'1º Vuelta'!BR10+'1º Vuelta'!BZ10+'1º Vuelta'!CH10+'1º Vuelta'!CP10+'1º Vuelta'!CX10+'1º Vuelta'!DF10+'1º Vuelta'!DN10+'1º Vuelta'!DV10+'1º Vuelta'!ED10</f>
@@ -38153,11 +38279,11 @@
       </c>
       <c r="F47" s="7">
         <f>'1º Vuelta'!C12+'1º Vuelta'!K12+'1º Vuelta'!S12+'1º Vuelta'!AA12+'1º Vuelta'!AI12+'1º Vuelta'!AQ12+'1º Vuelta'!AY12+'1º Vuelta'!BG12+'1º Vuelta'!BO12+'1º Vuelta'!BW12+'1º Vuelta'!CE12+'1º Vuelta'!CM12+'1º Vuelta'!CU12+'1º Vuelta'!DC12+'1º Vuelta'!DK12+'1º Vuelta'!DS12+'1º Vuelta'!EA12</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G47" s="7">
         <f>'1º Vuelta'!D12+'1º Vuelta'!L12+'1º Vuelta'!T12+'1º Vuelta'!AB12+'1º Vuelta'!AJ12+'1º Vuelta'!AR12+'1º Vuelta'!AZ12+'1º Vuelta'!BH12+'1º Vuelta'!BP12+'1º Vuelta'!BX12+'1º Vuelta'!CF12+'1º Vuelta'!CN12+'1º Vuelta'!CV12+'1º Vuelta'!DD12+'1º Vuelta'!DL12+'1º Vuelta'!DT12+'1º Vuelta'!EB12</f>
-        <v>327</v>
+        <v>417</v>
       </c>
       <c r="H47" s="7">
         <f>'1º Vuelta'!E12+'1º Vuelta'!M12+'1º Vuelta'!U12+'1º Vuelta'!AC12+'1º Vuelta'!AK12+'1º Vuelta'!AS12+'1º Vuelta'!BA12+'1º Vuelta'!BI12+'1º Vuelta'!BQ12+'1º Vuelta'!BY12+'1º Vuelta'!CG12+'1º Vuelta'!CO12+'1º Vuelta'!CW12+'1º Vuelta'!DE12+'1º Vuelta'!DM12+'1º Vuelta'!DU12+'1º Vuelta'!EC12</f>
@@ -38182,15 +38308,15 @@
       </c>
       <c r="F48" s="7">
         <f>'1º Vuelta'!C13+'1º Vuelta'!K13+'1º Vuelta'!S13+'1º Vuelta'!AA13+'1º Vuelta'!AI13+'1º Vuelta'!AQ13+'1º Vuelta'!AY13+'1º Vuelta'!BG13+'1º Vuelta'!BO13+'1º Vuelta'!BW13+'1º Vuelta'!CE13+'1º Vuelta'!CM13+'1º Vuelta'!CU13+'1º Vuelta'!DC13+'1º Vuelta'!DK13+'1º Vuelta'!DS13+'1º Vuelta'!EA13</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G48" s="7">
         <f>'1º Vuelta'!D13+'1º Vuelta'!L13+'1º Vuelta'!T13+'1º Vuelta'!AB13+'1º Vuelta'!AJ13+'1º Vuelta'!AR13+'1º Vuelta'!AZ13+'1º Vuelta'!BH13+'1º Vuelta'!BP13+'1º Vuelta'!BX13+'1º Vuelta'!CF13+'1º Vuelta'!CN13+'1º Vuelta'!CV13+'1º Vuelta'!DD13+'1º Vuelta'!DL13+'1º Vuelta'!DT13+'1º Vuelta'!EB13</f>
-        <v>604</v>
+        <v>694</v>
       </c>
       <c r="H48" s="7">
         <f>'1º Vuelta'!E13+'1º Vuelta'!M13+'1º Vuelta'!U13+'1º Vuelta'!AC13+'1º Vuelta'!AK13+'1º Vuelta'!AS13+'1º Vuelta'!BA13+'1º Vuelta'!BI13+'1º Vuelta'!BQ13+'1º Vuelta'!BY13+'1º Vuelta'!CG13+'1º Vuelta'!CO13+'1º Vuelta'!CW13+'1º Vuelta'!DE13+'1º Vuelta'!DM13+'1º Vuelta'!DU13+'1º Vuelta'!EC13</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" s="7">
         <f>'1º Vuelta'!F13+'1º Vuelta'!N13+'1º Vuelta'!V13+'1º Vuelta'!AD13+'1º Vuelta'!AL13+'1º Vuelta'!AT13+'1º Vuelta'!BB13+'1º Vuelta'!BJ13+'1º Vuelta'!BR13+'1º Vuelta'!BZ13+'1º Vuelta'!CH13+'1º Vuelta'!CP13+'1º Vuelta'!CX13+'1º Vuelta'!DF13+'1º Vuelta'!DN13+'1º Vuelta'!DV13+'1º Vuelta'!ED13</f>
@@ -38211,11 +38337,11 @@
       </c>
       <c r="F49" s="7">
         <f>'1º Vuelta'!C14+'1º Vuelta'!K14+'1º Vuelta'!S14+'1º Vuelta'!AA14+'1º Vuelta'!AI14+'1º Vuelta'!AQ14+'1º Vuelta'!AY14+'1º Vuelta'!BG14+'1º Vuelta'!BO14+'1º Vuelta'!BW14+'1º Vuelta'!CE14+'1º Vuelta'!CM14+'1º Vuelta'!CU14+'1º Vuelta'!DC14+'1º Vuelta'!DK14+'1º Vuelta'!DS14+'1º Vuelta'!EA14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="7">
         <f>'1º Vuelta'!D14+'1º Vuelta'!L14+'1º Vuelta'!T14+'1º Vuelta'!AB14+'1º Vuelta'!AJ14+'1º Vuelta'!AR14+'1º Vuelta'!AZ14+'1º Vuelta'!BH14+'1º Vuelta'!BP14+'1º Vuelta'!BX14+'1º Vuelta'!CF14+'1º Vuelta'!CN14+'1º Vuelta'!CV14+'1º Vuelta'!DD14+'1º Vuelta'!DL14+'1º Vuelta'!DT14+'1º Vuelta'!EB14</f>
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="H49" s="7">
         <f>'1º Vuelta'!E14+'1º Vuelta'!M14+'1º Vuelta'!U14+'1º Vuelta'!AC14+'1º Vuelta'!AK14+'1º Vuelta'!AS14+'1º Vuelta'!BA14+'1º Vuelta'!BI14+'1º Vuelta'!BQ14+'1º Vuelta'!BY14+'1º Vuelta'!CG14+'1º Vuelta'!CO14+'1º Vuelta'!CW14+'1º Vuelta'!DE14+'1º Vuelta'!DM14+'1º Vuelta'!DU14+'1º Vuelta'!EC14</f>
@@ -38273,7 +38399,7 @@
       </c>
       <c r="G51" s="7">
         <f>'1º Vuelta'!D16+'1º Vuelta'!L16+'1º Vuelta'!T16+'1º Vuelta'!AB16+'1º Vuelta'!AJ16+'1º Vuelta'!AR16+'1º Vuelta'!AZ16+'1º Vuelta'!BH16+'1º Vuelta'!BP16+'1º Vuelta'!BX16+'1º Vuelta'!CF16+'1º Vuelta'!CN16+'1º Vuelta'!CV16+'1º Vuelta'!DD16+'1º Vuelta'!DL16+'1º Vuelta'!DT16+'1º Vuelta'!EB16</f>
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="H51" s="7">
         <f>'1º Vuelta'!E16+'1º Vuelta'!M16+'1º Vuelta'!U16+'1º Vuelta'!AC16+'1º Vuelta'!AK16+'1º Vuelta'!AS16+'1º Vuelta'!BA16+'1º Vuelta'!BI16+'1º Vuelta'!BQ16+'1º Vuelta'!BY16+'1º Vuelta'!CG16+'1º Vuelta'!CO16+'1º Vuelta'!CW16+'1º Vuelta'!DE16+'1º Vuelta'!DM16+'1º Vuelta'!DU16+'1º Vuelta'!EC16</f>
@@ -38327,11 +38453,11 @@
       </c>
       <c r="F53" s="7">
         <f>'1º Vuelta'!C18+'1º Vuelta'!K18+'1º Vuelta'!S18+'1º Vuelta'!AA18+'1º Vuelta'!AI18+'1º Vuelta'!AQ18+'1º Vuelta'!AY18+'1º Vuelta'!BG18+'1º Vuelta'!BO18+'1º Vuelta'!BW18+'1º Vuelta'!CE18+'1º Vuelta'!CM18+'1º Vuelta'!CU18+'1º Vuelta'!DC18+'1º Vuelta'!DK18+'1º Vuelta'!DS18+'1º Vuelta'!EA18</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G53" s="7">
         <f>'1º Vuelta'!D18+'1º Vuelta'!L18+'1º Vuelta'!T18+'1º Vuelta'!AB18+'1º Vuelta'!AJ18+'1º Vuelta'!AR18+'1º Vuelta'!AZ18+'1º Vuelta'!BH18+'1º Vuelta'!BP18+'1º Vuelta'!BX18+'1º Vuelta'!CF18+'1º Vuelta'!CN18+'1º Vuelta'!CV18+'1º Vuelta'!DD18+'1º Vuelta'!DL18+'1º Vuelta'!DT18+'1º Vuelta'!EB18</f>
-        <v>763</v>
+        <v>853</v>
       </c>
       <c r="H53" s="7">
         <f>'1º Vuelta'!E18+'1º Vuelta'!M18+'1º Vuelta'!U18+'1º Vuelta'!AC18+'1º Vuelta'!AK18+'1º Vuelta'!AS18+'1º Vuelta'!BA18+'1º Vuelta'!BI18+'1º Vuelta'!BQ18+'1º Vuelta'!BY18+'1º Vuelta'!CG18+'1º Vuelta'!CO18+'1º Vuelta'!CW18+'1º Vuelta'!DE18+'1º Vuelta'!DM18+'1º Vuelta'!DU18+'1º Vuelta'!EC18</f>
@@ -38356,11 +38482,11 @@
       </c>
       <c r="F54" s="7">
         <f>'1º Vuelta'!C19+'1º Vuelta'!K19+'1º Vuelta'!S19+'1º Vuelta'!AA19+'1º Vuelta'!AI19+'1º Vuelta'!AQ19+'1º Vuelta'!AY19+'1º Vuelta'!BG19+'1º Vuelta'!BO19+'1º Vuelta'!BW19+'1º Vuelta'!CE19+'1º Vuelta'!CM19+'1º Vuelta'!CU19+'1º Vuelta'!DC19+'1º Vuelta'!DK19+'1º Vuelta'!DS19+'1º Vuelta'!EA19</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G54" s="7">
         <f>'1º Vuelta'!D19+'1º Vuelta'!L19+'1º Vuelta'!T19+'1º Vuelta'!AB19+'1º Vuelta'!AJ19+'1º Vuelta'!AR19+'1º Vuelta'!AZ19+'1º Vuelta'!BH19+'1º Vuelta'!BP19+'1º Vuelta'!BX19+'1º Vuelta'!CF19+'1º Vuelta'!CN19+'1º Vuelta'!CV19+'1º Vuelta'!DD19+'1º Vuelta'!DL19+'1º Vuelta'!DT19+'1º Vuelta'!EB19</f>
-        <v>419</v>
+        <v>487</v>
       </c>
       <c r="H54" s="7">
         <f>'1º Vuelta'!E19+'1º Vuelta'!M19+'1º Vuelta'!U19+'1º Vuelta'!AC19+'1º Vuelta'!AK19+'1º Vuelta'!AS19+'1º Vuelta'!BA19+'1º Vuelta'!BI19+'1º Vuelta'!BQ19+'1º Vuelta'!BY19+'1º Vuelta'!CG19+'1º Vuelta'!CO19+'1º Vuelta'!CW19+'1º Vuelta'!DE19+'1º Vuelta'!DM19+'1º Vuelta'!DU19+'1º Vuelta'!EC19</f>
@@ -38385,11 +38511,11 @@
       </c>
       <c r="F55" s="7">
         <f>'1º Vuelta'!C20+'1º Vuelta'!K20+'1º Vuelta'!S20+'1º Vuelta'!AA20+'1º Vuelta'!AI20+'1º Vuelta'!AQ20+'1º Vuelta'!AY20+'1º Vuelta'!BG20+'1º Vuelta'!BO20+'1º Vuelta'!BW20+'1º Vuelta'!CE20+'1º Vuelta'!CM20+'1º Vuelta'!CU20+'1º Vuelta'!DC20+'1º Vuelta'!DK20+'1º Vuelta'!DS20+'1º Vuelta'!EA20</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G55" s="7">
         <f>'1º Vuelta'!D20+'1º Vuelta'!L20+'1º Vuelta'!T20+'1º Vuelta'!AB20+'1º Vuelta'!AJ20+'1º Vuelta'!AR20+'1º Vuelta'!AZ20+'1º Vuelta'!BH20+'1º Vuelta'!BP20+'1º Vuelta'!BX20+'1º Vuelta'!CF20+'1º Vuelta'!CN20+'1º Vuelta'!CV20+'1º Vuelta'!DD20+'1º Vuelta'!DL20+'1º Vuelta'!DT20+'1º Vuelta'!EB20</f>
-        <v>643</v>
+        <v>733</v>
       </c>
       <c r="H55" s="7">
         <f>'1º Vuelta'!E20+'1º Vuelta'!M20+'1º Vuelta'!U20+'1º Vuelta'!AC20+'1º Vuelta'!AK20+'1º Vuelta'!AS20+'1º Vuelta'!BA20+'1º Vuelta'!BI20+'1º Vuelta'!BQ20+'1º Vuelta'!BY20+'1º Vuelta'!CG20+'1º Vuelta'!CO20+'1º Vuelta'!CW20+'1º Vuelta'!DE20+'1º Vuelta'!DM20+'1º Vuelta'!DU20+'1º Vuelta'!EC20</f>
@@ -38414,11 +38540,11 @@
       </c>
       <c r="F56" s="7">
         <f>'1º Vuelta'!C21+'1º Vuelta'!K21+'1º Vuelta'!S21+'1º Vuelta'!AA21+'1º Vuelta'!AI21+'1º Vuelta'!AQ21+'1º Vuelta'!AY21+'1º Vuelta'!BG21+'1º Vuelta'!BO21+'1º Vuelta'!BW21+'1º Vuelta'!CE21+'1º Vuelta'!CM21+'1º Vuelta'!CU21+'1º Vuelta'!DC21+'1º Vuelta'!DK21+'1º Vuelta'!DS21+'1º Vuelta'!EA21</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G56" s="7">
         <f>'1º Vuelta'!D21+'1º Vuelta'!L21+'1º Vuelta'!T21+'1º Vuelta'!AB21+'1º Vuelta'!AJ21+'1º Vuelta'!AR21+'1º Vuelta'!AZ21+'1º Vuelta'!BH21+'1º Vuelta'!BP21+'1º Vuelta'!BX21+'1º Vuelta'!CF21+'1º Vuelta'!CN21+'1º Vuelta'!CV21+'1º Vuelta'!DD21+'1º Vuelta'!DL21+'1º Vuelta'!DT21+'1º Vuelta'!EB21</f>
-        <v>634</v>
+        <v>724</v>
       </c>
       <c r="H56" s="7">
         <f>'1º Vuelta'!E21+'1º Vuelta'!M21+'1º Vuelta'!U21+'1º Vuelta'!AC21+'1º Vuelta'!AK21+'1º Vuelta'!AS21+'1º Vuelta'!BA21+'1º Vuelta'!BI21+'1º Vuelta'!BQ21+'1º Vuelta'!BY21+'1º Vuelta'!CG21+'1º Vuelta'!CO21+'1º Vuelta'!CW21+'1º Vuelta'!DE21+'1º Vuelta'!DM21+'1º Vuelta'!DU21+'1º Vuelta'!EC21</f>
@@ -38447,7 +38573,7 @@
       </c>
       <c r="G57" s="7">
         <f>'1º Vuelta'!D22+'1º Vuelta'!L22+'1º Vuelta'!T22+'1º Vuelta'!AB22+'1º Vuelta'!AJ22+'1º Vuelta'!AR22+'1º Vuelta'!AZ22+'1º Vuelta'!BH22+'1º Vuelta'!BP22+'1º Vuelta'!BX22+'1º Vuelta'!CF22+'1º Vuelta'!CN22+'1º Vuelta'!CV22+'1º Vuelta'!DD22+'1º Vuelta'!DL22+'1º Vuelta'!DT22+'1º Vuelta'!EB22</f>
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="H57" s="7">
         <f>'1º Vuelta'!E22+'1º Vuelta'!M22+'1º Vuelta'!U22+'1º Vuelta'!AC22+'1º Vuelta'!AK22+'1º Vuelta'!AS22+'1º Vuelta'!BA22+'1º Vuelta'!BI22+'1º Vuelta'!BQ22+'1º Vuelta'!BY22+'1º Vuelta'!CG22+'1º Vuelta'!CO22+'1º Vuelta'!CW22+'1º Vuelta'!DE22+'1º Vuelta'!DM22+'1º Vuelta'!DU22+'1º Vuelta'!EC22</f>
@@ -38472,15 +38598,15 @@
       </c>
       <c r="F58" s="7">
         <f>'1º Vuelta'!C23+'1º Vuelta'!K23+'1º Vuelta'!S23+'1º Vuelta'!AA23+'1º Vuelta'!AI23+'1º Vuelta'!AQ23+'1º Vuelta'!AY23+'1º Vuelta'!BG23+'1º Vuelta'!BO23+'1º Vuelta'!BW23+'1º Vuelta'!CE23+'1º Vuelta'!CM23+'1º Vuelta'!CU23+'1º Vuelta'!DC23+'1º Vuelta'!DK23+'1º Vuelta'!DS23+'1º Vuelta'!EA23</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G58" s="7">
         <f>'1º Vuelta'!D23+'1º Vuelta'!L23+'1º Vuelta'!T23+'1º Vuelta'!AB23+'1º Vuelta'!AJ23+'1º Vuelta'!AR23+'1º Vuelta'!AZ23+'1º Vuelta'!BH23+'1º Vuelta'!BP23+'1º Vuelta'!BX23+'1º Vuelta'!CF23+'1º Vuelta'!CN23+'1º Vuelta'!CV23+'1º Vuelta'!DD23+'1º Vuelta'!DL23+'1º Vuelta'!DT23+'1º Vuelta'!EB23</f>
-        <v>576</v>
+        <v>666</v>
       </c>
       <c r="H58" s="7">
         <f>'1º Vuelta'!E23+'1º Vuelta'!M23+'1º Vuelta'!U23+'1º Vuelta'!AC23+'1º Vuelta'!AK23+'1º Vuelta'!AS23+'1º Vuelta'!BA23+'1º Vuelta'!BI23+'1º Vuelta'!BQ23+'1º Vuelta'!BY23+'1º Vuelta'!CG23+'1º Vuelta'!CO23+'1º Vuelta'!CW23+'1º Vuelta'!DE23+'1º Vuelta'!DM23+'1º Vuelta'!DU23+'1º Vuelta'!EC23</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I58" s="7">
         <f>'1º Vuelta'!F23+'1º Vuelta'!N23+'1º Vuelta'!V23+'1º Vuelta'!AD23+'1º Vuelta'!AL23+'1º Vuelta'!AT23+'1º Vuelta'!BB23+'1º Vuelta'!BJ23+'1º Vuelta'!BR23+'1º Vuelta'!BZ23+'1º Vuelta'!CH23+'1º Vuelta'!CP23+'1º Vuelta'!CX23+'1º Vuelta'!DF23+'1º Vuelta'!DN23+'1º Vuelta'!DV23+'1º Vuelta'!ED23</f>
@@ -38636,382 +38762,382 @@
   <sheetData>
     <row r="1" spans="2:136" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B2" s="147" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="149"/>
-      <c r="J2" s="147" t="s">
+      <c r="B2" s="141" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="143"/>
+      <c r="J2" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="149"/>
-      <c r="R2" s="147" t="s">
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="143"/>
+      <c r="R2" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="148"/>
-      <c r="T2" s="148"/>
-      <c r="U2" s="148"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="148"/>
-      <c r="X2" s="149"/>
-      <c r="Z2" s="147" t="s">
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="143"/>
+      <c r="Z2" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="148"/>
-      <c r="AB2" s="148"/>
-      <c r="AC2" s="148"/>
-      <c r="AD2" s="148"/>
-      <c r="AE2" s="148"/>
-      <c r="AF2" s="149"/>
-      <c r="AH2" s="147" t="s">
+      <c r="AA2" s="142"/>
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="142"/>
+      <c r="AD2" s="142"/>
+      <c r="AE2" s="142"/>
+      <c r="AF2" s="143"/>
+      <c r="AH2" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="148"/>
-      <c r="AJ2" s="148"/>
-      <c r="AK2" s="148"/>
-      <c r="AL2" s="148"/>
-      <c r="AM2" s="148"/>
-      <c r="AN2" s="149"/>
-      <c r="AP2" s="147" t="s">
+      <c r="AI2" s="142"/>
+      <c r="AJ2" s="142"/>
+      <c r="AK2" s="142"/>
+      <c r="AL2" s="142"/>
+      <c r="AM2" s="142"/>
+      <c r="AN2" s="143"/>
+      <c r="AP2" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="AQ2" s="148"/>
-      <c r="AR2" s="148"/>
-      <c r="AS2" s="148"/>
-      <c r="AT2" s="148"/>
-      <c r="AU2" s="148"/>
-      <c r="AV2" s="149"/>
-      <c r="AX2" s="147" t="s">
+      <c r="AQ2" s="142"/>
+      <c r="AR2" s="142"/>
+      <c r="AS2" s="142"/>
+      <c r="AT2" s="142"/>
+      <c r="AU2" s="142"/>
+      <c r="AV2" s="143"/>
+      <c r="AX2" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="AY2" s="148"/>
-      <c r="AZ2" s="148"/>
-      <c r="BA2" s="148"/>
-      <c r="BB2" s="148"/>
-      <c r="BC2" s="148"/>
-      <c r="BD2" s="149"/>
-      <c r="BF2" s="147" t="s">
+      <c r="AY2" s="142"/>
+      <c r="AZ2" s="142"/>
+      <c r="BA2" s="142"/>
+      <c r="BB2" s="142"/>
+      <c r="BC2" s="142"/>
+      <c r="BD2" s="143"/>
+      <c r="BF2" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="BG2" s="148"/>
-      <c r="BH2" s="148"/>
-      <c r="BI2" s="148"/>
-      <c r="BJ2" s="148"/>
-      <c r="BK2" s="148"/>
-      <c r="BL2" s="149"/>
-      <c r="BN2" s="147" t="s">
+      <c r="BG2" s="142"/>
+      <c r="BH2" s="142"/>
+      <c r="BI2" s="142"/>
+      <c r="BJ2" s="142"/>
+      <c r="BK2" s="142"/>
+      <c r="BL2" s="143"/>
+      <c r="BN2" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="BO2" s="148"/>
-      <c r="BP2" s="148"/>
-      <c r="BQ2" s="148"/>
-      <c r="BR2" s="148"/>
-      <c r="BS2" s="148"/>
-      <c r="BT2" s="149"/>
-      <c r="BV2" s="147" t="s">
+      <c r="BO2" s="142"/>
+      <c r="BP2" s="142"/>
+      <c r="BQ2" s="142"/>
+      <c r="BR2" s="142"/>
+      <c r="BS2" s="142"/>
+      <c r="BT2" s="143"/>
+      <c r="BV2" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="BW2" s="148"/>
-      <c r="BX2" s="148"/>
-      <c r="BY2" s="148"/>
-      <c r="BZ2" s="148"/>
-      <c r="CA2" s="148"/>
-      <c r="CB2" s="149"/>
-      <c r="CD2" s="147" t="s">
+      <c r="BW2" s="142"/>
+      <c r="BX2" s="142"/>
+      <c r="BY2" s="142"/>
+      <c r="BZ2" s="142"/>
+      <c r="CA2" s="142"/>
+      <c r="CB2" s="143"/>
+      <c r="CD2" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="CE2" s="148"/>
-      <c r="CF2" s="148"/>
-      <c r="CG2" s="148"/>
-      <c r="CH2" s="148"/>
-      <c r="CI2" s="148"/>
-      <c r="CJ2" s="149"/>
-      <c r="CL2" s="147" t="s">
+      <c r="CE2" s="142"/>
+      <c r="CF2" s="142"/>
+      <c r="CG2" s="142"/>
+      <c r="CH2" s="142"/>
+      <c r="CI2" s="142"/>
+      <c r="CJ2" s="143"/>
+      <c r="CL2" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="CM2" s="148"/>
-      <c r="CN2" s="148"/>
-      <c r="CO2" s="148"/>
-      <c r="CP2" s="148"/>
-      <c r="CQ2" s="148"/>
-      <c r="CR2" s="149"/>
-      <c r="CT2" s="147" t="s">
+      <c r="CM2" s="142"/>
+      <c r="CN2" s="142"/>
+      <c r="CO2" s="142"/>
+      <c r="CP2" s="142"/>
+      <c r="CQ2" s="142"/>
+      <c r="CR2" s="143"/>
+      <c r="CT2" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="CU2" s="148"/>
-      <c r="CV2" s="148"/>
-      <c r="CW2" s="148"/>
-      <c r="CX2" s="148"/>
-      <c r="CY2" s="148"/>
-      <c r="CZ2" s="149"/>
-      <c r="DB2" s="147" t="s">
+      <c r="CU2" s="142"/>
+      <c r="CV2" s="142"/>
+      <c r="CW2" s="142"/>
+      <c r="CX2" s="142"/>
+      <c r="CY2" s="142"/>
+      <c r="CZ2" s="143"/>
+      <c r="DB2" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="DC2" s="148"/>
-      <c r="DD2" s="148"/>
-      <c r="DE2" s="148"/>
-      <c r="DF2" s="148"/>
-      <c r="DG2" s="148"/>
-      <c r="DH2" s="149"/>
-      <c r="DJ2" s="147" t="s">
+      <c r="DC2" s="142"/>
+      <c r="DD2" s="142"/>
+      <c r="DE2" s="142"/>
+      <c r="DF2" s="142"/>
+      <c r="DG2" s="142"/>
+      <c r="DH2" s="143"/>
+      <c r="DJ2" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="DK2" s="148"/>
-      <c r="DL2" s="148"/>
-      <c r="DM2" s="148"/>
-      <c r="DN2" s="148"/>
-      <c r="DO2" s="148"/>
-      <c r="DP2" s="149"/>
-      <c r="DR2" s="147" t="s">
+      <c r="DK2" s="142"/>
+      <c r="DL2" s="142"/>
+      <c r="DM2" s="142"/>
+      <c r="DN2" s="142"/>
+      <c r="DO2" s="142"/>
+      <c r="DP2" s="143"/>
+      <c r="DR2" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="DS2" s="148"/>
-      <c r="DT2" s="148"/>
-      <c r="DU2" s="148"/>
-      <c r="DV2" s="148"/>
-      <c r="DW2" s="148"/>
-      <c r="DX2" s="149"/>
-      <c r="DZ2" s="147" t="s">
+      <c r="DS2" s="142"/>
+      <c r="DT2" s="142"/>
+      <c r="DU2" s="142"/>
+      <c r="DV2" s="142"/>
+      <c r="DW2" s="142"/>
+      <c r="DX2" s="143"/>
+      <c r="DZ2" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="EA2" s="148"/>
-      <c r="EB2" s="148"/>
-      <c r="EC2" s="148"/>
-      <c r="ED2" s="148"/>
-      <c r="EE2" s="148"/>
-      <c r="EF2" s="149"/>
+      <c r="EA2" s="142"/>
+      <c r="EB2" s="142"/>
+      <c r="EC2" s="142"/>
+      <c r="ED2" s="142"/>
+      <c r="EE2" s="142"/>
+      <c r="EF2" s="143"/>
     </row>
     <row r="3" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="145" t="s">
+      <c r="B3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="143" t="s">
+      <c r="F3" s="144"/>
+      <c r="G3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="144"/>
-      <c r="J3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="145" t="s">
+      <c r="H3" s="146"/>
+      <c r="J3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="145"/>
-      <c r="O3" s="143" t="s">
+      <c r="N3" s="144"/>
+      <c r="O3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="144"/>
-      <c r="R3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="145" t="s">
+      <c r="P3" s="146"/>
+      <c r="R3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="148"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="145"/>
-      <c r="W3" s="143" t="s">
+      <c r="V3" s="144"/>
+      <c r="W3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="144"/>
-      <c r="Z3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="145" t="s">
+      <c r="X3" s="146"/>
+      <c r="Z3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="148"/>
+      <c r="AB3" s="148"/>
+      <c r="AC3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="143" t="s">
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="144"/>
-      <c r="AH3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="142"/>
-      <c r="AJ3" s="142"/>
-      <c r="AK3" s="145" t="s">
+      <c r="AF3" s="146"/>
+      <c r="AH3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="148"/>
+      <c r="AJ3" s="148"/>
+      <c r="AK3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="145"/>
-      <c r="AM3" s="143" t="s">
+      <c r="AL3" s="144"/>
+      <c r="AM3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="144"/>
-      <c r="AP3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="142"/>
-      <c r="AR3" s="142"/>
-      <c r="AS3" s="145" t="s">
+      <c r="AN3" s="146"/>
+      <c r="AP3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="148"/>
+      <c r="AR3" s="148"/>
+      <c r="AS3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="145"/>
-      <c r="AU3" s="143" t="s">
+      <c r="AT3" s="144"/>
+      <c r="AU3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="144"/>
-      <c r="AX3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="142"/>
-      <c r="AZ3" s="142"/>
-      <c r="BA3" s="145" t="s">
+      <c r="AV3" s="146"/>
+      <c r="AX3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="148"/>
+      <c r="AZ3" s="148"/>
+      <c r="BA3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BB3" s="145"/>
-      <c r="BC3" s="143" t="s">
+      <c r="BB3" s="144"/>
+      <c r="BC3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="144"/>
-      <c r="BF3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="142"/>
-      <c r="BH3" s="142"/>
-      <c r="BI3" s="145" t="s">
+      <c r="BD3" s="146"/>
+      <c r="BF3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="148"/>
+      <c r="BH3" s="148"/>
+      <c r="BI3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BJ3" s="145"/>
-      <c r="BK3" s="143" t="s">
+      <c r="BJ3" s="144"/>
+      <c r="BK3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="144"/>
-      <c r="BN3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="142"/>
-      <c r="BP3" s="142"/>
-      <c r="BQ3" s="145" t="s">
+      <c r="BL3" s="146"/>
+      <c r="BN3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="148"/>
+      <c r="BP3" s="148"/>
+      <c r="BQ3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="145"/>
-      <c r="BS3" s="143" t="s">
+      <c r="BR3" s="144"/>
+      <c r="BS3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="144"/>
-      <c r="BV3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="142"/>
-      <c r="BX3" s="142"/>
-      <c r="BY3" s="145" t="s">
+      <c r="BT3" s="146"/>
+      <c r="BV3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="148"/>
+      <c r="BX3" s="148"/>
+      <c r="BY3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="BZ3" s="145"/>
-      <c r="CA3" s="143" t="s">
+      <c r="BZ3" s="144"/>
+      <c r="CA3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="144"/>
-      <c r="CD3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="142"/>
-      <c r="CF3" s="142"/>
-      <c r="CG3" s="145" t="s">
+      <c r="CB3" s="146"/>
+      <c r="CD3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="148"/>
+      <c r="CF3" s="148"/>
+      <c r="CG3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="CH3" s="145"/>
-      <c r="CI3" s="143" t="s">
+      <c r="CH3" s="144"/>
+      <c r="CI3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CJ3" s="144"/>
-      <c r="CL3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="142"/>
-      <c r="CN3" s="142"/>
-      <c r="CO3" s="145" t="s">
+      <c r="CJ3" s="146"/>
+      <c r="CL3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="148"/>
+      <c r="CN3" s="148"/>
+      <c r="CO3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="CP3" s="145"/>
-      <c r="CQ3" s="143" t="s">
+      <c r="CP3" s="144"/>
+      <c r="CQ3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CR3" s="144"/>
-      <c r="CT3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="142"/>
-      <c r="CV3" s="142"/>
-      <c r="CW3" s="145" t="s">
+      <c r="CR3" s="146"/>
+      <c r="CT3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="148"/>
+      <c r="CV3" s="148"/>
+      <c r="CW3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="CX3" s="145"/>
-      <c r="CY3" s="143" t="s">
+      <c r="CX3" s="144"/>
+      <c r="CY3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="CZ3" s="144"/>
-      <c r="DB3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="DC3" s="142"/>
-      <c r="DD3" s="142"/>
-      <c r="DE3" s="145" t="s">
+      <c r="CZ3" s="146"/>
+      <c r="DB3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="148"/>
+      <c r="DD3" s="148"/>
+      <c r="DE3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="DF3" s="145"/>
-      <c r="DG3" s="143" t="s">
+      <c r="DF3" s="144"/>
+      <c r="DG3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="DH3" s="144"/>
-      <c r="DJ3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="DK3" s="142"/>
-      <c r="DL3" s="142"/>
-      <c r="DM3" s="145" t="s">
+      <c r="DH3" s="146"/>
+      <c r="DJ3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="148"/>
+      <c r="DL3" s="148"/>
+      <c r="DM3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="DN3" s="145"/>
-      <c r="DO3" s="143" t="s">
+      <c r="DN3" s="144"/>
+      <c r="DO3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="DP3" s="144"/>
-      <c r="DR3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS3" s="142"/>
-      <c r="DT3" s="142"/>
-      <c r="DU3" s="145" t="s">
+      <c r="DP3" s="146"/>
+      <c r="DR3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS3" s="148"/>
+      <c r="DT3" s="148"/>
+      <c r="DU3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="DV3" s="145"/>
-      <c r="DW3" s="143" t="s">
+      <c r="DV3" s="144"/>
+      <c r="DW3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="DX3" s="144"/>
-      <c r="DZ3" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="EA3" s="142"/>
-      <c r="EB3" s="142"/>
-      <c r="EC3" s="145" t="s">
+      <c r="DX3" s="146"/>
+      <c r="DZ3" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="148"/>
+      <c r="EB3" s="148"/>
+      <c r="EC3" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="ED3" s="145"/>
-      <c r="EE3" s="143" t="s">
+      <c r="ED3" s="144"/>
+      <c r="EE3" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="EF3" s="144"/>
+      <c r="EF3" s="146"/>
     </row>
     <row r="4" spans="2:136" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -42784,6 +42910,62 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="DW3:DX3"/>
+    <mergeCell ref="DZ3:EB3"/>
+    <mergeCell ref="EC3:ED3"/>
+    <mergeCell ref="EE3:EF3"/>
+    <mergeCell ref="DG3:DH3"/>
+    <mergeCell ref="DJ3:DL3"/>
+    <mergeCell ref="DM3:DN3"/>
+    <mergeCell ref="DO3:DP3"/>
+    <mergeCell ref="DR3:DT3"/>
+    <mergeCell ref="DU3:DV3"/>
+    <mergeCell ref="DE3:DF3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="CG3:CH3"/>
+    <mergeCell ref="CI3:CJ3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="CQ3:CR3"/>
+    <mergeCell ref="CT3:CV3"/>
+    <mergeCell ref="CW3:CX3"/>
+    <mergeCell ref="CY3:CZ3"/>
+    <mergeCell ref="DB3:DD3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="DB2:DH2"/>
+    <mergeCell ref="DJ2:DP2"/>
+    <mergeCell ref="DR2:DX2"/>
+    <mergeCell ref="DZ2:EF2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="CL2:CR2"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="J2:P2"/>
@@ -42796,62 +42978,6 @@
     <mergeCell ref="BN2:BT2"/>
     <mergeCell ref="BV2:CB2"/>
     <mergeCell ref="CD2:CJ2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="DB2:DH2"/>
-    <mergeCell ref="DJ2:DP2"/>
-    <mergeCell ref="DR2:DX2"/>
-    <mergeCell ref="DZ2:EF2"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="DE3:DF3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="CG3:CH3"/>
-    <mergeCell ref="CI3:CJ3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="CQ3:CR3"/>
-    <mergeCell ref="CT3:CV3"/>
-    <mergeCell ref="CW3:CX3"/>
-    <mergeCell ref="CY3:CZ3"/>
-    <mergeCell ref="DB3:DD3"/>
-    <mergeCell ref="DW3:DX3"/>
-    <mergeCell ref="DZ3:EB3"/>
-    <mergeCell ref="EC3:ED3"/>
-    <mergeCell ref="EE3:EF3"/>
-    <mergeCell ref="DG3:DH3"/>
-    <mergeCell ref="DJ3:DL3"/>
-    <mergeCell ref="DM3:DN3"/>
-    <mergeCell ref="DO3:DP3"/>
-    <mergeCell ref="DR3:DT3"/>
-    <mergeCell ref="DU3:DV3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43729,30 +43855,30 @@
     </row>
     <row r="38" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="3:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="C39" s="147" t="s">
+      <c r="C39" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="148"/>
-      <c r="E39" s="148"/>
-      <c r="F39" s="148"/>
-      <c r="G39" s="148"/>
-      <c r="H39" s="148"/>
-      <c r="I39" s="149"/>
+      <c r="D39" s="142"/>
+      <c r="E39" s="142"/>
+      <c r="F39" s="142"/>
+      <c r="G39" s="142"/>
+      <c r="H39" s="142"/>
+      <c r="I39" s="143"/>
     </row>
     <row r="40" spans="3:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="C40" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="142"/>
-      <c r="E40" s="142"/>
-      <c r="F40" s="145" t="s">
+      <c r="C40" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="145"/>
-      <c r="H40" s="143" t="s">
+      <c r="G40" s="144"/>
+      <c r="H40" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="144"/>
+      <c r="I40" s="146"/>
     </row>
     <row r="41" spans="3:9" ht="19" x14ac:dyDescent="0.25">
       <c r="C41" s="14" t="s">
@@ -44499,14 +44625,14 @@
       </c>
       <c r="D3" s="8">
         <f>G42</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="8">
         <f t="shared" ref="G3:G24" si="0">H42</f>
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>10</v>
@@ -44594,7 +44720,7 @@
       </c>
       <c r="G5" s="8">
         <f t="shared" si="0"/>
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>12</v>
@@ -44675,14 +44801,14 @@
       </c>
       <c r="D7" s="8">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="0"/>
-        <v>398</v>
+        <v>488</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>14</v>
@@ -44719,21 +44845,21 @@
       </c>
       <c r="D8" s="8">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>799</v>
+        <v>882</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>15</v>
@@ -44807,14 +44933,14 @@
       </c>
       <c r="D10" s="8">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
-        <v>327</v>
+        <v>417</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>17</v>
@@ -44851,21 +44977,21 @@
       </c>
       <c r="D11" s="8">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>604</v>
+        <v>694</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>18</v>
@@ -44939,14 +45065,14 @@
       </c>
       <c r="D13" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>20</v>
@@ -45034,7 +45160,7 @@
       </c>
       <c r="G15" s="8">
         <f t="shared" si="0"/>
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>22</v>
@@ -45115,14 +45241,14 @@
       </c>
       <c r="D17" s="8">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="0"/>
-        <v>763</v>
+        <v>853</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>24</v>
@@ -45159,14 +45285,14 @@
       </c>
       <c r="D18" s="8">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="0"/>
-        <v>419</v>
+        <v>487</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>25</v>
@@ -45203,14 +45329,14 @@
       </c>
       <c r="D19" s="8">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="0"/>
-        <v>643</v>
+        <v>733</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>26</v>
@@ -45247,14 +45373,14 @@
       </c>
       <c r="D20" s="8">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>634</v>
+        <v>724</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>27</v>
@@ -45298,7 +45424,7 @@
       </c>
       <c r="G21" s="8">
         <f t="shared" si="0"/>
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>28</v>
@@ -45335,21 +45461,21 @@
       </c>
       <c r="D22" s="8">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>576</v>
+        <v>666</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>29</v>
@@ -45474,19 +45600,19 @@
       <c r="L39" s="152"/>
     </row>
     <row r="40" spans="6:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="F40" s="141" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="142"/>
-      <c r="H40" s="142"/>
-      <c r="I40" s="145" t="s">
+      <c r="F40" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="145"/>
-      <c r="K40" s="143" t="s">
+      <c r="J40" s="144"/>
+      <c r="K40" s="145" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="144"/>
+      <c r="L40" s="146"/>
     </row>
     <row r="41" spans="6:12" ht="19" x14ac:dyDescent="0.25">
       <c r="F41" s="14" t="s">
@@ -45517,11 +45643,11 @@
       </c>
       <c r="G42" s="7">
         <f>'Estadisticas 1º Vuelta'!F40+'Estadisticas 2º Vuelta'!D42</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H42" s="7">
         <f>'Estadisticas 1º Vuelta'!G40+'Estadisticas 2º Vuelta'!E42</f>
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="I42" s="7">
         <f>'Estadisticas 1º Vuelta'!H40+'Estadisticas 2º Vuelta'!F42</f>
@@ -45579,7 +45705,7 @@
       </c>
       <c r="H44" s="7">
         <f>'Estadisticas 1º Vuelta'!G42+'Estadisticas 2º Vuelta'!E44</f>
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="I44" s="7">
         <f>'Estadisticas 1º Vuelta'!H42+'Estadisticas 2º Vuelta'!F44</f>
@@ -45633,11 +45759,11 @@
       </c>
       <c r="G46" s="7">
         <f>'Estadisticas 1º Vuelta'!F44+'Estadisticas 2º Vuelta'!D46</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H46" s="7">
         <f>'Estadisticas 1º Vuelta'!G44+'Estadisticas 2º Vuelta'!E46</f>
-        <v>398</v>
+        <v>488</v>
       </c>
       <c r="I46" s="7">
         <f>'Estadisticas 1º Vuelta'!H44+'Estadisticas 2º Vuelta'!F46</f>
@@ -45662,15 +45788,15 @@
       </c>
       <c r="G47" s="7">
         <f>'Estadisticas 1º Vuelta'!F45+'Estadisticas 2º Vuelta'!D47</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H47" s="7">
         <f>'Estadisticas 1º Vuelta'!G45+'Estadisticas 2º Vuelta'!E47</f>
-        <v>799</v>
+        <v>882</v>
       </c>
       <c r="I47" s="7">
         <f>'Estadisticas 1º Vuelta'!H45+'Estadisticas 2º Vuelta'!F47</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="7">
         <f>'Estadisticas 1º Vuelta'!I45+'Estadisticas 2º Vuelta'!G47</f>
@@ -45720,11 +45846,11 @@
       </c>
       <c r="G49" s="7">
         <f>'Estadisticas 1º Vuelta'!F47+'Estadisticas 2º Vuelta'!D49</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H49" s="7">
         <f>'Estadisticas 1º Vuelta'!G47+'Estadisticas 2º Vuelta'!E49</f>
-        <v>327</v>
+        <v>417</v>
       </c>
       <c r="I49" s="7">
         <f>'Estadisticas 1º Vuelta'!H47+'Estadisticas 2º Vuelta'!F49</f>
@@ -45749,15 +45875,15 @@
       </c>
       <c r="G50" s="7">
         <f>'Estadisticas 1º Vuelta'!F48+'Estadisticas 2º Vuelta'!D50</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H50" s="7">
         <f>'Estadisticas 1º Vuelta'!G48+'Estadisticas 2º Vuelta'!E50</f>
-        <v>604</v>
+        <v>694</v>
       </c>
       <c r="I50" s="7">
         <f>'Estadisticas 1º Vuelta'!H48+'Estadisticas 2º Vuelta'!F50</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" s="7">
         <f>'Estadisticas 1º Vuelta'!I48+'Estadisticas 2º Vuelta'!G50</f>
@@ -45807,11 +45933,11 @@
       </c>
       <c r="G52" s="7">
         <f>'Estadisticas 1º Vuelta'!F49+'Estadisticas 2º Vuelta'!D52</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="7">
         <f>'Estadisticas 1º Vuelta'!G49+'Estadisticas 2º Vuelta'!E52</f>
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="I52" s="7">
         <f>'Estadisticas 1º Vuelta'!H49+'Estadisticas 2º Vuelta'!F52</f>
@@ -45869,7 +45995,7 @@
       </c>
       <c r="H54" s="7">
         <f>'Estadisticas 1º Vuelta'!G51+'Estadisticas 2º Vuelta'!E54</f>
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="I54" s="7">
         <f>'Estadisticas 1º Vuelta'!H51+'Estadisticas 2º Vuelta'!F54</f>
@@ -45923,11 +46049,11 @@
       </c>
       <c r="G56" s="7">
         <f>'Estadisticas 1º Vuelta'!F53+'Estadisticas 2º Vuelta'!D56</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H56" s="7">
         <f>'Estadisticas 1º Vuelta'!G53+'Estadisticas 2º Vuelta'!E56</f>
-        <v>763</v>
+        <v>853</v>
       </c>
       <c r="I56" s="7">
         <f>'Estadisticas 1º Vuelta'!H53+'Estadisticas 2º Vuelta'!F56</f>
@@ -45952,11 +46078,11 @@
       </c>
       <c r="G57" s="7">
         <f>'Estadisticas 1º Vuelta'!F54+'Estadisticas 2º Vuelta'!D57</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H57" s="7">
         <f>'Estadisticas 1º Vuelta'!G54+'Estadisticas 2º Vuelta'!E57</f>
-        <v>419</v>
+        <v>487</v>
       </c>
       <c r="I57" s="7">
         <f>'Estadisticas 1º Vuelta'!H54+'Estadisticas 2º Vuelta'!F57</f>
@@ -45981,11 +46107,11 @@
       </c>
       <c r="G58" s="7">
         <f>'Estadisticas 1º Vuelta'!F55+'Estadisticas 2º Vuelta'!D58</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H58" s="7">
         <f>'Estadisticas 1º Vuelta'!G55+'Estadisticas 2º Vuelta'!E58</f>
-        <v>643</v>
+        <v>733</v>
       </c>
       <c r="I58" s="7">
         <f>'Estadisticas 1º Vuelta'!H55+'Estadisticas 2º Vuelta'!F58</f>
@@ -46010,11 +46136,11 @@
       </c>
       <c r="G59" s="7">
         <f>'Estadisticas 1º Vuelta'!F56+'Estadisticas 2º Vuelta'!D59</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H59" s="7">
         <f>'Estadisticas 1º Vuelta'!G56+'Estadisticas 2º Vuelta'!E59</f>
-        <v>634</v>
+        <v>724</v>
       </c>
       <c r="I59" s="7">
         <f>'Estadisticas 1º Vuelta'!H56+'Estadisticas 2º Vuelta'!F59</f>
@@ -46043,7 +46169,7 @@
       </c>
       <c r="H60" s="7">
         <f>'Estadisticas 1º Vuelta'!G57+'Estadisticas 2º Vuelta'!E60</f>
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="I60" s="7">
         <f>'Estadisticas 1º Vuelta'!H57+'Estadisticas 2º Vuelta'!F60</f>
@@ -46068,15 +46194,15 @@
       </c>
       <c r="G61" s="7">
         <f>'Estadisticas 1º Vuelta'!F58+'Estadisticas 2º Vuelta'!D61</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H61" s="7">
         <f>'Estadisticas 1º Vuelta'!G58+'Estadisticas 2º Vuelta'!E61</f>
-        <v>576</v>
+        <v>666</v>
       </c>
       <c r="I61" s="7">
         <f>'Estadisticas 1º Vuelta'!H58+'Estadisticas 2º Vuelta'!F61</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J61" s="7">
         <f>'Estadisticas 1º Vuelta'!I58+'Estadisticas 2º Vuelta'!G61</f>

--- a/SALAMANCA UDS 2324.xlsx
+++ b/SALAMANCA UDS 2324.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanalonso/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62460302-6AD2-9D46-A47D-D3F2CAC11EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EDCB70-DCD9-E741-B215-4C1DECDF8493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRETEMPORADA" sheetId="10" r:id="rId1"/>
@@ -1975,6 +1975,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1987,16 +1999,22 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2005,25 +2023,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2671,42 +2671,42 @@
       </c>
     </row>
     <row r="3" spans="2:24" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="113" t="s">
+      <c r="B3" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="114"/>
-      <c r="H3" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="113" t="s">
+      <c r="F3" s="118"/>
+      <c r="H3" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="114"/>
-      <c r="N3" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="113" t="s">
+      <c r="L3" s="118"/>
+      <c r="N3" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="114"/>
-      <c r="T3" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116"/>
-      <c r="W3" s="117" t="s">
+      <c r="R3" s="118"/>
+      <c r="T3" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="118"/>
+      <c r="X3" s="114"/>
     </row>
     <row r="4" spans="2:24" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -4042,18 +4042,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -24942,7 +24942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -27215,192 +27215,192 @@
       <c r="AF2" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="AH2" s="125" t="s">
+      <c r="AH2" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="126"/>
-      <c r="AJ2" s="126"/>
-      <c r="AK2" s="126"/>
-      <c r="AL2" s="126"/>
-      <c r="AM2" s="126"/>
-      <c r="AN2" s="127"/>
-      <c r="AP2" s="125" t="s">
+      <c r="AI2" s="120"/>
+      <c r="AJ2" s="120"/>
+      <c r="AK2" s="120"/>
+      <c r="AL2" s="120"/>
+      <c r="AM2" s="120"/>
+      <c r="AN2" s="121"/>
+      <c r="AP2" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="AQ2" s="126"/>
-      <c r="AR2" s="126"/>
-      <c r="AS2" s="126"/>
-      <c r="AT2" s="126"/>
-      <c r="AU2" s="126"/>
-      <c r="AV2" s="127"/>
-      <c r="AX2" s="125" t="s">
+      <c r="AQ2" s="120"/>
+      <c r="AR2" s="120"/>
+      <c r="AS2" s="120"/>
+      <c r="AT2" s="120"/>
+      <c r="AU2" s="120"/>
+      <c r="AV2" s="121"/>
+      <c r="AX2" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="AY2" s="126"/>
-      <c r="AZ2" s="126"/>
-      <c r="BA2" s="126"/>
-      <c r="BB2" s="126"/>
-      <c r="BC2" s="126"/>
-      <c r="BD2" s="127"/>
-      <c r="BF2" s="125" t="s">
+      <c r="AY2" s="120"/>
+      <c r="AZ2" s="120"/>
+      <c r="BA2" s="120"/>
+      <c r="BB2" s="120"/>
+      <c r="BC2" s="120"/>
+      <c r="BD2" s="121"/>
+      <c r="BF2" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="BG2" s="126"/>
-      <c r="BH2" s="126"/>
-      <c r="BI2" s="126"/>
-      <c r="BJ2" s="126"/>
-      <c r="BK2" s="126"/>
-      <c r="BL2" s="127"/>
-      <c r="BN2" s="125" t="s">
+      <c r="BG2" s="120"/>
+      <c r="BH2" s="120"/>
+      <c r="BI2" s="120"/>
+      <c r="BJ2" s="120"/>
+      <c r="BK2" s="120"/>
+      <c r="BL2" s="121"/>
+      <c r="BN2" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="BO2" s="126"/>
-      <c r="BP2" s="126"/>
-      <c r="BQ2" s="126"/>
-      <c r="BR2" s="126"/>
-      <c r="BS2" s="126"/>
-      <c r="BT2" s="127"/>
-      <c r="BV2" s="125" t="s">
+      <c r="BO2" s="120"/>
+      <c r="BP2" s="120"/>
+      <c r="BQ2" s="120"/>
+      <c r="BR2" s="120"/>
+      <c r="BS2" s="120"/>
+      <c r="BT2" s="121"/>
+      <c r="BV2" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="BW2" s="126"/>
-      <c r="BX2" s="126"/>
-      <c r="BY2" s="126"/>
-      <c r="BZ2" s="126"/>
-      <c r="CA2" s="126"/>
-      <c r="CB2" s="127"/>
+      <c r="BW2" s="120"/>
+      <c r="BX2" s="120"/>
+      <c r="BY2" s="120"/>
+      <c r="BZ2" s="120"/>
+      <c r="CA2" s="120"/>
+      <c r="CB2" s="121"/>
     </row>
     <row r="3" spans="2:80" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="124" t="s">
+      <c r="B3" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="124"/>
-      <c r="G3" s="113" t="s">
+      <c r="F3" s="127"/>
+      <c r="G3" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="114"/>
-      <c r="J3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="123" t="s">
+      <c r="H3" s="118"/>
+      <c r="J3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="123"/>
-      <c r="O3" s="121" t="s">
+      <c r="N3" s="122"/>
+      <c r="O3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="122"/>
-      <c r="R3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="120"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="123" t="s">
+      <c r="P3" s="124"/>
+      <c r="R3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="123"/>
-      <c r="W3" s="121" t="s">
+      <c r="V3" s="122"/>
+      <c r="W3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="122"/>
-      <c r="Z3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="120"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="123" t="s">
+      <c r="X3" s="124"/>
+      <c r="Z3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="121" t="s">
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="122"/>
-      <c r="AH3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="120"/>
-      <c r="AJ3" s="120"/>
-      <c r="AK3" s="123" t="s">
+      <c r="AF3" s="124"/>
+      <c r="AH3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="126"/>
+      <c r="AJ3" s="126"/>
+      <c r="AK3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="123"/>
-      <c r="AM3" s="121" t="s">
+      <c r="AL3" s="122"/>
+      <c r="AM3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="122"/>
-      <c r="AP3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="120"/>
-      <c r="AR3" s="120"/>
-      <c r="AS3" s="123" t="s">
+      <c r="AN3" s="124"/>
+      <c r="AP3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="126"/>
+      <c r="AR3" s="126"/>
+      <c r="AS3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="123"/>
-      <c r="AU3" s="121" t="s">
+      <c r="AT3" s="122"/>
+      <c r="AU3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="122"/>
-      <c r="AX3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="120"/>
-      <c r="AZ3" s="120"/>
-      <c r="BA3" s="123" t="s">
+      <c r="AV3" s="124"/>
+      <c r="AX3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="126"/>
+      <c r="AZ3" s="126"/>
+      <c r="BA3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="BB3" s="123"/>
-      <c r="BC3" s="121" t="s">
+      <c r="BB3" s="122"/>
+      <c r="BC3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="122"/>
-      <c r="BF3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="120"/>
-      <c r="BH3" s="120"/>
-      <c r="BI3" s="123" t="s">
+      <c r="BD3" s="124"/>
+      <c r="BF3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="126"/>
+      <c r="BH3" s="126"/>
+      <c r="BI3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="BJ3" s="123"/>
-      <c r="BK3" s="121" t="s">
+      <c r="BJ3" s="122"/>
+      <c r="BK3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="122"/>
-      <c r="BN3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="120"/>
-      <c r="BP3" s="120"/>
-      <c r="BQ3" s="123" t="s">
+      <c r="BL3" s="124"/>
+      <c r="BN3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="126"/>
+      <c r="BP3" s="126"/>
+      <c r="BQ3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="123"/>
-      <c r="BS3" s="121" t="s">
+      <c r="BR3" s="122"/>
+      <c r="BS3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="122"/>
-      <c r="BV3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="120"/>
-      <c r="BX3" s="120"/>
-      <c r="BY3" s="123" t="s">
+      <c r="BT3" s="124"/>
+      <c r="BV3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="126"/>
+      <c r="BX3" s="126"/>
+      <c r="BY3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="BZ3" s="123"/>
-      <c r="CA3" s="121" t="s">
+      <c r="BZ3" s="122"/>
+      <c r="CA3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="122"/>
+      <c r="CB3" s="124"/>
     </row>
     <row r="4" spans="2:80" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -29918,12 +29918,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="AX2:BD2"/>
-    <mergeCell ref="BF2:BL2"/>
-    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="BN2:BT2"/>
     <mergeCell ref="BV2:CB2"/>
     <mergeCell ref="AH2:AN2"/>
@@ -29940,24 +29952,12 @@
     <mergeCell ref="AX3:AZ3"/>
     <mergeCell ref="BA3:BB3"/>
     <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="AX2:BD2"/>
+    <mergeCell ref="BF2:BL2"/>
+    <mergeCell ref="AA2:AE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31204,19 +31204,19 @@
       <c r="L39" s="130"/>
     </row>
     <row r="40" spans="6:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="F40" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="123" t="s">
+      <c r="F40" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="126"/>
+      <c r="H40" s="126"/>
+      <c r="I40" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="123"/>
-      <c r="K40" s="121" t="s">
+      <c r="J40" s="122"/>
+      <c r="K40" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="122"/>
+      <c r="L40" s="124"/>
     </row>
     <row r="41" spans="6:23" ht="19" x14ac:dyDescent="0.25">
       <c r="F41" s="14" t="s">
@@ -32131,283 +32131,283 @@
       <c r="CJ2" s="108" t="s">
         <v>185</v>
       </c>
-      <c r="CL2" s="125" t="s">
+      <c r="CL2" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="CM2" s="126"/>
-      <c r="CN2" s="126"/>
-      <c r="CO2" s="126"/>
-      <c r="CP2" s="126"/>
-      <c r="CQ2" s="126"/>
-      <c r="CR2" s="127"/>
-      <c r="CT2" s="125" t="s">
+      <c r="CM2" s="120"/>
+      <c r="CN2" s="120"/>
+      <c r="CO2" s="120"/>
+      <c r="CP2" s="120"/>
+      <c r="CQ2" s="120"/>
+      <c r="CR2" s="121"/>
+      <c r="CT2" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="CU2" s="126"/>
-      <c r="CV2" s="126"/>
-      <c r="CW2" s="126"/>
-      <c r="CX2" s="126"/>
-      <c r="CY2" s="126"/>
-      <c r="CZ2" s="127"/>
-      <c r="DB2" s="125" t="s">
+      <c r="CU2" s="120"/>
+      <c r="CV2" s="120"/>
+      <c r="CW2" s="120"/>
+      <c r="CX2" s="120"/>
+      <c r="CY2" s="120"/>
+      <c r="CZ2" s="121"/>
+      <c r="DB2" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="DC2" s="126"/>
-      <c r="DD2" s="126"/>
-      <c r="DE2" s="126"/>
-      <c r="DF2" s="126"/>
-      <c r="DG2" s="126"/>
-      <c r="DH2" s="127"/>
-      <c r="DJ2" s="125" t="s">
+      <c r="DC2" s="120"/>
+      <c r="DD2" s="120"/>
+      <c r="DE2" s="120"/>
+      <c r="DF2" s="120"/>
+      <c r="DG2" s="120"/>
+      <c r="DH2" s="121"/>
+      <c r="DJ2" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="DK2" s="126"/>
-      <c r="DL2" s="126"/>
-      <c r="DM2" s="126"/>
-      <c r="DN2" s="126"/>
-      <c r="DO2" s="126"/>
-      <c r="DP2" s="127"/>
-      <c r="DR2" s="125" t="s">
+      <c r="DK2" s="120"/>
+      <c r="DL2" s="120"/>
+      <c r="DM2" s="120"/>
+      <c r="DN2" s="120"/>
+      <c r="DO2" s="120"/>
+      <c r="DP2" s="121"/>
+      <c r="DR2" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="DS2" s="126"/>
-      <c r="DT2" s="126"/>
-      <c r="DU2" s="126"/>
-      <c r="DV2" s="126"/>
-      <c r="DW2" s="126"/>
-      <c r="DX2" s="127"/>
-      <c r="DZ2" s="125" t="s">
+      <c r="DS2" s="120"/>
+      <c r="DT2" s="120"/>
+      <c r="DU2" s="120"/>
+      <c r="DV2" s="120"/>
+      <c r="DW2" s="120"/>
+      <c r="DX2" s="121"/>
+      <c r="DZ2" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="EA2" s="126"/>
-      <c r="EB2" s="126"/>
-      <c r="EC2" s="126"/>
-      <c r="ED2" s="126"/>
-      <c r="EE2" s="126"/>
-      <c r="EF2" s="127"/>
+      <c r="EA2" s="120"/>
+      <c r="EB2" s="120"/>
+      <c r="EC2" s="120"/>
+      <c r="ED2" s="120"/>
+      <c r="EE2" s="120"/>
+      <c r="EF2" s="121"/>
     </row>
     <row r="3" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="123" t="s">
+      <c r="B3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="123"/>
-      <c r="G3" s="121" t="s">
+      <c r="F3" s="122"/>
+      <c r="G3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="122"/>
-      <c r="J3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="123" t="s">
+      <c r="H3" s="124"/>
+      <c r="J3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="123"/>
-      <c r="O3" s="121" t="s">
+      <c r="N3" s="122"/>
+      <c r="O3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="122"/>
-      <c r="R3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="120"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="123" t="s">
+      <c r="P3" s="124"/>
+      <c r="R3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="123"/>
-      <c r="W3" s="121" t="s">
+      <c r="V3" s="122"/>
+      <c r="W3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="122"/>
-      <c r="Z3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="120"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="123" t="s">
+      <c r="X3" s="124"/>
+      <c r="Z3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="121" t="s">
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="122"/>
-      <c r="AH3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="120"/>
-      <c r="AJ3" s="120"/>
-      <c r="AK3" s="123" t="s">
+      <c r="AF3" s="124"/>
+      <c r="AH3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="126"/>
+      <c r="AJ3" s="126"/>
+      <c r="AK3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="123"/>
-      <c r="AM3" s="121" t="s">
+      <c r="AL3" s="122"/>
+      <c r="AM3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="122"/>
-      <c r="AP3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="120"/>
-      <c r="AR3" s="120"/>
-      <c r="AS3" s="123" t="s">
+      <c r="AN3" s="124"/>
+      <c r="AP3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="126"/>
+      <c r="AR3" s="126"/>
+      <c r="AS3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="123"/>
-      <c r="AU3" s="121" t="s">
+      <c r="AT3" s="122"/>
+      <c r="AU3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="122"/>
-      <c r="AX3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="120"/>
-      <c r="AZ3" s="120"/>
-      <c r="BA3" s="123" t="s">
+      <c r="AV3" s="124"/>
+      <c r="AX3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="126"/>
+      <c r="AZ3" s="126"/>
+      <c r="BA3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="BB3" s="123"/>
-      <c r="BC3" s="121" t="s">
+      <c r="BB3" s="122"/>
+      <c r="BC3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="122"/>
-      <c r="BF3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="120"/>
-      <c r="BH3" s="120"/>
-      <c r="BI3" s="123" t="s">
+      <c r="BD3" s="124"/>
+      <c r="BF3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="126"/>
+      <c r="BH3" s="126"/>
+      <c r="BI3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="BJ3" s="123"/>
-      <c r="BK3" s="121" t="s">
+      <c r="BJ3" s="122"/>
+      <c r="BK3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="122"/>
-      <c r="BN3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="120"/>
-      <c r="BP3" s="120"/>
-      <c r="BQ3" s="123" t="s">
+      <c r="BL3" s="124"/>
+      <c r="BN3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="126"/>
+      <c r="BP3" s="126"/>
+      <c r="BQ3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="123"/>
-      <c r="BS3" s="121" t="s">
+      <c r="BR3" s="122"/>
+      <c r="BS3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="122"/>
-      <c r="BV3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="120"/>
-      <c r="BX3" s="120"/>
-      <c r="BY3" s="123" t="s">
+      <c r="BT3" s="124"/>
+      <c r="BV3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="126"/>
+      <c r="BX3" s="126"/>
+      <c r="BY3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="BZ3" s="123"/>
-      <c r="CA3" s="121" t="s">
+      <c r="BZ3" s="122"/>
+      <c r="CA3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="122"/>
-      <c r="CD3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="120"/>
-      <c r="CF3" s="120"/>
-      <c r="CG3" s="123" t="s">
+      <c r="CB3" s="124"/>
+      <c r="CD3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="126"/>
+      <c r="CF3" s="126"/>
+      <c r="CG3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="CH3" s="123"/>
-      <c r="CI3" s="121" t="s">
+      <c r="CH3" s="122"/>
+      <c r="CI3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="CJ3" s="122"/>
-      <c r="CL3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="120"/>
-      <c r="CN3" s="120"/>
-      <c r="CO3" s="123" t="s">
+      <c r="CJ3" s="124"/>
+      <c r="CL3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="126"/>
+      <c r="CN3" s="126"/>
+      <c r="CO3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="CP3" s="123"/>
-      <c r="CQ3" s="121" t="s">
+      <c r="CP3" s="122"/>
+      <c r="CQ3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="CR3" s="122"/>
-      <c r="CT3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="120"/>
-      <c r="CV3" s="120"/>
-      <c r="CW3" s="123" t="s">
+      <c r="CR3" s="124"/>
+      <c r="CT3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="126"/>
+      <c r="CV3" s="126"/>
+      <c r="CW3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="CX3" s="123"/>
-      <c r="CY3" s="121" t="s">
+      <c r="CX3" s="122"/>
+      <c r="CY3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="CZ3" s="122"/>
-      <c r="DB3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="DC3" s="120"/>
-      <c r="DD3" s="120"/>
-      <c r="DE3" s="123" t="s">
+      <c r="CZ3" s="124"/>
+      <c r="DB3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="126"/>
+      <c r="DD3" s="126"/>
+      <c r="DE3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="DF3" s="123"/>
-      <c r="DG3" s="121" t="s">
+      <c r="DF3" s="122"/>
+      <c r="DG3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="DH3" s="122"/>
-      <c r="DJ3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="DK3" s="120"/>
-      <c r="DL3" s="120"/>
-      <c r="DM3" s="123" t="s">
+      <c r="DH3" s="124"/>
+      <c r="DJ3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="126"/>
+      <c r="DL3" s="126"/>
+      <c r="DM3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="DN3" s="123"/>
-      <c r="DO3" s="121" t="s">
+      <c r="DN3" s="122"/>
+      <c r="DO3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="DP3" s="122"/>
-      <c r="DR3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS3" s="120"/>
-      <c r="DT3" s="120"/>
-      <c r="DU3" s="123" t="s">
+      <c r="DP3" s="124"/>
+      <c r="DR3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS3" s="126"/>
+      <c r="DT3" s="126"/>
+      <c r="DU3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="DV3" s="123"/>
-      <c r="DW3" s="121" t="s">
+      <c r="DV3" s="122"/>
+      <c r="DW3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="DX3" s="122"/>
-      <c r="DZ3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="EA3" s="120"/>
-      <c r="EB3" s="120"/>
-      <c r="EC3" s="123" t="s">
+      <c r="DX3" s="124"/>
+      <c r="DZ3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="126"/>
+      <c r="EB3" s="126"/>
+      <c r="EC3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="ED3" s="123"/>
-      <c r="EE3" s="121" t="s">
+      <c r="ED3" s="122"/>
+      <c r="EE3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="EF3" s="122"/>
+      <c r="EF3" s="124"/>
     </row>
     <row r="4" spans="2:136" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -36578,30 +36578,34 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AI2:AM2"/>
-    <mergeCell ref="AQ2:AU2"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="DZ2:EF2"/>
+    <mergeCell ref="DZ3:EB3"/>
+    <mergeCell ref="EC3:ED3"/>
+    <mergeCell ref="EE3:EF3"/>
+    <mergeCell ref="DJ2:DP2"/>
+    <mergeCell ref="DJ3:DL3"/>
+    <mergeCell ref="DM3:DN3"/>
+    <mergeCell ref="DO3:DP3"/>
+    <mergeCell ref="DR2:DX2"/>
+    <mergeCell ref="DR3:DT3"/>
+    <mergeCell ref="DU3:DV3"/>
+    <mergeCell ref="DW3:DX3"/>
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="CT3:CV3"/>
+    <mergeCell ref="CW3:CX3"/>
+    <mergeCell ref="CY3:CZ3"/>
+    <mergeCell ref="DB2:DH2"/>
+    <mergeCell ref="DB3:DD3"/>
+    <mergeCell ref="DE3:DF3"/>
+    <mergeCell ref="DG3:DH3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="CG3:CH3"/>
+    <mergeCell ref="CI3:CJ3"/>
+    <mergeCell ref="CL2:CR2"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="CQ3:CR3"/>
+    <mergeCell ref="CE2:CI2"/>
     <mergeCell ref="CA3:CB3"/>
     <mergeCell ref="BO2:BS2"/>
     <mergeCell ref="BW2:CA2"/>
@@ -36618,34 +36622,30 @@
     <mergeCell ref="BS3:BT3"/>
     <mergeCell ref="BV3:BX3"/>
     <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="CG3:CH3"/>
-    <mergeCell ref="CI3:CJ3"/>
-    <mergeCell ref="CL2:CR2"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="CQ3:CR3"/>
-    <mergeCell ref="CE2:CI2"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="CT3:CV3"/>
-    <mergeCell ref="CW3:CX3"/>
-    <mergeCell ref="CY3:CZ3"/>
-    <mergeCell ref="DB2:DH2"/>
-    <mergeCell ref="DB3:DD3"/>
-    <mergeCell ref="DE3:DF3"/>
-    <mergeCell ref="DG3:DH3"/>
-    <mergeCell ref="DZ2:EF2"/>
-    <mergeCell ref="DZ3:EB3"/>
-    <mergeCell ref="EC3:ED3"/>
-    <mergeCell ref="EE3:EF3"/>
-    <mergeCell ref="DJ2:DP2"/>
-    <mergeCell ref="DJ3:DL3"/>
-    <mergeCell ref="DM3:DN3"/>
-    <mergeCell ref="DO3:DP3"/>
-    <mergeCell ref="DR2:DX2"/>
-    <mergeCell ref="DR3:DT3"/>
-    <mergeCell ref="DU3:DV3"/>
-    <mergeCell ref="DW3:DX3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AI2:AM2"/>
+    <mergeCell ref="AQ2:AU2"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36655,8 +36655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:V59"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W30" sqref="W30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36868,7 +36868,7 @@
         <v>101</v>
       </c>
       <c r="V5" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="19" x14ac:dyDescent="0.25">
@@ -37168,7 +37168,7 @@
         <v>107</v>
       </c>
       <c r="V11" s="22">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="19" x14ac:dyDescent="0.25">
@@ -37613,7 +37613,7 @@
         <v>105</v>
       </c>
       <c r="V20" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="2:22" ht="19" x14ac:dyDescent="0.25">
@@ -37761,7 +37761,7 @@
         <v>103</v>
       </c>
       <c r="V29" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.2">
@@ -37769,7 +37769,7 @@
         <v>104</v>
       </c>
       <c r="V30" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.2">
@@ -37785,7 +37785,7 @@
         <v>106</v>
       </c>
       <c r="V32" s="22">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="5:22" x14ac:dyDescent="0.2">
@@ -37804,30 +37804,30 @@
     </row>
     <row r="36" spans="5:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="5:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="E37" s="125" t="s">
+      <c r="E37" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="126"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="126"/>
-      <c r="K37" s="127"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="120"/>
+      <c r="J37" s="120"/>
+      <c r="K37" s="121"/>
     </row>
     <row r="38" spans="5:22" ht="19" x14ac:dyDescent="0.25">
-      <c r="E38" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="120"/>
-      <c r="G38" s="120"/>
-      <c r="H38" s="123" t="s">
+      <c r="E38" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="126"/>
+      <c r="G38" s="126"/>
+      <c r="H38" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="123"/>
-      <c r="J38" s="121" t="s">
+      <c r="I38" s="122"/>
+      <c r="J38" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="K38" s="122"/>
+      <c r="K38" s="124"/>
     </row>
     <row r="39" spans="5:22" ht="19" x14ac:dyDescent="0.25">
       <c r="E39" s="14" t="s">
@@ -38544,382 +38544,382 @@
   <sheetData>
     <row r="1" spans="2:136" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B2" s="125" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="127"/>
-      <c r="J2" s="125" t="s">
+      <c r="B2" s="119" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="121"/>
+      <c r="J2" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="127"/>
-      <c r="R2" s="125" t="s">
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="121"/>
+      <c r="R2" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
-      <c r="X2" s="127"/>
-      <c r="Z2" s="125" t="s">
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="121"/>
+      <c r="Z2" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="126"/>
-      <c r="AB2" s="126"/>
-      <c r="AC2" s="126"/>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="127"/>
-      <c r="AH2" s="125" t="s">
+      <c r="AA2" s="120"/>
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="120"/>
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AH2" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="AI2" s="126"/>
-      <c r="AJ2" s="126"/>
-      <c r="AK2" s="126"/>
-      <c r="AL2" s="126"/>
-      <c r="AM2" s="126"/>
-      <c r="AN2" s="127"/>
-      <c r="AP2" s="125" t="s">
+      <c r="AI2" s="120"/>
+      <c r="AJ2" s="120"/>
+      <c r="AK2" s="120"/>
+      <c r="AL2" s="120"/>
+      <c r="AM2" s="120"/>
+      <c r="AN2" s="121"/>
+      <c r="AP2" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="AQ2" s="126"/>
-      <c r="AR2" s="126"/>
-      <c r="AS2" s="126"/>
-      <c r="AT2" s="126"/>
-      <c r="AU2" s="126"/>
-      <c r="AV2" s="127"/>
-      <c r="AX2" s="125" t="s">
+      <c r="AQ2" s="120"/>
+      <c r="AR2" s="120"/>
+      <c r="AS2" s="120"/>
+      <c r="AT2" s="120"/>
+      <c r="AU2" s="120"/>
+      <c r="AV2" s="121"/>
+      <c r="AX2" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="AY2" s="126"/>
-      <c r="AZ2" s="126"/>
-      <c r="BA2" s="126"/>
-      <c r="BB2" s="126"/>
-      <c r="BC2" s="126"/>
-      <c r="BD2" s="127"/>
-      <c r="BF2" s="125" t="s">
+      <c r="AY2" s="120"/>
+      <c r="AZ2" s="120"/>
+      <c r="BA2" s="120"/>
+      <c r="BB2" s="120"/>
+      <c r="BC2" s="120"/>
+      <c r="BD2" s="121"/>
+      <c r="BF2" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="BG2" s="126"/>
-      <c r="BH2" s="126"/>
-      <c r="BI2" s="126"/>
-      <c r="BJ2" s="126"/>
-      <c r="BK2" s="126"/>
-      <c r="BL2" s="127"/>
-      <c r="BN2" s="125" t="s">
+      <c r="BG2" s="120"/>
+      <c r="BH2" s="120"/>
+      <c r="BI2" s="120"/>
+      <c r="BJ2" s="120"/>
+      <c r="BK2" s="120"/>
+      <c r="BL2" s="121"/>
+      <c r="BN2" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="BO2" s="126"/>
-      <c r="BP2" s="126"/>
-      <c r="BQ2" s="126"/>
-      <c r="BR2" s="126"/>
-      <c r="BS2" s="126"/>
-      <c r="BT2" s="127"/>
-      <c r="BV2" s="125" t="s">
+      <c r="BO2" s="120"/>
+      <c r="BP2" s="120"/>
+      <c r="BQ2" s="120"/>
+      <c r="BR2" s="120"/>
+      <c r="BS2" s="120"/>
+      <c r="BT2" s="121"/>
+      <c r="BV2" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="BW2" s="126"/>
-      <c r="BX2" s="126"/>
-      <c r="BY2" s="126"/>
-      <c r="BZ2" s="126"/>
-      <c r="CA2" s="126"/>
-      <c r="CB2" s="127"/>
-      <c r="CD2" s="125" t="s">
+      <c r="BW2" s="120"/>
+      <c r="BX2" s="120"/>
+      <c r="BY2" s="120"/>
+      <c r="BZ2" s="120"/>
+      <c r="CA2" s="120"/>
+      <c r="CB2" s="121"/>
+      <c r="CD2" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="CE2" s="126"/>
-      <c r="CF2" s="126"/>
-      <c r="CG2" s="126"/>
-      <c r="CH2" s="126"/>
-      <c r="CI2" s="126"/>
-      <c r="CJ2" s="127"/>
-      <c r="CL2" s="125" t="s">
+      <c r="CE2" s="120"/>
+      <c r="CF2" s="120"/>
+      <c r="CG2" s="120"/>
+      <c r="CH2" s="120"/>
+      <c r="CI2" s="120"/>
+      <c r="CJ2" s="121"/>
+      <c r="CL2" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="CM2" s="126"/>
-      <c r="CN2" s="126"/>
-      <c r="CO2" s="126"/>
-      <c r="CP2" s="126"/>
-      <c r="CQ2" s="126"/>
-      <c r="CR2" s="127"/>
-      <c r="CT2" s="125" t="s">
+      <c r="CM2" s="120"/>
+      <c r="CN2" s="120"/>
+      <c r="CO2" s="120"/>
+      <c r="CP2" s="120"/>
+      <c r="CQ2" s="120"/>
+      <c r="CR2" s="121"/>
+      <c r="CT2" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="CU2" s="126"/>
-      <c r="CV2" s="126"/>
-      <c r="CW2" s="126"/>
-      <c r="CX2" s="126"/>
-      <c r="CY2" s="126"/>
-      <c r="CZ2" s="127"/>
-      <c r="DB2" s="125" t="s">
+      <c r="CU2" s="120"/>
+      <c r="CV2" s="120"/>
+      <c r="CW2" s="120"/>
+      <c r="CX2" s="120"/>
+      <c r="CY2" s="120"/>
+      <c r="CZ2" s="121"/>
+      <c r="DB2" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="DC2" s="126"/>
-      <c r="DD2" s="126"/>
-      <c r="DE2" s="126"/>
-      <c r="DF2" s="126"/>
-      <c r="DG2" s="126"/>
-      <c r="DH2" s="127"/>
-      <c r="DJ2" s="125" t="s">
+      <c r="DC2" s="120"/>
+      <c r="DD2" s="120"/>
+      <c r="DE2" s="120"/>
+      <c r="DF2" s="120"/>
+      <c r="DG2" s="120"/>
+      <c r="DH2" s="121"/>
+      <c r="DJ2" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="DK2" s="126"/>
-      <c r="DL2" s="126"/>
-      <c r="DM2" s="126"/>
-      <c r="DN2" s="126"/>
-      <c r="DO2" s="126"/>
-      <c r="DP2" s="127"/>
-      <c r="DR2" s="125" t="s">
+      <c r="DK2" s="120"/>
+      <c r="DL2" s="120"/>
+      <c r="DM2" s="120"/>
+      <c r="DN2" s="120"/>
+      <c r="DO2" s="120"/>
+      <c r="DP2" s="121"/>
+      <c r="DR2" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="DS2" s="126"/>
-      <c r="DT2" s="126"/>
-      <c r="DU2" s="126"/>
-      <c r="DV2" s="126"/>
-      <c r="DW2" s="126"/>
-      <c r="DX2" s="127"/>
-      <c r="DZ2" s="125" t="s">
+      <c r="DS2" s="120"/>
+      <c r="DT2" s="120"/>
+      <c r="DU2" s="120"/>
+      <c r="DV2" s="120"/>
+      <c r="DW2" s="120"/>
+      <c r="DX2" s="121"/>
+      <c r="DZ2" s="119" t="s">
         <v>42</v>
       </c>
-      <c r="EA2" s="126"/>
-      <c r="EB2" s="126"/>
-      <c r="EC2" s="126"/>
-      <c r="ED2" s="126"/>
-      <c r="EE2" s="126"/>
-      <c r="EF2" s="127"/>
+      <c r="EA2" s="120"/>
+      <c r="EB2" s="120"/>
+      <c r="EC2" s="120"/>
+      <c r="ED2" s="120"/>
+      <c r="EE2" s="120"/>
+      <c r="EF2" s="121"/>
     </row>
     <row r="3" spans="2:136" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="123" t="s">
+      <c r="B3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="123"/>
-      <c r="G3" s="121" t="s">
+      <c r="F3" s="122"/>
+      <c r="G3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="122"/>
-      <c r="J3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="123" t="s">
+      <c r="H3" s="124"/>
+      <c r="J3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="123"/>
-      <c r="O3" s="121" t="s">
+      <c r="N3" s="122"/>
+      <c r="O3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="122"/>
-      <c r="R3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="120"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="123" t="s">
+      <c r="P3" s="124"/>
+      <c r="R3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="123"/>
-      <c r="W3" s="121" t="s">
+      <c r="V3" s="122"/>
+      <c r="W3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="122"/>
-      <c r="Z3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="120"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="123" t="s">
+      <c r="X3" s="124"/>
+      <c r="Z3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="121" t="s">
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="AF3" s="122"/>
-      <c r="AH3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="120"/>
-      <c r="AJ3" s="120"/>
-      <c r="AK3" s="123" t="s">
+      <c r="AF3" s="124"/>
+      <c r="AH3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="126"/>
+      <c r="AJ3" s="126"/>
+      <c r="AK3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="AL3" s="123"/>
-      <c r="AM3" s="121" t="s">
+      <c r="AL3" s="122"/>
+      <c r="AM3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="AN3" s="122"/>
-      <c r="AP3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="120"/>
-      <c r="AR3" s="120"/>
-      <c r="AS3" s="123" t="s">
+      <c r="AN3" s="124"/>
+      <c r="AP3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="126"/>
+      <c r="AR3" s="126"/>
+      <c r="AS3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="AT3" s="123"/>
-      <c r="AU3" s="121" t="s">
+      <c r="AT3" s="122"/>
+      <c r="AU3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="AV3" s="122"/>
-      <c r="AX3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="120"/>
-      <c r="AZ3" s="120"/>
-      <c r="BA3" s="123" t="s">
+      <c r="AV3" s="124"/>
+      <c r="AX3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="126"/>
+      <c r="AZ3" s="126"/>
+      <c r="BA3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="BB3" s="123"/>
-      <c r="BC3" s="121" t="s">
+      <c r="BB3" s="122"/>
+      <c r="BC3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="BD3" s="122"/>
-      <c r="BF3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="120"/>
-      <c r="BH3" s="120"/>
-      <c r="BI3" s="123" t="s">
+      <c r="BD3" s="124"/>
+      <c r="BF3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="126"/>
+      <c r="BH3" s="126"/>
+      <c r="BI3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="BJ3" s="123"/>
-      <c r="BK3" s="121" t="s">
+      <c r="BJ3" s="122"/>
+      <c r="BK3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="BL3" s="122"/>
-      <c r="BN3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="120"/>
-      <c r="BP3" s="120"/>
-      <c r="BQ3" s="123" t="s">
+      <c r="BL3" s="124"/>
+      <c r="BN3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="126"/>
+      <c r="BP3" s="126"/>
+      <c r="BQ3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="BR3" s="123"/>
-      <c r="BS3" s="121" t="s">
+      <c r="BR3" s="122"/>
+      <c r="BS3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="BT3" s="122"/>
-      <c r="BV3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="120"/>
-      <c r="BX3" s="120"/>
-      <c r="BY3" s="123" t="s">
+      <c r="BT3" s="124"/>
+      <c r="BV3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="126"/>
+      <c r="BX3" s="126"/>
+      <c r="BY3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="BZ3" s="123"/>
-      <c r="CA3" s="121" t="s">
+      <c r="BZ3" s="122"/>
+      <c r="CA3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="CB3" s="122"/>
-      <c r="CD3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="120"/>
-      <c r="CF3" s="120"/>
-      <c r="CG3" s="123" t="s">
+      <c r="CB3" s="124"/>
+      <c r="CD3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="126"/>
+      <c r="CF3" s="126"/>
+      <c r="CG3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="CH3" s="123"/>
-      <c r="CI3" s="121" t="s">
+      <c r="CH3" s="122"/>
+      <c r="CI3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="CJ3" s="122"/>
-      <c r="CL3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="120"/>
-      <c r="CN3" s="120"/>
-      <c r="CO3" s="123" t="s">
+      <c r="CJ3" s="124"/>
+      <c r="CL3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="126"/>
+      <c r="CN3" s="126"/>
+      <c r="CO3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="CP3" s="123"/>
-      <c r="CQ3" s="121" t="s">
+      <c r="CP3" s="122"/>
+      <c r="CQ3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="CR3" s="122"/>
-      <c r="CT3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="120"/>
-      <c r="CV3" s="120"/>
-      <c r="CW3" s="123" t="s">
+      <c r="CR3" s="124"/>
+      <c r="CT3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="126"/>
+      <c r="CV3" s="126"/>
+      <c r="CW3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="CX3" s="123"/>
-      <c r="CY3" s="121" t="s">
+      <c r="CX3" s="122"/>
+      <c r="CY3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="CZ3" s="122"/>
-      <c r="DB3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="DC3" s="120"/>
-      <c r="DD3" s="120"/>
-      <c r="DE3" s="123" t="s">
+      <c r="CZ3" s="124"/>
+      <c r="DB3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="126"/>
+      <c r="DD3" s="126"/>
+      <c r="DE3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="DF3" s="123"/>
-      <c r="DG3" s="121" t="s">
+      <c r="DF3" s="122"/>
+      <c r="DG3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="DH3" s="122"/>
-      <c r="DJ3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="DK3" s="120"/>
-      <c r="DL3" s="120"/>
-      <c r="DM3" s="123" t="s">
+      <c r="DH3" s="124"/>
+      <c r="DJ3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="126"/>
+      <c r="DL3" s="126"/>
+      <c r="DM3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="DN3" s="123"/>
-      <c r="DO3" s="121" t="s">
+      <c r="DN3" s="122"/>
+      <c r="DO3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="DP3" s="122"/>
-      <c r="DR3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS3" s="120"/>
-      <c r="DT3" s="120"/>
-      <c r="DU3" s="123" t="s">
+      <c r="DP3" s="124"/>
+      <c r="DR3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS3" s="126"/>
+      <c r="DT3" s="126"/>
+      <c r="DU3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="DV3" s="123"/>
-      <c r="DW3" s="121" t="s">
+      <c r="DV3" s="122"/>
+      <c r="DW3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="DX3" s="122"/>
-      <c r="DZ3" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="EA3" s="120"/>
-      <c r="EB3" s="120"/>
-      <c r="EC3" s="123" t="s">
+      <c r="DX3" s="124"/>
+      <c r="DZ3" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA3" s="126"/>
+      <c r="EB3" s="126"/>
+      <c r="EC3" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="ED3" s="123"/>
-      <c r="EE3" s="121" t="s">
+      <c r="ED3" s="122"/>
+      <c r="EE3" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="EF3" s="122"/>
+      <c r="EF3" s="124"/>
     </row>
     <row r="4" spans="2:136" ht="19" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
@@ -42692,6 +42692,62 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="DW3:DX3"/>
+    <mergeCell ref="DZ3:EB3"/>
+    <mergeCell ref="EC3:ED3"/>
+    <mergeCell ref="EE3:EF3"/>
+    <mergeCell ref="DG3:DH3"/>
+    <mergeCell ref="DJ3:DL3"/>
+    <mergeCell ref="DM3:DN3"/>
+    <mergeCell ref="DO3:DP3"/>
+    <mergeCell ref="DR3:DT3"/>
+    <mergeCell ref="DU3:DV3"/>
+    <mergeCell ref="DE3:DF3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="CD3:CF3"/>
+    <mergeCell ref="CG3:CH3"/>
+    <mergeCell ref="CI3:CJ3"/>
+    <mergeCell ref="CL3:CN3"/>
+    <mergeCell ref="CO3:CP3"/>
+    <mergeCell ref="CQ3:CR3"/>
+    <mergeCell ref="CT3:CV3"/>
+    <mergeCell ref="CW3:CX3"/>
+    <mergeCell ref="CY3:CZ3"/>
+    <mergeCell ref="DB3:DD3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="AU3:AV3"/>
+    <mergeCell ref="AX3:AZ3"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BN3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="BV3:BX3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AH3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="CT2:CZ2"/>
+    <mergeCell ref="DB2:DH2"/>
+    <mergeCell ref="DJ2:DP2"/>
+    <mergeCell ref="DR2:DX2"/>
+    <mergeCell ref="DZ2:EF2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
     <mergeCell ref="CL2:CR2"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="J2:P2"/>
@@ -42704,62 +42760,6 @@
     <mergeCell ref="BN2:BT2"/>
     <mergeCell ref="BV2:CB2"/>
     <mergeCell ref="CD2:CJ2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="CT2:CZ2"/>
-    <mergeCell ref="DB2:DH2"/>
-    <mergeCell ref="DJ2:DP2"/>
-    <mergeCell ref="DR2:DX2"/>
-    <mergeCell ref="DZ2:EF2"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="AU3:AV3"/>
-    <mergeCell ref="AX3:AZ3"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BN3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="BV3:BX3"/>
-    <mergeCell ref="DE3:DF3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="CD3:CF3"/>
-    <mergeCell ref="CG3:CH3"/>
-    <mergeCell ref="CI3:CJ3"/>
-    <mergeCell ref="CL3:CN3"/>
-    <mergeCell ref="CO3:CP3"/>
-    <mergeCell ref="CQ3:CR3"/>
-    <mergeCell ref="CT3:CV3"/>
-    <mergeCell ref="CW3:CX3"/>
-    <mergeCell ref="CY3:CZ3"/>
-    <mergeCell ref="DB3:DD3"/>
-    <mergeCell ref="DW3:DX3"/>
-    <mergeCell ref="DZ3:EB3"/>
-    <mergeCell ref="EC3:ED3"/>
-    <mergeCell ref="EE3:EF3"/>
-    <mergeCell ref="DG3:DH3"/>
-    <mergeCell ref="DJ3:DL3"/>
-    <mergeCell ref="DM3:DN3"/>
-    <mergeCell ref="DO3:DP3"/>
-    <mergeCell ref="DR3:DT3"/>
-    <mergeCell ref="DU3:DV3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43637,30 +43637,30 @@
     </row>
     <row r="38" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="3:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="C39" s="125" t="s">
+      <c r="C39" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="127"/>
+      <c r="D39" s="120"/>
+      <c r="E39" s="120"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="120"/>
+      <c r="H39" s="120"/>
+      <c r="I39" s="121"/>
     </row>
     <row r="40" spans="3:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="C40" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="120"/>
-      <c r="E40" s="120"/>
-      <c r="F40" s="123" t="s">
+      <c r="C40" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="123"/>
-      <c r="H40" s="121" t="s">
+      <c r="G40" s="122"/>
+      <c r="H40" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="I40" s="122"/>
+      <c r="I40" s="124"/>
     </row>
     <row r="41" spans="3:9" ht="19" x14ac:dyDescent="0.25">
       <c r="C41" s="14" t="s">
@@ -45382,19 +45382,19 @@
       <c r="L39" s="130"/>
     </row>
     <row r="40" spans="6:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="F40" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="120"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="123" t="s">
+      <c r="F40" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="126"/>
+      <c r="H40" s="126"/>
+      <c r="I40" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="123"/>
-      <c r="K40" s="121" t="s">
+      <c r="J40" s="122"/>
+      <c r="K40" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="L40" s="122"/>
+      <c r="L40" s="124"/>
     </row>
     <row r="41" spans="6:12" ht="19" x14ac:dyDescent="0.25">
       <c r="F41" s="14" t="s">
